--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassic\Trunk\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="1536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="1531">
   <si>
     <t>夜色</t>
   </si>
@@ -3420,10 +3420,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>s.DHit&gt;d.DHit</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>非攻击技能</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4183,14 +4179,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>s.AddSpecialMark(SkillMarks.HitHigh);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.AddSpecialMark(SkillMarks.HitLow);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>单位命中取命中和回避的较高值</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5114,18 +5102,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>s.Hit.Source*=1.02;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>每次击中目标永久提升2%命中</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>if(!deadHit){d.Spd.Source*=0.8;d.Hit.Source*=0.8;}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>s.Owner.MpCost+=3;s.Rival.MpCost+=3;s.Owner.PpCost+=3;s.Rival.PpCost+=3;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5275,10 +5255,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>s.Atk.Source*=1.15;s.Hit.Source*=1.15;skip=true;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>s.Atk.Source*=1.2;skip=true;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5589,6 +5565,10 @@
   </si>
   <si>
     <t>召唤时提高20%魔力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Atk.Source*=1.15;skip=true;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -8859,10 +8839,10 @@
   <dimension ref="A1:R302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="J266" sqref="J266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8913,7 +8893,7 @@
         <v>894</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>722</v>
@@ -8925,13 +8905,13 @@
         <v>728</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>714</v>
@@ -8951,22 +8931,22 @@
         <v>705</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>751</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>930</v>
@@ -8978,16 +8958,16 @@
         <v>717</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>705</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>704</v>
@@ -9007,25 +8987,25 @@
         <v>708</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>752</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>893</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>724</v>
@@ -9034,16 +9014,16 @@
         <v>719</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>709</v>
@@ -9052,7 +9032,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="36">
+    <row r="4" spans="1:18" ht="24">
       <c r="A4">
         <v>54999738</v>
       </c>
@@ -9068,7 +9048,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="1" t="s">
@@ -9078,7 +9058,7 @@
         <v>718</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="N4" s="14">
         <v>0</v>
@@ -9092,7 +9072,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="48">
+    <row r="5" spans="1:18" ht="36">
       <c r="A5">
         <v>55000001</v>
       </c>
@@ -9109,7 +9089,7 @@
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="17" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="21"/>
@@ -9134,7 +9114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" ht="48">
       <c r="A6">
         <v>55000002</v>
       </c>
@@ -9160,7 +9140,7 @@
         <v>718</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="N6" s="57">
         <v>0</v>
@@ -9174,7 +9154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="36">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>55000003</v>
       </c>
@@ -9191,7 +9171,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="21" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>723</v>
@@ -9200,7 +9180,7 @@
         <v>718</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="N7" s="14">
         <v>0</v>
@@ -9844,7 +9824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="48">
+    <row r="23" spans="1:18" ht="36">
       <c r="A23">
         <v>55000019</v>
       </c>
@@ -9886,7 +9866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="27">
+    <row r="24" spans="1:18" ht="48">
       <c r="A24">
         <v>55000020</v>
       </c>
@@ -9903,7 +9883,7 @@
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="37" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="21"/>
@@ -9914,7 +9894,7 @@
         <v>718</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="N24" s="57">
         <v>0</v>
@@ -9928,15 +9908,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="24">
+    <row r="25" spans="1:18" ht="27">
       <c r="A25">
         <v>55000021</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
@@ -9946,13 +9926,13 @@
       <c r="I25" s="50"/>
       <c r="J25" s="51"/>
       <c r="K25" s="1" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="L25" s="9" t="s">
         <v>718</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="N25" s="57">
         <v>0</v>
@@ -9963,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="36">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="24">
       <c r="A26">
         <v>55000029</v>
       </c>
@@ -9982,7 +9962,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="1" t="s">
@@ -10006,7 +9986,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="24">
+    <row r="27" spans="1:18" ht="36">
       <c r="A27">
         <v>55000030</v>
       </c>
@@ -10039,7 +10019,7 @@
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="Q27" s="1">
         <v>400</v>
@@ -10061,7 +10041,7 @@
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="17"/>
@@ -10103,7 +10083,7 @@
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
       <c r="F29" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="17"/>
@@ -10132,7 +10112,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="48">
+    <row r="30" spans="1:18" ht="24">
       <c r="A30">
         <v>55000033</v>
       </c>
@@ -10140,7 +10120,7 @@
         <v>669</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -10149,7 +10129,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="21" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>723</v>
@@ -10158,7 +10138,7 @@
         <v>718</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="N30" s="14">
         <v>0</v>
@@ -10174,7 +10154,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="24">
+    <row r="31" spans="1:18" ht="48">
       <c r="A31">
         <v>55000034</v>
       </c>
@@ -10200,7 +10180,7 @@
         <v>718</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="N31" s="14">
         <v>0</v>
@@ -10214,7 +10194,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="36">
+    <row r="32" spans="1:18" ht="24">
       <c r="A32">
         <v>55000035</v>
       </c>
@@ -10230,7 +10210,7 @@
       <c r="G32" s="18"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="J32" s="21"/>
       <c r="K32" s="1" t="s">
@@ -10254,7 +10234,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="48">
+    <row r="33" spans="1:18" ht="36">
       <c r="A33">
         <v>55000036</v>
       </c>
@@ -10267,7 +10247,7 @@
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
       <c r="F33" s="34" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="17" t="s">
@@ -10282,7 +10262,7 @@
         <v>718</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N33" s="10">
         <v>0</v>
@@ -10296,7 +10276,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="36">
+    <row r="34" spans="1:18" ht="48">
       <c r="A34">
         <v>55000037</v>
       </c>
@@ -10311,7 +10291,7 @@
       <c r="F34" s="34"/>
       <c r="G34" s="18"/>
       <c r="H34" s="17" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="21"/>
@@ -10322,7 +10302,7 @@
         <v>718</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="N34" s="10">
         <v>0</v>
@@ -10351,7 +10331,7 @@
       <c r="F35" s="34"/>
       <c r="G35" s="18"/>
       <c r="H35" s="17" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="21"/>
@@ -10362,7 +10342,7 @@
         <v>718</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="N35" s="10">
         <v>0</v>
@@ -10391,7 +10371,7 @@
       <c r="F36" s="34"/>
       <c r="G36" s="18"/>
       <c r="H36" s="17" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="21"/>
@@ -10402,7 +10382,7 @@
         <v>718</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="N36" s="10">
         <v>0</v>
@@ -10431,7 +10411,7 @@
       <c r="F37" s="34"/>
       <c r="G37" s="18"/>
       <c r="H37" s="17" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="21"/>
@@ -10442,7 +10422,7 @@
         <v>718</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="N37" s="10">
         <v>0</v>
@@ -10456,7 +10436,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="48">
+    <row r="38" spans="1:18" ht="36">
       <c r="A38">
         <v>55000041</v>
       </c>
@@ -10491,7 +10471,7 @@
         <v>88</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="Q38" s="1">
         <v>2000</v>
@@ -10500,7 +10480,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="24">
+    <row r="39" spans="1:18" ht="48">
       <c r="A39">
         <v>55000042</v>
       </c>
@@ -10517,7 +10497,7 @@
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="17" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="21"/>
@@ -10528,7 +10508,7 @@
         <v>718</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="N39" s="15">
         <v>0</v>
@@ -10558,7 +10538,7 @@
       <c r="G40" s="18"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="1" t="s">
@@ -10582,7 +10562,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="36">
+    <row r="41" spans="1:18" ht="24">
       <c r="A41">
         <v>55000044</v>
       </c>
@@ -10598,7 +10578,7 @@
       <c r="G41" s="18"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="J41" s="21"/>
       <c r="K41" s="1" t="s">
@@ -10633,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="34"/>
@@ -10642,13 +10622,13 @@
       <c r="I42" s="17"/>
       <c r="J42" s="21"/>
       <c r="K42" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="L42" s="9" t="s">
         <v>718</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="N42" s="10">
         <v>0</v>
@@ -10670,7 +10650,7 @@
         <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -10679,7 +10659,7 @@
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="21" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>723</v>
@@ -10688,7 +10668,7 @@
         <v>718</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="N43" s="10">
         <v>0</v>
@@ -10702,7 +10682,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="48">
+    <row r="44" spans="1:18" ht="36">
       <c r="A44">
         <v>55000047</v>
       </c>
@@ -10715,7 +10695,7 @@
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
       <c r="F44" s="34" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="17" t="s">
@@ -10730,7 +10710,7 @@
         <v>718</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="N44" s="10">
         <v>0</v>
@@ -10744,7 +10724,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="48">
+    <row r="45" spans="1:18" ht="36">
       <c r="A45">
         <v>55000048</v>
       </c>
@@ -10755,7 +10735,7 @@
         <v>104</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="34"/>
@@ -10770,14 +10750,14 @@
         <v>718</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="N45" s="10">
         <v>56000111</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q45" s="1">
         <v>300</v>
@@ -10801,7 +10781,7 @@
       <c r="F46" s="34"/>
       <c r="G46" s="18"/>
       <c r="H46" s="17" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="21"/>
@@ -10812,7 +10792,7 @@
         <v>718</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="N46" s="15">
         <v>0</v>
@@ -10826,7 +10806,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" ht="48">
       <c r="A47">
         <v>55000050</v>
       </c>
@@ -10843,7 +10823,7 @@
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="17" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="21"/>
@@ -10854,7 +10834,7 @@
         <v>718</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="N47" s="10">
         <v>0</v>
@@ -10868,7 +10848,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="36">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>55000051</v>
       </c>
@@ -10921,7 +10901,7 @@
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
       <c r="F49" s="34" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="G49" s="18"/>
       <c r="H49" s="17" t="s">
@@ -10936,7 +10916,7 @@
         <v>718</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="N49" s="10">
         <v>0</v>
@@ -10966,7 +10946,7 @@
       <c r="G50" s="18"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="1" t="s">
@@ -11043,10 +11023,10 @@
         <v>104</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="18"/>
@@ -11060,14 +11040,14 @@
         <v>718</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="N52" s="10">
         <v>0</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q52" s="1">
         <v>500</v>
@@ -11089,7 +11069,7 @@
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
       <c r="F53" s="34" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="17" t="s">
@@ -11131,7 +11111,7 @@
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
       <c r="F54" s="34" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="17" t="s">
@@ -11173,7 +11153,7 @@
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
       <c r="F55" s="34" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="17" t="s">
@@ -11215,7 +11195,7 @@
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
       <c r="F56" s="34" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="17" t="s">
@@ -11257,7 +11237,7 @@
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
       <c r="F57" s="34" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="17" t="s">
@@ -11299,7 +11279,7 @@
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
       <c r="F58" s="34" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="17" t="s">
@@ -11341,7 +11321,7 @@
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
       <c r="F59" s="34" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="17" t="s">
@@ -11383,7 +11363,7 @@
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
       <c r="F60" s="34" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="G60" s="18"/>
       <c r="H60" s="17" t="s">
@@ -11440,7 +11420,7 @@
         <v>718</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="N61" s="10">
         <v>0</v>
@@ -11593,10 +11573,10 @@
       <c r="F65" s="34"/>
       <c r="G65" s="18"/>
       <c r="H65" s="17" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="J65" s="21"/>
       <c r="K65" s="10" t="s">
@@ -11802,7 +11782,7 @@
       <c r="G70" s="18"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="J70" s="21"/>
       <c r="K70" s="1" t="s">
@@ -11812,7 +11792,7 @@
         <v>718</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="N70" s="10">
         <v>0</v>
@@ -11834,7 +11814,7 @@
         <v>183</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -11843,7 +11823,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="22"/>
       <c r="J71" s="21" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>723</v>
@@ -11852,7 +11832,7 @@
         <v>718</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="N71" s="10">
         <v>0</v>
@@ -11861,7 +11841,7 @@
         <v>185</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="Q71" s="1">
         <v>1500</v>
@@ -11878,7 +11858,7 @@
         <v>187</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
@@ -11905,7 +11885,7 @@
         <v>185</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="Q72" s="1">
         <v>1000</v>
@@ -11931,7 +11911,7 @@
       </c>
       <c r="G73" s="18"/>
       <c r="H73" s="17" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="21"/>
@@ -11942,7 +11922,7 @@
         <v>718</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="N73" s="10">
         <v>0</v>
@@ -12014,7 +11994,7 @@
       <c r="G75" s="18"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="J75" s="21"/>
       <c r="K75" s="1" t="s">
@@ -12054,7 +12034,7 @@
       <c r="G76" s="18"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="J76" s="21"/>
       <c r="K76" s="1" t="s">
@@ -12094,7 +12074,7 @@
       <c r="G77" s="18"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J77" s="21"/>
       <c r="K77" s="1" t="s">
@@ -12104,7 +12084,7 @@
         <v>718</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="N77" s="10">
         <v>0</v>
@@ -12129,7 +12109,7 @@
         <v>101</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="E78" s="35"/>
       <c r="F78" s="34"/>
@@ -12174,7 +12154,7 @@
       <c r="G79" s="18"/>
       <c r="H79" s="17"/>
       <c r="I79" s="17" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="J79" s="21"/>
       <c r="K79" s="1" t="s">
@@ -12206,7 +12186,7 @@
         <v>184</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -12215,7 +12195,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="22"/>
       <c r="J80" s="19" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>723</v>
@@ -12224,16 +12204,16 @@
         <v>718</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="N80" s="10">
         <v>0</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="Q80" s="1">
         <v>500</v>
@@ -12258,7 +12238,7 @@
       <c r="G81" s="18"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="J81" s="21"/>
       <c r="K81" s="1" t="s">
@@ -12268,7 +12248,7 @@
         <v>718</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="N81" s="10">
         <v>0</v>
@@ -12298,7 +12278,7 @@
       <c r="G82" s="18"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="J82" s="21"/>
       <c r="K82" s="1" t="s">
@@ -12338,7 +12318,7 @@
       <c r="G83" s="18"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="J83" s="21"/>
       <c r="K83" s="1" t="s">
@@ -12377,7 +12357,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="18"/>
       <c r="H84" s="17" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="21"/>
@@ -12388,7 +12368,7 @@
         <v>718</v>
       </c>
       <c r="M84" s="15" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="N84" s="15">
         <v>0</v>
@@ -12402,7 +12382,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="36">
+    <row r="85" spans="1:18" ht="48">
       <c r="A85">
         <v>55000097</v>
       </c>
@@ -12413,7 +12393,7 @@
         <v>104</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="E85" s="35"/>
       <c r="F85" s="34"/>
@@ -12428,14 +12408,14 @@
         <v>718</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="N85" s="10">
         <v>56000101</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q85" s="1">
         <v>80</v>
@@ -12457,12 +12437,12 @@
       <c r="D86" s="35"/>
       <c r="E86" s="35"/>
       <c r="F86" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G86" s="18"/>
       <c r="H86" s="17"/>
       <c r="I86" s="17" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="J86" s="21"/>
       <c r="K86" s="1" t="s">
@@ -12472,7 +12452,7 @@
         <v>718</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="N86" s="10">
         <v>0</v>
@@ -12481,7 +12461,7 @@
         <v>946</v>
       </c>
       <c r="P86" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q86" s="1">
         <f>800*3*2/12</f>
@@ -12502,7 +12482,7 @@
         <v>76</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E87" s="35"/>
       <c r="F87" s="34"/>
@@ -12592,7 +12572,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="21" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>723</v>
@@ -12601,7 +12581,7 @@
         <v>718</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="N89" s="10">
         <v>0</v>
@@ -12632,7 +12612,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
       <c r="J90" s="21" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>723</v>
@@ -12641,7 +12621,7 @@
         <v>718</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="N90" s="10">
         <v>0</v>
@@ -12666,7 +12646,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E91" s="35"/>
       <c r="F91" s="34"/>
@@ -12681,7 +12661,7 @@
         <v>718</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="N91" s="1">
         <v>0</v>
@@ -12750,12 +12730,12 @@
       <c r="D93" s="35"/>
       <c r="E93" s="35"/>
       <c r="F93" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G93" s="18"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="J93" s="21"/>
       <c r="K93" s="1" t="s">
@@ -12774,7 +12754,7 @@
         <v>948</v>
       </c>
       <c r="P93" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q93" s="1">
         <f>1000*1.5*2/12</f>
@@ -12801,7 +12781,7 @@
       </c>
       <c r="G94" s="18"/>
       <c r="H94" s="17" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I94" s="17"/>
       <c r="J94" s="21"/>
@@ -12812,7 +12792,7 @@
         <v>718</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="N94" s="10">
         <v>0</v>
@@ -12839,7 +12819,7 @@
       <c r="D95" s="35"/>
       <c r="E95" s="35"/>
       <c r="F95" s="34" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G95" s="18"/>
       <c r="H95" s="17" t="s">
@@ -12854,7 +12834,7 @@
         <v>718</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="N95" s="10">
         <v>0</v>
@@ -12868,7 +12848,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="36">
+    <row r="96" spans="1:18" ht="48">
       <c r="A96">
         <v>55000108</v>
       </c>
@@ -12879,7 +12859,7 @@
         <v>104</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="E96" s="35"/>
       <c r="F96" s="34"/>
@@ -12894,14 +12874,14 @@
         <v>718</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="N96" s="10">
         <v>56000101</v>
       </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q96" s="1">
         <v>80</v>
@@ -13042,17 +13022,17 @@
         <v>249</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D100" s="35"/>
       <c r="E100" s="35"/>
       <c r="F100" s="34"/>
       <c r="G100" s="18" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="H100" s="17"/>
       <c r="I100" s="17" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="J100" s="21"/>
       <c r="K100" s="1" t="s">
@@ -13062,7 +13042,7 @@
         <v>718</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="N100" s="10">
         <v>0</v>
@@ -13076,7 +13056,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="36">
+    <row r="101" spans="1:18" ht="48">
       <c r="A101">
         <v>55000113</v>
       </c>
@@ -13087,7 +13067,7 @@
         <v>104</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="E101" s="35"/>
       <c r="F101" s="34"/>
@@ -13102,14 +13082,14 @@
         <v>718</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="N101" s="10">
         <v>56000101</v>
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q101" s="1">
         <v>111</v>
@@ -13134,7 +13114,7 @@
       <c r="G102" s="18"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="J102" s="21"/>
       <c r="K102" s="1" t="s">
@@ -13144,7 +13124,7 @@
         <v>718</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="N102" s="10">
         <v>0</v>
@@ -13193,7 +13173,7 @@
         <v>88</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="Q103" s="1">
         <v>2000</v>
@@ -13218,7 +13198,7 @@
       <c r="G104" s="18"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="J104" s="21"/>
       <c r="K104" s="1" t="s">
@@ -13228,7 +13208,7 @@
         <v>718</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="N104" s="10">
         <v>0</v>
@@ -13295,7 +13275,7 @@
         <v>104</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="E106" s="35"/>
       <c r="F106" s="34"/>
@@ -13310,14 +13290,14 @@
         <v>718</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="N106" s="10">
         <v>56000101</v>
       </c>
       <c r="O106" s="1"/>
       <c r="P106" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q106" s="1">
         <v>83</v>
@@ -13359,7 +13339,7 @@
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="Q107" s="1">
         <v>700</v>
@@ -13384,7 +13364,7 @@
       <c r="G108" s="18"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="J108" s="21"/>
       <c r="K108" s="1" t="s">
@@ -13394,7 +13374,7 @@
         <v>718</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="N108" s="10">
         <v>0</v>
@@ -13469,7 +13449,7 @@
       </c>
       <c r="G110" s="18"/>
       <c r="H110" s="17" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I110" s="17"/>
       <c r="J110" s="21"/>
@@ -13480,7 +13460,7 @@
         <v>718</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="N110" s="10">
         <v>0</v>
@@ -13511,7 +13491,7 @@
       </c>
       <c r="G111" s="18"/>
       <c r="H111" s="17" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="21"/>
@@ -13522,7 +13502,7 @@
         <v>718</v>
       </c>
       <c r="M111" s="15" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="N111" s="15">
         <v>0</v>
@@ -13547,7 +13527,7 @@
         <v>104</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="E112" s="35"/>
       <c r="F112" s="34"/>
@@ -13562,14 +13542,14 @@
         <v>718</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="N112" s="10">
         <v>56000101</v>
       </c>
       <c r="O112" s="1"/>
       <c r="P112" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q112" s="1">
         <v>111</v>
@@ -13633,7 +13613,7 @@
       <c r="F114" s="34"/>
       <c r="G114" s="18"/>
       <c r="H114" s="17" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="21"/>
@@ -13644,7 +13624,7 @@
         <v>718</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="N114" s="10">
         <v>0</v>
@@ -13760,7 +13740,7 @@
         <v>718</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="N117" s="1">
         <v>0</v>
@@ -13800,7 +13780,7 @@
         <v>718</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="N118" s="1">
         <v>0</v>
@@ -13830,7 +13810,7 @@
       <c r="G119" s="18"/>
       <c r="H119" s="17"/>
       <c r="I119" s="17" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="J119" s="21"/>
       <c r="K119" s="1" t="s">
@@ -13840,7 +13820,7 @@
         <v>718</v>
       </c>
       <c r="M119" s="10" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="N119" s="10">
         <v>0</v>
@@ -13870,7 +13850,7 @@
       <c r="G120" s="18"/>
       <c r="H120" s="17"/>
       <c r="I120" s="17" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="J120" s="21"/>
       <c r="K120" s="1" t="s">
@@ -13880,7 +13860,7 @@
         <v>718</v>
       </c>
       <c r="M120" s="10" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="N120" s="10">
         <v>0</v>
@@ -13905,7 +13885,7 @@
         <v>104</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="E121" s="35"/>
       <c r="F121" s="34"/>
@@ -13920,7 +13900,7 @@
         <v>718</v>
       </c>
       <c r="M121" s="10" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="N121" s="10">
         <v>56000016</v>
@@ -13945,10 +13925,10 @@
         <v>104</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="F122" s="34"/>
       <c r="G122" s="18"/>
@@ -13962,7 +13942,7 @@
         <v>718</v>
       </c>
       <c r="M122" s="10" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="N122" s="10">
         <v>0</v>
@@ -13993,7 +13973,7 @@
       <c r="F123" s="34"/>
       <c r="G123" s="18"/>
       <c r="H123" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="21"/>
@@ -14004,7 +13984,7 @@
         <v>718</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="N123" s="1">
         <v>0</v>
@@ -14034,7 +14014,7 @@
       <c r="G124" s="18"/>
       <c r="H124" s="17"/>
       <c r="I124" s="17" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="J124" s="21"/>
       <c r="K124" s="1" t="s">
@@ -14069,7 +14049,7 @@
         <v>104</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="E125" s="35"/>
       <c r="F125" s="34"/>
@@ -14084,14 +14064,14 @@
         <v>718</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="N125" s="10">
         <v>56000101</v>
       </c>
       <c r="O125" s="1"/>
       <c r="P125" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q125" s="1">
         <v>111</v>
@@ -14140,7 +14120,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="36">
+    <row r="127" spans="1:18" ht="48">
       <c r="A127">
         <v>55000139</v>
       </c>
@@ -14151,7 +14131,7 @@
         <v>104</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="E127" s="35"/>
       <c r="F127" s="34"/>
@@ -14166,14 +14146,14 @@
         <v>718</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="N127" s="10">
         <v>56000101</v>
       </c>
       <c r="O127" s="1"/>
       <c r="P127" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q127" s="1">
         <v>111</v>
@@ -14182,7 +14162,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="36">
+    <row r="128" spans="1:18" ht="48">
       <c r="A128">
         <v>55000140</v>
       </c>
@@ -14193,7 +14173,7 @@
         <v>104</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="E128" s="35"/>
       <c r="F128" s="34"/>
@@ -14208,14 +14188,14 @@
         <v>718</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="N128" s="10">
         <v>56000101</v>
       </c>
       <c r="O128" s="1"/>
       <c r="P128" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q128" s="1">
         <v>111</v>
@@ -14235,7 +14215,7 @@
         <v>104</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="E129" s="35"/>
       <c r="F129" s="34"/>
@@ -14250,14 +14230,14 @@
         <v>718</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="N129" s="10">
         <v>56000101</v>
       </c>
       <c r="O129" s="1"/>
       <c r="P129" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q129" s="1">
         <v>111</v>
@@ -14314,7 +14294,7 @@
         <v>315</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D131" s="35"/>
       <c r="E131" s="35"/>
@@ -14325,7 +14305,7 @@
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
       <c r="J131" s="21" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>723</v>
@@ -14334,7 +14314,7 @@
         <v>718</v>
       </c>
       <c r="M131" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="N131" s="10">
         <v>0</v>
@@ -14362,7 +14342,7 @@
         <v>104</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="E132" s="35"/>
       <c r="F132" s="34"/>
@@ -14377,14 +14357,14 @@
         <v>718</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="N132" s="10">
         <v>56000101</v>
       </c>
       <c r="O132" s="1"/>
       <c r="P132" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q132" s="1">
         <v>111</v>
@@ -14444,7 +14424,7 @@
         <v>104</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="E134" s="35"/>
       <c r="F134" s="34"/>
@@ -14459,14 +14439,14 @@
         <v>718</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="N134" s="10">
         <v>56000101</v>
       </c>
       <c r="O134" s="1"/>
       <c r="P134" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q134" s="1">
         <v>111</v>
@@ -14526,7 +14506,7 @@
         <v>104</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="E136" s="35"/>
       <c r="F136" s="34"/>
@@ -14541,14 +14521,14 @@
         <v>718</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="N136" s="10">
         <v>56000101</v>
       </c>
       <c r="O136" s="1"/>
       <c r="P136" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q136" s="1">
         <v>111</v>
@@ -14608,7 +14588,7 @@
         <v>76</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E138" s="35"/>
       <c r="F138" s="34"/>
@@ -14623,7 +14603,7 @@
         <v>718</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="N138" s="1">
         <v>0</v>
@@ -14637,7 +14617,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="48">
+    <row r="139" spans="1:18" ht="36">
       <c r="A139">
         <v>55000151</v>
       </c>
@@ -14648,7 +14628,7 @@
         <v>104</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="E139" s="35"/>
       <c r="F139" s="34"/>
@@ -14663,14 +14643,14 @@
         <v>718</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="N139" s="10">
         <v>56000015</v>
       </c>
       <c r="O139" s="1"/>
       <c r="P139" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q139" s="1">
         <v>200</v>
@@ -14687,7 +14667,7 @@
         <v>337</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D140" s="35"/>
       <c r="E140" s="35"/>
@@ -14696,7 +14676,7 @@
       <c r="H140" s="17"/>
       <c r="I140" s="22"/>
       <c r="J140" s="21" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>723</v>
@@ -14705,7 +14685,7 @@
         <v>718</v>
       </c>
       <c r="M140" s="10" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="N140" s="10">
         <v>0</v>
@@ -14714,7 +14694,7 @@
         <v>185</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="Q140" s="1">
         <v>300</v>
@@ -14734,7 +14714,7 @@
         <v>104</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="E141" s="35"/>
       <c r="F141" s="34"/>
@@ -14749,14 +14729,14 @@
         <v>718</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="N141" s="10">
         <v>56000121</v>
       </c>
       <c r="O141" s="1"/>
       <c r="P141" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q141" s="1">
         <v>27</v>
@@ -14773,7 +14753,7 @@
         <v>341</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D142" s="35"/>
       <c r="E142" s="35"/>
@@ -14781,7 +14761,7 @@
       <c r="G142" s="18"/>
       <c r="H142" s="17"/>
       <c r="I142" s="17" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="J142" s="21"/>
       <c r="K142" s="1" t="s">
@@ -14821,7 +14801,7 @@
       <c r="G143" s="18"/>
       <c r="H143" s="17"/>
       <c r="I143" s="17" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="J143" s="21"/>
       <c r="K143" s="1" t="s">
@@ -14831,7 +14811,7 @@
         <v>718</v>
       </c>
       <c r="M143" s="10" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="N143" s="10">
         <v>0</v>
@@ -14861,7 +14841,7 @@
       <c r="G144" s="18"/>
       <c r="H144" s="17"/>
       <c r="I144" s="17" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="J144" s="21"/>
       <c r="K144" s="1" t="s">
@@ -14871,7 +14851,7 @@
         <v>718</v>
       </c>
       <c r="M144" s="10" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="N144" s="10">
         <v>0</v>
@@ -14901,7 +14881,7 @@
       <c r="G145" s="18"/>
       <c r="H145" s="17"/>
       <c r="I145" s="17" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="J145" s="21"/>
       <c r="K145" s="1" t="s">
@@ -14911,7 +14891,7 @@
         <v>718</v>
       </c>
       <c r="M145" s="10" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="N145" s="10">
         <v>0</v>
@@ -14980,11 +14960,11 @@
       <c r="D147" s="35"/>
       <c r="E147" s="35"/>
       <c r="F147" s="34" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="G147" s="18"/>
       <c r="H147" s="17" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I147" s="17"/>
       <c r="J147" s="21"/>
@@ -14995,7 +14975,7 @@
         <v>718</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="N147" s="1">
         <v>0</v>
@@ -15025,7 +15005,7 @@
       <c r="G148" s="18"/>
       <c r="H148" s="17"/>
       <c r="I148" s="17" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="J148" s="21"/>
       <c r="K148" s="1" t="s">
@@ -15035,7 +15015,7 @@
         <v>718</v>
       </c>
       <c r="M148" s="10" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N148" s="10">
         <v>0</v>
@@ -15060,7 +15040,7 @@
         <v>104</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="E149" s="35"/>
       <c r="F149" s="34"/>
@@ -15075,14 +15055,14 @@
         <v>718</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="N149" s="10">
         <v>56000101</v>
       </c>
       <c r="O149" s="1"/>
       <c r="P149" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q149" s="1">
         <v>83</v>
@@ -15102,7 +15082,7 @@
         <v>104</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="E150" s="35"/>
       <c r="F150" s="34"/>
@@ -15117,14 +15097,14 @@
         <v>718</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="N150" s="10">
         <v>56000101</v>
       </c>
       <c r="O150" s="1"/>
       <c r="P150" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q150" s="1">
         <v>100</v>
@@ -15150,7 +15130,7 @@
       </c>
       <c r="G151" s="18"/>
       <c r="H151" s="17" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I151" s="17"/>
       <c r="J151" s="21"/>
@@ -15170,7 +15150,7 @@
         <v>88</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="Q151" s="1">
         <v>1000</v>
@@ -15194,7 +15174,7 @@
       <c r="F152" s="34"/>
       <c r="G152" s="18"/>
       <c r="H152" s="17" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I152" s="17"/>
       <c r="J152" s="21"/>
@@ -15205,7 +15185,7 @@
         <v>718</v>
       </c>
       <c r="M152" s="15" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="N152" s="15">
         <v>0</v>
@@ -15237,7 +15217,7 @@
       <c r="G153" s="18"/>
       <c r="H153" s="17"/>
       <c r="I153" s="17" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="J153" s="21"/>
       <c r="K153" s="1" t="s">
@@ -15247,7 +15227,7 @@
         <v>718</v>
       </c>
       <c r="M153" s="10" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="N153" s="10">
         <v>0</v>
@@ -15272,7 +15252,7 @@
         <v>1</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="E154" s="35"/>
       <c r="F154" s="34"/>
@@ -15287,7 +15267,7 @@
         <v>718</v>
       </c>
       <c r="M154" s="10" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="N154" s="10">
         <v>0</v>
@@ -15314,7 +15294,7 @@
       <c r="D155" s="35"/>
       <c r="E155" s="35"/>
       <c r="F155" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G155" s="18"/>
       <c r="H155" s="17"/>
@@ -15360,7 +15340,7 @@
       </c>
       <c r="G156" s="18"/>
       <c r="H156" s="17" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I156" s="17"/>
       <c r="J156" s="21"/>
@@ -15371,7 +15351,7 @@
         <v>718</v>
       </c>
       <c r="M156" s="10" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="N156" s="10">
         <v>0</v>
@@ -15399,7 +15379,7 @@
       <c r="D157" s="35"/>
       <c r="E157" s="35"/>
       <c r="F157" s="34" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="G157" s="18"/>
       <c r="H157" s="17" t="s">
@@ -15441,7 +15421,7 @@
         <v>104</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="E158" s="35"/>
       <c r="F158" s="34"/>
@@ -15456,14 +15436,14 @@
         <v>718</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="N158" s="10">
         <v>56000102</v>
       </c>
       <c r="O158" s="1"/>
       <c r="P158" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q158" s="1">
         <v>112</v>
@@ -15487,7 +15467,7 @@
       <c r="F159" s="34"/>
       <c r="G159" s="18"/>
       <c r="H159" s="17" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="I159" s="17"/>
       <c r="J159" s="21"/>
@@ -15498,7 +15478,7 @@
         <v>718</v>
       </c>
       <c r="M159" s="10" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="N159" s="10">
         <v>0</v>
@@ -15525,7 +15505,7 @@
       <c r="D160" s="35"/>
       <c r="E160" s="35"/>
       <c r="F160" s="34" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="G160" s="18"/>
       <c r="H160" s="17" t="s">
@@ -15567,11 +15547,11 @@
       <c r="D161" s="35"/>
       <c r="E161" s="35"/>
       <c r="F161" s="34" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="G161" s="18"/>
       <c r="H161" s="17" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I161" s="17"/>
       <c r="J161" s="21"/>
@@ -15582,7 +15562,7 @@
         <v>718</v>
       </c>
       <c r="M161" s="15" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="N161" s="15">
         <v>0</v>
@@ -15612,10 +15592,10 @@
         <v>776</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="I162" s="17"/>
       <c r="J162" s="21"/>
@@ -15626,7 +15606,7 @@
         <v>718</v>
       </c>
       <c r="M162" s="10" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="N162" s="10">
         <v>0</v>
@@ -15754,7 +15734,7 @@
         <v>718</v>
       </c>
       <c r="M165" s="10" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N165" s="10">
         <v>0</v>
@@ -15779,10 +15759,10 @@
         <v>104</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="E166" s="35" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="F166" s="34"/>
       <c r="G166" s="18"/>
@@ -15796,7 +15776,7 @@
         <v>718</v>
       </c>
       <c r="M166" s="10" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="N166" s="10">
         <v>0</v>
@@ -15821,10 +15801,10 @@
         <v>104</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="E167" s="35" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="F167" s="34"/>
       <c r="G167" s="18"/>
@@ -15838,7 +15818,7 @@
         <v>718</v>
       </c>
       <c r="M167" s="10" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="N167" s="10">
         <v>0</v>
@@ -15869,10 +15849,10 @@
       </c>
       <c r="G168" s="18"/>
       <c r="H168" s="17" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="I168" s="17" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="J168" s="21"/>
       <c r="K168" s="1" t="s">
@@ -15882,7 +15862,7 @@
         <v>718</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="N168" s="1">
         <v>0</v>
@@ -15912,7 +15892,7 @@
       <c r="G169" s="18"/>
       <c r="H169" s="17"/>
       <c r="I169" s="17" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="J169" s="21"/>
       <c r="K169" s="1" t="s">
@@ -15988,7 +15968,7 @@
         <v>406</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D171" s="35"/>
       <c r="E171" s="35"/>
@@ -15997,7 +15977,7 @@
       <c r="H171" s="17"/>
       <c r="I171" s="22"/>
       <c r="J171" s="21" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>723</v>
@@ -16006,7 +15986,7 @@
         <v>718</v>
       </c>
       <c r="M171" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="N171" s="10">
         <v>0</v>
@@ -16036,7 +16016,7 @@
       <c r="G172" s="18"/>
       <c r="H172" s="17"/>
       <c r="I172" s="17" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="J172" s="21"/>
       <c r="K172" s="1" t="s">
@@ -16046,7 +16026,7 @@
         <v>718</v>
       </c>
       <c r="M172" s="10" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="N172" s="10">
         <v>0</v>
@@ -16076,7 +16056,7 @@
       <c r="G173" s="18"/>
       <c r="H173" s="17"/>
       <c r="I173" s="17" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="J173" s="21"/>
       <c r="K173" s="1" t="s">
@@ -16086,7 +16066,7 @@
         <v>718</v>
       </c>
       <c r="M173" s="10" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="N173" s="10">
         <v>0</v>
@@ -16147,13 +16127,13 @@
         <v>55000187</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="E175" s="35"/>
       <c r="F175" s="34"/>
@@ -16162,13 +16142,13 @@
       <c r="I175" s="17"/>
       <c r="J175" s="21"/>
       <c r="K175" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="L175" s="9" t="s">
         <v>718</v>
       </c>
       <c r="M175" s="10" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="N175" s="10">
         <v>0</v>
@@ -16179,7 +16159,7 @@
         <v>-1200</v>
       </c>
       <c r="R175" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="176" spans="1:18" ht="24">
@@ -16235,11 +16215,11 @@
       <c r="D177" s="35"/>
       <c r="E177" s="35"/>
       <c r="F177" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G177" s="18"/>
       <c r="H177" s="17" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="I177" s="17" t="s">
         <v>833</v>
@@ -16279,11 +16259,11 @@
       <c r="D178" s="35"/>
       <c r="E178" s="35"/>
       <c r="F178" s="34" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="G178" s="18"/>
       <c r="H178" s="17" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="I178" s="17"/>
       <c r="J178" s="21"/>
@@ -16294,7 +16274,7 @@
         <v>718</v>
       </c>
       <c r="M178" s="10" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="N178" s="10">
         <v>0</v>
@@ -16321,7 +16301,7 @@
       <c r="D179" s="35"/>
       <c r="E179" s="35"/>
       <c r="F179" s="34" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="G179" s="18"/>
       <c r="H179" s="17" t="s">
@@ -16365,7 +16345,7 @@
       <c r="D180" s="35"/>
       <c r="E180" s="35"/>
       <c r="F180" s="34" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="G180" s="18"/>
       <c r="H180" s="17" t="s">
@@ -16422,7 +16402,7 @@
         <v>718</v>
       </c>
       <c r="M181" s="10" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="N181" s="10">
         <v>0</v>
@@ -16447,7 +16427,7 @@
         <v>104</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="E182" s="35"/>
       <c r="F182" s="34"/>
@@ -16462,14 +16442,14 @@
         <v>718</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="N182" s="10">
         <v>56000023</v>
       </c>
       <c r="O182" s="1"/>
       <c r="P182" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q182" s="1">
         <v>166</v>
@@ -16493,7 +16473,7 @@
       <c r="F183" s="34"/>
       <c r="G183" s="18"/>
       <c r="H183" s="17" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="I183" s="17"/>
       <c r="J183" s="21"/>
@@ -16504,7 +16484,7 @@
         <v>718</v>
       </c>
       <c r="M183" s="10" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="N183" s="10">
         <v>0</v>
@@ -16533,7 +16513,7 @@
       <c r="F184" s="34"/>
       <c r="G184" s="18"/>
       <c r="H184" s="17" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="I184" s="17"/>
       <c r="J184" s="21"/>
@@ -16544,7 +16524,7 @@
         <v>718</v>
       </c>
       <c r="M184" s="10" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="N184" s="10">
         <v>0</v>
@@ -16574,7 +16554,7 @@
       <c r="G185" s="18"/>
       <c r="H185" s="17"/>
       <c r="I185" s="17" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="J185" s="21"/>
       <c r="K185" s="1" t="s">
@@ -16584,7 +16564,7 @@
         <v>718</v>
       </c>
       <c r="M185" s="10" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="N185" s="10">
         <v>0</v>
@@ -16598,7 +16578,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="186" spans="1:18" ht="48">
+    <row r="186" spans="1:18" ht="36">
       <c r="A186">
         <v>55000198</v>
       </c>
@@ -16609,7 +16589,7 @@
         <v>104</v>
       </c>
       <c r="D186" s="35" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="E186" s="35"/>
       <c r="F186" s="34"/>
@@ -16624,14 +16604,14 @@
         <v>718</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="N186" s="10">
         <v>56000121</v>
       </c>
       <c r="O186" s="1"/>
       <c r="P186" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q186" s="1">
         <v>200</v>
@@ -16655,7 +16635,7 @@
       <c r="F187" s="34"/>
       <c r="G187" s="18"/>
       <c r="H187" s="17" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="I187" s="17"/>
       <c r="J187" s="21"/>
@@ -16666,7 +16646,7 @@
         <v>718</v>
       </c>
       <c r="M187" s="10" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="N187" s="10">
         <v>0</v>
@@ -16696,7 +16676,7 @@
       <c r="G188" s="18"/>
       <c r="H188" s="17"/>
       <c r="I188" s="17" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="J188" s="21"/>
       <c r="K188" s="1" t="s">
@@ -16706,7 +16686,7 @@
         <v>718</v>
       </c>
       <c r="M188" s="10" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="N188" s="10">
         <v>0</v>
@@ -16720,7 +16700,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="48">
+    <row r="189" spans="1:18" ht="36">
       <c r="A189">
         <v>55000201</v>
       </c>
@@ -16731,7 +16711,7 @@
         <v>104</v>
       </c>
       <c r="D189" s="35" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="E189" s="35"/>
       <c r="F189" s="34"/>
@@ -16746,14 +16726,14 @@
         <v>718</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="N189" s="10">
         <v>56000101</v>
       </c>
       <c r="O189" s="1"/>
       <c r="P189" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q189" s="1">
         <v>225</v>
@@ -16773,7 +16753,7 @@
         <v>104</v>
       </c>
       <c r="D190" s="35" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="E190" s="35"/>
       <c r="F190" s="34"/>
@@ -16788,14 +16768,14 @@
         <v>718</v>
       </c>
       <c r="M190" s="10" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="N190" s="10">
         <v>56000111</v>
       </c>
       <c r="O190" s="1"/>
       <c r="P190" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q190" s="1">
         <v>1000</v>
@@ -16815,7 +16795,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="35" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="E191" s="35"/>
       <c r="F191" s="34"/>
@@ -16830,7 +16810,7 @@
         <v>718</v>
       </c>
       <c r="M191" s="10" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="N191" s="10">
         <v>0</v>
@@ -16861,7 +16841,7 @@
       </c>
       <c r="G192" s="18"/>
       <c r="H192" s="17" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I192" s="17"/>
       <c r="J192" s="21"/>
@@ -16872,7 +16852,7 @@
         <v>718</v>
       </c>
       <c r="M192" s="15" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="N192" s="15">
         <v>0</v>
@@ -16902,7 +16882,7 @@
       <c r="G193" s="18"/>
       <c r="H193" s="17"/>
       <c r="I193" s="17" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="J193" s="21"/>
       <c r="K193" s="1" t="s">
@@ -16912,7 +16892,7 @@
         <v>718</v>
       </c>
       <c r="M193" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="N193" s="10">
         <v>0</v>
@@ -16939,11 +16919,11 @@
       <c r="D194" s="35"/>
       <c r="E194" s="35"/>
       <c r="F194" s="34" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="G194" s="18"/>
       <c r="H194" s="17" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I194" s="17"/>
       <c r="J194" s="21"/>
@@ -16954,7 +16934,7 @@
         <v>718</v>
       </c>
       <c r="M194" s="10" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="N194" s="10">
         <v>0</v>
@@ -16973,10 +16953,10 @@
         <v>55000207</v>
       </c>
       <c r="B195" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>1087</v>
       </c>
       <c r="D195" s="35"/>
       <c r="E195" s="35"/>
@@ -16985,7 +16965,7 @@
       <c r="H195" s="17"/>
       <c r="I195" s="17"/>
       <c r="J195" s="21" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="K195" s="1" t="s">
         <v>723</v>
@@ -16994,20 +16974,20 @@
         <v>718</v>
       </c>
       <c r="M195" s="10" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="N195" s="10">
         <v>0</v>
       </c>
       <c r="O195" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="P195" s="1"/>
       <c r="Q195" s="1">
         <v>2500</v>
       </c>
       <c r="R195" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="196" spans="1:18" ht="48">
@@ -17038,7 +17018,7 @@
         <v>718</v>
       </c>
       <c r="M196" s="10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="N196" s="10">
         <v>0</v>
@@ -17069,7 +17049,7 @@
       </c>
       <c r="G197" s="18"/>
       <c r="H197" s="17" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="I197" s="17"/>
       <c r="J197" s="21"/>
@@ -17080,7 +17060,7 @@
         <v>718</v>
       </c>
       <c r="M197" s="15" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="N197" s="15">
         <v>0</v>
@@ -17149,7 +17129,7 @@
         <v>104</v>
       </c>
       <c r="D199" s="35" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="E199" s="35"/>
       <c r="F199" s="34"/>
@@ -17164,14 +17144,14 @@
         <v>718</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="N199" s="10">
         <v>56000121</v>
       </c>
       <c r="O199" s="1"/>
       <c r="P199" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q199" s="1">
         <v>11</v>
@@ -17233,7 +17213,7 @@
         <v>104</v>
       </c>
       <c r="D201" s="35" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="E201" s="35"/>
       <c r="F201" s="34"/>
@@ -17248,14 +17228,14 @@
         <v>718</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="N201" s="10">
         <v>56000121</v>
       </c>
       <c r="O201" s="1"/>
       <c r="P201" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q201" s="1">
         <v>11</v>
@@ -17280,7 +17260,7 @@
       <c r="G202" s="18"/>
       <c r="H202" s="17"/>
       <c r="I202" s="17" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="J202" s="21"/>
       <c r="K202" s="1" t="s">
@@ -17317,12 +17297,12 @@
       <c r="D203" s="35"/>
       <c r="E203" s="35"/>
       <c r="F203" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G203" s="18"/>
       <c r="H203" s="17"/>
       <c r="I203" s="17" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="J203" s="21"/>
       <c r="K203" s="1" t="s">
@@ -17332,7 +17312,7 @@
         <v>718</v>
       </c>
       <c r="M203" s="10" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="N203" s="10">
         <v>0</v>
@@ -17341,7 +17321,7 @@
         <v>470</v>
       </c>
       <c r="P203" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q203" s="1">
         <f>200*2</f>
@@ -17368,7 +17348,7 @@
       </c>
       <c r="G204" s="18"/>
       <c r="H204" s="17" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I204" s="17"/>
       <c r="J204" s="21"/>
@@ -17379,7 +17359,7 @@
         <v>718</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="N204" s="1">
         <v>0</v>
@@ -17443,7 +17423,7 @@
         <v>477</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="35"/>
@@ -17452,7 +17432,7 @@
       <c r="H206" s="17"/>
       <c r="I206" s="17"/>
       <c r="J206" s="21" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="K206" s="1" t="s">
         <v>723</v>
@@ -17461,7 +17441,7 @@
         <v>718</v>
       </c>
       <c r="M206" s="10" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="N206" s="10">
         <v>0</v>
@@ -17494,7 +17474,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
       <c r="J207" s="21" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>723</v>
@@ -17530,11 +17510,11 @@
       <c r="D208" s="35"/>
       <c r="E208" s="35"/>
       <c r="F208" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G208" s="18"/>
       <c r="H208" s="17" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="I208" s="17"/>
       <c r="J208" s="21"/>
@@ -17545,7 +17525,7 @@
         <v>718</v>
       </c>
       <c r="M208" s="10" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="N208" s="10">
         <v>0</v>
@@ -17564,13 +17544,13 @@
         <v>55000221</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D209" s="35" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="E209" s="35"/>
       <c r="F209" s="34"/>
@@ -17585,7 +17565,7 @@
         <v>718</v>
       </c>
       <c r="M209" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="N209" s="10">
         <v>0</v>
@@ -17596,7 +17576,7 @@
         <v>1200</v>
       </c>
       <c r="R209" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="210" spans="1:18" ht="36">
@@ -17736,10 +17716,10 @@
         <v>104</v>
       </c>
       <c r="D213" s="35" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="E213" s="35" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="F213" s="34"/>
       <c r="G213" s="18"/>
@@ -17753,7 +17733,7 @@
         <v>718</v>
       </c>
       <c r="M213" s="10" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="N213" s="10">
         <v>0</v>
@@ -17778,10 +17758,10 @@
         <v>104</v>
       </c>
       <c r="D214" s="35" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="E214" s="35" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="F214" s="34"/>
       <c r="G214" s="18"/>
@@ -17795,7 +17775,7 @@
         <v>718</v>
       </c>
       <c r="M214" s="10" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="N214" s="10">
         <v>0</v>
@@ -17828,7 +17808,7 @@
       <c r="H215" s="17"/>
       <c r="I215" s="17"/>
       <c r="J215" s="21" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="K215" s="1" t="s">
         <v>723</v>
@@ -17837,7 +17817,7 @@
         <v>718</v>
       </c>
       <c r="M215" s="10" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="N215" s="10">
         <v>0</v>
@@ -17867,7 +17847,7 @@
       <c r="G216" s="18"/>
       <c r="H216" s="17"/>
       <c r="I216" s="17" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="J216" s="21"/>
       <c r="K216" s="1" t="s">
@@ -17877,7 +17857,7 @@
         <v>718</v>
       </c>
       <c r="M216" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="N216" s="10">
         <v>0</v>
@@ -17909,7 +17889,7 @@
       <c r="G217" s="18"/>
       <c r="H217" s="17"/>
       <c r="I217" s="17" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="J217" s="21"/>
       <c r="K217" s="1" t="s">
@@ -17919,7 +17899,7 @@
         <v>718</v>
       </c>
       <c r="M217" s="10" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="N217" s="10">
         <v>0</v>
@@ -17989,7 +17969,7 @@
       <c r="G219" s="18"/>
       <c r="H219" s="17"/>
       <c r="I219" s="17" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="J219" s="21"/>
       <c r="K219" s="1" t="s">
@@ -17999,7 +17979,7 @@
         <v>718</v>
       </c>
       <c r="M219" s="10" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="N219" s="10">
         <v>0</v>
@@ -18079,7 +18059,7 @@
         <v>718</v>
       </c>
       <c r="M221" s="10" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="N221" s="10">
         <v>0</v>
@@ -18186,7 +18166,7 @@
         <v>1</v>
       </c>
       <c r="D224" s="35" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="E224" s="35"/>
       <c r="F224" s="34"/>
@@ -18201,7 +18181,7 @@
         <v>718</v>
       </c>
       <c r="M224" s="10" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="N224" s="10">
         <v>0</v>
@@ -18239,7 +18219,7 @@
         <v>718</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="N225" s="1">
         <v>0</v>
@@ -18346,12 +18326,12 @@
       <c r="D228" s="35"/>
       <c r="E228" s="35"/>
       <c r="F228" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G228" s="18"/>
       <c r="H228" s="17"/>
       <c r="I228" s="17" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="J228" s="21"/>
       <c r="K228" s="1" t="s">
@@ -18370,7 +18350,7 @@
         <v>949</v>
       </c>
       <c r="P228" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q228" s="1">
         <f>2000*1.5*2/12</f>
@@ -18408,7 +18388,7 @@
         <v>718</v>
       </c>
       <c r="M229" s="10" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="N229" s="10">
         <v>0</v>
@@ -18442,7 +18422,7 @@
       <c r="H230" s="17"/>
       <c r="I230" s="17"/>
       <c r="J230" s="21" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="K230" s="1" t="s">
         <v>723</v>
@@ -18451,7 +18431,7 @@
         <v>718</v>
       </c>
       <c r="M230" s="10" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="N230" s="10">
         <v>0</v>
@@ -18493,7 +18473,7 @@
         <v>718</v>
       </c>
       <c r="M231" s="10" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="N231" s="10">
         <v>0</v>
@@ -18520,12 +18500,12 @@
       <c r="D232" s="35"/>
       <c r="E232" s="35"/>
       <c r="F232" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G232" s="18"/>
       <c r="H232" s="17"/>
       <c r="I232" s="17" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="J232" s="21"/>
       <c r="K232" s="1" t="s">
@@ -18535,7 +18515,7 @@
         <v>718</v>
       </c>
       <c r="M232" s="20" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="N232" s="10">
         <v>0</v>
@@ -18544,7 +18524,7 @@
         <v>951</v>
       </c>
       <c r="P232" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q232" s="1">
         <v>280</v>
@@ -18569,7 +18549,7 @@
       <c r="G233" s="18"/>
       <c r="H233" s="17"/>
       <c r="I233" s="17" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="J233" s="21"/>
       <c r="K233" s="1" t="s">
@@ -18606,12 +18586,12 @@
       <c r="D234" s="35"/>
       <c r="E234" s="35"/>
       <c r="F234" s="34" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="G234" s="18"/>
       <c r="H234" s="17"/>
       <c r="I234" s="17" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="J234" s="21"/>
       <c r="K234" s="1" t="s">
@@ -18621,7 +18601,7 @@
         <v>718</v>
       </c>
       <c r="M234" s="10" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="N234" s="10">
         <v>0</v>
@@ -18652,7 +18632,7 @@
       </c>
       <c r="G235" s="18"/>
       <c r="H235" s="17" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="I235" s="17"/>
       <c r="J235" s="21"/>
@@ -18663,7 +18643,7 @@
         <v>718</v>
       </c>
       <c r="M235" s="10" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="N235" s="10">
         <v>0</v>
@@ -18690,14 +18670,14 @@
       <c r="D236" s="35"/>
       <c r="E236" s="35"/>
       <c r="F236" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G236" s="18"/>
       <c r="H236" s="17" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="I236" s="17" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="J236" s="21"/>
       <c r="K236" s="1" t="s">
@@ -18707,7 +18687,7 @@
         <v>718</v>
       </c>
       <c r="M236" s="10" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="N236" s="10">
         <v>0</v>
@@ -18739,7 +18719,7 @@
       <c r="G237" s="18"/>
       <c r="H237" s="17"/>
       <c r="I237" s="17" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="J237" s="21"/>
       <c r="K237" s="1" t="s">
@@ -18791,7 +18771,7 @@
         <v>718</v>
       </c>
       <c r="M238" s="10" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="N238" s="10">
         <v>0</v>
@@ -18817,9 +18797,7 @@
       </c>
       <c r="D239" s="35"/>
       <c r="E239" s="35"/>
-      <c r="F239" s="34" t="s">
-        <v>976</v>
-      </c>
+      <c r="F239" s="34"/>
       <c r="G239" s="18" t="s">
         <v>778</v>
       </c>
@@ -18833,7 +18811,7 @@
         <v>718</v>
       </c>
       <c r="M239" s="15" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="N239" s="15">
         <v>0</v>
@@ -18875,7 +18853,7 @@
         <v>718</v>
       </c>
       <c r="M240" s="10" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="N240" s="10">
         <v>0</v>
@@ -18902,7 +18880,7 @@
       <c r="D241" s="35"/>
       <c r="E241" s="35"/>
       <c r="F241" s="34" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="G241" s="18" t="s">
         <v>880</v>
@@ -18917,7 +18895,7 @@
         <v>718</v>
       </c>
       <c r="M241" s="10" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N241" s="10">
         <v>0</v>
@@ -18957,7 +18935,7 @@
         <v>718</v>
       </c>
       <c r="M242" s="10" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="N242" s="10">
         <v>0</v>
@@ -18985,7 +18963,7 @@
       <c r="E243" s="35"/>
       <c r="F243" s="34"/>
       <c r="G243" s="18" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="H243" s="17"/>
       <c r="I243" s="17"/>
@@ -18997,7 +18975,7 @@
         <v>718</v>
       </c>
       <c r="M243" s="10" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="N243" s="10">
         <v>0</v>
@@ -19026,9 +19004,7 @@
       <c r="F244" s="34"/>
       <c r="G244" s="18"/>
       <c r="H244" s="17"/>
-      <c r="I244" s="17" t="s">
-        <v>1405</v>
-      </c>
+      <c r="I244" s="17"/>
       <c r="J244" s="21"/>
       <c r="K244" s="1" t="s">
         <v>723</v>
@@ -19037,7 +19013,7 @@
         <v>718</v>
       </c>
       <c r="M244" s="10" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="N244" s="10">
         <v>0</v>
@@ -19068,7 +19044,7 @@
       </c>
       <c r="G245" s="18"/>
       <c r="H245" s="17" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="I245" s="17"/>
       <c r="J245" s="21"/>
@@ -19079,7 +19055,7 @@
         <v>718</v>
       </c>
       <c r="M245" s="10" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="N245" s="10">
         <v>0</v>
@@ -19111,7 +19087,7 @@
       <c r="G246" s="18"/>
       <c r="H246" s="17"/>
       <c r="I246" s="17" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="J246" s="21"/>
       <c r="K246" s="1" t="s">
@@ -19187,7 +19163,7 @@
         <v>560</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D248" s="35"/>
       <c r="E248" s="35"/>
@@ -19196,7 +19172,7 @@
       <c r="H248" s="17"/>
       <c r="I248" s="17"/>
       <c r="J248" s="21" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="K248" s="1" t="s">
         <v>723</v>
@@ -19205,13 +19181,13 @@
         <v>718</v>
       </c>
       <c r="M248" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="N248" s="10">
+        <v>0</v>
+      </c>
+      <c r="O248" s="10" t="s">
         <v>985</v>
-      </c>
-      <c r="N248" s="10">
-        <v>0</v>
-      </c>
-      <c r="O248" s="10" t="s">
-        <v>986</v>
       </c>
       <c r="P248" s="10"/>
       <c r="Q248" s="1">
@@ -19236,7 +19212,7 @@
       <c r="F249" s="34"/>
       <c r="G249" s="18"/>
       <c r="H249" s="17" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I249" s="17"/>
       <c r="J249" s="21"/>
@@ -19247,7 +19223,7 @@
         <v>718</v>
       </c>
       <c r="M249" s="15" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="N249" s="15">
         <v>0</v>
@@ -19269,17 +19245,17 @@
         <v>566</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D250" s="35"/>
       <c r="E250" s="35"/>
       <c r="F250" s="34" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G250" s="18"/>
       <c r="H250" s="17"/>
       <c r="I250" s="17" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="J250" s="21"/>
       <c r="K250" s="1" t="s">
@@ -19305,7 +19281,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="251" spans="1:18" ht="24">
+    <row r="251" spans="1:18" ht="36">
       <c r="A251">
         <v>55000264</v>
       </c>
@@ -19322,7 +19298,7 @@
       </c>
       <c r="G251" s="18"/>
       <c r="H251" s="17" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I251" s="17"/>
       <c r="J251" s="21"/>
@@ -19333,7 +19309,7 @@
         <v>718</v>
       </c>
       <c r="M251" s="10" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="N251" s="10">
         <v>0</v>
@@ -19387,7 +19363,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="253" spans="1:18" ht="36">
+    <row r="253" spans="1:18" ht="48">
       <c r="A253">
         <v>55000266</v>
       </c>
@@ -19402,7 +19378,7 @@
       <c r="F253" s="34"/>
       <c r="G253" s="18"/>
       <c r="H253" s="17" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I253" s="17"/>
       <c r="J253" s="21"/>
@@ -19413,7 +19389,7 @@
         <v>718</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="N253" s="1">
         <v>0</v>
@@ -19427,7 +19403,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="254" spans="1:18" ht="48">
+    <row r="254" spans="1:18" ht="24">
       <c r="A254">
         <v>55000267</v>
       </c>
@@ -19511,7 +19487,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="256" spans="1:18" ht="24">
+    <row r="256" spans="1:18" ht="48">
       <c r="A256">
         <v>55000269</v>
       </c>
@@ -19522,7 +19498,7 @@
         <v>1</v>
       </c>
       <c r="D256" s="35" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E256" s="35"/>
       <c r="F256" s="34"/>
@@ -19562,7 +19538,7 @@
         <v>104</v>
       </c>
       <c r="D257" s="35" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="E257" s="35"/>
       <c r="F257" s="34"/>
@@ -19577,14 +19553,14 @@
         <v>718</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="N257" s="10">
         <v>56000102</v>
       </c>
       <c r="O257" s="1"/>
       <c r="P257" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q257" s="1">
         <v>50</v>
@@ -19593,7 +19569,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="48">
+    <row r="258" spans="1:18" ht="36">
       <c r="A258">
         <v>55000271</v>
       </c>
@@ -19606,7 +19582,7 @@
       <c r="D258" s="35"/>
       <c r="E258" s="35"/>
       <c r="F258" s="34" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="G258" s="18" t="s">
         <v>879</v>
@@ -19621,7 +19597,7 @@
         <v>718</v>
       </c>
       <c r="M258" s="10" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="N258" s="10">
         <v>0</v>
@@ -19635,7 +19611,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="259" spans="1:18" ht="36">
+    <row r="259" spans="1:18" ht="24">
       <c r="A259">
         <v>55000272</v>
       </c>
@@ -19651,7 +19627,7 @@
       <c r="G259" s="18"/>
       <c r="H259" s="17"/>
       <c r="I259" s="17" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="J259" s="21"/>
       <c r="K259" s="1" t="s">
@@ -19675,7 +19651,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="260" spans="1:18" ht="24">
+    <row r="260" spans="1:18" ht="36">
       <c r="A260">
         <v>55000273</v>
       </c>
@@ -19690,7 +19666,7 @@
       <c r="F260" s="34"/>
       <c r="G260" s="18"/>
       <c r="H260" s="17" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I260" s="17"/>
       <c r="J260" s="21"/>
@@ -19701,7 +19677,7 @@
         <v>718</v>
       </c>
       <c r="M260" s="15" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="N260" s="15">
         <v>0</v>
@@ -19715,7 +19691,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="261" spans="1:18" ht="36">
+    <row r="261" spans="1:18" ht="84">
       <c r="A261">
         <v>55000274</v>
       </c>
@@ -19730,7 +19706,7 @@
       <c r="F261" s="34"/>
       <c r="G261" s="18"/>
       <c r="H261" s="17" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="I261" s="17"/>
       <c r="J261" s="21"/>
@@ -19741,7 +19717,7 @@
         <v>718</v>
       </c>
       <c r="M261" s="10" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="N261" s="10">
         <v>0</v>
@@ -19755,7 +19731,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="262" spans="1:18" ht="84">
+    <row r="262" spans="1:18" ht="36">
       <c r="A262">
         <v>55000275</v>
       </c>
@@ -19768,7 +19744,7 @@
       <c r="D262" s="35"/>
       <c r="E262" s="35"/>
       <c r="F262" s="34" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="G262" s="18"/>
       <c r="H262" s="17" t="s">
@@ -19810,7 +19786,7 @@
       <c r="D263" s="35"/>
       <c r="E263" s="35"/>
       <c r="F263" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G263" s="18"/>
       <c r="H263" s="17" t="s">
@@ -19839,7 +19815,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="264" spans="1:18" ht="36">
+    <row r="264" spans="1:18">
       <c r="A264">
         <v>55000277</v>
       </c>
@@ -19853,7 +19829,7 @@
       <c r="E264" s="35"/>
       <c r="F264" s="34"/>
       <c r="G264" s="18" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="H264" s="17"/>
       <c r="I264" s="17"/>
@@ -19865,7 +19841,7 @@
         <v>718</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="N264" s="1">
         <v>0</v>
@@ -19879,7 +19855,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="265" spans="1:18">
+    <row r="265" spans="1:18" ht="24">
       <c r="A265">
         <v>55000278</v>
       </c>
@@ -19887,7 +19863,7 @@
         <v>602</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D265" s="35"/>
       <c r="E265" s="35"/>
@@ -19896,7 +19872,7 @@
       <c r="H265" s="17"/>
       <c r="I265" s="22"/>
       <c r="J265" s="21" t="s">
-        <v>1450</v>
+        <v>1530</v>
       </c>
       <c r="K265" s="1" t="s">
         <v>723</v>
@@ -19905,7 +19881,7 @@
         <v>718</v>
       </c>
       <c r="M265" s="10" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="N265" s="10">
         <v>0</v>
@@ -19919,7 +19895,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="266" spans="1:18" ht="36">
+    <row r="266" spans="1:18" ht="24">
       <c r="A266">
         <v>55000279</v>
       </c>
@@ -19927,7 +19903,7 @@
         <v>604</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D266" s="35"/>
       <c r="E266" s="35"/>
@@ -19936,7 +19912,7 @@
       <c r="H266" s="17"/>
       <c r="I266" s="22"/>
       <c r="J266" s="21" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="K266" s="1" t="s">
         <v>723</v>
@@ -19945,7 +19921,7 @@
         <v>718</v>
       </c>
       <c r="M266" s="10" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="N266" s="10">
         <v>0</v>
@@ -19959,7 +19935,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="267" spans="1:18" ht="24">
+    <row r="267" spans="1:18" ht="36">
       <c r="A267">
         <v>55000280</v>
       </c>
@@ -19974,7 +19950,7 @@
       <c r="F267" s="34"/>
       <c r="G267" s="18"/>
       <c r="H267" s="17" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I267" s="17"/>
       <c r="J267" s="21"/>
@@ -19985,7 +19961,7 @@
         <v>718</v>
       </c>
       <c r="M267" s="15" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="N267" s="15">
         <v>0</v>
@@ -19999,7 +19975,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="268" spans="1:18" ht="36">
+    <row r="268" spans="1:18" ht="24">
       <c r="A268">
         <v>55000281</v>
       </c>
@@ -20015,7 +19991,7 @@
       <c r="G268" s="18"/>
       <c r="H268" s="17"/>
       <c r="I268" s="17" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="J268" s="21"/>
       <c r="K268" s="1" t="s">
@@ -20025,7 +20001,7 @@
         <v>718</v>
       </c>
       <c r="M268" s="10" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="N268" s="10">
         <v>0</v>
@@ -20039,7 +20015,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="24">
+    <row r="269" spans="1:18" ht="144">
       <c r="A269">
         <v>55000282</v>
       </c>
@@ -20047,10 +20023,10 @@
         <v>610</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D269" s="35" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="E269" s="35"/>
       <c r="F269" s="34"/>
@@ -20065,13 +20041,13 @@
         <v>718</v>
       </c>
       <c r="M269" s="16" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="N269" s="10">
         <v>0</v>
       </c>
       <c r="O269" s="1" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="P269" s="1"/>
       <c r="Q269" s="1">
@@ -20081,7 +20057,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="270" spans="1:18" ht="144">
+    <row r="270" spans="1:18" ht="36">
       <c r="A270">
         <v>55000284</v>
       </c>
@@ -20125,7 +20101,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="271" spans="1:18" ht="36">
+    <row r="271" spans="1:18" ht="48">
       <c r="A271">
         <v>55000285</v>
       </c>
@@ -20136,7 +20112,7 @@
         <v>104</v>
       </c>
       <c r="D271" s="35" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="E271" s="35"/>
       <c r="F271" s="34"/>
@@ -20151,14 +20127,14 @@
         <v>718</v>
       </c>
       <c r="M271" s="10" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="N271" s="10">
         <v>56000101</v>
       </c>
       <c r="O271" s="1"/>
       <c r="P271" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q271" s="1">
         <v>400</v>
@@ -20182,7 +20158,7 @@
       <c r="F272" s="34"/>
       <c r="G272" s="18"/>
       <c r="H272" s="17" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="I272" s="17"/>
       <c r="J272" s="21"/>
@@ -20193,7 +20169,7 @@
         <v>718</v>
       </c>
       <c r="M272" s="10" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="N272" s="10">
         <v>0</v>
@@ -20207,7 +20183,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="273" spans="1:18" ht="48">
+    <row r="273" spans="1:18" ht="36">
       <c r="A273">
         <v>55000287</v>
       </c>
@@ -20218,7 +20194,7 @@
         <v>104</v>
       </c>
       <c r="D273" s="35" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="E273" s="35"/>
       <c r="F273" s="34"/>
@@ -20233,14 +20209,14 @@
         <v>718</v>
       </c>
       <c r="M273" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="N273" s="10">
         <v>56000131</v>
       </c>
       <c r="O273" s="1"/>
       <c r="P273" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q273" s="1">
         <v>360</v>
@@ -20249,12 +20225,12 @@
         <v>619</v>
       </c>
     </row>
-    <row r="274" spans="1:18" ht="48">
+    <row r="274" spans="1:18" ht="24">
       <c r="A274">
         <v>55000288</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>1</v>
@@ -20265,7 +20241,7 @@
       <c r="G274" s="18"/>
       <c r="H274" s="17"/>
       <c r="I274" s="17" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="J274" s="21"/>
       <c r="K274" s="1" t="s">
@@ -20291,18 +20267,18 @@
         <v>622</v>
       </c>
     </row>
-    <row r="275" spans="1:18" ht="24">
+    <row r="275" spans="1:18" ht="120">
       <c r="A275">
         <v>55000289</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D275" s="35" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="E275" s="35"/>
       <c r="F275" s="34"/>
@@ -20317,7 +20293,7 @@
         <v>718</v>
       </c>
       <c r="M275" s="1" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="N275" s="1">
         <v>0</v>
@@ -20331,7 +20307,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="276" spans="1:18" ht="120">
+    <row r="276" spans="1:18" ht="84">
       <c r="A276">
         <v>55000290</v>
       </c>
@@ -20346,7 +20322,7 @@
       <c r="F276" s="34"/>
       <c r="G276" s="18"/>
       <c r="H276" s="17" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="I276" s="17"/>
       <c r="J276" s="21"/>
@@ -20357,7 +20333,7 @@
         <v>718</v>
       </c>
       <c r="M276" s="10" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="N276" s="10">
         <v>0</v>
@@ -20371,7 +20347,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="277" spans="1:18" ht="84">
+    <row r="277" spans="1:18" ht="60">
       <c r="A277">
         <v>55000291</v>
       </c>
@@ -20386,7 +20362,7 @@
       <c r="F277" s="34"/>
       <c r="G277" s="18"/>
       <c r="H277" s="17" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I277" s="17"/>
       <c r="J277" s="21"/>
@@ -20397,7 +20373,7 @@
         <v>718</v>
       </c>
       <c r="M277" s="10" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="N277" s="10">
         <v>0</v>
@@ -20411,7 +20387,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="278" spans="1:18" ht="60">
+    <row r="278" spans="1:18" ht="36">
       <c r="A278">
         <v>55000292</v>
       </c>
@@ -20428,10 +20404,10 @@
       </c>
       <c r="G278" s="18"/>
       <c r="H278" s="17" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I278" s="17" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J278" s="21"/>
       <c r="K278" s="1" t="s">
@@ -20441,7 +20417,7 @@
         <v>718</v>
       </c>
       <c r="M278" s="10" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="N278" s="10">
         <v>0</v>
@@ -20455,7 +20431,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="279" spans="1:18" ht="36">
+    <row r="279" spans="1:18" ht="48">
       <c r="A279">
         <v>55000293</v>
       </c>
@@ -20472,7 +20448,7 @@
       <c r="H279" s="17"/>
       <c r="I279" s="17"/>
       <c r="J279" s="21" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="K279" s="1" t="s">
         <v>723</v>
@@ -20481,7 +20457,7 @@
         <v>718</v>
       </c>
       <c r="M279" s="10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="N279" s="10">
         <v>0</v>
@@ -20495,7 +20471,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="280" spans="1:18" ht="48">
+    <row r="280" spans="1:18" ht="84">
       <c r="A280">
         <v>55000294</v>
       </c>
@@ -20508,12 +20484,12 @@
       <c r="D280" s="35"/>
       <c r="E280" s="35"/>
       <c r="F280" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G280" s="18"/>
       <c r="H280" s="17"/>
       <c r="I280" s="17" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="J280" s="21"/>
       <c r="K280" s="1" t="s">
@@ -20523,16 +20499,16 @@
         <v>718</v>
       </c>
       <c r="M280" s="10" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="N280" s="10">
         <v>0</v>
       </c>
       <c r="O280" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="P280" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q280" s="1">
         <f>600*3*2/12</f>
@@ -20542,7 +20518,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="281" spans="1:18" ht="84">
+    <row r="281" spans="1:18">
       <c r="A281">
         <v>55000295</v>
       </c>
@@ -20557,9 +20533,7 @@
       <c r="F281" s="34"/>
       <c r="G281" s="18"/>
       <c r="H281" s="17"/>
-      <c r="I281" s="17" t="s">
-        <v>1407</v>
-      </c>
+      <c r="I281" s="17"/>
       <c r="J281" s="21"/>
       <c r="K281" s="1" t="s">
         <v>723</v>
@@ -20568,7 +20542,7 @@
         <v>718</v>
       </c>
       <c r="M281" s="10" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="N281" s="10">
         <v>0</v>
@@ -20582,7 +20556,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="282" spans="1:18" ht="36">
+    <row r="282" spans="1:18" ht="24">
       <c r="A282">
         <v>55000296</v>
       </c>
@@ -20599,7 +20573,7 @@
       <c r="H282" s="17"/>
       <c r="I282" s="17"/>
       <c r="J282" s="21" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="K282" s="1" t="s">
         <v>723</v>
@@ -20622,7 +20596,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="283" spans="1:18" ht="24">
+    <row r="283" spans="1:18" ht="96">
       <c r="A283">
         <v>55000297</v>
       </c>
@@ -20639,7 +20613,7 @@
       </c>
       <c r="G283" s="18"/>
       <c r="H283" s="17" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="I283" s="17"/>
       <c r="J283" s="21"/>
@@ -20650,7 +20624,7 @@
         <v>718</v>
       </c>
       <c r="M283" s="10" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="N283" s="10">
         <v>0</v>
@@ -20664,7 +20638,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="284" spans="1:18" ht="96">
+    <row r="284" spans="1:18" ht="84">
       <c r="A284">
         <v>55000298</v>
       </c>
@@ -20681,7 +20655,7 @@
       </c>
       <c r="G284" s="18"/>
       <c r="H284" s="17" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="I284" s="17"/>
       <c r="J284" s="21"/>
@@ -20692,7 +20666,7 @@
         <v>718</v>
       </c>
       <c r="M284" s="10" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="N284" s="10">
         <v>0</v>
@@ -20706,7 +20680,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="285" spans="1:18" ht="84">
+    <row r="285" spans="1:18" ht="24">
       <c r="A285">
         <v>55000299</v>
       </c>
@@ -20750,7 +20724,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="286" spans="1:18" ht="24">
+    <row r="286" spans="1:18" ht="96">
       <c r="A286">
         <v>55000324</v>
       </c>
@@ -20763,12 +20737,12 @@
       <c r="D286" s="35"/>
       <c r="E286" s="35"/>
       <c r="F286" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G286" s="18"/>
       <c r="H286" s="17"/>
       <c r="I286" s="17" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="J286" s="21"/>
       <c r="K286" s="1" t="s">
@@ -20778,7 +20752,7 @@
         <v>718</v>
       </c>
       <c r="M286" s="10" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="N286" s="10">
         <v>0</v>
@@ -20787,7 +20761,7 @@
         <v>952</v>
       </c>
       <c r="P286" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q286" s="1">
         <f>1000*3*2/12</f>
@@ -20797,7 +20771,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="287" spans="1:18" ht="96">
+    <row r="287" spans="1:18" ht="84">
       <c r="A287">
         <v>55000325</v>
       </c>
@@ -20810,12 +20784,12 @@
       <c r="D287" s="35"/>
       <c r="E287" s="35"/>
       <c r="F287" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G287" s="18"/>
       <c r="H287" s="17"/>
       <c r="I287" s="17" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="J287" s="21"/>
       <c r="K287" s="1" t="s">
@@ -20825,7 +20799,7 @@
         <v>718</v>
       </c>
       <c r="M287" s="10" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="N287" s="10">
         <v>0</v>
@@ -20834,7 +20808,7 @@
         <v>953</v>
       </c>
       <c r="P287" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q287" s="1">
         <v>500</v>
@@ -20856,12 +20830,12 @@
       <c r="D288" s="35"/>
       <c r="E288" s="35"/>
       <c r="F288" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G288" s="18"/>
       <c r="H288" s="17"/>
       <c r="I288" s="17" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="J288" s="21"/>
       <c r="K288" s="1" t="s">
@@ -20880,7 +20854,7 @@
         <v>954</v>
       </c>
       <c r="P288" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q288" s="1">
         <v>1000</v>
@@ -20889,7 +20863,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="289" spans="1:18" ht="84">
+    <row r="289" spans="1:18" ht="96">
       <c r="A289">
         <v>55000327</v>
       </c>
@@ -20902,12 +20876,12 @@
       <c r="D289" s="35"/>
       <c r="E289" s="35"/>
       <c r="F289" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G289" s="18"/>
       <c r="H289" s="17"/>
       <c r="I289" s="17" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="J289" s="21"/>
       <c r="K289" s="1" t="s">
@@ -20926,7 +20900,7 @@
         <v>955</v>
       </c>
       <c r="P289" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q289" s="1">
         <v>833</v>
@@ -20935,7 +20909,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="290" spans="1:18" ht="96">
+    <row r="290" spans="1:18" ht="84">
       <c r="A290">
         <v>55000328</v>
       </c>
@@ -20948,12 +20922,12 @@
       <c r="D290" s="35"/>
       <c r="E290" s="35"/>
       <c r="F290" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G290" s="18"/>
       <c r="H290" s="17"/>
       <c r="I290" s="17" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="J290" s="21"/>
       <c r="K290" s="1" t="s">
@@ -20963,7 +20937,7 @@
         <v>718</v>
       </c>
       <c r="M290" s="10" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="N290" s="10">
         <v>0</v>
@@ -20972,7 +20946,7 @@
         <v>956</v>
       </c>
       <c r="P290" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q290" s="1">
         <f>1400*3*2/12</f>
@@ -20995,12 +20969,12 @@
       <c r="D291" s="35"/>
       <c r="E291" s="35"/>
       <c r="F291" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G291" s="18"/>
       <c r="H291" s="17"/>
       <c r="I291" s="17" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="J291" s="21"/>
       <c r="K291" s="1" t="s">
@@ -21010,7 +20984,7 @@
         <v>718</v>
       </c>
       <c r="M291" s="10" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="N291" s="10">
         <v>0</v>
@@ -21019,7 +20993,7 @@
         <v>957</v>
       </c>
       <c r="P291" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q291" s="1">
         <f>1200*3*2/12</f>
@@ -21029,7 +21003,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="292" spans="1:18" ht="84">
+    <row r="292" spans="1:18" ht="96">
       <c r="A292">
         <v>55000330</v>
       </c>
@@ -21042,12 +21016,12 @@
       <c r="D292" s="35"/>
       <c r="E292" s="35"/>
       <c r="F292" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G292" s="18"/>
       <c r="H292" s="17"/>
       <c r="I292" s="17" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="J292" s="21"/>
       <c r="K292" s="1" t="s">
@@ -21057,7 +21031,7 @@
         <v>718</v>
       </c>
       <c r="M292" s="10" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="N292" s="10">
         <v>0</v>
@@ -21066,7 +21040,7 @@
         <v>961</v>
       </c>
       <c r="P292" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q292" s="1">
         <f>240*2</f>
@@ -21076,7 +21050,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="293" spans="1:18" ht="96">
+    <row r="293" spans="1:18" ht="84">
       <c r="A293">
         <v>55000331</v>
       </c>
@@ -21089,12 +21063,12 @@
       <c r="D293" s="35"/>
       <c r="E293" s="35"/>
       <c r="F293" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G293" s="18"/>
       <c r="H293" s="17"/>
       <c r="I293" s="17" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="J293" s="21"/>
       <c r="K293" s="1" t="s">
@@ -21104,7 +21078,7 @@
         <v>718</v>
       </c>
       <c r="M293" s="10" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="N293" s="10">
         <v>0</v>
@@ -21113,7 +21087,7 @@
         <v>958</v>
       </c>
       <c r="P293" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q293" s="1">
         <f>300*2</f>
@@ -21123,7 +21097,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="294" spans="1:18" ht="84">
+    <row r="294" spans="1:18" ht="72">
       <c r="A294">
         <v>55000332</v>
       </c>
@@ -21163,7 +21137,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="295" spans="1:18" ht="72">
+    <row r="295" spans="1:18" ht="180">
       <c r="A295">
         <v>55000333</v>
       </c>
@@ -21178,7 +21152,7 @@
       <c r="F295" s="34"/>
       <c r="G295" s="18"/>
       <c r="H295" s="17" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="I295" s="17"/>
       <c r="J295" s="21"/>
@@ -21189,7 +21163,7 @@
         <v>718</v>
       </c>
       <c r="M295" s="10" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="N295" s="10">
         <v>0</v>
@@ -21203,7 +21177,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="296" spans="1:18" ht="180">
+    <row r="296" spans="1:18" ht="96">
       <c r="A296">
         <v>55000334</v>
       </c>
@@ -21216,12 +21190,12 @@
       <c r="D296" s="35"/>
       <c r="E296" s="35"/>
       <c r="F296" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G296" s="18"/>
       <c r="H296" s="17"/>
       <c r="I296" s="17" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="J296" s="21"/>
       <c r="K296" s="1" t="s">
@@ -21240,7 +21214,7 @@
         <v>963</v>
       </c>
       <c r="P296" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q296" s="1">
         <f>300*5*2/12</f>
@@ -21258,7 +21232,7 @@
         <v>667</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D297" s="35"/>
       <c r="E297" s="35"/>
@@ -21267,7 +21241,7 @@
       <c r="H297" s="17"/>
       <c r="I297" s="17"/>
       <c r="J297" s="21" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>723</v>
@@ -21276,7 +21250,7 @@
         <v>718</v>
       </c>
       <c r="M297" s="16" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="N297" s="10">
         <v>0</v>
@@ -21290,21 +21264,21 @@
         <v>668</v>
       </c>
     </row>
-    <row r="298" spans="1:18" ht="96">
+    <row r="298" spans="1:18" ht="48">
       <c r="A298">
         <v>55000340</v>
       </c>
       <c r="B298" s="11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C298" s="1" t="s">
-        <v>1046</v>
-      </c>
       <c r="D298" s="35" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E298" s="35" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F298" s="34"/>
       <c r="G298" s="18"/>
@@ -21318,34 +21292,34 @@
         <v>718</v>
       </c>
       <c r="M298" s="10" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="N298" s="10">
         <v>0</v>
       </c>
       <c r="O298" s="1"/>
       <c r="P298" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="Q298" s="1">
         <v>200</v>
       </c>
       <c r="R298" s="1" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="299" spans="1:18" ht="48">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" ht="24">
       <c r="A299">
         <v>55000341</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D299" s="35" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="E299" s="35"/>
       <c r="F299" s="34"/>
@@ -21360,34 +21334,34 @@
         <v>718</v>
       </c>
       <c r="M299" s="10" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="N299" s="10">
         <v>0</v>
       </c>
       <c r="O299" s="1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="P299" s="1"/>
       <c r="Q299" s="1">
         <v>800</v>
       </c>
       <c r="R299" s="1" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="300" spans="1:18" ht="24">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" ht="144">
       <c r="A300">
         <v>55000342</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C300" s="39" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="D300" s="35" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="E300" s="40"/>
       <c r="F300" s="53"/>
@@ -21399,10 +21373,10 @@
         <v>723</v>
       </c>
       <c r="L300" s="47" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="M300" s="16" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="N300" s="39">
         <v>0</v>
@@ -21413,7 +21387,7 @@
         <v>400</v>
       </c>
       <c r="R300" s="1" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="301" spans="1:18" ht="144">
@@ -21421,13 +21395,13 @@
         <v>55000343</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C301" s="39" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="D301" s="35" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="E301" s="40"/>
       <c r="F301" s="41"/>
@@ -21439,10 +21413,10 @@
         <v>723</v>
       </c>
       <c r="L301" s="47" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="M301" s="16" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="N301" s="39">
         <v>0</v>
@@ -21453,12 +21427,12 @@
         <v>600</v>
       </c>
       <c r="R301" s="1" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="302" spans="1:18" ht="144">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" ht="36">
       <c r="A302" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="B302" s="11" t="s">
         <v>129</v>
@@ -21472,7 +21446,7 @@
       <c r="G302" s="30"/>
       <c r="H302" s="37"/>
       <c r="I302" s="17" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="J302" s="21"/>
       <c r="K302" s="52" t="s">
@@ -21482,7 +21456,7 @@
         <v>718</v>
       </c>
       <c r="M302" s="10" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="N302" s="10">
         <v>0</v>
@@ -21511,11 +21485,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21563,7 +21537,7 @@
         <v>894</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>722</v>
@@ -21575,13 +21549,13 @@
         <v>728</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>714</v>
@@ -21601,22 +21575,22 @@
         <v>705</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>751</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>930</v>
@@ -21628,16 +21602,16 @@
         <v>717</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>705</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>704</v>
@@ -21657,16 +21631,16 @@
         <v>708</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>752</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>730</v>
@@ -21675,7 +21649,7 @@
         <v>893</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>724</v>
@@ -21684,16 +21658,16 @@
         <v>719</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>709</v>
@@ -21713,7 +21687,7 @@
         <v>675</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="34"/>
@@ -21728,7 +21702,7 @@
         <v>720</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -21755,11 +21729,11 @@
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="34" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="17" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="21"/>
@@ -21770,7 +21744,7 @@
         <v>720</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="N5" s="10">
         <v>0</v>
@@ -21795,7 +21769,7 @@
         <v>675</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="34"/>
@@ -21810,7 +21784,7 @@
         <v>720</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -21875,7 +21849,7 @@
         <v>675</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="34"/>
@@ -21890,7 +21864,7 @@
         <v>720</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N8" s="10">
         <v>0</v>
@@ -21921,7 +21895,7 @@
         <v>877</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="21"/>
@@ -21932,7 +21906,7 @@
         <v>720</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N9" s="10">
         <v>0</v>
@@ -21963,7 +21937,7 @@
         <v>892</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="21"/>
@@ -21974,7 +21948,7 @@
         <v>720</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="N10" s="10">
         <v>0</v>
@@ -22014,7 +21988,7 @@
         <v>720</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="N11" s="10">
         <v>0</v>
@@ -22054,7 +22028,7 @@
         <v>720</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="N12" s="10">
         <v>0</v>
@@ -22079,7 +22053,7 @@
         <v>675</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="34"/>
@@ -22094,7 +22068,7 @@
         <v>720</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
@@ -22159,7 +22133,7 @@
         <v>675</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="34"/>
@@ -22174,7 +22148,7 @@
         <v>720</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="N15" s="10">
         <v>0</v>
@@ -22201,11 +22175,11 @@
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="34" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="17" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="21"/>
@@ -22216,7 +22190,7 @@
         <v>720</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="N16" s="10">
         <v>0</v>
@@ -22254,7 +22228,7 @@
         <v>720</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="N17" s="10">
         <v>0</v>
@@ -22294,7 +22268,7 @@
         <v>720</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -22319,15 +22293,15 @@
         <v>675</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="17" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="21"/>
@@ -22338,7 +22312,7 @@
         <v>720</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="N19" s="10">
         <v>0</v>
@@ -22363,7 +22337,7 @@
         <v>675</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="34"/>
@@ -22378,7 +22352,7 @@
         <v>720</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -22403,13 +22377,13 @@
         <v>675</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="34"/>
       <c r="G21" s="18"/>
       <c r="H21" s="17" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="21"/>
@@ -22420,7 +22394,7 @@
         <v>720</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="N21" s="10">
         <v>0</v>
@@ -22449,7 +22423,7 @@
       <c r="F22" s="34"/>
       <c r="G22" s="18"/>
       <c r="H22" s="17" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="21"/>
@@ -22460,7 +22434,7 @@
         <v>720</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="N22" s="10">
         <v>0</v>
@@ -22485,7 +22459,7 @@
         <v>675</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="34"/>
@@ -22500,7 +22474,7 @@
         <v>720</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
@@ -22525,7 +22499,7 @@
         <v>675</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="34"/>
@@ -22540,7 +22514,7 @@
         <v>720</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
@@ -22565,7 +22539,7 @@
         <v>675</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="34"/>
@@ -22580,7 +22554,7 @@
         <v>720</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="N25" s="1">
         <v>0</v>
@@ -22605,7 +22579,7 @@
         <v>675</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="34"/>
@@ -22620,7 +22594,7 @@
         <v>720</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="N26" s="1">
         <v>0</v>
@@ -22634,7 +22608,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="48">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>55010024</v>
       </c>
@@ -22644,9 +22618,7 @@
       <c r="C27" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>1171</v>
-      </c>
+      <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="34"/>
       <c r="G27" s="18"/>
@@ -22660,7 +22632,7 @@
         <v>720</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
@@ -22674,7 +22646,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="60">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>55010025</v>
       </c>
@@ -22684,9 +22656,7 @@
       <c r="C28" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D28" s="35" t="s">
-        <v>1170</v>
-      </c>
+      <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="34"/>
       <c r="G28" s="18"/>
@@ -22700,7 +22670,7 @@
         <v>720</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="N28" s="1">
         <v>0</v>
@@ -22725,7 +22695,7 @@
         <v>675</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="34"/>
@@ -22740,7 +22710,7 @@
         <v>720</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
@@ -22765,7 +22735,7 @@
         <v>675</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="34"/>
@@ -22780,7 +22750,7 @@
         <v>720</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
@@ -22796,10 +22766,10 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>675</v>
@@ -22818,7 +22788,7 @@
         <v>720</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="N31" s="1">
         <v>0</v>
@@ -22837,7 +22807,7 @@
         <v>55010029</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>675</v>
@@ -22845,7 +22815,7 @@
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="29" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G32" s="30"/>
       <c r="H32" s="17" t="s">
@@ -22860,7 +22830,7 @@
         <v>720</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="N32" s="28">
         <v>0</v>
@@ -22879,7 +22849,7 @@
         <v>55010030</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>675</v>
@@ -22891,10 +22861,10 @@
       </c>
       <c r="G33" s="30"/>
       <c r="H33" s="37" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="31" t="s">
@@ -22904,7 +22874,7 @@
         <v>720</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="N33" s="28">
         <v>0</v>
@@ -22933,11 +22903,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22985,7 +22955,7 @@
         <v>894</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>722</v>
@@ -22997,13 +22967,13 @@
         <v>728</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>714</v>
@@ -23023,22 +22993,22 @@
         <v>705</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>751</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>930</v>
@@ -23050,10 +23020,10 @@
         <v>717</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>705</v>
@@ -23079,16 +23049,16 @@
         <v>708</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>752</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>730</v>
@@ -23097,7 +23067,7 @@
         <v>893</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>724</v>
@@ -23106,16 +23076,16 @@
         <v>719</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>709</v>
@@ -23137,7 +23107,7 @@
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="34" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="17" t="s">
@@ -23152,7 +23122,7 @@
         <v>718</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="N4" s="10">
         <v>0</v>
@@ -23194,7 +23164,7 @@
         <v>718</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -23236,7 +23206,7 @@
         <v>718</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -23278,7 +23248,7 @@
         <v>718</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -23320,7 +23290,7 @@
         <v>718</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
@@ -23362,7 +23332,7 @@
         <v>718</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
@@ -23404,7 +23374,7 @@
         <v>718</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
@@ -23446,7 +23416,7 @@
         <v>718</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -23854,7 +23824,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -23902,7 +23872,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -23950,7 +23920,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -23998,7 +23968,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -24046,7 +24016,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -24094,7 +24064,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -24142,7 +24112,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -24190,7 +24160,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -24238,45 +24208,45 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B11" t="s">
         <v>1101</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B12" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E12" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="F12" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B13" t="s">
         <v>1104</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B14" t="s">
         <v>1107</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B15">
         <v>300</v>
@@ -24284,7 +24254,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B16">
         <v>5000</v>
@@ -24292,7 +24262,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B17" s="26">
         <v>0.2</v>
@@ -24300,7 +24270,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B18" s="26">
         <v>0.1</v>
@@ -24308,7 +24278,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B19" s="26">
         <v>0.3</v>
@@ -24316,13 +24286,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B20" t="s">
         <v>1131</v>
       </c>
-      <c r="B20" t="s">
-        <v>1132</v>
-      </c>
       <c r="D20" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -24330,31 +24300,31 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>1153</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B22" t="s">
         <v>1149</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B23" t="s">
         <v>1151</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -24362,7 +24332,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -24370,7 +24340,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="B26" s="26">
         <v>0.2</v>
@@ -24378,7 +24348,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B32">
         <v>800</v>
@@ -24386,7 +24356,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B33">
         <v>500</v>
@@ -24411,12 +24381,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="3" spans="1:1">

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="1531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="1519">
   <si>
     <t>夜色</t>
   </si>
@@ -2679,10 +2679,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>d.Spd&lt;s.Spd</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>d.Atk&gt;s.Atk</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2715,10 +2711,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>damage.AddPDamage(d.Def);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>d.IsElement("Water")||d.IsElement("Wind")||d.IsElement("Fire")</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2731,14 +2723,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>s.Spd&gt;d.Spd</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage.AddPDamage(s.Spd-d.Spd);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>damage.SetMDamageRate(1.2);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2799,10 +2783,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>d.Def&gt;s.Def</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>d.IsRace("Undead")</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3372,10 +3352,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>s.Ats=5;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击附带30%英雄卡片的攻击</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3738,10 +3714,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>s.Ats=15;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>行动力累积速度提高50%</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4291,18 +4263,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>damage.AddPDamage(d.Def*0.2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage.AddPDamage(d.Def*0.3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage.AddPDamage(d.Def*0.15);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>hit+=20;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5074,22 +5034,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>s.Atk.Source*=MathTool.GetRandom(1f,1.3);s.Def.Source*=MathTool.GetRandom(1f,1.3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>召唤时永久增加0-30%攻击和防御</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>if(deadHit){s.Atk.Source*=1.1;s.Def.Source*=1.1;}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(deadHit){s.Atk.Source+=d.Atk.Source*0.3;s.Def.Source+=d.Def.Source*0.3;}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>s.MaxHp-=(int)(s.MaxHp*0.3);s.Atk.Source*=0.7;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5231,10 +5179,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>s.Spd*=0.3;skip=true;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>s.SetToPosition("around");s.Atk.Source+=10;skip=true;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5247,10 +5191,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>s.Def.Source*=1.2;skip=true;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,"E","O",0,s.Position,"etwave")) o.ExtendDebuff(2);skip=true;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5560,15 +5500,27 @@
     <t>s.IsMagicAtk&amp;&amp;s.HasScroll</t>
   </si>
   <si>
-    <t>s.Mag+=s.Mag.Source*0.2;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>召唤时提高20%魔力</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>s.Atk.Source*=1.15;skip=true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip=true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Atk.Source*=MathTool.GetRandom(1f,1.3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(deadHit){s.Atk.Source*=1.1;}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(deadHit){s.Atk.Source+=d.Atk.Source*0.3;}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -8839,10 +8791,10 @@
   <dimension ref="A1:R302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C261" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C250" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J266" sqref="J266"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8890,10 +8842,10 @@
         <v>731</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>722</v>
@@ -8905,13 +8857,13 @@
         <v>728</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>714</v>
@@ -8931,25 +8883,25 @@
         <v>705</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>751</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1414</v>
+        <v>1401</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>721</v>
@@ -8958,16 +8910,16 @@
         <v>717</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>705</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>704</v>
@@ -8987,25 +8939,25 @@
         <v>708</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>752</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>724</v>
@@ -9014,16 +8966,16 @@
         <v>719</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1452</v>
+        <v>1437</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>709</v>
@@ -9048,7 +9000,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17" t="s">
-        <v>1481</v>
+        <v>1466</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="1" t="s">
@@ -9058,7 +9010,7 @@
         <v>718</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="N4" s="14">
         <v>0</v>
@@ -9089,7 +9041,7 @@
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="17" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="21"/>
@@ -9140,7 +9092,7 @@
         <v>718</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="N6" s="57">
         <v>0</v>
@@ -9171,7 +9123,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="21" t="s">
-        <v>1438</v>
+        <v>1425</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>723</v>
@@ -9180,7 +9132,7 @@
         <v>718</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="N7" s="14">
         <v>0</v>
@@ -9883,7 +9835,7 @@
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="37" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="21"/>
@@ -9894,7 +9846,7 @@
         <v>718</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="N24" s="57">
         <v>0</v>
@@ -9913,10 +9865,10 @@
         <v>55000021</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>1410</v>
+        <v>1397</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
@@ -9926,13 +9878,13 @@
       <c r="I25" s="50"/>
       <c r="J25" s="51"/>
       <c r="K25" s="1" t="s">
-        <v>1411</v>
+        <v>1398</v>
       </c>
       <c r="L25" s="9" t="s">
         <v>718</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>1412</v>
+        <v>1399</v>
       </c>
       <c r="N25" s="57">
         <v>0</v>
@@ -9943,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>1413</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="24">
@@ -9962,7 +9914,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17" t="s">
-        <v>1473</v>
+        <v>1458</v>
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="1" t="s">
@@ -9972,7 +9924,7 @@
         <v>718</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="N26" s="14">
         <v>0</v>
@@ -10001,7 +9953,7 @@
       <c r="F27" s="34"/>
       <c r="G27" s="18"/>
       <c r="H27" s="17" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="21"/>
@@ -10012,14 +9964,14 @@
         <v>718</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="N27" s="14">
         <v>0</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="Q27" s="1">
         <v>400</v>
@@ -10041,12 +9993,12 @@
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="J28" s="21"/>
       <c r="K28" s="1" t="s">
@@ -10056,7 +10008,7 @@
         <v>718</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="N28" s="14">
         <v>0</v>
@@ -10083,12 +10035,12 @@
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
       <c r="F29" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="J29" s="21"/>
       <c r="K29" s="1" t="s">
@@ -10098,7 +10050,7 @@
         <v>718</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="N29" s="14">
         <v>0</v>
@@ -10112,7 +10064,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="24">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>55000033</v>
       </c>
@@ -10120,7 +10072,7 @@
         <v>669</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -10129,7 +10081,7 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="21" t="s">
-        <v>1439</v>
+        <v>1515</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>723</v>
@@ -10138,7 +10090,7 @@
         <v>718</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="N30" s="14">
         <v>0</v>
@@ -10169,7 +10121,7 @@
       <c r="F31" s="34"/>
       <c r="G31" s="18"/>
       <c r="H31" s="17" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="21"/>
@@ -10180,7 +10132,7 @@
         <v>718</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="N31" s="14">
         <v>0</v>
@@ -10210,7 +10162,7 @@
       <c r="G32" s="18"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>1457</v>
+        <v>1442</v>
       </c>
       <c r="J32" s="21"/>
       <c r="K32" s="1" t="s">
@@ -10247,11 +10199,11 @@
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
       <c r="F33" s="34" t="s">
-        <v>1527</v>
+        <v>1512</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="17" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="21"/>
@@ -10262,7 +10214,7 @@
         <v>718</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="N33" s="10">
         <v>0</v>
@@ -10291,7 +10243,7 @@
       <c r="F34" s="34"/>
       <c r="G34" s="18"/>
       <c r="H34" s="17" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="21"/>
@@ -10302,7 +10254,7 @@
         <v>718</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="N34" s="10">
         <v>0</v>
@@ -10331,7 +10283,7 @@
       <c r="F35" s="34"/>
       <c r="G35" s="18"/>
       <c r="H35" s="17" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="21"/>
@@ -10342,7 +10294,7 @@
         <v>718</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="N35" s="10">
         <v>0</v>
@@ -10371,7 +10323,7 @@
       <c r="F36" s="34"/>
       <c r="G36" s="18"/>
       <c r="H36" s="17" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="21"/>
@@ -10382,7 +10334,7 @@
         <v>718</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="N36" s="10">
         <v>0</v>
@@ -10411,7 +10363,7 @@
       <c r="F37" s="34"/>
       <c r="G37" s="18"/>
       <c r="H37" s="17" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="21"/>
@@ -10422,7 +10374,7 @@
         <v>718</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="N37" s="10">
         <v>0</v>
@@ -10451,7 +10403,7 @@
       <c r="F38" s="34"/>
       <c r="G38" s="18"/>
       <c r="H38" s="17" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="21"/>
@@ -10471,7 +10423,7 @@
         <v>88</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="Q38" s="1">
         <v>2000</v>
@@ -10497,7 +10449,7 @@
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="17" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="21"/>
@@ -10508,7 +10460,7 @@
         <v>718</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="N39" s="15">
         <v>0</v>
@@ -10538,7 +10490,7 @@
       <c r="G40" s="18"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17" t="s">
-        <v>1447</v>
+        <v>1432</v>
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="1" t="s">
@@ -10548,7 +10500,7 @@
         <v>718</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="N40" s="10">
         <v>0</v>
@@ -10578,7 +10530,7 @@
       <c r="G41" s="18"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17" t="s">
-        <v>1482</v>
+        <v>1467</v>
       </c>
       <c r="J41" s="21"/>
       <c r="K41" s="1" t="s">
@@ -10588,7 +10540,7 @@
         <v>718</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="N41" s="10">
         <v>0</v>
@@ -10613,7 +10565,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="34"/>
@@ -10622,13 +10574,13 @@
       <c r="I42" s="17"/>
       <c r="J42" s="21"/>
       <c r="K42" s="1" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="L42" s="9" t="s">
         <v>718</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="N42" s="10">
         <v>0</v>
@@ -10650,7 +10602,7 @@
         <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -10659,7 +10611,7 @@
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="21" t="s">
-        <v>1440</v>
+        <v>1426</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>723</v>
@@ -10668,7 +10620,7 @@
         <v>718</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="N43" s="10">
         <v>0</v>
@@ -10695,22 +10647,22 @@
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
       <c r="F44" s="34" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="21"/>
       <c r="K44" s="10" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>718</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="N44" s="10">
         <v>0</v>
@@ -10735,7 +10687,7 @@
         <v>104</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>1502</v>
+        <v>1487</v>
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="34"/>
@@ -10750,14 +10702,14 @@
         <v>718</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="N45" s="10">
         <v>56000111</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q45" s="1">
         <v>300</v>
@@ -10781,7 +10733,7 @@
       <c r="F46" s="34"/>
       <c r="G46" s="18"/>
       <c r="H46" s="17" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="21"/>
@@ -10792,7 +10744,7 @@
         <v>718</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="N46" s="15">
         <v>0</v>
@@ -10819,11 +10771,11 @@
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
       <c r="F47" s="34" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="17" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="21"/>
@@ -10834,7 +10786,7 @@
         <v>718</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="N47" s="10">
         <v>0</v>
@@ -10864,7 +10816,7 @@
       <c r="G48" s="18"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="J48" s="21"/>
       <c r="K48" s="1" t="s">
@@ -10901,7 +10853,7 @@
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
       <c r="F49" s="34" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="G49" s="18"/>
       <c r="H49" s="17" t="s">
@@ -10916,7 +10868,7 @@
         <v>718</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="N49" s="10">
         <v>0</v>
@@ -10946,7 +10898,7 @@
       <c r="G50" s="18"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17" t="s">
-        <v>1490</v>
+        <v>1475</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="1" t="s">
@@ -10956,7 +10908,7 @@
         <v>718</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="N50" s="10">
         <v>0</v>
@@ -10983,12 +10935,12 @@
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
       <c r="F51" s="34" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="1" t="s">
@@ -11023,10 +10975,10 @@
         <v>104</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="18"/>
@@ -11040,14 +10992,14 @@
         <v>718</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="N52" s="10">
         <v>0</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q52" s="1">
         <v>500</v>
@@ -11069,11 +11021,11 @@
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
       <c r="F53" s="34" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="17" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="I53" s="17"/>
       <c r="J53" s="21"/>
@@ -11084,7 +11036,7 @@
         <v>718</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="N53" s="10">
         <v>0</v>
@@ -11111,11 +11063,11 @@
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
       <c r="F54" s="34" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="17" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="I54" s="17"/>
       <c r="J54" s="21"/>
@@ -11126,7 +11078,7 @@
         <v>718</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="N54" s="10">
         <v>0</v>
@@ -11153,11 +11105,11 @@
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
       <c r="F55" s="34" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="17" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="I55" s="17"/>
       <c r="J55" s="21"/>
@@ -11168,7 +11120,7 @@
         <v>718</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="N55" s="10">
         <v>0</v>
@@ -11195,11 +11147,11 @@
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
       <c r="F56" s="34" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="17" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="21"/>
@@ -11210,7 +11162,7 @@
         <v>718</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="N56" s="10">
         <v>0</v>
@@ -11237,11 +11189,11 @@
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
       <c r="F57" s="34" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="17" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="21"/>
@@ -11252,7 +11204,7 @@
         <v>718</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="N57" s="10">
         <v>0</v>
@@ -11279,11 +11231,11 @@
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
       <c r="F58" s="34" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="17" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="I58" s="17"/>
       <c r="J58" s="21"/>
@@ -11294,7 +11246,7 @@
         <v>718</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="N58" s="10">
         <v>0</v>
@@ -11321,11 +11273,11 @@
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
       <c r="F59" s="34" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="17" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="I59" s="17"/>
       <c r="J59" s="21"/>
@@ -11336,7 +11288,7 @@
         <v>718</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="N59" s="10">
         <v>0</v>
@@ -11363,11 +11315,11 @@
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
       <c r="F60" s="34" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="G60" s="18"/>
       <c r="H60" s="17" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="I60" s="17"/>
       <c r="J60" s="21"/>
@@ -11378,7 +11330,7 @@
         <v>718</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="N60" s="10">
         <v>0</v>
@@ -11405,22 +11357,22 @@
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
       <c r="F61" s="34" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G61" s="18"/>
       <c r="H61" s="17" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="21"/>
       <c r="K61" s="10" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="L61" s="9" t="s">
         <v>718</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="N61" s="10">
         <v>0</v>
@@ -11450,7 +11402,7 @@
       <c r="G62" s="18"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="J62" s="21"/>
       <c r="K62" s="10" t="s">
@@ -11460,7 +11412,7 @@
         <v>718</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="N62" s="10">
         <v>0</v>
@@ -11487,11 +11439,11 @@
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
       <c r="F63" s="34" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="17" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="21"/>
@@ -11533,7 +11485,7 @@
       <c r="F64" s="34"/>
       <c r="G64" s="18"/>
       <c r="H64" s="17" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="21"/>
@@ -11573,20 +11525,20 @@
       <c r="F65" s="34"/>
       <c r="G65" s="18"/>
       <c r="H65" s="17" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="J65" s="21"/>
       <c r="K65" s="10" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="L65" s="9" t="s">
         <v>718</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="N65" s="10">
         <v>0</v>
@@ -11616,7 +11568,7 @@
       <c r="G66" s="18"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="J66" s="21"/>
       <c r="K66" s="1" t="s">
@@ -11626,7 +11578,7 @@
         <v>718</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="N66" s="10">
         <v>0</v>
@@ -11653,12 +11605,12 @@
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
       <c r="F67" s="34" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="J67" s="21"/>
       <c r="K67" s="1" t="s">
@@ -11695,12 +11647,12 @@
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
       <c r="F68" s="34" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="J68" s="21"/>
       <c r="K68" s="1" t="s">
@@ -11740,7 +11692,7 @@
       <c r="G69" s="18"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="J69" s="21"/>
       <c r="K69" s="1" t="s">
@@ -11777,12 +11729,12 @@
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
       <c r="F70" s="34" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="G70" s="18"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17" t="s">
-        <v>1474</v>
+        <v>1459</v>
       </c>
       <c r="J70" s="21"/>
       <c r="K70" s="1" t="s">
@@ -11792,7 +11744,7 @@
         <v>718</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="N70" s="10">
         <v>0</v>
@@ -11814,7 +11766,7 @@
         <v>183</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -11823,7 +11775,7 @@
       <c r="H71" s="17"/>
       <c r="I71" s="22"/>
       <c r="J71" s="21" t="s">
-        <v>1465</v>
+        <v>1450</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>723</v>
@@ -11832,7 +11784,7 @@
         <v>718</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="N71" s="10">
         <v>0</v>
@@ -11841,7 +11793,7 @@
         <v>185</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="Q71" s="1">
         <v>1500</v>
@@ -11858,7 +11810,7 @@
         <v>187</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
@@ -11866,7 +11818,7 @@
       <c r="G72" s="18"/>
       <c r="H72" s="17"/>
       <c r="I72" s="22" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="J72" s="23"/>
       <c r="K72" s="1" t="s">
@@ -11876,7 +11828,7 @@
         <v>718</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="N72" s="10">
         <v>0</v>
@@ -11885,7 +11837,7 @@
         <v>185</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="Q72" s="1">
         <v>1000</v>
@@ -11911,7 +11863,7 @@
       </c>
       <c r="G73" s="18"/>
       <c r="H73" s="17" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="21"/>
@@ -11922,7 +11874,7 @@
         <v>718</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="N73" s="10">
         <v>0</v>
@@ -11994,7 +11946,7 @@
       <c r="G75" s="18"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="J75" s="21"/>
       <c r="K75" s="1" t="s">
@@ -12004,7 +11956,7 @@
         <v>718</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="N75" s="10">
         <v>0</v>
@@ -12034,7 +11986,7 @@
       <c r="G76" s="18"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
       <c r="J76" s="21"/>
       <c r="K76" s="1" t="s">
@@ -12044,7 +11996,7 @@
         <v>718</v>
       </c>
       <c r="M76" s="10" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="N76" s="10">
         <v>0</v>
@@ -12074,7 +12026,7 @@
       <c r="G77" s="18"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="J77" s="21"/>
       <c r="K77" s="1" t="s">
@@ -12084,7 +12036,7 @@
         <v>718</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="N77" s="10">
         <v>0</v>
@@ -12109,7 +12061,7 @@
         <v>101</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>1525</v>
+        <v>1510</v>
       </c>
       <c r="E78" s="35"/>
       <c r="F78" s="34"/>
@@ -12154,7 +12106,7 @@
       <c r="G79" s="18"/>
       <c r="H79" s="17"/>
       <c r="I79" s="17" t="s">
-        <v>1476</v>
+        <v>1461</v>
       </c>
       <c r="J79" s="21"/>
       <c r="K79" s="1" t="s">
@@ -12164,7 +12116,7 @@
         <v>718</v>
       </c>
       <c r="M79" s="10" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="N79" s="10">
         <v>0</v>
@@ -12186,7 +12138,7 @@
         <v>184</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -12195,7 +12147,7 @@
       <c r="H80" s="17"/>
       <c r="I80" s="22"/>
       <c r="J80" s="19" t="s">
-        <v>1466</v>
+        <v>1451</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>723</v>
@@ -12204,16 +12156,16 @@
         <v>718</v>
       </c>
       <c r="M80" s="10" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="N80" s="10">
         <v>0</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="Q80" s="1">
         <v>500</v>
@@ -12238,7 +12190,7 @@
       <c r="G81" s="18"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17" t="s">
-        <v>1475</v>
+        <v>1460</v>
       </c>
       <c r="J81" s="21"/>
       <c r="K81" s="1" t="s">
@@ -12248,7 +12200,7 @@
         <v>718</v>
       </c>
       <c r="M81" s="10" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="N81" s="10">
         <v>0</v>
@@ -12278,7 +12230,7 @@
       <c r="G82" s="18"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17" t="s">
-        <v>1491</v>
+        <v>1476</v>
       </c>
       <c r="J82" s="21"/>
       <c r="K82" s="1" t="s">
@@ -12288,7 +12240,7 @@
         <v>718</v>
       </c>
       <c r="M82" s="10" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="N82" s="10">
         <v>0</v>
@@ -12318,7 +12270,7 @@
       <c r="G83" s="18"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17" t="s">
-        <v>1480</v>
+        <v>1465</v>
       </c>
       <c r="J83" s="21"/>
       <c r="K83" s="1" t="s">
@@ -12328,7 +12280,7 @@
         <v>718</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="N83" s="10">
         <v>0</v>
@@ -12357,7 +12309,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="18"/>
       <c r="H84" s="17" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="21"/>
@@ -12368,7 +12320,7 @@
         <v>718</v>
       </c>
       <c r="M84" s="15" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="N84" s="15">
         <v>0</v>
@@ -12393,7 +12345,7 @@
         <v>104</v>
       </c>
       <c r="D85" s="35" t="s">
-        <v>1504</v>
+        <v>1489</v>
       </c>
       <c r="E85" s="35"/>
       <c r="F85" s="34"/>
@@ -12408,14 +12360,14 @@
         <v>718</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="N85" s="10">
         <v>56000101</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q85" s="1">
         <v>80</v>
@@ -12437,12 +12389,12 @@
       <c r="D86" s="35"/>
       <c r="E86" s="35"/>
       <c r="F86" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G86" s="18"/>
       <c r="H86" s="17"/>
       <c r="I86" s="17" t="s">
-        <v>1448</v>
+        <v>1433</v>
       </c>
       <c r="J86" s="21"/>
       <c r="K86" s="1" t="s">
@@ -12452,16 +12404,16 @@
         <v>718</v>
       </c>
       <c r="M86" s="10" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="N86" s="10">
         <v>0</v>
       </c>
       <c r="O86" s="10" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="P86" s="10" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Q86" s="1">
         <f>800*3*2/12</f>
@@ -12482,7 +12434,7 @@
         <v>76</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="E87" s="35"/>
       <c r="F87" s="34"/>
@@ -12524,11 +12476,11 @@
       <c r="D88" s="35"/>
       <c r="E88" s="35"/>
       <c r="F88" s="34" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G88" s="18"/>
       <c r="H88" s="17" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="21"/>
@@ -12572,7 +12524,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="21" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>723</v>
@@ -12581,7 +12533,7 @@
         <v>718</v>
       </c>
       <c r="M89" s="10" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="N89" s="10">
         <v>0</v>
@@ -12612,7 +12564,7 @@
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
       <c r="J90" s="21" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>723</v>
@@ -12621,7 +12573,7 @@
         <v>718</v>
       </c>
       <c r="M90" s="10" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="N90" s="10">
         <v>0</v>
@@ -12645,9 +12597,7 @@
       <c r="C91" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="35" t="s">
-        <v>1057</v>
-      </c>
+      <c r="D91" s="35"/>
       <c r="E91" s="35"/>
       <c r="F91" s="34"/>
       <c r="G91" s="18"/>
@@ -12661,7 +12611,7 @@
         <v>718</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="N91" s="1">
         <v>0</v>
@@ -12730,12 +12680,12 @@
       <c r="D93" s="35"/>
       <c r="E93" s="35"/>
       <c r="F93" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G93" s="18"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17" t="s">
-        <v>1415</v>
+        <v>1402</v>
       </c>
       <c r="J93" s="21"/>
       <c r="K93" s="1" t="s">
@@ -12745,16 +12695,16 @@
         <v>718</v>
       </c>
       <c r="M93" s="10" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="N93" s="10">
         <v>0</v>
       </c>
       <c r="O93" s="10" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="P93" s="10" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Q93" s="1">
         <f>1000*1.5*2/12</f>
@@ -12777,11 +12727,11 @@
       <c r="D94" s="35"/>
       <c r="E94" s="35"/>
       <c r="F94" s="34" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G94" s="18"/>
       <c r="H94" s="17" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="I94" s="17"/>
       <c r="J94" s="21"/>
@@ -12792,7 +12742,7 @@
         <v>718</v>
       </c>
       <c r="M94" s="10" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="N94" s="10">
         <v>0</v>
@@ -12819,22 +12769,22 @@
       <c r="D95" s="35"/>
       <c r="E95" s="35"/>
       <c r="F95" s="34" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="G95" s="18"/>
       <c r="H95" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="21"/>
       <c r="K95" s="10" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="L95" s="9" t="s">
         <v>718</v>
       </c>
       <c r="M95" s="10" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="N95" s="10">
         <v>0</v>
@@ -12859,7 +12809,7 @@
         <v>104</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>1505</v>
+        <v>1490</v>
       </c>
       <c r="E96" s="35"/>
       <c r="F96" s="34"/>
@@ -12874,14 +12824,14 @@
         <v>718</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="N96" s="10">
         <v>56000101</v>
       </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q96" s="1">
         <v>80</v>
@@ -12901,7 +12851,7 @@
         <v>76</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="E97" s="35"/>
       <c r="F97" s="34"/>
@@ -12941,7 +12891,7 @@
         <v>76</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="E98" s="35"/>
       <c r="F98" s="34"/>
@@ -12983,11 +12933,11 @@
       <c r="D99" s="35"/>
       <c r="E99" s="35"/>
       <c r="F99" s="34" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G99" s="18"/>
       <c r="H99" s="17" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="I99" s="17"/>
       <c r="J99" s="21"/>
@@ -13022,17 +12972,17 @@
         <v>249</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D100" s="35"/>
       <c r="E100" s="35"/>
       <c r="F100" s="34"/>
       <c r="G100" s="18" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="H100" s="17"/>
       <c r="I100" s="17" t="s">
-        <v>1436</v>
+        <v>1423</v>
       </c>
       <c r="J100" s="21"/>
       <c r="K100" s="1" t="s">
@@ -13042,7 +12992,7 @@
         <v>718</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="N100" s="10">
         <v>0</v>
@@ -13067,7 +13017,7 @@
         <v>104</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>1511</v>
+        <v>1496</v>
       </c>
       <c r="E101" s="35"/>
       <c r="F101" s="34"/>
@@ -13082,14 +13032,14 @@
         <v>718</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="N101" s="10">
         <v>56000101</v>
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q101" s="1">
         <v>111</v>
@@ -13114,7 +13064,7 @@
       <c r="G102" s="18"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17" t="s">
-        <v>1495</v>
+        <v>1480</v>
       </c>
       <c r="J102" s="21"/>
       <c r="K102" s="1" t="s">
@@ -13124,7 +13074,7 @@
         <v>718</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="N102" s="10">
         <v>0</v>
@@ -13153,7 +13103,7 @@
       <c r="F103" s="34"/>
       <c r="G103" s="18"/>
       <c r="H103" s="17" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="21"/>
@@ -13173,7 +13123,7 @@
         <v>88</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="Q103" s="1">
         <v>2000</v>
@@ -13198,7 +13148,7 @@
       <c r="G104" s="18"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17" t="s">
-        <v>1437</v>
+        <v>1424</v>
       </c>
       <c r="J104" s="21"/>
       <c r="K104" s="1" t="s">
@@ -13208,7 +13158,7 @@
         <v>718</v>
       </c>
       <c r="M104" s="10" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="N104" s="10">
         <v>0</v>
@@ -13235,11 +13185,11 @@
       <c r="D105" s="35"/>
       <c r="E105" s="35"/>
       <c r="F105" s="34" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="G105" s="18"/>
       <c r="H105" s="17" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="21"/>
@@ -13250,7 +13200,7 @@
         <v>718</v>
       </c>
       <c r="M105" s="10" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="N105" s="10">
         <v>0</v>
@@ -13275,7 +13225,7 @@
         <v>104</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>1506</v>
+        <v>1491</v>
       </c>
       <c r="E106" s="35"/>
       <c r="F106" s="34"/>
@@ -13290,14 +13240,14 @@
         <v>718</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="N106" s="10">
         <v>56000101</v>
       </c>
       <c r="O106" s="1"/>
       <c r="P106" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q106" s="1">
         <v>83</v>
@@ -13321,7 +13271,7 @@
       <c r="F107" s="34"/>
       <c r="G107" s="18"/>
       <c r="H107" s="17" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="21"/>
@@ -13332,14 +13282,14 @@
         <v>718</v>
       </c>
       <c r="M107" s="10" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="N107" s="10">
         <v>0</v>
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="Q107" s="1">
         <v>700</v>
@@ -13364,7 +13314,7 @@
       <c r="G108" s="18"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17" t="s">
-        <v>1474</v>
+        <v>1459</v>
       </c>
       <c r="J108" s="21"/>
       <c r="K108" s="1" t="s">
@@ -13374,7 +13324,7 @@
         <v>718</v>
       </c>
       <c r="M108" s="10" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="N108" s="10">
         <v>0</v>
@@ -13401,11 +13351,11 @@
       <c r="D109" s="35"/>
       <c r="E109" s="35"/>
       <c r="F109" s="34" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="G109" s="18"/>
       <c r="H109" s="17" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="I109" s="17"/>
       <c r="J109" s="21"/>
@@ -13445,11 +13395,11 @@
       <c r="D110" s="35"/>
       <c r="E110" s="35"/>
       <c r="F110" s="34" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G110" s="18"/>
       <c r="H110" s="17" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="I110" s="17"/>
       <c r="J110" s="21"/>
@@ -13460,7 +13410,7 @@
         <v>718</v>
       </c>
       <c r="M110" s="10" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="N110" s="10">
         <v>0</v>
@@ -13491,7 +13441,7 @@
       </c>
       <c r="G111" s="18"/>
       <c r="H111" s="17" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="21"/>
@@ -13502,7 +13452,7 @@
         <v>718</v>
       </c>
       <c r="M111" s="15" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="N111" s="15">
         <v>0</v>
@@ -13527,7 +13477,7 @@
         <v>104</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>1517</v>
+        <v>1502</v>
       </c>
       <c r="E112" s="35"/>
       <c r="F112" s="34"/>
@@ -13542,14 +13492,14 @@
         <v>718</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="N112" s="10">
         <v>56000101</v>
       </c>
       <c r="O112" s="1"/>
       <c r="P112" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q112" s="1">
         <v>111</v>
@@ -13569,7 +13519,7 @@
         <v>76</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="E113" s="35"/>
       <c r="F113" s="34"/>
@@ -13613,7 +13563,7 @@
       <c r="F114" s="34"/>
       <c r="G114" s="18"/>
       <c r="H114" s="17" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="21"/>
@@ -13624,7 +13574,7 @@
         <v>718</v>
       </c>
       <c r="M114" s="10" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="N114" s="10">
         <v>0</v>
@@ -13662,7 +13612,7 @@
         <v>718</v>
       </c>
       <c r="M115" s="10" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="N115" s="10">
         <v>0</v>
@@ -13700,7 +13650,7 @@
         <v>718</v>
       </c>
       <c r="M116" s="10" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="N116" s="10">
         <v>0</v>
@@ -13730,7 +13680,7 @@
       <c r="G117" s="18"/>
       <c r="H117" s="17"/>
       <c r="I117" s="17" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="J117" s="21"/>
       <c r="K117" s="1" t="s">
@@ -13740,7 +13690,7 @@
         <v>718</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="N117" s="1">
         <v>0</v>
@@ -13770,7 +13720,7 @@
       <c r="G118" s="18"/>
       <c r="H118" s="17"/>
       <c r="I118" s="17" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="J118" s="21"/>
       <c r="K118" s="1" t="s">
@@ -13780,7 +13730,7 @@
         <v>718</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="N118" s="1">
         <v>0</v>
@@ -13810,7 +13760,7 @@
       <c r="G119" s="18"/>
       <c r="H119" s="17"/>
       <c r="I119" s="17" t="s">
-        <v>1479</v>
+        <v>1464</v>
       </c>
       <c r="J119" s="21"/>
       <c r="K119" s="1" t="s">
@@ -13820,7 +13770,7 @@
         <v>718</v>
       </c>
       <c r="M119" s="10" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="N119" s="10">
         <v>0</v>
@@ -13850,7 +13800,7 @@
       <c r="G120" s="18"/>
       <c r="H120" s="17"/>
       <c r="I120" s="17" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="J120" s="21"/>
       <c r="K120" s="1" t="s">
@@ -13860,7 +13810,7 @@
         <v>718</v>
       </c>
       <c r="M120" s="10" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="N120" s="10">
         <v>0</v>
@@ -13885,7 +13835,7 @@
         <v>104</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>1497</v>
+        <v>1482</v>
       </c>
       <c r="E121" s="35"/>
       <c r="F121" s="34"/>
@@ -13900,7 +13850,7 @@
         <v>718</v>
       </c>
       <c r="M121" s="10" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="N121" s="10">
         <v>56000016</v>
@@ -13925,10 +13875,10 @@
         <v>104</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>1406</v>
+        <v>1393</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>1407</v>
+        <v>1394</v>
       </c>
       <c r="F122" s="34"/>
       <c r="G122" s="18"/>
@@ -13942,7 +13892,7 @@
         <v>718</v>
       </c>
       <c r="M122" s="10" t="s">
-        <v>1408</v>
+        <v>1395</v>
       </c>
       <c r="N122" s="10">
         <v>0</v>
@@ -13966,14 +13916,12 @@
       <c r="C123" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D123" s="35" t="s">
-        <v>964</v>
-      </c>
+      <c r="D123" s="35"/>
       <c r="E123" s="35"/>
       <c r="F123" s="34"/>
       <c r="G123" s="18"/>
       <c r="H123" s="17" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="21"/>
@@ -13984,7 +13932,7 @@
         <v>718</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="N123" s="1">
         <v>0</v>
@@ -14014,7 +13962,7 @@
       <c r="G124" s="18"/>
       <c r="H124" s="17"/>
       <c r="I124" s="17" t="s">
-        <v>1477</v>
+        <v>1462</v>
       </c>
       <c r="J124" s="21"/>
       <c r="K124" s="1" t="s">
@@ -14024,7 +13972,7 @@
         <v>718</v>
       </c>
       <c r="M124" s="10" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="N124" s="10">
         <v>0</v>
@@ -14049,7 +13997,7 @@
         <v>104</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>1521</v>
+        <v>1506</v>
       </c>
       <c r="E125" s="35"/>
       <c r="F125" s="34"/>
@@ -14064,14 +14012,14 @@
         <v>718</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="N125" s="10">
         <v>56000101</v>
       </c>
       <c r="O125" s="1"/>
       <c r="P125" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q125" s="1">
         <v>111</v>
@@ -14091,7 +14039,7 @@
         <v>76</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="E126" s="35"/>
       <c r="F126" s="34"/>
@@ -14131,7 +14079,7 @@
         <v>104</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>1509</v>
+        <v>1494</v>
       </c>
       <c r="E127" s="35"/>
       <c r="F127" s="34"/>
@@ -14146,14 +14094,14 @@
         <v>718</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="N127" s="10">
         <v>56000101</v>
       </c>
       <c r="O127" s="1"/>
       <c r="P127" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q127" s="1">
         <v>111</v>
@@ -14173,7 +14121,7 @@
         <v>104</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>1519</v>
+        <v>1504</v>
       </c>
       <c r="E128" s="35"/>
       <c r="F128" s="34"/>
@@ -14188,14 +14136,14 @@
         <v>718</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="N128" s="10">
         <v>56000101</v>
       </c>
       <c r="O128" s="1"/>
       <c r="P128" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q128" s="1">
         <v>111</v>
@@ -14215,7 +14163,7 @@
         <v>104</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>1513</v>
+        <v>1498</v>
       </c>
       <c r="E129" s="35"/>
       <c r="F129" s="34"/>
@@ -14230,14 +14178,14 @@
         <v>718</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="N129" s="10">
         <v>56000101</v>
       </c>
       <c r="O129" s="1"/>
       <c r="P129" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q129" s="1">
         <v>111</v>
@@ -14257,7 +14205,7 @@
         <v>76</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="E130" s="35"/>
       <c r="F130" s="34"/>
@@ -14294,7 +14242,7 @@
         <v>315</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D131" s="35"/>
       <c r="E131" s="35"/>
@@ -14305,7 +14253,7 @@
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
       <c r="J131" s="21" t="s">
-        <v>1441</v>
+        <v>1427</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>723</v>
@@ -14314,7 +14262,7 @@
         <v>718</v>
       </c>
       <c r="M131" s="10" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="N131" s="10">
         <v>0</v>
@@ -14342,7 +14290,7 @@
         <v>104</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>1511</v>
+        <v>1496</v>
       </c>
       <c r="E132" s="35"/>
       <c r="F132" s="34"/>
@@ -14357,14 +14305,14 @@
         <v>718</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="N132" s="10">
         <v>56000101</v>
       </c>
       <c r="O132" s="1"/>
       <c r="P132" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q132" s="1">
         <v>111</v>
@@ -14384,7 +14332,7 @@
         <v>76</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="E133" s="35"/>
       <c r="F133" s="34"/>
@@ -14424,7 +14372,7 @@
         <v>104</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>1514</v>
+        <v>1499</v>
       </c>
       <c r="E134" s="35"/>
       <c r="F134" s="34"/>
@@ -14439,14 +14387,14 @@
         <v>718</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>1357</v>
+        <v>1347</v>
       </c>
       <c r="N134" s="10">
         <v>56000101</v>
       </c>
       <c r="O134" s="1"/>
       <c r="P134" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q134" s="1">
         <v>111</v>
@@ -14466,7 +14414,7 @@
         <v>76</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="E135" s="35"/>
       <c r="F135" s="34"/>
@@ -14506,7 +14454,7 @@
         <v>104</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>1512</v>
+        <v>1497</v>
       </c>
       <c r="E136" s="35"/>
       <c r="F136" s="34"/>
@@ -14521,14 +14469,14 @@
         <v>718</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="N136" s="10">
         <v>56000101</v>
       </c>
       <c r="O136" s="1"/>
       <c r="P136" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q136" s="1">
         <v>111</v>
@@ -14548,7 +14496,7 @@
         <v>76</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E137" s="35"/>
       <c r="F137" s="34"/>
@@ -14588,7 +14536,7 @@
         <v>76</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="E138" s="35"/>
       <c r="F138" s="34"/>
@@ -14603,7 +14551,7 @@
         <v>718</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="N138" s="1">
         <v>0</v>
@@ -14628,7 +14576,7 @@
         <v>104</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>1500</v>
+        <v>1485</v>
       </c>
       <c r="E139" s="35"/>
       <c r="F139" s="34"/>
@@ -14643,14 +14591,14 @@
         <v>718</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="N139" s="10">
         <v>56000015</v>
       </c>
       <c r="O139" s="1"/>
       <c r="P139" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q139" s="1">
         <v>200</v>
@@ -14667,7 +14615,7 @@
         <v>337</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D140" s="35"/>
       <c r="E140" s="35"/>
@@ -14676,7 +14624,7 @@
       <c r="H140" s="17"/>
       <c r="I140" s="22"/>
       <c r="J140" s="21" t="s">
-        <v>1467</v>
+        <v>1452</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>723</v>
@@ -14685,7 +14633,7 @@
         <v>718</v>
       </c>
       <c r="M140" s="10" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="N140" s="10">
         <v>0</v>
@@ -14694,7 +14642,7 @@
         <v>185</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="Q140" s="1">
         <v>300</v>
@@ -14714,7 +14662,7 @@
         <v>104</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>1520</v>
+        <v>1505</v>
       </c>
       <c r="E141" s="35"/>
       <c r="F141" s="34"/>
@@ -14729,14 +14677,14 @@
         <v>718</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="N141" s="10">
         <v>56000121</v>
       </c>
       <c r="O141" s="1"/>
       <c r="P141" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q141" s="1">
         <v>27</v>
@@ -14753,7 +14701,7 @@
         <v>341</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D142" s="35"/>
       <c r="E142" s="35"/>
@@ -14761,7 +14709,7 @@
       <c r="G142" s="18"/>
       <c r="H142" s="17"/>
       <c r="I142" s="17" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="J142" s="21"/>
       <c r="K142" s="1" t="s">
@@ -14801,7 +14749,7 @@
       <c r="G143" s="18"/>
       <c r="H143" s="17"/>
       <c r="I143" s="17" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
       <c r="J143" s="21"/>
       <c r="K143" s="1" t="s">
@@ -14811,7 +14759,7 @@
         <v>718</v>
       </c>
       <c r="M143" s="10" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="N143" s="10">
         <v>0</v>
@@ -14841,7 +14789,7 @@
       <c r="G144" s="18"/>
       <c r="H144" s="17"/>
       <c r="I144" s="17" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="J144" s="21"/>
       <c r="K144" s="1" t="s">
@@ -14851,7 +14799,7 @@
         <v>718</v>
       </c>
       <c r="M144" s="10" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="N144" s="10">
         <v>0</v>
@@ -14881,7 +14829,7 @@
       <c r="G145" s="18"/>
       <c r="H145" s="17"/>
       <c r="I145" s="17" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="J145" s="21"/>
       <c r="K145" s="1" t="s">
@@ -14891,7 +14839,7 @@
         <v>718</v>
       </c>
       <c r="M145" s="10" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="N145" s="10">
         <v>0</v>
@@ -14918,12 +14866,12 @@
       <c r="D146" s="35"/>
       <c r="E146" s="35"/>
       <c r="F146" s="34" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="G146" s="18"/>
       <c r="H146" s="17"/>
       <c r="I146" s="17" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="J146" s="21"/>
       <c r="K146" s="1" t="s">
@@ -14960,11 +14908,11 @@
       <c r="D147" s="35"/>
       <c r="E147" s="35"/>
       <c r="F147" s="34" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="G147" s="18"/>
       <c r="H147" s="17" t="s">
-        <v>1372</v>
+        <v>1362</v>
       </c>
       <c r="I147" s="17"/>
       <c r="J147" s="21"/>
@@ -14975,7 +14923,7 @@
         <v>718</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="N147" s="1">
         <v>0</v>
@@ -15005,7 +14953,7 @@
       <c r="G148" s="18"/>
       <c r="H148" s="17"/>
       <c r="I148" s="17" t="s">
-        <v>1478</v>
+        <v>1463</v>
       </c>
       <c r="J148" s="21"/>
       <c r="K148" s="1" t="s">
@@ -15015,7 +14963,7 @@
         <v>718</v>
       </c>
       <c r="M148" s="10" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="N148" s="10">
         <v>0</v>
@@ -15040,7 +14988,7 @@
         <v>104</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>1523</v>
+        <v>1508</v>
       </c>
       <c r="E149" s="35"/>
       <c r="F149" s="34"/>
@@ -15055,14 +15003,14 @@
         <v>718</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="N149" s="10">
         <v>56000101</v>
       </c>
       <c r="O149" s="1"/>
       <c r="P149" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q149" s="1">
         <v>83</v>
@@ -15082,7 +15030,7 @@
         <v>104</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>1522</v>
+        <v>1507</v>
       </c>
       <c r="E150" s="35"/>
       <c r="F150" s="34"/>
@@ -15097,14 +15045,14 @@
         <v>718</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="N150" s="10">
         <v>56000101</v>
       </c>
       <c r="O150" s="1"/>
       <c r="P150" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q150" s="1">
         <v>100</v>
@@ -15126,11 +15074,11 @@
       <c r="D151" s="35"/>
       <c r="E151" s="35"/>
       <c r="F151" s="34" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G151" s="18"/>
       <c r="H151" s="17" t="s">
-        <v>1371</v>
+        <v>1361</v>
       </c>
       <c r="I151" s="17"/>
       <c r="J151" s="21"/>
@@ -15150,7 +15098,7 @@
         <v>88</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="Q151" s="1">
         <v>1000</v>
@@ -15174,7 +15122,7 @@
       <c r="F152" s="34"/>
       <c r="G152" s="18"/>
       <c r="H152" s="17" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="I152" s="17"/>
       <c r="J152" s="21"/>
@@ -15185,7 +15133,7 @@
         <v>718</v>
       </c>
       <c r="M152" s="15" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="N152" s="15">
         <v>0</v>
@@ -15212,12 +15160,12 @@
       <c r="D153" s="35"/>
       <c r="E153" s="35"/>
       <c r="F153" s="34" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="G153" s="18"/>
       <c r="H153" s="17"/>
       <c r="I153" s="17" t="s">
-        <v>1492</v>
+        <v>1477</v>
       </c>
       <c r="J153" s="21"/>
       <c r="K153" s="1" t="s">
@@ -15227,7 +15175,7 @@
         <v>718</v>
       </c>
       <c r="M153" s="10" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="N153" s="10">
         <v>0</v>
@@ -15241,7 +15189,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="84">
+    <row r="154" spans="1:18" ht="48">
       <c r="A154">
         <v>55000166</v>
       </c>
@@ -15252,7 +15200,7 @@
         <v>1</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>1395</v>
+        <v>1516</v>
       </c>
       <c r="E154" s="35"/>
       <c r="F154" s="34"/>
@@ -15267,7 +15215,7 @@
         <v>718</v>
       </c>
       <c r="M154" s="10" t="s">
-        <v>1396</v>
+        <v>1385</v>
       </c>
       <c r="N154" s="10">
         <v>0</v>
@@ -15294,12 +15242,12 @@
       <c r="D155" s="35"/>
       <c r="E155" s="35"/>
       <c r="F155" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G155" s="18"/>
       <c r="H155" s="17"/>
       <c r="I155" s="17" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="J155" s="21"/>
       <c r="K155" s="1" t="s">
@@ -15309,7 +15257,7 @@
         <v>718</v>
       </c>
       <c r="M155" s="10" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="N155" s="10">
         <v>0</v>
@@ -15336,11 +15284,11 @@
       <c r="D156" s="35"/>
       <c r="E156" s="35"/>
       <c r="F156" s="34" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="G156" s="18"/>
       <c r="H156" s="17" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="I156" s="17"/>
       <c r="J156" s="21"/>
@@ -15351,7 +15299,7 @@
         <v>718</v>
       </c>
       <c r="M156" s="10" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="N156" s="10">
         <v>0</v>
@@ -15379,11 +15327,11 @@
       <c r="D157" s="35"/>
       <c r="E157" s="35"/>
       <c r="F157" s="34" t="s">
-        <v>1458</v>
+        <v>1443</v>
       </c>
       <c r="G157" s="18"/>
       <c r="H157" s="17" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="I157" s="17"/>
       <c r="J157" s="21"/>
@@ -15421,7 +15369,7 @@
         <v>104</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>1518</v>
+        <v>1503</v>
       </c>
       <c r="E158" s="35"/>
       <c r="F158" s="34"/>
@@ -15436,14 +15384,14 @@
         <v>718</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="N158" s="10">
         <v>56000102</v>
       </c>
       <c r="O158" s="1"/>
       <c r="P158" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q158" s="1">
         <v>112</v>
@@ -15452,7 +15400,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="48">
+    <row r="159" spans="1:18">
       <c r="A159">
         <v>55000171</v>
       </c>
@@ -15466,9 +15414,7 @@
       <c r="E159" s="35"/>
       <c r="F159" s="34"/>
       <c r="G159" s="18"/>
-      <c r="H159" s="17" t="s">
-        <v>1197</v>
-      </c>
+      <c r="H159" s="17"/>
       <c r="I159" s="17"/>
       <c r="J159" s="21"/>
       <c r="K159" s="1" t="s">
@@ -15478,7 +15424,7 @@
         <v>718</v>
       </c>
       <c r="M159" s="10" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="N159" s="10">
         <v>0</v>
@@ -15505,11 +15451,11 @@
       <c r="D160" s="35"/>
       <c r="E160" s="35"/>
       <c r="F160" s="34" t="s">
-        <v>1459</v>
+        <v>1444</v>
       </c>
       <c r="G160" s="18"/>
       <c r="H160" s="17" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="I160" s="17"/>
       <c r="J160" s="21"/>
@@ -15520,7 +15466,7 @@
         <v>718</v>
       </c>
       <c r="M160" s="10" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="N160" s="10">
         <v>0</v>
@@ -15547,11 +15493,11 @@
       <c r="D161" s="35"/>
       <c r="E161" s="35"/>
       <c r="F161" s="34" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="G161" s="18"/>
       <c r="H161" s="17" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="I161" s="17"/>
       <c r="J161" s="21"/>
@@ -15562,7 +15508,7 @@
         <v>718</v>
       </c>
       <c r="M161" s="15" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="N161" s="15">
         <v>0</v>
@@ -15592,10 +15538,10 @@
         <v>776</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="I162" s="17"/>
       <c r="J162" s="21"/>
@@ -15606,7 +15552,7 @@
         <v>718</v>
       </c>
       <c r="M162" s="10" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="N162" s="10">
         <v>0</v>
@@ -15675,11 +15621,11 @@
       <c r="D164" s="35"/>
       <c r="E164" s="35"/>
       <c r="F164" s="34" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G164" s="18"/>
       <c r="H164" s="17" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="I164" s="17"/>
       <c r="J164" s="21"/>
@@ -15719,10 +15665,10 @@
       <c r="D165" s="35"/>
       <c r="E165" s="35"/>
       <c r="F165" s="34" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="G165" s="18" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="H165" s="17"/>
       <c r="I165" s="17"/>
@@ -15734,7 +15680,7 @@
         <v>718</v>
       </c>
       <c r="M165" s="10" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="N165" s="10">
         <v>0</v>
@@ -15759,10 +15705,10 @@
         <v>104</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>1404</v>
+        <v>1391</v>
       </c>
       <c r="E166" s="35" t="s">
-        <v>1405</v>
+        <v>1392</v>
       </c>
       <c r="F166" s="34"/>
       <c r="G166" s="18"/>
@@ -15776,7 +15722,7 @@
         <v>718</v>
       </c>
       <c r="M166" s="10" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="N166" s="10">
         <v>0</v>
@@ -15801,10 +15747,10 @@
         <v>104</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>1405</v>
+        <v>1392</v>
       </c>
       <c r="E167" s="35" t="s">
-        <v>1403</v>
+        <v>1390</v>
       </c>
       <c r="F167" s="34"/>
       <c r="G167" s="18"/>
@@ -15818,7 +15764,7 @@
         <v>718</v>
       </c>
       <c r="M167" s="10" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="N167" s="10">
         <v>0</v>
@@ -15845,14 +15791,14 @@
       <c r="D168" s="35"/>
       <c r="E168" s="35"/>
       <c r="F168" s="34" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="G168" s="18"/>
       <c r="H168" s="17" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="I168" s="17" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="J168" s="21"/>
       <c r="K168" s="1" t="s">
@@ -15862,7 +15808,7 @@
         <v>718</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="N168" s="1">
         <v>0</v>
@@ -15892,7 +15838,7 @@
       <c r="G169" s="18"/>
       <c r="H169" s="17"/>
       <c r="I169" s="17" t="s">
-        <v>1493</v>
+        <v>1478</v>
       </c>
       <c r="J169" s="21"/>
       <c r="K169" s="1" t="s">
@@ -15902,7 +15848,7 @@
         <v>718</v>
       </c>
       <c r="M169" s="10" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="N169" s="10">
         <v>0</v>
@@ -15929,11 +15875,11 @@
       <c r="D170" s="35"/>
       <c r="E170" s="35"/>
       <c r="F170" s="34" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="G170" s="18"/>
       <c r="H170" s="17" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="I170" s="17"/>
       <c r="J170" s="21"/>
@@ -15968,7 +15914,7 @@
         <v>406</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D171" s="35"/>
       <c r="E171" s="35"/>
@@ -15977,7 +15923,7 @@
       <c r="H171" s="17"/>
       <c r="I171" s="22"/>
       <c r="J171" s="21" t="s">
-        <v>1442</v>
+        <v>1428</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>723</v>
@@ -15986,7 +15932,7 @@
         <v>718</v>
       </c>
       <c r="M171" s="10" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="N171" s="10">
         <v>0</v>
@@ -16000,7 +15946,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="36">
+    <row r="172" spans="1:18" ht="24">
       <c r="A172">
         <v>55000184</v>
       </c>
@@ -16016,7 +15962,7 @@
       <c r="G172" s="18"/>
       <c r="H172" s="17"/>
       <c r="I172" s="17" t="s">
-        <v>1397</v>
+        <v>1517</v>
       </c>
       <c r="J172" s="21"/>
       <c r="K172" s="1" t="s">
@@ -16026,7 +15972,7 @@
         <v>718</v>
       </c>
       <c r="M172" s="10" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="N172" s="10">
         <v>0</v>
@@ -16040,7 +15986,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="48">
+    <row r="173" spans="1:18" ht="36">
       <c r="A173">
         <v>55000185</v>
       </c>
@@ -16056,7 +16002,7 @@
       <c r="G173" s="18"/>
       <c r="H173" s="17"/>
       <c r="I173" s="17" t="s">
-        <v>1398</v>
+        <v>1518</v>
       </c>
       <c r="J173" s="21"/>
       <c r="K173" s="1" t="s">
@@ -16066,7 +16012,7 @@
         <v>718</v>
       </c>
       <c r="M173" s="10" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="N173" s="10">
         <v>0</v>
@@ -16093,11 +16039,11 @@
       <c r="D174" s="35"/>
       <c r="E174" s="35"/>
       <c r="F174" s="34" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G174" s="18"/>
       <c r="H174" s="17" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="I174" s="17"/>
       <c r="J174" s="21"/>
@@ -16108,7 +16054,7 @@
         <v>718</v>
       </c>
       <c r="M174" s="10" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="N174" s="10">
         <v>0</v>
@@ -16127,13 +16073,13 @@
         <v>55000187</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
       <c r="E175" s="35"/>
       <c r="F175" s="34"/>
@@ -16142,13 +16088,13 @@
       <c r="I175" s="17"/>
       <c r="J175" s="21"/>
       <c r="K175" s="1" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="L175" s="9" t="s">
         <v>718</v>
       </c>
       <c r="M175" s="10" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="N175" s="10">
         <v>0</v>
@@ -16159,7 +16105,7 @@
         <v>-1200</v>
       </c>
       <c r="R175" s="1" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="176" spans="1:18" ht="24">
@@ -16178,7 +16124,7 @@
       <c r="G176" s="18"/>
       <c r="H176" s="17"/>
       <c r="I176" s="17" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="J176" s="21"/>
       <c r="K176" s="1" t="s">
@@ -16188,7 +16134,7 @@
         <v>718</v>
       </c>
       <c r="M176" s="10" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="N176" s="10">
         <v>0</v>
@@ -16215,14 +16161,14 @@
       <c r="D177" s="35"/>
       <c r="E177" s="35"/>
       <c r="F177" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G177" s="18"/>
       <c r="H177" s="17" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="I177" s="17" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="J177" s="21"/>
       <c r="K177" s="1" t="s">
@@ -16232,7 +16178,7 @@
         <v>718</v>
       </c>
       <c r="M177" s="10" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="N177" s="10">
         <v>0</v>
@@ -16259,11 +16205,11 @@
       <c r="D178" s="35"/>
       <c r="E178" s="35"/>
       <c r="F178" s="34" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="G178" s="18"/>
       <c r="H178" s="17" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="I178" s="17"/>
       <c r="J178" s="21"/>
@@ -16274,7 +16220,7 @@
         <v>718</v>
       </c>
       <c r="M178" s="10" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="N178" s="10">
         <v>0</v>
@@ -16301,11 +16247,11 @@
       <c r="D179" s="35"/>
       <c r="E179" s="35"/>
       <c r="F179" s="34" t="s">
-        <v>1462</v>
+        <v>1447</v>
       </c>
       <c r="G179" s="18"/>
       <c r="H179" s="17" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="I179" s="17"/>
       <c r="J179" s="21"/>
@@ -16345,7 +16291,7 @@
       <c r="D180" s="35"/>
       <c r="E180" s="35"/>
       <c r="F180" s="34" t="s">
-        <v>1458</v>
+        <v>1443</v>
       </c>
       <c r="G180" s="18"/>
       <c r="H180" s="17" t="s">
@@ -16387,10 +16333,10 @@
       <c r="D181" s="35"/>
       <c r="E181" s="35"/>
       <c r="F181" s="34" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G181" s="18" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="H181" s="17"/>
       <c r="I181" s="17"/>
@@ -16402,7 +16348,7 @@
         <v>718</v>
       </c>
       <c r="M181" s="10" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="N181" s="10">
         <v>0</v>
@@ -16427,7 +16373,7 @@
         <v>104</v>
       </c>
       <c r="D182" s="35" t="s">
-        <v>1524</v>
+        <v>1509</v>
       </c>
       <c r="E182" s="35"/>
       <c r="F182" s="34"/>
@@ -16442,14 +16388,14 @@
         <v>718</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="N182" s="10">
         <v>56000023</v>
       </c>
       <c r="O182" s="1"/>
       <c r="P182" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q182" s="1">
         <v>166</v>
@@ -16473,7 +16419,7 @@
       <c r="F183" s="34"/>
       <c r="G183" s="18"/>
       <c r="H183" s="17" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="I183" s="17"/>
       <c r="J183" s="21"/>
@@ -16484,7 +16430,7 @@
         <v>718</v>
       </c>
       <c r="M183" s="10" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="N183" s="10">
         <v>0</v>
@@ -16513,7 +16459,7 @@
       <c r="F184" s="34"/>
       <c r="G184" s="18"/>
       <c r="H184" s="17" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="I184" s="17"/>
       <c r="J184" s="21"/>
@@ -16524,7 +16470,7 @@
         <v>718</v>
       </c>
       <c r="M184" s="10" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="N184" s="10">
         <v>0</v>
@@ -16554,7 +16500,7 @@
       <c r="G185" s="18"/>
       <c r="H185" s="17"/>
       <c r="I185" s="17" t="s">
-        <v>1487</v>
+        <v>1472</v>
       </c>
       <c r="J185" s="21"/>
       <c r="K185" s="1" t="s">
@@ -16564,7 +16510,7 @@
         <v>718</v>
       </c>
       <c r="M185" s="10" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="N185" s="10">
         <v>0</v>
@@ -16589,7 +16535,7 @@
         <v>104</v>
       </c>
       <c r="D186" s="35" t="s">
-        <v>1507</v>
+        <v>1492</v>
       </c>
       <c r="E186" s="35"/>
       <c r="F186" s="34"/>
@@ -16604,14 +16550,14 @@
         <v>718</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="N186" s="10">
         <v>56000121</v>
       </c>
       <c r="O186" s="1"/>
       <c r="P186" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q186" s="1">
         <v>200</v>
@@ -16620,7 +16566,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="187" spans="1:18" ht="48">
+    <row r="187" spans="1:18">
       <c r="A187">
         <v>55000199</v>
       </c>
@@ -16634,9 +16580,7 @@
       <c r="E187" s="35"/>
       <c r="F187" s="34"/>
       <c r="G187" s="18"/>
-      <c r="H187" s="17" t="s">
-        <v>1198</v>
-      </c>
+      <c r="H187" s="17"/>
       <c r="I187" s="17"/>
       <c r="J187" s="21"/>
       <c r="K187" s="1" t="s">
@@ -16646,7 +16590,7 @@
         <v>718</v>
       </c>
       <c r="M187" s="10" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="N187" s="10">
         <v>0</v>
@@ -16676,7 +16620,7 @@
       <c r="G188" s="18"/>
       <c r="H188" s="17"/>
       <c r="I188" s="17" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="J188" s="21"/>
       <c r="K188" s="1" t="s">
@@ -16686,7 +16630,7 @@
         <v>718</v>
       </c>
       <c r="M188" s="10" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="N188" s="10">
         <v>0</v>
@@ -16711,7 +16655,7 @@
         <v>104</v>
       </c>
       <c r="D189" s="35" t="s">
-        <v>1508</v>
+        <v>1493</v>
       </c>
       <c r="E189" s="35"/>
       <c r="F189" s="34"/>
@@ -16726,14 +16670,14 @@
         <v>718</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="N189" s="10">
         <v>56000101</v>
       </c>
       <c r="O189" s="1"/>
       <c r="P189" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q189" s="1">
         <v>225</v>
@@ -16753,7 +16697,7 @@
         <v>104</v>
       </c>
       <c r="D190" s="35" t="s">
-        <v>1501</v>
+        <v>1486</v>
       </c>
       <c r="E190" s="35"/>
       <c r="F190" s="34"/>
@@ -16768,14 +16712,14 @@
         <v>718</v>
       </c>
       <c r="M190" s="10" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="N190" s="10">
         <v>56000111</v>
       </c>
       <c r="O190" s="1"/>
       <c r="P190" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q190" s="1">
         <v>1000</v>
@@ -16795,7 +16739,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="35" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="E191" s="35"/>
       <c r="F191" s="34"/>
@@ -16810,7 +16754,7 @@
         <v>718</v>
       </c>
       <c r="M191" s="10" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="N191" s="10">
         <v>0</v>
@@ -16841,7 +16785,7 @@
       </c>
       <c r="G192" s="18"/>
       <c r="H192" s="17" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="I192" s="17"/>
       <c r="J192" s="21"/>
@@ -16852,7 +16796,7 @@
         <v>718</v>
       </c>
       <c r="M192" s="15" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
       <c r="N192" s="15">
         <v>0</v>
@@ -16882,7 +16826,7 @@
       <c r="G193" s="18"/>
       <c r="H193" s="17"/>
       <c r="I193" s="17" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="J193" s="21"/>
       <c r="K193" s="1" t="s">
@@ -16892,7 +16836,7 @@
         <v>718</v>
       </c>
       <c r="M193" s="10" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="N193" s="10">
         <v>0</v>
@@ -16919,11 +16863,11 @@
       <c r="D194" s="35"/>
       <c r="E194" s="35"/>
       <c r="F194" s="34" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="G194" s="18"/>
       <c r="H194" s="17" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="I194" s="17"/>
       <c r="J194" s="21"/>
@@ -16934,7 +16878,7 @@
         <v>718</v>
       </c>
       <c r="M194" s="10" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="N194" s="10">
         <v>0</v>
@@ -16953,10 +16897,10 @@
         <v>55000207</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="D195" s="35"/>
       <c r="E195" s="35"/>
@@ -16965,7 +16909,7 @@
       <c r="H195" s="17"/>
       <c r="I195" s="17"/>
       <c r="J195" s="21" t="s">
-        <v>1469</v>
+        <v>1454</v>
       </c>
       <c r="K195" s="1" t="s">
         <v>723</v>
@@ -16974,23 +16918,23 @@
         <v>718</v>
       </c>
       <c r="M195" s="10" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="N195" s="10">
         <v>0</v>
       </c>
       <c r="O195" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="P195" s="1"/>
       <c r="Q195" s="1">
         <v>2500</v>
       </c>
       <c r="R195" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" ht="48">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18">
       <c r="A196">
         <v>55000208</v>
       </c>
@@ -17002,13 +16946,9 @@
       </c>
       <c r="D196" s="35"/>
       <c r="E196" s="35"/>
-      <c r="F196" s="34" t="s">
-        <v>803</v>
-      </c>
+      <c r="F196" s="34"/>
       <c r="G196" s="18"/>
-      <c r="H196" s="17" t="s">
-        <v>804</v>
-      </c>
+      <c r="H196" s="17"/>
       <c r="I196" s="17"/>
       <c r="J196" s="21"/>
       <c r="K196" s="1" t="s">
@@ -17018,7 +16958,7 @@
         <v>718</v>
       </c>
       <c r="M196" s="10" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="N196" s="10">
         <v>0</v>
@@ -17049,7 +16989,7 @@
       </c>
       <c r="G197" s="18"/>
       <c r="H197" s="17" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="I197" s="17"/>
       <c r="J197" s="21"/>
@@ -17060,7 +17000,7 @@
         <v>718</v>
       </c>
       <c r="M197" s="15" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="N197" s="15">
         <v>0</v>
@@ -17087,11 +17027,11 @@
       <c r="D198" s="35"/>
       <c r="E198" s="35"/>
       <c r="F198" s="34" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="G198" s="18"/>
       <c r="H198" s="17" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="I198" s="17"/>
       <c r="J198" s="21"/>
@@ -17129,7 +17069,7 @@
         <v>104</v>
       </c>
       <c r="D199" s="35" t="s">
-        <v>1510</v>
+        <v>1495</v>
       </c>
       <c r="E199" s="35"/>
       <c r="F199" s="34"/>
@@ -17144,14 +17084,14 @@
         <v>718</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="N199" s="10">
         <v>56000121</v>
       </c>
       <c r="O199" s="1"/>
       <c r="P199" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q199" s="1">
         <v>11</v>
@@ -17173,12 +17113,12 @@
       <c r="D200" s="35"/>
       <c r="E200" s="35"/>
       <c r="F200" s="34" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="G200" s="18"/>
       <c r="H200" s="17"/>
       <c r="I200" s="17" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="J200" s="21"/>
       <c r="K200" s="1" t="s">
@@ -17213,7 +17153,7 @@
         <v>104</v>
       </c>
       <c r="D201" s="35" t="s">
-        <v>1515</v>
+        <v>1500</v>
       </c>
       <c r="E201" s="35"/>
       <c r="F201" s="34"/>
@@ -17228,14 +17168,14 @@
         <v>718</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>1357</v>
+        <v>1347</v>
       </c>
       <c r="N201" s="10">
         <v>56000121</v>
       </c>
       <c r="O201" s="1"/>
       <c r="P201" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q201" s="1">
         <v>11</v>
@@ -17260,7 +17200,7 @@
       <c r="G202" s="18"/>
       <c r="H202" s="17"/>
       <c r="I202" s="17" t="s">
-        <v>1494</v>
+        <v>1479</v>
       </c>
       <c r="J202" s="21"/>
       <c r="K202" s="1" t="s">
@@ -17270,7 +17210,7 @@
         <v>718</v>
       </c>
       <c r="M202" s="10" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="N202" s="10">
         <v>0</v>
@@ -17297,12 +17237,12 @@
       <c r="D203" s="35"/>
       <c r="E203" s="35"/>
       <c r="F203" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G203" s="18"/>
       <c r="H203" s="17"/>
       <c r="I203" s="17" t="s">
-        <v>1416</v>
+        <v>1403</v>
       </c>
       <c r="J203" s="21"/>
       <c r="K203" s="1" t="s">
@@ -17312,7 +17252,7 @@
         <v>718</v>
       </c>
       <c r="M203" s="10" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="N203" s="10">
         <v>0</v>
@@ -17321,7 +17261,7 @@
         <v>470</v>
       </c>
       <c r="P203" s="10" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Q203" s="1">
         <f>200*2</f>
@@ -17344,11 +17284,11 @@
       <c r="D204" s="35"/>
       <c r="E204" s="35"/>
       <c r="F204" s="34" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="G204" s="18"/>
       <c r="H204" s="17" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="I204" s="17"/>
       <c r="J204" s="21"/>
@@ -17359,7 +17299,7 @@
         <v>718</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="N204" s="1">
         <v>0</v>
@@ -17386,12 +17326,12 @@
       <c r="D205" s="35"/>
       <c r="E205" s="35"/>
       <c r="F205" s="34" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="G205" s="18"/>
       <c r="H205" s="17"/>
       <c r="I205" s="17" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="J205" s="21"/>
       <c r="K205" s="1" t="s">
@@ -17415,7 +17355,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="24">
+    <row r="206" spans="1:18">
       <c r="A206">
         <v>55000218</v>
       </c>
@@ -17423,7 +17363,7 @@
         <v>477</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D206" s="35"/>
       <c r="E206" s="35"/>
@@ -17431,9 +17371,7 @@
       <c r="G206" s="18"/>
       <c r="H206" s="17"/>
       <c r="I206" s="17"/>
-      <c r="J206" s="21" t="s">
-        <v>1443</v>
-      </c>
+      <c r="J206" s="21"/>
       <c r="K206" s="1" t="s">
         <v>723</v>
       </c>
@@ -17441,7 +17379,7 @@
         <v>718</v>
       </c>
       <c r="M206" s="10" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
       <c r="N206" s="10">
         <v>0</v>
@@ -17474,7 +17412,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
       <c r="J207" s="21" t="s">
-        <v>1431</v>
+        <v>1418</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>723</v>
@@ -17510,22 +17448,22 @@
       <c r="D208" s="35"/>
       <c r="E208" s="35"/>
       <c r="F208" s="34" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="G208" s="18"/>
       <c r="H208" s="17" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="I208" s="17"/>
       <c r="J208" s="21"/>
       <c r="K208" s="10" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="L208" s="9" t="s">
         <v>718</v>
       </c>
       <c r="M208" s="10" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="N208" s="10">
         <v>0</v>
@@ -17544,13 +17482,13 @@
         <v>55000221</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D209" s="35" t="s">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="E209" s="35"/>
       <c r="F209" s="34"/>
@@ -17565,7 +17503,7 @@
         <v>718</v>
       </c>
       <c r="M209" s="10" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="N209" s="10">
         <v>0</v>
@@ -17576,7 +17514,7 @@
         <v>1200</v>
       </c>
       <c r="R209" s="1" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="210" spans="1:18" ht="36">
@@ -17592,7 +17530,7 @@
       <c r="D210" s="35"/>
       <c r="E210" s="35"/>
       <c r="F210" s="34" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="G210" s="18"/>
       <c r="H210" s="17" t="s">
@@ -17607,7 +17545,7 @@
         <v>718</v>
       </c>
       <c r="M210" s="10" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="N210" s="10">
         <v>0</v>
@@ -17649,7 +17587,7 @@
         <v>718</v>
       </c>
       <c r="M211" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="N211" s="10">
         <v>0</v>
@@ -17691,7 +17629,7 @@
         <v>718</v>
       </c>
       <c r="M212" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="N212" s="10">
         <v>0</v>
@@ -17716,10 +17654,10 @@
         <v>104</v>
       </c>
       <c r="D213" s="35" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="E213" s="35" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="F213" s="34"/>
       <c r="G213" s="18"/>
@@ -17733,7 +17671,7 @@
         <v>718</v>
       </c>
       <c r="M213" s="10" t="s">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="N213" s="10">
         <v>0</v>
@@ -17758,10 +17696,10 @@
         <v>104</v>
       </c>
       <c r="D214" s="35" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
       <c r="E214" s="35" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="F214" s="34"/>
       <c r="G214" s="18"/>
@@ -17775,7 +17713,7 @@
         <v>718</v>
       </c>
       <c r="M214" s="10" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="N214" s="10">
         <v>0</v>
@@ -17802,13 +17740,13 @@
       <c r="D215" s="35"/>
       <c r="E215" s="35"/>
       <c r="F215" s="34" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="G215" s="18"/>
       <c r="H215" s="17"/>
       <c r="I215" s="17"/>
       <c r="J215" s="21" t="s">
-        <v>1432</v>
+        <v>1419</v>
       </c>
       <c r="K215" s="1" t="s">
         <v>723</v>
@@ -17817,7 +17755,7 @@
         <v>718</v>
       </c>
       <c r="M215" s="10" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="N215" s="10">
         <v>0</v>
@@ -17847,7 +17785,7 @@
       <c r="G216" s="18"/>
       <c r="H216" s="17"/>
       <c r="I216" s="17" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="J216" s="21"/>
       <c r="K216" s="1" t="s">
@@ -17857,7 +17795,7 @@
         <v>718</v>
       </c>
       <c r="M216" s="10" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="N216" s="10">
         <v>0</v>
@@ -17884,12 +17822,12 @@
       <c r="D217" s="35"/>
       <c r="E217" s="35"/>
       <c r="F217" s="34" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="G217" s="18"/>
       <c r="H217" s="17"/>
       <c r="I217" s="17" t="s">
-        <v>1488</v>
+        <v>1473</v>
       </c>
       <c r="J217" s="21"/>
       <c r="K217" s="1" t="s">
@@ -17899,7 +17837,7 @@
         <v>718</v>
       </c>
       <c r="M217" s="10" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="N217" s="10">
         <v>0</v>
@@ -17929,7 +17867,7 @@
       <c r="G218" s="18"/>
       <c r="H218" s="17"/>
       <c r="I218" s="17" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="J218" s="21"/>
       <c r="K218" s="1" t="s">
@@ -17939,7 +17877,7 @@
         <v>718</v>
       </c>
       <c r="M218" s="10" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="N218" s="10">
         <v>0</v>
@@ -17969,7 +17907,7 @@
       <c r="G219" s="18"/>
       <c r="H219" s="17"/>
       <c r="I219" s="17" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="J219" s="21"/>
       <c r="K219" s="1" t="s">
@@ -17979,7 +17917,7 @@
         <v>718</v>
       </c>
       <c r="M219" s="10" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="N219" s="10">
         <v>0</v>
@@ -18008,7 +17946,7 @@
       <c r="F220" s="34"/>
       <c r="G220" s="18"/>
       <c r="H220" s="17" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="I220" s="17"/>
       <c r="J220" s="21"/>
@@ -18019,7 +17957,7 @@
         <v>718</v>
       </c>
       <c r="M220" s="10" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="N220" s="10">
         <v>0</v>
@@ -18049,7 +17987,7 @@
       <c r="G221" s="18"/>
       <c r="H221" s="17"/>
       <c r="I221" s="17" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="J221" s="21"/>
       <c r="K221" s="1" t="s">
@@ -18059,7 +17997,7 @@
         <v>718</v>
       </c>
       <c r="M221" s="10" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="N221" s="10">
         <v>0</v>
@@ -18101,7 +18039,7 @@
         <v>718</v>
       </c>
       <c r="M222" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N222" s="10">
         <v>0</v>
@@ -18130,7 +18068,7 @@
       <c r="F223" s="34"/>
       <c r="G223" s="18"/>
       <c r="H223" s="17" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="I223" s="17"/>
       <c r="J223" s="21"/>
@@ -18141,7 +18079,7 @@
         <v>718</v>
       </c>
       <c r="M223" s="10" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="N223" s="10">
         <v>0</v>
@@ -18166,7 +18104,7 @@
         <v>1</v>
       </c>
       <c r="D224" s="35" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="E224" s="35"/>
       <c r="F224" s="34"/>
@@ -18181,7 +18119,7 @@
         <v>718</v>
       </c>
       <c r="M224" s="10" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="N224" s="10">
         <v>0</v>
@@ -18219,7 +18157,7 @@
         <v>718</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="N225" s="1">
         <v>0</v>
@@ -18249,7 +18187,7 @@
       <c r="G226" s="18"/>
       <c r="H226" s="17"/>
       <c r="I226" s="17" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="J226" s="21"/>
       <c r="K226" s="1" t="s">
@@ -18289,7 +18227,7 @@
       <c r="G227" s="18"/>
       <c r="H227" s="17"/>
       <c r="I227" s="17" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="J227" s="21"/>
       <c r="K227" s="1" t="s">
@@ -18299,7 +18237,7 @@
         <v>718</v>
       </c>
       <c r="M227" s="10" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="N227" s="10">
         <v>0</v>
@@ -18326,12 +18264,12 @@
       <c r="D228" s="35"/>
       <c r="E228" s="35"/>
       <c r="F228" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G228" s="18"/>
       <c r="H228" s="17"/>
       <c r="I228" s="17" t="s">
-        <v>1450</v>
+        <v>1435</v>
       </c>
       <c r="J228" s="21"/>
       <c r="K228" s="1" t="s">
@@ -18341,16 +18279,16 @@
         <v>718</v>
       </c>
       <c r="M228" s="10" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="N228" s="10">
         <v>0</v>
       </c>
       <c r="O228" s="10" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="P228" s="10" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Q228" s="1">
         <f>2000*1.5*2/12</f>
@@ -18373,10 +18311,10 @@
       <c r="D229" s="35"/>
       <c r="E229" s="35"/>
       <c r="F229" s="34" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G229" s="18" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="H229" s="17"/>
       <c r="I229" s="17"/>
@@ -18388,7 +18326,7 @@
         <v>718</v>
       </c>
       <c r="M229" s="10" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="N229" s="10">
         <v>0</v>
@@ -18416,13 +18354,13 @@
       <c r="D230" s="35"/>
       <c r="E230" s="35"/>
       <c r="F230" s="34" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="G230" s="18"/>
       <c r="H230" s="17"/>
       <c r="I230" s="17"/>
       <c r="J230" s="21" t="s">
-        <v>1433</v>
+        <v>1420</v>
       </c>
       <c r="K230" s="1" t="s">
         <v>723</v>
@@ -18431,7 +18369,7 @@
         <v>718</v>
       </c>
       <c r="M230" s="10" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="N230" s="10">
         <v>0</v>
@@ -18458,12 +18396,10 @@
       <c r="D231" s="35"/>
       <c r="E231" s="35"/>
       <c r="F231" s="34" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G231" s="18"/>
-      <c r="H231" s="17" t="s">
-        <v>799</v>
-      </c>
+      <c r="H231" s="17"/>
       <c r="I231" s="17"/>
       <c r="J231" s="21"/>
       <c r="K231" s="1" t="s">
@@ -18473,7 +18409,7 @@
         <v>718</v>
       </c>
       <c r="M231" s="10" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="N231" s="10">
         <v>0</v>
@@ -18500,12 +18436,12 @@
       <c r="D232" s="35"/>
       <c r="E232" s="35"/>
       <c r="F232" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G232" s="18"/>
       <c r="H232" s="17"/>
       <c r="I232" s="17" t="s">
-        <v>1417</v>
+        <v>1404</v>
       </c>
       <c r="J232" s="21"/>
       <c r="K232" s="1" t="s">
@@ -18515,16 +18451,16 @@
         <v>718</v>
       </c>
       <c r="M232" s="20" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="N232" s="10">
         <v>0</v>
       </c>
       <c r="O232" s="10" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="P232" s="10" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Q232" s="1">
         <v>280</v>
@@ -18549,7 +18485,7 @@
       <c r="G233" s="18"/>
       <c r="H233" s="17"/>
       <c r="I233" s="17" t="s">
-        <v>1486</v>
+        <v>1471</v>
       </c>
       <c r="J233" s="21"/>
       <c r="K233" s="1" t="s">
@@ -18559,7 +18495,7 @@
         <v>718</v>
       </c>
       <c r="M233" s="10" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="N233" s="10">
         <v>0</v>
@@ -18586,12 +18522,12 @@
       <c r="D234" s="35"/>
       <c r="E234" s="35"/>
       <c r="F234" s="34" t="s">
-        <v>1460</v>
+        <v>1445</v>
       </c>
       <c r="G234" s="18"/>
       <c r="H234" s="17"/>
       <c r="I234" s="17" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="J234" s="21"/>
       <c r="K234" s="1" t="s">
@@ -18601,7 +18537,7 @@
         <v>718</v>
       </c>
       <c r="M234" s="10" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="N234" s="10">
         <v>0</v>
@@ -18632,7 +18568,7 @@
       </c>
       <c r="G235" s="18"/>
       <c r="H235" s="17" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="I235" s="17"/>
       <c r="J235" s="21"/>
@@ -18643,7 +18579,7 @@
         <v>718</v>
       </c>
       <c r="M235" s="10" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="N235" s="10">
         <v>0</v>
@@ -18670,14 +18606,14 @@
       <c r="D236" s="35"/>
       <c r="E236" s="35"/>
       <c r="F236" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G236" s="18"/>
       <c r="H236" s="17" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="I236" s="17" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="J236" s="21"/>
       <c r="K236" s="1" t="s">
@@ -18687,7 +18623,7 @@
         <v>718</v>
       </c>
       <c r="M236" s="10" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="N236" s="10">
         <v>0</v>
@@ -18714,12 +18650,12 @@
       <c r="D237" s="35"/>
       <c r="E237" s="35"/>
       <c r="F237" s="34" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="G237" s="18"/>
       <c r="H237" s="17"/>
       <c r="I237" s="17" t="s">
-        <v>1488</v>
+        <v>1473</v>
       </c>
       <c r="J237" s="21"/>
       <c r="K237" s="1" t="s">
@@ -18729,7 +18665,7 @@
         <v>718</v>
       </c>
       <c r="M237" s="10" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="N237" s="10">
         <v>0</v>
@@ -18755,12 +18691,10 @@
       </c>
       <c r="D238" s="35"/>
       <c r="E238" s="35"/>
-      <c r="F238" s="34" t="s">
-        <v>790</v>
-      </c>
+      <c r="F238" s="34"/>
       <c r="G238" s="18"/>
       <c r="H238" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I238" s="17"/>
       <c r="J238" s="21"/>
@@ -18771,7 +18705,7 @@
         <v>718</v>
       </c>
       <c r="M238" s="10" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="N238" s="10">
         <v>0</v>
@@ -18811,7 +18745,7 @@
         <v>718</v>
       </c>
       <c r="M239" s="15" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="N239" s="15">
         <v>0</v>
@@ -18838,10 +18772,10 @@
       <c r="D240" s="35"/>
       <c r="E240" s="35"/>
       <c r="F240" s="34" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G240" s="18" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="H240" s="17"/>
       <c r="I240" s="17"/>
@@ -18853,7 +18787,7 @@
         <v>718</v>
       </c>
       <c r="M240" s="10" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="N240" s="10">
         <v>0</v>
@@ -18880,10 +18814,10 @@
       <c r="D241" s="35"/>
       <c r="E241" s="35"/>
       <c r="F241" s="34" t="s">
-        <v>1459</v>
+        <v>1444</v>
       </c>
       <c r="G241" s="18" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="H241" s="17"/>
       <c r="I241" s="17"/>
@@ -18895,7 +18829,7 @@
         <v>718</v>
       </c>
       <c r="M241" s="10" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="N241" s="10">
         <v>0</v>
@@ -18925,7 +18859,7 @@
       <c r="G242" s="18"/>
       <c r="H242" s="17"/>
       <c r="I242" s="17" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="J242" s="21"/>
       <c r="K242" s="1" t="s">
@@ -18935,7 +18869,7 @@
         <v>718</v>
       </c>
       <c r="M242" s="10" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="N242" s="10">
         <v>0</v>
@@ -18963,7 +18897,7 @@
       <c r="E243" s="35"/>
       <c r="F243" s="34"/>
       <c r="G243" s="18" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="H243" s="17"/>
       <c r="I243" s="17"/>
@@ -18975,7 +18909,7 @@
         <v>718</v>
       </c>
       <c r="M243" s="10" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="N243" s="10">
         <v>0</v>
@@ -19013,7 +18947,7 @@
         <v>718</v>
       </c>
       <c r="M244" s="10" t="s">
-        <v>1402</v>
+        <v>1389</v>
       </c>
       <c r="N244" s="10">
         <v>0</v>
@@ -19040,11 +18974,11 @@
       <c r="D245" s="35"/>
       <c r="E245" s="35"/>
       <c r="F245" s="34" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G245" s="18"/>
       <c r="H245" s="17" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="I245" s="17"/>
       <c r="J245" s="21"/>
@@ -19055,7 +18989,7 @@
         <v>718</v>
       </c>
       <c r="M245" s="10" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="N245" s="10">
         <v>0</v>
@@ -19087,7 +19021,7 @@
       <c r="G246" s="18"/>
       <c r="H246" s="17"/>
       <c r="I246" s="17" t="s">
-        <v>1480</v>
+        <v>1465</v>
       </c>
       <c r="J246" s="21"/>
       <c r="K246" s="1" t="s">
@@ -19097,7 +19031,7 @@
         <v>718</v>
       </c>
       <c r="M246" s="10" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="N246" s="10">
         <v>0</v>
@@ -19124,11 +19058,11 @@
       <c r="D247" s="35"/>
       <c r="E247" s="35"/>
       <c r="F247" s="34" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G247" s="18"/>
       <c r="H247" s="17" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="I247" s="17"/>
       <c r="J247" s="21"/>
@@ -19139,7 +19073,7 @@
         <v>718</v>
       </c>
       <c r="M247" s="10" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="N247" s="10">
         <v>0</v>
@@ -19163,7 +19097,7 @@
         <v>560</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D248" s="35"/>
       <c r="E248" s="35"/>
@@ -19172,7 +19106,7 @@
       <c r="H248" s="17"/>
       <c r="I248" s="17"/>
       <c r="J248" s="21" t="s">
-        <v>1444</v>
+        <v>1429</v>
       </c>
       <c r="K248" s="1" t="s">
         <v>723</v>
@@ -19181,13 +19115,13 @@
         <v>718</v>
       </c>
       <c r="M248" s="10" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="N248" s="10">
         <v>0</v>
       </c>
       <c r="O248" s="10" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="P248" s="10"/>
       <c r="Q248" s="1">
@@ -19212,7 +19146,7 @@
       <c r="F249" s="34"/>
       <c r="G249" s="18"/>
       <c r="H249" s="17" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="I249" s="17"/>
       <c r="J249" s="21"/>
@@ -19223,7 +19157,7 @@
         <v>718</v>
       </c>
       <c r="M249" s="15" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="N249" s="15">
         <v>0</v>
@@ -19245,17 +19179,17 @@
         <v>566</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="D250" s="35"/>
       <c r="E250" s="35"/>
       <c r="F250" s="34" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="G250" s="18"/>
       <c r="H250" s="17"/>
       <c r="I250" s="17" t="s">
-        <v>1468</v>
+        <v>1453</v>
       </c>
       <c r="J250" s="21"/>
       <c r="K250" s="1" t="s">
@@ -19294,11 +19228,11 @@
       <c r="D251" s="35"/>
       <c r="E251" s="35"/>
       <c r="F251" s="34" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G251" s="18"/>
       <c r="H251" s="17" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="I251" s="17"/>
       <c r="J251" s="21"/>
@@ -19309,7 +19243,7 @@
         <v>718</v>
       </c>
       <c r="M251" s="10" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="N251" s="10">
         <v>0</v>
@@ -19334,7 +19268,7 @@
         <v>1</v>
       </c>
       <c r="D252" s="35" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="E252" s="35"/>
       <c r="F252" s="34"/>
@@ -19378,7 +19312,7 @@
       <c r="F253" s="34"/>
       <c r="G253" s="18"/>
       <c r="H253" s="17" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="I253" s="17"/>
       <c r="J253" s="21"/>
@@ -19389,7 +19323,7 @@
         <v>718</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>1282</v>
+        <v>1272</v>
       </c>
       <c r="N253" s="1">
         <v>0</v>
@@ -19415,12 +19349,10 @@
       </c>
       <c r="D254" s="35"/>
       <c r="E254" s="35"/>
-      <c r="F254" s="34" t="s">
-        <v>820</v>
-      </c>
+      <c r="F254" s="34"/>
       <c r="G254" s="18"/>
       <c r="H254" s="17" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="I254" s="17"/>
       <c r="J254" s="21"/>
@@ -19463,7 +19395,7 @@
       <c r="G255" s="18"/>
       <c r="H255" s="17"/>
       <c r="I255" s="17" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="J255" s="21"/>
       <c r="K255" s="1" t="s">
@@ -19498,7 +19430,7 @@
         <v>1</v>
       </c>
       <c r="D256" s="35" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="E256" s="35"/>
       <c r="F256" s="34"/>
@@ -19538,7 +19470,7 @@
         <v>104</v>
       </c>
       <c r="D257" s="35" t="s">
-        <v>1516</v>
+        <v>1501</v>
       </c>
       <c r="E257" s="35"/>
       <c r="F257" s="34"/>
@@ -19553,14 +19485,14 @@
         <v>718</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="N257" s="10">
         <v>56000102</v>
       </c>
       <c r="O257" s="1"/>
       <c r="P257" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q257" s="1">
         <v>50</v>
@@ -19582,10 +19514,10 @@
       <c r="D258" s="35"/>
       <c r="E258" s="35"/>
       <c r="F258" s="34" t="s">
-        <v>1460</v>
+        <v>1445</v>
       </c>
       <c r="G258" s="18" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="H258" s="17"/>
       <c r="I258" s="17"/>
@@ -19597,7 +19529,7 @@
         <v>718</v>
       </c>
       <c r="M258" s="10" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="N258" s="10">
         <v>0</v>
@@ -19627,7 +19559,7 @@
       <c r="G259" s="18"/>
       <c r="H259" s="17"/>
       <c r="I259" s="17" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="J259" s="21"/>
       <c r="K259" s="1" t="s">
@@ -19637,7 +19569,7 @@
         <v>718</v>
       </c>
       <c r="M259" s="10" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="N259" s="10">
         <v>0</v>
@@ -19666,7 +19598,7 @@
       <c r="F260" s="34"/>
       <c r="G260" s="18"/>
       <c r="H260" s="17" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="I260" s="17"/>
       <c r="J260" s="21"/>
@@ -19677,7 +19609,7 @@
         <v>718</v>
       </c>
       <c r="M260" s="15" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="N260" s="15">
         <v>0</v>
@@ -19706,7 +19638,7 @@
       <c r="F261" s="34"/>
       <c r="G261" s="18"/>
       <c r="H261" s="17" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="I261" s="17"/>
       <c r="J261" s="21"/>
@@ -19717,7 +19649,7 @@
         <v>718</v>
       </c>
       <c r="M261" s="10" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="N261" s="10">
         <v>0</v>
@@ -19744,7 +19676,7 @@
       <c r="D262" s="35"/>
       <c r="E262" s="35"/>
       <c r="F262" s="34" t="s">
-        <v>1461</v>
+        <v>1446</v>
       </c>
       <c r="G262" s="18"/>
       <c r="H262" s="17" t="s">
@@ -19759,7 +19691,7 @@
         <v>718</v>
       </c>
       <c r="M262" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N262" s="10">
         <v>0</v>
@@ -19786,11 +19718,11 @@
       <c r="D263" s="35"/>
       <c r="E263" s="35"/>
       <c r="F263" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G263" s="18"/>
       <c r="H263" s="17" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="I263" s="17"/>
       <c r="J263" s="21"/>
@@ -19801,7 +19733,7 @@
         <v>718</v>
       </c>
       <c r="M263" s="10" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="N263" s="10">
         <v>0</v>
@@ -19829,7 +19761,7 @@
       <c r="E264" s="35"/>
       <c r="F264" s="34"/>
       <c r="G264" s="18" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="H264" s="17"/>
       <c r="I264" s="17"/>
@@ -19841,7 +19773,7 @@
         <v>718</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="N264" s="1">
         <v>0</v>
@@ -19863,7 +19795,7 @@
         <v>602</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D265" s="35"/>
       <c r="E265" s="35"/>
@@ -19872,7 +19804,7 @@
       <c r="H265" s="17"/>
       <c r="I265" s="22"/>
       <c r="J265" s="21" t="s">
-        <v>1530</v>
+        <v>1514</v>
       </c>
       <c r="K265" s="1" t="s">
         <v>723</v>
@@ -19881,7 +19813,7 @@
         <v>718</v>
       </c>
       <c r="M265" s="10" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="N265" s="10">
         <v>0</v>
@@ -19903,7 +19835,7 @@
         <v>604</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D266" s="35"/>
       <c r="E266" s="35"/>
@@ -19912,7 +19844,7 @@
       <c r="H266" s="17"/>
       <c r="I266" s="22"/>
       <c r="J266" s="21" t="s">
-        <v>1445</v>
+        <v>1430</v>
       </c>
       <c r="K266" s="1" t="s">
         <v>723</v>
@@ -19921,7 +19853,7 @@
         <v>718</v>
       </c>
       <c r="M266" s="10" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="N266" s="10">
         <v>0</v>
@@ -19950,7 +19882,7 @@
       <c r="F267" s="34"/>
       <c r="G267" s="18"/>
       <c r="H267" s="17" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="I267" s="17"/>
       <c r="J267" s="21"/>
@@ -19961,7 +19893,7 @@
         <v>718</v>
       </c>
       <c r="M267" s="15" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="N267" s="15">
         <v>0</v>
@@ -19991,7 +19923,7 @@
       <c r="G268" s="18"/>
       <c r="H268" s="17"/>
       <c r="I268" s="17" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="J268" s="21"/>
       <c r="K268" s="1" t="s">
@@ -20001,7 +19933,7 @@
         <v>718</v>
       </c>
       <c r="M268" s="10" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="N268" s="10">
         <v>0</v>
@@ -20023,10 +19955,10 @@
         <v>610</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D269" s="35" t="s">
-        <v>1454</v>
+        <v>1439</v>
       </c>
       <c r="E269" s="35"/>
       <c r="F269" s="34"/>
@@ -20041,13 +19973,13 @@
         <v>718</v>
       </c>
       <c r="M269" s="16" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="N269" s="10">
         <v>0</v>
       </c>
       <c r="O269" s="1" t="s">
-        <v>1451</v>
+        <v>1436</v>
       </c>
       <c r="P269" s="1"/>
       <c r="Q269" s="1">
@@ -20070,11 +20002,11 @@
       <c r="D270" s="35"/>
       <c r="E270" s="35"/>
       <c r="F270" s="34" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G270" s="18"/>
       <c r="H270" s="17" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="I270" s="17"/>
       <c r="J270" s="21"/>
@@ -20085,7 +20017,7 @@
         <v>718</v>
       </c>
       <c r="M270" s="10" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="N270" s="10">
         <v>0</v>
@@ -20112,7 +20044,7 @@
         <v>104</v>
       </c>
       <c r="D271" s="35" t="s">
-        <v>1499</v>
+        <v>1484</v>
       </c>
       <c r="E271" s="35"/>
       <c r="F271" s="34"/>
@@ -20127,14 +20059,14 @@
         <v>718</v>
       </c>
       <c r="M271" s="10" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="N271" s="10">
         <v>56000101</v>
       </c>
       <c r="O271" s="1"/>
       <c r="P271" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q271" s="1">
         <v>400</v>
@@ -20143,7 +20075,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="272" spans="1:18" ht="48">
+    <row r="272" spans="1:18">
       <c r="A272">
         <v>55000286</v>
       </c>
@@ -20157,9 +20089,7 @@
       <c r="E272" s="35"/>
       <c r="F272" s="34"/>
       <c r="G272" s="18"/>
-      <c r="H272" s="17" t="s">
-        <v>1199</v>
-      </c>
+      <c r="H272" s="17"/>
       <c r="I272" s="17"/>
       <c r="J272" s="21"/>
       <c r="K272" s="1" t="s">
@@ -20169,7 +20099,7 @@
         <v>718</v>
       </c>
       <c r="M272" s="10" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="N272" s="10">
         <v>0</v>
@@ -20194,7 +20124,7 @@
         <v>104</v>
       </c>
       <c r="D273" s="35" t="s">
-        <v>1503</v>
+        <v>1488</v>
       </c>
       <c r="E273" s="35"/>
       <c r="F273" s="34"/>
@@ -20209,14 +20139,14 @@
         <v>718</v>
       </c>
       <c r="M273" s="1" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="N273" s="10">
         <v>56000131</v>
       </c>
       <c r="O273" s="1"/>
       <c r="P273" s="1" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="Q273" s="1">
         <v>360</v>
@@ -20230,7 +20160,7 @@
         <v>55000288</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>1</v>
@@ -20241,7 +20171,7 @@
       <c r="G274" s="18"/>
       <c r="H274" s="17"/>
       <c r="I274" s="17" t="s">
-        <v>1449</v>
+        <v>1434</v>
       </c>
       <c r="J274" s="21"/>
       <c r="K274" s="1" t="s">
@@ -20272,13 +20202,13 @@
         <v>55000289</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D275" s="35" t="s">
-        <v>1456</v>
+        <v>1441</v>
       </c>
       <c r="E275" s="35"/>
       <c r="F275" s="34"/>
@@ -20293,7 +20223,7 @@
         <v>718</v>
       </c>
       <c r="M275" s="1" t="s">
-        <v>1453</v>
+        <v>1438</v>
       </c>
       <c r="N275" s="1">
         <v>0</v>
@@ -20322,7 +20252,7 @@
       <c r="F276" s="34"/>
       <c r="G276" s="18"/>
       <c r="H276" s="17" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="I276" s="17"/>
       <c r="J276" s="21"/>
@@ -20333,7 +20263,7 @@
         <v>718</v>
       </c>
       <c r="M276" s="10" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="N276" s="10">
         <v>0</v>
@@ -20362,7 +20292,7 @@
       <c r="F277" s="34"/>
       <c r="G277" s="18"/>
       <c r="H277" s="17" t="s">
-        <v>1400</v>
+        <v>1387</v>
       </c>
       <c r="I277" s="17"/>
       <c r="J277" s="21"/>
@@ -20373,7 +20303,7 @@
         <v>718</v>
       </c>
       <c r="M277" s="10" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
       <c r="N277" s="10">
         <v>0</v>
@@ -20400,14 +20330,14 @@
       <c r="D278" s="35"/>
       <c r="E278" s="35"/>
       <c r="F278" s="34" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="G278" s="18"/>
       <c r="H278" s="17" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="I278" s="17" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="J278" s="21"/>
       <c r="K278" s="1" t="s">
@@ -20417,7 +20347,7 @@
         <v>718</v>
       </c>
       <c r="M278" s="10" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="N278" s="10">
         <v>0</v>
@@ -20448,7 +20378,7 @@
       <c r="H279" s="17"/>
       <c r="I279" s="17"/>
       <c r="J279" s="21" t="s">
-        <v>1434</v>
+        <v>1421</v>
       </c>
       <c r="K279" s="1" t="s">
         <v>723</v>
@@ -20457,7 +20387,7 @@
         <v>718</v>
       </c>
       <c r="M279" s="10" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="N279" s="10">
         <v>0</v>
@@ -20484,12 +20414,12 @@
       <c r="D280" s="35"/>
       <c r="E280" s="35"/>
       <c r="F280" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G280" s="18"/>
       <c r="H280" s="17"/>
       <c r="I280" s="17" t="s">
-        <v>1418</v>
+        <v>1405</v>
       </c>
       <c r="J280" s="21"/>
       <c r="K280" s="1" t="s">
@@ -20499,16 +20429,16 @@
         <v>718</v>
       </c>
       <c r="M280" s="10" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="N280" s="10">
         <v>0</v>
       </c>
       <c r="O280" s="1" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="P280" s="10" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Q280" s="1">
         <f>600*3*2/12</f>
@@ -20542,7 +20472,7 @@
         <v>718</v>
       </c>
       <c r="M281" s="10" t="s">
-        <v>1383</v>
+        <v>1373</v>
       </c>
       <c r="N281" s="10">
         <v>0</v>
@@ -20573,7 +20503,7 @@
       <c r="H282" s="17"/>
       <c r="I282" s="17"/>
       <c r="J282" s="21" t="s">
-        <v>1435</v>
+        <v>1422</v>
       </c>
       <c r="K282" s="1" t="s">
         <v>723</v>
@@ -20582,7 +20512,7 @@
         <v>718</v>
       </c>
       <c r="M282" s="10" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="N282" s="10">
         <v>0</v>
@@ -20609,11 +20539,11 @@
       <c r="D283" s="35"/>
       <c r="E283" s="35"/>
       <c r="F283" s="34" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G283" s="18"/>
       <c r="H283" s="17" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="I283" s="17"/>
       <c r="J283" s="21"/>
@@ -20624,7 +20554,7 @@
         <v>718</v>
       </c>
       <c r="M283" s="10" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="N283" s="10">
         <v>0</v>
@@ -20651,11 +20581,11 @@
       <c r="D284" s="35"/>
       <c r="E284" s="35"/>
       <c r="F284" s="34" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G284" s="18"/>
       <c r="H284" s="17" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="I284" s="17"/>
       <c r="J284" s="21"/>
@@ -20666,7 +20596,7 @@
         <v>718</v>
       </c>
       <c r="M284" s="10" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="N284" s="10">
         <v>0</v>
@@ -20693,11 +20623,11 @@
       <c r="D285" s="35"/>
       <c r="E285" s="35"/>
       <c r="F285" s="34" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="G285" s="18"/>
       <c r="H285" s="17" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="I285" s="17"/>
       <c r="J285" s="21"/>
@@ -20737,12 +20667,12 @@
       <c r="D286" s="35"/>
       <c r="E286" s="35"/>
       <c r="F286" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G286" s="18"/>
       <c r="H286" s="17"/>
       <c r="I286" s="17" t="s">
-        <v>1419</v>
+        <v>1406</v>
       </c>
       <c r="J286" s="21"/>
       <c r="K286" s="1" t="s">
@@ -20752,16 +20682,16 @@
         <v>718</v>
       </c>
       <c r="M286" s="10" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="N286" s="10">
         <v>0</v>
       </c>
       <c r="O286" s="10" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="P286" s="10" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Q286" s="1">
         <f>1000*3*2/12</f>
@@ -20784,12 +20714,12 @@
       <c r="D287" s="35"/>
       <c r="E287" s="35"/>
       <c r="F287" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G287" s="18"/>
       <c r="H287" s="17"/>
       <c r="I287" s="17" t="s">
-        <v>1420</v>
+        <v>1407</v>
       </c>
       <c r="J287" s="21"/>
       <c r="K287" s="1" t="s">
@@ -20799,16 +20729,16 @@
         <v>718</v>
       </c>
       <c r="M287" s="10" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="N287" s="10">
         <v>0</v>
       </c>
       <c r="O287" s="10" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="P287" s="10" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Q287" s="1">
         <v>500</v>
@@ -20830,12 +20760,12 @@
       <c r="D288" s="35"/>
       <c r="E288" s="35"/>
       <c r="F288" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G288" s="18"/>
       <c r="H288" s="17"/>
       <c r="I288" s="17" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="J288" s="21"/>
       <c r="K288" s="1" t="s">
@@ -20845,16 +20775,16 @@
         <v>718</v>
       </c>
       <c r="M288" s="10" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="N288" s="10">
         <v>0</v>
       </c>
       <c r="O288" s="10" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="P288" s="10" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Q288" s="1">
         <v>1000</v>
@@ -20876,12 +20806,12 @@
       <c r="D289" s="35"/>
       <c r="E289" s="35"/>
       <c r="F289" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G289" s="18"/>
       <c r="H289" s="17"/>
       <c r="I289" s="17" t="s">
-        <v>1422</v>
+        <v>1409</v>
       </c>
       <c r="J289" s="21"/>
       <c r="K289" s="1" t="s">
@@ -20891,16 +20821,16 @@
         <v>718</v>
       </c>
       <c r="M289" s="10" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="N289" s="10">
         <v>0</v>
       </c>
       <c r="O289" s="10" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="P289" s="10" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Q289" s="1">
         <v>833</v>
@@ -20922,12 +20852,12 @@
       <c r="D290" s="35"/>
       <c r="E290" s="35"/>
       <c r="F290" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G290" s="18"/>
       <c r="H290" s="17"/>
       <c r="I290" s="17" t="s">
-        <v>1423</v>
+        <v>1410</v>
       </c>
       <c r="J290" s="21"/>
       <c r="K290" s="1" t="s">
@@ -20937,16 +20867,16 @@
         <v>718</v>
       </c>
       <c r="M290" s="10" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="N290" s="10">
         <v>0</v>
       </c>
       <c r="O290" s="10" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="P290" s="10" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Q290" s="1">
         <f>1400*3*2/12</f>
@@ -20969,12 +20899,12 @@
       <c r="D291" s="35"/>
       <c r="E291" s="35"/>
       <c r="F291" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G291" s="18"/>
       <c r="H291" s="17"/>
       <c r="I291" s="17" t="s">
-        <v>1424</v>
+        <v>1411</v>
       </c>
       <c r="J291" s="21"/>
       <c r="K291" s="1" t="s">
@@ -20984,16 +20914,16 @@
         <v>718</v>
       </c>
       <c r="M291" s="10" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="N291" s="10">
         <v>0</v>
       </c>
       <c r="O291" s="10" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="P291" s="10" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Q291" s="1">
         <f>1200*3*2/12</f>
@@ -21016,12 +20946,12 @@
       <c r="D292" s="35"/>
       <c r="E292" s="35"/>
       <c r="F292" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G292" s="18"/>
       <c r="H292" s="17"/>
       <c r="I292" s="17" t="s">
-        <v>1425</v>
+        <v>1412</v>
       </c>
       <c r="J292" s="21"/>
       <c r="K292" s="1" t="s">
@@ -21031,16 +20961,16 @@
         <v>718</v>
       </c>
       <c r="M292" s="10" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="N292" s="10">
         <v>0</v>
       </c>
       <c r="O292" s="10" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="P292" s="10" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Q292" s="1">
         <f>240*2</f>
@@ -21063,12 +20993,12 @@
       <c r="D293" s="35"/>
       <c r="E293" s="35"/>
       <c r="F293" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G293" s="18"/>
       <c r="H293" s="17"/>
       <c r="I293" s="17" t="s">
-        <v>1426</v>
+        <v>1413</v>
       </c>
       <c r="J293" s="21"/>
       <c r="K293" s="1" t="s">
@@ -21078,16 +21008,16 @@
         <v>718</v>
       </c>
       <c r="M293" s="10" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="N293" s="10">
         <v>0</v>
       </c>
       <c r="O293" s="10" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="P293" s="10" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Q293" s="1">
         <f>300*2</f>
@@ -21112,18 +21042,18 @@
       <c r="F294" s="34"/>
       <c r="G294" s="18"/>
       <c r="H294" s="17" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="I294" s="17"/>
       <c r="J294" s="21"/>
       <c r="K294" s="10" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="L294" s="9" t="s">
         <v>718</v>
       </c>
       <c r="M294" s="10" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="N294" s="10">
         <v>0</v>
@@ -21152,7 +21082,7 @@
       <c r="F295" s="34"/>
       <c r="G295" s="18"/>
       <c r="H295" s="17" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="I295" s="17"/>
       <c r="J295" s="21"/>
@@ -21163,7 +21093,7 @@
         <v>718</v>
       </c>
       <c r="M295" s="10" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="N295" s="10">
         <v>0</v>
@@ -21190,12 +21120,12 @@
       <c r="D296" s="35"/>
       <c r="E296" s="35"/>
       <c r="F296" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G296" s="18"/>
       <c r="H296" s="17"/>
       <c r="I296" s="17" t="s">
-        <v>1496</v>
+        <v>1481</v>
       </c>
       <c r="J296" s="21"/>
       <c r="K296" s="1" t="s">
@@ -21205,16 +21135,16 @@
         <v>718</v>
       </c>
       <c r="M296" s="10" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="N296" s="10">
         <v>0</v>
       </c>
       <c r="O296" s="10" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="P296" s="10" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="Q296" s="1">
         <f>300*5*2/12</f>
@@ -21232,7 +21162,7 @@
         <v>667</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D297" s="35"/>
       <c r="E297" s="35"/>
@@ -21241,7 +21171,7 @@
       <c r="H297" s="17"/>
       <c r="I297" s="17"/>
       <c r="J297" s="21" t="s">
-        <v>1446</v>
+        <v>1431</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>723</v>
@@ -21250,7 +21180,7 @@
         <v>718</v>
       </c>
       <c r="M297" s="16" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="N297" s="10">
         <v>0</v>
@@ -21269,16 +21199,16 @@
         <v>55000340</v>
       </c>
       <c r="B298" s="11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D298" s="35" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E298" s="35" t="s">
         <v>1044</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D298" s="35" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E298" s="35" t="s">
-        <v>1050</v>
       </c>
       <c r="F298" s="34"/>
       <c r="G298" s="18"/>
@@ -21292,20 +21222,20 @@
         <v>718</v>
       </c>
       <c r="M298" s="10" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="N298" s="10">
         <v>0</v>
       </c>
       <c r="O298" s="1"/>
       <c r="P298" s="1" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="Q298" s="1">
         <v>200</v>
       </c>
       <c r="R298" s="1" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="299" spans="1:18" ht="24">
@@ -21313,13 +21243,13 @@
         <v>55000341</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="D299" s="35" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="E299" s="35"/>
       <c r="F299" s="34"/>
@@ -21334,20 +21264,20 @@
         <v>718</v>
       </c>
       <c r="M299" s="10" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="N299" s="10">
         <v>0</v>
       </c>
       <c r="O299" s="1" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="P299" s="1"/>
       <c r="Q299" s="1">
         <v>800</v>
       </c>
       <c r="R299" s="1" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="300" spans="1:18" ht="144">
@@ -21355,13 +21285,13 @@
         <v>55000342</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="C300" s="39" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="D300" s="35" t="s">
-        <v>1455</v>
+        <v>1440</v>
       </c>
       <c r="E300" s="40"/>
       <c r="F300" s="53"/>
@@ -21373,10 +21303,10 @@
         <v>723</v>
       </c>
       <c r="L300" s="47" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="M300" s="16" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="N300" s="39">
         <v>0</v>
@@ -21387,7 +21317,7 @@
         <v>400</v>
       </c>
       <c r="R300" s="1" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="301" spans="1:18" ht="144">
@@ -21395,13 +21325,13 @@
         <v>55000343</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="C301" s="39" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="D301" s="35" t="s">
-        <v>1455</v>
+        <v>1440</v>
       </c>
       <c r="E301" s="40"/>
       <c r="F301" s="41"/>
@@ -21413,10 +21343,10 @@
         <v>723</v>
       </c>
       <c r="L301" s="47" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="M301" s="16" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="N301" s="39">
         <v>0</v>
@@ -21427,12 +21357,12 @@
         <v>600</v>
       </c>
       <c r="R301" s="1" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="302" spans="1:18" ht="36">
       <c r="A302" t="s">
-        <v>1472</v>
+        <v>1457</v>
       </c>
       <c r="B302" s="11" t="s">
         <v>129</v>
@@ -21446,7 +21376,7 @@
       <c r="G302" s="30"/>
       <c r="H302" s="37"/>
       <c r="I302" s="17" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="J302" s="21"/>
       <c r="K302" s="52" t="s">
@@ -21456,7 +21386,7 @@
         <v>718</v>
       </c>
       <c r="M302" s="10" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="N302" s="10">
         <v>0</v>
@@ -21486,10 +21416,10 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21534,10 +21464,10 @@
         <v>731</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>722</v>
@@ -21549,13 +21479,13 @@
         <v>728</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>714</v>
@@ -21575,25 +21505,25 @@
         <v>705</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>751</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>721</v>
@@ -21602,16 +21532,16 @@
         <v>717</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>705</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>704</v>
@@ -21631,25 +21561,25 @@
         <v>708</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>752</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>730</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>724</v>
@@ -21658,16 +21588,16 @@
         <v>719</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>709</v>
@@ -21687,7 +21617,7 @@
         <v>675</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="34"/>
@@ -21702,7 +21632,7 @@
         <v>720</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -21729,11 +21659,11 @@
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="34" t="s">
-        <v>1459</v>
+        <v>1444</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="17" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="21"/>
@@ -21744,7 +21674,7 @@
         <v>720</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="N5" s="10">
         <v>0</v>
@@ -21769,7 +21699,7 @@
         <v>675</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="34"/>
@@ -21784,7 +21714,7 @@
         <v>720</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -21809,7 +21739,7 @@
         <v>675</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="34"/>
@@ -21849,7 +21779,7 @@
         <v>675</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="34"/>
@@ -21864,7 +21794,7 @@
         <v>720</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="N8" s="10">
         <v>0</v>
@@ -21892,10 +21822,10 @@
       <c r="E9" s="35"/>
       <c r="F9" s="34"/>
       <c r="G9" s="18" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="21"/>
@@ -21906,7 +21836,7 @@
         <v>720</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="N9" s="10">
         <v>0</v>
@@ -21934,10 +21864,10 @@
       <c r="E10" s="35"/>
       <c r="F10" s="34"/>
       <c r="G10" s="18" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="21"/>
@@ -21948,7 +21878,7 @@
         <v>720</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="N10" s="10">
         <v>0</v>
@@ -21978,7 +21908,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="1" t="s">
@@ -21988,7 +21918,7 @@
         <v>720</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="N11" s="10">
         <v>0</v>
@@ -22018,7 +21948,7 @@
       <c r="G12" s="18"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="1" t="s">
@@ -22028,7 +21958,7 @@
         <v>720</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="N12" s="10">
         <v>0</v>
@@ -22042,7 +21972,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="36">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>55010010</v>
       </c>
@@ -22052,9 +21982,7 @@
       <c r="C13" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>1528</v>
-      </c>
+      <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="34"/>
       <c r="G13" s="18"/>
@@ -22068,7 +21996,7 @@
         <v>720</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>1529</v>
+        <v>1513</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
@@ -22097,7 +22025,7 @@
       <c r="F14" s="34"/>
       <c r="G14" s="18"/>
       <c r="H14" s="17" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="21"/>
@@ -22133,7 +22061,7 @@
         <v>675</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="34"/>
@@ -22148,7 +22076,7 @@
         <v>720</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="N15" s="10">
         <v>0</v>
@@ -22175,11 +22103,11 @@
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="34" t="s">
-        <v>1459</v>
+        <v>1444</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="17" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="21"/>
@@ -22190,7 +22118,7 @@
         <v>720</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="N16" s="10">
         <v>0</v>
@@ -22228,7 +22156,7 @@
         <v>720</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="N17" s="10">
         <v>0</v>
@@ -22253,7 +22181,7 @@
         <v>675</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="34"/>
@@ -22268,7 +22196,7 @@
         <v>720</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -22293,15 +22221,15 @@
         <v>675</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="34" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="17" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="21"/>
@@ -22312,7 +22240,7 @@
         <v>720</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="N19" s="10">
         <v>0</v>
@@ -22337,7 +22265,7 @@
         <v>675</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="34"/>
@@ -22352,7 +22280,7 @@
         <v>720</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -22377,13 +22305,13 @@
         <v>675</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="34"/>
       <c r="G21" s="18"/>
       <c r="H21" s="17" t="s">
-        <v>1464</v>
+        <v>1449</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="21"/>
@@ -22394,7 +22322,7 @@
         <v>720</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="N21" s="10">
         <v>0</v>
@@ -22423,7 +22351,7 @@
       <c r="F22" s="34"/>
       <c r="G22" s="18"/>
       <c r="H22" s="17" t="s">
-        <v>1463</v>
+        <v>1448</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="21"/>
@@ -22434,7 +22362,7 @@
         <v>720</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="N22" s="10">
         <v>0</v>
@@ -22459,7 +22387,7 @@
         <v>675</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="34"/>
@@ -22474,7 +22402,7 @@
         <v>720</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
@@ -22499,7 +22427,7 @@
         <v>675</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="34"/>
@@ -22514,7 +22442,7 @@
         <v>720</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
@@ -22539,7 +22467,7 @@
         <v>675</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="34"/>
@@ -22554,7 +22482,7 @@
         <v>720</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="N25" s="1">
         <v>0</v>
@@ -22579,7 +22507,7 @@
         <v>675</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="34"/>
@@ -22594,7 +22522,7 @@
         <v>720</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="N26" s="1">
         <v>0</v>
@@ -22632,7 +22560,7 @@
         <v>720</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
@@ -22670,7 +22598,7 @@
         <v>720</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="N28" s="1">
         <v>0</v>
@@ -22695,7 +22623,7 @@
         <v>675</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="34"/>
@@ -22710,7 +22638,7 @@
         <v>720</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
@@ -22735,7 +22663,7 @@
         <v>675</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="34"/>
@@ -22750,7 +22678,7 @@
         <v>720</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
@@ -22766,10 +22694,10 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>1471</v>
+        <v>1456</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>675</v>
@@ -22788,7 +22716,7 @@
         <v>720</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="N31" s="1">
         <v>0</v>
@@ -22807,7 +22735,7 @@
         <v>55010029</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>675</v>
@@ -22815,11 +22743,11 @@
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="29" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="G32" s="30"/>
       <c r="H32" s="17" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="21"/>
@@ -22830,7 +22758,7 @@
         <v>720</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="N32" s="28">
         <v>0</v>
@@ -22849,7 +22777,7 @@
         <v>55010030</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>675</v>
@@ -22857,14 +22785,14 @@
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
       <c r="F33" s="34" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="G33" s="30"/>
       <c r="H33" s="37" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>1498</v>
+        <v>1483</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="31" t="s">
@@ -22874,7 +22802,7 @@
         <v>720</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="N33" s="28">
         <v>0</v>
@@ -22952,10 +22880,10 @@
         <v>731</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>722</v>
@@ -22967,13 +22895,13 @@
         <v>728</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>714</v>
@@ -22993,25 +22921,25 @@
         <v>705</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>751</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>721</v>
@@ -23020,10 +22948,10 @@
         <v>717</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>705</v>
@@ -23049,25 +22977,25 @@
         <v>708</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>752</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>730</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>724</v>
@@ -23076,16 +23004,16 @@
         <v>719</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>709</v>
@@ -23107,7 +23035,7 @@
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="34" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="17" t="s">
@@ -23122,7 +23050,7 @@
         <v>718</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="N4" s="10">
         <v>0</v>
@@ -23164,7 +23092,7 @@
         <v>718</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -23206,7 +23134,7 @@
         <v>718</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -23248,7 +23176,7 @@
         <v>718</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -23290,7 +23218,7 @@
         <v>718</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
@@ -23332,7 +23260,7 @@
         <v>718</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
@@ -23374,7 +23302,7 @@
         <v>718</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
@@ -23416,7 +23344,7 @@
         <v>718</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -23443,11 +23371,11 @@
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
       <c r="F12" s="34" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="17" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="21"/>
@@ -23458,7 +23386,7 @@
         <v>718</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="N12" s="10">
         <v>0</v>
@@ -23485,11 +23413,11 @@
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="34" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="17" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="21"/>
@@ -23500,7 +23428,7 @@
         <v>718</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="N13" s="10">
         <v>0</v>
@@ -23527,11 +23455,11 @@
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="34" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="17" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="21"/>
@@ -23542,7 +23470,7 @@
         <v>718</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="N14" s="10">
         <v>0</v>
@@ -23569,11 +23497,11 @@
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
       <c r="F15" s="34" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="17" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="21"/>
@@ -23584,7 +23512,7 @@
         <v>718</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="N15" s="10">
         <v>0</v>
@@ -23611,11 +23539,11 @@
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="34" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="17" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="21"/>
@@ -23626,7 +23554,7 @@
         <v>718</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="N16" s="10">
         <v>0</v>
@@ -23653,11 +23581,11 @@
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
       <c r="F17" s="34" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="17" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="21"/>
@@ -23668,7 +23596,7 @@
         <v>718</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="N17" s="10">
         <v>0</v>
@@ -23695,11 +23623,11 @@
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="34" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="17" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="21"/>
@@ -23710,7 +23638,7 @@
         <v>718</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="N18" s="10">
         <v>0</v>
@@ -23737,11 +23665,11 @@
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
       <c r="F19" s="34" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="17" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="21"/>
@@ -23752,7 +23680,7 @@
         <v>718</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="N19" s="10">
         <v>0</v>
@@ -23781,8 +23709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23824,7 +23752,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -23872,7 +23800,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -23920,7 +23848,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -23968,7 +23896,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -24016,7 +23944,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -24064,7 +23992,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -24112,7 +24040,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -24160,7 +24088,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -24208,45 +24136,45 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="B11" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="B12" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="E12" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="F12" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="B13" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="B14" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="B15">
         <v>300</v>
@@ -24254,7 +24182,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="B16">
         <v>5000</v>
@@ -24262,7 +24190,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="B17" s="26">
         <v>0.2</v>
@@ -24270,7 +24198,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="B18" s="26">
         <v>0.1</v>
@@ -24278,7 +24206,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="B19" s="26">
         <v>0.3</v>
@@ -24286,13 +24214,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="B20" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="D20" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -24300,31 +24228,31 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="B22" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="B23" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -24332,7 +24260,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -24340,7 +24268,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="B26" s="26">
         <v>0.2</v>
@@ -24348,7 +24276,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="B32">
         <v>800</v>
@@ -24356,7 +24284,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="B33">
         <v>500</v>
@@ -24381,12 +24309,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="3" spans="1:1">

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="1450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="1451">
   <si>
     <t>夜色</t>
   </si>
@@ -5333,10 +5333,15 @@
     <t>s.Atk.Source*=1.2;</t>
   </si>
   <si>
-    <t>s.Summon(2,51000019);</t>
-  </si>
-  <si>
     <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,"A","L",10,s.Position,"curseoff")) o.ClearDebuff();</t>
+  </si>
+  <si>
+    <t>s.Summon(3,51000019);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gebulin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6458,108 +6463,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="宋体"/>
@@ -6774,6 +6677,40 @@
           <color theme="4"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -7426,6 +7363,40 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -8054,6 +8025,40 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -8469,80 +8474,80 @@
     <tableColumn id="26" name="CheckDamage" dataDxfId="58"/>
     <tableColumn id="29" name="AfterHit" dataDxfId="57"/>
     <tableColumn id="5" name="CheckSpecial" dataDxfId="56"/>
-    <tableColumn id="9" name="SpecialCd" dataDxfId="2"/>
-    <tableColumn id="25" name="Active" dataDxfId="55"/>
-    <tableColumn id="20" name="IsRandom" dataDxfId="54"/>
-    <tableColumn id="23" name="GetDescript" dataDxfId="53"/>
-    <tableColumn id="8" name="DescriptBuffId" dataDxfId="52"/>
-    <tableColumn id="17" name="Effect" dataDxfId="51"/>
-    <tableColumn id="6" name="Cover" dataDxfId="50"/>
-    <tableColumn id="18" name="Mark" dataDxfId="49"/>
-    <tableColumn id="19" name="Icon" dataDxfId="48"/>
-    <tableColumn id="7" name="Remark" dataDxfId="47"/>
+    <tableColumn id="9" name="SpecialCd" dataDxfId="55"/>
+    <tableColumn id="25" name="Active" dataDxfId="54"/>
+    <tableColumn id="20" name="IsRandom" dataDxfId="53"/>
+    <tableColumn id="23" name="GetDescript" dataDxfId="52"/>
+    <tableColumn id="8" name="DescriptBuffId" dataDxfId="51"/>
+    <tableColumn id="17" name="Effect" dataDxfId="50"/>
+    <tableColumn id="6" name="Cover" dataDxfId="49"/>
+    <tableColumn id="18" name="Mark" dataDxfId="48"/>
+    <tableColumn id="19" name="Icon" dataDxfId="47"/>
+    <tableColumn id="7" name="Remark" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表3_2" displayName="表3_2" ref="A3:T5" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表3_2" displayName="表3_2" ref="A3:T5" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
   <autoFilter ref="A3:T5"/>
   <sortState ref="A4:T346">
     <sortCondition ref="A3:A346"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" name="Id" dataDxfId="43"/>
-    <tableColumn id="2" name="Name" dataDxfId="42"/>
-    <tableColumn id="3" name="Type" dataDxfId="41"/>
-    <tableColumn id="24" name="OnAdd" dataDxfId="40"/>
-    <tableColumn id="4" name="OnRemove" dataDxfId="39"/>
-    <tableColumn id="27" name="CanBurst" dataDxfId="38"/>
-    <tableColumn id="22" name="CheckHit" dataDxfId="37"/>
-    <tableColumn id="26" name="CheckDamage" dataDxfId="36"/>
-    <tableColumn id="29" name="AfterHit" dataDxfId="35"/>
-    <tableColumn id="5" name="CheckSpecial" dataDxfId="34"/>
-    <tableColumn id="9" name="SpecialCd" dataDxfId="1"/>
-    <tableColumn id="25" name="Active" dataDxfId="33"/>
-    <tableColumn id="20" name="IsRandom" dataDxfId="32"/>
-    <tableColumn id="23" name="GetDescript" dataDxfId="31"/>
-    <tableColumn id="8" name="DescriptBuffId" dataDxfId="30"/>
-    <tableColumn id="17" name="Effect" dataDxfId="29"/>
-    <tableColumn id="6" name="Cover" dataDxfId="28"/>
-    <tableColumn id="18" name="Mark" dataDxfId="27"/>
-    <tableColumn id="19" name="Icon" dataDxfId="26"/>
-    <tableColumn id="7" name="Remark" dataDxfId="25"/>
+    <tableColumn id="1" name="Id" dataDxfId="42"/>
+    <tableColumn id="2" name="Name" dataDxfId="41"/>
+    <tableColumn id="3" name="Type" dataDxfId="40"/>
+    <tableColumn id="24" name="OnAdd" dataDxfId="39"/>
+    <tableColumn id="4" name="OnRemove" dataDxfId="38"/>
+    <tableColumn id="27" name="CanBurst" dataDxfId="37"/>
+    <tableColumn id="22" name="CheckHit" dataDxfId="36"/>
+    <tableColumn id="26" name="CheckDamage" dataDxfId="35"/>
+    <tableColumn id="29" name="AfterHit" dataDxfId="34"/>
+    <tableColumn id="5" name="CheckSpecial" dataDxfId="33"/>
+    <tableColumn id="9" name="SpecialCd" dataDxfId="32"/>
+    <tableColumn id="25" name="Active" dataDxfId="31"/>
+    <tableColumn id="20" name="IsRandom" dataDxfId="30"/>
+    <tableColumn id="23" name="GetDescript" dataDxfId="29"/>
+    <tableColumn id="8" name="DescriptBuffId" dataDxfId="28"/>
+    <tableColumn id="17" name="Effect" dataDxfId="27"/>
+    <tableColumn id="6" name="Cover" dataDxfId="26"/>
+    <tableColumn id="18" name="Mark" dataDxfId="25"/>
+    <tableColumn id="19" name="Icon" dataDxfId="24"/>
+    <tableColumn id="7" name="Remark" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表3_23" displayName="表3_23" ref="A3:T19" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表3_23" displayName="表3_23" ref="A3:T19" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A3:T19"/>
   <sortState ref="A4:T346">
     <sortCondition ref="A3:A346"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" name="Id" dataDxfId="21"/>
-    <tableColumn id="2" name="Name" dataDxfId="20"/>
-    <tableColumn id="3" name="Type" dataDxfId="19"/>
-    <tableColumn id="24" name="OnAdd" dataDxfId="18"/>
-    <tableColumn id="4" name="OnRemove" dataDxfId="17"/>
-    <tableColumn id="27" name="CanBurst" dataDxfId="16"/>
-    <tableColumn id="22" name="CheckHit" dataDxfId="15"/>
-    <tableColumn id="26" name="CheckDamage" dataDxfId="14"/>
-    <tableColumn id="29" name="AfterHit" dataDxfId="13"/>
-    <tableColumn id="5" name="CheckSpecial" dataDxfId="12"/>
-    <tableColumn id="9" name="SpecialCd" dataDxfId="0"/>
-    <tableColumn id="25" name="Active" dataDxfId="11"/>
-    <tableColumn id="20" name="IsRandom" dataDxfId="10"/>
-    <tableColumn id="23" name="GetDescript" dataDxfId="9"/>
-    <tableColumn id="8" name="DescriptBuffId" dataDxfId="8"/>
-    <tableColumn id="17" name="Effect" dataDxfId="7"/>
-    <tableColumn id="6" name="Cover" dataDxfId="6"/>
-    <tableColumn id="18" name="Mark" dataDxfId="5"/>
-    <tableColumn id="19" name="Icon" dataDxfId="4"/>
-    <tableColumn id="7" name="Remark" dataDxfId="3"/>
+    <tableColumn id="1" name="Id" dataDxfId="19"/>
+    <tableColumn id="2" name="Name" dataDxfId="18"/>
+    <tableColumn id="3" name="Type" dataDxfId="17"/>
+    <tableColumn id="24" name="OnAdd" dataDxfId="16"/>
+    <tableColumn id="4" name="OnRemove" dataDxfId="15"/>
+    <tableColumn id="27" name="CanBurst" dataDxfId="14"/>
+    <tableColumn id="22" name="CheckHit" dataDxfId="13"/>
+    <tableColumn id="26" name="CheckDamage" dataDxfId="12"/>
+    <tableColumn id="29" name="AfterHit" dataDxfId="11"/>
+    <tableColumn id="5" name="CheckSpecial" dataDxfId="10"/>
+    <tableColumn id="9" name="SpecialCd" dataDxfId="9"/>
+    <tableColumn id="25" name="Active" dataDxfId="8"/>
+    <tableColumn id="20" name="IsRandom" dataDxfId="7"/>
+    <tableColumn id="23" name="GetDescript" dataDxfId="6"/>
+    <tableColumn id="8" name="DescriptBuffId" dataDxfId="5"/>
+    <tableColumn id="17" name="Effect" dataDxfId="4"/>
+    <tableColumn id="6" name="Cover" dataDxfId="3"/>
+    <tableColumn id="18" name="Mark" dataDxfId="2"/>
+    <tableColumn id="19" name="Icon" dataDxfId="1"/>
+    <tableColumn id="7" name="Remark" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8841,7 +8846,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J285" sqref="J285"/>
+      <selection pane="bottomRight" activeCell="S286" sqref="S286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9050,7 +9055,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="48">
+    <row r="4" spans="1:20" ht="45.6">
       <c r="A4">
         <v>55000001</v>
       </c>
@@ -9096,7 +9101,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="60">
+    <row r="5" spans="1:20" ht="57">
       <c r="A5">
         <v>55000002</v>
       </c>
@@ -9140,7 +9145,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="24">
+    <row r="6" spans="1:20" ht="22.8">
       <c r="A6">
         <v>55000003</v>
       </c>
@@ -9184,7 +9189,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="48">
+    <row r="7" spans="1:20" ht="45.6">
       <c r="A7">
         <v>55000004</v>
       </c>
@@ -9230,7 +9235,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="48">
+    <row r="8" spans="1:20" ht="45.6">
       <c r="A8">
         <v>55000005</v>
       </c>
@@ -9276,7 +9281,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="48">
+    <row r="9" spans="1:20" ht="45.6">
       <c r="A9">
         <v>55000006</v>
       </c>
@@ -9322,7 +9327,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="48">
+    <row r="10" spans="1:20" ht="45.6">
       <c r="A10">
         <v>55000007</v>
       </c>
@@ -9368,7 +9373,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="48">
+    <row r="11" spans="1:20" ht="45.6">
       <c r="A11">
         <v>55000008</v>
       </c>
@@ -9414,7 +9419,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="48">
+    <row r="12" spans="1:20" ht="45.6">
       <c r="A12">
         <v>55000009</v>
       </c>
@@ -9460,7 +9465,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="48">
+    <row r="13" spans="1:20" ht="45.6">
       <c r="A13">
         <v>55000010</v>
       </c>
@@ -9506,7 +9511,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="48">
+    <row r="14" spans="1:20" ht="45.6">
       <c r="A14">
         <v>55000011</v>
       </c>
@@ -9552,7 +9557,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="48">
+    <row r="15" spans="1:20" ht="45.6">
       <c r="A15">
         <v>55000012</v>
       </c>
@@ -9598,7 +9603,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="48">
+    <row r="16" spans="1:20" ht="45.6">
       <c r="A16">
         <v>55000013</v>
       </c>
@@ -9644,7 +9649,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="48">
+    <row r="17" spans="1:20" ht="45.6">
       <c r="A17">
         <v>55000014</v>
       </c>
@@ -9690,7 +9695,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="48">
+    <row r="18" spans="1:20" ht="45.6">
       <c r="A18">
         <v>55000015</v>
       </c>
@@ -9736,7 +9741,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="48">
+    <row r="19" spans="1:20" ht="45.6">
       <c r="A19">
         <v>55000016</v>
       </c>
@@ -9782,7 +9787,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="48">
+    <row r="20" spans="1:20" ht="45.6">
       <c r="A20">
         <v>55000017</v>
       </c>
@@ -9828,7 +9833,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="48">
+    <row r="21" spans="1:20" ht="45.6">
       <c r="A21">
         <v>55000018</v>
       </c>
@@ -9874,7 +9879,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="48">
+    <row r="22" spans="1:20" ht="45.6">
       <c r="A22">
         <v>55000019</v>
       </c>
@@ -9920,7 +9925,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="48">
+    <row r="23" spans="1:20" ht="45.6">
       <c r="A23">
         <v>55000020</v>
       </c>
@@ -10008,7 +10013,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="36">
+    <row r="25" spans="1:20" ht="34.200000000000003">
       <c r="A25">
         <v>55000029</v>
       </c>
@@ -10052,7 +10057,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="48">
+    <row r="26" spans="1:20" ht="45.6">
       <c r="A26">
         <v>55000030</v>
       </c>
@@ -10098,7 +10103,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="36">
+    <row r="27" spans="1:20" ht="34.200000000000003">
       <c r="A27">
         <v>55000031</v>
       </c>
@@ -10144,7 +10149,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="36">
+    <row r="28" spans="1:20" ht="34.200000000000003">
       <c r="A28">
         <v>55000032</v>
       </c>
@@ -10234,7 +10239,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="60">
+    <row r="30" spans="1:20" ht="57">
       <c r="A30">
         <v>55000034</v>
       </c>
@@ -10278,7 +10283,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="36">
+    <row r="31" spans="1:20" ht="34.200000000000003">
       <c r="A31">
         <v>55000035</v>
       </c>
@@ -10322,7 +10327,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="48">
+    <row r="32" spans="1:20" ht="45.6">
       <c r="A32">
         <v>55000036</v>
       </c>
@@ -10368,7 +10373,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="48">
+    <row r="33" spans="1:20" ht="45.6">
       <c r="A33">
         <v>55000037</v>
       </c>
@@ -10412,7 +10417,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="48">
+    <row r="34" spans="1:20" ht="45.6">
       <c r="A34">
         <v>55000038</v>
       </c>
@@ -10456,7 +10461,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="48">
+    <row r="35" spans="1:20" ht="45.6">
       <c r="A35">
         <v>55000039</v>
       </c>
@@ -10500,7 +10505,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="48">
+    <row r="36" spans="1:20" ht="45.6">
       <c r="A36">
         <v>55000040</v>
       </c>
@@ -10544,7 +10549,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="48">
+    <row r="37" spans="1:20" ht="45.6">
       <c r="A37">
         <v>55000041</v>
       </c>
@@ -10592,7 +10597,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="48">
+    <row r="38" spans="1:20" ht="45.6">
       <c r="A38">
         <v>55000042</v>
       </c>
@@ -10638,7 +10643,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="24">
+    <row r="39" spans="1:20" ht="22.8">
       <c r="A39">
         <v>55000043</v>
       </c>
@@ -10682,7 +10687,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="36">
+    <row r="40" spans="1:20" ht="34.200000000000003">
       <c r="A40">
         <v>55000044</v>
       </c>
@@ -10726,7 +10731,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="36">
+    <row r="41" spans="1:20" ht="34.200000000000003">
       <c r="A41">
         <v>55000045</v>
       </c>
@@ -10770,7 +10775,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="48">
+    <row r="42" spans="1:20" ht="34.200000000000003">
       <c r="A42">
         <v>55000046</v>
       </c>
@@ -10814,7 +10819,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="48">
+    <row r="43" spans="1:20" ht="45.6">
       <c r="A43">
         <v>55000047</v>
       </c>
@@ -10860,7 +10865,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="36">
+    <row r="44" spans="1:20" ht="34.200000000000003">
       <c r="A44">
         <v>55000048</v>
       </c>
@@ -10906,7 +10911,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="48">
+    <row r="45" spans="1:20" ht="45.6">
       <c r="A45">
         <v>55000049</v>
       </c>
@@ -10950,7 +10955,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="48">
+    <row r="46" spans="1:20" ht="45.6">
       <c r="A46">
         <v>55000050</v>
       </c>
@@ -11040,7 +11045,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="48">
+    <row r="48" spans="1:20" ht="45.6">
       <c r="A48">
         <v>55000061</v>
       </c>
@@ -11086,7 +11091,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="36">
+    <row r="49" spans="1:20" ht="34.200000000000003">
       <c r="A49">
         <v>55000062</v>
       </c>
@@ -11130,7 +11135,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="48">
+    <row r="50" spans="1:20" ht="45.6">
       <c r="A50">
         <v>55000063</v>
       </c>
@@ -11176,7 +11181,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="84">
+    <row r="51" spans="1:20" ht="79.8">
       <c r="A51">
         <v>55000064</v>
       </c>
@@ -11224,7 +11229,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="48">
+    <row r="52" spans="1:20" ht="45.6">
       <c r="A52">
         <v>55000065</v>
       </c>
@@ -11270,7 +11275,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="48">
+    <row r="53" spans="1:20" ht="45.6">
       <c r="A53">
         <v>55000066</v>
       </c>
@@ -11316,7 +11321,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="48">
+    <row r="54" spans="1:20" ht="45.6">
       <c r="A54">
         <v>55000067</v>
       </c>
@@ -11362,7 +11367,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="48">
+    <row r="55" spans="1:20" ht="45.6">
       <c r="A55">
         <v>55000068</v>
       </c>
@@ -11408,7 +11413,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="48">
+    <row r="56" spans="1:20" ht="45.6">
       <c r="A56">
         <v>55000069</v>
       </c>
@@ -11454,7 +11459,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="48">
+    <row r="57" spans="1:20" ht="45.6">
       <c r="A57">
         <v>55000070</v>
       </c>
@@ -11500,7 +11505,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="48">
+    <row r="58" spans="1:20" ht="45.6">
       <c r="A58">
         <v>55000071</v>
       </c>
@@ -11546,7 +11551,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="48">
+    <row r="59" spans="1:20" ht="45.6">
       <c r="A59">
         <v>55000072</v>
       </c>
@@ -11592,7 +11597,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="48">
+    <row r="60" spans="1:20" ht="45.6">
       <c r="A60">
         <v>55000073</v>
       </c>
@@ -11638,7 +11643,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="24">
+    <row r="61" spans="1:20" ht="22.8">
       <c r="A61">
         <v>55000074</v>
       </c>
@@ -11682,7 +11687,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="144">
+    <row r="62" spans="1:20" ht="136.80000000000001">
       <c r="A62">
         <v>55000075</v>
       </c>
@@ -11730,7 +11735,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="36">
+    <row r="63" spans="1:20" ht="34.200000000000003">
       <c r="A63">
         <v>55000076</v>
       </c>
@@ -11774,7 +11779,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="48">
+    <row r="64" spans="1:20" ht="45.6">
       <c r="A64">
         <v>55000077</v>
       </c>
@@ -11820,7 +11825,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="24">
+    <row r="65" spans="1:20" ht="22.8">
       <c r="A65">
         <v>55000078</v>
       </c>
@@ -11864,7 +11869,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="24">
+    <row r="66" spans="1:20" ht="22.8">
       <c r="A66">
         <v>55000079</v>
       </c>
@@ -11910,7 +11915,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="24">
+    <row r="67" spans="1:20" ht="22.8">
       <c r="A67">
         <v>55000080</v>
       </c>
@@ -11956,7 +11961,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="24">
+    <row r="68" spans="1:20" ht="22.8">
       <c r="A68">
         <v>55000081</v>
       </c>
@@ -12000,7 +12005,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="36">
+    <row r="69" spans="1:20" ht="34.200000000000003">
       <c r="A69">
         <v>55000082</v>
       </c>
@@ -12046,7 +12051,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="72">
+    <row r="70" spans="1:20" ht="57">
       <c r="A70">
         <v>55000083</v>
       </c>
@@ -12094,7 +12099,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="24">
+    <row r="71" spans="1:20" ht="22.8">
       <c r="A71">
         <v>55000084</v>
       </c>
@@ -12142,7 +12147,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="48">
+    <row r="72" spans="1:20" ht="45.6">
       <c r="A72">
         <v>55000085</v>
       </c>
@@ -12188,7 +12193,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="48">
+    <row r="73" spans="1:20" ht="45.6">
       <c r="A73">
         <v>55000086</v>
       </c>
@@ -12234,7 +12239,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="36">
+    <row r="74" spans="1:20" ht="34.200000000000003">
       <c r="A74">
         <v>55000087</v>
       </c>
@@ -12278,7 +12283,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="36">
+    <row r="75" spans="1:20" ht="34.200000000000003">
       <c r="A75">
         <v>55000088</v>
       </c>
@@ -12322,7 +12327,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="24">
+    <row r="76" spans="1:20" ht="22.8">
       <c r="A76">
         <v>55000089</v>
       </c>
@@ -12366,7 +12371,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="48">
+    <row r="77" spans="1:20" ht="45.6">
       <c r="A77">
         <v>55000090</v>
       </c>
@@ -12410,7 +12415,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="24">
+    <row r="78" spans="1:20" ht="22.8">
       <c r="A78">
         <v>55000091</v>
       </c>
@@ -12454,7 +12459,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="48">
+    <row r="79" spans="1:20" ht="45.6">
       <c r="A79">
         <v>55000092</v>
       </c>
@@ -12502,7 +12507,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="36">
+    <row r="80" spans="1:20" ht="34.200000000000003">
       <c r="A80">
         <v>55000093</v>
       </c>
@@ -12546,7 +12551,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="36">
+    <row r="81" spans="1:20" ht="34.200000000000003">
       <c r="A81">
         <v>55000094</v>
       </c>
@@ -12590,7 +12595,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="36">
+    <row r="82" spans="1:20" ht="34.200000000000003">
       <c r="A82">
         <v>55000095</v>
       </c>
@@ -12634,7 +12639,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="108">
+    <row r="83" spans="1:20" ht="102.6">
       <c r="A83">
         <v>55000096</v>
       </c>
@@ -12678,7 +12683,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="60">
+    <row r="84" spans="1:20" ht="57">
       <c r="A84">
         <v>55000097</v>
       </c>
@@ -12724,7 +12729,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="108">
+    <row r="85" spans="1:20" ht="102.6">
       <c r="A85">
         <v>55000098</v>
       </c>
@@ -12775,7 +12780,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="36">
+    <row r="86" spans="1:20" ht="34.200000000000003">
       <c r="A86">
         <v>55000099</v>
       </c>
@@ -12819,7 +12824,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="36">
+    <row r="87" spans="1:20" ht="34.200000000000003">
       <c r="A87">
         <v>55000100</v>
       </c>
@@ -12867,7 +12872,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="24">
+    <row r="88" spans="1:20" ht="22.8">
       <c r="A88">
         <v>55000101</v>
       </c>
@@ -12911,7 +12916,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="24">
+    <row r="89" spans="1:20" ht="22.8">
       <c r="A89">
         <v>55000102</v>
       </c>
@@ -12997,7 +13002,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="48">
+    <row r="91" spans="1:20" ht="45.6">
       <c r="A91">
         <v>55000104</v>
       </c>
@@ -13043,7 +13048,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="108">
+    <row r="92" spans="1:20" ht="102.6">
       <c r="A92">
         <v>55000105</v>
       </c>
@@ -13094,7 +13099,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="72">
+    <row r="93" spans="1:20" ht="68.400000000000006">
       <c r="A93">
         <v>55000106</v>
       </c>
@@ -13140,7 +13145,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="48">
+    <row r="94" spans="1:20" ht="45.6">
       <c r="A94">
         <v>55000107</v>
       </c>
@@ -13186,7 +13191,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="60">
+    <row r="95" spans="1:20" ht="57">
       <c r="A95">
         <v>55000108</v>
       </c>
@@ -13232,7 +13237,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="36">
+    <row r="96" spans="1:20" ht="34.200000000000003">
       <c r="A96">
         <v>55000109</v>
       </c>
@@ -13276,7 +13281,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="36">
+    <row r="97" spans="1:20" ht="34.200000000000003">
       <c r="A97">
         <v>55000110</v>
       </c>
@@ -13320,7 +13325,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="36">
+    <row r="98" spans="1:20" ht="34.200000000000003">
       <c r="A98">
         <v>55000111</v>
       </c>
@@ -13368,7 +13373,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="24">
+    <row r="99" spans="1:20" ht="22.8">
       <c r="A99">
         <v>55000112</v>
       </c>
@@ -13414,7 +13419,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="48">
+    <row r="100" spans="1:20" ht="45.6">
       <c r="A100">
         <v>55000113</v>
       </c>
@@ -13460,7 +13465,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="36">
+    <row r="101" spans="1:20" ht="34.200000000000003">
       <c r="A101">
         <v>55000114</v>
       </c>
@@ -13504,7 +13509,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="48">
+    <row r="102" spans="1:20" ht="45.6">
       <c r="A102">
         <v>55000115</v>
       </c>
@@ -13552,7 +13557,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="24">
+    <row r="103" spans="1:20" ht="22.8">
       <c r="A103">
         <v>55000116</v>
       </c>
@@ -13596,7 +13601,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="72">
+    <row r="104" spans="1:20" ht="68.400000000000006">
       <c r="A104">
         <v>55000117</v>
       </c>
@@ -13642,7 +13647,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="48">
+    <row r="105" spans="1:20" ht="45.6">
       <c r="A105">
         <v>55000118</v>
       </c>
@@ -13688,7 +13693,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="48">
+    <row r="106" spans="1:20" ht="45.6">
       <c r="A106">
         <v>55000119</v>
       </c>
@@ -13734,7 +13739,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="36">
+    <row r="107" spans="1:20" ht="34.200000000000003">
       <c r="A107">
         <v>55000120</v>
       </c>
@@ -13778,7 +13783,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="36">
+    <row r="108" spans="1:20" ht="34.200000000000003">
       <c r="A108">
         <v>55000121</v>
       </c>
@@ -13826,7 +13831,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="48">
+    <row r="109" spans="1:20" ht="45.6">
       <c r="A109">
         <v>55000122</v>
       </c>
@@ -13872,7 +13877,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="48">
+    <row r="110" spans="1:20" ht="45.6">
       <c r="A110">
         <v>55000123</v>
       </c>
@@ -13918,7 +13923,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="48">
+    <row r="111" spans="1:20" ht="45.6">
       <c r="A111">
         <v>55000124</v>
       </c>
@@ -13964,7 +13969,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="36">
+    <row r="112" spans="1:20" ht="34.200000000000003">
       <c r="A112">
         <v>55000125</v>
       </c>
@@ -14008,7 +14013,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="60">
+    <row r="113" spans="1:20" ht="57">
       <c r="A113">
         <v>55000126</v>
       </c>
@@ -14136,7 +14141,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="24">
+    <row r="116" spans="1:20" ht="22.8">
       <c r="A116">
         <v>55000129</v>
       </c>
@@ -14180,7 +14185,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="24">
+    <row r="117" spans="1:20" ht="22.8">
       <c r="A117">
         <v>55000130</v>
       </c>
@@ -14224,7 +14229,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="36">
+    <row r="118" spans="1:20" ht="34.200000000000003">
       <c r="A118">
         <v>55000131</v>
       </c>
@@ -14268,7 +14273,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="36">
+    <row r="119" spans="1:20" ht="34.200000000000003">
       <c r="A119">
         <v>55000132</v>
       </c>
@@ -14312,7 +14317,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="144">
+    <row r="120" spans="1:20" ht="136.80000000000001">
       <c r="A120">
         <v>55000133</v>
       </c>
@@ -14356,7 +14361,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="60">
+    <row r="121" spans="1:20" ht="57">
       <c r="A121">
         <v>55000134</v>
       </c>
@@ -14402,7 +14407,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="48">
+    <row r="122" spans="1:20" ht="45.6">
       <c r="A122">
         <v>55000135</v>
       </c>
@@ -14446,7 +14451,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="36">
+    <row r="123" spans="1:20" ht="34.200000000000003">
       <c r="A123">
         <v>55000136</v>
       </c>
@@ -14490,7 +14495,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="48">
+    <row r="124" spans="1:20" ht="45.6">
       <c r="A124">
         <v>55000137</v>
       </c>
@@ -14536,7 +14541,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="36">
+    <row r="125" spans="1:20" ht="34.200000000000003">
       <c r="A125">
         <v>55000138</v>
       </c>
@@ -14580,7 +14585,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="48">
+    <row r="126" spans="1:20" ht="45.6">
       <c r="A126">
         <v>55000139</v>
       </c>
@@ -14626,7 +14631,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="60">
+    <row r="127" spans="1:20" ht="57">
       <c r="A127">
         <v>55000140</v>
       </c>
@@ -14672,7 +14677,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="48">
+    <row r="128" spans="1:20" ht="45.6">
       <c r="A128">
         <v>55000141</v>
       </c>
@@ -14718,7 +14723,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="36">
+    <row r="129" spans="1:20" ht="34.200000000000003">
       <c r="A129">
         <v>55000142</v>
       </c>
@@ -14762,7 +14767,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="24">
+    <row r="130" spans="1:20" ht="22.8">
       <c r="A130">
         <v>55000143</v>
       </c>
@@ -14811,7 +14816,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="48">
+    <row r="131" spans="1:20" ht="45.6">
       <c r="A131">
         <v>55000144</v>
       </c>
@@ -14857,7 +14862,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="36">
+    <row r="132" spans="1:20" ht="34.200000000000003">
       <c r="A132">
         <v>55000145</v>
       </c>
@@ -14901,7 +14906,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="48">
+    <row r="133" spans="1:20" ht="45.6">
       <c r="A133">
         <v>55000146</v>
       </c>
@@ -14947,7 +14952,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="36">
+    <row r="134" spans="1:20" ht="34.200000000000003">
       <c r="A134">
         <v>55000147</v>
       </c>
@@ -14991,7 +14996,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="48">
+    <row r="135" spans="1:20" ht="45.6">
       <c r="A135">
         <v>55000148</v>
       </c>
@@ -15037,7 +15042,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="36">
+    <row r="136" spans="1:20" ht="34.200000000000003">
       <c r="A136">
         <v>55000149</v>
       </c>
@@ -15081,7 +15086,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="36">
+    <row r="137" spans="1:20" ht="34.200000000000003">
       <c r="A137">
         <v>55000150</v>
       </c>
@@ -15125,7 +15130,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="36">
+    <row r="138" spans="1:20" ht="34.200000000000003">
       <c r="A138">
         <v>55000151</v>
       </c>
@@ -15171,7 +15176,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="24">
+    <row r="139" spans="1:20" ht="22.8">
       <c r="A139">
         <v>55000152</v>
       </c>
@@ -15219,7 +15224,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="48">
+    <row r="140" spans="1:20" ht="45.6">
       <c r="A140">
         <v>55000153</v>
       </c>
@@ -15265,7 +15270,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="24">
+    <row r="141" spans="1:20" ht="22.8">
       <c r="A141">
         <v>55000154</v>
       </c>
@@ -15309,7 +15314,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="24">
+    <row r="142" spans="1:20" ht="22.8">
       <c r="A142">
         <v>55000155</v>
       </c>
@@ -15353,7 +15358,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="24">
+    <row r="143" spans="1:20" ht="22.8">
       <c r="A143">
         <v>55000156</v>
       </c>
@@ -15397,7 +15402,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="36">
+    <row r="144" spans="1:20" ht="34.200000000000003">
       <c r="A144">
         <v>55000157</v>
       </c>
@@ -15441,7 +15446,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="24">
+    <row r="145" spans="1:20" ht="22.8">
       <c r="A145">
         <v>55000158</v>
       </c>
@@ -15487,7 +15492,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="48">
+    <row r="146" spans="1:20" ht="45.6">
       <c r="A146">
         <v>55000159</v>
       </c>
@@ -15533,7 +15538,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="36">
+    <row r="147" spans="1:20" ht="34.200000000000003">
       <c r="A147">
         <v>55000160</v>
       </c>
@@ -15577,7 +15582,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="60">
+    <row r="148" spans="1:20" ht="57">
       <c r="A148">
         <v>55000161</v>
       </c>
@@ -15623,7 +15628,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="48">
+    <row r="149" spans="1:20" ht="45.6">
       <c r="A149">
         <v>55000162</v>
       </c>
@@ -15669,7 +15674,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="48">
+    <row r="150" spans="1:20" ht="45.6">
       <c r="A150">
         <v>55000163</v>
       </c>
@@ -15719,7 +15724,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="48">
+    <row r="151" spans="1:20" ht="45.6">
       <c r="A151">
         <v>55000164</v>
       </c>
@@ -15763,7 +15768,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="36">
+    <row r="152" spans="1:20" ht="34.200000000000003">
       <c r="A152">
         <v>55000165</v>
       </c>
@@ -15809,7 +15814,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="48">
+    <row r="153" spans="1:20" ht="45.6">
       <c r="A153">
         <v>55000166</v>
       </c>
@@ -15853,7 +15858,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="36">
+    <row r="154" spans="1:20" ht="34.200000000000003">
       <c r="A154">
         <v>55000167</v>
       </c>
@@ -15899,7 +15904,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="84">
+    <row r="155" spans="1:20" ht="79.8">
       <c r="A155">
         <v>55000168</v>
       </c>
@@ -15946,7 +15951,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="72">
+    <row r="156" spans="1:20" ht="68.400000000000006">
       <c r="A156">
         <v>55000169</v>
       </c>
@@ -15994,7 +15999,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="48">
+    <row r="157" spans="1:20" ht="45.6">
       <c r="A157">
         <v>55000170</v>
       </c>
@@ -16082,7 +16087,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="48">
+    <row r="159" spans="1:20" ht="45.6">
       <c r="A159">
         <v>55000172</v>
       </c>
@@ -16128,7 +16133,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="48">
+    <row r="160" spans="1:20" ht="45.6">
       <c r="A160">
         <v>55000173</v>
       </c>
@@ -16174,7 +16179,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="48">
+    <row r="161" spans="1:20" ht="45.6">
       <c r="A161">
         <v>55000174</v>
       </c>
@@ -16222,7 +16227,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="48">
+    <row r="162" spans="1:20" ht="45.6">
       <c r="A162">
         <v>55000175</v>
       </c>
@@ -16268,7 +16273,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="36">
+    <row r="163" spans="1:20" ht="34.200000000000003">
       <c r="A163">
         <v>55000176</v>
       </c>
@@ -16316,7 +16321,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="24">
+    <row r="164" spans="1:20" ht="22.8">
       <c r="A164">
         <v>55000177</v>
       </c>
@@ -16362,7 +16367,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="132">
+    <row r="165" spans="1:20" ht="125.4">
       <c r="A165">
         <v>55000178</v>
       </c>
@@ -16408,7 +16413,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="108">
+    <row r="166" spans="1:20" ht="102.6">
       <c r="A166">
         <v>55000179</v>
       </c>
@@ -16454,7 +16459,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="48">
+    <row r="167" spans="1:20" ht="45.6">
       <c r="A167">
         <v>55000180</v>
       </c>
@@ -16502,7 +16507,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="36">
+    <row r="168" spans="1:20" ht="34.200000000000003">
       <c r="A168">
         <v>55000181</v>
       </c>
@@ -16546,7 +16551,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="36">
+    <row r="169" spans="1:20" ht="34.200000000000003">
       <c r="A169">
         <v>55000182</v>
       </c>
@@ -16594,7 +16599,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="108">
+    <row r="170" spans="1:20" ht="79.8">
       <c r="A170">
         <v>55000183</v>
       </c>
@@ -16638,7 +16643,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="24">
+    <row r="171" spans="1:20" ht="22.8">
       <c r="A171">
         <v>55000184</v>
       </c>
@@ -16682,7 +16687,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="36">
+    <row r="172" spans="1:20" ht="34.200000000000003">
       <c r="A172">
         <v>55000185</v>
       </c>
@@ -16726,7 +16731,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="48">
+    <row r="173" spans="1:20" ht="45.6">
       <c r="A173">
         <v>55000186</v>
       </c>
@@ -16772,7 +16777,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="60">
+    <row r="174" spans="1:20" ht="57">
       <c r="A174">
         <v>55000187</v>
       </c>
@@ -16816,7 +16821,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="24">
+    <row r="175" spans="1:20" ht="22.8">
       <c r="A175">
         <v>55000188</v>
       </c>
@@ -16860,7 +16865,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="48">
+    <row r="176" spans="1:20" ht="45.6">
       <c r="A176">
         <v>55000189</v>
       </c>
@@ -16908,7 +16913,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="48">
+    <row r="177" spans="1:20" ht="45.6">
       <c r="A177">
         <v>55000190</v>
       </c>
@@ -16954,7 +16959,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="60">
+    <row r="178" spans="1:20" ht="57">
       <c r="A178">
         <v>55000191</v>
       </c>
@@ -17002,7 +17007,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="72">
+    <row r="179" spans="1:20" ht="68.400000000000006">
       <c r="A179">
         <v>55000192</v>
       </c>
@@ -17048,7 +17053,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="36">
+    <row r="180" spans="1:20" ht="34.200000000000003">
       <c r="A180">
         <v>55000193</v>
       </c>
@@ -17094,7 +17099,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="48">
+    <row r="181" spans="1:20" ht="45.6">
       <c r="A181">
         <v>55000194</v>
       </c>
@@ -17140,7 +17145,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="72">
+    <row r="182" spans="1:20" ht="68.400000000000006">
       <c r="A182">
         <v>55000195</v>
       </c>
@@ -17184,7 +17189,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="72">
+    <row r="183" spans="1:20" ht="68.400000000000006">
       <c r="A183">
         <v>55000196</v>
       </c>
@@ -17228,7 +17233,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="36">
+    <row r="184" spans="1:20" ht="34.200000000000003">
       <c r="A184">
         <v>55000197</v>
       </c>
@@ -17272,7 +17277,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="36">
+    <row r="185" spans="1:20" ht="34.200000000000003">
       <c r="A185">
         <v>55000198</v>
       </c>
@@ -17360,7 +17365,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="48">
+    <row r="187" spans="1:20" ht="45.6">
       <c r="A187">
         <v>55000200</v>
       </c>
@@ -17404,7 +17409,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="36">
+    <row r="188" spans="1:20" ht="34.200000000000003">
       <c r="A188">
         <v>55000201</v>
       </c>
@@ -17450,7 +17455,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="48">
+    <row r="189" spans="1:20" ht="45.6">
       <c r="A189">
         <v>55000202</v>
       </c>
@@ -17496,7 +17501,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="36">
+    <row r="190" spans="1:20" ht="34.200000000000003">
       <c r="A190">
         <v>55000203</v>
       </c>
@@ -17540,7 +17545,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="48">
+    <row r="191" spans="1:20" ht="45.6">
       <c r="A191">
         <v>55000204</v>
       </c>
@@ -17586,7 +17591,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="24">
+    <row r="192" spans="1:20" ht="22.8">
       <c r="A192">
         <v>55000205</v>
       </c>
@@ -17630,7 +17635,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="132">
+    <row r="193" spans="1:20" ht="125.4">
       <c r="A193">
         <v>55000206</v>
       </c>
@@ -17676,7 +17681,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="24">
+    <row r="194" spans="1:20" ht="22.8">
       <c r="A194">
         <v>55000207</v>
       </c>
@@ -17764,7 +17769,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="48">
+    <row r="196" spans="1:20" ht="45.6">
       <c r="A196">
         <v>55000209</v>
       </c>
@@ -17810,7 +17815,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="60">
+    <row r="197" spans="1:20" ht="57">
       <c r="A197">
         <v>55000210</v>
       </c>
@@ -17858,7 +17863,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="48">
+    <row r="198" spans="1:20" ht="45.6">
       <c r="A198">
         <v>55000211</v>
       </c>
@@ -17904,7 +17909,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="24">
+    <row r="199" spans="1:20" ht="22.8">
       <c r="A199">
         <v>55000212</v>
       </c>
@@ -17950,7 +17955,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="48">
+    <row r="200" spans="1:20" ht="45.6">
       <c r="A200">
         <v>55000213</v>
       </c>
@@ -17996,7 +18001,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="36">
+    <row r="201" spans="1:20" ht="34.200000000000003">
       <c r="A201">
         <v>55000214</v>
       </c>
@@ -18040,7 +18045,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="108">
+    <row r="202" spans="1:20" ht="102.6">
       <c r="A202">
         <v>55000215</v>
       </c>
@@ -18091,7 +18096,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="48">
+    <row r="203" spans="1:20" ht="45.6">
       <c r="A203">
         <v>55000216</v>
       </c>
@@ -18137,7 +18142,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="24">
+    <row r="204" spans="1:20" ht="22.8">
       <c r="A204">
         <v>55000217</v>
       </c>
@@ -18271,7 +18276,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="48">
+    <row r="207" spans="1:20" ht="45.6">
       <c r="A207">
         <v>55000220</v>
       </c>
@@ -18317,7 +18322,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="24">
+    <row r="208" spans="1:20" ht="22.8">
       <c r="A208">
         <v>55000221</v>
       </c>
@@ -18361,7 +18366,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="48">
+    <row r="209" spans="1:20" ht="45.6">
       <c r="A209">
         <v>55000222</v>
       </c>
@@ -18407,7 +18412,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="48">
+    <row r="210" spans="1:20" ht="45.6">
       <c r="A210">
         <v>55000223</v>
       </c>
@@ -18453,7 +18458,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="48">
+    <row r="211" spans="1:20" ht="45.6">
       <c r="A211">
         <v>55000224</v>
       </c>
@@ -18499,7 +18504,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="60">
+    <row r="212" spans="1:20" ht="57">
       <c r="A212">
         <v>55000225</v>
       </c>
@@ -18545,7 +18550,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="132">
+    <row r="213" spans="1:20" ht="125.4">
       <c r="A213">
         <v>55000226</v>
       </c>
@@ -18591,7 +18596,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="36">
+    <row r="214" spans="1:20" ht="34.200000000000003">
       <c r="A214">
         <v>55000227</v>
       </c>
@@ -18637,7 +18642,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="24">
+    <row r="215" spans="1:20" ht="22.8">
       <c r="A215">
         <v>55000228</v>
       </c>
@@ -18681,7 +18686,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="36">
+    <row r="216" spans="1:20" ht="34.200000000000003">
       <c r="A216">
         <v>55000229</v>
       </c>
@@ -18727,7 +18732,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="36">
+    <row r="217" spans="1:20" ht="34.200000000000003">
       <c r="A217">
         <v>55000230</v>
       </c>
@@ -18771,7 +18776,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="24">
+    <row r="218" spans="1:20" ht="22.8">
       <c r="A218">
         <v>55000231</v>
       </c>
@@ -18815,7 +18820,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="60">
+    <row r="219" spans="1:20" ht="57">
       <c r="A219">
         <v>55000232</v>
       </c>
@@ -18859,7 +18864,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="48">
+    <row r="220" spans="1:20" ht="45.6">
       <c r="A220">
         <v>55000233</v>
       </c>
@@ -18903,7 +18908,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="48">
+    <row r="221" spans="1:20" ht="45.6">
       <c r="A221">
         <v>55000234</v>
       </c>
@@ -18949,7 +18954,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="84">
+    <row r="222" spans="1:20" ht="79.8">
       <c r="A222">
         <v>55000235</v>
       </c>
@@ -18993,7 +18998,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="36">
+    <row r="223" spans="1:20" ht="34.200000000000003">
       <c r="A223">
         <v>55000236</v>
       </c>
@@ -19079,7 +19084,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="24">
+    <row r="225" spans="1:20" ht="22.8">
       <c r="A225">
         <v>55000238</v>
       </c>
@@ -19123,7 +19128,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="36">
+    <row r="226" spans="1:20" ht="34.200000000000003">
       <c r="A226">
         <v>55000239</v>
       </c>
@@ -19167,7 +19172,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="96">
+    <row r="227" spans="1:20" ht="91.2">
       <c r="A227">
         <v>55000240</v>
       </c>
@@ -19218,7 +19223,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="24">
+    <row r="228" spans="1:20" ht="22.8">
       <c r="A228">
         <v>55000241</v>
       </c>
@@ -19265,7 +19270,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="36">
+    <row r="229" spans="1:20" ht="34.200000000000003">
       <c r="A229">
         <v>55000242</v>
       </c>
@@ -19311,7 +19316,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="36">
+    <row r="230" spans="1:20" ht="34.200000000000003">
       <c r="A230">
         <v>55000243</v>
       </c>
@@ -19355,7 +19360,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="108">
+    <row r="231" spans="1:20" ht="102.6">
       <c r="A231">
         <v>55000244</v>
       </c>
@@ -19405,7 +19410,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="36">
+    <row r="232" spans="1:20" ht="34.200000000000003">
       <c r="A232">
         <v>55000245</v>
       </c>
@@ -19449,7 +19454,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="36">
+    <row r="233" spans="1:20" ht="34.200000000000003">
       <c r="A233">
         <v>55000246</v>
       </c>
@@ -19495,7 +19500,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="72">
+    <row r="234" spans="1:20" ht="68.400000000000006">
       <c r="A234">
         <v>55000247</v>
       </c>
@@ -19541,7 +19546,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="48">
+    <row r="235" spans="1:20" ht="45.6">
       <c r="A235">
         <v>55000248</v>
       </c>
@@ -19589,7 +19594,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="36">
+    <row r="236" spans="1:20" ht="34.200000000000003">
       <c r="A236">
         <v>55000249</v>
       </c>
@@ -19635,7 +19640,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="48">
+    <row r="237" spans="1:20" ht="45.6">
       <c r="A237">
         <v>55000250</v>
       </c>
@@ -19723,7 +19728,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="24">
+    <row r="239" spans="1:20" ht="22.8">
       <c r="A239">
         <v>55000252</v>
       </c>
@@ -19769,7 +19774,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="36">
+    <row r="240" spans="1:20" ht="34.200000000000003">
       <c r="A240">
         <v>55000253</v>
       </c>
@@ -19815,7 +19820,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="36">
+    <row r="241" spans="1:20" ht="34.200000000000003">
       <c r="A241">
         <v>55000254</v>
       </c>
@@ -19945,7 +19950,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="48">
+    <row r="244" spans="1:20" ht="45.6">
       <c r="A244">
         <v>55000257</v>
       </c>
@@ -19993,7 +19998,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="36">
+    <row r="245" spans="1:20" ht="34.200000000000003">
       <c r="A245">
         <v>55000258</v>
       </c>
@@ -20037,7 +20042,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="48">
+    <row r="246" spans="1:20" ht="45.6">
       <c r="A246">
         <v>55000259</v>
       </c>
@@ -20085,7 +20090,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="96">
+    <row r="247" spans="1:20" ht="91.2">
       <c r="A247">
         <v>55000260</v>
       </c>
@@ -20131,7 +20136,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="96">
+    <row r="248" spans="1:20" ht="91.2">
       <c r="A248">
         <v>55000261</v>
       </c>
@@ -20175,7 +20180,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="36">
+    <row r="249" spans="1:20" ht="34.200000000000003">
       <c r="A249">
         <v>55000262</v>
       </c>
@@ -20219,7 +20224,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="24">
+    <row r="250" spans="1:20" ht="22.8">
       <c r="A250">
         <v>55000263</v>
       </c>
@@ -20267,7 +20272,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="48">
+    <row r="251" spans="1:20" ht="45.6">
       <c r="A251">
         <v>55000264</v>
       </c>
@@ -20313,7 +20318,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="48">
+    <row r="252" spans="1:20" ht="45.6">
       <c r="A252">
         <v>55000265</v>
       </c>
@@ -20357,7 +20362,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="48">
+    <row r="253" spans="1:20" ht="45.6">
       <c r="A253">
         <v>55000266</v>
       </c>
@@ -20401,7 +20406,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="24">
+    <row r="254" spans="1:20" ht="22.8">
       <c r="A254">
         <v>55000267</v>
       </c>
@@ -20447,7 +20452,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="24">
+    <row r="255" spans="1:20" ht="22.8">
       <c r="A255">
         <v>55000268</v>
       </c>
@@ -20491,7 +20496,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="48">
+    <row r="256" spans="1:20" ht="45.6">
       <c r="A256">
         <v>55000269</v>
       </c>
@@ -20535,7 +20540,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="48">
+    <row r="257" spans="1:20" ht="45.6">
       <c r="A257">
         <v>55000270</v>
       </c>
@@ -20581,7 +20586,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="36">
+    <row r="258" spans="1:20" ht="34.200000000000003">
       <c r="A258">
         <v>55000271</v>
       </c>
@@ -20627,7 +20632,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="36">
+    <row r="259" spans="1:20" ht="34.200000000000003">
       <c r="A259">
         <v>55000272</v>
       </c>
@@ -20671,7 +20676,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="48">
+    <row r="260" spans="1:20" ht="45.6">
       <c r="A260">
         <v>55000273</v>
       </c>
@@ -20715,7 +20720,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="96">
+    <row r="261" spans="1:20" ht="91.2">
       <c r="A261">
         <v>55000274</v>
       </c>
@@ -20759,7 +20764,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="48">
+    <row r="262" spans="1:20" ht="45.6">
       <c r="A262">
         <v>55000275</v>
       </c>
@@ -20805,7 +20810,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="48">
+    <row r="263" spans="1:20" ht="45.6">
       <c r="A263">
         <v>55000276</v>
       </c>
@@ -20851,7 +20856,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="24">
+    <row r="264" spans="1:20" ht="22.8">
       <c r="A264">
         <v>55000277</v>
       </c>
@@ -20895,7 +20900,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="24">
+    <row r="265" spans="1:20" ht="22.8">
       <c r="A265">
         <v>55000278</v>
       </c>
@@ -20939,7 +20944,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="24">
+    <row r="266" spans="1:20" ht="22.8">
       <c r="A266">
         <v>55000279</v>
       </c>
@@ -20983,7 +20988,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="48">
+    <row r="267" spans="1:20" ht="45.6">
       <c r="A267">
         <v>55000280</v>
       </c>
@@ -21027,7 +21032,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="24">
+    <row r="268" spans="1:20" ht="22.8">
       <c r="A268">
         <v>55000281</v>
       </c>
@@ -21071,7 +21076,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="180">
+    <row r="269" spans="1:20" ht="171">
       <c r="A269">
         <v>55000282</v>
       </c>
@@ -21117,7 +21122,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="48">
+    <row r="270" spans="1:20" ht="45.6">
       <c r="A270">
         <v>55000284</v>
       </c>
@@ -21165,7 +21170,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="48">
+    <row r="271" spans="1:20" ht="45.6">
       <c r="A271">
         <v>55000285</v>
       </c>
@@ -21253,7 +21258,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="36">
+    <row r="273" spans="1:20" ht="34.200000000000003">
       <c r="A273">
         <v>55000287</v>
       </c>
@@ -21299,7 +21304,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="24">
+    <row r="274" spans="1:20" ht="22.8">
       <c r="A274">
         <v>55000288</v>
       </c>
@@ -21345,7 +21350,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="144">
+    <row r="275" spans="1:20" ht="136.80000000000001">
       <c r="A275">
         <v>55000289</v>
       </c>
@@ -21389,7 +21394,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="96">
+    <row r="276" spans="1:20" ht="91.2">
       <c r="A276">
         <v>55000290</v>
       </c>
@@ -21433,7 +21438,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="84">
+    <row r="277" spans="1:20" ht="79.8">
       <c r="A277">
         <v>55000291</v>
       </c>
@@ -21477,7 +21482,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="48">
+    <row r="278" spans="1:20" ht="45.6">
       <c r="A278">
         <v>55000292</v>
       </c>
@@ -21525,7 +21530,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="60">
+    <row r="279" spans="1:20" ht="57">
       <c r="A279">
         <v>55000293</v>
       </c>
@@ -21569,7 +21574,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="108">
+    <row r="280" spans="1:20" ht="102.6">
       <c r="A280">
         <v>55000294</v>
       </c>
@@ -21662,7 +21667,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="24">
+    <row r="282" spans="1:20" ht="22.8">
       <c r="A282">
         <v>55000296</v>
       </c>
@@ -21706,7 +21711,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="120">
+    <row r="283" spans="1:20" ht="114">
       <c r="A283">
         <v>55000297</v>
       </c>
@@ -21752,7 +21757,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="108">
+    <row r="284" spans="1:20" ht="102.6">
       <c r="A284">
         <v>55000298</v>
       </c>
@@ -21798,7 +21803,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="36">
+    <row r="285" spans="1:20" ht="34.200000000000003">
       <c r="A285">
         <v>55000299</v>
       </c>
@@ -21846,7 +21851,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="24">
+    <row r="286" spans="1:20" ht="22.8">
       <c r="A286">
         <v>55000300</v>
       </c>
@@ -21863,7 +21868,7 @@
       <c r="H286" s="17"/>
       <c r="I286" s="17"/>
       <c r="J286" s="21" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="K286" s="60">
         <v>2</v>
@@ -21887,14 +21892,14 @@
       <c r="R286" s="1">
         <v>2500</v>
       </c>
-      <c r="S286" s="45" t="s">
-        <v>953</v>
+      <c r="S286" s="31" t="s">
+        <v>1450</v>
       </c>
       <c r="T286" s="53" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="108">
+    <row r="287" spans="1:20" ht="102.6">
       <c r="A287">
         <v>55000324</v>
       </c>
@@ -21945,7 +21950,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="108">
+    <row r="288" spans="1:20" ht="102.6">
       <c r="A288">
         <v>55000325</v>
       </c>
@@ -21995,7 +22000,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="96">
+    <row r="289" spans="1:20" ht="91.2">
       <c r="A289">
         <v>55000326</v>
       </c>
@@ -22045,7 +22050,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="108">
+    <row r="290" spans="1:20" ht="102.6">
       <c r="A290">
         <v>55000327</v>
       </c>
@@ -22095,7 +22100,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="108">
+    <row r="291" spans="1:20" ht="102.6">
       <c r="A291">
         <v>55000328</v>
       </c>
@@ -22146,7 +22151,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="108">
+    <row r="292" spans="1:20" ht="102.6">
       <c r="A292">
         <v>55000329</v>
       </c>
@@ -22197,7 +22202,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="108">
+    <row r="293" spans="1:20" ht="102.6">
       <c r="A293">
         <v>55000330</v>
       </c>
@@ -22248,7 +22253,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="108">
+    <row r="294" spans="1:20" ht="102.6">
       <c r="A294">
         <v>55000331</v>
       </c>
@@ -22299,7 +22304,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="96">
+    <row r="295" spans="1:20" ht="91.2">
       <c r="A295">
         <v>55000332</v>
       </c>
@@ -22343,7 +22348,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="228">
+    <row r="296" spans="1:20" ht="216.6">
       <c r="A296">
         <v>55000333</v>
       </c>
@@ -22387,7 +22392,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="108">
+    <row r="297" spans="1:20" ht="102.6">
       <c r="A297">
         <v>55000334</v>
       </c>
@@ -22438,7 +22443,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="108">
+    <row r="298" spans="1:20" ht="91.2">
       <c r="A298">
         <v>55000335</v>
       </c>
@@ -22455,7 +22460,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
       <c r="J298" s="21" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="K298" s="60"/>
       <c r="L298" s="1" t="s">
@@ -22482,7 +22487,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="48">
+    <row r="299" spans="1:20" ht="45.6">
       <c r="A299">
         <v>55000340</v>
       </c>
@@ -22530,7 +22535,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="36">
+    <row r="300" spans="1:20" ht="34.200000000000003">
       <c r="A300">
         <v>55000341</v>
       </c>
@@ -22576,7 +22581,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="180">
+    <row r="301" spans="1:20" ht="171">
       <c r="A301">
         <v>55000342</v>
       </c>
@@ -22620,7 +22625,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="180">
+    <row r="302" spans="1:20" ht="171">
       <c r="A302">
         <v>55000343</v>
       </c>
@@ -22664,7 +22669,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="36">
+    <row r="303" spans="1:20" ht="34.200000000000003">
       <c r="A303" t="s">
         <v>1369</v>
       </c>
@@ -22932,7 +22937,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="96">
+    <row r="4" spans="1:20" ht="91.2">
       <c r="A4">
         <v>55010003</v>
       </c>
@@ -22976,7 +22981,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="96">
+    <row r="5" spans="1:20" ht="91.2">
       <c r="A5">
         <v>55010004</v>
       </c>
@@ -23244,7 +23249,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="48">
+    <row r="4" spans="1:20" ht="45.6">
       <c r="A4">
         <v>55020001</v>
       </c>
@@ -23290,7 +23295,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="48">
+    <row r="5" spans="1:20" ht="45.6">
       <c r="A5">
         <v>55020002</v>
       </c>
@@ -23336,7 +23341,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="48">
+    <row r="6" spans="1:20" ht="45.6">
       <c r="A6">
         <v>55020003</v>
       </c>
@@ -23382,7 +23387,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="48">
+    <row r="7" spans="1:20" ht="45.6">
       <c r="A7">
         <v>55020004</v>
       </c>
@@ -23428,7 +23433,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="48">
+    <row r="8" spans="1:20" ht="45.6">
       <c r="A8">
         <v>55020005</v>
       </c>
@@ -23474,7 +23479,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="48">
+    <row r="9" spans="1:20" ht="45.6">
       <c r="A9">
         <v>55020006</v>
       </c>
@@ -23520,7 +23525,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="48">
+    <row r="10" spans="1:20" ht="45.6">
       <c r="A10">
         <v>55020007</v>
       </c>
@@ -23566,7 +23571,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="48">
+    <row r="11" spans="1:20" ht="45.6">
       <c r="A11">
         <v>55020008</v>
       </c>
@@ -23612,7 +23617,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="48">
+    <row r="12" spans="1:20" ht="45.6">
       <c r="A12">
         <v>55020009</v>
       </c>
@@ -23658,7 +23663,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="48">
+    <row r="13" spans="1:20" ht="45.6">
       <c r="A13">
         <v>55020010</v>
       </c>
@@ -23704,7 +23709,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="48">
+    <row r="14" spans="1:20" ht="45.6">
       <c r="A14">
         <v>55020011</v>
       </c>
@@ -23750,7 +23755,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="48">
+    <row r="15" spans="1:20" ht="45.6">
       <c r="A15">
         <v>55020012</v>
       </c>
@@ -23796,7 +23801,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="48">
+    <row r="16" spans="1:20" ht="45.6">
       <c r="A16">
         <v>55020013</v>
       </c>
@@ -23842,7 +23847,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="48">
+    <row r="17" spans="1:20" ht="45.6">
       <c r="A17">
         <v>55020014</v>
       </c>
@@ -23888,7 +23893,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="48">
+    <row r="18" spans="1:20" ht="45.6">
       <c r="A18">
         <v>55020015</v>
       </c>
@@ -23934,7 +23939,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="48">
+    <row r="19" spans="1:20" ht="45.6">
       <c r="A19">
         <v>55020016</v>
       </c>
@@ -24609,5 +24614,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -8846,7 +8846,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S286" sqref="S286"/>
+      <selection pane="bottomRight" activeCell="R286" sqref="R286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21890,7 +21890,7 @@
       </c>
       <c r="Q286" s="1"/>
       <c r="R286" s="1">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="S286" s="31" t="s">
         <v>1450</v>

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -8843,30 +8843,30 @@
   <dimension ref="A1:T303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C283" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R286" sqref="R286"/>
+      <selection pane="bottomRight" activeCell="D297" sqref="D297"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="7.25" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
-    <col min="6" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" customWidth="1"/>
-    <col min="14" max="14" width="23.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="14" max="14" width="23.5" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="18" width="7.109375" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.625" customWidth="1"/>
+    <col min="18" max="18" width="7.125" customWidth="1"/>
+    <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -9055,7 +9055,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="45.6">
+    <row r="4" spans="1:20" ht="36">
       <c r="A4">
         <v>55000001</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="57">
+    <row r="5" spans="1:20" ht="48">
       <c r="A5">
         <v>55000002</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="22.8">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>55000003</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="45.6">
+    <row r="7" spans="1:20" ht="36">
       <c r="A7">
         <v>55000004</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="45.6">
+    <row r="8" spans="1:20" ht="36">
       <c r="A8">
         <v>55000005</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="45.6">
+    <row r="9" spans="1:20" ht="36">
       <c r="A9">
         <v>55000006</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="45.6">
+    <row r="10" spans="1:20" ht="36">
       <c r="A10">
         <v>55000007</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="45.6">
+    <row r="11" spans="1:20" ht="36">
       <c r="A11">
         <v>55000008</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="45.6">
+    <row r="12" spans="1:20" ht="36">
       <c r="A12">
         <v>55000009</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="45.6">
+    <row r="13" spans="1:20" ht="36">
       <c r="A13">
         <v>55000010</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="45.6">
+    <row r="14" spans="1:20" ht="36">
       <c r="A14">
         <v>55000011</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="45.6">
+    <row r="15" spans="1:20" ht="36">
       <c r="A15">
         <v>55000012</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="45.6">
+    <row r="16" spans="1:20" ht="36">
       <c r="A16">
         <v>55000013</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="45.6">
+    <row r="17" spans="1:20" ht="36">
       <c r="A17">
         <v>55000014</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="45.6">
+    <row r="18" spans="1:20" ht="36">
       <c r="A18">
         <v>55000015</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="45.6">
+    <row r="19" spans="1:20" ht="36">
       <c r="A19">
         <v>55000016</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="45.6">
+    <row r="20" spans="1:20" ht="36">
       <c r="A20">
         <v>55000017</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="45.6">
+    <row r="21" spans="1:20" ht="36">
       <c r="A21">
         <v>55000018</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="45.6">
+    <row r="22" spans="1:20" ht="36">
       <c r="A22">
         <v>55000019</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="45.6">
+    <row r="23" spans="1:20" ht="48">
       <c r="A23">
         <v>55000020</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="28.8">
+    <row r="24" spans="1:20" ht="27">
       <c r="A24">
         <v>55000021</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="34.200000000000003">
+    <row r="25" spans="1:20" ht="24">
       <c r="A25">
         <v>55000029</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="45.6">
+    <row r="26" spans="1:20" ht="36">
       <c r="A26">
         <v>55000030</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="34.200000000000003">
+    <row r="27" spans="1:20" ht="24">
       <c r="A27">
         <v>55000031</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="34.200000000000003">
+    <row r="28" spans="1:20" ht="24">
       <c r="A28">
         <v>55000032</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="57">
+    <row r="30" spans="1:20" ht="48">
       <c r="A30">
         <v>55000034</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="34.200000000000003">
+    <row r="31" spans="1:20" ht="24">
       <c r="A31">
         <v>55000035</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="45.6">
+    <row r="32" spans="1:20" ht="36">
       <c r="A32">
         <v>55000036</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="45.6">
+    <row r="33" spans="1:20" ht="48">
       <c r="A33">
         <v>55000037</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="45.6">
+    <row r="34" spans="1:20" ht="36">
       <c r="A34">
         <v>55000038</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="45.6">
+    <row r="35" spans="1:20" ht="36">
       <c r="A35">
         <v>55000039</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="45.6">
+    <row r="36" spans="1:20" ht="36">
       <c r="A36">
         <v>55000040</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="45.6">
+    <row r="37" spans="1:20" ht="36">
       <c r="A37">
         <v>55000041</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="45.6">
+    <row r="38" spans="1:20" ht="48">
       <c r="A38">
         <v>55000042</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="22.8">
+    <row r="39" spans="1:20" ht="24">
       <c r="A39">
         <v>55000043</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="34.200000000000003">
+    <row r="40" spans="1:20" ht="24">
       <c r="A40">
         <v>55000044</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="34.200000000000003">
+    <row r="41" spans="1:20" ht="36">
       <c r="A41">
         <v>55000045</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="34.200000000000003">
+    <row r="42" spans="1:20" ht="36">
       <c r="A42">
         <v>55000046</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="45.6">
+    <row r="43" spans="1:20" ht="36">
       <c r="A43">
         <v>55000047</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="34.200000000000003">
+    <row r="44" spans="1:20" ht="36">
       <c r="A44">
         <v>55000048</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="45.6">
+    <row r="45" spans="1:20" ht="48">
       <c r="A45">
         <v>55000049</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="45.6">
+    <row r="46" spans="1:20" ht="48">
       <c r="A46">
         <v>55000050</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="45.6">
+    <row r="48" spans="1:20" ht="36">
       <c r="A48">
         <v>55000061</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="34.200000000000003">
+    <row r="49" spans="1:20" ht="24">
       <c r="A49">
         <v>55000062</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="45.6">
+    <row r="50" spans="1:20" ht="36">
       <c r="A50">
         <v>55000063</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="79.8">
+    <row r="51" spans="1:20" ht="72">
       <c r="A51">
         <v>55000064</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="45.6">
+    <row r="52" spans="1:20" ht="48">
       <c r="A52">
         <v>55000065</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="45.6">
+    <row r="53" spans="1:20" ht="48">
       <c r="A53">
         <v>55000066</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="45.6">
+    <row r="54" spans="1:20" ht="48">
       <c r="A54">
         <v>55000067</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="45.6">
+    <row r="55" spans="1:20" ht="48">
       <c r="A55">
         <v>55000068</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="45.6">
+    <row r="56" spans="1:20" ht="48">
       <c r="A56">
         <v>55000069</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="45.6">
+    <row r="57" spans="1:20" ht="48">
       <c r="A57">
         <v>55000070</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="45.6">
+    <row r="58" spans="1:20" ht="48">
       <c r="A58">
         <v>55000071</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="45.6">
+    <row r="59" spans="1:20" ht="48">
       <c r="A59">
         <v>55000072</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="45.6">
+    <row r="60" spans="1:20" ht="36">
       <c r="A60">
         <v>55000073</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="22.8">
+    <row r="61" spans="1:20" ht="24">
       <c r="A61">
         <v>55000074</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="136.80000000000001">
+    <row r="62" spans="1:20" ht="120">
       <c r="A62">
         <v>55000075</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="34.200000000000003">
+    <row r="63" spans="1:20" ht="24">
       <c r="A63">
         <v>55000076</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="45.6">
+    <row r="64" spans="1:20" ht="36">
       <c r="A64">
         <v>55000077</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="22.8">
+    <row r="65" spans="1:20" ht="24">
       <c r="A65">
         <v>55000078</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="22.8">
+    <row r="66" spans="1:20" ht="24">
       <c r="A66">
         <v>55000079</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="22.8">
+    <row r="67" spans="1:20" ht="24">
       <c r="A67">
         <v>55000080</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="22.8">
+    <row r="68" spans="1:20" ht="24">
       <c r="A68">
         <v>55000081</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="34.200000000000003">
+    <row r="69" spans="1:20" ht="24">
       <c r="A69">
         <v>55000082</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="57">
+    <row r="70" spans="1:20" ht="48">
       <c r="A70">
         <v>55000083</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="22.8">
+    <row r="71" spans="1:20" ht="24">
       <c r="A71">
         <v>55000084</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="45.6">
+    <row r="72" spans="1:20" ht="36">
       <c r="A72">
         <v>55000085</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="45.6">
+    <row r="73" spans="1:20" ht="36">
       <c r="A73">
         <v>55000086</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="34.200000000000003">
+    <row r="74" spans="1:20" ht="24">
       <c r="A74">
         <v>55000087</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="34.200000000000003">
+    <row r="75" spans="1:20" ht="24">
       <c r="A75">
         <v>55000088</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="22.8">
+    <row r="76" spans="1:20" ht="24">
       <c r="A76">
         <v>55000089</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="45.6">
+    <row r="77" spans="1:20" ht="48">
       <c r="A77">
         <v>55000090</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="22.8">
+    <row r="78" spans="1:20" ht="24">
       <c r="A78">
         <v>55000091</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="45.6">
+    <row r="79" spans="1:20" ht="36">
       <c r="A79">
         <v>55000092</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="34.200000000000003">
+    <row r="80" spans="1:20" ht="24">
       <c r="A80">
         <v>55000093</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="34.200000000000003">
+    <row r="81" spans="1:20" ht="24">
       <c r="A81">
         <v>55000094</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="34.200000000000003">
+    <row r="82" spans="1:20" ht="24">
       <c r="A82">
         <v>55000095</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="102.6">
+    <row r="83" spans="1:20" ht="84">
       <c r="A83">
         <v>55000096</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="57">
+    <row r="84" spans="1:20" ht="48">
       <c r="A84">
         <v>55000097</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="102.6">
+    <row r="85" spans="1:20" ht="84">
       <c r="A85">
         <v>55000098</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="34.200000000000003">
+    <row r="86" spans="1:20" ht="36">
       <c r="A86">
         <v>55000099</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="34.200000000000003">
+    <row r="87" spans="1:20" ht="36">
       <c r="A87">
         <v>55000100</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="22.8">
+    <row r="88" spans="1:20">
       <c r="A88">
         <v>55000101</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="22.8">
+    <row r="89" spans="1:20">
       <c r="A89">
         <v>55000102</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="45.6">
+    <row r="91" spans="1:20" ht="36">
       <c r="A91">
         <v>55000104</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="102.6">
+    <row r="92" spans="1:20" ht="96">
       <c r="A92">
         <v>55000105</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="68.400000000000006">
+    <row r="93" spans="1:20" ht="48">
       <c r="A93">
         <v>55000106</v>
       </c>
@@ -13145,7 +13145,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="45.6">
+    <row r="94" spans="1:20" ht="36">
       <c r="A94">
         <v>55000107</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="57">
+    <row r="95" spans="1:20" ht="48">
       <c r="A95">
         <v>55000108</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="34.200000000000003">
+    <row r="96" spans="1:20" ht="36">
       <c r="A96">
         <v>55000109</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="34.200000000000003">
+    <row r="97" spans="1:20" ht="24">
       <c r="A97">
         <v>55000110</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="34.200000000000003">
+    <row r="98" spans="1:20" ht="36">
       <c r="A98">
         <v>55000111</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="22.8">
+    <row r="99" spans="1:20" ht="24">
       <c r="A99">
         <v>55000112</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="45.6">
+    <row r="100" spans="1:20" ht="48">
       <c r="A100">
         <v>55000113</v>
       </c>
@@ -13465,7 +13465,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="34.200000000000003">
+    <row r="101" spans="1:20" ht="24">
       <c r="A101">
         <v>55000114</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="45.6">
+    <row r="102" spans="1:20" ht="36">
       <c r="A102">
         <v>55000115</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="22.8">
+    <row r="103" spans="1:20" ht="24">
       <c r="A103">
         <v>55000116</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="68.400000000000006">
+    <row r="104" spans="1:20" ht="60">
       <c r="A104">
         <v>55000117</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="45.6">
+    <row r="105" spans="1:20" ht="48">
       <c r="A105">
         <v>55000118</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="45.6">
+    <row r="106" spans="1:20" ht="48">
       <c r="A106">
         <v>55000119</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="34.200000000000003">
+    <row r="107" spans="1:20" ht="24">
       <c r="A107">
         <v>55000120</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="34.200000000000003">
+    <row r="108" spans="1:20" ht="24">
       <c r="A108">
         <v>55000121</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="45.6">
+    <row r="109" spans="1:20" ht="36">
       <c r="A109">
         <v>55000122</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="45.6">
+    <row r="110" spans="1:20" ht="36">
       <c r="A110">
         <v>55000123</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="45.6">
+    <row r="111" spans="1:20" ht="48">
       <c r="A111">
         <v>55000124</v>
       </c>
@@ -13969,7 +13969,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="34.200000000000003">
+    <row r="112" spans="1:20" ht="36">
       <c r="A112">
         <v>55000125</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="57">
+    <row r="113" spans="1:20" ht="48">
       <c r="A113">
         <v>55000126</v>
       </c>
@@ -14141,7 +14141,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="22.8">
+    <row r="116" spans="1:20" ht="24">
       <c r="A116">
         <v>55000129</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="22.8">
+    <row r="117" spans="1:20" ht="24">
       <c r="A117">
         <v>55000130</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="34.200000000000003">
+    <row r="118" spans="1:20" ht="24">
       <c r="A118">
         <v>55000131</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="34.200000000000003">
+    <row r="119" spans="1:20" ht="36">
       <c r="A119">
         <v>55000132</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="136.80000000000001">
+    <row r="120" spans="1:20" ht="120">
       <c r="A120">
         <v>55000133</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="57">
+    <row r="121" spans="1:20" ht="60">
       <c r="A121">
         <v>55000134</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="45.6">
+    <row r="122" spans="1:20" ht="36">
       <c r="A122">
         <v>55000135</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="34.200000000000003">
+    <row r="123" spans="1:20" ht="24">
       <c r="A123">
         <v>55000136</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="45.6">
+    <row r="124" spans="1:20" ht="48">
       <c r="A124">
         <v>55000137</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="34.200000000000003">
+    <row r="125" spans="1:20" ht="36">
       <c r="A125">
         <v>55000138</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="45.6">
+    <row r="126" spans="1:20" ht="48">
       <c r="A126">
         <v>55000139</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="57">
+    <row r="127" spans="1:20" ht="48">
       <c r="A127">
         <v>55000140</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="45.6">
+    <row r="128" spans="1:20" ht="48">
       <c r="A128">
         <v>55000141</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="34.200000000000003">
+    <row r="129" spans="1:20" ht="36">
       <c r="A129">
         <v>55000142</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="22.8">
+    <row r="130" spans="1:20" ht="24">
       <c r="A130">
         <v>55000143</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="45.6">
+    <row r="131" spans="1:20" ht="48">
       <c r="A131">
         <v>55000144</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="34.200000000000003">
+    <row r="132" spans="1:20" ht="24">
       <c r="A132">
         <v>55000145</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="45.6">
+    <row r="133" spans="1:20" ht="48">
       <c r="A133">
         <v>55000146</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="34.200000000000003">
+    <row r="134" spans="1:20" ht="36">
       <c r="A134">
         <v>55000147</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="45.6">
+    <row r="135" spans="1:20" ht="48">
       <c r="A135">
         <v>55000148</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="34.200000000000003">
+    <row r="136" spans="1:20" ht="36">
       <c r="A136">
         <v>55000149</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="34.200000000000003">
+    <row r="137" spans="1:20" ht="24">
       <c r="A137">
         <v>55000150</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="34.200000000000003">
+    <row r="138" spans="1:20" ht="36">
       <c r="A138">
         <v>55000151</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="22.8">
+    <row r="139" spans="1:20" ht="24">
       <c r="A139">
         <v>55000152</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="45.6">
+    <row r="140" spans="1:20" ht="48">
       <c r="A140">
         <v>55000153</v>
       </c>
@@ -15270,7 +15270,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="22.8">
+    <row r="141" spans="1:20" ht="24">
       <c r="A141">
         <v>55000154</v>
       </c>
@@ -15314,7 +15314,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="22.8">
+    <row r="142" spans="1:20" ht="24">
       <c r="A142">
         <v>55000155</v>
       </c>
@@ -15358,7 +15358,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="22.8">
+    <row r="143" spans="1:20" ht="24">
       <c r="A143">
         <v>55000156</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="34.200000000000003">
+    <row r="144" spans="1:20" ht="36">
       <c r="A144">
         <v>55000157</v>
       </c>
@@ -15446,7 +15446,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="22.8">
+    <row r="145" spans="1:20" ht="24">
       <c r="A145">
         <v>55000158</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="45.6">
+    <row r="146" spans="1:20" ht="36">
       <c r="A146">
         <v>55000159</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="34.200000000000003">
+    <row r="147" spans="1:20" ht="24">
       <c r="A147">
         <v>55000160</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="57">
+    <row r="148" spans="1:20" ht="48">
       <c r="A148">
         <v>55000161</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="45.6">
+    <row r="149" spans="1:20" ht="48">
       <c r="A149">
         <v>55000162</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="45.6">
+    <row r="150" spans="1:20" ht="36">
       <c r="A150">
         <v>55000163</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="45.6">
+    <row r="151" spans="1:20" ht="36">
       <c r="A151">
         <v>55000164</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="34.200000000000003">
+    <row r="152" spans="1:20" ht="24">
       <c r="A152">
         <v>55000165</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="45.6">
+    <row r="153" spans="1:20" ht="48">
       <c r="A153">
         <v>55000166</v>
       </c>
@@ -15858,7 +15858,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="34.200000000000003">
+    <row r="154" spans="1:20" ht="24">
       <c r="A154">
         <v>55000167</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="79.8">
+    <row r="155" spans="1:20" ht="72">
       <c r="A155">
         <v>55000168</v>
       </c>
@@ -15951,7 +15951,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="68.400000000000006">
+    <row r="156" spans="1:20" ht="60">
       <c r="A156">
         <v>55000169</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="45.6">
+    <row r="157" spans="1:20" ht="48">
       <c r="A157">
         <v>55000170</v>
       </c>
@@ -16087,7 +16087,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="45.6">
+    <row r="159" spans="1:20" ht="36">
       <c r="A159">
         <v>55000172</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="45.6">
+    <row r="160" spans="1:20" ht="36">
       <c r="A160">
         <v>55000173</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="45.6">
+    <row r="161" spans="1:20" ht="36">
       <c r="A161">
         <v>55000174</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="45.6">
+    <row r="162" spans="1:20" ht="36">
       <c r="A162">
         <v>55000175</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="34.200000000000003">
+    <row r="163" spans="1:20" ht="36">
       <c r="A163">
         <v>55000176</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="22.8">
+    <row r="164" spans="1:20" ht="24">
       <c r="A164">
         <v>55000177</v>
       </c>
@@ -16367,7 +16367,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="125.4">
+    <row r="165" spans="1:20" ht="108">
       <c r="A165">
         <v>55000178</v>
       </c>
@@ -16413,7 +16413,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="102.6">
+    <row r="166" spans="1:20" ht="96">
       <c r="A166">
         <v>55000179</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="45.6">
+    <row r="167" spans="1:20" ht="36">
       <c r="A167">
         <v>55000180</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="34.200000000000003">
+    <row r="168" spans="1:20" ht="24">
       <c r="A168">
         <v>55000181</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="34.200000000000003">
+    <row r="169" spans="1:20" ht="24">
       <c r="A169">
         <v>55000182</v>
       </c>
@@ -16599,7 +16599,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="79.8">
+    <row r="170" spans="1:20" ht="84">
       <c r="A170">
         <v>55000183</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="22.8">
+    <row r="171" spans="1:20" ht="24">
       <c r="A171">
         <v>55000184</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="34.200000000000003">
+    <row r="172" spans="1:20" ht="36">
       <c r="A172">
         <v>55000185</v>
       </c>
@@ -16731,7 +16731,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="45.6">
+    <row r="173" spans="1:20" ht="36">
       <c r="A173">
         <v>55000186</v>
       </c>
@@ -16777,7 +16777,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="57">
+    <row r="174" spans="1:20" ht="48">
       <c r="A174">
         <v>55000187</v>
       </c>
@@ -16821,7 +16821,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="22.8">
+    <row r="175" spans="1:20" ht="24">
       <c r="A175">
         <v>55000188</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="45.6">
+    <row r="176" spans="1:20" ht="36">
       <c r="A176">
         <v>55000189</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="45.6">
+    <row r="177" spans="1:20" ht="36">
       <c r="A177">
         <v>55000190</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="57">
+    <row r="178" spans="1:20" ht="48">
       <c r="A178">
         <v>55000191</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="68.400000000000006">
+    <row r="179" spans="1:20" ht="60">
       <c r="A179">
         <v>55000192</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="34.200000000000003">
+    <row r="180" spans="1:20" ht="24">
       <c r="A180">
         <v>55000193</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="45.6">
+    <row r="181" spans="1:20" ht="48">
       <c r="A181">
         <v>55000194</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="68.400000000000006">
+    <row r="182" spans="1:20" ht="60">
       <c r="A182">
         <v>55000195</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="68.400000000000006">
+    <row r="183" spans="1:20" ht="60">
       <c r="A183">
         <v>55000196</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="34.200000000000003">
+    <row r="184" spans="1:20" ht="24">
       <c r="A184">
         <v>55000197</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="34.200000000000003">
+    <row r="185" spans="1:20" ht="36">
       <c r="A185">
         <v>55000198</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="45.6">
+    <row r="187" spans="1:20" ht="48">
       <c r="A187">
         <v>55000200</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="34.200000000000003">
+    <row r="188" spans="1:20" ht="36">
       <c r="A188">
         <v>55000201</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="45.6">
+    <row r="189" spans="1:20" ht="48">
       <c r="A189">
         <v>55000202</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="34.200000000000003">
+    <row r="190" spans="1:20" ht="24">
       <c r="A190">
         <v>55000203</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="45.6">
+    <row r="191" spans="1:20" ht="48">
       <c r="A191">
         <v>55000204</v>
       </c>
@@ -17591,7 +17591,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="22.8">
+    <row r="192" spans="1:20" ht="24">
       <c r="A192">
         <v>55000205</v>
       </c>
@@ -17635,7 +17635,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="125.4">
+    <row r="193" spans="1:20" ht="96">
       <c r="A193">
         <v>55000206</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="22.8">
+    <row r="194" spans="1:20" ht="24">
       <c r="A194">
         <v>55000207</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="45.6">
+    <row r="196" spans="1:20" ht="48">
       <c r="A196">
         <v>55000209</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="57">
+    <row r="197" spans="1:20" ht="48">
       <c r="A197">
         <v>55000210</v>
       </c>
@@ -17863,7 +17863,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="45.6">
+    <row r="198" spans="1:20" ht="48">
       <c r="A198">
         <v>55000211</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="22.8">
+    <row r="199" spans="1:20" ht="24">
       <c r="A199">
         <v>55000212</v>
       </c>
@@ -17955,7 +17955,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="45.6">
+    <row r="200" spans="1:20" ht="48">
       <c r="A200">
         <v>55000213</v>
       </c>
@@ -18001,7 +18001,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="34.200000000000003">
+    <row r="201" spans="1:20" ht="24">
       <c r="A201">
         <v>55000214</v>
       </c>
@@ -18045,7 +18045,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="102.6">
+    <row r="202" spans="1:20" ht="84">
       <c r="A202">
         <v>55000215</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="45.6">
+    <row r="203" spans="1:20" ht="36">
       <c r="A203">
         <v>55000216</v>
       </c>
@@ -18142,7 +18142,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="22.8">
+    <row r="204" spans="1:20" ht="24">
       <c r="A204">
         <v>55000217</v>
       </c>
@@ -18276,7 +18276,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="45.6">
+    <row r="207" spans="1:20" ht="36">
       <c r="A207">
         <v>55000220</v>
       </c>
@@ -18322,7 +18322,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="22.8">
+    <row r="208" spans="1:20" ht="24">
       <c r="A208">
         <v>55000221</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="45.6">
+    <row r="209" spans="1:20" ht="36">
       <c r="A209">
         <v>55000222</v>
       </c>
@@ -18412,7 +18412,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="45.6">
+    <row r="210" spans="1:20" ht="36">
       <c r="A210">
         <v>55000223</v>
       </c>
@@ -18458,7 +18458,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="45.6">
+    <row r="211" spans="1:20" ht="36">
       <c r="A211">
         <v>55000224</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="57">
+    <row r="212" spans="1:20" ht="48">
       <c r="A212">
         <v>55000225</v>
       </c>
@@ -18550,7 +18550,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="125.4">
+    <row r="213" spans="1:20" ht="96">
       <c r="A213">
         <v>55000226</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="34.200000000000003">
+    <row r="214" spans="1:20" ht="24">
       <c r="A214">
         <v>55000227</v>
       </c>
@@ -18642,7 +18642,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="22.8">
+    <row r="215" spans="1:20" ht="24">
       <c r="A215">
         <v>55000228</v>
       </c>
@@ -18686,7 +18686,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="34.200000000000003">
+    <row r="216" spans="1:20" ht="24">
       <c r="A216">
         <v>55000229</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="34.200000000000003">
+    <row r="217" spans="1:20" ht="24">
       <c r="A217">
         <v>55000230</v>
       </c>
@@ -18776,7 +18776,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="22.8">
+    <row r="218" spans="1:20" ht="24">
       <c r="A218">
         <v>55000231</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="57">
+    <row r="219" spans="1:20" ht="48">
       <c r="A219">
         <v>55000232</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="45.6">
+    <row r="220" spans="1:20" ht="36">
       <c r="A220">
         <v>55000233</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="45.6">
+    <row r="221" spans="1:20" ht="36">
       <c r="A221">
         <v>55000234</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="79.8">
+    <row r="222" spans="1:20" ht="72">
       <c r="A222">
         <v>55000235</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="34.200000000000003">
+    <row r="223" spans="1:20" ht="24">
       <c r="A223">
         <v>55000236</v>
       </c>
@@ -19084,7 +19084,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="22.8">
+    <row r="225" spans="1:20" ht="24">
       <c r="A225">
         <v>55000238</v>
       </c>
@@ -19128,7 +19128,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="34.200000000000003">
+    <row r="226" spans="1:20" ht="24">
       <c r="A226">
         <v>55000239</v>
       </c>
@@ -19172,7 +19172,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="91.2">
+    <row r="227" spans="1:20" ht="84">
       <c r="A227">
         <v>55000240</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="22.8">
+    <row r="228" spans="1:20" ht="24">
       <c r="A228">
         <v>55000241</v>
       </c>
@@ -19270,7 +19270,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="34.200000000000003">
+    <row r="229" spans="1:20" ht="24">
       <c r="A229">
         <v>55000242</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="34.200000000000003">
+    <row r="230" spans="1:20" ht="36">
       <c r="A230">
         <v>55000243</v>
       </c>
@@ -19360,7 +19360,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="102.6">
+    <row r="231" spans="1:20" ht="84">
       <c r="A231">
         <v>55000244</v>
       </c>
@@ -19410,7 +19410,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="34.200000000000003">
+    <row r="232" spans="1:20" ht="24">
       <c r="A232">
         <v>55000245</v>
       </c>
@@ -19454,7 +19454,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="34.200000000000003">
+    <row r="233" spans="1:20" ht="36">
       <c r="A233">
         <v>55000246</v>
       </c>
@@ -19500,7 +19500,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="68.400000000000006">
+    <row r="234" spans="1:20" ht="48">
       <c r="A234">
         <v>55000247</v>
       </c>
@@ -19546,7 +19546,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="45.6">
+    <row r="235" spans="1:20" ht="36">
       <c r="A235">
         <v>55000248</v>
       </c>
@@ -19594,7 +19594,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="34.200000000000003">
+    <row r="236" spans="1:20" ht="24">
       <c r="A236">
         <v>55000249</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="45.6">
+    <row r="237" spans="1:20" ht="36">
       <c r="A237">
         <v>55000250</v>
       </c>
@@ -19684,7 +19684,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="28.8">
+    <row r="238" spans="1:20" ht="27">
       <c r="A238">
         <v>55000251</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="22.8">
+    <row r="239" spans="1:20" ht="24">
       <c r="A239">
         <v>55000252</v>
       </c>
@@ -19774,7 +19774,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="34.200000000000003">
+    <row r="240" spans="1:20" ht="36">
       <c r="A240">
         <v>55000253</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="34.200000000000003">
+    <row r="241" spans="1:20" ht="36">
       <c r="A241">
         <v>55000254</v>
       </c>
@@ -19950,7 +19950,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="45.6">
+    <row r="244" spans="1:20" ht="36">
       <c r="A244">
         <v>55000257</v>
       </c>
@@ -19998,7 +19998,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="34.200000000000003">
+    <row r="245" spans="1:20" ht="24">
       <c r="A245">
         <v>55000258</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="45.6">
+    <row r="246" spans="1:20" ht="36">
       <c r="A246">
         <v>55000259</v>
       </c>
@@ -20090,7 +20090,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="91.2">
+    <row r="247" spans="1:20" ht="84">
       <c r="A247">
         <v>55000260</v>
       </c>
@@ -20136,7 +20136,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="91.2">
+    <row r="248" spans="1:20" ht="84">
       <c r="A248">
         <v>55000261</v>
       </c>
@@ -20180,7 +20180,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="34.200000000000003">
+    <row r="249" spans="1:20" ht="24">
       <c r="A249">
         <v>55000262</v>
       </c>
@@ -20224,7 +20224,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="22.8">
+    <row r="250" spans="1:20" ht="24">
       <c r="A250">
         <v>55000263</v>
       </c>
@@ -20272,7 +20272,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="45.6">
+    <row r="251" spans="1:20" ht="36">
       <c r="A251">
         <v>55000264</v>
       </c>
@@ -20318,7 +20318,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="45.6">
+    <row r="252" spans="1:20" ht="36">
       <c r="A252">
         <v>55000265</v>
       </c>
@@ -20362,7 +20362,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="45.6">
+    <row r="253" spans="1:20" ht="48">
       <c r="A253">
         <v>55000266</v>
       </c>
@@ -20406,7 +20406,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="22.8">
+    <row r="254" spans="1:20" ht="24">
       <c r="A254">
         <v>55000267</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="22.8">
+    <row r="255" spans="1:20" ht="24">
       <c r="A255">
         <v>55000268</v>
       </c>
@@ -20496,7 +20496,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="45.6">
+    <row r="256" spans="1:20" ht="48">
       <c r="A256">
         <v>55000269</v>
       </c>
@@ -20540,7 +20540,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="45.6">
+    <row r="257" spans="1:20" ht="48">
       <c r="A257">
         <v>55000270</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="34.200000000000003">
+    <row r="258" spans="1:20" ht="36">
       <c r="A258">
         <v>55000271</v>
       </c>
@@ -20632,7 +20632,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="34.200000000000003">
+    <row r="259" spans="1:20" ht="24">
       <c r="A259">
         <v>55000272</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="45.6">
+    <row r="260" spans="1:20" ht="36">
       <c r="A260">
         <v>55000273</v>
       </c>
@@ -20720,7 +20720,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="91.2">
+    <row r="261" spans="1:20" ht="84">
       <c r="A261">
         <v>55000274</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="45.6">
+    <row r="262" spans="1:20" ht="36">
       <c r="A262">
         <v>55000275</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="45.6">
+    <row r="263" spans="1:20" ht="36">
       <c r="A263">
         <v>55000276</v>
       </c>
@@ -20856,7 +20856,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="22.8">
+    <row r="264" spans="1:20">
       <c r="A264">
         <v>55000277</v>
       </c>
@@ -20900,7 +20900,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="22.8">
+    <row r="265" spans="1:20" ht="24">
       <c r="A265">
         <v>55000278</v>
       </c>
@@ -20944,7 +20944,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="22.8">
+    <row r="266" spans="1:20">
       <c r="A266">
         <v>55000279</v>
       </c>
@@ -20988,7 +20988,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="45.6">
+    <row r="267" spans="1:20" ht="36">
       <c r="A267">
         <v>55000280</v>
       </c>
@@ -21032,7 +21032,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="22.8">
+    <row r="268" spans="1:20" ht="24">
       <c r="A268">
         <v>55000281</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="171">
+    <row r="269" spans="1:20" ht="144">
       <c r="A269">
         <v>55000282</v>
       </c>
@@ -21122,7 +21122,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="45.6">
+    <row r="270" spans="1:20" ht="36">
       <c r="A270">
         <v>55000284</v>
       </c>
@@ -21170,7 +21170,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="45.6">
+    <row r="271" spans="1:20" ht="48">
       <c r="A271">
         <v>55000285</v>
       </c>
@@ -21258,7 +21258,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="34.200000000000003">
+    <row r="273" spans="1:20" ht="36">
       <c r="A273">
         <v>55000287</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="22.8">
+    <row r="274" spans="1:20" ht="24">
       <c r="A274">
         <v>55000288</v>
       </c>
@@ -21350,7 +21350,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="136.80000000000001">
+    <row r="275" spans="1:20" ht="120">
       <c r="A275">
         <v>55000289</v>
       </c>
@@ -21394,7 +21394,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="91.2">
+    <row r="276" spans="1:20" ht="84">
       <c r="A276">
         <v>55000290</v>
       </c>
@@ -21438,7 +21438,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="79.8">
+    <row r="277" spans="1:20" ht="60">
       <c r="A277">
         <v>55000291</v>
       </c>
@@ -21482,7 +21482,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="45.6">
+    <row r="278" spans="1:20" ht="36">
       <c r="A278">
         <v>55000292</v>
       </c>
@@ -21530,7 +21530,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="57">
+    <row r="279" spans="1:20" ht="48">
       <c r="A279">
         <v>55000293</v>
       </c>
@@ -21574,7 +21574,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="102.6">
+    <row r="280" spans="1:20" ht="84">
       <c r="A280">
         <v>55000294</v>
       </c>
@@ -21667,7 +21667,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="22.8">
+    <row r="282" spans="1:20" ht="24">
       <c r="A282">
         <v>55000296</v>
       </c>
@@ -21711,7 +21711,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="114">
+    <row r="283" spans="1:20" ht="96">
       <c r="A283">
         <v>55000297</v>
       </c>
@@ -21757,7 +21757,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="102.6">
+    <row r="284" spans="1:20" ht="84">
       <c r="A284">
         <v>55000298</v>
       </c>
@@ -21803,7 +21803,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="34.200000000000003">
+    <row r="285" spans="1:20" ht="24">
       <c r="A285">
         <v>55000299</v>
       </c>
@@ -21851,7 +21851,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="22.8">
+    <row r="286" spans="1:20" ht="24">
       <c r="A286">
         <v>55000300</v>
       </c>
@@ -21899,7 +21899,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="102.6">
+    <row r="287" spans="1:20" ht="96">
       <c r="A287">
         <v>55000324</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="102.6">
+    <row r="288" spans="1:20" ht="84">
       <c r="A288">
         <v>55000325</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="91.2">
+    <row r="289" spans="1:20" ht="84">
       <c r="A289">
         <v>55000326</v>
       </c>
@@ -22050,7 +22050,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="102.6">
+    <row r="290" spans="1:20" ht="96">
       <c r="A290">
         <v>55000327</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="102.6">
+    <row r="291" spans="1:20" ht="84">
       <c r="A291">
         <v>55000328</v>
       </c>
@@ -22151,7 +22151,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="102.6">
+    <row r="292" spans="1:20" ht="84">
       <c r="A292">
         <v>55000329</v>
       </c>
@@ -22202,7 +22202,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="102.6">
+    <row r="293" spans="1:20" ht="96">
       <c r="A293">
         <v>55000330</v>
       </c>
@@ -22253,7 +22253,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="102.6">
+    <row r="294" spans="1:20" ht="84">
       <c r="A294">
         <v>55000331</v>
       </c>
@@ -22304,7 +22304,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="91.2">
+    <row r="295" spans="1:20" ht="72">
       <c r="A295">
         <v>55000332</v>
       </c>
@@ -22348,7 +22348,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="216.6">
+    <row r="296" spans="1:20" ht="180">
       <c r="A296">
         <v>55000333</v>
       </c>
@@ -22392,7 +22392,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="102.6">
+    <row r="297" spans="1:20" ht="96">
       <c r="A297">
         <v>55000334</v>
       </c>
@@ -22443,7 +22443,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="91.2">
+    <row r="298" spans="1:20" ht="84">
       <c r="A298">
         <v>55000335</v>
       </c>
@@ -22487,7 +22487,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="45.6">
+    <row r="299" spans="1:20" ht="48">
       <c r="A299">
         <v>55000340</v>
       </c>
@@ -22535,7 +22535,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="34.200000000000003">
+    <row r="300" spans="1:20" ht="24">
       <c r="A300">
         <v>55000341</v>
       </c>
@@ -22581,7 +22581,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="171">
+    <row r="301" spans="1:20" ht="144">
       <c r="A301">
         <v>55000342</v>
       </c>
@@ -22625,7 +22625,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="171">
+    <row r="302" spans="1:20" ht="144">
       <c r="A302">
         <v>55000343</v>
       </c>
@@ -22669,7 +22669,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="34.200000000000003">
+    <row r="303" spans="1:20" ht="36">
       <c r="A303" t="s">
         <v>1369</v>
       </c>
@@ -22735,20 +22735,20 @@
       <selection pane="bottomRight" activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" customWidth="1"/>
-    <col min="4" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" customWidth="1"/>
-    <col min="10" max="11" width="8.44140625" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" customWidth="1"/>
-    <col min="14" max="14" width="23.44140625" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" customWidth="1"/>
-    <col min="16" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="18" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.25" customWidth="1"/>
+    <col min="4" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="22.25" customWidth="1"/>
+    <col min="10" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="14" max="14" width="23.5" customWidth="1"/>
+    <col min="15" max="15" width="6.625" customWidth="1"/>
+    <col min="16" max="17" width="7.625" customWidth="1"/>
+    <col min="18" max="18" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -22937,7 +22937,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="91.2">
+    <row r="4" spans="1:20" ht="84">
       <c r="A4">
         <v>55010003</v>
       </c>
@@ -22981,7 +22981,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="91.2">
+    <row r="5" spans="1:20" ht="84">
       <c r="A5">
         <v>55010004</v>
       </c>
@@ -23047,20 +23047,20 @@
       <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" customWidth="1"/>
-    <col min="4" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" customWidth="1"/>
-    <col min="10" max="11" width="8.44140625" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" customWidth="1"/>
-    <col min="14" max="14" width="23.44140625" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" customWidth="1"/>
-    <col min="16" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="18" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.25" customWidth="1"/>
+    <col min="4" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="22.25" customWidth="1"/>
+    <col min="10" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="14" max="14" width="23.5" customWidth="1"/>
+    <col min="15" max="15" width="6.625" customWidth="1"/>
+    <col min="16" max="17" width="7.625" customWidth="1"/>
+    <col min="18" max="18" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -23249,7 +23249,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="45.6">
+    <row r="4" spans="1:20" ht="36">
       <c r="A4">
         <v>55020001</v>
       </c>
@@ -23295,7 +23295,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="45.6">
+    <row r="5" spans="1:20" ht="36">
       <c r="A5">
         <v>55020002</v>
       </c>
@@ -23341,7 +23341,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="45.6">
+    <row r="6" spans="1:20" ht="36">
       <c r="A6">
         <v>55020003</v>
       </c>
@@ -23387,7 +23387,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="45.6">
+    <row r="7" spans="1:20" ht="36">
       <c r="A7">
         <v>55020004</v>
       </c>
@@ -23433,7 +23433,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="45.6">
+    <row r="8" spans="1:20" ht="36">
       <c r="A8">
         <v>55020005</v>
       </c>
@@ -23479,7 +23479,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="45.6">
+    <row r="9" spans="1:20" ht="36">
       <c r="A9">
         <v>55020006</v>
       </c>
@@ -23525,7 +23525,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="45.6">
+    <row r="10" spans="1:20" ht="36">
       <c r="A10">
         <v>55020007</v>
       </c>
@@ -23571,7 +23571,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="45.6">
+    <row r="11" spans="1:20" ht="36">
       <c r="A11">
         <v>55020008</v>
       </c>
@@ -23617,7 +23617,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="45.6">
+    <row r="12" spans="1:20" ht="36">
       <c r="A12">
         <v>55020009</v>
       </c>
@@ -23663,7 +23663,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="45.6">
+    <row r="13" spans="1:20" ht="36">
       <c r="A13">
         <v>55020010</v>
       </c>
@@ -23709,7 +23709,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="45.6">
+    <row r="14" spans="1:20" ht="36">
       <c r="A14">
         <v>55020011</v>
       </c>
@@ -23755,7 +23755,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="45.6">
+    <row r="15" spans="1:20" ht="36">
       <c r="A15">
         <v>55020012</v>
       </c>
@@ -23801,7 +23801,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="45.6">
+    <row r="16" spans="1:20" ht="36">
       <c r="A16">
         <v>55020013</v>
       </c>
@@ -23847,7 +23847,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="45.6">
+    <row r="17" spans="1:20" ht="36">
       <c r="A17">
         <v>55020014</v>
       </c>
@@ -23893,7 +23893,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="45.6">
+    <row r="18" spans="1:20" ht="36">
       <c r="A18">
         <v>55020015</v>
       </c>
@@ -23939,7 +23939,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="45.6">
+    <row r="19" spans="1:20" ht="36">
       <c r="A19">
         <v>55020016</v>
       </c>
@@ -24004,9 +24004,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -24596,7 +24596,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -3227,14 +3227,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>击中目标时变化为敌方类型单位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Transform(d.CardId);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>受到攻击时使攻击者晕眩2回合</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4986,361 +4978,362 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>d.SetToPosition("come");</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellowflash</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤时对回复我方所有单位大量生命值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.Owner.DeleteRandomCardFor(null, 0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.HasSkill(55010018)||d.HasSkill(55010019)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.HasSkill(55010028)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>!s.HasSkill(55010028)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.HasSkill(55010004)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.Star&lt;4&amp;&amp;d.HasSkill(55010004)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.Transform(51010002);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Summon(1,51013000);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000060|FightQuick</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000001,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000003,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000007,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.AddBuff(56000006,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000008,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000006,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000014,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000010,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000009,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000012,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000005,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit){d.AddBuff(56000003,lv,2);d.AddBuff(56000004,lv,2);}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)s.AddBuff(56000012,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000001,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000013,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000022,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000004,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000002,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000009,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000022,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000018,lv,99);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000019,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000011,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").SetRange(11);</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000015,lv,"A");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000111,lv,"E").SetRange(31);</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000111,lv,"E");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000131,lv,"E");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"A").AddRace("Dragon");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"A").AddRace("Undead");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"A").AddAttr("None");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000121,lv,"F");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddAttr("Dark");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000121,lv,"F").AddAttr("Dark");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddAttr("Ice");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddAttr("Earth");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddAttr("Wind");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddAttr("Light");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000121,lv,"F").AddAttr("Light");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000102,lv,"F").SetMid(10062);</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000121,lv,"F").AddAttr("Fire");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000102,lv,"F").SetMid(10001);</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddAttr("Thunder");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000121,lv,"F").AddAttr("Water");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddAttr("Water");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddRace("Beast");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddRace("Plant");;</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000023,lv,"F").AddAttr("Water");</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.AddAuro(56000023,lv,"A").SetMid(10055);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>!s.IsMagicAtk</t>
+  </si>
+  <si>
+    <t>s.IsMagicAtk&amp;&amp;s.HasScroll</t>
+  </si>
+  <si>
+    <t>s.Atk.Source*=MathTool.GetRandom(1f,1.3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(deadHit){s.Atk.Source*=1.1;}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(deadHit){s.Atk.Source+=d.Atk.Source*0.3;}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自己周围随机位置召唤一个哥布林</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckSpecial</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialCd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTimelyEffectDelegate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.SetToPosition("around");s.Atk.Source+=10;</t>
+  </si>
+  <si>
+    <t>s.Transform((MathTool.GetRandom(2) == 0) ? 51010001 : 51010047);</t>
+  </si>
+  <si>
+    <t>s.Transform(MathTool.GetRandom(51010001,51010050));</t>
+  </si>
+  <si>
+    <t>s.AddHpRate(1);</t>
+  </si>
+  <si>
+    <t>s.Transform(51010097);</t>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,"A","R",15,s.Position,"yellowstar")) o.AddHp(30);</t>
+  </si>
+  <si>
+    <t>s.Summon(2,51013001);</t>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,"E","O",0,s.Position,"etwave")) o.ExtendDebuff(2);</t>
+  </si>
+  <si>
+    <t>s.Atk.Source*=1.15;</t>
+  </si>
+  <si>
+    <t>s.Atk.Source*=1.2;</t>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,"A","L",10,s.Position,"curseoff")) o.ClearDebuff();</t>
+  </si>
+  <si>
+    <t>s.Summon(3,51000019);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gebulin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,"E","H",10,s.Position,"yellowflash").SortDistance(true).Top(1)) mon.OnMagicDamage(100,0);</t>
+  </si>
+  <si>
+    <t>部署时变成最近的单位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,"E","C",20,d.Position,"electball")) o.AddHp(-damage.Value*0.4);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.SetToPosition("come");</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,"A","R",20,s.Position,"yellowstar")) o.AddBuff(56000016,lv,3);</t>
   </si>
   <si>
     <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,"E","C",10,d.Position,"bite")) o.AddHp(-damage.Value);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>yellowflash</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤时对回复我方所有单位大量生命值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,"E","H",10,s.Position,"yellowflash").SortDistance(true).Top(1)) mon.SetToPosition("side");</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,"E","H",10,s.Position,"yellowflash").SortDistance(true).Top(1)) mon.OnMagicDamage(100,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,"F","R",100,s.Position,"yellowflash")) mon.AddHp(100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.Owner.DeleteRandomCardFor(null, 0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.HasSkill(55010018)||d.HasSkill(55010019)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.HasSkill(55010028)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>!s.HasSkill(55010028)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.HasSkill(55010004)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.Star&lt;4&amp;&amp;d.HasSkill(55010004)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.Transform(51010002);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Summon(1,51013000);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>55000060|FightQuick</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000001,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000003,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000007,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.AddBuff(56000006,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000008,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000006,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000014,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000010,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000009,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000012,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000005,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit){d.AddBuff(56000003,lv,2);d.AddBuff(56000004,lv,2);}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)s.AddBuff(56000012,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000001,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000013,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000022,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000004,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000002,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000009,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000022,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000018,lv,99);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000019,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000011,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,"E","R",15,d.Position,"rootattack")) s.AddBuff(56000001,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,"A","R",20,s.Position,"yellowstar")) o.AddBuff(56000016,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").SetRange(11);</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000015,lv,"A");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000111,lv,"E").SetRange(31);</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000111,lv,"E");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000131,lv,"E");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"A").AddRace("Dragon");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"A").AddRace("Undead");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"A").AddAttr("None");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000121,lv,"F");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddAttr("Dark");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000121,lv,"F").AddAttr("Dark");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddAttr("Ice");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddAttr("Earth");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddAttr("Wind");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddAttr("Light");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000121,lv,"F").AddAttr("Light");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000102,lv,"F").SetMid(10062);</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000121,lv,"F").AddAttr("Fire");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000102,lv,"F").SetMid(10001);</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddAttr("Thunder");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000121,lv,"F").AddAttr("Water");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddAttr("Water");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddRace("Beast");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddRace("Plant");;</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000023,lv,"F").AddAttr("Water");</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.AddAuro(56000023,lv,"A").SetMid(10055);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>!s.IsMagicAtk</t>
-  </si>
-  <si>
-    <t>s.IsMagicAtk&amp;&amp;s.HasScroll</t>
-  </si>
-  <si>
-    <t>s.Atk.Source*=MathTool.GetRandom(1f,1.3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(deadHit){s.Atk.Source*=1.1;}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(deadHit){s.Atk.Source+=d.Atk.Source*0.3;}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在自己周围随机位置召唤一个哥布林</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckSpecial</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecialCd</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillTimelyEffectDelegate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.SetToPosition("around");s.Atk.Source+=10;</t>
-  </si>
-  <si>
-    <t>s.Transform((MathTool.GetRandom(2) == 0) ? 51010001 : 51010047);</t>
-  </si>
-  <si>
-    <t>s.Transform(MathTool.GetRandom(51010001,51010050));</t>
-  </si>
-  <si>
-    <t>s.AddHpRate(1);</t>
-  </si>
-  <si>
-    <t>s.Transform(51010097);</t>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,"A","R",15,s.Position,"yellowstar")) o.AddHp(30);</t>
-  </si>
-  <si>
-    <t>s.Summon(2,51013001);</t>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,"E","O",0,s.Position,"etwave")) o.ExtendDebuff(2);</t>
-  </si>
-  <si>
-    <t>s.Atk.Source*=1.15;</t>
-  </si>
-  <si>
-    <t>s.Atk.Source*=1.2;</t>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,"A","L",10,s.Position,"curseoff")) o.ClearDebuff();</t>
-  </si>
-  <si>
-    <t>s.Summon(3,51000019);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>gebulin</t>
+  </si>
+  <si>
+    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,"A","R",40,s.Position,"yellowflash").FilterId(s.Id).SortDistance(true).Top(1)) s.Transform(mon.CardId);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -8843,10 +8836,10 @@
   <dimension ref="A1:T303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C297" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D297" sqref="D297"/>
+      <selection pane="bottomRight" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8898,10 +8891,10 @@
         <v>862</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>697</v>
@@ -8913,13 +8906,13 @@
         <v>703</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>689</v>
@@ -8928,7 +8921,7 @@
         <v>690</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -8942,28 +8935,28 @@
         <v>680</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>726</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>696</v>
@@ -8972,16 +8965,16 @@
         <v>692</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>680</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>679</v>
@@ -9004,28 +8997,28 @@
         <v>683</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>727</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>861</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>699</v>
@@ -9034,16 +9027,16 @@
         <v>694</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>684</v>
@@ -9052,7 +9045,7 @@
         <v>685</v>
       </c>
       <c r="T3" s="54" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="36">
@@ -9072,7 +9065,7 @@
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="17" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="21"/>
@@ -9098,7 +9091,7 @@
         <v>2</v>
       </c>
       <c r="T4" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="48">
@@ -9128,7 +9121,7 @@
         <v>693</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="O5" s="52">
         <v>0</v>
@@ -9142,7 +9135,7 @@
         <v>5</v>
       </c>
       <c r="T5" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9162,7 +9155,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="21" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="K6" s="60"/>
       <c r="L6" s="1" t="s">
@@ -9172,7 +9165,7 @@
         <v>693</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="O6" s="14">
         <v>0</v>
@@ -9186,7 +9179,7 @@
         <v>8</v>
       </c>
       <c r="T6" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="36">
@@ -9232,7 +9225,7 @@
         <v>11</v>
       </c>
       <c r="T7" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="36">
@@ -9278,7 +9271,7 @@
         <v>13</v>
       </c>
       <c r="T8" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="36">
@@ -9324,7 +9317,7 @@
         <v>15</v>
       </c>
       <c r="T9" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="36">
@@ -9370,7 +9363,7 @@
         <v>17</v>
       </c>
       <c r="T10" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="36">
@@ -9416,7 +9409,7 @@
         <v>19</v>
       </c>
       <c r="T11" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="36">
@@ -9462,7 +9455,7 @@
         <v>21</v>
       </c>
       <c r="T12" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="36">
@@ -9508,7 +9501,7 @@
         <v>23</v>
       </c>
       <c r="T13" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="36">
@@ -9554,7 +9547,7 @@
         <v>25</v>
       </c>
       <c r="T14" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="36">
@@ -9600,7 +9593,7 @@
         <v>27</v>
       </c>
       <c r="T15" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="36">
@@ -9646,7 +9639,7 @@
         <v>29</v>
       </c>
       <c r="T16" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="36">
@@ -9692,7 +9685,7 @@
         <v>31</v>
       </c>
       <c r="T17" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="36">
@@ -9738,7 +9731,7 @@
         <v>33</v>
       </c>
       <c r="T18" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="36">
@@ -9784,7 +9777,7 @@
         <v>35</v>
       </c>
       <c r="T19" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="36">
@@ -9830,7 +9823,7 @@
         <v>37</v>
       </c>
       <c r="T20" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="36">
@@ -9876,7 +9869,7 @@
         <v>39</v>
       </c>
       <c r="T21" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="36">
@@ -9922,7 +9915,7 @@
         <v>41</v>
       </c>
       <c r="T22" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="48">
@@ -9942,7 +9935,7 @@
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="17" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="21"/>
@@ -9954,7 +9947,7 @@
         <v>693</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="O23" s="52">
         <v>0</v>
@@ -9968,7 +9961,7 @@
         <v>43</v>
       </c>
       <c r="T23" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="27">
@@ -9976,10 +9969,10 @@
         <v>55000021</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
@@ -9990,13 +9983,13 @@
       <c r="J24" s="48"/>
       <c r="K24" s="61"/>
       <c r="L24" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>693</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="O24" s="52">
         <v>0</v>
@@ -10007,10 +10000,10 @@
         <v>0</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="T24" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="24">
@@ -10029,7 +10022,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="60"/>
@@ -10054,7 +10047,7 @@
         <v>62</v>
       </c>
       <c r="T25" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="36">
@@ -10091,7 +10084,7 @@
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="R26" s="1">
         <v>400</v>
@@ -10100,7 +10093,7 @@
         <v>65</v>
       </c>
       <c r="T26" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="24">
@@ -10116,7 +10109,7 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="17"/>
@@ -10146,7 +10139,7 @@
         <v>67</v>
       </c>
       <c r="T27" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="24">
@@ -10162,7 +10155,7 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="17"/>
@@ -10192,7 +10185,7 @@
         <v>69</v>
       </c>
       <c r="T28" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -10203,7 +10196,7 @@
         <v>669</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
@@ -10220,7 +10213,7 @@
         <v>693</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="O29" s="14">
         <v>0</v>
@@ -10236,7 +10229,7 @@
         <v>671</v>
       </c>
       <c r="T29" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="48">
@@ -10266,7 +10259,7 @@
         <v>693</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="O30" s="14">
         <v>0</v>
@@ -10280,7 +10273,7 @@
         <v>71</v>
       </c>
       <c r="T30" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="24">
@@ -10299,7 +10292,7 @@
       <c r="G31" s="18"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="J31" s="21"/>
       <c r="K31" s="60"/>
@@ -10324,7 +10317,7 @@
         <v>74</v>
       </c>
       <c r="T31" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="36">
@@ -10340,7 +10333,7 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32" t="s">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="17" t="s">
@@ -10356,7 +10349,7 @@
         <v>693</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="O32" s="10">
         <v>0</v>
@@ -10370,7 +10363,7 @@
         <v>77</v>
       </c>
       <c r="T32" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="48">
@@ -10388,7 +10381,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="18"/>
       <c r="H33" s="17" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="21"/>
@@ -10400,7 +10393,7 @@
         <v>693</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="O33" s="10">
         <v>0</v>
@@ -10414,7 +10407,7 @@
         <v>79</v>
       </c>
       <c r="T33" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="36">
@@ -10432,7 +10425,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="18"/>
       <c r="H34" s="17" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="21"/>
@@ -10444,7 +10437,7 @@
         <v>693</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="O34" s="10">
         <v>0</v>
@@ -10458,7 +10451,7 @@
         <v>81</v>
       </c>
       <c r="T34" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="36">
@@ -10476,7 +10469,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="18"/>
       <c r="H35" s="17" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="21"/>
@@ -10488,7 +10481,7 @@
         <v>693</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="O35" s="10">
         <v>0</v>
@@ -10502,7 +10495,7 @@
         <v>83</v>
       </c>
       <c r="T35" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="36">
@@ -10520,7 +10513,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="18"/>
       <c r="H36" s="17" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="I36" s="17"/>
       <c r="J36" s="21"/>
@@ -10532,7 +10525,7 @@
         <v>693</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="O36" s="10">
         <v>0</v>
@@ -10546,7 +10539,7 @@
         <v>85</v>
       </c>
       <c r="T36" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="36">
@@ -10585,7 +10578,7 @@
         <v>88</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="R37" s="1">
         <v>2000</v>
@@ -10594,7 +10587,7 @@
         <v>89</v>
       </c>
       <c r="T37" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="48">
@@ -10614,7 +10607,7 @@
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="17" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="I38" s="17"/>
       <c r="J38" s="21"/>
@@ -10626,7 +10619,7 @@
         <v>693</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="O38" s="15">
         <v>0</v>
@@ -10640,7 +10633,7 @@
         <v>91</v>
       </c>
       <c r="T38" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="24">
@@ -10659,7 +10652,7 @@
       <c r="G39" s="18"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="J39" s="21"/>
       <c r="K39" s="60"/>
@@ -10670,7 +10663,7 @@
         <v>693</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="O39" s="10">
         <v>0</v>
@@ -10684,7 +10677,7 @@
         <v>93</v>
       </c>
       <c r="T39" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="24">
@@ -10703,7 +10696,7 @@
       <c r="G40" s="18"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="J40" s="21"/>
       <c r="K40" s="60"/>
@@ -10728,7 +10721,7 @@
         <v>95</v>
       </c>
       <c r="T40" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="36">
@@ -10742,7 +10735,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
@@ -10752,13 +10745,13 @@
       <c r="J41" s="21"/>
       <c r="K41" s="60"/>
       <c r="L41" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>693</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="O41" s="10">
         <v>0</v>
@@ -10772,7 +10765,7 @@
         <v>97</v>
       </c>
       <c r="T41" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="36">
@@ -10783,7 +10776,7 @@
         <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
@@ -10792,7 +10785,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="J42" s="21" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="K42" s="60"/>
       <c r="L42" s="1" t="s">
@@ -10802,7 +10795,7 @@
         <v>693</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="O42" s="10">
         <v>0</v>
@@ -10816,7 +10809,7 @@
         <v>99</v>
       </c>
       <c r="T42" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="36">
@@ -10832,7 +10825,7 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="17" t="s">
@@ -10842,13 +10835,13 @@
       <c r="J43" s="21"/>
       <c r="K43" s="60"/>
       <c r="L43" s="10" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>693</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="O43" s="10">
         <v>0</v>
@@ -10862,7 +10855,7 @@
         <v>102</v>
       </c>
       <c r="T43" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="36">
@@ -10876,7 +10869,7 @@
         <v>104</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
@@ -10892,14 +10885,14 @@
         <v>693</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="O44" s="10">
         <v>56000111</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R44" s="1">
         <v>300</v>
@@ -10908,7 +10901,7 @@
         <v>105</v>
       </c>
       <c r="T44" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="48">
@@ -10926,7 +10919,7 @@
       <c r="F45" s="32"/>
       <c r="G45" s="18"/>
       <c r="H45" s="17" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="21"/>
@@ -10938,7 +10931,7 @@
         <v>693</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="O45" s="15">
         <v>0</v>
@@ -10952,7 +10945,7 @@
         <v>107</v>
       </c>
       <c r="T45" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="48">
@@ -10972,7 +10965,7 @@
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="17" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I46" s="17"/>
       <c r="J46" s="21"/>
@@ -10984,7 +10977,7 @@
         <v>693</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="O46" s="10">
         <v>0</v>
@@ -10998,7 +10991,7 @@
         <v>109</v>
       </c>
       <c r="T46" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -11042,7 +11035,7 @@
         <v>112</v>
       </c>
       <c r="T47" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="36">
@@ -11058,7 +11051,7 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="17" t="s">
@@ -11074,7 +11067,7 @@
         <v>693</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="O48" s="10">
         <v>0</v>
@@ -11088,7 +11081,7 @@
         <v>132</v>
       </c>
       <c r="T48" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="24">
@@ -11107,7 +11100,7 @@
       <c r="G49" s="18"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="J49" s="21"/>
       <c r="K49" s="60"/>
@@ -11132,7 +11125,7 @@
         <v>134</v>
       </c>
       <c r="T49" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="36">
@@ -11153,7 +11146,7 @@
       <c r="G50" s="18"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="60"/>
@@ -11178,7 +11171,7 @@
         <v>137</v>
       </c>
       <c r="T50" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="72">
@@ -11192,10 +11185,10 @@
         <v>104</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="18"/>
@@ -11210,14 +11203,14 @@
         <v>693</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="O51" s="10">
         <v>0</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R51" s="1">
         <v>500</v>
@@ -11226,7 +11219,7 @@
         <v>139</v>
       </c>
       <c r="T51" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="48">
@@ -11242,7 +11235,7 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="17" t="s">
@@ -11272,7 +11265,7 @@
         <v>141</v>
       </c>
       <c r="T52" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="48">
@@ -11288,7 +11281,7 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="17" t="s">
@@ -11318,7 +11311,7 @@
         <v>143</v>
       </c>
       <c r="T53" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="48">
@@ -11334,7 +11327,7 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="17" t="s">
@@ -11364,7 +11357,7 @@
         <v>145</v>
       </c>
       <c r="T54" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="48">
@@ -11380,7 +11373,7 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="17" t="s">
@@ -11410,7 +11403,7 @@
         <v>147</v>
       </c>
       <c r="T55" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="48">
@@ -11426,7 +11419,7 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="17" t="s">
@@ -11456,7 +11449,7 @@
         <v>149</v>
       </c>
       <c r="T56" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="48">
@@ -11472,7 +11465,7 @@
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="32" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="17" t="s">
@@ -11502,7 +11495,7 @@
         <v>151</v>
       </c>
       <c r="T57" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="48">
@@ -11518,7 +11511,7 @@
       <c r="D58" s="33"/>
       <c r="E58" s="33"/>
       <c r="F58" s="32" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="17" t="s">
@@ -11548,7 +11541,7 @@
         <v>153</v>
       </c>
       <c r="T58" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="48">
@@ -11564,7 +11557,7 @@
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
       <c r="F59" s="32" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="17" t="s">
@@ -11594,7 +11587,7 @@
         <v>155</v>
       </c>
       <c r="T59" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="36">
@@ -11620,13 +11613,13 @@
       <c r="J60" s="21"/>
       <c r="K60" s="60"/>
       <c r="L60" s="10" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="M60" s="9" t="s">
         <v>693</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="O60" s="10">
         <v>0</v>
@@ -11640,7 +11633,7 @@
         <v>157</v>
       </c>
       <c r="T60" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="24">
@@ -11659,7 +11652,7 @@
       <c r="G61" s="18"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="J61" s="21"/>
       <c r="K61" s="60"/>
@@ -11670,7 +11663,7 @@
         <v>693</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="O61" s="10">
         <v>0</v>
@@ -11684,7 +11677,7 @@
         <v>159</v>
       </c>
       <c r="T61" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="120">
@@ -11732,7 +11725,7 @@
         <v>164</v>
       </c>
       <c r="T62" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="24">
@@ -11776,7 +11769,7 @@
         <v>167</v>
       </c>
       <c r="T63" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="36">
@@ -11794,21 +11787,21 @@
       <c r="F64" s="32"/>
       <c r="G64" s="18"/>
       <c r="H64" s="17" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="J64" s="21"/>
       <c r="K64" s="60"/>
       <c r="L64" s="10" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>693</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="O64" s="10">
         <v>0</v>
@@ -11822,7 +11815,7 @@
         <v>169</v>
       </c>
       <c r="T64" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="24">
@@ -11866,7 +11859,7 @@
         <v>171</v>
       </c>
       <c r="T65" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="24">
@@ -11887,7 +11880,7 @@
       <c r="G66" s="18"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="J66" s="21"/>
       <c r="K66" s="60"/>
@@ -11912,7 +11905,7 @@
         <v>174</v>
       </c>
       <c r="T66" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="24">
@@ -11933,7 +11926,7 @@
       <c r="G67" s="18"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="J67" s="21"/>
       <c r="K67" s="60"/>
@@ -11958,7 +11951,7 @@
         <v>177</v>
       </c>
       <c r="T67" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="24">
@@ -12002,7 +11995,7 @@
         <v>180</v>
       </c>
       <c r="T68" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="24">
@@ -12023,7 +12016,7 @@
       <c r="G69" s="18"/>
       <c r="H69" s="17"/>
       <c r="I69" s="17" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="J69" s="21"/>
       <c r="K69" s="60"/>
@@ -12034,7 +12027,7 @@
         <v>693</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="O69" s="10">
         <v>0</v>
@@ -12048,7 +12041,7 @@
         <v>182</v>
       </c>
       <c r="T69" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="48">
@@ -12059,7 +12052,7 @@
         <v>183</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D70" s="33"/>
       <c r="E70" s="33"/>
@@ -12068,7 +12061,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="22"/>
       <c r="J70" s="21" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="K70" s="60"/>
       <c r="L70" s="1" t="s">
@@ -12078,7 +12071,7 @@
         <v>693</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="O70" s="10">
         <v>0</v>
@@ -12087,7 +12080,7 @@
         <v>185</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="R70" s="1">
         <v>1500</v>
@@ -12096,10 +12089,10 @@
         <v>186</v>
       </c>
       <c r="T70" s="53" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="24">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="156">
       <c r="A71">
         <v>55000084</v>
       </c>
@@ -12107,16 +12100,16 @@
         <v>187</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D71" s="33"/>
+        <v>1024</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>1450</v>
+      </c>
       <c r="E71" s="33"/>
       <c r="F71" s="32"/>
       <c r="G71" s="18"/>
       <c r="H71" s="17"/>
-      <c r="I71" s="22" t="s">
-        <v>903</v>
-      </c>
+      <c r="I71" s="22"/>
       <c r="J71" s="23"/>
       <c r="K71" s="62"/>
       <c r="L71" s="1" t="s">
@@ -12126,7 +12119,7 @@
         <v>693</v>
       </c>
       <c r="N71" s="10" t="s">
-        <v>902</v>
+        <v>1443</v>
       </c>
       <c r="O71" s="10">
         <v>0</v>
@@ -12135,7 +12128,7 @@
         <v>185</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="R71" s="1">
         <v>1000</v>
@@ -12144,7 +12137,7 @@
         <v>188</v>
       </c>
       <c r="T71" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="36">
@@ -12164,7 +12157,7 @@
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="17" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="21"/>
@@ -12176,7 +12169,7 @@
         <v>693</v>
       </c>
       <c r="N72" s="10" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="O72" s="10">
         <v>0</v>
@@ -12190,7 +12183,7 @@
         <v>190</v>
       </c>
       <c r="T72" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="36">
@@ -12236,7 +12229,7 @@
         <v>192</v>
       </c>
       <c r="T73" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="24">
@@ -12255,7 +12248,7 @@
       <c r="G74" s="18"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="J74" s="21"/>
       <c r="K74" s="60"/>
@@ -12280,7 +12273,7 @@
         <v>194</v>
       </c>
       <c r="T74" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="24">
@@ -12299,7 +12292,7 @@
       <c r="G75" s="18"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="J75" s="21"/>
       <c r="K75" s="60"/>
@@ -12324,7 +12317,7 @@
         <v>196</v>
       </c>
       <c r="T75" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="24">
@@ -12343,7 +12336,7 @@
       <c r="G76" s="18"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="J76" s="21"/>
       <c r="K76" s="60"/>
@@ -12354,7 +12347,7 @@
         <v>693</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="O76" s="10">
         <v>0</v>
@@ -12368,7 +12361,7 @@
         <v>198</v>
       </c>
       <c r="T76" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="48">
@@ -12382,7 +12375,7 @@
         <v>101</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="E77" s="33"/>
       <c r="F77" s="32"/>
@@ -12412,7 +12405,7 @@
         <v>201</v>
       </c>
       <c r="T77" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="24">
@@ -12431,7 +12424,7 @@
       <c r="G78" s="18"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="J78" s="21"/>
       <c r="K78" s="60"/>
@@ -12456,7 +12449,7 @@
         <v>203</v>
       </c>
       <c r="T78" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="36">
@@ -12467,7 +12460,7 @@
         <v>184</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D79" s="33"/>
       <c r="E79" s="33"/>
@@ -12476,7 +12469,7 @@
       <c r="H79" s="17"/>
       <c r="I79" s="22"/>
       <c r="J79" s="19" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="K79" s="63"/>
       <c r="L79" s="1" t="s">
@@ -12486,16 +12479,16 @@
         <v>693</v>
       </c>
       <c r="N79" s="10" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="O79" s="10">
         <v>0</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="R79" s="1">
         <v>500</v>
@@ -12504,7 +12497,7 @@
         <v>204</v>
       </c>
       <c r="T79" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="24">
@@ -12523,7 +12516,7 @@
       <c r="G80" s="18"/>
       <c r="H80" s="17"/>
       <c r="I80" s="17" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="J80" s="21"/>
       <c r="K80" s="60"/>
@@ -12534,7 +12527,7 @@
         <v>693</v>
       </c>
       <c r="N80" s="10" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="O80" s="10">
         <v>0</v>
@@ -12548,7 +12541,7 @@
         <v>206</v>
       </c>
       <c r="T80" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="24">
@@ -12567,7 +12560,7 @@
       <c r="G81" s="18"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="J81" s="21"/>
       <c r="K81" s="60"/>
@@ -12592,7 +12585,7 @@
         <v>208</v>
       </c>
       <c r="T81" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="24">
@@ -12611,7 +12604,7 @@
       <c r="G82" s="18"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="J82" s="21"/>
       <c r="K82" s="60"/>
@@ -12636,7 +12629,7 @@
         <v>210</v>
       </c>
       <c r="T82" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="84">
@@ -12654,7 +12647,7 @@
       <c r="F83" s="32"/>
       <c r="G83" s="18"/>
       <c r="H83" s="17" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I83" s="17"/>
       <c r="J83" s="21"/>
@@ -12666,7 +12659,7 @@
         <v>693</v>
       </c>
       <c r="N83" s="15" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O83" s="15">
         <v>0</v>
@@ -12680,7 +12673,7 @@
         <v>212</v>
       </c>
       <c r="T83" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="48">
@@ -12694,7 +12687,7 @@
         <v>104</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="E84" s="33"/>
       <c r="F84" s="32"/>
@@ -12710,14 +12703,14 @@
         <v>693</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="O84" s="10">
         <v>56000101</v>
       </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R84" s="1">
         <v>80</v>
@@ -12726,7 +12719,7 @@
         <v>214</v>
       </c>
       <c r="T84" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="84">
@@ -12742,12 +12735,12 @@
       <c r="D85" s="33"/>
       <c r="E85" s="33"/>
       <c r="F85" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G85" s="18"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17" t="s">
-        <v>1352</v>
+        <v>1444</v>
       </c>
       <c r="J85" s="21"/>
       <c r="K85" s="60"/>
@@ -12758,16 +12751,16 @@
         <v>693</v>
       </c>
       <c r="N85" s="10" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="O85" s="10">
         <v>0</v>
       </c>
       <c r="P85" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="Q85" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R85" s="1">
         <f>800*3*2/12</f>
@@ -12777,7 +12770,7 @@
         <v>217</v>
       </c>
       <c r="T85" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="36">
@@ -12791,7 +12784,7 @@
         <v>76</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E86" s="33"/>
       <c r="F86" s="32"/>
@@ -12821,7 +12814,7 @@
         <v>220</v>
       </c>
       <c r="T86" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="36">
@@ -12869,7 +12862,7 @@
         <v>223</v>
       </c>
       <c r="T87" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -12889,7 +12882,7 @@
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
       <c r="J88" s="21" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="K88" s="60"/>
       <c r="L88" s="1" t="s">
@@ -12899,7 +12892,7 @@
         <v>693</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="O88" s="10">
         <v>0</v>
@@ -12913,7 +12906,7 @@
         <v>225</v>
       </c>
       <c r="T88" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -12933,7 +12926,7 @@
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="21" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="K89" s="60"/>
       <c r="L89" s="1" t="s">
@@ -12943,7 +12936,7 @@
         <v>693</v>
       </c>
       <c r="N89" s="10" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="O89" s="10">
         <v>0</v>
@@ -12957,7 +12950,7 @@
         <v>227</v>
       </c>
       <c r="T89" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -12985,7 +12978,7 @@
         <v>693</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="O90" s="1">
         <v>0</v>
@@ -12999,7 +12992,7 @@
         <v>229</v>
       </c>
       <c r="T90" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="36">
@@ -13045,10 +13038,10 @@
         <v>231</v>
       </c>
       <c r="T91" s="53" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="96">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="84">
       <c r="A92">
         <v>55000105</v>
       </c>
@@ -13061,12 +13054,12 @@
       <c r="D92" s="33"/>
       <c r="E92" s="33"/>
       <c r="F92" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G92" s="18"/>
       <c r="H92" s="17"/>
       <c r="I92" s="17" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J92" s="21"/>
       <c r="K92" s="60"/>
@@ -13077,16 +13070,16 @@
         <v>693</v>
       </c>
       <c r="N92" s="10" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="O92" s="10">
         <v>0</v>
       </c>
       <c r="P92" s="10" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="Q92" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R92" s="1">
         <f>1000*1.5*2/12</f>
@@ -13096,7 +13089,7 @@
         <v>233</v>
       </c>
       <c r="T92" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="48">
@@ -13116,7 +13109,7 @@
       </c>
       <c r="G93" s="18"/>
       <c r="H93" s="17" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="21"/>
@@ -13128,7 +13121,7 @@
         <v>693</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="O93" s="10">
         <v>0</v>
@@ -13142,7 +13135,7 @@
         <v>235</v>
       </c>
       <c r="T93" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="36">
@@ -13158,7 +13151,7 @@
       <c r="D94" s="33"/>
       <c r="E94" s="33"/>
       <c r="F94" s="32" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G94" s="18"/>
       <c r="H94" s="17" t="s">
@@ -13168,13 +13161,13 @@
       <c r="J94" s="21"/>
       <c r="K94" s="60"/>
       <c r="L94" s="10" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="M94" s="9" t="s">
         <v>693</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="O94" s="10">
         <v>0</v>
@@ -13188,7 +13181,7 @@
         <v>237</v>
       </c>
       <c r="T94" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="48">
@@ -13202,7 +13195,7 @@
         <v>104</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="E95" s="33"/>
       <c r="F95" s="32"/>
@@ -13218,14 +13211,14 @@
         <v>693</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="O95" s="10">
         <v>56000101</v>
       </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R95" s="1">
         <v>80</v>
@@ -13234,7 +13227,7 @@
         <v>239</v>
       </c>
       <c r="T95" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="36">
@@ -13278,7 +13271,7 @@
         <v>242</v>
       </c>
       <c r="T96" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="24">
@@ -13322,7 +13315,7 @@
         <v>245</v>
       </c>
       <c r="T97" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="36">
@@ -13370,7 +13363,7 @@
         <v>248</v>
       </c>
       <c r="T98" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="24">
@@ -13381,17 +13374,17 @@
         <v>249</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D99" s="33"/>
       <c r="E99" s="33"/>
       <c r="F99" s="32"/>
       <c r="G99" s="18" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H99" s="17"/>
       <c r="I99" s="17" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="J99" s="21"/>
       <c r="K99" s="60"/>
@@ -13402,7 +13395,7 @@
         <v>693</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="O99" s="10">
         <v>0</v>
@@ -13416,7 +13409,7 @@
         <v>250</v>
       </c>
       <c r="T99" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="48">
@@ -13430,7 +13423,7 @@
         <v>104</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="E100" s="33"/>
       <c r="F100" s="32"/>
@@ -13446,14 +13439,14 @@
         <v>693</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="O100" s="10">
         <v>56000101</v>
       </c>
       <c r="P100" s="1"/>
       <c r="Q100" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R100" s="1">
         <v>111</v>
@@ -13462,7 +13455,7 @@
         <v>252</v>
       </c>
       <c r="T100" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="24">
@@ -13481,7 +13474,7 @@
       <c r="G101" s="18"/>
       <c r="H101" s="17"/>
       <c r="I101" s="17" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="J101" s="21"/>
       <c r="K101" s="60"/>
@@ -13492,7 +13485,7 @@
         <v>693</v>
       </c>
       <c r="N101" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="O101" s="10">
         <v>0</v>
@@ -13506,7 +13499,7 @@
         <v>254</v>
       </c>
       <c r="T101" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="36">
@@ -13545,7 +13538,7 @@
         <v>88</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="R102" s="1">
         <v>2000</v>
@@ -13554,7 +13547,7 @@
         <v>256</v>
       </c>
       <c r="T102" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="24">
@@ -13573,7 +13566,7 @@
       <c r="G103" s="18"/>
       <c r="H103" s="17"/>
       <c r="I103" s="17" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="J103" s="21"/>
       <c r="K103" s="60"/>
@@ -13584,7 +13577,7 @@
         <v>693</v>
       </c>
       <c r="N103" s="10" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="O103" s="10">
         <v>0</v>
@@ -13598,7 +13591,7 @@
         <v>258</v>
       </c>
       <c r="T103" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="60">
@@ -13644,7 +13637,7 @@
         <v>260</v>
       </c>
       <c r="T104" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="48">
@@ -13658,7 +13651,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="E105" s="33"/>
       <c r="F105" s="32"/>
@@ -13674,14 +13667,14 @@
         <v>693</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="O105" s="10">
         <v>56000101</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R105" s="1">
         <v>83</v>
@@ -13690,7 +13683,7 @@
         <v>262</v>
       </c>
       <c r="T105" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="48">
@@ -13727,7 +13720,7 @@
       </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="R106" s="1">
         <v>700</v>
@@ -13736,7 +13729,7 @@
         <v>264</v>
       </c>
       <c r="T106" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="24">
@@ -13755,7 +13748,7 @@
       <c r="G107" s="18"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="J107" s="21"/>
       <c r="K107" s="60"/>
@@ -13766,7 +13759,7 @@
         <v>693</v>
       </c>
       <c r="N107" s="10" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="O107" s="10">
         <v>0</v>
@@ -13780,7 +13773,7 @@
         <v>266</v>
       </c>
       <c r="T107" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="24">
@@ -13828,7 +13821,7 @@
         <v>269</v>
       </c>
       <c r="T108" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="36">
@@ -13848,7 +13841,7 @@
       </c>
       <c r="G109" s="18"/>
       <c r="H109" s="17" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I109" s="17"/>
       <c r="J109" s="21"/>
@@ -13860,7 +13853,7 @@
         <v>693</v>
       </c>
       <c r="N109" s="10" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O109" s="10">
         <v>0</v>
@@ -13874,7 +13867,7 @@
         <v>271</v>
       </c>
       <c r="T109" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="36">
@@ -13894,7 +13887,7 @@
       </c>
       <c r="G110" s="18"/>
       <c r="H110" s="17" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I110" s="17"/>
       <c r="J110" s="21"/>
@@ -13906,7 +13899,7 @@
         <v>693</v>
       </c>
       <c r="N110" s="15" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="O110" s="15">
         <v>0</v>
@@ -13920,7 +13913,7 @@
         <v>273</v>
       </c>
       <c r="T110" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="48">
@@ -13934,7 +13927,7 @@
         <v>104</v>
       </c>
       <c r="D111" s="33" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
       <c r="E111" s="33"/>
       <c r="F111" s="32"/>
@@ -13950,14 +13943,14 @@
         <v>693</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="O111" s="10">
         <v>56000101</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R111" s="1">
         <v>111</v>
@@ -13966,7 +13959,7 @@
         <v>275</v>
       </c>
       <c r="T111" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="36">
@@ -14010,7 +14003,7 @@
         <v>278</v>
       </c>
       <c r="T112" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="113" spans="1:20" ht="48">
@@ -14028,7 +14021,7 @@
       <c r="F113" s="32"/>
       <c r="G113" s="18"/>
       <c r="H113" s="17" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="I113" s="17"/>
       <c r="J113" s="21"/>
@@ -14040,7 +14033,7 @@
         <v>693</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="O113" s="10">
         <v>0</v>
@@ -14054,7 +14047,7 @@
         <v>280</v>
       </c>
       <c r="T113" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -14082,7 +14075,7 @@
         <v>693</v>
       </c>
       <c r="N114" s="10" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="O114" s="10">
         <v>0</v>
@@ -14096,7 +14089,7 @@
         <v>282</v>
       </c>
       <c r="T114" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -14124,7 +14117,7 @@
         <v>693</v>
       </c>
       <c r="N115" s="10" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="O115" s="10">
         <v>0</v>
@@ -14138,7 +14131,7 @@
         <v>284</v>
       </c>
       <c r="T115" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="24">
@@ -14157,7 +14150,7 @@
       <c r="G116" s="18"/>
       <c r="H116" s="17"/>
       <c r="I116" s="17" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="J116" s="21"/>
       <c r="K116" s="60"/>
@@ -14168,7 +14161,7 @@
         <v>693</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="O116" s="1">
         <v>0</v>
@@ -14182,7 +14175,7 @@
         <v>286</v>
       </c>
       <c r="T116" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="117" spans="1:20" ht="24">
@@ -14201,7 +14194,7 @@
       <c r="G117" s="18"/>
       <c r="H117" s="17"/>
       <c r="I117" s="17" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="J117" s="21"/>
       <c r="K117" s="60"/>
@@ -14212,7 +14205,7 @@
         <v>693</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="O117" s="1">
         <v>0</v>
@@ -14226,7 +14219,7 @@
         <v>288</v>
       </c>
       <c r="T117" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="118" spans="1:20" ht="24">
@@ -14245,7 +14238,7 @@
       <c r="G118" s="18"/>
       <c r="H118" s="17"/>
       <c r="I118" s="17" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="J118" s="21"/>
       <c r="K118" s="60"/>
@@ -14256,7 +14249,7 @@
         <v>693</v>
       </c>
       <c r="N118" s="10" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="O118" s="10">
         <v>0</v>
@@ -14270,7 +14263,7 @@
         <v>290</v>
       </c>
       <c r="T118" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="119" spans="1:20" ht="36">
@@ -14289,7 +14282,7 @@
       <c r="G119" s="18"/>
       <c r="H119" s="17"/>
       <c r="I119" s="17" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="J119" s="21"/>
       <c r="K119" s="60"/>
@@ -14300,7 +14293,7 @@
         <v>693</v>
       </c>
       <c r="N119" s="10" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="O119" s="10">
         <v>0</v>
@@ -14314,10 +14307,10 @@
         <v>292</v>
       </c>
       <c r="T119" s="53" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" ht="120">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" ht="108">
       <c r="A120">
         <v>55000133</v>
       </c>
@@ -14328,7 +14321,7 @@
         <v>104</v>
       </c>
       <c r="D120" s="33" t="s">
-        <v>1394</v>
+        <v>1445</v>
       </c>
       <c r="E120" s="33"/>
       <c r="F120" s="29"/>
@@ -14344,7 +14337,7 @@
         <v>693</v>
       </c>
       <c r="N120" s="10" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="O120" s="10">
         <v>56000016</v>
@@ -14358,7 +14351,7 @@
         <v>294</v>
       </c>
       <c r="T120" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="121" spans="1:20" ht="60">
@@ -14372,10 +14365,10 @@
         <v>104</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E121" s="33" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="F121" s="32"/>
       <c r="G121" s="18"/>
@@ -14390,7 +14383,7 @@
         <v>693</v>
       </c>
       <c r="N121" s="10" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="O121" s="10">
         <v>0</v>
@@ -14404,7 +14397,7 @@
         <v>296</v>
       </c>
       <c r="T121" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="36">
@@ -14422,7 +14415,7 @@
       <c r="F122" s="32"/>
       <c r="G122" s="18"/>
       <c r="H122" s="17" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="I122" s="17"/>
       <c r="J122" s="21"/>
@@ -14434,7 +14427,7 @@
         <v>693</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="O122" s="1">
         <v>0</v>
@@ -14448,7 +14441,7 @@
         <v>298</v>
       </c>
       <c r="T122" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="24">
@@ -14467,7 +14460,7 @@
       <c r="G123" s="18"/>
       <c r="H123" s="17"/>
       <c r="I123" s="17" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="J123" s="21"/>
       <c r="K123" s="60"/>
@@ -14492,7 +14485,7 @@
         <v>300</v>
       </c>
       <c r="T123" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="48">
@@ -14506,7 +14499,7 @@
         <v>104</v>
       </c>
       <c r="D124" s="33" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
       <c r="E124" s="33"/>
       <c r="F124" s="32"/>
@@ -14522,14 +14515,14 @@
         <v>693</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="O124" s="10">
         <v>56000101</v>
       </c>
       <c r="P124" s="1"/>
       <c r="Q124" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R124" s="1">
         <v>111</v>
@@ -14538,7 +14531,7 @@
         <v>302</v>
       </c>
       <c r="T124" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="125" spans="1:20" ht="36">
@@ -14582,7 +14575,7 @@
         <v>305</v>
       </c>
       <c r="T125" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="48">
@@ -14596,7 +14589,7 @@
         <v>104</v>
       </c>
       <c r="D126" s="33" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="E126" s="33"/>
       <c r="F126" s="32"/>
@@ -14612,14 +14605,14 @@
         <v>693</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="O126" s="10">
         <v>56000101</v>
       </c>
       <c r="P126" s="1"/>
       <c r="Q126" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R126" s="1">
         <v>111</v>
@@ -14628,7 +14621,7 @@
         <v>307</v>
       </c>
       <c r="T126" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="127" spans="1:20" ht="48">
@@ -14642,7 +14635,7 @@
         <v>104</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="E127" s="33"/>
       <c r="F127" s="32"/>
@@ -14658,14 +14651,14 @@
         <v>693</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="O127" s="10">
         <v>56000101</v>
       </c>
       <c r="P127" s="1"/>
       <c r="Q127" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R127" s="1">
         <v>111</v>
@@ -14674,7 +14667,7 @@
         <v>309</v>
       </c>
       <c r="T127" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="128" spans="1:20" ht="48">
@@ -14688,7 +14681,7 @@
         <v>104</v>
       </c>
       <c r="D128" s="33" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
       <c r="E128" s="33"/>
       <c r="F128" s="32"/>
@@ -14704,14 +14697,14 @@
         <v>693</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="O128" s="10">
         <v>56000101</v>
       </c>
       <c r="P128" s="1"/>
       <c r="Q128" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R128" s="1">
         <v>111</v>
@@ -14720,7 +14713,7 @@
         <v>311</v>
       </c>
       <c r="T128" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="129" spans="1:20" ht="36">
@@ -14764,7 +14757,7 @@
         <v>314</v>
       </c>
       <c r="T129" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="130" spans="1:20" ht="24">
@@ -14775,7 +14768,7 @@
         <v>315</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D130" s="33"/>
       <c r="E130" s="33"/>
@@ -14786,7 +14779,7 @@
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
       <c r="J130" s="21" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="K130" s="60"/>
       <c r="L130" s="1" t="s">
@@ -14796,7 +14789,7 @@
         <v>693</v>
       </c>
       <c r="N130" s="10" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="O130" s="10">
         <v>0</v>
@@ -14813,7 +14806,7 @@
         <v>317</v>
       </c>
       <c r="T130" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="131" spans="1:20" ht="48">
@@ -14827,7 +14820,7 @@
         <v>104</v>
       </c>
       <c r="D131" s="33" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="E131" s="33"/>
       <c r="F131" s="32"/>
@@ -14843,14 +14836,14 @@
         <v>693</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="O131" s="10">
         <v>56000101</v>
       </c>
       <c r="P131" s="1"/>
       <c r="Q131" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R131" s="1">
         <v>111</v>
@@ -14859,7 +14852,7 @@
         <v>319</v>
       </c>
       <c r="T131" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="24">
@@ -14903,7 +14896,7 @@
         <v>322</v>
       </c>
       <c r="T132" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="133" spans="1:20" ht="48">
@@ -14917,7 +14910,7 @@
         <v>104</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="E133" s="33"/>
       <c r="F133" s="32"/>
@@ -14933,14 +14926,14 @@
         <v>693</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="O133" s="10">
         <v>56000101</v>
       </c>
       <c r="P133" s="1"/>
       <c r="Q133" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R133" s="1">
         <v>111</v>
@@ -14949,7 +14942,7 @@
         <v>324</v>
       </c>
       <c r="T133" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="134" spans="1:20" ht="36">
@@ -14993,7 +14986,7 @@
         <v>327</v>
       </c>
       <c r="T134" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="135" spans="1:20" ht="48">
@@ -15007,7 +15000,7 @@
         <v>104</v>
       </c>
       <c r="D135" s="33" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
       <c r="E135" s="33"/>
       <c r="F135" s="32"/>
@@ -15023,14 +15016,14 @@
         <v>693</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="O135" s="10">
         <v>56000101</v>
       </c>
       <c r="P135" s="1"/>
       <c r="Q135" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R135" s="1">
         <v>111</v>
@@ -15039,7 +15032,7 @@
         <v>329</v>
       </c>
       <c r="T135" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="136" spans="1:20" ht="36">
@@ -15083,7 +15076,7 @@
         <v>332</v>
       </c>
       <c r="T136" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="137" spans="1:20" ht="24">
@@ -15097,7 +15090,7 @@
         <v>76</v>
       </c>
       <c r="D137" s="33" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E137" s="33"/>
       <c r="F137" s="32"/>
@@ -15113,7 +15106,7 @@
         <v>693</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="O137" s="1">
         <v>0</v>
@@ -15127,7 +15120,7 @@
         <v>334</v>
       </c>
       <c r="T137" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="138" spans="1:20" ht="36">
@@ -15141,7 +15134,7 @@
         <v>104</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
       <c r="E138" s="33"/>
       <c r="F138" s="32"/>
@@ -15157,14 +15150,14 @@
         <v>693</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="O138" s="10">
         <v>56000015</v>
       </c>
       <c r="P138" s="1"/>
       <c r="Q138" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R138" s="1">
         <v>200</v>
@@ -15173,7 +15166,7 @@
         <v>336</v>
       </c>
       <c r="T138" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="139" spans="1:20" ht="24">
@@ -15184,7 +15177,7 @@
         <v>337</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D139" s="33"/>
       <c r="E139" s="33"/>
@@ -15193,7 +15186,7 @@
       <c r="H139" s="17"/>
       <c r="I139" s="22"/>
       <c r="J139" s="21" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="K139" s="60"/>
       <c r="L139" s="1" t="s">
@@ -15203,7 +15196,7 @@
         <v>693</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="O139" s="10">
         <v>0</v>
@@ -15212,7 +15205,7 @@
         <v>185</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="R139" s="1">
         <v>300</v>
@@ -15221,7 +15214,7 @@
         <v>338</v>
       </c>
       <c r="T139" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="140" spans="1:20" ht="48">
@@ -15235,7 +15228,7 @@
         <v>104</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="E140" s="33"/>
       <c r="F140" s="32"/>
@@ -15251,14 +15244,14 @@
         <v>693</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="O140" s="10">
         <v>56000121</v>
       </c>
       <c r="P140" s="1"/>
       <c r="Q140" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R140" s="1">
         <v>27</v>
@@ -15267,7 +15260,7 @@
         <v>340</v>
       </c>
       <c r="T140" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="141" spans="1:20" ht="24">
@@ -15278,7 +15271,7 @@
         <v>341</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D141" s="33"/>
       <c r="E141" s="33"/>
@@ -15286,7 +15279,7 @@
       <c r="G141" s="18"/>
       <c r="H141" s="17"/>
       <c r="I141" s="17" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="J141" s="21"/>
       <c r="K141" s="60"/>
@@ -15311,7 +15304,7 @@
         <v>343</v>
       </c>
       <c r="T141" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="142" spans="1:20" ht="24">
@@ -15330,7 +15323,7 @@
       <c r="G142" s="18"/>
       <c r="H142" s="17"/>
       <c r="I142" s="17" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="J142" s="21"/>
       <c r="K142" s="60"/>
@@ -15341,7 +15334,7 @@
         <v>693</v>
       </c>
       <c r="N142" s="10" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="O142" s="10">
         <v>0</v>
@@ -15355,7 +15348,7 @@
         <v>346</v>
       </c>
       <c r="T142" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="143" spans="1:20" ht="24">
@@ -15374,7 +15367,7 @@
       <c r="G143" s="18"/>
       <c r="H143" s="17"/>
       <c r="I143" s="17" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="J143" s="21"/>
       <c r="K143" s="60"/>
@@ -15385,7 +15378,7 @@
         <v>693</v>
       </c>
       <c r="N143" s="10" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="O143" s="10">
         <v>0</v>
@@ -15399,7 +15392,7 @@
         <v>348</v>
       </c>
       <c r="T143" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="144" spans="1:20" ht="36">
@@ -15418,7 +15411,7 @@
       <c r="G144" s="18"/>
       <c r="H144" s="17"/>
       <c r="I144" s="17" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="J144" s="21"/>
       <c r="K144" s="60"/>
@@ -15429,7 +15422,7 @@
         <v>693</v>
       </c>
       <c r="N144" s="10" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="O144" s="10">
         <v>0</v>
@@ -15443,7 +15436,7 @@
         <v>350</v>
       </c>
       <c r="T144" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="145" spans="1:20" ht="24">
@@ -15464,7 +15457,7 @@
       <c r="G145" s="18"/>
       <c r="H145" s="17"/>
       <c r="I145" s="17" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="J145" s="21"/>
       <c r="K145" s="60"/>
@@ -15489,7 +15482,7 @@
         <v>353</v>
       </c>
       <c r="T145" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="146" spans="1:20" ht="36">
@@ -15505,11 +15498,11 @@
       <c r="D146" s="33"/>
       <c r="E146" s="33"/>
       <c r="F146" s="32" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="G146" s="18"/>
       <c r="H146" s="17" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I146" s="17"/>
       <c r="J146" s="21"/>
@@ -15521,7 +15514,7 @@
         <v>693</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="O146" s="1">
         <v>0</v>
@@ -15535,7 +15528,7 @@
         <v>355</v>
       </c>
       <c r="T146" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="147" spans="1:20" ht="24">
@@ -15554,7 +15547,7 @@
       <c r="G147" s="18"/>
       <c r="H147" s="17"/>
       <c r="I147" s="17" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="J147" s="21"/>
       <c r="K147" s="60"/>
@@ -15565,7 +15558,7 @@
         <v>693</v>
       </c>
       <c r="N147" s="10" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="O147" s="10">
         <v>0</v>
@@ -15579,7 +15572,7 @@
         <v>357</v>
       </c>
       <c r="T147" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="148" spans="1:20" ht="48">
@@ -15593,7 +15586,7 @@
         <v>104</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="E148" s="33"/>
       <c r="F148" s="32"/>
@@ -15609,14 +15602,14 @@
         <v>693</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="O148" s="10">
         <v>56000101</v>
       </c>
       <c r="P148" s="1"/>
       <c r="Q148" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R148" s="1">
         <v>83</v>
@@ -15625,7 +15618,7 @@
         <v>359</v>
       </c>
       <c r="T148" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="149" spans="1:20" ht="48">
@@ -15639,7 +15632,7 @@
         <v>104</v>
       </c>
       <c r="D149" s="33" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="E149" s="33"/>
       <c r="F149" s="32"/>
@@ -15655,14 +15648,14 @@
         <v>693</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="O149" s="10">
         <v>56000101</v>
       </c>
       <c r="P149" s="1"/>
       <c r="Q149" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R149" s="1">
         <v>100</v>
@@ -15671,7 +15664,7 @@
         <v>361</v>
       </c>
       <c r="T149" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="150" spans="1:20" ht="36">
@@ -15691,7 +15684,7 @@
       </c>
       <c r="G150" s="18"/>
       <c r="H150" s="17" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I150" s="17"/>
       <c r="J150" s="21"/>
@@ -15712,7 +15705,7 @@
         <v>88</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="R150" s="1">
         <v>1000</v>
@@ -15721,7 +15714,7 @@
         <v>364</v>
       </c>
       <c r="T150" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="151" spans="1:20" ht="36">
@@ -15739,7 +15732,7 @@
       <c r="F151" s="32"/>
       <c r="G151" s="18"/>
       <c r="H151" s="17" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I151" s="17"/>
       <c r="J151" s="21"/>
@@ -15751,7 +15744,7 @@
         <v>693</v>
       </c>
       <c r="N151" s="15" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="O151" s="15">
         <v>0</v>
@@ -15765,7 +15758,7 @@
         <v>366</v>
       </c>
       <c r="T151" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="152" spans="1:20" ht="24">
@@ -15786,7 +15779,7 @@
       <c r="G152" s="18"/>
       <c r="H152" s="17"/>
       <c r="I152" s="17" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="J152" s="21"/>
       <c r="K152" s="60"/>
@@ -15797,7 +15790,7 @@
         <v>693</v>
       </c>
       <c r="N152" s="10" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="O152" s="10">
         <v>0</v>
@@ -15811,7 +15804,7 @@
         <v>368</v>
       </c>
       <c r="T152" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="153" spans="1:20" ht="48">
@@ -15825,7 +15818,7 @@
         <v>1</v>
       </c>
       <c r="D153" s="33" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="E153" s="33"/>
       <c r="F153" s="32"/>
@@ -15841,7 +15834,7 @@
         <v>693</v>
       </c>
       <c r="N153" s="10" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="O153" s="10">
         <v>0</v>
@@ -15855,7 +15848,7 @@
         <v>370</v>
       </c>
       <c r="T153" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="154" spans="1:20" ht="24">
@@ -15871,7 +15864,7 @@
       <c r="D154" s="33"/>
       <c r="E154" s="33"/>
       <c r="F154" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G154" s="18"/>
       <c r="H154" s="17"/>
@@ -15901,7 +15894,7 @@
         <v>372</v>
       </c>
       <c r="T154" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="155" spans="1:20" ht="72">
@@ -15917,11 +15910,11 @@
       <c r="D155" s="33"/>
       <c r="E155" s="33"/>
       <c r="F155" s="32" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G155" s="18"/>
       <c r="H155" s="17" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I155" s="17"/>
       <c r="J155" s="21"/>
@@ -15933,7 +15926,7 @@
         <v>693</v>
       </c>
       <c r="N155" s="10" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="O155" s="10">
         <v>0</v>
@@ -15948,7 +15941,7 @@
         <v>374</v>
       </c>
       <c r="T155" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="156" spans="1:20" ht="60">
@@ -15964,7 +15957,7 @@
       <c r="D156" s="33"/>
       <c r="E156" s="33"/>
       <c r="F156" s="32" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="G156" s="18"/>
       <c r="H156" s="17" t="s">
@@ -15996,7 +15989,7 @@
         <v>377</v>
       </c>
       <c r="T156" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="157" spans="1:20" ht="48">
@@ -16010,7 +16003,7 @@
         <v>104</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
       <c r="E157" s="33"/>
       <c r="F157" s="32"/>
@@ -16026,14 +16019,14 @@
         <v>693</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="O157" s="10">
         <v>56000102</v>
       </c>
       <c r="P157" s="1"/>
       <c r="Q157" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R157" s="1">
         <v>112</v>
@@ -16042,7 +16035,7 @@
         <v>379</v>
       </c>
       <c r="T157" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="158" spans="1:20">
@@ -16070,7 +16063,7 @@
         <v>693</v>
       </c>
       <c r="N158" s="10" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="O158" s="10">
         <v>0</v>
@@ -16084,7 +16077,7 @@
         <v>381</v>
       </c>
       <c r="T158" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="159" spans="1:20" ht="36">
@@ -16100,7 +16093,7 @@
       <c r="D159" s="33"/>
       <c r="E159" s="33"/>
       <c r="F159" s="32" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="G159" s="18"/>
       <c r="H159" s="17" t="s">
@@ -16130,7 +16123,7 @@
         <v>383</v>
       </c>
       <c r="T159" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="160" spans="1:20" ht="36">
@@ -16146,11 +16139,11 @@
       <c r="D160" s="33"/>
       <c r="E160" s="33"/>
       <c r="F160" s="32" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="G160" s="18"/>
       <c r="H160" s="17" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="I160" s="17"/>
       <c r="J160" s="21"/>
@@ -16162,7 +16155,7 @@
         <v>693</v>
       </c>
       <c r="N160" s="15" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="O160" s="15">
         <v>0</v>
@@ -16176,7 +16169,7 @@
         <v>385</v>
       </c>
       <c r="T160" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="161" spans="1:20" ht="36">
@@ -16195,10 +16188,10 @@
         <v>751</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="I161" s="17"/>
       <c r="J161" s="21"/>
@@ -16210,7 +16203,7 @@
         <v>693</v>
       </c>
       <c r="N161" s="10" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="O161" s="10">
         <v>0</v>
@@ -16224,7 +16217,7 @@
         <v>387</v>
       </c>
       <c r="T161" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="162" spans="1:20" ht="36">
@@ -16270,7 +16263,7 @@
         <v>389</v>
       </c>
       <c r="T162" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="163" spans="1:20" ht="36">
@@ -16318,7 +16311,7 @@
         <v>392</v>
       </c>
       <c r="T163" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="164" spans="1:20" ht="24">
@@ -16350,7 +16343,7 @@
         <v>693</v>
       </c>
       <c r="N164" s="10" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="O164" s="10">
         <v>0</v>
@@ -16364,7 +16357,7 @@
         <v>394</v>
       </c>
       <c r="T164" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="165" spans="1:20" ht="108">
@@ -16378,10 +16371,10 @@
         <v>104</v>
       </c>
       <c r="D165" s="33" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E165" s="33" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F165" s="32"/>
       <c r="G165" s="18"/>
@@ -16396,7 +16389,7 @@
         <v>693</v>
       </c>
       <c r="N165" s="10" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="O165" s="10">
         <v>0</v>
@@ -16410,7 +16403,7 @@
         <v>396</v>
       </c>
       <c r="T165" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="166" spans="1:20" ht="96">
@@ -16424,10 +16417,10 @@
         <v>104</v>
       </c>
       <c r="D166" s="33" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E166" s="33" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="F166" s="32"/>
       <c r="G166" s="18"/>
@@ -16442,7 +16435,7 @@
         <v>693</v>
       </c>
       <c r="N166" s="10" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="O166" s="10">
         <v>0</v>
@@ -16456,7 +16449,7 @@
         <v>398</v>
       </c>
       <c r="T166" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="167" spans="1:20" ht="36">
@@ -16476,10 +16469,10 @@
       </c>
       <c r="G167" s="18"/>
       <c r="H167" s="17" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I167" s="17" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="J167" s="21"/>
       <c r="K167" s="60"/>
@@ -16490,7 +16483,7 @@
         <v>693</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="O167" s="1">
         <v>0</v>
@@ -16504,7 +16497,7 @@
         <v>400</v>
       </c>
       <c r="T167" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="168" spans="1:20" ht="24">
@@ -16523,7 +16516,7 @@
       <c r="G168" s="18"/>
       <c r="H168" s="17"/>
       <c r="I168" s="17" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="J168" s="21"/>
       <c r="K168" s="60"/>
@@ -16548,7 +16541,7 @@
         <v>402</v>
       </c>
       <c r="T168" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="169" spans="1:20" ht="24">
@@ -16596,7 +16589,7 @@
         <v>405</v>
       </c>
       <c r="T169" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="170" spans="1:20" ht="84">
@@ -16607,7 +16600,7 @@
         <v>406</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D170" s="33"/>
       <c r="E170" s="33"/>
@@ -16616,7 +16609,7 @@
       <c r="H170" s="17"/>
       <c r="I170" s="22"/>
       <c r="J170" s="21" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="K170" s="60"/>
       <c r="L170" s="1" t="s">
@@ -16626,7 +16619,7 @@
         <v>693</v>
       </c>
       <c r="N170" s="10" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="O170" s="10">
         <v>0</v>
@@ -16640,7 +16633,7 @@
         <v>407</v>
       </c>
       <c r="T170" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="171" spans="1:20" ht="24">
@@ -16659,7 +16652,7 @@
       <c r="G171" s="18"/>
       <c r="H171" s="17"/>
       <c r="I171" s="17" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="J171" s="21"/>
       <c r="K171" s="60"/>
@@ -16670,7 +16663,7 @@
         <v>693</v>
       </c>
       <c r="N171" s="10" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="O171" s="10">
         <v>0</v>
@@ -16684,7 +16677,7 @@
         <v>409</v>
       </c>
       <c r="T171" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="172" spans="1:20" ht="36">
@@ -16703,7 +16696,7 @@
       <c r="G172" s="18"/>
       <c r="H172" s="17"/>
       <c r="I172" s="17" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="J172" s="21"/>
       <c r="K172" s="60"/>
@@ -16714,7 +16707,7 @@
         <v>693</v>
       </c>
       <c r="N172" s="10" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="O172" s="10">
         <v>0</v>
@@ -16728,7 +16721,7 @@
         <v>411</v>
       </c>
       <c r="T172" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="173" spans="1:20" ht="36">
@@ -16774,7 +16767,7 @@
         <v>413</v>
       </c>
       <c r="T173" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="174" spans="1:20" ht="48">
@@ -16782,13 +16775,13 @@
         <v>55000187</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D174" s="33" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E174" s="33"/>
       <c r="F174" s="32"/>
@@ -16798,13 +16791,13 @@
       <c r="J174" s="21"/>
       <c r="K174" s="60"/>
       <c r="L174" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="M174" s="9" t="s">
         <v>693</v>
       </c>
       <c r="N174" s="10" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="O174" s="10">
         <v>0</v>
@@ -16815,10 +16808,10 @@
         <v>-1200</v>
       </c>
       <c r="S174" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="T174" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="175" spans="1:20" ht="24">
@@ -16862,7 +16855,7 @@
         <v>415</v>
       </c>
       <c r="T175" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="176" spans="1:20" ht="36">
@@ -16878,11 +16871,11 @@
       <c r="D176" s="33"/>
       <c r="E176" s="33"/>
       <c r="F176" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G176" s="18"/>
       <c r="H176" s="17" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="I176" s="17" t="s">
         <v>803</v>
@@ -16910,7 +16903,7 @@
         <v>417</v>
       </c>
       <c r="T176" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="177" spans="1:20" ht="36">
@@ -16926,11 +16919,11 @@
       <c r="D177" s="33"/>
       <c r="E177" s="33"/>
       <c r="F177" s="32" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G177" s="18"/>
       <c r="H177" s="17" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="I177" s="17"/>
       <c r="J177" s="21"/>
@@ -16942,7 +16935,7 @@
         <v>693</v>
       </c>
       <c r="N177" s="10" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="O177" s="10">
         <v>0</v>
@@ -16956,7 +16949,7 @@
         <v>419</v>
       </c>
       <c r="T177" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="178" spans="1:20" ht="48">
@@ -16972,7 +16965,7 @@
       <c r="D178" s="33"/>
       <c r="E178" s="33"/>
       <c r="F178" s="32" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="G178" s="18"/>
       <c r="H178" s="17" t="s">
@@ -17004,7 +16997,7 @@
         <v>422</v>
       </c>
       <c r="T178" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="179" spans="1:20" ht="60">
@@ -17020,7 +17013,7 @@
       <c r="D179" s="33"/>
       <c r="E179" s="33"/>
       <c r="F179" s="32" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="G179" s="18"/>
       <c r="H179" s="17" t="s">
@@ -17050,7 +17043,7 @@
         <v>424</v>
       </c>
       <c r="T179" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="180" spans="1:20" ht="24">
@@ -17082,7 +17075,7 @@
         <v>693</v>
       </c>
       <c r="N180" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="O180" s="10">
         <v>0</v>
@@ -17096,7 +17089,7 @@
         <v>426</v>
       </c>
       <c r="T180" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="181" spans="1:20" ht="48">
@@ -17110,7 +17103,7 @@
         <v>104</v>
       </c>
       <c r="D181" s="33" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="E181" s="33"/>
       <c r="F181" s="32"/>
@@ -17126,14 +17119,14 @@
         <v>693</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="O181" s="10">
         <v>56000023</v>
       </c>
       <c r="P181" s="1"/>
       <c r="Q181" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R181" s="1">
         <v>166</v>
@@ -17142,7 +17135,7 @@
         <v>428</v>
       </c>
       <c r="T181" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="182" spans="1:20" ht="60">
@@ -17160,7 +17153,7 @@
       <c r="F182" s="32"/>
       <c r="G182" s="18"/>
       <c r="H182" s="17" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="I182" s="17"/>
       <c r="J182" s="21"/>
@@ -17172,7 +17165,7 @@
         <v>693</v>
       </c>
       <c r="N182" s="10" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="O182" s="10">
         <v>0</v>
@@ -17186,7 +17179,7 @@
         <v>430</v>
       </c>
       <c r="T182" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="183" spans="1:20" ht="60">
@@ -17204,7 +17197,7 @@
       <c r="F183" s="32"/>
       <c r="G183" s="18"/>
       <c r="H183" s="17" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I183" s="17"/>
       <c r="J183" s="21"/>
@@ -17216,7 +17209,7 @@
         <v>693</v>
       </c>
       <c r="N183" s="10" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="O183" s="10">
         <v>0</v>
@@ -17230,7 +17223,7 @@
         <v>432</v>
       </c>
       <c r="T183" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="184" spans="1:20" ht="24">
@@ -17249,7 +17242,7 @@
       <c r="G184" s="18"/>
       <c r="H184" s="17"/>
       <c r="I184" s="17" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="J184" s="21"/>
       <c r="K184" s="60"/>
@@ -17260,7 +17253,7 @@
         <v>693</v>
       </c>
       <c r="N184" s="10" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="O184" s="10">
         <v>0</v>
@@ -17274,7 +17267,7 @@
         <v>434</v>
       </c>
       <c r="T184" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="185" spans="1:20" ht="36">
@@ -17288,7 +17281,7 @@
         <v>104</v>
       </c>
       <c r="D185" s="33" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="E185" s="33"/>
       <c r="F185" s="32"/>
@@ -17304,14 +17297,14 @@
         <v>693</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="O185" s="10">
         <v>56000121</v>
       </c>
       <c r="P185" s="1"/>
       <c r="Q185" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R185" s="1">
         <v>200</v>
@@ -17320,7 +17313,7 @@
         <v>436</v>
       </c>
       <c r="T185" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="186" spans="1:20">
@@ -17348,7 +17341,7 @@
         <v>693</v>
       </c>
       <c r="N186" s="10" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="O186" s="10">
         <v>0</v>
@@ -17362,7 +17355,7 @@
         <v>438</v>
       </c>
       <c r="T186" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="187" spans="1:20" ht="48">
@@ -17381,7 +17374,7 @@
       <c r="G187" s="18"/>
       <c r="H187" s="17"/>
       <c r="I187" s="17" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="J187" s="21"/>
       <c r="K187" s="60"/>
@@ -17392,7 +17385,7 @@
         <v>693</v>
       </c>
       <c r="N187" s="10" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="O187" s="10">
         <v>0</v>
@@ -17406,7 +17399,7 @@
         <v>440</v>
       </c>
       <c r="T187" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="188" spans="1:20" ht="36">
@@ -17420,7 +17413,7 @@
         <v>104</v>
       </c>
       <c r="D188" s="33" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
       <c r="E188" s="33"/>
       <c r="F188" s="32"/>
@@ -17436,14 +17429,14 @@
         <v>693</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="O188" s="10">
         <v>56000101</v>
       </c>
       <c r="P188" s="1"/>
       <c r="Q188" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R188" s="1">
         <v>225</v>
@@ -17452,7 +17445,7 @@
         <v>442</v>
       </c>
       <c r="T188" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="189" spans="1:20" ht="48">
@@ -17466,7 +17459,7 @@
         <v>104</v>
       </c>
       <c r="D189" s="33" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="E189" s="33"/>
       <c r="F189" s="32"/>
@@ -17482,14 +17475,14 @@
         <v>693</v>
       </c>
       <c r="N189" s="10" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="O189" s="10">
         <v>56000111</v>
       </c>
       <c r="P189" s="1"/>
       <c r="Q189" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R189" s="1">
         <v>1000</v>
@@ -17498,7 +17491,7 @@
         <v>444</v>
       </c>
       <c r="T189" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="190" spans="1:20" ht="24">
@@ -17512,7 +17505,7 @@
         <v>1</v>
       </c>
       <c r="D190" s="33" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E190" s="33"/>
       <c r="F190" s="32"/>
@@ -17528,7 +17521,7 @@
         <v>693</v>
       </c>
       <c r="N190" s="10" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="O190" s="10">
         <v>0</v>
@@ -17542,7 +17535,7 @@
         <v>446</v>
       </c>
       <c r="T190" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="191" spans="1:20" ht="48">
@@ -17562,7 +17555,7 @@
       </c>
       <c r="G191" s="18"/>
       <c r="H191" s="17" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="I191" s="17"/>
       <c r="J191" s="21"/>
@@ -17574,7 +17567,7 @@
         <v>693</v>
       </c>
       <c r="N191" s="15" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="O191" s="15">
         <v>0</v>
@@ -17588,7 +17581,7 @@
         <v>448</v>
       </c>
       <c r="T191" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="192" spans="1:20" ht="24">
@@ -17607,7 +17600,7 @@
       <c r="G192" s="18"/>
       <c r="H192" s="17"/>
       <c r="I192" s="17" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="J192" s="21"/>
       <c r="K192" s="60"/>
@@ -17618,7 +17611,7 @@
         <v>693</v>
       </c>
       <c r="N192" s="10" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="O192" s="10">
         <v>0</v>
@@ -17632,7 +17625,7 @@
         <v>450</v>
       </c>
       <c r="T192" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="193" spans="1:20" ht="96">
@@ -17648,11 +17641,11 @@
       <c r="D193" s="33"/>
       <c r="E193" s="33"/>
       <c r="F193" s="32" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="G193" s="18"/>
       <c r="H193" s="17" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="I193" s="17"/>
       <c r="J193" s="21"/>
@@ -17664,7 +17657,7 @@
         <v>693</v>
       </c>
       <c r="N193" s="10" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="O193" s="10">
         <v>0</v>
@@ -17678,7 +17671,7 @@
         <v>452</v>
       </c>
       <c r="T193" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="194" spans="1:20" ht="24">
@@ -17686,10 +17679,10 @@
         <v>55000207</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D194" s="33"/>
       <c r="E194" s="33"/>
@@ -17698,7 +17691,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
       <c r="J194" s="21" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="K194" s="60"/>
       <c r="L194" s="1" t="s">
@@ -17708,23 +17701,23 @@
         <v>693</v>
       </c>
       <c r="N194" s="10" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O194" s="10">
         <v>0</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="Q194" s="1"/>
       <c r="R194" s="1">
         <v>2500</v>
       </c>
       <c r="S194" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="T194" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="195" spans="1:20">
@@ -17752,7 +17745,7 @@
         <v>693</v>
       </c>
       <c r="N195" s="10" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="O195" s="10">
         <v>0</v>
@@ -17766,7 +17759,7 @@
         <v>454</v>
       </c>
       <c r="T195" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="196" spans="1:20" ht="48">
@@ -17786,7 +17779,7 @@
       </c>
       <c r="G196" s="18"/>
       <c r="H196" s="17" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="I196" s="17"/>
       <c r="J196" s="21"/>
@@ -17798,7 +17791,7 @@
         <v>693</v>
       </c>
       <c r="N196" s="15" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="O196" s="15">
         <v>0</v>
@@ -17812,7 +17805,7 @@
         <v>456</v>
       </c>
       <c r="T196" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="197" spans="1:20" ht="48">
@@ -17860,7 +17853,7 @@
         <v>459</v>
       </c>
       <c r="T197" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="198" spans="1:20" ht="48">
@@ -17874,7 +17867,7 @@
         <v>104</v>
       </c>
       <c r="D198" s="33" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="E198" s="33"/>
       <c r="F198" s="32"/>
@@ -17890,14 +17883,14 @@
         <v>693</v>
       </c>
       <c r="N198" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O198" s="10">
         <v>56000121</v>
       </c>
       <c r="P198" s="1"/>
       <c r="Q198" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R198" s="1">
         <v>11</v>
@@ -17906,7 +17899,7 @@
         <v>461</v>
       </c>
       <c r="T198" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="199" spans="1:20" ht="24">
@@ -17927,7 +17920,7 @@
       <c r="G199" s="18"/>
       <c r="H199" s="17"/>
       <c r="I199" s="17" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J199" s="21"/>
       <c r="K199" s="60"/>
@@ -17952,7 +17945,7 @@
         <v>464</v>
       </c>
       <c r="T199" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="200" spans="1:20" ht="48">
@@ -17966,7 +17959,7 @@
         <v>104</v>
       </c>
       <c r="D200" s="33" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
       <c r="E200" s="33"/>
       <c r="F200" s="32"/>
@@ -17982,14 +17975,14 @@
         <v>693</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="O200" s="10">
         <v>56000121</v>
       </c>
       <c r="P200" s="1"/>
       <c r="Q200" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R200" s="1">
         <v>11</v>
@@ -17998,7 +17991,7 @@
         <v>466</v>
       </c>
       <c r="T200" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="201" spans="1:20" ht="24">
@@ -18017,7 +18010,7 @@
       <c r="G201" s="18"/>
       <c r="H201" s="17"/>
       <c r="I201" s="17" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="J201" s="21"/>
       <c r="K201" s="60"/>
@@ -18042,7 +18035,7 @@
         <v>468</v>
       </c>
       <c r="T201" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="202" spans="1:20" ht="84">
@@ -18058,12 +18051,12 @@
       <c r="D202" s="33"/>
       <c r="E202" s="33"/>
       <c r="F202" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G202" s="18"/>
       <c r="H202" s="17"/>
       <c r="I202" s="17" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="J202" s="21"/>
       <c r="K202" s="60"/>
@@ -18074,7 +18067,7 @@
         <v>693</v>
       </c>
       <c r="N202" s="10" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="O202" s="10">
         <v>0</v>
@@ -18083,7 +18076,7 @@
         <v>470</v>
       </c>
       <c r="Q202" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R202" s="1">
         <f>200*2</f>
@@ -18093,7 +18086,7 @@
         <v>471</v>
       </c>
       <c r="T202" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="203" spans="1:20" ht="36">
@@ -18113,7 +18106,7 @@
       </c>
       <c r="G203" s="18"/>
       <c r="H203" s="17" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I203" s="17"/>
       <c r="J203" s="21"/>
@@ -18125,7 +18118,7 @@
         <v>693</v>
       </c>
       <c r="N203" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="O203" s="1">
         <v>0</v>
@@ -18139,7 +18132,7 @@
         <v>473</v>
       </c>
       <c r="T203" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="204" spans="1:20" ht="24">
@@ -18160,7 +18153,7 @@
       <c r="G204" s="18"/>
       <c r="H204" s="17"/>
       <c r="I204" s="17" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J204" s="21"/>
       <c r="K204" s="60"/>
@@ -18185,7 +18178,7 @@
         <v>476</v>
       </c>
       <c r="T204" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="205" spans="1:20">
@@ -18196,7 +18189,7 @@
         <v>477</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D205" s="33"/>
       <c r="E205" s="33"/>
@@ -18213,7 +18206,7 @@
         <v>693</v>
       </c>
       <c r="N205" s="10" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="O205" s="10">
         <v>0</v>
@@ -18229,7 +18222,7 @@
         <v>479</v>
       </c>
       <c r="T205" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="206" spans="1:20">
@@ -18249,7 +18242,7 @@
       <c r="H206" s="17"/>
       <c r="I206" s="17"/>
       <c r="J206" s="21" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="K206" s="60"/>
       <c r="L206" s="1" t="s">
@@ -18273,7 +18266,7 @@
         <v>482</v>
       </c>
       <c r="T206" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="207" spans="1:20" ht="36">
@@ -18289,23 +18282,23 @@
       <c r="D207" s="33"/>
       <c r="E207" s="33"/>
       <c r="F207" s="32" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G207" s="18"/>
       <c r="H207" s="17" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="I207" s="17"/>
       <c r="J207" s="21"/>
       <c r="K207" s="60"/>
       <c r="L207" s="10" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="M207" s="9" t="s">
         <v>693</v>
       </c>
       <c r="N207" s="10" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="O207" s="10">
         <v>0</v>
@@ -18319,7 +18312,7 @@
         <v>484</v>
       </c>
       <c r="T207" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="208" spans="1:20" ht="24">
@@ -18327,13 +18320,13 @@
         <v>55000221</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D208" s="33" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="E208" s="33"/>
       <c r="F208" s="32"/>
@@ -18349,7 +18342,7 @@
         <v>693</v>
       </c>
       <c r="N208" s="10" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="O208" s="10">
         <v>0</v>
@@ -18360,10 +18353,10 @@
         <v>1200</v>
       </c>
       <c r="S208" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="T208" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="209" spans="1:20" ht="36">
@@ -18409,7 +18402,7 @@
         <v>486</v>
       </c>
       <c r="T209" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="210" spans="1:20" ht="36">
@@ -18455,7 +18448,7 @@
         <v>488</v>
       </c>
       <c r="T210" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="211" spans="1:20" ht="36">
@@ -18501,7 +18494,7 @@
         <v>490</v>
       </c>
       <c r="T211" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="212" spans="1:20" ht="48">
@@ -18515,10 +18508,10 @@
         <v>104</v>
       </c>
       <c r="D212" s="33" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E212" s="33" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F212" s="32"/>
       <c r="G212" s="18"/>
@@ -18533,7 +18526,7 @@
         <v>693</v>
       </c>
       <c r="N212" s="10" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="O212" s="10">
         <v>0</v>
@@ -18547,7 +18540,7 @@
         <v>492</v>
       </c>
       <c r="T212" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="213" spans="1:20" ht="96">
@@ -18561,10 +18554,10 @@
         <v>104</v>
       </c>
       <c r="D213" s="33" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E213" s="33" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F213" s="32"/>
       <c r="G213" s="18"/>
@@ -18579,7 +18572,7 @@
         <v>693</v>
       </c>
       <c r="N213" s="10" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="O213" s="10">
         <v>0</v>
@@ -18593,7 +18586,7 @@
         <v>494</v>
       </c>
       <c r="T213" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="214" spans="1:20" ht="24">
@@ -18615,7 +18608,7 @@
       <c r="H214" s="17"/>
       <c r="I214" s="17"/>
       <c r="J214" s="21" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="K214" s="60"/>
       <c r="L214" s="1" t="s">
@@ -18625,7 +18618,7 @@
         <v>693</v>
       </c>
       <c r="N214" s="10" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="O214" s="10">
         <v>0</v>
@@ -18639,7 +18632,7 @@
         <v>673</v>
       </c>
       <c r="T214" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="215" spans="1:20" ht="24">
@@ -18658,7 +18651,7 @@
       <c r="G215" s="18"/>
       <c r="H215" s="17"/>
       <c r="I215" s="17" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="J215" s="21"/>
       <c r="K215" s="60"/>
@@ -18669,7 +18662,7 @@
         <v>693</v>
       </c>
       <c r="N215" s="10" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="O215" s="10">
         <v>0</v>
@@ -18683,7 +18676,7 @@
         <v>496</v>
       </c>
       <c r="T215" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="216" spans="1:20" ht="24">
@@ -18704,7 +18697,7 @@
       <c r="G216" s="18"/>
       <c r="H216" s="17"/>
       <c r="I216" s="17" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="J216" s="21"/>
       <c r="K216" s="60"/>
@@ -18715,7 +18708,7 @@
         <v>693</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="O216" s="10">
         <v>0</v>
@@ -18729,7 +18722,7 @@
         <v>498</v>
       </c>
       <c r="T216" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="217" spans="1:20" ht="24">
@@ -18773,7 +18766,7 @@
         <v>500</v>
       </c>
       <c r="T217" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="218" spans="1:20" ht="24">
@@ -18792,7 +18785,7 @@
       <c r="G218" s="18"/>
       <c r="H218" s="17"/>
       <c r="I218" s="17" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="J218" s="21"/>
       <c r="K218" s="60"/>
@@ -18803,7 +18796,7 @@
         <v>693</v>
       </c>
       <c r="N218" s="10" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="O218" s="10">
         <v>0</v>
@@ -18817,7 +18810,7 @@
         <v>502</v>
       </c>
       <c r="T218" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="219" spans="1:20" ht="48">
@@ -18861,7 +18854,7 @@
         <v>504</v>
       </c>
       <c r="T219" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="220" spans="1:20" ht="36">
@@ -18891,7 +18884,7 @@
         <v>693</v>
       </c>
       <c r="N220" s="10" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="O220" s="10">
         <v>0</v>
@@ -18905,7 +18898,7 @@
         <v>506</v>
       </c>
       <c r="T220" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="221" spans="1:20" ht="36">
@@ -18951,7 +18944,7 @@
         <v>508</v>
       </c>
       <c r="T221" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="222" spans="1:20" ht="72">
@@ -18995,7 +18988,7 @@
         <v>510</v>
       </c>
       <c r="T222" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="223" spans="1:20" ht="24">
@@ -19009,7 +19002,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="33" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E223" s="33"/>
       <c r="F223" s="32"/>
@@ -19025,7 +19018,7 @@
         <v>693</v>
       </c>
       <c r="N223" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="O223" s="10">
         <v>0</v>
@@ -19039,7 +19032,7 @@
         <v>512</v>
       </c>
       <c r="T223" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="224" spans="1:20">
@@ -19067,7 +19060,7 @@
         <v>693</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="O224" s="1">
         <v>0</v>
@@ -19081,7 +19074,7 @@
         <v>514</v>
       </c>
       <c r="T224" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="225" spans="1:20" ht="24">
@@ -19125,7 +19118,7 @@
         <v>517</v>
       </c>
       <c r="T225" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="226" spans="1:20" ht="24">
@@ -19169,7 +19162,7 @@
         <v>519</v>
       </c>
       <c r="T226" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="227" spans="1:20" ht="84">
@@ -19185,12 +19178,12 @@
       <c r="D227" s="33"/>
       <c r="E227" s="33"/>
       <c r="F227" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G227" s="18"/>
       <c r="H227" s="17"/>
       <c r="I227" s="17" t="s">
-        <v>1354</v>
+        <v>1446</v>
       </c>
       <c r="J227" s="21"/>
       <c r="K227" s="60"/>
@@ -19201,16 +19194,16 @@
         <v>693</v>
       </c>
       <c r="N227" s="10" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="O227" s="10">
         <v>0</v>
       </c>
       <c r="P227" s="10" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="Q227" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R227" s="1">
         <f>2000*1.5*2/12</f>
@@ -19220,7 +19213,7 @@
         <v>521</v>
       </c>
       <c r="T227" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="228" spans="1:20" ht="24">
@@ -19252,7 +19245,7 @@
         <v>693</v>
       </c>
       <c r="N228" s="10" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="O228" s="10">
         <v>0</v>
@@ -19267,7 +19260,7 @@
         <v>523</v>
       </c>
       <c r="T228" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="229" spans="1:20" ht="24">
@@ -19289,7 +19282,7 @@
       <c r="H229" s="17"/>
       <c r="I229" s="17"/>
       <c r="J229" s="21" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="K229" s="60"/>
       <c r="L229" s="1" t="s">
@@ -19299,7 +19292,7 @@
         <v>693</v>
       </c>
       <c r="N229" s="10" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="O229" s="10">
         <v>0</v>
@@ -19313,7 +19306,7 @@
         <v>525</v>
       </c>
       <c r="T229" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="230" spans="1:20" ht="36">
@@ -19343,7 +19336,7 @@
         <v>693</v>
       </c>
       <c r="N230" s="10" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="O230" s="10">
         <v>0</v>
@@ -19357,7 +19350,7 @@
         <v>527</v>
       </c>
       <c r="T230" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="231" spans="1:20" ht="84">
@@ -19373,12 +19366,12 @@
       <c r="D231" s="33"/>
       <c r="E231" s="33"/>
       <c r="F231" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G231" s="18"/>
       <c r="H231" s="17"/>
       <c r="I231" s="17" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="J231" s="21"/>
       <c r="K231" s="60"/>
@@ -19389,16 +19382,16 @@
         <v>693</v>
       </c>
       <c r="N231" s="20" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="O231" s="10">
         <v>0</v>
       </c>
       <c r="P231" s="10" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Q231" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R231" s="1">
         <v>280</v>
@@ -19407,7 +19400,7 @@
         <v>529</v>
       </c>
       <c r="T231" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="232" spans="1:20" ht="24">
@@ -19426,7 +19419,7 @@
       <c r="G232" s="18"/>
       <c r="H232" s="17"/>
       <c r="I232" s="17" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="J232" s="21"/>
       <c r="K232" s="60"/>
@@ -19451,7 +19444,7 @@
         <v>531</v>
       </c>
       <c r="T232" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="233" spans="1:20" ht="36">
@@ -19467,12 +19460,12 @@
       <c r="D233" s="33"/>
       <c r="E233" s="33"/>
       <c r="F233" s="32" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="G233" s="18"/>
       <c r="H233" s="17"/>
       <c r="I233" s="17" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="J233" s="21"/>
       <c r="K233" s="60"/>
@@ -19483,7 +19476,7 @@
         <v>693</v>
       </c>
       <c r="N233" s="10" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="O233" s="10">
         <v>0</v>
@@ -19497,7 +19490,7 @@
         <v>533</v>
       </c>
       <c r="T233" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="234" spans="1:20" ht="48">
@@ -19517,7 +19510,7 @@
       </c>
       <c r="G234" s="18"/>
       <c r="H234" s="17" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="I234" s="17"/>
       <c r="J234" s="21"/>
@@ -19529,7 +19522,7 @@
         <v>693</v>
       </c>
       <c r="N234" s="10" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="O234" s="10">
         <v>0</v>
@@ -19543,7 +19536,7 @@
         <v>535</v>
       </c>
       <c r="T234" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="235" spans="1:20" ht="36">
@@ -19559,14 +19552,14 @@
       <c r="D235" s="33"/>
       <c r="E235" s="33"/>
       <c r="F235" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G235" s="18"/>
       <c r="H235" s="17" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I235" s="17" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="J235" s="21"/>
       <c r="K235" s="60"/>
@@ -19577,7 +19570,7 @@
         <v>693</v>
       </c>
       <c r="N235" s="10" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="O235" s="10">
         <v>0</v>
@@ -19591,7 +19584,7 @@
         <v>537</v>
       </c>
       <c r="T235" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="236" spans="1:20" ht="24">
@@ -19612,7 +19605,7 @@
       <c r="G236" s="18"/>
       <c r="H236" s="17"/>
       <c r="I236" s="17" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="J236" s="21"/>
       <c r="K236" s="60"/>
@@ -19637,7 +19630,7 @@
         <v>539</v>
       </c>
       <c r="T236" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="237" spans="1:20" ht="36">
@@ -19667,7 +19660,7 @@
         <v>693</v>
       </c>
       <c r="N237" s="10" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="O237" s="10">
         <v>0</v>
@@ -19681,7 +19674,7 @@
         <v>541</v>
       </c>
       <c r="T237" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="238" spans="1:20" ht="27">
@@ -19711,7 +19704,7 @@
         <v>693</v>
       </c>
       <c r="N238" s="15" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="O238" s="15">
         <v>0</v>
@@ -19725,7 +19718,7 @@
         <v>543</v>
       </c>
       <c r="T238" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="239" spans="1:20" ht="24">
@@ -19757,7 +19750,7 @@
         <v>693</v>
       </c>
       <c r="N239" s="10" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="O239" s="10">
         <v>0</v>
@@ -19771,7 +19764,7 @@
         <v>545</v>
       </c>
       <c r="T239" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="240" spans="1:20" ht="36">
@@ -19787,7 +19780,7 @@
       <c r="D240" s="33"/>
       <c r="E240" s="33"/>
       <c r="F240" s="32" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="G240" s="18" t="s">
         <v>850</v>
@@ -19803,7 +19796,7 @@
         <v>693</v>
       </c>
       <c r="N240" s="10" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="O240" s="10">
         <v>0</v>
@@ -19817,7 +19810,7 @@
         <v>547</v>
       </c>
       <c r="T240" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="241" spans="1:20" ht="36">
@@ -19847,7 +19840,7 @@
         <v>693</v>
       </c>
       <c r="N241" s="10" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="O241" s="10">
         <v>0</v>
@@ -19861,7 +19854,7 @@
         <v>549</v>
       </c>
       <c r="T241" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="242" spans="1:20">
@@ -19878,7 +19871,7 @@
       <c r="E242" s="33"/>
       <c r="F242" s="32"/>
       <c r="G242" s="18" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H242" s="17"/>
       <c r="I242" s="17"/>
@@ -19891,7 +19884,7 @@
         <v>693</v>
       </c>
       <c r="N242" s="10" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O242" s="10">
         <v>0</v>
@@ -19905,7 +19898,7 @@
         <v>551</v>
       </c>
       <c r="T242" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="243" spans="1:20">
@@ -19933,7 +19926,7 @@
         <v>693</v>
       </c>
       <c r="N243" s="10" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="O243" s="10">
         <v>0</v>
@@ -19947,7 +19940,7 @@
         <v>553</v>
       </c>
       <c r="T243" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="244" spans="1:20" ht="36">
@@ -19967,7 +19960,7 @@
       </c>
       <c r="G244" s="18"/>
       <c r="H244" s="17" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="I244" s="17"/>
       <c r="J244" s="21"/>
@@ -19979,7 +19972,7 @@
         <v>693</v>
       </c>
       <c r="N244" s="10" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="O244" s="10">
         <v>0</v>
@@ -19995,7 +19988,7 @@
         <v>555</v>
       </c>
       <c r="T244" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="245" spans="1:20" ht="24">
@@ -20014,7 +20007,7 @@
       <c r="G245" s="18"/>
       <c r="H245" s="17"/>
       <c r="I245" s="17" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="J245" s="21"/>
       <c r="K245" s="60"/>
@@ -20039,7 +20032,7 @@
         <v>557</v>
       </c>
       <c r="T245" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="246" spans="1:20" ht="36">
@@ -20087,7 +20080,7 @@
         <v>559</v>
       </c>
       <c r="T246" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="247" spans="1:20" ht="84">
@@ -20098,7 +20091,7 @@
         <v>560</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D247" s="33"/>
       <c r="E247" s="33"/>
@@ -20107,7 +20100,7 @@
       <c r="H247" s="17"/>
       <c r="I247" s="17"/>
       <c r="J247" s="21" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="K247" s="60"/>
       <c r="L247" s="1" t="s">
@@ -20117,13 +20110,13 @@
         <v>693</v>
       </c>
       <c r="N247" s="10" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="O247" s="10">
         <v>0</v>
       </c>
       <c r="P247" s="10" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="Q247" s="10"/>
       <c r="R247" s="1">
@@ -20133,7 +20126,7 @@
         <v>561</v>
       </c>
       <c r="T247" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="248" spans="1:20" ht="84">
@@ -20151,7 +20144,7 @@
       <c r="F248" s="32"/>
       <c r="G248" s="18"/>
       <c r="H248" s="17" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I248" s="17"/>
       <c r="J248" s="21"/>
@@ -20163,7 +20156,7 @@
         <v>693</v>
       </c>
       <c r="N248" s="15" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="O248" s="15">
         <v>0</v>
@@ -20177,7 +20170,7 @@
         <v>563</v>
       </c>
       <c r="T248" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="249" spans="1:20" ht="24">
@@ -20196,7 +20189,7 @@
       <c r="G249" s="18"/>
       <c r="H249" s="17"/>
       <c r="I249" s="17" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="J249" s="21"/>
       <c r="K249" s="60"/>
@@ -20207,7 +20200,7 @@
         <v>693</v>
       </c>
       <c r="N249" s="10" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="O249" s="10">
         <v>0</v>
@@ -20221,7 +20214,7 @@
         <v>565</v>
       </c>
       <c r="T249" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="250" spans="1:20" ht="24">
@@ -20232,17 +20225,17 @@
         <v>566</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D250" s="33"/>
       <c r="E250" s="33"/>
       <c r="F250" s="32" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="G250" s="18"/>
       <c r="H250" s="17"/>
       <c r="I250" s="17" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="J250" s="21"/>
       <c r="K250" s="60"/>
@@ -20269,7 +20262,7 @@
         <v>569</v>
       </c>
       <c r="T250" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="251" spans="1:20" ht="36">
@@ -20289,7 +20282,7 @@
       </c>
       <c r="G251" s="18"/>
       <c r="H251" s="17" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I251" s="17"/>
       <c r="J251" s="21"/>
@@ -20301,7 +20294,7 @@
         <v>693</v>
       </c>
       <c r="N251" s="10" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="O251" s="10">
         <v>0</v>
@@ -20315,7 +20308,7 @@
         <v>571</v>
       </c>
       <c r="T251" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="252" spans="1:20" ht="36">
@@ -20329,7 +20322,7 @@
         <v>1</v>
       </c>
       <c r="D252" s="33" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E252" s="33"/>
       <c r="F252" s="32"/>
@@ -20359,7 +20352,7 @@
         <v>574</v>
       </c>
       <c r="T252" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="253" spans="1:20" ht="48">
@@ -20377,7 +20370,7 @@
       <c r="F253" s="32"/>
       <c r="G253" s="18"/>
       <c r="H253" s="17" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I253" s="17"/>
       <c r="J253" s="21"/>
@@ -20389,7 +20382,7 @@
         <v>693</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="O253" s="1">
         <v>0</v>
@@ -20403,7 +20396,7 @@
         <v>576</v>
       </c>
       <c r="T253" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="254" spans="1:20" ht="24">
@@ -20449,7 +20442,7 @@
         <v>579</v>
       </c>
       <c r="T254" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="255" spans="1:20" ht="24">
@@ -20493,7 +20486,7 @@
         <v>582</v>
       </c>
       <c r="T255" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="256" spans="1:20" ht="48">
@@ -20507,7 +20500,7 @@
         <v>1</v>
       </c>
       <c r="D256" s="33" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E256" s="33"/>
       <c r="F256" s="32"/>
@@ -20537,7 +20530,7 @@
         <v>585</v>
       </c>
       <c r="T256" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="257" spans="1:20" ht="48">
@@ -20551,7 +20544,7 @@
         <v>104</v>
       </c>
       <c r="D257" s="33" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="E257" s="33"/>
       <c r="F257" s="32"/>
@@ -20567,14 +20560,14 @@
         <v>693</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O257" s="10">
         <v>56000102</v>
       </c>
       <c r="P257" s="1"/>
       <c r="Q257" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R257" s="1">
         <v>50</v>
@@ -20583,7 +20576,7 @@
         <v>587</v>
       </c>
       <c r="T257" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="258" spans="1:20" ht="36">
@@ -20599,7 +20592,7 @@
       <c r="D258" s="33"/>
       <c r="E258" s="33"/>
       <c r="F258" s="32" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="G258" s="18" t="s">
         <v>849</v>
@@ -20615,7 +20608,7 @@
         <v>693</v>
       </c>
       <c r="N258" s="10" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="O258" s="10">
         <v>0</v>
@@ -20629,7 +20622,7 @@
         <v>589</v>
       </c>
       <c r="T258" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="259" spans="1:20" ht="24">
@@ -20648,7 +20641,7 @@
       <c r="G259" s="18"/>
       <c r="H259" s="17"/>
       <c r="I259" s="17" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="J259" s="21"/>
       <c r="K259" s="60"/>
@@ -20659,7 +20652,7 @@
         <v>693</v>
       </c>
       <c r="N259" s="10" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="O259" s="10">
         <v>0</v>
@@ -20673,7 +20666,7 @@
         <v>591</v>
       </c>
       <c r="T259" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="260" spans="1:20" ht="36">
@@ -20691,7 +20684,7 @@
       <c r="F260" s="32"/>
       <c r="G260" s="18"/>
       <c r="H260" s="17" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I260" s="17"/>
       <c r="J260" s="21"/>
@@ -20703,7 +20696,7 @@
         <v>693</v>
       </c>
       <c r="N260" s="15" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="O260" s="15">
         <v>0</v>
@@ -20717,7 +20710,7 @@
         <v>593</v>
       </c>
       <c r="T260" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="261" spans="1:20" ht="84">
@@ -20735,7 +20728,7 @@
       <c r="F261" s="32"/>
       <c r="G261" s="18"/>
       <c r="H261" s="17" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I261" s="17"/>
       <c r="J261" s="21"/>
@@ -20747,7 +20740,7 @@
         <v>693</v>
       </c>
       <c r="N261" s="10" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="O261" s="10">
         <v>0</v>
@@ -20761,7 +20754,7 @@
         <v>595</v>
       </c>
       <c r="T261" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="262" spans="1:20" ht="36">
@@ -20777,7 +20770,7 @@
       <c r="D262" s="33"/>
       <c r="E262" s="33"/>
       <c r="F262" s="32" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="G262" s="18"/>
       <c r="H262" s="17" t="s">
@@ -20807,7 +20800,7 @@
         <v>597</v>
       </c>
       <c r="T262" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="263" spans="1:20" ht="36">
@@ -20823,7 +20816,7 @@
       <c r="D263" s="33"/>
       <c r="E263" s="33"/>
       <c r="F263" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G263" s="18"/>
       <c r="H263" s="17" t="s">
@@ -20853,7 +20846,7 @@
         <v>599</v>
       </c>
       <c r="T263" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="264" spans="1:20">
@@ -20870,7 +20863,7 @@
       <c r="E264" s="33"/>
       <c r="F264" s="32"/>
       <c r="G264" s="18" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="H264" s="17"/>
       <c r="I264" s="17"/>
@@ -20883,7 +20876,7 @@
         <v>693</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="O264" s="1">
         <v>0</v>
@@ -20897,7 +20890,7 @@
         <v>601</v>
       </c>
       <c r="T264" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="265" spans="1:20" ht="24">
@@ -20908,7 +20901,7 @@
         <v>602</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D265" s="33"/>
       <c r="E265" s="33"/>
@@ -20917,7 +20910,7 @@
       <c r="H265" s="17"/>
       <c r="I265" s="22"/>
       <c r="J265" s="21" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="K265" s="60"/>
       <c r="L265" s="1" t="s">
@@ -20927,7 +20920,7 @@
         <v>693</v>
       </c>
       <c r="N265" s="10" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="O265" s="10">
         <v>0</v>
@@ -20941,7 +20934,7 @@
         <v>603</v>
       </c>
       <c r="T265" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="266" spans="1:20">
@@ -20952,7 +20945,7 @@
         <v>604</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D266" s="33"/>
       <c r="E266" s="33"/>
@@ -20961,7 +20954,7 @@
       <c r="H266" s="17"/>
       <c r="I266" s="22"/>
       <c r="J266" s="21" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="K266" s="60"/>
       <c r="L266" s="1" t="s">
@@ -20971,7 +20964,7 @@
         <v>693</v>
       </c>
       <c r="N266" s="10" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="O266" s="10">
         <v>0</v>
@@ -20985,7 +20978,7 @@
         <v>605</v>
       </c>
       <c r="T266" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="267" spans="1:20" ht="36">
@@ -21003,7 +20996,7 @@
       <c r="F267" s="32"/>
       <c r="G267" s="18"/>
       <c r="H267" s="17" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I267" s="17"/>
       <c r="J267" s="21"/>
@@ -21015,7 +21008,7 @@
         <v>693</v>
       </c>
       <c r="N267" s="15" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="O267" s="15">
         <v>0</v>
@@ -21029,7 +21022,7 @@
         <v>607</v>
       </c>
       <c r="T267" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="268" spans="1:20" ht="24">
@@ -21048,7 +21041,7 @@
       <c r="G268" s="18"/>
       <c r="H268" s="17"/>
       <c r="I268" s="17" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="J268" s="21"/>
       <c r="K268" s="60"/>
@@ -21059,7 +21052,7 @@
         <v>693</v>
       </c>
       <c r="N268" s="10" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="O268" s="10">
         <v>0</v>
@@ -21073,10 +21066,10 @@
         <v>609</v>
       </c>
       <c r="T268" s="53" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="269" spans="1:20" ht="144">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" ht="132">
       <c r="A269">
         <v>55000282</v>
       </c>
@@ -21084,10 +21077,10 @@
         <v>610</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D269" s="33" t="s">
-        <v>1358</v>
+        <v>1447</v>
       </c>
       <c r="E269" s="33"/>
       <c r="F269" s="32"/>
@@ -21103,13 +21096,13 @@
         <v>693</v>
       </c>
       <c r="N269" s="16" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="O269" s="10">
         <v>0</v>
       </c>
       <c r="P269" s="1" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="Q269" s="1"/>
       <c r="R269" s="1">
@@ -21119,7 +21112,7 @@
         <v>611</v>
       </c>
       <c r="T269" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="270" spans="1:20" ht="36">
@@ -21167,7 +21160,7 @@
         <v>613</v>
       </c>
       <c r="T270" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="271" spans="1:20" ht="48">
@@ -21181,7 +21174,7 @@
         <v>104</v>
       </c>
       <c r="D271" s="33" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="E271" s="33"/>
       <c r="F271" s="32"/>
@@ -21197,14 +21190,14 @@
         <v>693</v>
       </c>
       <c r="N271" s="10" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="O271" s="10">
         <v>56000101</v>
       </c>
       <c r="P271" s="1"/>
       <c r="Q271" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R271" s="1">
         <v>400</v>
@@ -21213,7 +21206,7 @@
         <v>615</v>
       </c>
       <c r="T271" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="272" spans="1:20">
@@ -21241,7 +21234,7 @@
         <v>693</v>
       </c>
       <c r="N272" s="10" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="O272" s="10">
         <v>0</v>
@@ -21255,7 +21248,7 @@
         <v>617</v>
       </c>
       <c r="T272" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="273" spans="1:20" ht="36">
@@ -21269,7 +21262,7 @@
         <v>104</v>
       </c>
       <c r="D273" s="33" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="E273" s="33"/>
       <c r="F273" s="32"/>
@@ -21285,14 +21278,14 @@
         <v>693</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="O273" s="10">
         <v>56000131</v>
       </c>
       <c r="P273" s="1"/>
       <c r="Q273" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="R273" s="1">
         <v>360</v>
@@ -21301,7 +21294,7 @@
         <v>619</v>
       </c>
       <c r="T273" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="274" spans="1:20" ht="24">
@@ -21309,7 +21302,7 @@
         <v>55000288</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>1</v>
@@ -21320,7 +21313,7 @@
       <c r="G274" s="18"/>
       <c r="H274" s="17"/>
       <c r="I274" s="17" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="J274" s="21"/>
       <c r="K274" s="60"/>
@@ -21347,21 +21340,21 @@
         <v>622</v>
       </c>
       <c r="T274" s="53" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="275" spans="1:20" ht="120">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" ht="108">
       <c r="A275">
         <v>55000289</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D275" s="33" t="s">
-        <v>1360</v>
+        <v>1448</v>
       </c>
       <c r="E275" s="33"/>
       <c r="F275" s="32"/>
@@ -21377,7 +21370,7 @@
         <v>693</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="O275" s="1">
         <v>0</v>
@@ -21391,7 +21384,7 @@
         <v>623</v>
       </c>
       <c r="T275" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="276" spans="1:20" ht="84">
@@ -21409,7 +21402,7 @@
       <c r="F276" s="32"/>
       <c r="G276" s="18"/>
       <c r="H276" s="17" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="I276" s="17"/>
       <c r="J276" s="21"/>
@@ -21421,7 +21414,7 @@
         <v>693</v>
       </c>
       <c r="N276" s="10" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="O276" s="10">
         <v>0</v>
@@ -21435,7 +21428,7 @@
         <v>625</v>
       </c>
       <c r="T276" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="277" spans="1:20" ht="60">
@@ -21453,7 +21446,7 @@
       <c r="F277" s="32"/>
       <c r="G277" s="18"/>
       <c r="H277" s="17" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I277" s="17"/>
       <c r="J277" s="21"/>
@@ -21465,7 +21458,7 @@
         <v>693</v>
       </c>
       <c r="N277" s="10" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="O277" s="10">
         <v>0</v>
@@ -21479,7 +21472,7 @@
         <v>627</v>
       </c>
       <c r="T277" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="278" spans="1:20" ht="36">
@@ -21499,10 +21492,10 @@
       </c>
       <c r="G278" s="18"/>
       <c r="H278" s="17" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I278" s="17" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="J278" s="21"/>
       <c r="K278" s="60"/>
@@ -21513,7 +21506,7 @@
         <v>693</v>
       </c>
       <c r="N278" s="10" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="O278" s="10">
         <v>0</v>
@@ -21527,7 +21520,7 @@
         <v>629</v>
       </c>
       <c r="T278" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="279" spans="1:20" ht="48">
@@ -21547,7 +21540,7 @@
       <c r="H279" s="17"/>
       <c r="I279" s="17"/>
       <c r="J279" s="21" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="K279" s="60"/>
       <c r="L279" s="1" t="s">
@@ -21557,7 +21550,7 @@
         <v>693</v>
       </c>
       <c r="N279" s="10" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="O279" s="10">
         <v>0</v>
@@ -21571,7 +21564,7 @@
         <v>631</v>
       </c>
       <c r="T279" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="280" spans="1:20" ht="84">
@@ -21587,12 +21580,12 @@
       <c r="D280" s="33"/>
       <c r="E280" s="33"/>
       <c r="F280" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G280" s="18"/>
       <c r="H280" s="17"/>
       <c r="I280" s="17" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="J280" s="21"/>
       <c r="K280" s="60"/>
@@ -21603,16 +21596,16 @@
         <v>693</v>
       </c>
       <c r="N280" s="10" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="O280" s="10">
         <v>0</v>
       </c>
       <c r="P280" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="Q280" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R280" s="1">
         <f>600*3*2/12</f>
@@ -21622,7 +21615,7 @@
         <v>633</v>
       </c>
       <c r="T280" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="281" spans="1:20">
@@ -21650,7 +21643,7 @@
         <v>693</v>
       </c>
       <c r="N281" s="10" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="O281" s="10">
         <v>0</v>
@@ -21664,7 +21657,7 @@
         <v>635</v>
       </c>
       <c r="T281" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="282" spans="1:20" ht="24">
@@ -21684,7 +21677,7 @@
       <c r="H282" s="17"/>
       <c r="I282" s="17"/>
       <c r="J282" s="21" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="K282" s="60"/>
       <c r="L282" s="1" t="s">
@@ -21708,7 +21701,7 @@
         <v>637</v>
       </c>
       <c r="T282" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="283" spans="1:20" ht="96">
@@ -21728,7 +21721,7 @@
       </c>
       <c r="G283" s="18"/>
       <c r="H283" s="17" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="I283" s="17"/>
       <c r="J283" s="21"/>
@@ -21740,7 +21733,7 @@
         <v>693</v>
       </c>
       <c r="N283" s="10" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="O283" s="10">
         <v>0</v>
@@ -21754,7 +21747,7 @@
         <v>639</v>
       </c>
       <c r="T283" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="284" spans="1:20" ht="84">
@@ -21774,7 +21767,7 @@
       </c>
       <c r="G284" s="18"/>
       <c r="H284" s="17" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="I284" s="17"/>
       <c r="J284" s="21"/>
@@ -21786,7 +21779,7 @@
         <v>693</v>
       </c>
       <c r="N284" s="10" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="O284" s="10">
         <v>0</v>
@@ -21800,7 +21793,7 @@
         <v>641</v>
       </c>
       <c r="T284" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="285" spans="1:20" ht="24">
@@ -21848,7 +21841,7 @@
         <v>644</v>
       </c>
       <c r="T285" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="286" spans="1:20" ht="24">
@@ -21856,10 +21849,10 @@
         <v>55000300</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D286" s="33"/>
       <c r="E286" s="33"/>
@@ -21868,7 +21861,7 @@
       <c r="H286" s="17"/>
       <c r="I286" s="17"/>
       <c r="J286" s="21" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="K286" s="60">
         <v>2</v>
@@ -21880,26 +21873,26 @@
         <v>693</v>
       </c>
       <c r="N286" s="10" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="O286" s="10">
         <v>0</v>
       </c>
       <c r="P286" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="Q286" s="1"/>
       <c r="R286" s="1">
         <v>6000</v>
       </c>
       <c r="S286" s="31" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="T286" s="53" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="287" spans="1:20" ht="96">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" ht="84">
       <c r="A287">
         <v>55000324</v>
       </c>
@@ -21912,12 +21905,12 @@
       <c r="D287" s="33"/>
       <c r="E287" s="33"/>
       <c r="F287" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G287" s="18"/>
       <c r="H287" s="17"/>
       <c r="I287" s="17" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="J287" s="21"/>
       <c r="K287" s="60"/>
@@ -21928,16 +21921,16 @@
         <v>693</v>
       </c>
       <c r="N287" s="10" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="O287" s="10">
         <v>0</v>
       </c>
       <c r="P287" s="10" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="Q287" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R287" s="1">
         <f>1000*3*2/12</f>
@@ -21947,7 +21940,7 @@
         <v>646</v>
       </c>
       <c r="T287" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="288" spans="1:20" ht="84">
@@ -21963,12 +21956,12 @@
       <c r="D288" s="33"/>
       <c r="E288" s="33"/>
       <c r="F288" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G288" s="18"/>
       <c r="H288" s="17"/>
       <c r="I288" s="17" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="J288" s="21"/>
       <c r="K288" s="60"/>
@@ -21979,16 +21972,16 @@
         <v>693</v>
       </c>
       <c r="N288" s="10" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="O288" s="10">
         <v>0</v>
       </c>
       <c r="P288" s="10" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="Q288" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R288" s="1">
         <v>500</v>
@@ -21997,7 +21990,7 @@
         <v>648</v>
       </c>
       <c r="T288" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="289" spans="1:20" ht="84">
@@ -22013,12 +22006,12 @@
       <c r="D289" s="33"/>
       <c r="E289" s="33"/>
       <c r="F289" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G289" s="18"/>
       <c r="H289" s="17"/>
       <c r="I289" s="17" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="J289" s="21"/>
       <c r="K289" s="60"/>
@@ -22029,16 +22022,16 @@
         <v>693</v>
       </c>
       <c r="N289" s="10" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="O289" s="10">
         <v>0</v>
       </c>
       <c r="P289" s="10" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="Q289" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R289" s="1">
         <v>1000</v>
@@ -22047,10 +22040,10 @@
         <v>650</v>
       </c>
       <c r="T289" s="53" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="290" spans="1:20" ht="96">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" ht="84">
       <c r="A290">
         <v>55000327</v>
       </c>
@@ -22063,12 +22056,12 @@
       <c r="D290" s="33"/>
       <c r="E290" s="33"/>
       <c r="F290" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G290" s="18"/>
       <c r="H290" s="17"/>
       <c r="I290" s="17" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="J290" s="21"/>
       <c r="K290" s="60"/>
@@ -22079,16 +22072,16 @@
         <v>693</v>
       </c>
       <c r="N290" s="10" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="O290" s="10">
         <v>0</v>
       </c>
       <c r="P290" s="10" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="Q290" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R290" s="1">
         <v>833</v>
@@ -22097,7 +22090,7 @@
         <v>652</v>
       </c>
       <c r="T290" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="291" spans="1:20" ht="84">
@@ -22113,12 +22106,12 @@
       <c r="D291" s="33"/>
       <c r="E291" s="33"/>
       <c r="F291" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G291" s="18"/>
       <c r="H291" s="17"/>
       <c r="I291" s="17" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J291" s="21"/>
       <c r="K291" s="60"/>
@@ -22129,16 +22122,16 @@
         <v>693</v>
       </c>
       <c r="N291" s="10" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="O291" s="10">
         <v>0</v>
       </c>
       <c r="P291" s="10" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="Q291" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R291" s="1">
         <f>1400*3*2/12</f>
@@ -22148,7 +22141,7 @@
         <v>654</v>
       </c>
       <c r="T291" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="292" spans="1:20" ht="84">
@@ -22164,12 +22157,12 @@
       <c r="D292" s="33"/>
       <c r="E292" s="33"/>
       <c r="F292" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G292" s="18"/>
       <c r="H292" s="17"/>
       <c r="I292" s="17" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="J292" s="21"/>
       <c r="K292" s="60"/>
@@ -22180,16 +22173,16 @@
         <v>693</v>
       </c>
       <c r="N292" s="10" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="O292" s="10">
         <v>0</v>
       </c>
       <c r="P292" s="10" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="Q292" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R292" s="1">
         <f>1200*3*2/12</f>
@@ -22199,7 +22192,7 @@
         <v>656</v>
       </c>
       <c r="T292" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="293" spans="1:20" ht="96">
@@ -22215,12 +22208,12 @@
       <c r="D293" s="33"/>
       <c r="E293" s="33"/>
       <c r="F293" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G293" s="18"/>
       <c r="H293" s="17"/>
       <c r="I293" s="17" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="J293" s="21"/>
       <c r="K293" s="60"/>
@@ -22231,16 +22224,16 @@
         <v>693</v>
       </c>
       <c r="N293" s="10" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="O293" s="10">
         <v>0</v>
       </c>
       <c r="P293" s="10" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="Q293" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R293" s="1">
         <f>240*2</f>
@@ -22250,7 +22243,7 @@
         <v>658</v>
       </c>
       <c r="T293" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="294" spans="1:20" ht="84">
@@ -22266,12 +22259,12 @@
       <c r="D294" s="33"/>
       <c r="E294" s="33"/>
       <c r="F294" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G294" s="18"/>
       <c r="H294" s="17"/>
       <c r="I294" s="17" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="J294" s="21"/>
       <c r="K294" s="60"/>
@@ -22282,16 +22275,16 @@
         <v>693</v>
       </c>
       <c r="N294" s="10" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="O294" s="10">
         <v>0</v>
       </c>
       <c r="P294" s="10" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="Q294" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R294" s="1">
         <f>300*2</f>
@@ -22301,7 +22294,7 @@
         <v>660</v>
       </c>
       <c r="T294" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="295" spans="1:20" ht="72">
@@ -22319,19 +22312,19 @@
       <c r="F295" s="32"/>
       <c r="G295" s="18"/>
       <c r="H295" s="17" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="I295" s="17"/>
       <c r="J295" s="21"/>
       <c r="K295" s="60"/>
       <c r="L295" s="10" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="M295" s="9" t="s">
         <v>693</v>
       </c>
       <c r="N295" s="10" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="O295" s="10">
         <v>0</v>
@@ -22345,7 +22338,7 @@
         <v>662</v>
       </c>
       <c r="T295" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="296" spans="1:20" ht="180">
@@ -22363,7 +22356,7 @@
       <c r="F296" s="32"/>
       <c r="G296" s="18"/>
       <c r="H296" s="17" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I296" s="17"/>
       <c r="J296" s="21"/>
@@ -22375,7 +22368,7 @@
         <v>693</v>
       </c>
       <c r="N296" s="10" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="O296" s="10">
         <v>0</v>
@@ -22389,7 +22382,7 @@
         <v>664</v>
       </c>
       <c r="T296" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="297" spans="1:20" ht="96">
@@ -22405,12 +22398,12 @@
       <c r="D297" s="33"/>
       <c r="E297" s="33"/>
       <c r="F297" s="32" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G297" s="18"/>
       <c r="H297" s="17"/>
       <c r="I297" s="17" t="s">
-        <v>1393</v>
+        <v>1449</v>
       </c>
       <c r="J297" s="21"/>
       <c r="K297" s="60"/>
@@ -22421,16 +22414,16 @@
         <v>693</v>
       </c>
       <c r="N297" s="10" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="O297" s="10">
         <v>0</v>
       </c>
       <c r="P297" s="10" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="Q297" s="10" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="R297" s="1">
         <f>300*5*2/12</f>
@@ -22440,7 +22433,7 @@
         <v>666</v>
       </c>
       <c r="T297" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="298" spans="1:20" ht="84">
@@ -22451,7 +22444,7 @@
         <v>667</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D298" s="33"/>
       <c r="E298" s="33"/>
@@ -22460,7 +22453,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
       <c r="J298" s="21" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="K298" s="60"/>
       <c r="L298" s="1" t="s">
@@ -22470,7 +22463,7 @@
         <v>693</v>
       </c>
       <c r="N298" s="16" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="O298" s="10">
         <v>0</v>
@@ -22484,7 +22477,7 @@
         <v>668</v>
       </c>
       <c r="T298" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="299" spans="1:20" ht="48">
@@ -22492,16 +22485,16 @@
         <v>55000340</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D299" s="33" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E299" s="33" t="s">
         <v>1008</v>
-      </c>
-      <c r="E299" s="33" t="s">
-        <v>1010</v>
       </c>
       <c r="F299" s="32"/>
       <c r="G299" s="18"/>
@@ -22516,23 +22509,23 @@
         <v>693</v>
       </c>
       <c r="N299" s="10" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="O299" s="10">
         <v>0</v>
       </c>
       <c r="P299" s="1"/>
       <c r="Q299" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="R299" s="1">
         <v>200</v>
       </c>
       <c r="S299" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="T299" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="300" spans="1:20" ht="24">
@@ -22540,13 +22533,13 @@
         <v>55000341</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D300" s="33" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="E300" s="33"/>
       <c r="F300" s="32"/>
@@ -22562,37 +22555,37 @@
         <v>693</v>
       </c>
       <c r="N300" s="10" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="O300" s="10">
         <v>0</v>
       </c>
       <c r="P300" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="Q300" s="1"/>
       <c r="R300" s="1">
         <v>800</v>
       </c>
       <c r="S300" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="T300" s="53" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="301" spans="1:20" ht="144">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" ht="132">
       <c r="A301">
         <v>55000342</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C301" s="36" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D301" s="33" t="s">
-        <v>1359</v>
+        <v>1442</v>
       </c>
       <c r="E301" s="37"/>
       <c r="F301" s="50"/>
@@ -22605,10 +22598,10 @@
         <v>698</v>
       </c>
       <c r="M301" s="44" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="N301" s="16" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O301" s="36">
         <v>0</v>
@@ -22619,24 +22612,24 @@
         <v>400</v>
       </c>
       <c r="S301" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="T301" s="53" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="302" spans="1:20" ht="144">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" ht="132">
       <c r="A302">
         <v>55000343</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C302" s="36" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D302" s="33" t="s">
-        <v>1359</v>
+        <v>1442</v>
       </c>
       <c r="E302" s="37"/>
       <c r="F302" s="38"/>
@@ -22649,10 +22642,10 @@
         <v>698</v>
       </c>
       <c r="M302" s="44" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="N302" s="16" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="O302" s="36">
         <v>0</v>
@@ -22663,15 +22656,15 @@
         <v>600</v>
       </c>
       <c r="S302" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="T302" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="303" spans="1:20" ht="36">
       <c r="A303" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="B303" s="11" t="s">
         <v>129</v>
@@ -22685,7 +22678,7 @@
       <c r="G303" s="30"/>
       <c r="H303" s="35"/>
       <c r="I303" s="17" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="J303" s="21"/>
       <c r="K303" s="66"/>
@@ -22696,7 +22689,7 @@
         <v>693</v>
       </c>
       <c r="N303" s="10" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="O303" s="10">
         <v>0</v>
@@ -22710,7 +22703,7 @@
         <v>130</v>
       </c>
       <c r="T303" s="53" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
   </sheetData>
@@ -22780,10 +22773,10 @@
         <v>862</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>697</v>
@@ -22795,13 +22788,13 @@
         <v>703</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>689</v>
@@ -22810,7 +22803,7 @@
         <v>690</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -22824,28 +22817,28 @@
         <v>680</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>726</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>896</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>696</v>
@@ -22854,16 +22847,16 @@
         <v>692</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>680</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>679</v>
@@ -22886,16 +22879,16 @@
         <v>683</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>727</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>705</v>
@@ -22904,10 +22897,10 @@
         <v>861</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>699</v>
@@ -22916,16 +22909,16 @@
         <v>694</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>684</v>
@@ -22934,7 +22927,7 @@
         <v>685</v>
       </c>
       <c r="T3" s="54" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="84">
@@ -22948,7 +22941,7 @@
         <v>674</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="32"/>
@@ -22964,7 +22957,7 @@
         <v>695</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -22978,7 +22971,7 @@
         <v>675</v>
       </c>
       <c r="T4" s="55" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="84">
@@ -23022,7 +23015,7 @@
         <v>675</v>
       </c>
       <c r="T5" s="55" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
     </row>
   </sheetData>
@@ -23092,10 +23085,10 @@
         <v>862</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>697</v>
@@ -23107,13 +23100,13 @@
         <v>703</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>689</v>
@@ -23122,7 +23115,7 @@
         <v>690</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -23136,28 +23129,28 @@
         <v>680</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>726</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>896</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>696</v>
@@ -23166,10 +23159,10 @@
         <v>692</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>680</v>
@@ -23198,16 +23191,16 @@
         <v>683</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>727</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>705</v>
@@ -23216,10 +23209,10 @@
         <v>861</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>699</v>
@@ -23228,16 +23221,16 @@
         <v>694</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>684</v>
@@ -23246,7 +23239,7 @@
         <v>685</v>
       </c>
       <c r="T3" s="54" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="36">
@@ -23262,7 +23255,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="32" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="17" t="s">
@@ -23278,7 +23271,7 @@
         <v>693</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="O4" s="10">
         <v>0</v>
@@ -23292,7 +23285,7 @@
         <v>45</v>
       </c>
       <c r="T4" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="36">
@@ -23324,7 +23317,7 @@
         <v>693</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -23338,7 +23331,7 @@
         <v>47</v>
       </c>
       <c r="T5" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="36">
@@ -23370,7 +23363,7 @@
         <v>693</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -23384,7 +23377,7 @@
         <v>49</v>
       </c>
       <c r="T6" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="36">
@@ -23416,7 +23409,7 @@
         <v>693</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -23430,7 +23423,7 @@
         <v>51</v>
       </c>
       <c r="T7" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="36">
@@ -23462,7 +23455,7 @@
         <v>693</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -23476,7 +23469,7 @@
         <v>53</v>
       </c>
       <c r="T8" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="36">
@@ -23508,7 +23501,7 @@
         <v>693</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -23522,7 +23515,7 @@
         <v>55</v>
       </c>
       <c r="T9" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="36">
@@ -23554,7 +23547,7 @@
         <v>693</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
@@ -23568,7 +23561,7 @@
         <v>57</v>
       </c>
       <c r="T10" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="36">
@@ -23600,7 +23593,7 @@
         <v>693</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
@@ -23614,7 +23607,7 @@
         <v>59</v>
       </c>
       <c r="T11" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="36">
@@ -23660,7 +23653,7 @@
         <v>114</v>
       </c>
       <c r="T12" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="36">
@@ -23706,7 +23699,7 @@
         <v>116</v>
       </c>
       <c r="T13" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="36">
@@ -23752,7 +23745,7 @@
         <v>118</v>
       </c>
       <c r="T14" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="36">
@@ -23798,7 +23791,7 @@
         <v>120</v>
       </c>
       <c r="T15" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="36">
@@ -23844,7 +23837,7 @@
         <v>122</v>
       </c>
       <c r="T16" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="36">
@@ -23890,7 +23883,7 @@
         <v>124</v>
       </c>
       <c r="T17" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="36">
@@ -23936,7 +23929,7 @@
         <v>126</v>
       </c>
       <c r="T18" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="36">
@@ -23982,7 +23975,7 @@
         <v>128</v>
       </c>
       <c r="T19" s="55" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
   </sheetData>
@@ -24043,7 +24036,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -24091,7 +24084,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -24139,7 +24132,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -24187,7 +24180,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -24235,7 +24228,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -24283,7 +24276,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -24331,7 +24324,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -24379,7 +24372,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -24427,45 +24420,45 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B11" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B12" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E12" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F12" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B13" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B14" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B15">
         <v>300</v>
@@ -24473,7 +24466,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B16">
         <v>5000</v>
@@ -24481,7 +24474,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B17" s="26">
         <v>0.2</v>
@@ -24489,7 +24482,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B18" s="26">
         <v>0.1</v>
@@ -24497,7 +24490,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B19" s="26">
         <v>0.3</v>
@@ -24505,13 +24498,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B20" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D20" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -24519,31 +24512,31 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B22" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B23" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -24551,7 +24544,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -24559,7 +24552,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B26" s="26">
         <v>0.2</v>
@@ -24567,7 +24560,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B32">
         <v>800</v>
@@ -24575,7 +24568,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B33">
         <v>500</v>
@@ -24600,12 +24593,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:1">

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -4574,347 +4574,339 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>在对应属性地形时，每回合回复召唤师1点LP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中目标后偷取对方召唤师1点MP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中目标后回复召唤师1点MP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤后立刻回复召唤师1点MP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在对应属性地形时，每回合回复召唤师1点MP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中目标后减少对方召唤师1点LP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.IsElement("Water")</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对火系单位造成150%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对地系单位造成150%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对冰系单位造成150%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对雷系单位造成150%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对光系单位造成150%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对暗系单位造成150%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage.SetPDamageRate(1+0.2*s.GetMonsterCountByRace(4));</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高战场上昆虫数x20%的伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击/防御提高战场上昆虫数x20和x6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(isActive)damage.AddPDamage(s.GetMonsterCountByRace(4)*20-20);else damage.AddPDamage(-s.GetMonsterCountByRace(4)*6+6);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方冰系单位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌我龙</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌我无属性单位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方火系单位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方水系单位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方暗系单位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方雷系单位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方风系单位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方光系单位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方地系单位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌我亡灵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方野兽</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方巨鼠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方海盗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方植物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方暗系单位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣杖</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升30%速度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久提高15%攻击和命中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久提高20%攻击</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.IsTileMatching</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.IsTileMatching</t>
+  </si>
+  <si>
+    <t>damage.SetPDamageRate(0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage.SetPDamageRate(0.5);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在支援地形上受到伤害减半</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Owner.LpCost++;s.Owner.MpCost++;s.Rival.LpCost++;s.Rival.MpCost++;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Owner.LpCost--;s.Owner.MpCost--;s.Rival.LpCost--;s.Rival.MpCost--;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方玩家使用卡片消耗+1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Owner.LpCost+=3;s.Rival.LpCost+=3;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Owner.LpCost-=3;s.Rival.LpCost-=3;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方玩家使用怪物卡消耗-3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方玩家使用魔法/武器卡消耗+3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方玩家使用魔法/武器卡消耗-3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤时对场上所有怪物封印3回合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中目标后使其永久降低20%的命中和速度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Owner.GetNextNCard(1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardfly</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnAdd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillInitialEffectDelegate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Owner.RoundCardPlus++;s.Rival.RoundCardPlus++;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Owner.RoundCardPlus--;s.Rival.RoundCardPlus--;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方玩家每回合多抽一张牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死敌人永久降低20%攻击</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死敌人永久提高15%攻击</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(deadHit)s.Atk.Source*=0.8;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(deadHit)s.Atk.Source*=1.15;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤时永久增加0-30%攻击和防御</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.MaxHp-=(int)(s.MaxHp*0.3);s.Atk.Source*=0.7;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage.SetPDamageRate(0.5);d.Atk.Source*=0.9;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次使用永久提高20%防御</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次击中目标永久提升2%命中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Owner.MpCost+=3;s.Rival.MpCost+=3;s.Owner.PpCost+=3;s.Rival.PpCost+=3;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Owner.MpCost+=3;s.Rival.MpCost+=3;s.Owner.PpCost+=3;s.Rival.PpCost+=3;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Owner.MpCost-=3;s.Rival.MpCost-=3;s.Owner.PpCost-=3;s.Rival.PpCost-=3;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Owner.LpCost+=2;s.Rival.LpCost+=2;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Owner.LpCost-=2;s.Rival.LpCost-=2;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方玩家使用怪物卡消耗+2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>仗剑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有装备武器/卷轴时可以攻击</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangjian</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAfterHitEffectDelegate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckDamage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.AddHpRate(0.03);</t>
+  </si>
+  <si>
+    <t>s.AddHpRate(0.05);</t>
+  </si>
+  <si>
+    <t>s.ClearDebuff();</t>
+  </si>
+  <si>
     <t>s.Owner.AddMana(s,3,1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在对应属性地形时，每回合回复召唤师1点LP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中目标后偷取对方召唤师1点MP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤后立刻回复召唤师1点LP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中目标后回复召唤师1点MP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤后立刻回复召唤师1点MP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在对应属性地形时，每回合回复召唤师1点MP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中目标后减少对方召唤师1点LP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.IsElement("Water")</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对火系单位造成150%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对地系单位造成150%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对冰系单位造成150%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对雷系单位造成150%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对光系单位造成150%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对暗系单位造成150%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage.SetPDamageRate(1+0.2*s.GetMonsterCountByRace(4));</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高战场上昆虫数x20%的伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击/防御提高战场上昆虫数x20和x6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(isActive)damage.AddPDamage(s.GetMonsterCountByRace(4)*20-20);else damage.AddPDamage(-s.GetMonsterCountByRace(4)*6+6);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方冰系单位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌我龙</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌我无属性单位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方火系单位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方水系单位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方暗系单位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方雷系单位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方风系单位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方光系单位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方地系单位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌我亡灵</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方野兽</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方巨鼠</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方海盗</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方植物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方暗系单位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣杖</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升30%速度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久提高15%攻击和命中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久提高20%攻击</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.IsTileMatching</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.IsTileMatching</t>
-  </si>
-  <si>
-    <t>damage.SetPDamageRate(0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage.SetPDamageRate(0.5);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在支援地形上受到伤害减半</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Owner.LpCost++;s.Owner.MpCost++;s.Rival.LpCost++;s.Rival.MpCost++;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Owner.LpCost--;s.Owner.MpCost--;s.Rival.LpCost--;s.Rival.MpCost--;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方玩家使用卡片消耗+1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Owner.LpCost+=3;s.Rival.LpCost+=3;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Owner.LpCost-=3;s.Rival.LpCost-=3;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方玩家使用怪物卡消耗-3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方玩家使用魔法/武器卡消耗+3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方玩家使用魔法/武器卡消耗-3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤时对场上所有怪物封印3回合</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中目标后使其永久降低20%的命中和速度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Owner.GetNextNCard(1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardfly</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnAdd</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillInitialEffectDelegate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Owner.RoundCardPlus++;s.Rival.RoundCardPlus++;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Owner.RoundCardPlus--;s.Rival.RoundCardPlus--;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方玩家每回合多抽一张牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀死敌人永久降低20%攻击</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀死敌人永久提高15%攻击</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(deadHit)s.Atk.Source*=0.8;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(deadHit)s.Atk.Source*=1.15;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤时永久增加0-30%攻击和防御</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.MaxHp-=(int)(s.MaxHp*0.3);s.Atk.Source*=0.7;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage.SetPDamageRate(0.5);d.Atk.Source*=0.9;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次使用永久提高20%防御</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次击中目标永久提升2%命中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Owner.MpCost+=3;s.Rival.MpCost+=3;s.Owner.PpCost+=3;s.Rival.PpCost+=3;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Owner.MpCost+=3;s.Rival.MpCost+=3;s.Owner.PpCost+=3;s.Rival.PpCost+=3;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Owner.MpCost-=3;s.Rival.MpCost-=3;s.Owner.PpCost-=3;s.Rival.PpCost-=3;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Owner.LpCost+=2;s.Rival.LpCost+=2;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Owner.LpCost-=2;s.Rival.LpCost-=2;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方玩家使用怪物卡消耗+2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>仗剑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有装备武器/卷轴时可以攻击</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangjian</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillAfterHitEffectDelegate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckDamage</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.AddHpRate(0.03);</t>
-  </si>
-  <si>
-    <t>s.AddHpRate(0.05);</t>
-  </si>
-  <si>
-    <t>s.ClearDebuff();</t>
-  </si>
-  <si>
-    <t>s.Owner.AddMana(s,3,1);</t>
   </si>
   <si>
     <t>s.Owner.AddMana(s,1,1);</t>
@@ -5520,6 +5512,14 @@
   </si>
   <si>
     <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Owner.AddMana(s,1,1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合回复召唤师1点MP</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6652,250 +6652,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="宋体"/>
         <scheme val="none"/>
@@ -7428,6 +7184,87 @@
         <horizontal style="thin">
           <color theme="4"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -8135,6 +7972,87 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -8824,6 +8742,88 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -8980,99 +8980,99 @@
     <tableColumn id="1" name="Id" dataDxfId="77"/>
     <tableColumn id="2" name="Name" dataDxfId="76"/>
     <tableColumn id="3" name="Type" dataDxfId="75"/>
-    <tableColumn id="11" name="Target" dataDxfId="8"/>
-    <tableColumn id="12" name="Range" dataDxfId="7"/>
-    <tableColumn id="14" name="PointSelf" dataDxfId="0"/>
-    <tableColumn id="24" name="OnAdd" dataDxfId="74"/>
-    <tableColumn id="4" name="OnRemove" dataDxfId="73"/>
-    <tableColumn id="27" name="CanBurst" dataDxfId="72"/>
-    <tableColumn id="22" name="CheckHit" dataDxfId="71"/>
-    <tableColumn id="26" name="CheckDamage" dataDxfId="70"/>
-    <tableColumn id="29" name="AfterHit" dataDxfId="69"/>
-    <tableColumn id="5" name="CheckSpecial" dataDxfId="68"/>
-    <tableColumn id="9" name="SpecialCd" dataDxfId="67"/>
-    <tableColumn id="25" name="Active" dataDxfId="66"/>
-    <tableColumn id="20" name="IsRandom" dataDxfId="65"/>
-    <tableColumn id="23" name="GetDescript" dataDxfId="64"/>
-    <tableColumn id="8" name="DescriptBuffId" dataDxfId="63"/>
-    <tableColumn id="17" name="Effect" dataDxfId="62"/>
-    <tableColumn id="10" name="EffectArea" dataDxfId="61"/>
-    <tableColumn id="6" name="Cover" dataDxfId="60"/>
-    <tableColumn id="18" name="Mark" dataDxfId="59"/>
-    <tableColumn id="19" name="Icon" dataDxfId="58"/>
-    <tableColumn id="7" name="Remark" dataDxfId="57"/>
+    <tableColumn id="11" name="Target" dataDxfId="74"/>
+    <tableColumn id="12" name="Range" dataDxfId="73"/>
+    <tableColumn id="14" name="PointSelf" dataDxfId="72"/>
+    <tableColumn id="24" name="OnAdd" dataDxfId="71"/>
+    <tableColumn id="4" name="OnRemove" dataDxfId="70"/>
+    <tableColumn id="27" name="CanBurst" dataDxfId="69"/>
+    <tableColumn id="22" name="CheckHit" dataDxfId="68"/>
+    <tableColumn id="26" name="CheckDamage" dataDxfId="67"/>
+    <tableColumn id="29" name="AfterHit" dataDxfId="66"/>
+    <tableColumn id="5" name="CheckSpecial" dataDxfId="65"/>
+    <tableColumn id="9" name="SpecialCd" dataDxfId="64"/>
+    <tableColumn id="25" name="Active" dataDxfId="63"/>
+    <tableColumn id="20" name="IsRandom" dataDxfId="62"/>
+    <tableColumn id="23" name="GetDescript" dataDxfId="61"/>
+    <tableColumn id="8" name="DescriptBuffId" dataDxfId="60"/>
+    <tableColumn id="17" name="Effect" dataDxfId="59"/>
+    <tableColumn id="10" name="EffectArea" dataDxfId="58"/>
+    <tableColumn id="6" name="Cover" dataDxfId="57"/>
+    <tableColumn id="18" name="Mark" dataDxfId="56"/>
+    <tableColumn id="19" name="Icon" dataDxfId="55"/>
+    <tableColumn id="7" name="Remark" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表3_2" displayName="表3_2" ref="A3:X5" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表3_2" displayName="表3_2" ref="A3:X5" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
   <autoFilter ref="A3:X5"/>
   <sortState ref="A4:T346">
     <sortCondition ref="A3:A346"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" name="Id" dataDxfId="53"/>
-    <tableColumn id="2" name="Name" dataDxfId="52"/>
-    <tableColumn id="3" name="Type" dataDxfId="51"/>
-    <tableColumn id="11" name="Target" dataDxfId="6"/>
-    <tableColumn id="12" name="Range" dataDxfId="5"/>
-    <tableColumn id="13" name="PointSelf" dataDxfId="2"/>
-    <tableColumn id="24" name="OnAdd" dataDxfId="50"/>
-    <tableColumn id="4" name="OnRemove" dataDxfId="49"/>
-    <tableColumn id="27" name="CanBurst" dataDxfId="48"/>
-    <tableColumn id="22" name="CheckHit" dataDxfId="47"/>
-    <tableColumn id="26" name="CheckDamage" dataDxfId="46"/>
-    <tableColumn id="29" name="AfterHit" dataDxfId="45"/>
-    <tableColumn id="5" name="CheckSpecial" dataDxfId="44"/>
-    <tableColumn id="9" name="SpecialCd" dataDxfId="43"/>
-    <tableColumn id="25" name="Active" dataDxfId="42"/>
-    <tableColumn id="20" name="IsRandom" dataDxfId="41"/>
-    <tableColumn id="23" name="GetDescript" dataDxfId="40"/>
-    <tableColumn id="8" name="DescriptBuffId" dataDxfId="39"/>
-    <tableColumn id="17" name="Effect" dataDxfId="38"/>
-    <tableColumn id="10" name="EffectArea" dataDxfId="37"/>
-    <tableColumn id="6" name="Cover" dataDxfId="36"/>
-    <tableColumn id="18" name="Mark" dataDxfId="35"/>
-    <tableColumn id="19" name="Icon" dataDxfId="34"/>
-    <tableColumn id="7" name="Remark" dataDxfId="33"/>
+    <tableColumn id="1" name="Id" dataDxfId="50"/>
+    <tableColumn id="2" name="Name" dataDxfId="49"/>
+    <tableColumn id="3" name="Type" dataDxfId="48"/>
+    <tableColumn id="11" name="Target" dataDxfId="47"/>
+    <tableColumn id="12" name="Range" dataDxfId="46"/>
+    <tableColumn id="13" name="PointSelf" dataDxfId="45"/>
+    <tableColumn id="24" name="OnAdd" dataDxfId="44"/>
+    <tableColumn id="4" name="OnRemove" dataDxfId="43"/>
+    <tableColumn id="27" name="CanBurst" dataDxfId="42"/>
+    <tableColumn id="22" name="CheckHit" dataDxfId="41"/>
+    <tableColumn id="26" name="CheckDamage" dataDxfId="40"/>
+    <tableColumn id="29" name="AfterHit" dataDxfId="39"/>
+    <tableColumn id="5" name="CheckSpecial" dataDxfId="38"/>
+    <tableColumn id="9" name="SpecialCd" dataDxfId="37"/>
+    <tableColumn id="25" name="Active" dataDxfId="36"/>
+    <tableColumn id="20" name="IsRandom" dataDxfId="35"/>
+    <tableColumn id="23" name="GetDescript" dataDxfId="34"/>
+    <tableColumn id="8" name="DescriptBuffId" dataDxfId="33"/>
+    <tableColumn id="17" name="Effect" dataDxfId="32"/>
+    <tableColumn id="10" name="EffectArea" dataDxfId="31"/>
+    <tableColumn id="6" name="Cover" dataDxfId="30"/>
+    <tableColumn id="18" name="Mark" dataDxfId="29"/>
+    <tableColumn id="19" name="Icon" dataDxfId="28"/>
+    <tableColumn id="7" name="Remark" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表3_23" displayName="表3_23" ref="A3:X19" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表3_23" displayName="表3_23" ref="A3:X19" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="A3:X19"/>
   <sortState ref="A4:T346">
     <sortCondition ref="A3:A346"/>
   </sortState>
   <tableColumns count="24">
-    <tableColumn id="1" name="Id" dataDxfId="29"/>
-    <tableColumn id="2" name="Name" dataDxfId="28"/>
-    <tableColumn id="3" name="Type" dataDxfId="27"/>
-    <tableColumn id="11" name="Target" dataDxfId="4"/>
-    <tableColumn id="12" name="Range" dataDxfId="3"/>
-    <tableColumn id="13" name="PointSelf" dataDxfId="1"/>
-    <tableColumn id="24" name="OnAdd" dataDxfId="26"/>
-    <tableColumn id="4" name="OnRemove" dataDxfId="25"/>
-    <tableColumn id="27" name="CanBurst" dataDxfId="24"/>
-    <tableColumn id="22" name="CheckHit" dataDxfId="23"/>
-    <tableColumn id="26" name="CheckDamage" dataDxfId="22"/>
-    <tableColumn id="29" name="AfterHit" dataDxfId="21"/>
-    <tableColumn id="5" name="CheckSpecial" dataDxfId="20"/>
-    <tableColumn id="9" name="SpecialCd" dataDxfId="19"/>
-    <tableColumn id="25" name="Active" dataDxfId="18"/>
-    <tableColumn id="20" name="IsRandom" dataDxfId="17"/>
-    <tableColumn id="23" name="GetDescript" dataDxfId="16"/>
-    <tableColumn id="8" name="DescriptBuffId" dataDxfId="15"/>
-    <tableColumn id="17" name="Effect" dataDxfId="14"/>
-    <tableColumn id="10" name="EffectArea" dataDxfId="13"/>
-    <tableColumn id="6" name="Cover" dataDxfId="12"/>
-    <tableColumn id="18" name="Mark" dataDxfId="11"/>
-    <tableColumn id="19" name="Icon" dataDxfId="10"/>
-    <tableColumn id="7" name="Remark" dataDxfId="9"/>
+    <tableColumn id="1" name="Id" dataDxfId="23"/>
+    <tableColumn id="2" name="Name" dataDxfId="22"/>
+    <tableColumn id="3" name="Type" dataDxfId="21"/>
+    <tableColumn id="11" name="Target" dataDxfId="20"/>
+    <tableColumn id="12" name="Range" dataDxfId="19"/>
+    <tableColumn id="13" name="PointSelf" dataDxfId="18"/>
+    <tableColumn id="24" name="OnAdd" dataDxfId="17"/>
+    <tableColumn id="4" name="OnRemove" dataDxfId="16"/>
+    <tableColumn id="27" name="CanBurst" dataDxfId="15"/>
+    <tableColumn id="22" name="CheckHit" dataDxfId="14"/>
+    <tableColumn id="26" name="CheckDamage" dataDxfId="13"/>
+    <tableColumn id="29" name="AfterHit" dataDxfId="12"/>
+    <tableColumn id="5" name="CheckSpecial" dataDxfId="11"/>
+    <tableColumn id="9" name="SpecialCd" dataDxfId="10"/>
+    <tableColumn id="25" name="Active" dataDxfId="9"/>
+    <tableColumn id="20" name="IsRandom" dataDxfId="8"/>
+    <tableColumn id="23" name="GetDescript" dataDxfId="7"/>
+    <tableColumn id="8" name="DescriptBuffId" dataDxfId="6"/>
+    <tableColumn id="17" name="Effect" dataDxfId="5"/>
+    <tableColumn id="10" name="EffectArea" dataDxfId="4"/>
+    <tableColumn id="6" name="Cover" dataDxfId="3"/>
+    <tableColumn id="18" name="Mark" dataDxfId="2"/>
+    <tableColumn id="19" name="Icon" dataDxfId="1"/>
+    <tableColumn id="7" name="Remark" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9368,10 +9368,10 @@
   <dimension ref="A1:X303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C302" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H302" sqref="H302"/>
+      <selection pane="bottomRight" activeCell="V190" sqref="V190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9384,10 +9384,10 @@
     <col min="9" max="11" width="8.5" customWidth="1"/>
     <col min="12" max="12" width="17.375" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="8.125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" customWidth="1"/>
+    <col min="15" max="15" width="7.375" customWidth="1"/>
+    <col min="16" max="16" width="6.375" customWidth="1"/>
+    <col min="17" max="17" width="23.5" customWidth="1"/>
     <col min="18" max="18" width="9" customWidth="1"/>
     <col min="19" max="21" width="7.625" customWidth="1"/>
     <col min="22" max="22" width="7.125" customWidth="1"/>
@@ -9405,13 +9405,13 @@
         <v>688</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>704</v>
@@ -9435,7 +9435,7 @@
         <v>939</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>697</v>
@@ -9453,7 +9453,7 @@
         <v>999</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>1018</v>
@@ -9465,7 +9465,7 @@
         <v>690</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -9479,16 +9479,16 @@
         <v>680</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1029</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>1005</v>
@@ -9503,13 +9503,13 @@
         <v>995</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>696</v>
@@ -9553,16 +9553,16 @@
         <v>683</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1007</v>
@@ -9574,16 +9574,16 @@
         <v>960</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>861</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>699</v>
@@ -9598,10 +9598,10 @@
         <v>1030</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>1016</v>
@@ -9613,7 +9613,7 @@
         <v>685</v>
       </c>
       <c r="X3" s="54" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="36">
@@ -9663,7 +9663,7 @@
         <v>2</v>
       </c>
       <c r="X4" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="48">
@@ -9711,7 +9711,7 @@
         <v>5</v>
       </c>
       <c r="X5" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -9734,7 +9734,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="21" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="N6" s="60"/>
       <c r="O6" s="1" t="s">
@@ -9759,7 +9759,7 @@
         <v>8</v>
       </c>
       <c r="X6" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="36">
@@ -9809,7 +9809,7 @@
         <v>11</v>
       </c>
       <c r="X7" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="36">
@@ -9859,7 +9859,7 @@
         <v>13</v>
       </c>
       <c r="X8" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="36">
@@ -9909,7 +9909,7 @@
         <v>15</v>
       </c>
       <c r="X9" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="36">
@@ -9959,7 +9959,7 @@
         <v>17</v>
       </c>
       <c r="X10" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="36">
@@ -10009,7 +10009,7 @@
         <v>19</v>
       </c>
       <c r="X11" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="36">
@@ -10059,7 +10059,7 @@
         <v>21</v>
       </c>
       <c r="X12" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="36">
@@ -10109,7 +10109,7 @@
         <v>23</v>
       </c>
       <c r="X13" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="36">
@@ -10159,7 +10159,7 @@
         <v>25</v>
       </c>
       <c r="X14" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="36">
@@ -10209,7 +10209,7 @@
         <v>27</v>
       </c>
       <c r="X15" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="36">
@@ -10259,7 +10259,7 @@
         <v>29</v>
       </c>
       <c r="X16" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="36">
@@ -10309,7 +10309,7 @@
         <v>31</v>
       </c>
       <c r="X17" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="36">
@@ -10359,7 +10359,7 @@
         <v>33</v>
       </c>
       <c r="X18" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="36">
@@ -10409,7 +10409,7 @@
         <v>35</v>
       </c>
       <c r="X19" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="36">
@@ -10459,7 +10459,7 @@
         <v>37</v>
       </c>
       <c r="X20" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="36">
@@ -10509,7 +10509,7 @@
         <v>39</v>
       </c>
       <c r="X21" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="36">
@@ -10559,7 +10559,7 @@
         <v>41</v>
       </c>
       <c r="X22" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="48">
@@ -10609,7 +10609,7 @@
         <v>43</v>
       </c>
       <c r="X23" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="27">
@@ -10617,10 +10617,10 @@
         <v>55000021</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -10634,13 +10634,13 @@
       <c r="M24" s="48"/>
       <c r="N24" s="61"/>
       <c r="O24" s="1" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>693</v>
       </c>
       <c r="Q24" s="15" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="R24" s="52">
         <v>0</v>
@@ -10652,10 +10652,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="X24" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="24">
@@ -10677,7 +10677,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="60"/>
@@ -10703,7 +10703,7 @@
         <v>62</v>
       </c>
       <c r="X25" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="36">
@@ -10753,7 +10753,7 @@
         <v>65</v>
       </c>
       <c r="X26" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="24">
@@ -10772,7 +10772,7 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="17"/>
@@ -10803,7 +10803,7 @@
         <v>67</v>
       </c>
       <c r="X27" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="24">
@@ -10822,7 +10822,7 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J28" s="18"/>
       <c r="K28" s="17"/>
@@ -10853,7 +10853,7 @@
         <v>69</v>
       </c>
       <c r="X28" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -10884,7 +10884,7 @@
         <v>693</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="R29" s="14">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>671</v>
       </c>
       <c r="X29" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="48">
@@ -10949,7 +10949,7 @@
         <v>71</v>
       </c>
       <c r="X30" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="24">
@@ -10971,7 +10971,7 @@
       <c r="J31" s="18"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="60"/>
@@ -10997,7 +10997,7 @@
         <v>74</v>
       </c>
       <c r="X31" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="36">
@@ -11016,7 +11016,7 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="32" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J32" s="18"/>
       <c r="K32" s="17" t="s">
@@ -11047,7 +11047,7 @@
         <v>77</v>
       </c>
       <c r="X32" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="48">
@@ -11095,7 +11095,7 @@
         <v>79</v>
       </c>
       <c r="X33" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="36">
@@ -11143,7 +11143,7 @@
         <v>81</v>
       </c>
       <c r="X34" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="36">
@@ -11191,7 +11191,7 @@
         <v>83</v>
       </c>
       <c r="X35" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="36">
@@ -11239,7 +11239,7 @@
         <v>85</v>
       </c>
       <c r="X36" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="36">
@@ -11291,7 +11291,7 @@
         <v>89</v>
       </c>
       <c r="X37" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="48">
@@ -11341,7 +11341,7 @@
         <v>91</v>
       </c>
       <c r="X38" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="24">
@@ -11363,7 +11363,7 @@
       <c r="J39" s="18"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="60"/>
@@ -11389,7 +11389,7 @@
         <v>93</v>
       </c>
       <c r="X39" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="24">
@@ -11411,7 +11411,7 @@
       <c r="J40" s="18"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="M40" s="21"/>
       <c r="N40" s="60"/>
@@ -11437,7 +11437,7 @@
         <v>95</v>
       </c>
       <c r="X40" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="36">
@@ -11485,7 +11485,7 @@
         <v>97</v>
       </c>
       <c r="X41" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="36">
@@ -11508,7 +11508,7 @@
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
       <c r="M42" s="21" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="N42" s="60"/>
       <c r="O42" s="1" t="s">
@@ -11533,7 +11533,7 @@
         <v>99</v>
       </c>
       <c r="X42" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="36">
@@ -11583,7 +11583,7 @@
         <v>102</v>
       </c>
       <c r="X43" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="36">
@@ -11600,7 +11600,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="67"/>
       <c r="G44" s="33" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="H44" s="33"/>
       <c r="I44" s="32"/>
@@ -11633,7 +11633,7 @@
         <v>105</v>
       </c>
       <c r="X44" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="48">
@@ -11681,7 +11681,7 @@
         <v>107</v>
       </c>
       <c r="X45" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="48">
@@ -11731,7 +11731,7 @@
         <v>109</v>
       </c>
       <c r="X46" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -11779,7 +11779,7 @@
         <v>112</v>
       </c>
       <c r="X47" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="36">
@@ -11829,7 +11829,7 @@
         <v>132</v>
       </c>
       <c r="X48" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="24">
@@ -11851,7 +11851,7 @@
       <c r="J49" s="18"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="M49" s="21"/>
       <c r="N49" s="60"/>
@@ -11877,7 +11877,7 @@
         <v>134</v>
       </c>
       <c r="X49" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="36">
@@ -11927,7 +11927,7 @@
         <v>137</v>
       </c>
       <c r="X50" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="72">
@@ -11944,10 +11944,10 @@
       <c r="E51" s="1"/>
       <c r="F51" s="67"/>
       <c r="G51" s="33" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="18"/>
@@ -11962,7 +11962,7 @@
         <v>693</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="R51" s="10">
         <v>0</v>
@@ -11979,7 +11979,7 @@
         <v>139</v>
       </c>
       <c r="X51" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="48">
@@ -12029,7 +12029,7 @@
         <v>141</v>
       </c>
       <c r="X52" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="48">
@@ -12079,7 +12079,7 @@
         <v>143</v>
       </c>
       <c r="X53" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="48">
@@ -12129,7 +12129,7 @@
         <v>145</v>
       </c>
       <c r="X54" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="48">
@@ -12179,7 +12179,7 @@
         <v>147</v>
       </c>
       <c r="X55" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="48">
@@ -12229,7 +12229,7 @@
         <v>149</v>
       </c>
       <c r="X56" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="48">
@@ -12279,7 +12279,7 @@
         <v>151</v>
       </c>
       <c r="X57" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="48">
@@ -12329,7 +12329,7 @@
         <v>153</v>
       </c>
       <c r="X58" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="48">
@@ -12379,7 +12379,7 @@
         <v>155</v>
       </c>
       <c r="X59" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="36">
@@ -12429,7 +12429,7 @@
         <v>157</v>
       </c>
       <c r="X60" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="24">
@@ -12477,7 +12477,7 @@
         <v>159</v>
       </c>
       <c r="X61" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="120">
@@ -12529,7 +12529,7 @@
         <v>164</v>
       </c>
       <c r="X62" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="24">
@@ -12577,7 +12577,7 @@
         <v>167</v>
       </c>
       <c r="X63" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="36">
@@ -12627,7 +12627,7 @@
         <v>169</v>
       </c>
       <c r="X64" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="24">
@@ -12675,7 +12675,7 @@
         <v>171</v>
       </c>
       <c r="X65" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="24">
@@ -12725,7 +12725,7 @@
         <v>174</v>
       </c>
       <c r="X66" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="24">
@@ -12775,7 +12775,7 @@
         <v>177</v>
       </c>
       <c r="X67" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="24">
@@ -12823,7 +12823,7 @@
         <v>180</v>
       </c>
       <c r="X68" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="24">
@@ -12847,7 +12847,7 @@
       <c r="J69" s="18"/>
       <c r="K69" s="17"/>
       <c r="L69" s="17" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="M69" s="21"/>
       <c r="N69" s="60"/>
@@ -12873,7 +12873,7 @@
         <v>182</v>
       </c>
       <c r="X69" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="48">
@@ -12896,7 +12896,7 @@
       <c r="K70" s="17"/>
       <c r="L70" s="22"/>
       <c r="M70" s="21" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="N70" s="60"/>
       <c r="O70" s="1" t="s">
@@ -12925,7 +12925,7 @@
         <v>186</v>
       </c>
       <c r="X70" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="156">
@@ -12939,16 +12939,16 @@
         <v>1024</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E71" s="1">
         <v>40</v>
       </c>
       <c r="F71" s="67" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="G71" s="33" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="H71" s="33"/>
       <c r="I71" s="32"/>
@@ -12964,7 +12964,7 @@
         <v>693</v>
       </c>
       <c r="Q71" s="10" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="R71" s="10">
         <v>0</v>
@@ -12985,7 +12985,7 @@
         <v>188</v>
       </c>
       <c r="X71" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="36">
@@ -13035,7 +13035,7 @@
         <v>190</v>
       </c>
       <c r="X72" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="36">
@@ -13085,7 +13085,7 @@
         <v>192</v>
       </c>
       <c r="X73" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="24">
@@ -13107,7 +13107,7 @@
       <c r="J74" s="18"/>
       <c r="K74" s="17"/>
       <c r="L74" s="17" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="M74" s="21"/>
       <c r="N74" s="60"/>
@@ -13133,7 +13133,7 @@
         <v>194</v>
       </c>
       <c r="X74" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="24">
@@ -13155,7 +13155,7 @@
       <c r="J75" s="18"/>
       <c r="K75" s="17"/>
       <c r="L75" s="17" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="M75" s="21"/>
       <c r="N75" s="60"/>
@@ -13181,7 +13181,7 @@
         <v>196</v>
       </c>
       <c r="X75" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="24">
@@ -13229,7 +13229,7 @@
         <v>198</v>
       </c>
       <c r="X76" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="48">
@@ -13246,7 +13246,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="67"/>
       <c r="G77" s="33" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="H77" s="33"/>
       <c r="I77" s="32"/>
@@ -13277,7 +13277,7 @@
         <v>201</v>
       </c>
       <c r="X77" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="24">
@@ -13299,7 +13299,7 @@
       <c r="J78" s="18"/>
       <c r="K78" s="17"/>
       <c r="L78" s="17" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="M78" s="21"/>
       <c r="N78" s="60"/>
@@ -13325,7 +13325,7 @@
         <v>203</v>
       </c>
       <c r="X78" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="36">
@@ -13348,7 +13348,7 @@
       <c r="K79" s="17"/>
       <c r="L79" s="22"/>
       <c r="M79" s="19" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="N79" s="63"/>
       <c r="O79" s="1" t="s">
@@ -13377,7 +13377,7 @@
         <v>204</v>
       </c>
       <c r="X79" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="24">
@@ -13399,7 +13399,7 @@
       <c r="J80" s="18"/>
       <c r="K80" s="17"/>
       <c r="L80" s="17" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="M80" s="21"/>
       <c r="N80" s="60"/>
@@ -13425,7 +13425,7 @@
         <v>206</v>
       </c>
       <c r="X80" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="24">
@@ -13447,7 +13447,7 @@
       <c r="J81" s="18"/>
       <c r="K81" s="17"/>
       <c r="L81" s="17" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="M81" s="21"/>
       <c r="N81" s="60"/>
@@ -13473,7 +13473,7 @@
         <v>208</v>
       </c>
       <c r="X81" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="24">
@@ -13495,7 +13495,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="17"/>
       <c r="L82" s="17" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="M82" s="21"/>
       <c r="N82" s="60"/>
@@ -13521,7 +13521,7 @@
         <v>210</v>
       </c>
       <c r="X82" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="84">
@@ -13569,7 +13569,7 @@
         <v>212</v>
       </c>
       <c r="X83" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="48">
@@ -13586,7 +13586,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="67"/>
       <c r="G84" s="33" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H84" s="33"/>
       <c r="I84" s="32"/>
@@ -13602,7 +13602,7 @@
         <v>693</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="R84" s="10">
         <v>56000101</v>
@@ -13619,7 +13619,7 @@
         <v>214</v>
       </c>
       <c r="X84" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="96">
@@ -13633,23 +13633,23 @@
         <v>216</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E85" s="1">
         <v>20</v>
       </c>
       <c r="F85" s="67" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="G85" s="33"/>
       <c r="H85" s="33"/>
       <c r="I85" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J85" s="18"/>
       <c r="K85" s="17"/>
       <c r="L85" s="17" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="M85" s="21"/>
       <c r="N85" s="60"/>
@@ -13669,7 +13669,7 @@
         <v>910</v>
       </c>
       <c r="T85" s="10" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="U85" s="10" t="s">
         <v>1026</v>
@@ -13682,7 +13682,7 @@
         <v>217</v>
       </c>
       <c r="X85" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="36">
@@ -13730,7 +13730,7 @@
         <v>220</v>
       </c>
       <c r="X86" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="36">
@@ -13782,7 +13782,7 @@
         <v>223</v>
       </c>
       <c r="X87" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -13805,7 +13805,7 @@
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
       <c r="M88" s="21" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="N88" s="60"/>
       <c r="O88" s="1" t="s">
@@ -13830,7 +13830,7 @@
         <v>225</v>
       </c>
       <c r="X88" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -13853,7 +13853,7 @@
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
       <c r="M89" s="21" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="N89" s="60"/>
       <c r="O89" s="1" t="s">
@@ -13878,7 +13878,7 @@
         <v>227</v>
       </c>
       <c r="X89" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -13924,7 +13924,7 @@
         <v>229</v>
       </c>
       <c r="X90" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="36">
@@ -13974,7 +13974,7 @@
         <v>231</v>
       </c>
       <c r="X91" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="96">
@@ -13988,23 +13988,23 @@
         <v>216</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E92" s="1">
         <v>10</v>
       </c>
       <c r="F92" s="67" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
       <c r="I92" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J92" s="18"/>
       <c r="K92" s="17"/>
       <c r="L92" s="17" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="M92" s="21"/>
       <c r="N92" s="60"/>
@@ -14024,7 +14024,7 @@
         <v>912</v>
       </c>
       <c r="T92" s="10" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="U92" s="10" t="s">
         <v>1026</v>
@@ -14037,7 +14037,7 @@
         <v>233</v>
       </c>
       <c r="X92" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="48">
@@ -14087,7 +14087,7 @@
         <v>235</v>
       </c>
       <c r="X93" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="36">
@@ -14137,7 +14137,7 @@
         <v>237</v>
       </c>
       <c r="X94" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="48">
@@ -14154,7 +14154,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="67"/>
       <c r="G95" s="33" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="H95" s="33"/>
       <c r="I95" s="32"/>
@@ -14170,7 +14170,7 @@
         <v>693</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="R95" s="10">
         <v>56000101</v>
@@ -14187,7 +14187,7 @@
         <v>239</v>
       </c>
       <c r="X95" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="36">
@@ -14235,7 +14235,7 @@
         <v>242</v>
       </c>
       <c r="X96" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="24">
@@ -14283,7 +14283,7 @@
         <v>245</v>
       </c>
       <c r="X97" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="36">
@@ -14335,7 +14335,7 @@
         <v>248</v>
       </c>
       <c r="X98" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="24">
@@ -14359,7 +14359,7 @@
       </c>
       <c r="K99" s="17"/>
       <c r="L99" s="17" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="M99" s="21"/>
       <c r="N99" s="60"/>
@@ -14385,7 +14385,7 @@
         <v>250</v>
       </c>
       <c r="X99" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="48">
@@ -14402,7 +14402,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="67"/>
       <c r="G100" s="33" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H100" s="33"/>
       <c r="I100" s="32"/>
@@ -14418,7 +14418,7 @@
         <v>693</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="R100" s="10">
         <v>56000101</v>
@@ -14435,7 +14435,7 @@
         <v>252</v>
       </c>
       <c r="X100" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="24">
@@ -14457,7 +14457,7 @@
       <c r="J101" s="18"/>
       <c r="K101" s="17"/>
       <c r="L101" s="17" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="M101" s="21"/>
       <c r="N101" s="60"/>
@@ -14483,7 +14483,7 @@
         <v>254</v>
       </c>
       <c r="X101" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="36">
@@ -14535,7 +14535,7 @@
         <v>256</v>
       </c>
       <c r="X102" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="24">
@@ -14557,7 +14557,7 @@
       <c r="J103" s="18"/>
       <c r="K103" s="17"/>
       <c r="L103" s="17" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="M103" s="21"/>
       <c r="N103" s="60"/>
@@ -14583,7 +14583,7 @@
         <v>258</v>
       </c>
       <c r="X103" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="60">
@@ -14633,7 +14633,7 @@
         <v>260</v>
       </c>
       <c r="X104" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="48">
@@ -14650,7 +14650,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="67"/>
       <c r="G105" s="33" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H105" s="33"/>
       <c r="I105" s="32"/>
@@ -14666,7 +14666,7 @@
         <v>693</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="R105" s="10">
         <v>56000101</v>
@@ -14683,7 +14683,7 @@
         <v>262</v>
       </c>
       <c r="X105" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="48">
@@ -14733,7 +14733,7 @@
         <v>264</v>
       </c>
       <c r="X106" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="24">
@@ -14755,7 +14755,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="17"/>
       <c r="L107" s="17" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="M107" s="21"/>
       <c r="N107" s="60"/>
@@ -14781,7 +14781,7 @@
         <v>266</v>
       </c>
       <c r="X107" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="24">
@@ -14833,7 +14833,7 @@
         <v>269</v>
       </c>
       <c r="X108" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="36">
@@ -14883,7 +14883,7 @@
         <v>271</v>
       </c>
       <c r="X109" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="36">
@@ -14933,7 +14933,7 @@
         <v>273</v>
       </c>
       <c r="X110" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="48">
@@ -14950,7 +14950,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="67"/>
       <c r="G111" s="33" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="H111" s="33"/>
       <c r="I111" s="32"/>
@@ -14966,7 +14966,7 @@
         <v>693</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="R111" s="10">
         <v>56000101</v>
@@ -14983,7 +14983,7 @@
         <v>275</v>
       </c>
       <c r="X111" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="36">
@@ -15031,7 +15031,7 @@
         <v>278</v>
       </c>
       <c r="X112" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="48">
@@ -15079,7 +15079,7 @@
         <v>280</v>
       </c>
       <c r="X113" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -15125,7 +15125,7 @@
         <v>282</v>
       </c>
       <c r="X114" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -15171,7 +15171,7 @@
         <v>284</v>
       </c>
       <c r="X115" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="24">
@@ -15219,7 +15219,7 @@
         <v>286</v>
       </c>
       <c r="X116" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="24">
@@ -15267,7 +15267,7 @@
         <v>288</v>
       </c>
       <c r="X117" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="24">
@@ -15289,7 +15289,7 @@
       <c r="J118" s="18"/>
       <c r="K118" s="17"/>
       <c r="L118" s="17" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="M118" s="21"/>
       <c r="N118" s="60"/>
@@ -15315,7 +15315,7 @@
         <v>290</v>
       </c>
       <c r="X118" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="36">
@@ -15363,7 +15363,7 @@
         <v>292</v>
       </c>
       <c r="X119" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="120">
@@ -15377,16 +15377,16 @@
         <v>104</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E120" s="1">
         <v>20</v>
       </c>
       <c r="F120" s="67" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H120" s="33"/>
       <c r="I120" s="29"/>
@@ -15402,7 +15402,7 @@
         <v>693</v>
       </c>
       <c r="Q120" s="10" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="R120" s="10">
         <v>56000016</v>
@@ -15419,7 +15419,7 @@
         <v>294</v>
       </c>
       <c r="X120" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="60">
@@ -15436,10 +15436,10 @@
       <c r="E121" s="1"/>
       <c r="F121" s="67"/>
       <c r="G121" s="33" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="H121" s="33" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="I121" s="32"/>
       <c r="J121" s="18"/>
@@ -15454,7 +15454,7 @@
         <v>693</v>
       </c>
       <c r="Q121" s="10" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="R121" s="10">
         <v>0</v>
@@ -15469,7 +15469,7 @@
         <v>296</v>
       </c>
       <c r="X121" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="36">
@@ -15517,7 +15517,7 @@
         <v>298</v>
       </c>
       <c r="X122" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="24">
@@ -15539,7 +15539,7 @@
       <c r="J123" s="18"/>
       <c r="K123" s="17"/>
       <c r="L123" s="17" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="M123" s="21"/>
       <c r="N123" s="60"/>
@@ -15565,7 +15565,7 @@
         <v>300</v>
       </c>
       <c r="X123" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="48">
@@ -15582,7 +15582,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="67"/>
       <c r="G124" s="33" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="H124" s="33"/>
       <c r="I124" s="32"/>
@@ -15598,7 +15598,7 @@
         <v>693</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="R124" s="10">
         <v>56000101</v>
@@ -15615,7 +15615,7 @@
         <v>302</v>
       </c>
       <c r="X124" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="36">
@@ -15663,7 +15663,7 @@
         <v>305</v>
       </c>
       <c r="X125" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="48">
@@ -15680,7 +15680,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="67"/>
       <c r="G126" s="33" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="H126" s="33"/>
       <c r="I126" s="32"/>
@@ -15696,7 +15696,7 @@
         <v>693</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="R126" s="10">
         <v>56000101</v>
@@ -15713,7 +15713,7 @@
         <v>307</v>
       </c>
       <c r="X126" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="48">
@@ -15730,7 +15730,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="67"/>
       <c r="G127" s="33" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="H127" s="33"/>
       <c r="I127" s="32"/>
@@ -15746,7 +15746,7 @@
         <v>693</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="R127" s="10">
         <v>56000101</v>
@@ -15763,7 +15763,7 @@
         <v>309</v>
       </c>
       <c r="X127" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="48">
@@ -15780,7 +15780,7 @@
       <c r="E128" s="1"/>
       <c r="F128" s="67"/>
       <c r="G128" s="33" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="H128" s="33"/>
       <c r="I128" s="32"/>
@@ -15796,7 +15796,7 @@
         <v>693</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="R128" s="10">
         <v>56000101</v>
@@ -15813,7 +15813,7 @@
         <v>311</v>
       </c>
       <c r="X128" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="36">
@@ -15861,7 +15861,7 @@
         <v>314</v>
       </c>
       <c r="X129" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="24">
@@ -15886,7 +15886,7 @@
       <c r="K130" s="17"/>
       <c r="L130" s="17"/>
       <c r="M130" s="21" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="N130" s="60"/>
       <c r="O130" s="1" t="s">
@@ -15914,7 +15914,7 @@
         <v>317</v>
       </c>
       <c r="X130" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="48">
@@ -15931,7 +15931,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="67"/>
       <c r="G131" s="33" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H131" s="33"/>
       <c r="I131" s="32"/>
@@ -15947,7 +15947,7 @@
         <v>693</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="R131" s="10">
         <v>56000101</v>
@@ -15964,7 +15964,7 @@
         <v>319</v>
       </c>
       <c r="X131" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="24">
@@ -16012,7 +16012,7 @@
         <v>322</v>
       </c>
       <c r="X132" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="48">
@@ -16029,7 +16029,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="67"/>
       <c r="G133" s="33" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="H133" s="33"/>
       <c r="I133" s="32"/>
@@ -16045,7 +16045,7 @@
         <v>693</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="R133" s="10">
         <v>56000101</v>
@@ -16062,7 +16062,7 @@
         <v>324</v>
       </c>
       <c r="X133" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="36">
@@ -16110,7 +16110,7 @@
         <v>327</v>
       </c>
       <c r="X134" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="48">
@@ -16127,7 +16127,7 @@
       <c r="E135" s="1"/>
       <c r="F135" s="67"/>
       <c r="G135" s="33" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="H135" s="33"/>
       <c r="I135" s="32"/>
@@ -16143,7 +16143,7 @@
         <v>693</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="R135" s="10">
         <v>56000101</v>
@@ -16160,7 +16160,7 @@
         <v>329</v>
       </c>
       <c r="X135" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="36">
@@ -16208,7 +16208,7 @@
         <v>332</v>
       </c>
       <c r="X136" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="24">
@@ -16256,7 +16256,7 @@
         <v>334</v>
       </c>
       <c r="X137" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="36">
@@ -16273,7 +16273,7 @@
       <c r="E138" s="1"/>
       <c r="F138" s="67"/>
       <c r="G138" s="33" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="H138" s="33"/>
       <c r="I138" s="32"/>
@@ -16306,7 +16306,7 @@
         <v>336</v>
       </c>
       <c r="X138" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="24">
@@ -16329,7 +16329,7 @@
       <c r="K139" s="17"/>
       <c r="L139" s="22"/>
       <c r="M139" s="21" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="N139" s="60"/>
       <c r="O139" s="1" t="s">
@@ -16358,7 +16358,7 @@
         <v>338</v>
       </c>
       <c r="X139" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="48">
@@ -16375,7 +16375,7 @@
       <c r="E140" s="1"/>
       <c r="F140" s="67"/>
       <c r="G140" s="33" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H140" s="33"/>
       <c r="I140" s="32"/>
@@ -16391,7 +16391,7 @@
         <v>693</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="R140" s="10">
         <v>56000121</v>
@@ -16408,7 +16408,7 @@
         <v>340</v>
       </c>
       <c r="X140" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="24">
@@ -16456,7 +16456,7 @@
         <v>343</v>
       </c>
       <c r="X141" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="24">
@@ -16478,7 +16478,7 @@
       <c r="J142" s="18"/>
       <c r="K142" s="17"/>
       <c r="L142" s="17" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="M142" s="21"/>
       <c r="N142" s="60"/>
@@ -16489,7 +16489,7 @@
         <v>693</v>
       </c>
       <c r="Q142" s="10" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="R142" s="10">
         <v>0</v>
@@ -16504,7 +16504,7 @@
         <v>346</v>
       </c>
       <c r="X142" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="24">
@@ -16526,7 +16526,7 @@
       <c r="J143" s="18"/>
       <c r="K143" s="17"/>
       <c r="L143" s="17" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="M143" s="21"/>
       <c r="N143" s="60"/>
@@ -16537,7 +16537,7 @@
         <v>693</v>
       </c>
       <c r="Q143" s="10" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="R143" s="10">
         <v>0</v>
@@ -16552,7 +16552,7 @@
         <v>348</v>
       </c>
       <c r="X143" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="36">
@@ -16585,7 +16585,7 @@
         <v>693</v>
       </c>
       <c r="Q144" s="10" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="R144" s="10">
         <v>0</v>
@@ -16600,7 +16600,7 @@
         <v>350</v>
       </c>
       <c r="X144" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="24">
@@ -16650,7 +16650,7 @@
         <v>353</v>
       </c>
       <c r="X145" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="36">
@@ -16669,11 +16669,11 @@
       <c r="G146" s="33"/>
       <c r="H146" s="33"/>
       <c r="I146" s="32" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="J146" s="18"/>
       <c r="K146" s="17" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="L146" s="17"/>
       <c r="M146" s="21"/>
@@ -16685,7 +16685,7 @@
         <v>693</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="R146" s="1">
         <v>0</v>
@@ -16700,7 +16700,7 @@
         <v>355</v>
       </c>
       <c r="X146" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="24">
@@ -16722,7 +16722,7 @@
       <c r="J147" s="18"/>
       <c r="K147" s="17"/>
       <c r="L147" s="17" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="M147" s="21"/>
       <c r="N147" s="60"/>
@@ -16748,7 +16748,7 @@
         <v>357</v>
       </c>
       <c r="X147" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="48">
@@ -16765,7 +16765,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="67"/>
       <c r="G148" s="33" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="H148" s="33"/>
       <c r="I148" s="32"/>
@@ -16781,7 +16781,7 @@
         <v>693</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="R148" s="10">
         <v>56000101</v>
@@ -16798,7 +16798,7 @@
         <v>359</v>
       </c>
       <c r="X148" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="48">
@@ -16815,7 +16815,7 @@
       <c r="E149" s="1"/>
       <c r="F149" s="67"/>
       <c r="G149" s="33" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="H149" s="33"/>
       <c r="I149" s="32"/>
@@ -16831,7 +16831,7 @@
         <v>693</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="R149" s="10">
         <v>56000101</v>
@@ -16848,7 +16848,7 @@
         <v>361</v>
       </c>
       <c r="X149" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="36">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="J150" s="18"/>
       <c r="K150" s="17" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="L150" s="17"/>
       <c r="M150" s="21"/>
@@ -16902,7 +16902,7 @@
         <v>364</v>
       </c>
       <c r="X150" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="36">
@@ -16950,7 +16950,7 @@
         <v>366</v>
       </c>
       <c r="X151" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="24">
@@ -16974,7 +16974,7 @@
       <c r="J152" s="18"/>
       <c r="K152" s="17"/>
       <c r="L152" s="17" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="M152" s="21"/>
       <c r="N152" s="60"/>
@@ -17000,7 +17000,7 @@
         <v>368</v>
       </c>
       <c r="X152" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="48">
@@ -17017,7 +17017,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="67"/>
       <c r="G153" s="33" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="H153" s="33"/>
       <c r="I153" s="32"/>
@@ -17033,7 +17033,7 @@
         <v>693</v>
       </c>
       <c r="Q153" s="10" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="R153" s="10">
         <v>0</v>
@@ -17048,7 +17048,7 @@
         <v>370</v>
       </c>
       <c r="X153" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="24">
@@ -17067,7 +17067,7 @@
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
       <c r="I154" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J154" s="18"/>
       <c r="K154" s="17"/>
@@ -17098,7 +17098,7 @@
         <v>372</v>
       </c>
       <c r="X154" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="155" spans="1:24" ht="72">
@@ -17149,7 +17149,7 @@
         <v>374</v>
       </c>
       <c r="X155" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="156" spans="1:24" ht="60">
@@ -17168,7 +17168,7 @@
       <c r="G156" s="33"/>
       <c r="H156" s="33"/>
       <c r="I156" s="32" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="J156" s="18"/>
       <c r="K156" s="17" t="s">
@@ -17201,7 +17201,7 @@
         <v>377</v>
       </c>
       <c r="X156" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="48">
@@ -17218,7 +17218,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="67"/>
       <c r="G157" s="33" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="H157" s="33"/>
       <c r="I157" s="32"/>
@@ -17234,7 +17234,7 @@
         <v>693</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="R157" s="10">
         <v>56000102</v>
@@ -17251,7 +17251,7 @@
         <v>379</v>
       </c>
       <c r="X157" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="158" spans="1:24">
@@ -17297,7 +17297,7 @@
         <v>381</v>
       </c>
       <c r="X158" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="159" spans="1:24" ht="36">
@@ -17316,7 +17316,7 @@
       <c r="G159" s="33"/>
       <c r="H159" s="33"/>
       <c r="I159" s="32" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="J159" s="18"/>
       <c r="K159" s="17" t="s">
@@ -17347,7 +17347,7 @@
         <v>383</v>
       </c>
       <c r="X159" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="160" spans="1:24" ht="36">
@@ -17366,7 +17366,7 @@
       <c r="G160" s="33"/>
       <c r="H160" s="33"/>
       <c r="I160" s="32" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="J160" s="18"/>
       <c r="K160" s="17" t="s">
@@ -17397,7 +17397,7 @@
         <v>385</v>
       </c>
       <c r="X160" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="36">
@@ -17449,7 +17449,7 @@
         <v>387</v>
       </c>
       <c r="X161" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="162" spans="1:24" ht="36">
@@ -17499,7 +17499,7 @@
         <v>389</v>
       </c>
       <c r="X162" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="36">
@@ -17551,7 +17551,7 @@
         <v>392</v>
       </c>
       <c r="X163" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="164" spans="1:24" ht="24">
@@ -17601,7 +17601,7 @@
         <v>394</v>
       </c>
       <c r="X164" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="108">
@@ -17618,10 +17618,10 @@
       <c r="E165" s="1"/>
       <c r="F165" s="67"/>
       <c r="G165" s="33" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H165" s="33" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I165" s="32"/>
       <c r="J165" s="18"/>
@@ -17636,7 +17636,7 @@
         <v>693</v>
       </c>
       <c r="Q165" s="10" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="R165" s="10">
         <v>0</v>
@@ -17651,7 +17651,7 @@
         <v>396</v>
       </c>
       <c r="X165" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="166" spans="1:24" ht="96">
@@ -17668,10 +17668,10 @@
       <c r="E166" s="1"/>
       <c r="F166" s="67"/>
       <c r="G166" s="33" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="H166" s="33" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I166" s="32"/>
       <c r="J166" s="18"/>
@@ -17686,7 +17686,7 @@
         <v>693</v>
       </c>
       <c r="Q166" s="10" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="R166" s="10">
         <v>0</v>
@@ -17701,7 +17701,7 @@
         <v>398</v>
       </c>
       <c r="X166" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="167" spans="1:24" ht="36">
@@ -17753,7 +17753,7 @@
         <v>400</v>
       </c>
       <c r="X167" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="168" spans="1:24" ht="24">
@@ -17775,7 +17775,7 @@
       <c r="J168" s="18"/>
       <c r="K168" s="17"/>
       <c r="L168" s="17" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="M168" s="21"/>
       <c r="N168" s="60"/>
@@ -17801,7 +17801,7 @@
         <v>402</v>
       </c>
       <c r="X168" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="24">
@@ -17853,7 +17853,7 @@
         <v>405</v>
       </c>
       <c r="X169" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="170" spans="1:24" ht="84">
@@ -17867,13 +17867,13 @@
         <v>1000</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E170" s="1">
         <v>15</v>
       </c>
       <c r="F170" s="67" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="G170" s="33"/>
       <c r="H170" s="33"/>
@@ -17882,7 +17882,7 @@
       <c r="K170" s="17"/>
       <c r="L170" s="22"/>
       <c r="M170" s="21" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="N170" s="60"/>
       <c r="O170" s="1" t="s">
@@ -17909,7 +17909,7 @@
         <v>407</v>
       </c>
       <c r="X170" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="171" spans="1:24" ht="24">
@@ -17931,7 +17931,7 @@
       <c r="J171" s="18"/>
       <c r="K171" s="17"/>
       <c r="L171" s="17" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="M171" s="21"/>
       <c r="N171" s="60"/>
@@ -17957,7 +17957,7 @@
         <v>409</v>
       </c>
       <c r="X171" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="172" spans="1:24" ht="36">
@@ -17979,7 +17979,7 @@
       <c r="J172" s="18"/>
       <c r="K172" s="17"/>
       <c r="L172" s="17" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="M172" s="21"/>
       <c r="N172" s="60"/>
@@ -18005,7 +18005,7 @@
         <v>411</v>
       </c>
       <c r="X172" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="36">
@@ -18055,7 +18055,7 @@
         <v>413</v>
       </c>
       <c r="X173" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="174" spans="1:24" ht="48">
@@ -18072,7 +18072,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="67"/>
       <c r="G174" s="33" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H174" s="33"/>
       <c r="I174" s="32"/>
@@ -18103,7 +18103,7 @@
         <v>1218</v>
       </c>
       <c r="X174" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="175" spans="1:24" ht="24">
@@ -18151,7 +18151,7 @@
         <v>415</v>
       </c>
       <c r="X175" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="176" spans="1:24" ht="36">
@@ -18170,7 +18170,7 @@
       <c r="G176" s="33"/>
       <c r="H176" s="33"/>
       <c r="I176" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J176" s="18"/>
       <c r="K176" s="17" t="s">
@@ -18203,7 +18203,7 @@
         <v>417</v>
       </c>
       <c r="X176" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="177" spans="1:24" ht="36">
@@ -18253,7 +18253,7 @@
         <v>419</v>
       </c>
       <c r="X177" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="178" spans="1:24" ht="48">
@@ -18272,7 +18272,7 @@
       <c r="G178" s="33"/>
       <c r="H178" s="33"/>
       <c r="I178" s="32" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="J178" s="18"/>
       <c r="K178" s="17" t="s">
@@ -18305,7 +18305,7 @@
         <v>422</v>
       </c>
       <c r="X178" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="179" spans="1:24" ht="60">
@@ -18324,7 +18324,7 @@
       <c r="G179" s="33"/>
       <c r="H179" s="33"/>
       <c r="I179" s="32" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="J179" s="18"/>
       <c r="K179" s="17" t="s">
@@ -18355,7 +18355,7 @@
         <v>424</v>
       </c>
       <c r="X179" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="180" spans="1:24" ht="24">
@@ -18405,7 +18405,7 @@
         <v>426</v>
       </c>
       <c r="X180" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="181" spans="1:24" ht="48">
@@ -18422,7 +18422,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="67"/>
       <c r="G181" s="33" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="H181" s="33"/>
       <c r="I181" s="32"/>
@@ -18438,7 +18438,7 @@
         <v>693</v>
       </c>
       <c r="Q181" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="R181" s="10">
         <v>56000023</v>
@@ -18455,7 +18455,7 @@
         <v>428</v>
       </c>
       <c r="X181" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="182" spans="1:24" ht="60">
@@ -18503,7 +18503,7 @@
         <v>430</v>
       </c>
       <c r="X182" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="183" spans="1:24" ht="60">
@@ -18551,7 +18551,7 @@
         <v>432</v>
       </c>
       <c r="X183" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="184" spans="1:24" ht="24">
@@ -18573,7 +18573,7 @@
       <c r="J184" s="18"/>
       <c r="K184" s="17"/>
       <c r="L184" s="17" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="M184" s="21"/>
       <c r="N184" s="60"/>
@@ -18599,7 +18599,7 @@
         <v>434</v>
       </c>
       <c r="X184" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="185" spans="1:24" ht="36">
@@ -18616,7 +18616,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="67"/>
       <c r="G185" s="33" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="H185" s="33"/>
       <c r="I185" s="32"/>
@@ -18649,7 +18649,7 @@
         <v>436</v>
       </c>
       <c r="X185" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="186" spans="1:24">
@@ -18695,7 +18695,7 @@
         <v>438</v>
       </c>
       <c r="X186" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="187" spans="1:24" ht="48">
@@ -18717,7 +18717,7 @@
       <c r="J187" s="18"/>
       <c r="K187" s="17"/>
       <c r="L187" s="17" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="M187" s="21"/>
       <c r="N187" s="60"/>
@@ -18743,7 +18743,7 @@
         <v>440</v>
       </c>
       <c r="X187" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="188" spans="1:24" ht="36">
@@ -18760,7 +18760,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="67"/>
       <c r="G188" s="33" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="H188" s="33"/>
       <c r="I188" s="32"/>
@@ -18793,7 +18793,7 @@
         <v>442</v>
       </c>
       <c r="X188" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="189" spans="1:24" ht="48">
@@ -18810,7 +18810,7 @@
       <c r="E189" s="1"/>
       <c r="F189" s="67"/>
       <c r="G189" s="33" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H189" s="33"/>
       <c r="I189" s="32"/>
@@ -18843,7 +18843,7 @@
         <v>444</v>
       </c>
       <c r="X189" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="190" spans="1:24" ht="24">
@@ -18859,16 +18859,18 @@
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="67"/>
-      <c r="G190" s="33" t="s">
-        <v>1244</v>
-      </c>
+      <c r="G190" s="33"/>
       <c r="H190" s="33"/>
       <c r="I190" s="32"/>
       <c r="J190" s="18"/>
       <c r="K190" s="17"/>
       <c r="L190" s="17"/>
-      <c r="M190" s="21"/>
-      <c r="N190" s="60"/>
+      <c r="M190" s="21" t="s">
+        <v>1493</v>
+      </c>
+      <c r="N190" s="60">
+        <v>1</v>
+      </c>
       <c r="O190" s="1" t="s">
         <v>698</v>
       </c>
@@ -18876,7 +18878,7 @@
         <v>693</v>
       </c>
       <c r="Q190" s="10" t="s">
-        <v>1247</v>
+        <v>1494</v>
       </c>
       <c r="R190" s="10">
         <v>0</v>
@@ -18885,13 +18887,13 @@
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
       <c r="V190" s="1">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="W190" s="1" t="s">
         <v>446</v>
       </c>
       <c r="X190" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="191" spans="1:24" ht="48">
@@ -18941,7 +18943,7 @@
         <v>448</v>
       </c>
       <c r="X191" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="192" spans="1:24" ht="24">
@@ -18989,7 +18991,7 @@
         <v>450</v>
       </c>
       <c r="X192" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="193" spans="1:24" ht="96">
@@ -19039,7 +19041,7 @@
         <v>452</v>
       </c>
       <c r="X193" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="194" spans="1:24" ht="24">
@@ -19062,7 +19064,7 @@
       <c r="K194" s="17"/>
       <c r="L194" s="17"/>
       <c r="M194" s="21" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="N194" s="60"/>
       <c r="O194" s="1" t="s">
@@ -19089,7 +19091,7 @@
         <v>951</v>
       </c>
       <c r="X194" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -19135,7 +19137,7 @@
         <v>454</v>
       </c>
       <c r="X195" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="196" spans="1:24" ht="48">
@@ -19185,7 +19187,7 @@
         <v>456</v>
       </c>
       <c r="X196" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="197" spans="1:24" ht="48">
@@ -19237,7 +19239,7 @@
         <v>459</v>
       </c>
       <c r="X197" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="198" spans="1:24" ht="48">
@@ -19254,7 +19256,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="67"/>
       <c r="G198" s="33" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H198" s="33"/>
       <c r="I198" s="32"/>
@@ -19270,7 +19272,7 @@
         <v>693</v>
       </c>
       <c r="Q198" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="R198" s="10">
         <v>56000121</v>
@@ -19287,7 +19289,7 @@
         <v>461</v>
       </c>
       <c r="X198" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="199" spans="1:24" ht="24">
@@ -19337,7 +19339,7 @@
         <v>464</v>
       </c>
       <c r="X199" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="200" spans="1:24" ht="48">
@@ -19354,7 +19356,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="67"/>
       <c r="G200" s="33" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H200" s="33"/>
       <c r="I200" s="32"/>
@@ -19370,7 +19372,7 @@
         <v>693</v>
       </c>
       <c r="Q200" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="R200" s="10">
         <v>56000121</v>
@@ -19387,7 +19389,7 @@
         <v>466</v>
       </c>
       <c r="X200" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="201" spans="1:24" ht="24">
@@ -19409,7 +19411,7 @@
       <c r="J201" s="18"/>
       <c r="K201" s="17"/>
       <c r="L201" s="17" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="M201" s="21"/>
       <c r="N201" s="60"/>
@@ -19435,7 +19437,7 @@
         <v>468</v>
       </c>
       <c r="X201" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="202" spans="1:24" ht="96">
@@ -19449,23 +19451,23 @@
         <v>216</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E202" s="1">
         <v>0</v>
       </c>
       <c r="F202" s="67" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="G202" s="33"/>
       <c r="H202" s="33"/>
       <c r="I202" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J202" s="18"/>
       <c r="K202" s="17"/>
       <c r="L202" s="17" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="M202" s="21"/>
       <c r="N202" s="60"/>
@@ -19498,7 +19500,7 @@
         <v>471</v>
       </c>
       <c r="X202" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="203" spans="1:24" ht="36">
@@ -19548,7 +19550,7 @@
         <v>473</v>
       </c>
       <c r="X203" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="204" spans="1:24" ht="24">
@@ -19598,7 +19600,7 @@
         <v>476</v>
       </c>
       <c r="X204" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -19629,7 +19631,7 @@
         <v>693</v>
       </c>
       <c r="Q205" s="10" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="R205" s="10">
         <v>0</v>
@@ -19646,7 +19648,7 @@
         <v>479</v>
       </c>
       <c r="X205" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -19669,7 +19671,7 @@
       <c r="K206" s="17"/>
       <c r="L206" s="17"/>
       <c r="M206" s="21" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="N206" s="60"/>
       <c r="O206" s="1" t="s">
@@ -19694,7 +19696,7 @@
         <v>482</v>
       </c>
       <c r="X206" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="207" spans="1:24" ht="36">
@@ -19744,7 +19746,7 @@
         <v>484</v>
       </c>
       <c r="X207" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="208" spans="1:24" ht="24">
@@ -19761,7 +19763,7 @@
       <c r="E208" s="1"/>
       <c r="F208" s="67"/>
       <c r="G208" s="33" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H208" s="33"/>
       <c r="I208" s="32"/>
@@ -19792,7 +19794,7 @@
         <v>950</v>
       </c>
       <c r="X208" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="209" spans="1:24" ht="36">
@@ -19842,7 +19844,7 @@
         <v>486</v>
       </c>
       <c r="X209" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="210" spans="1:24" ht="36">
@@ -19892,7 +19894,7 @@
         <v>488</v>
       </c>
       <c r="X210" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="211" spans="1:24" ht="36">
@@ -19942,7 +19944,7 @@
         <v>490</v>
       </c>
       <c r="X211" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="212" spans="1:24" ht="48">
@@ -19959,10 +19961,10 @@
       <c r="E212" s="1"/>
       <c r="F212" s="67"/>
       <c r="G212" s="33" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="H212" s="33" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I212" s="32"/>
       <c r="J212" s="18"/>
@@ -19977,7 +19979,7 @@
         <v>693</v>
       </c>
       <c r="Q212" s="10" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="R212" s="10">
         <v>0</v>
@@ -19992,7 +19994,7 @@
         <v>492</v>
       </c>
       <c r="X212" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="213" spans="1:24" ht="96">
@@ -20009,10 +20011,10 @@
       <c r="E213" s="1"/>
       <c r="F213" s="67"/>
       <c r="G213" s="33" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="H213" s="33" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I213" s="32"/>
       <c r="J213" s="18"/>
@@ -20027,7 +20029,7 @@
         <v>693</v>
       </c>
       <c r="Q213" s="10" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="R213" s="10">
         <v>0</v>
@@ -20042,7 +20044,7 @@
         <v>494</v>
       </c>
       <c r="X213" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="214" spans="1:24" ht="24">
@@ -20067,7 +20069,7 @@
       <c r="K214" s="17"/>
       <c r="L214" s="17"/>
       <c r="M214" s="21" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="N214" s="60"/>
       <c r="O214" s="1" t="s">
@@ -20077,7 +20079,7 @@
         <v>693</v>
       </c>
       <c r="Q214" s="10" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="R214" s="10">
         <v>0</v>
@@ -20092,7 +20094,7 @@
         <v>673</v>
       </c>
       <c r="X214" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="215" spans="1:24" ht="24">
@@ -20140,7 +20142,7 @@
         <v>496</v>
       </c>
       <c r="X215" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="216" spans="1:24" ht="24">
@@ -20164,7 +20166,7 @@
       <c r="J216" s="18"/>
       <c r="K216" s="17"/>
       <c r="L216" s="17" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="M216" s="21"/>
       <c r="N216" s="60"/>
@@ -20190,7 +20192,7 @@
         <v>498</v>
       </c>
       <c r="X216" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="217" spans="1:24" ht="24">
@@ -20238,7 +20240,7 @@
         <v>500</v>
       </c>
       <c r="X217" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="218" spans="1:24" ht="24">
@@ -20271,7 +20273,7 @@
         <v>693</v>
       </c>
       <c r="Q218" s="10" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="R218" s="10">
         <v>0</v>
@@ -20286,7 +20288,7 @@
         <v>502</v>
       </c>
       <c r="X218" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="219" spans="1:24" ht="48">
@@ -20334,7 +20336,7 @@
         <v>504</v>
       </c>
       <c r="X219" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="220" spans="1:24" ht="36">
@@ -20382,7 +20384,7 @@
         <v>506</v>
       </c>
       <c r="X220" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="221" spans="1:24" ht="36">
@@ -20432,7 +20434,7 @@
         <v>508</v>
       </c>
       <c r="X221" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="222" spans="1:24" ht="72">
@@ -20480,7 +20482,7 @@
         <v>510</v>
       </c>
       <c r="X222" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="223" spans="1:24" ht="24">
@@ -20513,7 +20515,7 @@
         <v>693</v>
       </c>
       <c r="Q223" s="10" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="R223" s="10">
         <v>0</v>
@@ -20528,7 +20530,7 @@
         <v>512</v>
       </c>
       <c r="X223" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="224" spans="1:24">
@@ -20574,7 +20576,7 @@
         <v>514</v>
       </c>
       <c r="X224" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="225" spans="1:24" ht="24">
@@ -20622,7 +20624,7 @@
         <v>517</v>
       </c>
       <c r="X225" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="226" spans="1:24" ht="24">
@@ -20670,7 +20672,7 @@
         <v>519</v>
       </c>
       <c r="X226" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="227" spans="1:24" ht="96">
@@ -20684,23 +20686,23 @@
         <v>216</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="E227" s="1">
         <v>10</v>
       </c>
       <c r="F227" s="67" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="G227" s="33"/>
       <c r="H227" s="33"/>
       <c r="I227" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J227" s="18"/>
       <c r="K227" s="17"/>
       <c r="L227" s="17" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="M227" s="21"/>
       <c r="N227" s="60"/>
@@ -20733,7 +20735,7 @@
         <v>521</v>
       </c>
       <c r="X227" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="228" spans="1:24" ht="24">
@@ -20784,7 +20786,7 @@
         <v>523</v>
       </c>
       <c r="X228" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="229" spans="1:24" ht="24">
@@ -20809,7 +20811,7 @@
       <c r="K229" s="17"/>
       <c r="L229" s="17"/>
       <c r="M229" s="21" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="N229" s="60"/>
       <c r="O229" s="1" t="s">
@@ -20819,7 +20821,7 @@
         <v>693</v>
       </c>
       <c r="Q229" s="10" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="R229" s="10">
         <v>0</v>
@@ -20834,7 +20836,7 @@
         <v>525</v>
       </c>
       <c r="X229" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="230" spans="1:24" ht="36">
@@ -20882,7 +20884,7 @@
         <v>527</v>
       </c>
       <c r="X230" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="231" spans="1:24" ht="96">
@@ -20896,23 +20898,23 @@
         <v>216</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="E231" s="1">
         <v>10</v>
       </c>
       <c r="F231" s="67" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="G231" s="33"/>
       <c r="H231" s="33"/>
       <c r="I231" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J231" s="18"/>
       <c r="K231" s="17"/>
       <c r="L231" s="17" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="M231" s="21"/>
       <c r="N231" s="60"/>
@@ -20944,7 +20946,7 @@
         <v>529</v>
       </c>
       <c r="X231" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="232" spans="1:24" ht="24">
@@ -20966,7 +20968,7 @@
       <c r="J232" s="18"/>
       <c r="K232" s="17"/>
       <c r="L232" s="17" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="M232" s="21"/>
       <c r="N232" s="60"/>
@@ -20992,7 +20994,7 @@
         <v>531</v>
       </c>
       <c r="X232" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="233" spans="1:24" ht="36">
@@ -21011,7 +21013,7 @@
       <c r="G233" s="33"/>
       <c r="H233" s="33"/>
       <c r="I233" s="32" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="J233" s="18"/>
       <c r="K233" s="17"/>
@@ -21042,7 +21044,7 @@
         <v>533</v>
       </c>
       <c r="X233" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="234" spans="1:24" ht="48">
@@ -21092,7 +21094,7 @@
         <v>535</v>
       </c>
       <c r="X234" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="235" spans="1:24" ht="36">
@@ -21111,7 +21113,7 @@
       <c r="G235" s="33"/>
       <c r="H235" s="33"/>
       <c r="I235" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J235" s="18"/>
       <c r="K235" s="17" t="s">
@@ -21144,7 +21146,7 @@
         <v>537</v>
       </c>
       <c r="X235" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="236" spans="1:24" ht="24">
@@ -21168,7 +21170,7 @@
       <c r="J236" s="18"/>
       <c r="K236" s="17"/>
       <c r="L236" s="17" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="M236" s="21"/>
       <c r="N236" s="60"/>
@@ -21194,7 +21196,7 @@
         <v>539</v>
       </c>
       <c r="X236" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="237" spans="1:24" ht="36">
@@ -21242,7 +21244,7 @@
         <v>541</v>
       </c>
       <c r="X237" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="238" spans="1:24" ht="27">
@@ -21290,7 +21292,7 @@
         <v>543</v>
       </c>
       <c r="X238" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="239" spans="1:24" ht="24">
@@ -21340,7 +21342,7 @@
         <v>545</v>
       </c>
       <c r="X239" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="240" spans="1:24" ht="36">
@@ -21359,7 +21361,7 @@
       <c r="G240" s="33"/>
       <c r="H240" s="33"/>
       <c r="I240" s="32" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="J240" s="18" t="s">
         <v>850</v>
@@ -21390,7 +21392,7 @@
         <v>547</v>
       </c>
       <c r="X240" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="241" spans="1:24" ht="36">
@@ -21438,7 +21440,7 @@
         <v>549</v>
       </c>
       <c r="X241" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="242" spans="1:24">
@@ -21486,7 +21488,7 @@
         <v>551</v>
       </c>
       <c r="X242" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="243" spans="1:24">
@@ -21517,7 +21519,7 @@
         <v>693</v>
       </c>
       <c r="Q243" s="10" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="R243" s="10">
         <v>0</v>
@@ -21532,7 +21534,7 @@
         <v>553</v>
       </c>
       <c r="X243" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="244" spans="1:24" ht="36">
@@ -21584,7 +21586,7 @@
         <v>555</v>
       </c>
       <c r="X244" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="245" spans="1:24" ht="24">
@@ -21606,7 +21608,7 @@
       <c r="J245" s="18"/>
       <c r="K245" s="17"/>
       <c r="L245" s="17" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="M245" s="21"/>
       <c r="N245" s="60"/>
@@ -21632,7 +21634,7 @@
         <v>557</v>
       </c>
       <c r="X245" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="246" spans="1:24" ht="36">
@@ -21684,7 +21686,7 @@
         <v>559</v>
       </c>
       <c r="X246" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="247" spans="1:24" ht="84">
@@ -21698,13 +21700,13 @@
         <v>1000</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="E247" s="1">
         <v>0</v>
       </c>
       <c r="F247" s="67" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="G247" s="33"/>
       <c r="H247" s="33"/>
@@ -21713,7 +21715,7 @@
       <c r="K247" s="17"/>
       <c r="L247" s="17"/>
       <c r="M247" s="21" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="N247" s="60"/>
       <c r="O247" s="1" t="s">
@@ -21732,7 +21734,7 @@
         <v>948</v>
       </c>
       <c r="T247" s="10" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="U247" s="10"/>
       <c r="V247" s="1">
@@ -21742,7 +21744,7 @@
         <v>561</v>
       </c>
       <c r="X247" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="248" spans="1:24" ht="84">
@@ -21790,7 +21792,7 @@
         <v>563</v>
       </c>
       <c r="X248" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="249" spans="1:24" ht="24">
@@ -21812,7 +21814,7 @@
       <c r="J249" s="18"/>
       <c r="K249" s="17"/>
       <c r="L249" s="17" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="M249" s="21"/>
       <c r="N249" s="60"/>
@@ -21838,7 +21840,7 @@
         <v>565</v>
       </c>
       <c r="X249" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="250" spans="1:24" ht="24">
@@ -21862,7 +21864,7 @@
       <c r="J250" s="18"/>
       <c r="K250" s="17"/>
       <c r="L250" s="17" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="M250" s="21"/>
       <c r="N250" s="60"/>
@@ -21890,7 +21892,7 @@
         <v>569</v>
       </c>
       <c r="X250" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="251" spans="1:24" ht="36">
@@ -21940,7 +21942,7 @@
         <v>571</v>
       </c>
       <c r="X251" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="36">
@@ -21988,7 +21990,7 @@
         <v>574</v>
       </c>
       <c r="X252" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="48">
@@ -22036,7 +22038,7 @@
         <v>576</v>
       </c>
       <c r="X253" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="254" spans="1:24" ht="24">
@@ -22086,7 +22088,7 @@
         <v>579</v>
       </c>
       <c r="X254" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="255" spans="1:24" ht="24">
@@ -22134,7 +22136,7 @@
         <v>582</v>
       </c>
       <c r="X255" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="256" spans="1:24" ht="48">
@@ -22182,7 +22184,7 @@
         <v>585</v>
       </c>
       <c r="X256" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="257" spans="1:24" ht="48">
@@ -22199,7 +22201,7 @@
       <c r="E257" s="1"/>
       <c r="F257" s="67"/>
       <c r="G257" s="33" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="H257" s="33"/>
       <c r="I257" s="32"/>
@@ -22215,7 +22217,7 @@
         <v>693</v>
       </c>
       <c r="Q257" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="R257" s="10">
         <v>56000102</v>
@@ -22232,7 +22234,7 @@
         <v>587</v>
       </c>
       <c r="X257" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="258" spans="1:24" ht="36">
@@ -22251,7 +22253,7 @@
       <c r="G258" s="33"/>
       <c r="H258" s="33"/>
       <c r="I258" s="32" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="J258" s="18" t="s">
         <v>849</v>
@@ -22282,7 +22284,7 @@
         <v>589</v>
       </c>
       <c r="X258" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="259" spans="1:24" ht="24">
@@ -22304,7 +22306,7 @@
       <c r="J259" s="18"/>
       <c r="K259" s="17"/>
       <c r="L259" s="17" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="M259" s="21"/>
       <c r="N259" s="60"/>
@@ -22330,7 +22332,7 @@
         <v>591</v>
       </c>
       <c r="X259" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="36">
@@ -22378,7 +22380,7 @@
         <v>593</v>
       </c>
       <c r="X260" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="261" spans="1:24" ht="84">
@@ -22399,7 +22401,7 @@
       <c r="I261" s="32"/>
       <c r="J261" s="18"/>
       <c r="K261" s="17" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L261" s="17"/>
       <c r="M261" s="21"/>
@@ -22411,7 +22413,7 @@
         <v>693</v>
       </c>
       <c r="Q261" s="10" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="R261" s="10">
         <v>0</v>
@@ -22426,7 +22428,7 @@
         <v>595</v>
       </c>
       <c r="X261" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="36">
@@ -22445,7 +22447,7 @@
       <c r="G262" s="33"/>
       <c r="H262" s="33"/>
       <c r="I262" s="32" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="J262" s="18"/>
       <c r="K262" s="17" t="s">
@@ -22476,7 +22478,7 @@
         <v>597</v>
       </c>
       <c r="X262" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="263" spans="1:24" ht="36">
@@ -22495,7 +22497,7 @@
       <c r="G263" s="33"/>
       <c r="H263" s="33"/>
       <c r="I263" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J263" s="18"/>
       <c r="K263" s="17" t="s">
@@ -22526,7 +22528,7 @@
         <v>599</v>
       </c>
       <c r="X263" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="264" spans="1:24">
@@ -22574,7 +22576,7 @@
         <v>601</v>
       </c>
       <c r="X264" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="265" spans="1:24" ht="24">
@@ -22597,7 +22599,7 @@
       <c r="K265" s="17"/>
       <c r="L265" s="22"/>
       <c r="M265" s="21" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="N265" s="60"/>
       <c r="O265" s="1" t="s">
@@ -22607,7 +22609,7 @@
         <v>693</v>
       </c>
       <c r="Q265" s="10" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="R265" s="10">
         <v>0</v>
@@ -22622,7 +22624,7 @@
         <v>603</v>
       </c>
       <c r="X265" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="266" spans="1:24">
@@ -22645,7 +22647,7 @@
       <c r="K266" s="17"/>
       <c r="L266" s="22"/>
       <c r="M266" s="21" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="N266" s="60"/>
       <c r="O266" s="1" t="s">
@@ -22655,7 +22657,7 @@
         <v>693</v>
       </c>
       <c r="Q266" s="10" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="R266" s="10">
         <v>0</v>
@@ -22670,7 +22672,7 @@
         <v>605</v>
       </c>
       <c r="X266" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="267" spans="1:24" ht="36">
@@ -22718,7 +22720,7 @@
         <v>607</v>
       </c>
       <c r="X267" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="268" spans="1:24" ht="24">
@@ -22751,7 +22753,7 @@
         <v>693</v>
       </c>
       <c r="Q268" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="R268" s="10">
         <v>0</v>
@@ -22766,7 +22768,7 @@
         <v>609</v>
       </c>
       <c r="X268" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="269" spans="1:24" ht="144">
@@ -22780,16 +22782,16 @@
         <v>1000</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="E269" s="1">
         <v>10</v>
       </c>
       <c r="F269" s="67" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="G269" s="33" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="H269" s="33"/>
       <c r="I269" s="32"/>
@@ -22811,10 +22813,10 @@
         <v>0</v>
       </c>
       <c r="S269" s="1" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="T269" s="1" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="U269" s="1"/>
       <c r="V269" s="1">
@@ -22824,7 +22826,7 @@
         <v>611</v>
       </c>
       <c r="X269" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="270" spans="1:24" ht="36">
@@ -22876,7 +22878,7 @@
         <v>613</v>
       </c>
       <c r="X270" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="271" spans="1:24" ht="48">
@@ -22893,7 +22895,7 @@
       <c r="E271" s="1"/>
       <c r="F271" s="67"/>
       <c r="G271" s="33" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="H271" s="33"/>
       <c r="I271" s="32"/>
@@ -22926,7 +22928,7 @@
         <v>615</v>
       </c>
       <c r="X271" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="272" spans="1:24">
@@ -22972,7 +22974,7 @@
         <v>617</v>
       </c>
       <c r="X272" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="273" spans="1:24" ht="36">
@@ -22989,7 +22991,7 @@
       <c r="E273" s="1"/>
       <c r="F273" s="67"/>
       <c r="G273" s="33" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H273" s="33"/>
       <c r="I273" s="32"/>
@@ -23022,7 +23024,7 @@
         <v>619</v>
       </c>
       <c r="X273" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="274" spans="1:24" ht="24">
@@ -23044,7 +23046,7 @@
       <c r="J274" s="18"/>
       <c r="K274" s="17"/>
       <c r="L274" s="17" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="M274" s="21"/>
       <c r="N274" s="60"/>
@@ -23072,7 +23074,7 @@
         <v>622</v>
       </c>
       <c r="X274" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="275" spans="1:24" ht="120">
@@ -23080,22 +23082,22 @@
         <v>55000289</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="E275" s="1">
         <v>100</v>
       </c>
       <c r="F275" s="67" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="G275" s="33" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="H275" s="33"/>
       <c r="I275" s="32"/>
@@ -23111,7 +23113,7 @@
         <v>693</v>
       </c>
       <c r="Q275" s="1" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="R275" s="1">
         <v>0</v>
@@ -23128,7 +23130,7 @@
         <v>623</v>
       </c>
       <c r="X275" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="276" spans="1:24" ht="84">
@@ -23176,7 +23178,7 @@
         <v>625</v>
       </c>
       <c r="X276" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="277" spans="1:24" ht="60">
@@ -23197,7 +23199,7 @@
       <c r="I277" s="32"/>
       <c r="J277" s="18"/>
       <c r="K277" s="17" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="L277" s="17"/>
       <c r="M277" s="21"/>
@@ -23224,7 +23226,7 @@
         <v>627</v>
       </c>
       <c r="X277" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="278" spans="1:24" ht="36">
@@ -23276,7 +23278,7 @@
         <v>629</v>
       </c>
       <c r="X278" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="279" spans="1:24" ht="48">
@@ -23299,7 +23301,7 @@
       <c r="K279" s="17"/>
       <c r="L279" s="17"/>
       <c r="M279" s="21" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="N279" s="60"/>
       <c r="O279" s="1" t="s">
@@ -23324,7 +23326,7 @@
         <v>631</v>
       </c>
       <c r="X279" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="280" spans="1:24" ht="96">
@@ -23338,23 +23340,23 @@
         <v>216</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="E280" s="1">
         <v>10</v>
       </c>
       <c r="F280" s="67" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="G280" s="33"/>
       <c r="H280" s="33"/>
       <c r="I280" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J280" s="18"/>
       <c r="K280" s="17"/>
       <c r="L280" s="17" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="M280" s="21"/>
       <c r="N280" s="60"/>
@@ -23374,7 +23376,7 @@
         <v>1154</v>
       </c>
       <c r="T280" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="U280" s="10" t="s">
         <v>1026</v>
@@ -23387,7 +23389,7 @@
         <v>633</v>
       </c>
       <c r="X280" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="281" spans="1:24">
@@ -23418,7 +23420,7 @@
         <v>693</v>
       </c>
       <c r="Q281" s="10" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="R281" s="10">
         <v>0</v>
@@ -23433,7 +23435,7 @@
         <v>635</v>
       </c>
       <c r="X281" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="282" spans="1:24" ht="24">
@@ -23456,7 +23458,7 @@
       <c r="K282" s="17"/>
       <c r="L282" s="17"/>
       <c r="M282" s="21" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="N282" s="60"/>
       <c r="O282" s="1" t="s">
@@ -23481,7 +23483,7 @@
         <v>637</v>
       </c>
       <c r="X282" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="283" spans="1:24" ht="96">
@@ -23531,7 +23533,7 @@
         <v>639</v>
       </c>
       <c r="X283" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="284" spans="1:24" ht="84">
@@ -23581,7 +23583,7 @@
         <v>641</v>
       </c>
       <c r="X284" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="285" spans="1:24" ht="24">
@@ -23633,7 +23635,7 @@
         <v>644</v>
       </c>
       <c r="X285" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="286" spans="1:24" ht="24">
@@ -23641,7 +23643,7 @@
         <v>55000300</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>1040</v>
@@ -23656,7 +23658,7 @@
       <c r="K286" s="17"/>
       <c r="L286" s="17"/>
       <c r="M286" s="21" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="N286" s="60">
         <v>2</v>
@@ -23668,7 +23670,7 @@
         <v>693</v>
       </c>
       <c r="Q286" s="10" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="R286" s="10">
         <v>0</v>
@@ -23682,10 +23684,10 @@
         <v>6000</v>
       </c>
       <c r="W286" s="31" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="X286" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="287" spans="1:24" ht="96">
@@ -23699,23 +23701,23 @@
         <v>216</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E287" s="1">
         <v>10</v>
       </c>
       <c r="F287" s="67" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="G287" s="33"/>
       <c r="H287" s="33"/>
       <c r="I287" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J287" s="18"/>
       <c r="K287" s="17"/>
       <c r="L287" s="17" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="M287" s="21"/>
       <c r="N287" s="60"/>
@@ -23735,7 +23737,7 @@
         <v>916</v>
       </c>
       <c r="T287" s="10" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="U287" s="10" t="s">
         <v>1026</v>
@@ -23748,7 +23750,7 @@
         <v>646</v>
       </c>
       <c r="X287" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="288" spans="1:24" ht="96">
@@ -23762,23 +23764,23 @@
         <v>216</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="E288" s="1">
         <v>10</v>
       </c>
       <c r="F288" s="67" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="G288" s="33"/>
       <c r="H288" s="33"/>
       <c r="I288" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J288" s="18"/>
       <c r="K288" s="17"/>
       <c r="L288" s="17" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="M288" s="21"/>
       <c r="N288" s="60"/>
@@ -23798,7 +23800,7 @@
         <v>917</v>
       </c>
       <c r="T288" s="10" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="U288" s="10" t="s">
         <v>1026</v>
@@ -23810,7 +23812,7 @@
         <v>648</v>
       </c>
       <c r="X288" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="289" spans="1:24" ht="96">
@@ -23824,23 +23826,23 @@
         <v>216</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E289" s="1">
         <v>10</v>
       </c>
       <c r="F289" s="67" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="G289" s="33"/>
       <c r="H289" s="33"/>
       <c r="I289" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J289" s="18"/>
       <c r="K289" s="17"/>
       <c r="L289" s="17" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="M289" s="21"/>
       <c r="N289" s="60"/>
@@ -23860,7 +23862,7 @@
         <v>918</v>
       </c>
       <c r="T289" s="10" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="U289" s="10" t="s">
         <v>1026</v>
@@ -23872,7 +23874,7 @@
         <v>650</v>
       </c>
       <c r="X289" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="290" spans="1:24" ht="96">
@@ -23886,7 +23888,7 @@
         <v>216</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="E290" s="1">
         <v>15</v>
@@ -23895,12 +23897,12 @@
       <c r="G290" s="33"/>
       <c r="H290" s="33"/>
       <c r="I290" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J290" s="18"/>
       <c r="K290" s="17"/>
       <c r="L290" s="17" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="M290" s="21"/>
       <c r="N290" s="60"/>
@@ -23920,7 +23922,7 @@
         <v>919</v>
       </c>
       <c r="T290" s="10" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="U290" s="10" t="s">
         <v>1026</v>
@@ -23932,7 +23934,7 @@
         <v>652</v>
       </c>
       <c r="X290" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="291" spans="1:24" ht="96">
@@ -23946,23 +23948,23 @@
         <v>216</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E291" s="1">
         <v>30</v>
       </c>
       <c r="F291" s="67" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="G291" s="33"/>
       <c r="H291" s="33"/>
       <c r="I291" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J291" s="18"/>
       <c r="K291" s="17"/>
       <c r="L291" s="17" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="M291" s="21"/>
       <c r="N291" s="60"/>
@@ -23982,7 +23984,7 @@
         <v>920</v>
       </c>
       <c r="T291" s="10" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="U291" s="10" t="s">
         <v>1026</v>
@@ -23995,7 +23997,7 @@
         <v>654</v>
       </c>
       <c r="X291" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="292" spans="1:24" ht="96">
@@ -24009,23 +24011,23 @@
         <v>216</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E292" s="1">
         <v>15</v>
       </c>
       <c r="F292" s="67" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="G292" s="33"/>
       <c r="H292" s="33"/>
       <c r="I292" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J292" s="18"/>
       <c r="K292" s="17"/>
       <c r="L292" s="17" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="M292" s="21"/>
       <c r="N292" s="60"/>
@@ -24058,7 +24060,7 @@
         <v>656</v>
       </c>
       <c r="X292" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="293" spans="1:24" ht="96">
@@ -24072,23 +24074,23 @@
         <v>216</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E293" s="1">
         <v>0</v>
       </c>
       <c r="F293" s="67" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="G293" s="33"/>
       <c r="H293" s="33"/>
       <c r="I293" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J293" s="18"/>
       <c r="K293" s="17"/>
       <c r="L293" s="17" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="M293" s="21"/>
       <c r="N293" s="60"/>
@@ -24121,7 +24123,7 @@
         <v>658</v>
       </c>
       <c r="X293" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="294" spans="1:24" ht="96">
@@ -24135,23 +24137,23 @@
         <v>216</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E294" s="1">
         <v>0</v>
       </c>
       <c r="F294" s="67" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="G294" s="33"/>
       <c r="H294" s="33"/>
       <c r="I294" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J294" s="18"/>
       <c r="K294" s="17"/>
       <c r="L294" s="17" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="M294" s="21"/>
       <c r="N294" s="60"/>
@@ -24184,7 +24186,7 @@
         <v>660</v>
       </c>
       <c r="X294" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="295" spans="1:24" ht="72">
@@ -24232,7 +24234,7 @@
         <v>662</v>
       </c>
       <c r="X295" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="296" spans="1:24" ht="180">
@@ -24253,7 +24255,7 @@
       <c r="I296" s="32"/>
       <c r="J296" s="18"/>
       <c r="K296" s="17" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="L296" s="17"/>
       <c r="M296" s="21"/>
@@ -24265,7 +24267,7 @@
         <v>693</v>
       </c>
       <c r="Q296" s="10" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="R296" s="10">
         <v>0</v>
@@ -24280,7 +24282,7 @@
         <v>664</v>
       </c>
       <c r="X296" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="297" spans="1:24" ht="96">
@@ -24294,23 +24296,23 @@
         <v>216</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="E297" s="1">
         <v>15</v>
       </c>
       <c r="F297" s="67" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="G297" s="33"/>
       <c r="H297" s="33"/>
       <c r="I297" s="32" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J297" s="18"/>
       <c r="K297" s="17"/>
       <c r="L297" s="17" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="M297" s="21"/>
       <c r="N297" s="60"/>
@@ -24330,7 +24332,7 @@
         <v>927</v>
       </c>
       <c r="T297" s="10" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="U297" s="10" t="s">
         <v>1026</v>
@@ -24343,7 +24345,7 @@
         <v>666</v>
       </c>
       <c r="X297" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="298" spans="1:24" ht="84">
@@ -24357,13 +24359,13 @@
         <v>1000</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="E298" s="1">
         <v>10</v>
       </c>
       <c r="F298" s="67" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="G298" s="33"/>
       <c r="H298" s="33"/>
@@ -24372,7 +24374,7 @@
       <c r="K298" s="17"/>
       <c r="L298" s="17"/>
       <c r="M298" s="21" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="N298" s="60"/>
       <c r="O298" s="1" t="s">
@@ -24389,7 +24391,7 @@
       </c>
       <c r="S298" s="10"/>
       <c r="T298" s="10" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="U298" s="10"/>
       <c r="V298" s="1">
@@ -24399,7 +24401,7 @@
         <v>668</v>
       </c>
       <c r="X298" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="299" spans="1:24" ht="48">
@@ -24451,7 +24453,7 @@
         <v>1004</v>
       </c>
       <c r="X299" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="300" spans="1:24" ht="24">
@@ -24468,7 +24470,7 @@
       <c r="E300" s="1"/>
       <c r="F300" s="67"/>
       <c r="G300" s="33" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H300" s="33"/>
       <c r="I300" s="32"/>
@@ -24490,7 +24492,7 @@
         <v>0</v>
       </c>
       <c r="S300" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="T300" s="1"/>
       <c r="U300" s="1"/>
@@ -24501,7 +24503,7 @@
         <v>1174</v>
       </c>
       <c r="X300" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="301" spans="1:24" ht="144">
@@ -24515,16 +24517,16 @@
         <v>1225</v>
       </c>
       <c r="D301" s="28" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="E301" s="36">
         <v>10</v>
       </c>
       <c r="F301" s="68" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="G301" s="33" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="H301" s="37"/>
       <c r="I301" s="50"/>
@@ -24557,7 +24559,7 @@
         <v>1229</v>
       </c>
       <c r="X301" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="302" spans="1:24" ht="144">
@@ -24571,16 +24573,16 @@
         <v>1225</v>
       </c>
       <c r="D302" s="28" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="E302" s="36">
         <v>10</v>
       </c>
       <c r="F302" s="68" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="G302" s="33" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H302" s="37"/>
       <c r="I302" s="38"/>
@@ -24613,12 +24615,12 @@
         <v>1231</v>
       </c>
       <c r="X302" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="303" spans="1:24" ht="36">
       <c r="A303" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B303" s="11" t="s">
         <v>129</v>
@@ -24661,7 +24663,7 @@
         <v>130</v>
       </c>
       <c r="X303" s="53" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
   </sheetData>
@@ -24713,13 +24715,13 @@
         <v>688</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>704</v>
@@ -24743,7 +24745,7 @@
         <v>939</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>697</v>
@@ -24761,7 +24763,7 @@
         <v>999</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>1018</v>
@@ -24773,7 +24775,7 @@
         <v>690</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -24787,13 +24789,13 @@
         <v>680</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1029</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1027</v>
@@ -24817,7 +24819,7 @@
         <v>896</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>696</v>
@@ -24861,13 +24863,13 @@
         <v>683</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1185</v>
@@ -24891,7 +24893,7 @@
         <v>940</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>699</v>
@@ -24909,7 +24911,7 @@
         <v>943</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>1016</v>
@@ -24921,7 +24923,7 @@
         <v>685</v>
       </c>
       <c r="X3" s="54" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="84">
@@ -24969,7 +24971,7 @@
         <v>675</v>
       </c>
       <c r="X4" s="55" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="84">
@@ -25017,7 +25019,7 @@
         <v>675</v>
       </c>
       <c r="X5" s="55" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
   </sheetData>
@@ -25069,13 +25071,13 @@
         <v>688</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>704</v>
@@ -25099,7 +25101,7 @@
         <v>939</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>697</v>
@@ -25117,7 +25119,7 @@
         <v>999</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>1018</v>
@@ -25129,7 +25131,7 @@
         <v>690</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -25143,13 +25145,13 @@
         <v>680</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1029</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1005</v>
@@ -25173,7 +25175,7 @@
         <v>896</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>696</v>
@@ -25217,13 +25219,13 @@
         <v>683</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1185</v>
@@ -25247,7 +25249,7 @@
         <v>940</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>699</v>
@@ -25265,7 +25267,7 @@
         <v>943</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>1016</v>
@@ -25277,7 +25279,7 @@
         <v>685</v>
       </c>
       <c r="X3" s="54" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="36">
@@ -25296,7 +25298,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="32" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="17" t="s">
@@ -25327,7 +25329,7 @@
         <v>45</v>
       </c>
       <c r="X4" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="36">
@@ -25377,7 +25379,7 @@
         <v>47</v>
       </c>
       <c r="X5" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="36">
@@ -25412,7 +25414,7 @@
         <v>693</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -25427,7 +25429,7 @@
         <v>49</v>
       </c>
       <c r="X6" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="36">
@@ -25462,7 +25464,7 @@
         <v>693</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -25477,7 +25479,7 @@
         <v>51</v>
       </c>
       <c r="X7" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="36">
@@ -25512,7 +25514,7 @@
         <v>693</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -25527,7 +25529,7 @@
         <v>53</v>
       </c>
       <c r="X8" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="36">
@@ -25562,7 +25564,7 @@
         <v>693</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -25577,7 +25579,7 @@
         <v>55</v>
       </c>
       <c r="X9" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="36">
@@ -25612,7 +25614,7 @@
         <v>693</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -25627,7 +25629,7 @@
         <v>57</v>
       </c>
       <c r="X10" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="36">
@@ -25662,7 +25664,7 @@
         <v>693</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -25677,7 +25679,7 @@
         <v>59</v>
       </c>
       <c r="X11" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="36">
@@ -25727,7 +25729,7 @@
         <v>114</v>
       </c>
       <c r="X12" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="36">
@@ -25777,7 +25779,7 @@
         <v>116</v>
       </c>
       <c r="X13" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="36">
@@ -25827,7 +25829,7 @@
         <v>118</v>
       </c>
       <c r="X14" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="36">
@@ -25877,7 +25879,7 @@
         <v>120</v>
       </c>
       <c r="X15" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="36">
@@ -25927,7 +25929,7 @@
         <v>122</v>
       </c>
       <c r="X16" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="36">
@@ -25977,7 +25979,7 @@
         <v>124</v>
       </c>
       <c r="X17" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="36">
@@ -26027,7 +26029,7 @@
         <v>126</v>
       </c>
       <c r="X18" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="36">
@@ -26077,7 +26079,7 @@
         <v>128</v>
       </c>
       <c r="X19" s="55" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3108" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="1495">
   <si>
     <t>夜色</t>
   </si>
@@ -9368,10 +9368,10 @@
   <dimension ref="A1:X303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K189" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V190" sqref="V190"/>
+      <selection pane="bottomRight" activeCell="X191" sqref="X191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9657,7 +9657,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>2</v>
@@ -9705,7 +9705,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>5</v>
@@ -9753,7 +9753,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>8</v>
@@ -9803,7 +9803,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>11</v>
@@ -9853,7 +9853,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>13</v>
@@ -9903,7 +9903,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>15</v>
@@ -9953,7 +9953,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>17</v>
@@ -10003,7 +10003,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>19</v>
@@ -10053,7 +10053,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>21</v>
@@ -10103,7 +10103,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>23</v>
@@ -10153,7 +10153,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>25</v>
@@ -10203,7 +10203,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>27</v>
@@ -10253,7 +10253,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>29</v>
@@ -10303,7 +10303,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>31</v>
@@ -10353,7 +10353,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>33</v>
@@ -10403,7 +10403,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>35</v>
@@ -10453,7 +10453,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>37</v>
@@ -10503,7 +10503,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1" t="s">
         <v>39</v>
@@ -10553,7 +10553,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="W22" s="1" t="s">
         <v>41</v>
@@ -10603,7 +10603,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="W23" s="1" t="s">
         <v>43</v>
@@ -10697,7 +10697,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W25" s="1" t="s">
         <v>62</v>
@@ -10747,7 +10747,7 @@
         <v>1019</v>
       </c>
       <c r="V26" s="1">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="W26" s="1" t="s">
         <v>65</v>
@@ -10797,7 +10797,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="W27" s="1" t="s">
         <v>67</v>
@@ -10847,7 +10847,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="W28" s="1" t="s">
         <v>69</v>
@@ -10895,7 +10895,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="W29" s="1" t="s">
         <v>671</v>
@@ -10943,7 +10943,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="W30" s="1" t="s">
         <v>71</v>
@@ -10991,7 +10991,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="W31" s="1" t="s">
         <v>74</v>
@@ -11041,7 +11041,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W32" s="1" t="s">
         <v>77</v>
@@ -11089,7 +11089,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W33" s="1" t="s">
         <v>79</v>
@@ -11137,7 +11137,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="W34" s="1" t="s">
         <v>81</v>
@@ -11185,7 +11185,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="W35" s="1" t="s">
         <v>83</v>
@@ -11233,7 +11233,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1">
-        <v>4000</v>
+        <v>40</v>
       </c>
       <c r="W36" s="1" t="s">
         <v>85</v>
@@ -11285,7 +11285,7 @@
         <v>1019</v>
       </c>
       <c r="V37" s="1">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="W37" s="1" t="s">
         <v>89</v>
@@ -11335,7 +11335,7 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W38" s="1" t="s">
         <v>91</v>
@@ -11383,7 +11383,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="W39" s="1" t="s">
         <v>93</v>
@@ -11431,7 +11431,7 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1">
-        <v>2500</v>
+        <v>25</v>
       </c>
       <c r="W40" s="1" t="s">
         <v>95</v>
@@ -11479,7 +11479,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W41" s="1" t="s">
         <v>97</v>
@@ -11527,7 +11527,7 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="W42" s="1" t="s">
         <v>99</v>
@@ -11577,7 +11577,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="W43" s="1" t="s">
         <v>102</v>
@@ -11627,7 +11627,7 @@
         <v>1021</v>
       </c>
       <c r="V44" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W44" s="1" t="s">
         <v>105</v>
@@ -11675,7 +11675,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W45" s="1" t="s">
         <v>107</v>
@@ -11725,7 +11725,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="W46" s="1" t="s">
         <v>109</v>
@@ -11773,7 +11773,7 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="25">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W47" s="1" t="s">
         <v>112</v>
@@ -11823,7 +11823,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="W48" s="1" t="s">
         <v>132</v>
@@ -11871,7 +11871,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1">
-        <v>450</v>
+        <v>4</v>
       </c>
       <c r="W49" s="1" t="s">
         <v>134</v>
@@ -11921,7 +11921,7 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="W50" s="1" t="s">
         <v>137</v>
@@ -11973,7 +11973,7 @@
         <v>1021</v>
       </c>
       <c r="V51" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W51" s="1" t="s">
         <v>139</v>
@@ -12023,7 +12023,7 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W52" s="1" t="s">
         <v>141</v>
@@ -12073,7 +12073,7 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W53" s="1" t="s">
         <v>143</v>
@@ -12123,7 +12123,7 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W54" s="1" t="s">
         <v>145</v>
@@ -12173,7 +12173,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W55" s="1" t="s">
         <v>147</v>
@@ -12223,7 +12223,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W56" s="1" t="s">
         <v>149</v>
@@ -12273,7 +12273,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W57" s="1" t="s">
         <v>151</v>
@@ -12323,7 +12323,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W58" s="1" t="s">
         <v>153</v>
@@ -12373,7 +12373,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W59" s="1" t="s">
         <v>155</v>
@@ -12423,7 +12423,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="W60" s="1" t="s">
         <v>157</v>
@@ -12471,7 +12471,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W61" s="1" t="s">
         <v>159</v>
@@ -12523,7 +12523,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1">
-        <v>1250</v>
+        <v>12</v>
       </c>
       <c r="W62" s="1" t="s">
         <v>164</v>
@@ -12571,7 +12571,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W63" s="1" t="s">
         <v>167</v>
@@ -12621,7 +12621,7 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1">
-        <v>2600</v>
+        <v>26</v>
       </c>
       <c r="W64" s="1" t="s">
         <v>169</v>
@@ -12669,7 +12669,7 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1">
-        <v>-400</v>
+        <v>-4</v>
       </c>
       <c r="W65" s="1" t="s">
         <v>171</v>
@@ -12719,7 +12719,7 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W66" s="1" t="s">
         <v>174</v>
@@ -12769,7 +12769,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W67" s="1" t="s">
         <v>177</v>
@@ -12817,7 +12817,7 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W68" s="1" t="s">
         <v>180</v>
@@ -12867,7 +12867,7 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="W69" s="1" t="s">
         <v>182</v>
@@ -12919,7 +12919,7 @@
         <v>1023</v>
       </c>
       <c r="V70" s="1">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="W70" s="1" t="s">
         <v>186</v>
@@ -12979,7 +12979,7 @@
         <v>1022</v>
       </c>
       <c r="V71" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="W71" s="1" t="s">
         <v>188</v>
@@ -13029,7 +13029,7 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="W72" s="1" t="s">
         <v>190</v>
@@ -13079,7 +13079,7 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="W73" s="1" t="s">
         <v>192</v>
@@ -13127,7 +13127,7 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="W74" s="1" t="s">
         <v>194</v>
@@ -13175,7 +13175,7 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W75" s="1" t="s">
         <v>196</v>
@@ -13223,7 +13223,7 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="W76" s="1" t="s">
         <v>198</v>
@@ -13271,7 +13271,7 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="W77" s="1" t="s">
         <v>201</v>
@@ -13319,7 +13319,7 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1">
-        <v>-1425</v>
+        <v>-15</v>
       </c>
       <c r="W78" s="1" t="s">
         <v>203</v>
@@ -13371,7 +13371,7 @@
         <v>1022</v>
       </c>
       <c r="V79" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W79" s="1" t="s">
         <v>204</v>
@@ -13419,7 +13419,7 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W80" s="1" t="s">
         <v>206</v>
@@ -13467,7 +13467,7 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="W81" s="1" t="s">
         <v>208</v>
@@ -13515,7 +13515,7 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
       <c r="V82" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W82" s="1" t="s">
         <v>210</v>
@@ -13563,7 +13563,7 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
       <c r="V83" s="1">
-        <v>280</v>
+        <v>2</v>
       </c>
       <c r="W83" s="1" t="s">
         <v>212</v>
@@ -13613,7 +13613,7 @@
         <v>1021</v>
       </c>
       <c r="V84" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="W84" s="1" t="s">
         <v>214</v>
@@ -13675,8 +13675,7 @@
         <v>1026</v>
       </c>
       <c r="V85" s="1">
-        <f>800*3*2/12</f>
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="W85" s="1" t="s">
         <v>217</v>
@@ -13724,7 +13723,7 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
       <c r="V86" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W86" s="1" t="s">
         <v>220</v>
@@ -13776,7 +13775,7 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
       <c r="V87" s="1">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="W87" s="1" t="s">
         <v>223</v>
@@ -13824,7 +13823,7 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
       <c r="V88" s="1">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="W88" s="1" t="s">
         <v>225</v>
@@ -13872,7 +13871,7 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
       <c r="V89" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W89" s="1" t="s">
         <v>227</v>
@@ -13918,7 +13917,7 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
       <c r="V90" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="W90" s="1" t="s">
         <v>229</v>
@@ -13968,7 +13967,7 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
       <c r="V91" s="1">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="W91" s="1" t="s">
         <v>231</v>
@@ -14030,8 +14029,7 @@
         <v>1026</v>
       </c>
       <c r="V92" s="1">
-        <f>1000*1.5*2/12</f>
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="W92" s="1" t="s">
         <v>233</v>
@@ -14081,7 +14079,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
       <c r="V93" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W93" s="1" t="s">
         <v>235</v>
@@ -14131,7 +14129,7 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="W94" s="1" t="s">
         <v>237</v>
@@ -14181,7 +14179,7 @@
         <v>1021</v>
       </c>
       <c r="V95" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="W95" s="1" t="s">
         <v>239</v>
@@ -14229,7 +14227,7 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
       <c r="V96" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W96" s="1" t="s">
         <v>242</v>
@@ -14277,7 +14275,7 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
       <c r="V97" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W97" s="1" t="s">
         <v>245</v>
@@ -14329,7 +14327,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
       <c r="V98" s="1">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="W98" s="1" t="s">
         <v>248</v>
@@ -14379,7 +14377,7 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
       <c r="V99" s="1">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="W99" s="1" t="s">
         <v>250</v>
@@ -14429,7 +14427,7 @@
         <v>1021</v>
       </c>
       <c r="V100" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W100" s="1" t="s">
         <v>252</v>
@@ -14477,7 +14475,7 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
       <c r="V101" s="1">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="W101" s="1" t="s">
         <v>254</v>
@@ -14529,7 +14527,7 @@
         <v>1019</v>
       </c>
       <c r="V102" s="1">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="W102" s="1" t="s">
         <v>256</v>
@@ -14577,7 +14575,7 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
       <c r="V103" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W103" s="1" t="s">
         <v>258</v>
@@ -14627,7 +14625,7 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
       <c r="V104" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W104" s="1" t="s">
         <v>260</v>
@@ -14677,7 +14675,7 @@
         <v>1021</v>
       </c>
       <c r="V105" s="1">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="W105" s="1" t="s">
         <v>262</v>
@@ -14727,7 +14725,7 @@
         <v>1019</v>
       </c>
       <c r="V106" s="1">
-        <v>700</v>
+        <v>7</v>
       </c>
       <c r="W106" s="1" t="s">
         <v>264</v>
@@ -14775,7 +14773,7 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
       <c r="V107" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="W107" s="1" t="s">
         <v>266</v>
@@ -14827,7 +14825,7 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
       <c r="V108" s="1">
-        <v>333</v>
+        <v>3</v>
       </c>
       <c r="W108" s="1" t="s">
         <v>269</v>
@@ -14877,7 +14875,7 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
       <c r="V109" s="1">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="W109" s="1" t="s">
         <v>271</v>
@@ -14927,7 +14925,7 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
       <c r="V110" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W110" s="1" t="s">
         <v>273</v>
@@ -14977,7 +14975,7 @@
         <v>1021</v>
       </c>
       <c r="V111" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W111" s="1" t="s">
         <v>275</v>
@@ -15025,7 +15023,7 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
       <c r="V112" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W112" s="1" t="s">
         <v>278</v>
@@ -15073,7 +15071,7 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
       <c r="V113" s="1">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="W113" s="1" t="s">
         <v>280</v>
@@ -15119,7 +15117,7 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
       <c r="V114" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W114" s="1" t="s">
         <v>282</v>
@@ -15165,7 +15163,7 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
       <c r="V115" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W115" s="1" t="s">
         <v>284</v>
@@ -15213,7 +15211,7 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
       <c r="V116" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W116" s="1" t="s">
         <v>286</v>
@@ -15261,7 +15259,7 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
       <c r="V117" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W117" s="1" t="s">
         <v>288</v>
@@ -15309,7 +15307,7 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
       <c r="V118" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W118" s="1" t="s">
         <v>290</v>
@@ -15357,7 +15355,7 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
       <c r="V119" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W119" s="1" t="s">
         <v>292</v>
@@ -15413,7 +15411,7 @@
       </c>
       <c r="U120" s="1"/>
       <c r="V120" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W120" s="1" t="s">
         <v>294</v>
@@ -15463,7 +15461,7 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
       <c r="V121" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W121" s="1" t="s">
         <v>296</v>
@@ -15511,7 +15509,7 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
       <c r="V122" s="1">
-        <v>-500</v>
+        <v>-5</v>
       </c>
       <c r="W122" s="1" t="s">
         <v>298</v>
@@ -15559,7 +15557,7 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
       <c r="V123" s="1">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="W123" s="1" t="s">
         <v>300</v>
@@ -15609,7 +15607,7 @@
         <v>1021</v>
       </c>
       <c r="V124" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W124" s="1" t="s">
         <v>302</v>
@@ -15657,7 +15655,7 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
       <c r="V125" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W125" s="1" t="s">
         <v>305</v>
@@ -15707,7 +15705,7 @@
         <v>1021</v>
       </c>
       <c r="V126" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W126" s="1" t="s">
         <v>307</v>
@@ -15757,7 +15755,7 @@
         <v>1021</v>
       </c>
       <c r="V127" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W127" s="1" t="s">
         <v>309</v>
@@ -15807,7 +15805,7 @@
         <v>1021</v>
       </c>
       <c r="V128" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W128" s="1" t="s">
         <v>311</v>
@@ -15855,7 +15853,7 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
       <c r="V129" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W129" s="1" t="s">
         <v>314</v>
@@ -15907,8 +15905,7 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
       <c r="V130" s="1">
-        <f>600-200</f>
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="W130" s="1" t="s">
         <v>317</v>
@@ -15958,7 +15955,7 @@
         <v>1021</v>
       </c>
       <c r="V131" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W131" s="1" t="s">
         <v>319</v>
@@ -16006,7 +16003,7 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
       <c r="V132" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W132" s="1" t="s">
         <v>322</v>
@@ -16056,7 +16053,7 @@
         <v>1021</v>
       </c>
       <c r="V133" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W133" s="1" t="s">
         <v>324</v>
@@ -16104,7 +16101,7 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
       <c r="V134" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W134" s="1" t="s">
         <v>327</v>
@@ -16154,7 +16151,7 @@
         <v>1021</v>
       </c>
       <c r="V135" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W135" s="1" t="s">
         <v>329</v>
@@ -16202,7 +16199,7 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
       <c r="V136" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W136" s="1" t="s">
         <v>332</v>
@@ -16250,7 +16247,7 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
       <c r="V137" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W137" s="1" t="s">
         <v>334</v>
@@ -16300,7 +16297,7 @@
         <v>1021</v>
       </c>
       <c r="V138" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W138" s="1" t="s">
         <v>336</v>
@@ -16352,7 +16349,7 @@
         <v>1022</v>
       </c>
       <c r="V139" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W139" s="1" t="s">
         <v>338</v>
@@ -16402,7 +16399,7 @@
         <v>1021</v>
       </c>
       <c r="V140" s="1">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="W140" s="1" t="s">
         <v>340</v>
@@ -16450,7 +16447,7 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
       <c r="V141" s="31">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W141" s="1" t="s">
         <v>343</v>
@@ -16498,7 +16495,7 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
       <c r="V142" s="1">
-        <v>-120</v>
+        <v>-2</v>
       </c>
       <c r="W142" s="1" t="s">
         <v>346</v>
@@ -16546,7 +16543,7 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
       <c r="V143" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W143" s="1" t="s">
         <v>348</v>
@@ -16594,7 +16591,7 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
       <c r="V144" s="1">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="W144" s="1" t="s">
         <v>350</v>
@@ -16644,7 +16641,7 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
       <c r="V145" s="1">
-        <v>700</v>
+        <v>7</v>
       </c>
       <c r="W145" s="1" t="s">
         <v>353</v>
@@ -16694,7 +16691,7 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
       <c r="V146" s="1">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="W146" s="1" t="s">
         <v>355</v>
@@ -16742,7 +16739,7 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
       <c r="V147" s="1">
-        <v>950</v>
+        <v>9</v>
       </c>
       <c r="W147" s="1" t="s">
         <v>357</v>
@@ -16792,7 +16789,7 @@
         <v>1021</v>
       </c>
       <c r="V148" s="1">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="W148" s="1" t="s">
         <v>359</v>
@@ -16842,7 +16839,7 @@
         <v>1021</v>
       </c>
       <c r="V149" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W149" s="1" t="s">
         <v>361</v>
@@ -16896,7 +16893,7 @@
         <v>1019</v>
       </c>
       <c r="V150" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="W150" s="1" t="s">
         <v>364</v>
@@ -16944,7 +16941,7 @@
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
       <c r="V151" s="1">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="W151" s="1" t="s">
         <v>366</v>
@@ -16994,7 +16991,7 @@
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
       <c r="V152" s="1">
-        <v>266</v>
+        <v>2</v>
       </c>
       <c r="W152" s="1" t="s">
         <v>368</v>
@@ -17042,7 +17039,7 @@
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
       <c r="V153" s="1">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="W153" s="1" t="s">
         <v>370</v>
@@ -17092,7 +17089,7 @@
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
       <c r="V154" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="W154" s="1" t="s">
         <v>372</v>
@@ -17142,8 +17139,7 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
       <c r="V155" s="1">
-        <f>600/3</f>
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W155" s="1" t="s">
         <v>374</v>
@@ -17195,7 +17191,7 @@
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
       <c r="V156" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W156" s="1" t="s">
         <v>377</v>
@@ -17245,7 +17241,7 @@
         <v>1021</v>
       </c>
       <c r="V157" s="1">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="W157" s="1" t="s">
         <v>379</v>
@@ -17291,7 +17287,7 @@
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
       <c r="V158" s="1">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="W158" s="1" t="s">
         <v>381</v>
@@ -17341,7 +17337,7 @@
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
       <c r="V159" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W159" s="1" t="s">
         <v>383</v>
@@ -17391,7 +17387,7 @@
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
       <c r="V160" s="1">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="W160" s="1" t="s">
         <v>385</v>
@@ -17443,7 +17439,7 @@
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
       <c r="V161" s="1">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="W161" s="1" t="s">
         <v>387</v>
@@ -17493,7 +17489,7 @@
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
       <c r="V162" s="1">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="W162" s="1" t="s">
         <v>389</v>
@@ -17545,7 +17541,7 @@
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
       <c r="V163" s="1">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="W163" s="1" t="s">
         <v>392</v>
@@ -17595,7 +17591,7 @@
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
       <c r="V164" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W164" s="1" t="s">
         <v>394</v>
@@ -17645,7 +17641,7 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
       <c r="V165" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W165" s="1" t="s">
         <v>396</v>
@@ -17695,7 +17691,7 @@
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
       <c r="V166" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W166" s="1" t="s">
         <v>398</v>
@@ -17747,7 +17743,7 @@
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
       <c r="V167" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="W167" s="1" t="s">
         <v>400</v>
@@ -17795,7 +17791,7 @@
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
       <c r="V168" s="1">
-        <v>4000</v>
+        <v>40</v>
       </c>
       <c r="W168" s="1" t="s">
         <v>402</v>
@@ -17847,7 +17843,7 @@
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
       <c r="V169" s="1">
-        <v>333</v>
+        <v>3</v>
       </c>
       <c r="W169" s="1" t="s">
         <v>405</v>
@@ -17903,7 +17899,7 @@
       </c>
       <c r="U170" s="10"/>
       <c r="V170" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W170" s="1" t="s">
         <v>407</v>
@@ -17951,7 +17947,7 @@
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
       <c r="V171" s="1">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="W171" s="1" t="s">
         <v>409</v>
@@ -17999,7 +17995,7 @@
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
       <c r="V172" s="1">
-        <v>360</v>
+        <v>3</v>
       </c>
       <c r="W172" s="1" t="s">
         <v>411</v>
@@ -18049,7 +18045,7 @@
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
       <c r="V173" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W173" s="1" t="s">
         <v>413</v>
@@ -18097,7 +18093,7 @@
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
       <c r="V174" s="1">
-        <v>-1200</v>
+        <v>-12</v>
       </c>
       <c r="W174" s="1" t="s">
         <v>1218</v>
@@ -18145,7 +18141,7 @@
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
       <c r="V175" s="1">
-        <v>-36</v>
+        <v>-1</v>
       </c>
       <c r="W175" s="1" t="s">
         <v>415</v>
@@ -18197,7 +18193,7 @@
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
       <c r="V176" s="1">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="W176" s="1" t="s">
         <v>417</v>
@@ -18247,7 +18243,7 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
       <c r="V177" s="1">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="W177" s="1" t="s">
         <v>419</v>
@@ -18299,7 +18295,7 @@
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
       <c r="V178" s="1">
-        <v>2222</v>
+        <v>22</v>
       </c>
       <c r="W178" s="1" t="s">
         <v>422</v>
@@ -18349,7 +18345,7 @@
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
       <c r="V179" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W179" s="1" t="s">
         <v>424</v>
@@ -18399,7 +18395,7 @@
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
       <c r="V180" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W180" s="1" t="s">
         <v>426</v>
@@ -18449,7 +18445,7 @@
         <v>1021</v>
       </c>
       <c r="V181" s="1">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="W181" s="1" t="s">
         <v>428</v>
@@ -18497,7 +18493,7 @@
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
       <c r="V182" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W182" s="1" t="s">
         <v>430</v>
@@ -18545,7 +18541,7 @@
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
       <c r="V183" s="1">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="W183" s="1" t="s">
         <v>432</v>
@@ -18593,7 +18589,7 @@
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
       <c r="V184" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W184" s="1" t="s">
         <v>434</v>
@@ -18643,7 +18639,7 @@
         <v>1021</v>
       </c>
       <c r="V185" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W185" s="1" t="s">
         <v>436</v>
@@ -18689,7 +18685,7 @@
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
       <c r="V186" s="1">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="W186" s="1" t="s">
         <v>438</v>
@@ -18737,7 +18733,7 @@
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
       <c r="V187" s="1">
-        <v>1400</v>
+        <v>14</v>
       </c>
       <c r="W187" s="1" t="s">
         <v>440</v>
@@ -18787,7 +18783,7 @@
         <v>1021</v>
       </c>
       <c r="V188" s="1">
-        <v>225</v>
+        <v>2</v>
       </c>
       <c r="W188" s="1" t="s">
         <v>442</v>
@@ -18837,7 +18833,7 @@
         <v>1021</v>
       </c>
       <c r="V189" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="W189" s="1" t="s">
         <v>444</v>
@@ -18887,14 +18883,12 @@
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
       <c r="V190" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="W190" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="X190" s="53" t="s">
-        <v>1406</v>
-      </c>
+      <c r="X190" s="53"/>
     </row>
     <row r="191" spans="1:24" ht="48">
       <c r="A191">
@@ -18937,7 +18931,7 @@
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
       <c r="V191" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="W191" s="1" t="s">
         <v>448</v>
@@ -18985,7 +18979,7 @@
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
       <c r="V192" s="1">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="W192" s="1" t="s">
         <v>450</v>
@@ -19035,7 +19029,7 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
       <c r="V193" s="1">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="W193" s="1" t="s">
         <v>452</v>
@@ -19085,7 +19079,7 @@
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
       <c r="V194" s="1">
-        <v>2500</v>
+        <v>25</v>
       </c>
       <c r="W194" s="1" t="s">
         <v>951</v>
@@ -19131,7 +19125,7 @@
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
       <c r="V195" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W195" s="1" t="s">
         <v>454</v>
@@ -19181,7 +19175,7 @@
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
       <c r="V196" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="W196" s="1" t="s">
         <v>456</v>
@@ -19233,7 +19227,7 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
       <c r="V197" s="1">
-        <v>666</v>
+        <v>6</v>
       </c>
       <c r="W197" s="1" t="s">
         <v>459</v>
@@ -19283,7 +19277,7 @@
         <v>1021</v>
       </c>
       <c r="V198" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W198" s="1" t="s">
         <v>461</v>
@@ -19333,7 +19327,7 @@
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
       <c r="V199" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W199" s="1" t="s">
         <v>464</v>
@@ -19383,7 +19377,7 @@
         <v>1021</v>
       </c>
       <c r="V200" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W200" s="1" t="s">
         <v>466</v>
@@ -19431,7 +19425,7 @@
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
       <c r="V201" s="1">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="W201" s="1" t="s">
         <v>468</v>
@@ -19493,8 +19487,7 @@
         <v>1026</v>
       </c>
       <c r="V202" s="1">
-        <f>200*2</f>
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="W202" s="1" t="s">
         <v>471</v>
@@ -19544,7 +19537,7 @@
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
       <c r="V203" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W203" s="1" t="s">
         <v>473</v>
@@ -19594,7 +19587,7 @@
       <c r="T204" s="1"/>
       <c r="U204" s="1"/>
       <c r="V204" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W204" s="1" t="s">
         <v>476</v>
@@ -19642,7 +19635,7 @@
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
       <c r="V205" s="1">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="W205" s="1" t="s">
         <v>479</v>
@@ -19690,7 +19683,7 @@
       <c r="T206" s="1"/>
       <c r="U206" s="1"/>
       <c r="V206" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W206" s="1" t="s">
         <v>482</v>
@@ -19740,7 +19733,7 @@
       <c r="T207" s="1"/>
       <c r="U207" s="1"/>
       <c r="V207" s="1">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="W207" s="1" t="s">
         <v>484</v>
@@ -19788,7 +19781,7 @@
       <c r="T208" s="1"/>
       <c r="U208" s="1"/>
       <c r="V208" s="1">
-        <v>1200</v>
+        <v>12</v>
       </c>
       <c r="W208" s="1" t="s">
         <v>950</v>
@@ -19838,7 +19831,7 @@
       <c r="T209" s="1"/>
       <c r="U209" s="1"/>
       <c r="V209" s="1">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="W209" s="1" t="s">
         <v>486</v>
@@ -19888,7 +19881,7 @@
       <c r="T210" s="1"/>
       <c r="U210" s="1"/>
       <c r="V210" s="1">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="W210" s="1" t="s">
         <v>488</v>
@@ -19938,7 +19931,7 @@
       <c r="T211" s="1"/>
       <c r="U211" s="1"/>
       <c r="V211" s="1">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="W211" s="1" t="s">
         <v>490</v>
@@ -19988,7 +19981,7 @@
       <c r="T212" s="1"/>
       <c r="U212" s="1"/>
       <c r="V212" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W212" s="1" t="s">
         <v>492</v>
@@ -20038,7 +20031,7 @@
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
       <c r="V213" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W213" s="1" t="s">
         <v>494</v>
@@ -20088,7 +20081,7 @@
       <c r="T214" s="1"/>
       <c r="U214" s="1"/>
       <c r="V214" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W214" s="1" t="s">
         <v>673</v>
@@ -20136,7 +20129,7 @@
       <c r="T215" s="1"/>
       <c r="U215" s="1"/>
       <c r="V215" s="1">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="W215" s="1" t="s">
         <v>496</v>
@@ -20186,7 +20179,7 @@
       <c r="T216" s="1"/>
       <c r="U216" s="1"/>
       <c r="V216" s="1">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="W216" s="1" t="s">
         <v>498</v>
@@ -20234,7 +20227,7 @@
       <c r="T217" s="1"/>
       <c r="U217" s="1"/>
       <c r="V217" s="1">
-        <v>-1800</v>
+        <v>-18</v>
       </c>
       <c r="W217" s="1" t="s">
         <v>500</v>
@@ -20282,7 +20275,7 @@
       <c r="T218" s="1"/>
       <c r="U218" s="1"/>
       <c r="V218" s="1">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="W218" s="1" t="s">
         <v>502</v>
@@ -20330,7 +20323,7 @@
       <c r="T219" s="1"/>
       <c r="U219" s="1"/>
       <c r="V219" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W219" s="1" t="s">
         <v>504</v>
@@ -20378,7 +20371,7 @@
       <c r="T220" s="1"/>
       <c r="U220" s="1"/>
       <c r="V220" s="1">
-        <v>-200</v>
+        <v>-2</v>
       </c>
       <c r="W220" s="1" t="s">
         <v>506</v>
@@ -20428,7 +20421,7 @@
       <c r="T221" s="1"/>
       <c r="U221" s="1"/>
       <c r="V221" s="1">
-        <v>333</v>
+        <v>3</v>
       </c>
       <c r="W221" s="1" t="s">
         <v>508</v>
@@ -20476,7 +20469,7 @@
       <c r="T222" s="1"/>
       <c r="U222" s="1"/>
       <c r="V222" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W222" s="1" t="s">
         <v>510</v>
@@ -20524,7 +20517,7 @@
       <c r="T223" s="1"/>
       <c r="U223" s="1"/>
       <c r="V223" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W223" s="1" t="s">
         <v>512</v>
@@ -20618,7 +20611,7 @@
       <c r="T225" s="1"/>
       <c r="U225" s="1"/>
       <c r="V225" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="W225" s="1" t="s">
         <v>517</v>
@@ -20666,7 +20659,7 @@
       <c r="T226" s="1"/>
       <c r="U226" s="1"/>
       <c r="V226" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W226" s="1" t="s">
         <v>519</v>
@@ -20728,8 +20721,7 @@
         <v>1026</v>
       </c>
       <c r="V227" s="1">
-        <f>2000*1.5*2/12</f>
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W227" s="1" t="s">
         <v>521</v>
@@ -20779,8 +20771,7 @@
       <c r="T228" s="1"/>
       <c r="U228" s="1"/>
       <c r="V228" s="1">
-        <f>100*0.3</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W228" s="1" t="s">
         <v>523</v>
@@ -20830,7 +20821,7 @@
       <c r="T229" s="1"/>
       <c r="U229" s="1"/>
       <c r="V229" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W229" s="1" t="s">
         <v>525</v>
@@ -20878,7 +20869,7 @@
       <c r="T230" s="1"/>
       <c r="U230" s="1"/>
       <c r="V230" s="1">
-        <v>222</v>
+        <v>2</v>
       </c>
       <c r="W230" s="1" t="s">
         <v>527</v>
@@ -20940,7 +20931,7 @@
         <v>1026</v>
       </c>
       <c r="V231" s="1">
-        <v>280</v>
+        <v>2</v>
       </c>
       <c r="W231" s="1" t="s">
         <v>529</v>
@@ -20988,7 +20979,7 @@
       <c r="T232" s="1"/>
       <c r="U232" s="1"/>
       <c r="V232" s="1">
-        <v>450</v>
+        <v>4</v>
       </c>
       <c r="W232" s="1" t="s">
         <v>531</v>
@@ -21038,7 +21029,7 @@
       <c r="T233" s="1"/>
       <c r="U233" s="1"/>
       <c r="V233" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W233" s="1" t="s">
         <v>533</v>
@@ -21088,7 +21079,7 @@
       <c r="T234" s="1"/>
       <c r="U234" s="1"/>
       <c r="V234" s="1">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="W234" s="1" t="s">
         <v>535</v>
@@ -21140,7 +21131,7 @@
       <c r="T235" s="1"/>
       <c r="U235" s="1"/>
       <c r="V235" s="1">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="W235" s="1" t="s">
         <v>537</v>
@@ -21190,7 +21181,7 @@
       <c r="T236" s="1"/>
       <c r="U236" s="1"/>
       <c r="V236" s="1">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="W236" s="1" t="s">
         <v>539</v>
@@ -21238,7 +21229,7 @@
       <c r="T237" s="1"/>
       <c r="U237" s="1"/>
       <c r="V237" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W237" s="1" t="s">
         <v>541</v>
@@ -21286,7 +21277,7 @@
       <c r="T238" s="1"/>
       <c r="U238" s="1"/>
       <c r="V238" s="31">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="W238" s="1" t="s">
         <v>543</v>
@@ -21336,7 +21327,7 @@
       <c r="T239" s="1"/>
       <c r="U239" s="1"/>
       <c r="V239" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W239" s="1" t="s">
         <v>545</v>
@@ -21386,7 +21377,7 @@
       <c r="T240" s="1"/>
       <c r="U240" s="1"/>
       <c r="V240" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W240" s="1" t="s">
         <v>547</v>
@@ -21434,7 +21425,7 @@
       <c r="T241" s="1"/>
       <c r="U241" s="1"/>
       <c r="V241" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W241" s="1" t="s">
         <v>549</v>
@@ -21482,7 +21473,7 @@
       <c r="T242" s="1"/>
       <c r="U242" s="1"/>
       <c r="V242" s="31">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W242" s="1" t="s">
         <v>551</v>
@@ -21528,7 +21519,7 @@
       <c r="T243" s="1"/>
       <c r="U243" s="1"/>
       <c r="V243" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W243" s="1" t="s">
         <v>553</v>
@@ -21580,7 +21571,7 @@
       <c r="T244" s="1"/>
       <c r="U244" s="1"/>
       <c r="V244" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W244" s="1" t="s">
         <v>555</v>
@@ -21628,7 +21619,7 @@
       <c r="T245" s="1"/>
       <c r="U245" s="1"/>
       <c r="V245" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W245" s="1" t="s">
         <v>557</v>
@@ -21680,7 +21671,7 @@
       <c r="T246" s="1"/>
       <c r="U246" s="1"/>
       <c r="V246" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W246" s="1" t="s">
         <v>559</v>
@@ -21738,7 +21729,7 @@
       </c>
       <c r="U247" s="10"/>
       <c r="V247" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W247" s="1" t="s">
         <v>561</v>
@@ -21786,7 +21777,7 @@
       <c r="T248" s="1"/>
       <c r="U248" s="1"/>
       <c r="V248" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W248" s="1" t="s">
         <v>563</v>
@@ -21834,7 +21825,7 @@
       <c r="T249" s="1"/>
       <c r="U249" s="1"/>
       <c r="V249" s="1">
-        <v>2200</v>
+        <v>22</v>
       </c>
       <c r="W249" s="1" t="s">
         <v>565</v>
@@ -21886,7 +21877,7 @@
       <c r="T250" s="1"/>
       <c r="U250" s="1"/>
       <c r="V250" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="W250" s="1" t="s">
         <v>569</v>
@@ -21936,7 +21927,7 @@
       <c r="T251" s="1"/>
       <c r="U251" s="1"/>
       <c r="V251" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W251" s="1" t="s">
         <v>571</v>
@@ -21984,7 +21975,7 @@
       <c r="T252" s="1"/>
       <c r="U252" s="1"/>
       <c r="V252" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="W252" s="1" t="s">
         <v>574</v>
@@ -22032,7 +22023,7 @@
       <c r="T253" s="1"/>
       <c r="U253" s="1"/>
       <c r="V253" s="1">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="W253" s="1" t="s">
         <v>576</v>
@@ -22082,7 +22073,7 @@
       <c r="T254" s="1"/>
       <c r="U254" s="1"/>
       <c r="V254" s="1">
-        <v>2500</v>
+        <v>25</v>
       </c>
       <c r="W254" s="1" t="s">
         <v>579</v>
@@ -22130,7 +22121,7 @@
       <c r="T255" s="1"/>
       <c r="U255" s="1"/>
       <c r="V255" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W255" s="1" t="s">
         <v>582</v>
@@ -22178,7 +22169,7 @@
       <c r="T256" s="1"/>
       <c r="U256" s="1"/>
       <c r="V256" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W256" s="1" t="s">
         <v>585</v>
@@ -22228,7 +22219,7 @@
         <v>1021</v>
       </c>
       <c r="V257" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W257" s="1" t="s">
         <v>587</v>
@@ -22278,7 +22269,7 @@
       <c r="T258" s="1"/>
       <c r="U258" s="1"/>
       <c r="V258" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W258" s="1" t="s">
         <v>589</v>
@@ -22326,7 +22317,7 @@
       <c r="T259" s="1"/>
       <c r="U259" s="1"/>
       <c r="V259" s="1">
-        <v>2500</v>
+        <v>25</v>
       </c>
       <c r="W259" s="1" t="s">
         <v>591</v>
@@ -22374,7 +22365,7 @@
       <c r="T260" s="1"/>
       <c r="U260" s="1"/>
       <c r="V260" s="1">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="W260" s="1" t="s">
         <v>593</v>
@@ -22422,7 +22413,7 @@
       <c r="T261" s="1"/>
       <c r="U261" s="1"/>
       <c r="V261" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W261" s="1" t="s">
         <v>595</v>
@@ -22472,7 +22463,7 @@
       <c r="T262" s="1"/>
       <c r="U262" s="1"/>
       <c r="V262" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W262" s="1" t="s">
         <v>597</v>
@@ -22522,7 +22513,7 @@
       <c r="T263" s="1"/>
       <c r="U263" s="1"/>
       <c r="V263" s="1">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="W263" s="1" t="s">
         <v>599</v>
@@ -22570,7 +22561,7 @@
       <c r="T264" s="1"/>
       <c r="U264" s="1"/>
       <c r="V264" s="1">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="W264" s="1" t="s">
         <v>601</v>
@@ -22618,7 +22609,7 @@
       <c r="T265" s="1"/>
       <c r="U265" s="1"/>
       <c r="V265" s="1">
-        <v>900</v>
+        <v>9</v>
       </c>
       <c r="W265" s="1" t="s">
         <v>603</v>
@@ -22666,7 +22657,7 @@
       <c r="T266" s="1"/>
       <c r="U266" s="1"/>
       <c r="V266" s="1">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="W266" s="1" t="s">
         <v>605</v>
@@ -22714,7 +22705,7 @@
       <c r="T267" s="1"/>
       <c r="U267" s="1"/>
       <c r="V267" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W267" s="1" t="s">
         <v>607</v>
@@ -22762,7 +22753,7 @@
       <c r="T268" s="1"/>
       <c r="U268" s="1"/>
       <c r="V268" s="1">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="W268" s="1" t="s">
         <v>609</v>
@@ -22820,7 +22811,7 @@
       </c>
       <c r="U269" s="1"/>
       <c r="V269" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W269" s="1" t="s">
         <v>611</v>
@@ -22872,7 +22863,7 @@
       <c r="T270" s="1"/>
       <c r="U270" s="1"/>
       <c r="V270" s="1">
-        <v>666</v>
+        <v>6</v>
       </c>
       <c r="W270" s="1" t="s">
         <v>613</v>
@@ -22922,7 +22913,7 @@
         <v>1021</v>
       </c>
       <c r="V271" s="1">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="W271" s="1" t="s">
         <v>615</v>
@@ -22968,7 +22959,7 @@
       <c r="T272" s="1"/>
       <c r="U272" s="1"/>
       <c r="V272" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W272" s="1" t="s">
         <v>617</v>
@@ -23018,7 +23009,7 @@
         <v>1021</v>
       </c>
       <c r="V273" s="1">
-        <v>360</v>
+        <v>3</v>
       </c>
       <c r="W273" s="1" t="s">
         <v>619</v>
@@ -23068,7 +23059,7 @@
       <c r="T274" s="1"/>
       <c r="U274" s="1"/>
       <c r="V274" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W274" s="1" t="s">
         <v>622</v>
@@ -23124,7 +23115,7 @@
       </c>
       <c r="U275" s="1"/>
       <c r="V275" s="1">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="W275" s="1" t="s">
         <v>623</v>
@@ -23172,7 +23163,7 @@
       <c r="T276" s="1"/>
       <c r="U276" s="1"/>
       <c r="V276" s="1">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="W276" s="1" t="s">
         <v>625</v>
@@ -23220,7 +23211,7 @@
       <c r="T277" s="1"/>
       <c r="U277" s="1"/>
       <c r="V277" s="1">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="W277" s="1" t="s">
         <v>627</v>
@@ -23272,7 +23263,7 @@
       <c r="T278" s="1"/>
       <c r="U278" s="1"/>
       <c r="V278" s="1">
-        <v>900</v>
+        <v>9</v>
       </c>
       <c r="W278" s="1" t="s">
         <v>629</v>
@@ -23320,7 +23311,7 @@
       <c r="T279" s="1"/>
       <c r="U279" s="1"/>
       <c r="V279" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W279" s="1" t="s">
         <v>631</v>
@@ -23382,8 +23373,7 @@
         <v>1026</v>
       </c>
       <c r="V280" s="1">
-        <f>600*3*2/12</f>
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W280" s="1" t="s">
         <v>633</v>
@@ -23429,7 +23419,7 @@
       <c r="T281" s="1"/>
       <c r="U281" s="1"/>
       <c r="V281" s="1">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="W281" s="1" t="s">
         <v>635</v>
@@ -23477,7 +23467,7 @@
       <c r="T282" s="1"/>
       <c r="U282" s="1"/>
       <c r="V282" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="W282" s="1" t="s">
         <v>637</v>
@@ -23527,7 +23517,7 @@
       <c r="T283" s="1"/>
       <c r="U283" s="1"/>
       <c r="V283" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W283" s="1" t="s">
         <v>639</v>
@@ -23577,7 +23567,7 @@
       <c r="T284" s="1"/>
       <c r="U284" s="1"/>
       <c r="V284" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W284" s="1" t="s">
         <v>641</v>
@@ -23629,7 +23619,7 @@
       <c r="T285" s="1"/>
       <c r="U285" s="1"/>
       <c r="V285" s="1">
-        <v>333</v>
+        <v>3</v>
       </c>
       <c r="W285" s="1" t="s">
         <v>644</v>
@@ -23681,7 +23671,7 @@
       <c r="T286" s="1"/>
       <c r="U286" s="1"/>
       <c r="V286" s="1">
-        <v>6000</v>
+        <v>60</v>
       </c>
       <c r="W286" s="31" t="s">
         <v>1424</v>
@@ -23743,8 +23733,7 @@
         <v>1026</v>
       </c>
       <c r="V287" s="1">
-        <f>1000*3*2/12</f>
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W287" s="1" t="s">
         <v>646</v>
@@ -23806,7 +23795,7 @@
         <v>1026</v>
       </c>
       <c r="V288" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="W288" s="1" t="s">
         <v>648</v>
@@ -23868,7 +23857,7 @@
         <v>1026</v>
       </c>
       <c r="V289" s="1">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="W289" s="1" t="s">
         <v>650</v>
@@ -23928,7 +23917,7 @@
         <v>1026</v>
       </c>
       <c r="V290" s="1">
-        <v>833</v>
+        <v>8</v>
       </c>
       <c r="W290" s="1" t="s">
         <v>652</v>
@@ -23990,8 +23979,7 @@
         <v>1026</v>
       </c>
       <c r="V291" s="1">
-        <f>1400*3*2/12</f>
-        <v>700</v>
+        <v>7</v>
       </c>
       <c r="W291" s="1" t="s">
         <v>654</v>
@@ -24053,8 +24041,7 @@
         <v>1026</v>
       </c>
       <c r="V292" s="1">
-        <f>1200*3*2/12</f>
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="W292" s="1" t="s">
         <v>656</v>
@@ -24116,8 +24103,7 @@
         <v>1026</v>
       </c>
       <c r="V293" s="1">
-        <f>240*2</f>
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="W293" s="1" t="s">
         <v>658</v>
@@ -24179,8 +24165,7 @@
         <v>1026</v>
       </c>
       <c r="V294" s="1">
-        <f>300*2</f>
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="W294" s="1" t="s">
         <v>660</v>
@@ -24228,7 +24213,7 @@
       <c r="T295" s="1"/>
       <c r="U295" s="1"/>
       <c r="V295" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W295" s="1" t="s">
         <v>662</v>
@@ -24276,7 +24261,7 @@
       <c r="T296" s="1"/>
       <c r="U296" s="1"/>
       <c r="V296" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W296" s="1" t="s">
         <v>664</v>
@@ -24338,8 +24323,7 @@
         <v>1026</v>
       </c>
       <c r="V297" s="1">
-        <f>300*5*2/12</f>
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="W297" s="1" t="s">
         <v>666</v>
@@ -24395,7 +24379,7 @@
       </c>
       <c r="U298" s="10"/>
       <c r="V298" s="1">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="W298" s="1" t="s">
         <v>668</v>
@@ -24447,7 +24431,7 @@
         <v>1020</v>
       </c>
       <c r="V299" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="W299" s="1" t="s">
         <v>1004</v>
@@ -24497,7 +24481,7 @@
       <c r="T300" s="1"/>
       <c r="U300" s="1"/>
       <c r="V300" s="1">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="W300" s="1" t="s">
         <v>1174</v>
@@ -24553,7 +24537,7 @@
       </c>
       <c r="U301" s="36"/>
       <c r="V301" s="36">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="W301" s="1" t="s">
         <v>1229</v>
@@ -24609,7 +24593,7 @@
       </c>
       <c r="U302" s="36"/>
       <c r="V302" s="36">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="W302" s="1" t="s">
         <v>1231</v>
@@ -24657,7 +24641,7 @@
       <c r="T303" s="1"/>
       <c r="U303" s="1"/>
       <c r="V303" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W303" s="1" t="s">
         <v>130</v>
@@ -24682,10 +24666,10 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F3"/>
+      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24965,7 +24949,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>675</v>
@@ -25013,7 +24997,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>675</v>
@@ -25038,10 +25022,10 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F3"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25323,7 +25307,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>45</v>
@@ -25373,7 +25357,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>47</v>
@@ -25423,7 +25407,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>49</v>
@@ -25473,7 +25457,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>51</v>
@@ -25523,7 +25507,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>53</v>
@@ -25573,7 +25557,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>55</v>
@@ -25623,7 +25607,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>57</v>
@@ -25673,7 +25657,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>59</v>
@@ -25723,7 +25707,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>114</v>
@@ -25773,7 +25757,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>116</v>
@@ -25823,7 +25807,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>118</v>
@@ -25873,7 +25857,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>120</v>
@@ -25923,7 +25907,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>122</v>
@@ -25973,7 +25957,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>124</v>
@@ -26023,7 +26007,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>126</v>
@@ -26073,7 +26057,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>128</v>
@@ -26097,8 +26081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="1499">
   <si>
     <t>夜色</t>
   </si>
@@ -4982,544 +4982,560 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>if(!deadHit)d.AddBuff(56000001,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000003,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000007,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.AddBuff(56000006,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000008,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000006,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000014,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000010,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000009,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000012,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000005,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit){d.AddBuff(56000003,lv,2);d.AddBuff(56000004,lv,2);}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)s.AddBuff(56000012,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000001,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000013,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000022,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000004,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000002,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000009,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000022,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000018,lv,99);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000019,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(!deadHit)d.AddBuff(56000011,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").SetRange(11);</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000015,lv,"A");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000111,lv,"E").SetRange(31);</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000111,lv,"E");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000131,lv,"E");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"A").AddRace("Dragon");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"A").AddRace("Undead");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"A").AddAttr("None");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000121,lv,"F");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddAttr("Dark");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000121,lv,"F").AddAttr("Dark");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddAttr("Ice");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddAttr("Earth");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddAttr("Wind");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddAttr("Light");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000121,lv,"F").AddAttr("Light");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000102,lv,"F").SetMid(10062);</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000121,lv,"F").AddAttr("Fire");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000102,lv,"F").SetMid(10001);</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddAttr("Thunder");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000121,lv,"F").AddAttr("Water");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddAttr("Water");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddRace("Beast");</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000101,lv,"F").AddRace("Plant");;</t>
+  </si>
+  <si>
+    <t>s.AddAuro(56000023,lv,"F").AddAttr("Water");</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.AddAuro(56000023,lv,"A").SetMid(10055);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>!s.IsMagicAtk</t>
+  </si>
+  <si>
+    <t>s.IsMagicAtk&amp;&amp;s.HasScroll</t>
+  </si>
+  <si>
+    <t>s.Atk.Source*=MathTool.GetRandom(1f,1.3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(deadHit){s.Atk.Source*=1.1;}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(deadHit){s.Atk.Source+=d.Atk.Source*0.3;}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自己周围随机位置召唤一个哥布林</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckSpecial</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialCd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTimelyEffectDelegate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.SetToPosition("around");s.Atk.Source+=10;</t>
+  </si>
+  <si>
+    <t>s.Transform((MathTool.GetRandom(2) == 0) ? 51010001 : 51010047);</t>
+  </si>
+  <si>
+    <t>s.Transform(MathTool.GetRandom(51010001,51010050));</t>
+  </si>
+  <si>
+    <t>s.AddHpRate(1);</t>
+  </si>
+  <si>
+    <t>s.Transform(51010097);</t>
+  </si>
+  <si>
+    <t>s.Summon(2,51013001);</t>
+  </si>
+  <si>
+    <t>s.Atk.Source*=1.15;</t>
+  </si>
+  <si>
+    <t>s.Atk.Source*=1.2;</t>
+  </si>
+  <si>
+    <t>s.Summon(3,51000019);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gebulin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署时变成最近的单位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectArea</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>electball</t>
+  </si>
+  <si>
+    <t>tornado</t>
+  </si>
+  <si>
+    <t>waterball</t>
+  </si>
+  <si>
+    <t>icesharp</t>
+  </si>
+  <si>
+    <t>curseoff</t>
+  </si>
+  <si>
+    <t>firestorm</t>
+  </si>
+  <si>
+    <t>inferno</t>
+  </si>
+  <si>
+    <t>yellowsplash</t>
+  </si>
+  <si>
+    <t>rootattack</t>
+  </si>
+  <si>
+    <t>etwave</t>
+  </si>
+  <si>
+    <t>参数射程</t>
+  </si>
+  <si>
+    <t>NAR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).FilterId(s.Id).SortDistance(true).Top(1)) s.Transform(mon.CardId);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.4);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.5);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.AddBuff(56000016,lv,3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.AddHp(30);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.ExtendDebuff(2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).SortDistance(true).Top(1)) mon.SetToPosition("side");</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) mon.AddHp(100);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.5);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.7);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.6);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(o.MaxHp*0.12);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) s.AddBuff(56000001,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.ClearDebuff();</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).SortDistance(true).Top(1)) mon.OnMagicDamage(100,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).SortDistance(true).Top(1)) mon.OnMagicDamage(100,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标判定</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointSelf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向自己</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Owner.AddMana(s,1,1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合回复召唤师1点MP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>55000060|FightQuick</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>if(!deadHit)d.AddBuff(56000001,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000003,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000007,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.AddBuff(56000006,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000008,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000006,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000014,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000010,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000009,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000012,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000005,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit){d.AddBuff(56000003,lv,2);d.AddBuff(56000004,lv,2);}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)s.AddBuff(56000012,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000001,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000013,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000022,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000004,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000002,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000009,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000022,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000018,lv,99);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000019,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(!deadHit)d.AddBuff(56000011,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").SetRange(11);</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000015,lv,"A");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000111,lv,"E").SetRange(31);</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000111,lv,"E");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000131,lv,"E");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"A").AddRace("Dragon");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"A").AddRace("Undead");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"A").AddAttr("None");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000121,lv,"F");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddAttr("Dark");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000121,lv,"F").AddAttr("Dark");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddAttr("Ice");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddAttr("Earth");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddAttr("Wind");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddAttr("Light");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000121,lv,"F").AddAttr("Light");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000102,lv,"F").SetMid(10062);</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000121,lv,"F").AddAttr("Fire");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000102,lv,"F").SetMid(10001);</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddAttr("Thunder");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000121,lv,"F").AddAttr("Water");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddAttr("Water");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddRace("Beast");</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000101,lv,"F").AddRace("Plant");;</t>
-  </si>
-  <si>
-    <t>s.AddAuro(56000023,lv,"F").AddAttr("Water");</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.AddAuro(56000023,lv,"A").SetMid(10055);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>!s.IsMagicAtk</t>
-  </si>
-  <si>
-    <t>s.IsMagicAtk&amp;&amp;s.HasScroll</t>
-  </si>
-  <si>
-    <t>s.Atk.Source*=MathTool.GetRandom(1f,1.3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(deadHit){s.Atk.Source*=1.1;}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(deadHit){s.Atk.Source+=d.Atk.Source*0.3;}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在自己周围随机位置召唤一个哥布林</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckSpecial</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecialCd</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillTimelyEffectDelegate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.SetToPosition("around");s.Atk.Source+=10;</t>
-  </si>
-  <si>
-    <t>s.Transform((MathTool.GetRandom(2) == 0) ? 51010001 : 51010047);</t>
-  </si>
-  <si>
-    <t>s.Transform(MathTool.GetRandom(51010001,51010050));</t>
-  </si>
-  <si>
-    <t>s.AddHpRate(1);</t>
-  </si>
-  <si>
-    <t>s.Transform(51010097);</t>
-  </si>
-  <si>
-    <t>s.Summon(2,51013001);</t>
-  </si>
-  <si>
-    <t>s.Atk.Source*=1.15;</t>
-  </si>
-  <si>
-    <t>s.Atk.Source*=1.2;</t>
-  </si>
-  <si>
-    <t>s.Summon(3,51000019);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>gebulin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署时变成最近的单位</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectArea</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围特效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>electball</t>
-  </si>
-  <si>
-    <t>tornado</t>
-  </si>
-  <si>
-    <t>waterball</t>
-  </si>
-  <si>
-    <t>icesharp</t>
-  </si>
-  <si>
-    <t>curseoff</t>
-  </si>
-  <si>
-    <t>firestorm</t>
-  </si>
-  <si>
-    <t>inferno</t>
-  </si>
-  <si>
-    <t>yellowsplash</t>
-  </si>
-  <si>
-    <t>rootattack</t>
-  </si>
-  <si>
-    <t>etwave</t>
-  </si>
-  <si>
-    <t>参数射程</t>
+    <t>yanzhen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎阵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>NAR</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).FilterId(s.Id).SortDistance(true).Top(1)) s.Transform(mon.CardId);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.4);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.5);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.AddBuff(56000016,lv,3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.AddHp(30);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NER</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.ExtendDebuff(2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).SortDistance(true).Top(1)) mon.SetToPosition("side");</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) mon.AddHp(100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.5);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NER</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEV</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.7);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.6);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEX</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(o.MaxHp*0.12);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFL</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) s.AddBuff(56000001,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.ClearDebuff();</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAL</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).SortDistance(true).Top(1)) mon.OnMagicDamage(100,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).SortDistance(true).Top(1)) mon.OnMagicDamage(100,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标判定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PointSelf</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>指向自己</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Owner.AddMana(s,1,1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合回复召唤师1点MP</t>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.AddHp(-s.Atk*0.3);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6383,7 +6399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6593,6 +6609,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -8971,8 +8993,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:X303" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79" tableBorderDxfId="78">
-  <autoFilter ref="A3:X303"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:X304" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79" tableBorderDxfId="78">
+  <autoFilter ref="A3:X304"/>
   <sortState ref="A4:S302">
     <sortCondition ref="A3:A302"/>
   </sortState>
@@ -9365,13 +9387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X303"/>
+  <dimension ref="A1:X304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P186" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X191" sqref="X191"/>
+      <selection pane="bottomRight" activeCell="M304" sqref="M304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9405,13 +9427,13 @@
         <v>688</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>704</v>
@@ -9435,7 +9457,7 @@
         <v>939</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>697</v>
@@ -9453,7 +9475,7 @@
         <v>999</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>1018</v>
@@ -9465,7 +9487,7 @@
         <v>690</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -9479,13 +9501,13 @@
         <v>680</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1029</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1299</v>
@@ -9506,10 +9528,10 @@
         <v>1323</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>696</v>
@@ -9553,13 +9575,13 @@
         <v>683</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1298</v>
@@ -9580,10 +9602,10 @@
         <v>861</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>699</v>
@@ -9601,7 +9623,7 @@
         <v>1338</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>1016</v>
@@ -9613,7 +9635,7 @@
         <v>685</v>
       </c>
       <c r="X3" s="54" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="36">
@@ -9663,7 +9685,7 @@
         <v>2</v>
       </c>
       <c r="X4" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="48">
@@ -9711,7 +9733,7 @@
         <v>5</v>
       </c>
       <c r="X5" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -9759,7 +9781,7 @@
         <v>8</v>
       </c>
       <c r="X6" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="36">
@@ -9809,7 +9831,7 @@
         <v>11</v>
       </c>
       <c r="X7" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="36">
@@ -9859,7 +9881,7 @@
         <v>13</v>
       </c>
       <c r="X8" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="36">
@@ -9909,7 +9931,7 @@
         <v>15</v>
       </c>
       <c r="X9" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="36">
@@ -9959,7 +9981,7 @@
         <v>17</v>
       </c>
       <c r="X10" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="36">
@@ -10009,7 +10031,7 @@
         <v>19</v>
       </c>
       <c r="X11" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="36">
@@ -10059,7 +10081,7 @@
         <v>21</v>
       </c>
       <c r="X12" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="36">
@@ -10109,7 +10131,7 @@
         <v>23</v>
       </c>
       <c r="X13" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="36">
@@ -10159,7 +10181,7 @@
         <v>25</v>
       </c>
       <c r="X14" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="36">
@@ -10209,7 +10231,7 @@
         <v>27</v>
       </c>
       <c r="X15" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="36">
@@ -10259,7 +10281,7 @@
         <v>29</v>
       </c>
       <c r="X16" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="36">
@@ -10309,7 +10331,7 @@
         <v>31</v>
       </c>
       <c r="X17" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="36">
@@ -10359,7 +10381,7 @@
         <v>33</v>
       </c>
       <c r="X18" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="36">
@@ -10409,7 +10431,7 @@
         <v>35</v>
       </c>
       <c r="X19" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="36">
@@ -10459,7 +10481,7 @@
         <v>37</v>
       </c>
       <c r="X20" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="36">
@@ -10509,7 +10531,7 @@
         <v>39</v>
       </c>
       <c r="X21" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="36">
@@ -10559,7 +10581,7 @@
         <v>41</v>
       </c>
       <c r="X22" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="48">
@@ -10609,7 +10631,7 @@
         <v>43</v>
       </c>
       <c r="X23" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="27">
@@ -10655,7 +10677,7 @@
         <v>1322</v>
       </c>
       <c r="X24" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="24">
@@ -10677,7 +10699,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="60"/>
@@ -10703,7 +10725,7 @@
         <v>62</v>
       </c>
       <c r="X25" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="36">
@@ -10753,7 +10775,7 @@
         <v>65</v>
       </c>
       <c r="X26" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="24">
@@ -10772,7 +10794,7 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="17"/>
@@ -10803,7 +10825,7 @@
         <v>67</v>
       </c>
       <c r="X27" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="24">
@@ -10822,7 +10844,7 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J28" s="18"/>
       <c r="K28" s="17"/>
@@ -10853,7 +10875,7 @@
         <v>69</v>
       </c>
       <c r="X28" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -10901,7 +10923,7 @@
         <v>671</v>
       </c>
       <c r="X29" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="48">
@@ -10949,7 +10971,7 @@
         <v>71</v>
       </c>
       <c r="X30" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="24">
@@ -10997,7 +11019,7 @@
         <v>74</v>
       </c>
       <c r="X31" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="36">
@@ -11016,7 +11038,7 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="32" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J32" s="18"/>
       <c r="K32" s="17" t="s">
@@ -11047,7 +11069,7 @@
         <v>77</v>
       </c>
       <c r="X32" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="48">
@@ -11095,7 +11117,7 @@
         <v>79</v>
       </c>
       <c r="X33" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="36">
@@ -11143,7 +11165,7 @@
         <v>81</v>
       </c>
       <c r="X34" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="36">
@@ -11191,7 +11213,7 @@
         <v>83</v>
       </c>
       <c r="X35" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="36">
@@ -11239,7 +11261,7 @@
         <v>85</v>
       </c>
       <c r="X36" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="36">
@@ -11291,7 +11313,7 @@
         <v>89</v>
       </c>
       <c r="X37" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="48">
@@ -11341,7 +11363,7 @@
         <v>91</v>
       </c>
       <c r="X38" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="24">
@@ -11389,7 +11411,7 @@
         <v>93</v>
       </c>
       <c r="X39" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="24">
@@ -11411,7 +11433,7 @@
       <c r="J40" s="18"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="M40" s="21"/>
       <c r="N40" s="60"/>
@@ -11437,7 +11459,7 @@
         <v>95</v>
       </c>
       <c r="X40" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="36">
@@ -11485,7 +11507,7 @@
         <v>97</v>
       </c>
       <c r="X41" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="36">
@@ -11508,7 +11530,7 @@
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
       <c r="M42" s="21" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="N42" s="60"/>
       <c r="O42" s="1" t="s">
@@ -11533,7 +11555,7 @@
         <v>99</v>
       </c>
       <c r="X42" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="36">
@@ -11583,7 +11605,7 @@
         <v>102</v>
       </c>
       <c r="X43" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="36">
@@ -11600,7 +11622,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="67"/>
       <c r="G44" s="33" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H44" s="33"/>
       <c r="I44" s="32"/>
@@ -11633,7 +11655,7 @@
         <v>105</v>
       </c>
       <c r="X44" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="48">
@@ -11681,7 +11703,7 @@
         <v>107</v>
       </c>
       <c r="X45" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="48">
@@ -11731,7 +11753,7 @@
         <v>109</v>
       </c>
       <c r="X46" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -11779,7 +11801,7 @@
         <v>112</v>
       </c>
       <c r="X47" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="36">
@@ -11829,7 +11851,7 @@
         <v>132</v>
       </c>
       <c r="X48" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="24">
@@ -11851,7 +11873,7 @@
       <c r="J49" s="18"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="M49" s="21"/>
       <c r="N49" s="60"/>
@@ -11877,7 +11899,7 @@
         <v>134</v>
       </c>
       <c r="X49" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="36">
@@ -11927,7 +11949,7 @@
         <v>137</v>
       </c>
       <c r="X50" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="72">
@@ -11979,7 +12001,7 @@
         <v>139</v>
       </c>
       <c r="X51" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="48">
@@ -12029,7 +12051,7 @@
         <v>141</v>
       </c>
       <c r="X52" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="48">
@@ -12079,7 +12101,7 @@
         <v>143</v>
       </c>
       <c r="X53" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="48">
@@ -12129,7 +12151,7 @@
         <v>145</v>
       </c>
       <c r="X54" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="48">
@@ -12179,7 +12201,7 @@
         <v>147</v>
       </c>
       <c r="X55" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="48">
@@ -12229,7 +12251,7 @@
         <v>149</v>
       </c>
       <c r="X56" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="48">
@@ -12279,7 +12301,7 @@
         <v>151</v>
       </c>
       <c r="X57" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="48">
@@ -12329,7 +12351,7 @@
         <v>153</v>
       </c>
       <c r="X58" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="48">
@@ -12379,7 +12401,7 @@
         <v>155</v>
       </c>
       <c r="X59" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="36">
@@ -12429,7 +12451,7 @@
         <v>157</v>
       </c>
       <c r="X60" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="24">
@@ -12477,7 +12499,7 @@
         <v>159</v>
       </c>
       <c r="X61" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="120">
@@ -12529,7 +12551,7 @@
         <v>164</v>
       </c>
       <c r="X62" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="24">
@@ -12577,7 +12599,7 @@
         <v>167</v>
       </c>
       <c r="X63" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="36">
@@ -12627,7 +12649,7 @@
         <v>169</v>
       </c>
       <c r="X64" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="24">
@@ -12675,7 +12697,7 @@
         <v>171</v>
       </c>
       <c r="X65" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="24">
@@ -12725,7 +12747,7 @@
         <v>174</v>
       </c>
       <c r="X66" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="24">
@@ -12775,7 +12797,7 @@
         <v>177</v>
       </c>
       <c r="X67" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="24">
@@ -12823,7 +12845,7 @@
         <v>180</v>
       </c>
       <c r="X68" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="24">
@@ -12847,7 +12869,7 @@
       <c r="J69" s="18"/>
       <c r="K69" s="17"/>
       <c r="L69" s="17" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="M69" s="21"/>
       <c r="N69" s="60"/>
@@ -12873,7 +12895,7 @@
         <v>182</v>
       </c>
       <c r="X69" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="48">
@@ -12896,7 +12918,7 @@
       <c r="K70" s="17"/>
       <c r="L70" s="22"/>
       <c r="M70" s="21" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="N70" s="60"/>
       <c r="O70" s="1" t="s">
@@ -12925,7 +12947,7 @@
         <v>186</v>
       </c>
       <c r="X70" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="156">
@@ -12939,16 +12961,16 @@
         <v>1024</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E71" s="1">
         <v>40</v>
       </c>
       <c r="F71" s="67" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G71" s="33" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H71" s="33"/>
       <c r="I71" s="32"/>
@@ -12964,7 +12986,7 @@
         <v>693</v>
       </c>
       <c r="Q71" s="10" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="R71" s="10">
         <v>0</v>
@@ -12985,7 +13007,7 @@
         <v>188</v>
       </c>
       <c r="X71" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="36">
@@ -13035,7 +13057,7 @@
         <v>190</v>
       </c>
       <c r="X72" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="36">
@@ -13085,7 +13107,7 @@
         <v>192</v>
       </c>
       <c r="X73" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="24">
@@ -13107,7 +13129,7 @@
       <c r="J74" s="18"/>
       <c r="K74" s="17"/>
       <c r="L74" s="17" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="M74" s="21"/>
       <c r="N74" s="60"/>
@@ -13133,7 +13155,7 @@
         <v>194</v>
       </c>
       <c r="X74" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="24">
@@ -13155,7 +13177,7 @@
       <c r="J75" s="18"/>
       <c r="K75" s="17"/>
       <c r="L75" s="17" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="M75" s="21"/>
       <c r="N75" s="60"/>
@@ -13181,7 +13203,7 @@
         <v>196</v>
       </c>
       <c r="X75" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="24">
@@ -13229,7 +13251,7 @@
         <v>198</v>
       </c>
       <c r="X76" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="48">
@@ -13246,7 +13268,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="67"/>
       <c r="G77" s="33" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H77" s="33"/>
       <c r="I77" s="32"/>
@@ -13277,7 +13299,7 @@
         <v>201</v>
       </c>
       <c r="X77" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="24">
@@ -13299,7 +13321,7 @@
       <c r="J78" s="18"/>
       <c r="K78" s="17"/>
       <c r="L78" s="17" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="M78" s="21"/>
       <c r="N78" s="60"/>
@@ -13325,7 +13347,7 @@
         <v>203</v>
       </c>
       <c r="X78" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="36">
@@ -13348,7 +13370,7 @@
       <c r="K79" s="17"/>
       <c r="L79" s="22"/>
       <c r="M79" s="19" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="N79" s="63"/>
       <c r="O79" s="1" t="s">
@@ -13377,7 +13399,7 @@
         <v>204</v>
       </c>
       <c r="X79" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="24">
@@ -13399,7 +13421,7 @@
       <c r="J80" s="18"/>
       <c r="K80" s="17"/>
       <c r="L80" s="17" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="M80" s="21"/>
       <c r="N80" s="60"/>
@@ -13425,7 +13447,7 @@
         <v>206</v>
       </c>
       <c r="X80" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="24">
@@ -13447,7 +13469,7 @@
       <c r="J81" s="18"/>
       <c r="K81" s="17"/>
       <c r="L81" s="17" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="M81" s="21"/>
       <c r="N81" s="60"/>
@@ -13473,7 +13495,7 @@
         <v>208</v>
       </c>
       <c r="X81" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="24">
@@ -13495,7 +13517,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="17"/>
       <c r="L82" s="17" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="M82" s="21"/>
       <c r="N82" s="60"/>
@@ -13521,7 +13543,7 @@
         <v>210</v>
       </c>
       <c r="X82" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="84">
@@ -13569,7 +13591,7 @@
         <v>212</v>
       </c>
       <c r="X83" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="48">
@@ -13586,7 +13608,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="67"/>
       <c r="G84" s="33" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H84" s="33"/>
       <c r="I84" s="32"/>
@@ -13619,7 +13641,7 @@
         <v>214</v>
       </c>
       <c r="X84" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="96">
@@ -13633,23 +13655,23 @@
         <v>216</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E85" s="1">
         <v>20</v>
       </c>
       <c r="F85" s="67" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G85" s="33"/>
       <c r="H85" s="33"/>
       <c r="I85" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J85" s="18"/>
       <c r="K85" s="17"/>
       <c r="L85" s="17" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="M85" s="21"/>
       <c r="N85" s="60"/>
@@ -13669,7 +13691,7 @@
         <v>910</v>
       </c>
       <c r="T85" s="10" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="U85" s="10" t="s">
         <v>1026</v>
@@ -13681,7 +13703,7 @@
         <v>217</v>
       </c>
       <c r="X85" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="36">
@@ -13729,7 +13751,7 @@
         <v>220</v>
       </c>
       <c r="X86" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="36">
@@ -13781,7 +13803,7 @@
         <v>223</v>
       </c>
       <c r="X87" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -13829,7 +13851,7 @@
         <v>225</v>
       </c>
       <c r="X88" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -13877,7 +13899,7 @@
         <v>227</v>
       </c>
       <c r="X89" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -13923,7 +13945,7 @@
         <v>229</v>
       </c>
       <c r="X90" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="36">
@@ -13973,7 +13995,7 @@
         <v>231</v>
       </c>
       <c r="X91" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="96">
@@ -13987,23 +14009,23 @@
         <v>216</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E92" s="1">
         <v>10</v>
       </c>
       <c r="F92" s="67" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
       <c r="I92" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J92" s="18"/>
       <c r="K92" s="17"/>
       <c r="L92" s="17" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="M92" s="21"/>
       <c r="N92" s="60"/>
@@ -14023,7 +14045,7 @@
         <v>912</v>
       </c>
       <c r="T92" s="10" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="U92" s="10" t="s">
         <v>1026</v>
@@ -14035,7 +14057,7 @@
         <v>233</v>
       </c>
       <c r="X92" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="48">
@@ -14085,7 +14107,7 @@
         <v>235</v>
       </c>
       <c r="X93" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="36">
@@ -14135,7 +14157,7 @@
         <v>237</v>
       </c>
       <c r="X94" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="48">
@@ -14152,7 +14174,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="67"/>
       <c r="G95" s="33" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H95" s="33"/>
       <c r="I95" s="32"/>
@@ -14185,7 +14207,7 @@
         <v>239</v>
       </c>
       <c r="X95" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="36">
@@ -14233,7 +14255,7 @@
         <v>242</v>
       </c>
       <c r="X96" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="24">
@@ -14281,7 +14303,7 @@
         <v>245</v>
       </c>
       <c r="X97" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="36">
@@ -14333,7 +14355,7 @@
         <v>248</v>
       </c>
       <c r="X98" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="24">
@@ -14383,7 +14405,7 @@
         <v>250</v>
       </c>
       <c r="X99" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="48">
@@ -14400,7 +14422,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="67"/>
       <c r="G100" s="33" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H100" s="33"/>
       <c r="I100" s="32"/>
@@ -14433,7 +14455,7 @@
         <v>252</v>
       </c>
       <c r="X100" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="24">
@@ -14455,7 +14477,7 @@
       <c r="J101" s="18"/>
       <c r="K101" s="17"/>
       <c r="L101" s="17" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="M101" s="21"/>
       <c r="N101" s="60"/>
@@ -14481,7 +14503,7 @@
         <v>254</v>
       </c>
       <c r="X101" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="36">
@@ -14533,7 +14555,7 @@
         <v>256</v>
       </c>
       <c r="X102" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="24">
@@ -14581,7 +14603,7 @@
         <v>258</v>
       </c>
       <c r="X103" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="60">
@@ -14631,7 +14653,7 @@
         <v>260</v>
       </c>
       <c r="X104" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="48">
@@ -14648,7 +14670,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="67"/>
       <c r="G105" s="33" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H105" s="33"/>
       <c r="I105" s="32"/>
@@ -14681,7 +14703,7 @@
         <v>262</v>
       </c>
       <c r="X105" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="48">
@@ -14731,7 +14753,7 @@
         <v>264</v>
       </c>
       <c r="X106" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="24">
@@ -14753,7 +14775,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="17"/>
       <c r="L107" s="17" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="M107" s="21"/>
       <c r="N107" s="60"/>
@@ -14779,7 +14801,7 @@
         <v>266</v>
       </c>
       <c r="X107" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="24">
@@ -14831,7 +14853,7 @@
         <v>269</v>
       </c>
       <c r="X108" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="36">
@@ -14881,7 +14903,7 @@
         <v>271</v>
       </c>
       <c r="X109" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="36">
@@ -14931,7 +14953,7 @@
         <v>273</v>
       </c>
       <c r="X110" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="48">
@@ -14948,7 +14970,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="67"/>
       <c r="G111" s="33" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H111" s="33"/>
       <c r="I111" s="32"/>
@@ -14981,7 +15003,7 @@
         <v>275</v>
       </c>
       <c r="X111" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="36">
@@ -15029,7 +15051,7 @@
         <v>278</v>
       </c>
       <c r="X112" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="48">
@@ -15077,7 +15099,7 @@
         <v>280</v>
       </c>
       <c r="X113" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -15123,7 +15145,7 @@
         <v>282</v>
       </c>
       <c r="X114" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -15169,7 +15191,7 @@
         <v>284</v>
       </c>
       <c r="X115" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="24">
@@ -15217,7 +15239,7 @@
         <v>286</v>
       </c>
       <c r="X116" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="24">
@@ -15265,7 +15287,7 @@
         <v>288</v>
       </c>
       <c r="X117" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="24">
@@ -15287,7 +15309,7 @@
       <c r="J118" s="18"/>
       <c r="K118" s="17"/>
       <c r="L118" s="17" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="M118" s="21"/>
       <c r="N118" s="60"/>
@@ -15313,7 +15335,7 @@
         <v>290</v>
       </c>
       <c r="X118" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="36">
@@ -15361,7 +15383,7 @@
         <v>292</v>
       </c>
       <c r="X119" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="120">
@@ -15375,16 +15397,16 @@
         <v>104</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E120" s="1">
         <v>20</v>
       </c>
       <c r="F120" s="67" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H120" s="33"/>
       <c r="I120" s="29"/>
@@ -15417,7 +15439,7 @@
         <v>294</v>
       </c>
       <c r="X120" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="60">
@@ -15467,7 +15489,7 @@
         <v>296</v>
       </c>
       <c r="X121" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="36">
@@ -15515,7 +15537,7 @@
         <v>298</v>
       </c>
       <c r="X122" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="24">
@@ -15537,7 +15559,7 @@
       <c r="J123" s="18"/>
       <c r="K123" s="17"/>
       <c r="L123" s="17" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="M123" s="21"/>
       <c r="N123" s="60"/>
@@ -15563,7 +15585,7 @@
         <v>300</v>
       </c>
       <c r="X123" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="48">
@@ -15580,7 +15602,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="67"/>
       <c r="G124" s="33" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H124" s="33"/>
       <c r="I124" s="32"/>
@@ -15613,7 +15635,7 @@
         <v>302</v>
       </c>
       <c r="X124" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="36">
@@ -15661,7 +15683,7 @@
         <v>305</v>
       </c>
       <c r="X125" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="48">
@@ -15678,7 +15700,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="67"/>
       <c r="G126" s="33" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H126" s="33"/>
       <c r="I126" s="32"/>
@@ -15711,7 +15733,7 @@
         <v>307</v>
       </c>
       <c r="X126" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="48">
@@ -15728,7 +15750,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="67"/>
       <c r="G127" s="33" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H127" s="33"/>
       <c r="I127" s="32"/>
@@ -15761,7 +15783,7 @@
         <v>309</v>
       </c>
       <c r="X127" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="48">
@@ -15778,7 +15800,7 @@
       <c r="E128" s="1"/>
       <c r="F128" s="67"/>
       <c r="G128" s="33" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H128" s="33"/>
       <c r="I128" s="32"/>
@@ -15811,7 +15833,7 @@
         <v>311</v>
       </c>
       <c r="X128" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="36">
@@ -15859,7 +15881,7 @@
         <v>314</v>
       </c>
       <c r="X129" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="24">
@@ -15884,7 +15906,7 @@
       <c r="K130" s="17"/>
       <c r="L130" s="17"/>
       <c r="M130" s="21" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="N130" s="60"/>
       <c r="O130" s="1" t="s">
@@ -15911,7 +15933,7 @@
         <v>317</v>
       </c>
       <c r="X130" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="48">
@@ -15928,7 +15950,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="67"/>
       <c r="G131" s="33" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H131" s="33"/>
       <c r="I131" s="32"/>
@@ -15961,7 +15983,7 @@
         <v>319</v>
       </c>
       <c r="X131" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="24">
@@ -16009,7 +16031,7 @@
         <v>322</v>
       </c>
       <c r="X132" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="48">
@@ -16026,7 +16048,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="67"/>
       <c r="G133" s="33" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H133" s="33"/>
       <c r="I133" s="32"/>
@@ -16059,7 +16081,7 @@
         <v>324</v>
       </c>
       <c r="X133" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="36">
@@ -16107,7 +16129,7 @@
         <v>327</v>
       </c>
       <c r="X134" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="48">
@@ -16124,7 +16146,7 @@
       <c r="E135" s="1"/>
       <c r="F135" s="67"/>
       <c r="G135" s="33" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H135" s="33"/>
       <c r="I135" s="32"/>
@@ -16157,7 +16179,7 @@
         <v>329</v>
       </c>
       <c r="X135" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="36">
@@ -16205,7 +16227,7 @@
         <v>332</v>
       </c>
       <c r="X136" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="24">
@@ -16253,7 +16275,7 @@
         <v>334</v>
       </c>
       <c r="X137" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="36">
@@ -16270,7 +16292,7 @@
       <c r="E138" s="1"/>
       <c r="F138" s="67"/>
       <c r="G138" s="33" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H138" s="33"/>
       <c r="I138" s="32"/>
@@ -16303,7 +16325,7 @@
         <v>336</v>
       </c>
       <c r="X138" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="24">
@@ -16326,7 +16348,7 @@
       <c r="K139" s="17"/>
       <c r="L139" s="22"/>
       <c r="M139" s="21" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="N139" s="60"/>
       <c r="O139" s="1" t="s">
@@ -16355,7 +16377,7 @@
         <v>338</v>
       </c>
       <c r="X139" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="48">
@@ -16372,7 +16394,7 @@
       <c r="E140" s="1"/>
       <c r="F140" s="67"/>
       <c r="G140" s="33" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H140" s="33"/>
       <c r="I140" s="32"/>
@@ -16405,7 +16427,7 @@
         <v>340</v>
       </c>
       <c r="X140" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="24">
@@ -16453,7 +16475,7 @@
         <v>343</v>
       </c>
       <c r="X141" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="24">
@@ -16501,7 +16523,7 @@
         <v>346</v>
       </c>
       <c r="X142" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="24">
@@ -16549,7 +16571,7 @@
         <v>348</v>
       </c>
       <c r="X143" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="36">
@@ -16597,7 +16619,7 @@
         <v>350</v>
       </c>
       <c r="X144" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="24">
@@ -16647,7 +16669,7 @@
         <v>353</v>
       </c>
       <c r="X145" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="36">
@@ -16697,7 +16719,7 @@
         <v>355</v>
       </c>
       <c r="X146" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="24">
@@ -16719,7 +16741,7 @@
       <c r="J147" s="18"/>
       <c r="K147" s="17"/>
       <c r="L147" s="17" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="M147" s="21"/>
       <c r="N147" s="60"/>
@@ -16745,7 +16767,7 @@
         <v>357</v>
       </c>
       <c r="X147" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="48">
@@ -16762,7 +16784,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="67"/>
       <c r="G148" s="33" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H148" s="33"/>
       <c r="I148" s="32"/>
@@ -16795,7 +16817,7 @@
         <v>359</v>
       </c>
       <c r="X148" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="48">
@@ -16812,7 +16834,7 @@
       <c r="E149" s="1"/>
       <c r="F149" s="67"/>
       <c r="G149" s="33" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H149" s="33"/>
       <c r="I149" s="32"/>
@@ -16845,7 +16867,7 @@
         <v>361</v>
       </c>
       <c r="X149" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="36">
@@ -16899,7 +16921,7 @@
         <v>364</v>
       </c>
       <c r="X150" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="36">
@@ -16947,7 +16969,7 @@
         <v>366</v>
       </c>
       <c r="X151" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="24">
@@ -16971,7 +16993,7 @@
       <c r="J152" s="18"/>
       <c r="K152" s="17"/>
       <c r="L152" s="17" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="M152" s="21"/>
       <c r="N152" s="60"/>
@@ -16997,7 +17019,7 @@
         <v>368</v>
       </c>
       <c r="X152" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="48">
@@ -17014,7 +17036,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="67"/>
       <c r="G153" s="33" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H153" s="33"/>
       <c r="I153" s="32"/>
@@ -17045,7 +17067,7 @@
         <v>370</v>
       </c>
       <c r="X153" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="24">
@@ -17064,7 +17086,7 @@
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
       <c r="I154" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J154" s="18"/>
       <c r="K154" s="17"/>
@@ -17095,7 +17117,7 @@
         <v>372</v>
       </c>
       <c r="X154" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="155" spans="1:24" ht="72">
@@ -17145,7 +17167,7 @@
         <v>374</v>
       </c>
       <c r="X155" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="156" spans="1:24" ht="60">
@@ -17197,7 +17219,7 @@
         <v>377</v>
       </c>
       <c r="X156" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="48">
@@ -17214,7 +17236,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="67"/>
       <c r="G157" s="33" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H157" s="33"/>
       <c r="I157" s="32"/>
@@ -17247,7 +17269,7 @@
         <v>379</v>
       </c>
       <c r="X157" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="158" spans="1:24">
@@ -17293,7 +17315,7 @@
         <v>381</v>
       </c>
       <c r="X158" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="159" spans="1:24" ht="36">
@@ -17343,7 +17365,7 @@
         <v>383</v>
       </c>
       <c r="X159" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="160" spans="1:24" ht="36">
@@ -17393,7 +17415,7 @@
         <v>385</v>
       </c>
       <c r="X160" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="36">
@@ -17445,7 +17467,7 @@
         <v>387</v>
       </c>
       <c r="X161" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="162" spans="1:24" ht="36">
@@ -17495,7 +17517,7 @@
         <v>389</v>
       </c>
       <c r="X162" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="36">
@@ -17547,7 +17569,7 @@
         <v>392</v>
       </c>
       <c r="X163" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="164" spans="1:24" ht="24">
@@ -17597,7 +17619,7 @@
         <v>394</v>
       </c>
       <c r="X164" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="108">
@@ -17647,7 +17669,7 @@
         <v>396</v>
       </c>
       <c r="X165" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="166" spans="1:24" ht="96">
@@ -17697,7 +17719,7 @@
         <v>398</v>
       </c>
       <c r="X166" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="167" spans="1:24" ht="36">
@@ -17749,7 +17771,7 @@
         <v>400</v>
       </c>
       <c r="X167" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="168" spans="1:24" ht="24">
@@ -17771,7 +17793,7 @@
       <c r="J168" s="18"/>
       <c r="K168" s="17"/>
       <c r="L168" s="17" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="M168" s="21"/>
       <c r="N168" s="60"/>
@@ -17797,7 +17819,7 @@
         <v>402</v>
       </c>
       <c r="X168" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="24">
@@ -17849,7 +17871,7 @@
         <v>405</v>
       </c>
       <c r="X169" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="170" spans="1:24" ht="84">
@@ -17863,13 +17885,13 @@
         <v>1000</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E170" s="1">
         <v>15</v>
       </c>
       <c r="F170" s="67" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="G170" s="33"/>
       <c r="H170" s="33"/>
@@ -17878,7 +17900,7 @@
       <c r="K170" s="17"/>
       <c r="L170" s="22"/>
       <c r="M170" s="21" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="N170" s="60"/>
       <c r="O170" s="1" t="s">
@@ -17905,7 +17927,7 @@
         <v>407</v>
       </c>
       <c r="X170" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="171" spans="1:24" ht="24">
@@ -17927,7 +17949,7 @@
       <c r="J171" s="18"/>
       <c r="K171" s="17"/>
       <c r="L171" s="17" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="M171" s="21"/>
       <c r="N171" s="60"/>
@@ -17953,7 +17975,7 @@
         <v>409</v>
       </c>
       <c r="X171" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="172" spans="1:24" ht="36">
@@ -17975,7 +17997,7 @@
       <c r="J172" s="18"/>
       <c r="K172" s="17"/>
       <c r="L172" s="17" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M172" s="21"/>
       <c r="N172" s="60"/>
@@ -18001,7 +18023,7 @@
         <v>411</v>
       </c>
       <c r="X172" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="36">
@@ -18051,7 +18073,7 @@
         <v>413</v>
       </c>
       <c r="X173" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="174" spans="1:24" ht="48">
@@ -18099,7 +18121,7 @@
         <v>1218</v>
       </c>
       <c r="X174" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="175" spans="1:24" ht="24">
@@ -18147,7 +18169,7 @@
         <v>415</v>
       </c>
       <c r="X175" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="176" spans="1:24" ht="36">
@@ -18166,7 +18188,7 @@
       <c r="G176" s="33"/>
       <c r="H176" s="33"/>
       <c r="I176" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J176" s="18"/>
       <c r="K176" s="17" t="s">
@@ -18199,7 +18221,7 @@
         <v>417</v>
       </c>
       <c r="X176" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="177" spans="1:24" ht="36">
@@ -18249,7 +18271,7 @@
         <v>419</v>
       </c>
       <c r="X177" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="178" spans="1:24" ht="48">
@@ -18301,7 +18323,7 @@
         <v>422</v>
       </c>
       <c r="X178" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="179" spans="1:24" ht="60">
@@ -18351,7 +18373,7 @@
         <v>424</v>
       </c>
       <c r="X179" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="180" spans="1:24" ht="24">
@@ -18401,7 +18423,7 @@
         <v>426</v>
       </c>
       <c r="X180" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="181" spans="1:24" ht="48">
@@ -18418,7 +18440,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="67"/>
       <c r="G181" s="33" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H181" s="33"/>
       <c r="I181" s="32"/>
@@ -18451,7 +18473,7 @@
         <v>428</v>
       </c>
       <c r="X181" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="182" spans="1:24" ht="60">
@@ -18499,7 +18521,7 @@
         <v>430</v>
       </c>
       <c r="X182" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="183" spans="1:24" ht="60">
@@ -18547,7 +18569,7 @@
         <v>432</v>
       </c>
       <c r="X183" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="184" spans="1:24" ht="24">
@@ -18569,7 +18591,7 @@
       <c r="J184" s="18"/>
       <c r="K184" s="17"/>
       <c r="L184" s="17" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="M184" s="21"/>
       <c r="N184" s="60"/>
@@ -18595,7 +18617,7 @@
         <v>434</v>
       </c>
       <c r="X184" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="185" spans="1:24" ht="36">
@@ -18612,7 +18634,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="67"/>
       <c r="G185" s="33" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H185" s="33"/>
       <c r="I185" s="32"/>
@@ -18645,7 +18667,7 @@
         <v>436</v>
       </c>
       <c r="X185" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="186" spans="1:24">
@@ -18691,7 +18713,7 @@
         <v>438</v>
       </c>
       <c r="X186" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="187" spans="1:24" ht="48">
@@ -18713,7 +18735,7 @@
       <c r="J187" s="18"/>
       <c r="K187" s="17"/>
       <c r="L187" s="17" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="M187" s="21"/>
       <c r="N187" s="60"/>
@@ -18739,7 +18761,7 @@
         <v>440</v>
       </c>
       <c r="X187" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="188" spans="1:24" ht="36">
@@ -18756,7 +18778,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="67"/>
       <c r="G188" s="33" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H188" s="33"/>
       <c r="I188" s="32"/>
@@ -18789,7 +18811,7 @@
         <v>442</v>
       </c>
       <c r="X188" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="189" spans="1:24" ht="48">
@@ -18806,7 +18828,7 @@
       <c r="E189" s="1"/>
       <c r="F189" s="67"/>
       <c r="G189" s="33" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H189" s="33"/>
       <c r="I189" s="32"/>
@@ -18839,7 +18861,7 @@
         <v>444</v>
       </c>
       <c r="X189" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="190" spans="1:24" ht="24">
@@ -18862,7 +18884,7 @@
       <c r="K190" s="17"/>
       <c r="L190" s="17"/>
       <c r="M190" s="21" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N190" s="60">
         <v>1</v>
@@ -18874,7 +18896,7 @@
         <v>693</v>
       </c>
       <c r="Q190" s="10" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="R190" s="10">
         <v>0</v>
@@ -18937,7 +18959,7 @@
         <v>448</v>
       </c>
       <c r="X191" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="192" spans="1:24" ht="24">
@@ -18985,7 +19007,7 @@
         <v>450</v>
       </c>
       <c r="X192" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="193" spans="1:24" ht="96">
@@ -19035,7 +19057,7 @@
         <v>452</v>
       </c>
       <c r="X193" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="194" spans="1:24" ht="24">
@@ -19058,7 +19080,7 @@
       <c r="K194" s="17"/>
       <c r="L194" s="17"/>
       <c r="M194" s="21" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="N194" s="60"/>
       <c r="O194" s="1" t="s">
@@ -19085,7 +19107,7 @@
         <v>951</v>
       </c>
       <c r="X194" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -19131,7 +19153,7 @@
         <v>454</v>
       </c>
       <c r="X195" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="196" spans="1:24" ht="48">
@@ -19181,7 +19203,7 @@
         <v>456</v>
       </c>
       <c r="X196" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="197" spans="1:24" ht="48">
@@ -19233,7 +19255,7 @@
         <v>459</v>
       </c>
       <c r="X197" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="198" spans="1:24" ht="48">
@@ -19250,7 +19272,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="67"/>
       <c r="G198" s="33" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H198" s="33"/>
       <c r="I198" s="32"/>
@@ -19283,7 +19305,7 @@
         <v>461</v>
       </c>
       <c r="X198" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="199" spans="1:24" ht="24">
@@ -19333,7 +19355,7 @@
         <v>464</v>
       </c>
       <c r="X199" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="200" spans="1:24" ht="48">
@@ -19350,7 +19372,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="67"/>
       <c r="G200" s="33" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H200" s="33"/>
       <c r="I200" s="32"/>
@@ -19383,7 +19405,7 @@
         <v>466</v>
       </c>
       <c r="X200" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="201" spans="1:24" ht="24">
@@ -19405,7 +19427,7 @@
       <c r="J201" s="18"/>
       <c r="K201" s="17"/>
       <c r="L201" s="17" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="M201" s="21"/>
       <c r="N201" s="60"/>
@@ -19431,7 +19453,7 @@
         <v>468</v>
       </c>
       <c r="X201" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="202" spans="1:24" ht="96">
@@ -19445,23 +19467,23 @@
         <v>216</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E202" s="1">
         <v>0</v>
       </c>
       <c r="F202" s="67" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G202" s="33"/>
       <c r="H202" s="33"/>
       <c r="I202" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J202" s="18"/>
       <c r="K202" s="17"/>
       <c r="L202" s="17" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="M202" s="21"/>
       <c r="N202" s="60"/>
@@ -19493,7 +19515,7 @@
         <v>471</v>
       </c>
       <c r="X202" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="203" spans="1:24" ht="36">
@@ -19543,7 +19565,7 @@
         <v>473</v>
       </c>
       <c r="X203" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="204" spans="1:24" ht="24">
@@ -19593,7 +19615,7 @@
         <v>476</v>
       </c>
       <c r="X204" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -19641,7 +19663,7 @@
         <v>479</v>
       </c>
       <c r="X205" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -19689,7 +19711,7 @@
         <v>482</v>
       </c>
       <c r="X206" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="207" spans="1:24" ht="36">
@@ -19739,7 +19761,7 @@
         <v>484</v>
       </c>
       <c r="X207" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="208" spans="1:24" ht="24">
@@ -19787,7 +19809,7 @@
         <v>950</v>
       </c>
       <c r="X208" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="209" spans="1:24" ht="36">
@@ -19837,7 +19859,7 @@
         <v>486</v>
       </c>
       <c r="X209" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="210" spans="1:24" ht="36">
@@ -19887,7 +19909,7 @@
         <v>488</v>
       </c>
       <c r="X210" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="211" spans="1:24" ht="36">
@@ -19937,7 +19959,7 @@
         <v>490</v>
       </c>
       <c r="X211" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="212" spans="1:24" ht="48">
@@ -19987,7 +20009,7 @@
         <v>492</v>
       </c>
       <c r="X212" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="213" spans="1:24" ht="96">
@@ -20037,7 +20059,7 @@
         <v>494</v>
       </c>
       <c r="X213" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="214" spans="1:24" ht="24">
@@ -20087,7 +20109,7 @@
         <v>673</v>
       </c>
       <c r="X214" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="215" spans="1:24" ht="24">
@@ -20135,7 +20157,7 @@
         <v>496</v>
       </c>
       <c r="X215" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="216" spans="1:24" ht="24">
@@ -20159,7 +20181,7 @@
       <c r="J216" s="18"/>
       <c r="K216" s="17"/>
       <c r="L216" s="17" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="M216" s="21"/>
       <c r="N216" s="60"/>
@@ -20185,7 +20207,7 @@
         <v>498</v>
       </c>
       <c r="X216" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="217" spans="1:24" ht="24">
@@ -20233,7 +20255,7 @@
         <v>500</v>
       </c>
       <c r="X217" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="218" spans="1:24" ht="24">
@@ -20281,7 +20303,7 @@
         <v>502</v>
       </c>
       <c r="X218" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="219" spans="1:24" ht="48">
@@ -20329,7 +20351,7 @@
         <v>504</v>
       </c>
       <c r="X219" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="220" spans="1:24" ht="36">
@@ -20377,7 +20399,7 @@
         <v>506</v>
       </c>
       <c r="X220" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="221" spans="1:24" ht="36">
@@ -20427,7 +20449,7 @@
         <v>508</v>
       </c>
       <c r="X221" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="222" spans="1:24" ht="72">
@@ -20475,7 +20497,7 @@
         <v>510</v>
       </c>
       <c r="X222" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="223" spans="1:24" ht="24">
@@ -20523,7 +20545,7 @@
         <v>512</v>
       </c>
       <c r="X223" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="224" spans="1:24">
@@ -20569,7 +20591,7 @@
         <v>514</v>
       </c>
       <c r="X224" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="225" spans="1:24" ht="24">
@@ -20617,7 +20639,7 @@
         <v>517</v>
       </c>
       <c r="X225" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="226" spans="1:24" ht="24">
@@ -20665,7 +20687,7 @@
         <v>519</v>
       </c>
       <c r="X226" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="227" spans="1:24" ht="96">
@@ -20679,23 +20701,23 @@
         <v>216</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E227" s="1">
         <v>10</v>
       </c>
       <c r="F227" s="67" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G227" s="33"/>
       <c r="H227" s="33"/>
       <c r="I227" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J227" s="18"/>
       <c r="K227" s="17"/>
       <c r="L227" s="17" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="M227" s="21"/>
       <c r="N227" s="60"/>
@@ -20727,7 +20749,7 @@
         <v>521</v>
       </c>
       <c r="X227" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="228" spans="1:24" ht="24">
@@ -20777,7 +20799,7 @@
         <v>523</v>
       </c>
       <c r="X228" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="229" spans="1:24" ht="24">
@@ -20827,7 +20849,7 @@
         <v>525</v>
       </c>
       <c r="X229" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="230" spans="1:24" ht="36">
@@ -20875,7 +20897,7 @@
         <v>527</v>
       </c>
       <c r="X230" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="231" spans="1:24" ht="96">
@@ -20889,23 +20911,23 @@
         <v>216</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E231" s="1">
         <v>10</v>
       </c>
       <c r="F231" s="67" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G231" s="33"/>
       <c r="H231" s="33"/>
       <c r="I231" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J231" s="18"/>
       <c r="K231" s="17"/>
       <c r="L231" s="17" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="M231" s="21"/>
       <c r="N231" s="60"/>
@@ -20937,7 +20959,7 @@
         <v>529</v>
       </c>
       <c r="X231" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="232" spans="1:24" ht="24">
@@ -20959,7 +20981,7 @@
       <c r="J232" s="18"/>
       <c r="K232" s="17"/>
       <c r="L232" s="17" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="M232" s="21"/>
       <c r="N232" s="60"/>
@@ -20985,7 +21007,7 @@
         <v>531</v>
       </c>
       <c r="X232" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="233" spans="1:24" ht="36">
@@ -21035,7 +21057,7 @@
         <v>533</v>
       </c>
       <c r="X233" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="234" spans="1:24" ht="48">
@@ -21085,7 +21107,7 @@
         <v>535</v>
       </c>
       <c r="X234" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="235" spans="1:24" ht="36">
@@ -21104,7 +21126,7 @@
       <c r="G235" s="33"/>
       <c r="H235" s="33"/>
       <c r="I235" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J235" s="18"/>
       <c r="K235" s="17" t="s">
@@ -21137,7 +21159,7 @@
         <v>537</v>
       </c>
       <c r="X235" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="236" spans="1:24" ht="24">
@@ -21161,7 +21183,7 @@
       <c r="J236" s="18"/>
       <c r="K236" s="17"/>
       <c r="L236" s="17" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="M236" s="21"/>
       <c r="N236" s="60"/>
@@ -21187,7 +21209,7 @@
         <v>539</v>
       </c>
       <c r="X236" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="237" spans="1:24" ht="36">
@@ -21235,7 +21257,7 @@
         <v>541</v>
       </c>
       <c r="X237" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="238" spans="1:24" ht="27">
@@ -21283,7 +21305,7 @@
         <v>543</v>
       </c>
       <c r="X238" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="239" spans="1:24" ht="24">
@@ -21333,7 +21355,7 @@
         <v>545</v>
       </c>
       <c r="X239" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="240" spans="1:24" ht="36">
@@ -21383,7 +21405,7 @@
         <v>547</v>
       </c>
       <c r="X240" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="241" spans="1:24" ht="36">
@@ -21431,7 +21453,7 @@
         <v>549</v>
       </c>
       <c r="X241" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="242" spans="1:24">
@@ -21479,7 +21501,7 @@
         <v>551</v>
       </c>
       <c r="X242" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="243" spans="1:24">
@@ -21525,7 +21547,7 @@
         <v>553</v>
       </c>
       <c r="X243" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="244" spans="1:24" ht="36">
@@ -21577,7 +21599,7 @@
         <v>555</v>
       </c>
       <c r="X244" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="245" spans="1:24" ht="24">
@@ -21599,7 +21621,7 @@
       <c r="J245" s="18"/>
       <c r="K245" s="17"/>
       <c r="L245" s="17" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="M245" s="21"/>
       <c r="N245" s="60"/>
@@ -21625,7 +21647,7 @@
         <v>557</v>
       </c>
       <c r="X245" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="246" spans="1:24" ht="36">
@@ -21677,7 +21699,7 @@
         <v>559</v>
       </c>
       <c r="X246" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="247" spans="1:24" ht="84">
@@ -21691,13 +21713,13 @@
         <v>1000</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E247" s="1">
         <v>0</v>
       </c>
       <c r="F247" s="67" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="G247" s="33"/>
       <c r="H247" s="33"/>
@@ -21706,7 +21728,7 @@
       <c r="K247" s="17"/>
       <c r="L247" s="17"/>
       <c r="M247" s="21" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="N247" s="60"/>
       <c r="O247" s="1" t="s">
@@ -21725,7 +21747,7 @@
         <v>948</v>
       </c>
       <c r="T247" s="10" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="U247" s="10"/>
       <c r="V247" s="1">
@@ -21735,7 +21757,7 @@
         <v>561</v>
       </c>
       <c r="X247" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="248" spans="1:24" ht="84">
@@ -21783,7 +21805,7 @@
         <v>563</v>
       </c>
       <c r="X248" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="249" spans="1:24" ht="24">
@@ -21805,7 +21827,7 @@
       <c r="J249" s="18"/>
       <c r="K249" s="17"/>
       <c r="L249" s="17" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="M249" s="21"/>
       <c r="N249" s="60"/>
@@ -21831,7 +21853,7 @@
         <v>565</v>
       </c>
       <c r="X249" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="250" spans="1:24" ht="24">
@@ -21883,7 +21905,7 @@
         <v>569</v>
       </c>
       <c r="X250" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="251" spans="1:24" ht="36">
@@ -21933,7 +21955,7 @@
         <v>571</v>
       </c>
       <c r="X251" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="36">
@@ -21981,7 +22003,7 @@
         <v>574</v>
       </c>
       <c r="X252" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="48">
@@ -22029,7 +22051,7 @@
         <v>576</v>
       </c>
       <c r="X253" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="254" spans="1:24" ht="24">
@@ -22079,7 +22101,7 @@
         <v>579</v>
       </c>
       <c r="X254" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="255" spans="1:24" ht="24">
@@ -22127,7 +22149,7 @@
         <v>582</v>
       </c>
       <c r="X255" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="256" spans="1:24" ht="48">
@@ -22175,7 +22197,7 @@
         <v>585</v>
       </c>
       <c r="X256" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="257" spans="1:24" ht="48">
@@ -22192,7 +22214,7 @@
       <c r="E257" s="1"/>
       <c r="F257" s="67"/>
       <c r="G257" s="33" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H257" s="33"/>
       <c r="I257" s="32"/>
@@ -22225,7 +22247,7 @@
         <v>587</v>
       </c>
       <c r="X257" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="258" spans="1:24" ht="36">
@@ -22275,7 +22297,7 @@
         <v>589</v>
       </c>
       <c r="X258" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="259" spans="1:24" ht="24">
@@ -22297,7 +22319,7 @@
       <c r="J259" s="18"/>
       <c r="K259" s="17"/>
       <c r="L259" s="17" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="M259" s="21"/>
       <c r="N259" s="60"/>
@@ -22323,7 +22345,7 @@
         <v>591</v>
       </c>
       <c r="X259" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="36">
@@ -22371,7 +22393,7 @@
         <v>593</v>
       </c>
       <c r="X260" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="261" spans="1:24" ht="84">
@@ -22419,7 +22441,7 @@
         <v>595</v>
       </c>
       <c r="X261" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="36">
@@ -22469,7 +22491,7 @@
         <v>597</v>
       </c>
       <c r="X262" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="263" spans="1:24" ht="36">
@@ -22488,7 +22510,7 @@
       <c r="G263" s="33"/>
       <c r="H263" s="33"/>
       <c r="I263" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J263" s="18"/>
       <c r="K263" s="17" t="s">
@@ -22519,7 +22541,7 @@
         <v>599</v>
       </c>
       <c r="X263" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="264" spans="1:24">
@@ -22567,7 +22589,7 @@
         <v>601</v>
       </c>
       <c r="X264" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="265" spans="1:24" ht="24">
@@ -22590,7 +22612,7 @@
       <c r="K265" s="17"/>
       <c r="L265" s="22"/>
       <c r="M265" s="21" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="N265" s="60"/>
       <c r="O265" s="1" t="s">
@@ -22615,7 +22637,7 @@
         <v>603</v>
       </c>
       <c r="X265" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="266" spans="1:24">
@@ -22638,7 +22660,7 @@
       <c r="K266" s="17"/>
       <c r="L266" s="22"/>
       <c r="M266" s="21" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="N266" s="60"/>
       <c r="O266" s="1" t="s">
@@ -22663,7 +22685,7 @@
         <v>605</v>
       </c>
       <c r="X266" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="267" spans="1:24" ht="36">
@@ -22711,7 +22733,7 @@
         <v>607</v>
       </c>
       <c r="X267" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="268" spans="1:24" ht="24">
@@ -22759,7 +22781,7 @@
         <v>609</v>
       </c>
       <c r="X268" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="269" spans="1:24" ht="144">
@@ -22773,16 +22795,16 @@
         <v>1000</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E269" s="1">
         <v>10</v>
       </c>
       <c r="F269" s="67" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G269" s="33" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H269" s="33"/>
       <c r="I269" s="32"/>
@@ -22817,7 +22839,7 @@
         <v>611</v>
       </c>
       <c r="X269" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="270" spans="1:24" ht="36">
@@ -22869,7 +22891,7 @@
         <v>613</v>
       </c>
       <c r="X270" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="271" spans="1:24" ht="48">
@@ -22886,7 +22908,7 @@
       <c r="E271" s="1"/>
       <c r="F271" s="67"/>
       <c r="G271" s="33" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H271" s="33"/>
       <c r="I271" s="32"/>
@@ -22919,7 +22941,7 @@
         <v>615</v>
       </c>
       <c r="X271" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="272" spans="1:24">
@@ -22965,7 +22987,7 @@
         <v>617</v>
       </c>
       <c r="X272" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="273" spans="1:24" ht="36">
@@ -22982,7 +23004,7 @@
       <c r="E273" s="1"/>
       <c r="F273" s="67"/>
       <c r="G273" s="33" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H273" s="33"/>
       <c r="I273" s="32"/>
@@ -23015,7 +23037,7 @@
         <v>619</v>
       </c>
       <c r="X273" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="274" spans="1:24" ht="24">
@@ -23065,7 +23087,7 @@
         <v>622</v>
       </c>
       <c r="X274" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="275" spans="1:24" ht="120">
@@ -23079,16 +23101,16 @@
         <v>1000</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E275" s="1">
         <v>100</v>
       </c>
       <c r="F275" s="67" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G275" s="33" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H275" s="33"/>
       <c r="I275" s="32"/>
@@ -23121,7 +23143,7 @@
         <v>623</v>
       </c>
       <c r="X275" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="276" spans="1:24" ht="84">
@@ -23169,7 +23191,7 @@
         <v>625</v>
       </c>
       <c r="X276" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="277" spans="1:24" ht="60">
@@ -23217,7 +23239,7 @@
         <v>627</v>
       </c>
       <c r="X277" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="278" spans="1:24" ht="36">
@@ -23269,7 +23291,7 @@
         <v>629</v>
       </c>
       <c r="X278" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="279" spans="1:24" ht="48">
@@ -23317,7 +23339,7 @@
         <v>631</v>
       </c>
       <c r="X279" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="280" spans="1:24" ht="96">
@@ -23331,23 +23353,23 @@
         <v>216</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E280" s="1">
         <v>10</v>
       </c>
       <c r="F280" s="67" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G280" s="33"/>
       <c r="H280" s="33"/>
       <c r="I280" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J280" s="18"/>
       <c r="K280" s="17"/>
       <c r="L280" s="17" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="M280" s="21"/>
       <c r="N280" s="60"/>
@@ -23367,7 +23389,7 @@
         <v>1154</v>
       </c>
       <c r="T280" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="U280" s="10" t="s">
         <v>1026</v>
@@ -23379,7 +23401,7 @@
         <v>633</v>
       </c>
       <c r="X280" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="281" spans="1:24">
@@ -23425,7 +23447,7 @@
         <v>635</v>
       </c>
       <c r="X281" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="282" spans="1:24" ht="24">
@@ -23473,7 +23495,7 @@
         <v>637</v>
       </c>
       <c r="X282" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="283" spans="1:24" ht="96">
@@ -23523,7 +23545,7 @@
         <v>639</v>
       </c>
       <c r="X283" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="284" spans="1:24" ht="84">
@@ -23573,7 +23595,7 @@
         <v>641</v>
       </c>
       <c r="X284" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="285" spans="1:24" ht="24">
@@ -23625,7 +23647,7 @@
         <v>644</v>
       </c>
       <c r="X285" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="286" spans="1:24" ht="24">
@@ -23633,7 +23655,7 @@
         <v>55000300</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>1040</v>
@@ -23648,7 +23670,7 @@
       <c r="K286" s="17"/>
       <c r="L286" s="17"/>
       <c r="M286" s="21" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="N286" s="60">
         <v>2</v>
@@ -23660,7 +23682,7 @@
         <v>693</v>
       </c>
       <c r="Q286" s="10" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="R286" s="10">
         <v>0</v>
@@ -23671,14 +23693,12 @@
       <c r="T286" s="1"/>
       <c r="U286" s="1"/>
       <c r="V286" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="W286" s="31" t="s">
-        <v>1424</v>
-      </c>
-      <c r="X286" s="53" t="s">
-        <v>1406</v>
-      </c>
+        <v>1423</v>
+      </c>
+      <c r="X286" s="53"/>
     </row>
     <row r="287" spans="1:24" ht="96">
       <c r="A287">
@@ -23691,23 +23711,23 @@
         <v>216</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E287" s="1">
         <v>10</v>
       </c>
       <c r="F287" s="67" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G287" s="33"/>
       <c r="H287" s="33"/>
       <c r="I287" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J287" s="18"/>
       <c r="K287" s="17"/>
       <c r="L287" s="17" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="M287" s="21"/>
       <c r="N287" s="60"/>
@@ -23727,7 +23747,7 @@
         <v>916</v>
       </c>
       <c r="T287" s="10" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="U287" s="10" t="s">
         <v>1026</v>
@@ -23739,7 +23759,7 @@
         <v>646</v>
       </c>
       <c r="X287" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="288" spans="1:24" ht="96">
@@ -23753,23 +23773,23 @@
         <v>216</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E288" s="1">
         <v>10</v>
       </c>
       <c r="F288" s="67" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="G288" s="33"/>
       <c r="H288" s="33"/>
       <c r="I288" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J288" s="18"/>
       <c r="K288" s="17"/>
       <c r="L288" s="17" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="M288" s="21"/>
       <c r="N288" s="60"/>
@@ -23789,7 +23809,7 @@
         <v>917</v>
       </c>
       <c r="T288" s="10" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="U288" s="10" t="s">
         <v>1026</v>
@@ -23801,7 +23821,7 @@
         <v>648</v>
       </c>
       <c r="X288" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="289" spans="1:24" ht="96">
@@ -23815,23 +23835,23 @@
         <v>216</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E289" s="1">
         <v>10</v>
       </c>
       <c r="F289" s="67" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="G289" s="33"/>
       <c r="H289" s="33"/>
       <c r="I289" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J289" s="18"/>
       <c r="K289" s="17"/>
       <c r="L289" s="17" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="M289" s="21"/>
       <c r="N289" s="60"/>
@@ -23851,7 +23871,7 @@
         <v>918</v>
       </c>
       <c r="T289" s="10" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="U289" s="10" t="s">
         <v>1026</v>
@@ -23863,7 +23883,7 @@
         <v>650</v>
       </c>
       <c r="X289" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="290" spans="1:24" ht="96">
@@ -23877,7 +23897,7 @@
         <v>216</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E290" s="1">
         <v>15</v>
@@ -23886,12 +23906,12 @@
       <c r="G290" s="33"/>
       <c r="H290" s="33"/>
       <c r="I290" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J290" s="18"/>
       <c r="K290" s="17"/>
       <c r="L290" s="17" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="M290" s="21"/>
       <c r="N290" s="60"/>
@@ -23911,7 +23931,7 @@
         <v>919</v>
       </c>
       <c r="T290" s="10" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="U290" s="10" t="s">
         <v>1026</v>
@@ -23923,7 +23943,7 @@
         <v>652</v>
       </c>
       <c r="X290" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="291" spans="1:24" ht="96">
@@ -23937,23 +23957,23 @@
         <v>216</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E291" s="1">
         <v>30</v>
       </c>
       <c r="F291" s="67" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="G291" s="33"/>
       <c r="H291" s="33"/>
       <c r="I291" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J291" s="18"/>
       <c r="K291" s="17"/>
       <c r="L291" s="17" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="M291" s="21"/>
       <c r="N291" s="60"/>
@@ -23973,7 +23993,7 @@
         <v>920</v>
       </c>
       <c r="T291" s="10" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="U291" s="10" t="s">
         <v>1026</v>
@@ -23985,7 +24005,7 @@
         <v>654</v>
       </c>
       <c r="X291" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="292" spans="1:24" ht="96">
@@ -23999,23 +24019,23 @@
         <v>216</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E292" s="1">
         <v>15</v>
       </c>
       <c r="F292" s="67" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G292" s="33"/>
       <c r="H292" s="33"/>
       <c r="I292" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J292" s="18"/>
       <c r="K292" s="17"/>
       <c r="L292" s="17" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="M292" s="21"/>
       <c r="N292" s="60"/>
@@ -24047,7 +24067,7 @@
         <v>656</v>
       </c>
       <c r="X292" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="293" spans="1:24" ht="96">
@@ -24061,23 +24081,23 @@
         <v>216</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E293" s="1">
         <v>0</v>
       </c>
       <c r="F293" s="67" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="G293" s="33"/>
       <c r="H293" s="33"/>
       <c r="I293" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J293" s="18"/>
       <c r="K293" s="17"/>
       <c r="L293" s="17" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="M293" s="21"/>
       <c r="N293" s="60"/>
@@ -24109,7 +24129,7 @@
         <v>658</v>
       </c>
       <c r="X293" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="294" spans="1:24" ht="96">
@@ -24123,23 +24143,23 @@
         <v>216</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E294" s="1">
         <v>0</v>
       </c>
       <c r="F294" s="67" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G294" s="33"/>
       <c r="H294" s="33"/>
       <c r="I294" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J294" s="18"/>
       <c r="K294" s="17"/>
       <c r="L294" s="17" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="M294" s="21"/>
       <c r="N294" s="60"/>
@@ -24171,7 +24191,7 @@
         <v>660</v>
       </c>
       <c r="X294" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="295" spans="1:24" ht="72">
@@ -24219,7 +24239,7 @@
         <v>662</v>
       </c>
       <c r="X295" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="296" spans="1:24" ht="180">
@@ -24267,7 +24287,7 @@
         <v>664</v>
       </c>
       <c r="X296" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="297" spans="1:24" ht="96">
@@ -24281,23 +24301,23 @@
         <v>216</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E297" s="1">
         <v>15</v>
       </c>
       <c r="F297" s="67" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G297" s="33"/>
       <c r="H297" s="33"/>
       <c r="I297" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J297" s="18"/>
       <c r="K297" s="17"/>
       <c r="L297" s="17" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="M297" s="21"/>
       <c r="N297" s="60"/>
@@ -24317,7 +24337,7 @@
         <v>927</v>
       </c>
       <c r="T297" s="10" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="U297" s="10" t="s">
         <v>1026</v>
@@ -24329,7 +24349,7 @@
         <v>666</v>
       </c>
       <c r="X297" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="298" spans="1:24" ht="84">
@@ -24343,13 +24363,13 @@
         <v>1000</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E298" s="1">
         <v>10</v>
       </c>
       <c r="F298" s="67" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G298" s="33"/>
       <c r="H298" s="33"/>
@@ -24358,7 +24378,7 @@
       <c r="K298" s="17"/>
       <c r="L298" s="17"/>
       <c r="M298" s="21" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="N298" s="60"/>
       <c r="O298" s="1" t="s">
@@ -24375,7 +24395,7 @@
       </c>
       <c r="S298" s="10"/>
       <c r="T298" s="10" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="U298" s="10"/>
       <c r="V298" s="1">
@@ -24385,7 +24405,7 @@
         <v>668</v>
       </c>
       <c r="X298" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="299" spans="1:24" ht="48">
@@ -24437,7 +24457,7 @@
         <v>1004</v>
       </c>
       <c r="X299" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="300" spans="1:24" ht="24">
@@ -24487,7 +24507,7 @@
         <v>1174</v>
       </c>
       <c r="X300" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="301" spans="1:24" ht="144">
@@ -24501,16 +24521,16 @@
         <v>1225</v>
       </c>
       <c r="D301" s="28" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E301" s="36">
         <v>10</v>
       </c>
       <c r="F301" s="68" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G301" s="33" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H301" s="37"/>
       <c r="I301" s="50"/>
@@ -24543,7 +24563,7 @@
         <v>1229</v>
       </c>
       <c r="X301" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="302" spans="1:24" ht="144">
@@ -24557,16 +24577,16 @@
         <v>1225</v>
       </c>
       <c r="D302" s="28" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E302" s="36">
         <v>10</v>
       </c>
       <c r="F302" s="68" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G302" s="33" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H302" s="37"/>
       <c r="I302" s="38"/>
@@ -24599,12 +24619,12 @@
         <v>1231</v>
       </c>
       <c r="X302" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="303" spans="1:24" ht="36">
       <c r="A303" t="s">
-        <v>1348</v>
+        <v>1494</v>
       </c>
       <c r="B303" s="11" t="s">
         <v>129</v>
@@ -24647,7 +24667,67 @@
         <v>130</v>
       </c>
       <c r="X303" s="53" t="s">
-        <v>1406</v>
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="304" spans="1:24" ht="96">
+      <c r="A304" s="12">
+        <v>55000344</v>
+      </c>
+      <c r="B304" s="12" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C304" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D304" s="28" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E304" s="28">
+        <v>10</v>
+      </c>
+      <c r="F304" s="68"/>
+      <c r="G304" s="71"/>
+      <c r="H304" s="71"/>
+      <c r="I304" s="29"/>
+      <c r="J304" s="30"/>
+      <c r="K304" s="35"/>
+      <c r="L304" s="17"/>
+      <c r="M304" s="21" t="s">
+        <v>1498</v>
+      </c>
+      <c r="N304" s="60">
+        <v>1</v>
+      </c>
+      <c r="O304" s="70" t="s">
+        <v>698</v>
+      </c>
+      <c r="P304" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q304" s="16" t="s">
+        <v>1156</v>
+      </c>
+      <c r="R304" s="28">
+        <v>0</v>
+      </c>
+      <c r="S304" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="T304" s="10" t="s">
+        <v>1433</v>
+      </c>
+      <c r="U304" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="V304" s="28">
+        <v>5</v>
+      </c>
+      <c r="W304" s="28" t="s">
+        <v>1495</v>
+      </c>
+      <c r="X304" s="28" t="s">
+        <v>1405</v>
       </c>
     </row>
   </sheetData>
@@ -24699,13 +24779,13 @@
         <v>688</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>704</v>
@@ -24729,7 +24809,7 @@
         <v>939</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>697</v>
@@ -24747,7 +24827,7 @@
         <v>999</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>1018</v>
@@ -24759,7 +24839,7 @@
         <v>690</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -24773,13 +24853,13 @@
         <v>680</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1029</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1027</v>
@@ -24803,7 +24883,7 @@
         <v>896</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>696</v>
@@ -24847,13 +24927,13 @@
         <v>683</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1185</v>
@@ -24877,7 +24957,7 @@
         <v>940</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>699</v>
@@ -24895,7 +24975,7 @@
         <v>943</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>1016</v>
@@ -24907,7 +24987,7 @@
         <v>685</v>
       </c>
       <c r="X3" s="54" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="84">
@@ -24955,7 +25035,7 @@
         <v>675</v>
       </c>
       <c r="X4" s="55" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="84">
@@ -25003,7 +25083,7 @@
         <v>675</v>
       </c>
       <c r="X5" s="55" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
   </sheetData>
@@ -25055,13 +25135,13 @@
         <v>688</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>704</v>
@@ -25085,7 +25165,7 @@
         <v>939</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>697</v>
@@ -25103,7 +25183,7 @@
         <v>999</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>1018</v>
@@ -25115,7 +25195,7 @@
         <v>690</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -25129,13 +25209,13 @@
         <v>680</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1029</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1005</v>
@@ -25159,7 +25239,7 @@
         <v>896</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>696</v>
@@ -25203,13 +25283,13 @@
         <v>683</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1185</v>
@@ -25233,7 +25313,7 @@
         <v>940</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>699</v>
@@ -25251,7 +25331,7 @@
         <v>943</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>1016</v>
@@ -25263,7 +25343,7 @@
         <v>685</v>
       </c>
       <c r="X3" s="54" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="36">
@@ -25313,7 +25393,7 @@
         <v>45</v>
       </c>
       <c r="X4" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="36">
@@ -25363,7 +25443,7 @@
         <v>47</v>
       </c>
       <c r="X5" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="36">
@@ -25413,7 +25493,7 @@
         <v>49</v>
       </c>
       <c r="X6" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="36">
@@ -25463,7 +25543,7 @@
         <v>51</v>
       </c>
       <c r="X7" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="36">
@@ -25513,7 +25593,7 @@
         <v>53</v>
       </c>
       <c r="X8" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="36">
@@ -25563,7 +25643,7 @@
         <v>55</v>
       </c>
       <c r="X9" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="36">
@@ -25613,7 +25693,7 @@
         <v>57</v>
       </c>
       <c r="X10" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="36">
@@ -25663,7 +25743,7 @@
         <v>59</v>
       </c>
       <c r="X11" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="36">
@@ -25713,7 +25793,7 @@
         <v>114</v>
       </c>
       <c r="X12" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="36">
@@ -25763,7 +25843,7 @@
         <v>116</v>
       </c>
       <c r="X13" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="36">
@@ -25813,7 +25893,7 @@
         <v>118</v>
       </c>
       <c r="X14" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="36">
@@ -25863,7 +25943,7 @@
         <v>120</v>
       </c>
       <c r="X15" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="36">
@@ -25913,7 +25993,7 @@
         <v>122</v>
       </c>
       <c r="X16" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="36">
@@ -25963,7 +26043,7 @@
         <v>124</v>
       </c>
       <c r="X17" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="36">
@@ -26013,7 +26093,7 @@
         <v>126</v>
       </c>
       <c r="X18" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="36">
@@ -26063,7 +26143,7 @@
         <v>128</v>
       </c>
       <c r="X19" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="1499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="1500">
   <si>
     <t>夜色</t>
   </si>
@@ -5535,7 +5535,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.AddHp(-s.Atk*0.3);</t>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) if(s.Id!=o.Id) o.AddHp(-s.Atk*0.3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中目标后对1.5卡片距离敌人造成30%伤害</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9390,10 +9394,10 @@
   <dimension ref="A1:X304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M304" sqref="M304"/>
+      <selection pane="bottomRight" activeCell="V71" sqref="V71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13001,14 +13005,12 @@
         <v>1022</v>
       </c>
       <c r="V71" s="1">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="W71" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="X71" s="53" t="s">
-        <v>1405</v>
-      </c>
+      <c r="X71" s="53"/>
     </row>
     <row r="72" spans="1:24" ht="36">
       <c r="A72">
@@ -24670,7 +24672,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="304" spans="1:24" ht="96">
+    <row r="304" spans="1:24" ht="108">
       <c r="A304" s="12">
         <v>55000344</v>
       </c>
@@ -24684,7 +24686,7 @@
         <v>1497</v>
       </c>
       <c r="E304" s="28">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F304" s="68"/>
       <c r="G304" s="71"/>
@@ -24706,7 +24708,7 @@
         <v>693</v>
       </c>
       <c r="Q304" s="16" t="s">
-        <v>1156</v>
+        <v>1499</v>
       </c>
       <c r="R304" s="28">
         <v>0</v>
@@ -24721,14 +24723,12 @@
         <v>1026</v>
       </c>
       <c r="V304" s="28">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="W304" s="28" t="s">
         <v>1495</v>
       </c>
-      <c r="X304" s="28" t="s">
-        <v>1405</v>
-      </c>
+      <c r="X304" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="1502">
   <si>
     <t>夜色</t>
   </si>
@@ -3758,10 +3758,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>在自身上下两方各召唤一个粉球</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>孢子</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4978,10 +4974,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>s.Summon(1,51013000);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>if(!deadHit)d.AddBuff(56000001,lv,2);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5540,6 +5532,22 @@
   </si>
   <si>
     <t>击中目标后对1.5卡片距离敌人造成30%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Summon(5,51013000);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自身四周各召唤一个粉球</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9394,10 +9402,10 @@
   <dimension ref="A1:X304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V71" sqref="V71"/>
+      <selection pane="bottomRight" activeCell="X207" sqref="X207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9431,13 +9439,13 @@
         <v>688</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>704</v>
@@ -9461,7 +9469,7 @@
         <v>939</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>697</v>
@@ -9479,7 +9487,7 @@
         <v>999</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>1018</v>
@@ -9491,7 +9499,7 @@
         <v>690</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -9505,16 +9513,16 @@
         <v>680</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1029</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>1005</v>
@@ -9529,13 +9537,13 @@
         <v>995</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>696</v>
@@ -9579,16 +9587,16 @@
         <v>683</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1007</v>
@@ -9600,16 +9608,16 @@
         <v>960</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>861</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>699</v>
@@ -9624,10 +9632,10 @@
         <v>1030</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>1016</v>
@@ -9639,7 +9647,7 @@
         <v>685</v>
       </c>
       <c r="X3" s="54" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="36">
@@ -9662,7 +9670,7 @@
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="17" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="21"/>
@@ -9689,7 +9697,7 @@
         <v>2</v>
       </c>
       <c r="X4" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="48">
@@ -9737,7 +9745,7 @@
         <v>5</v>
       </c>
       <c r="X5" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -9760,7 +9768,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="21" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="N6" s="60"/>
       <c r="O6" s="1" t="s">
@@ -9770,7 +9778,7 @@
         <v>693</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="R6" s="14">
         <v>0</v>
@@ -9785,7 +9793,7 @@
         <v>8</v>
       </c>
       <c r="X6" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="36">
@@ -9835,7 +9843,7 @@
         <v>11</v>
       </c>
       <c r="X7" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="36">
@@ -9885,7 +9893,7 @@
         <v>13</v>
       </c>
       <c r="X8" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="36">
@@ -9935,7 +9943,7 @@
         <v>15</v>
       </c>
       <c r="X9" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="36">
@@ -9985,7 +9993,7 @@
         <v>17</v>
       </c>
       <c r="X10" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="36">
@@ -10035,7 +10043,7 @@
         <v>19</v>
       </c>
       <c r="X11" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="36">
@@ -10085,7 +10093,7 @@
         <v>21</v>
       </c>
       <c r="X12" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="36">
@@ -10135,7 +10143,7 @@
         <v>23</v>
       </c>
       <c r="X13" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="36">
@@ -10185,7 +10193,7 @@
         <v>25</v>
       </c>
       <c r="X14" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="36">
@@ -10235,7 +10243,7 @@
         <v>27</v>
       </c>
       <c r="X15" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="36">
@@ -10285,7 +10293,7 @@
         <v>29</v>
       </c>
       <c r="X16" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="36">
@@ -10335,7 +10343,7 @@
         <v>31</v>
       </c>
       <c r="X17" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="36">
@@ -10385,7 +10393,7 @@
         <v>33</v>
       </c>
       <c r="X18" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="36">
@@ -10435,7 +10443,7 @@
         <v>35</v>
       </c>
       <c r="X19" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="36">
@@ -10485,7 +10493,7 @@
         <v>37</v>
       </c>
       <c r="X20" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="36">
@@ -10535,7 +10543,7 @@
         <v>39</v>
       </c>
       <c r="X21" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="36">
@@ -10585,7 +10593,7 @@
         <v>41</v>
       </c>
       <c r="X22" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="48">
@@ -10635,7 +10643,7 @@
         <v>43</v>
       </c>
       <c r="X23" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="27">
@@ -10643,10 +10651,10 @@
         <v>55000021</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>1318</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>1319</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -10660,13 +10668,13 @@
       <c r="M24" s="48"/>
       <c r="N24" s="61"/>
       <c r="O24" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q24" s="15" t="s">
         <v>1320</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="Q24" s="15" t="s">
-        <v>1321</v>
       </c>
       <c r="R24" s="52">
         <v>0</v>
@@ -10678,10 +10686,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="X24" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="24">
@@ -10703,7 +10711,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="60"/>
@@ -10729,7 +10737,7 @@
         <v>62</v>
       </c>
       <c r="X25" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="36">
@@ -10779,7 +10787,7 @@
         <v>65</v>
       </c>
       <c r="X26" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="24">
@@ -10798,7 +10806,7 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="17"/>
@@ -10829,7 +10837,7 @@
         <v>67</v>
       </c>
       <c r="X27" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="24">
@@ -10848,7 +10856,7 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J28" s="18"/>
       <c r="K28" s="17"/>
@@ -10879,7 +10887,7 @@
         <v>69</v>
       </c>
       <c r="X28" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -10910,7 +10918,7 @@
         <v>693</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="R29" s="14">
         <v>0</v>
@@ -10927,7 +10935,7 @@
         <v>671</v>
       </c>
       <c r="X29" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="48">
@@ -10960,7 +10968,7 @@
         <v>693</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="R30" s="14">
         <v>0</v>
@@ -10975,7 +10983,7 @@
         <v>71</v>
       </c>
       <c r="X30" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="24">
@@ -10997,7 +11005,7 @@
       <c r="J31" s="18"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="60"/>
@@ -11023,7 +11031,7 @@
         <v>74</v>
       </c>
       <c r="X31" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="36">
@@ -11042,7 +11050,7 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="32" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="J32" s="18"/>
       <c r="K32" s="17" t="s">
@@ -11073,7 +11081,7 @@
         <v>77</v>
       </c>
       <c r="X32" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="48">
@@ -11094,7 +11102,7 @@
       <c r="I33" s="32"/>
       <c r="J33" s="18"/>
       <c r="K33" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="21"/>
@@ -11106,7 +11114,7 @@
         <v>693</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="R33" s="10">
         <v>0</v>
@@ -11121,7 +11129,7 @@
         <v>79</v>
       </c>
       <c r="X33" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="36">
@@ -11142,7 +11150,7 @@
       <c r="I34" s="32"/>
       <c r="J34" s="18"/>
       <c r="K34" s="17" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="21"/>
@@ -11154,7 +11162,7 @@
         <v>693</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R34" s="10">
         <v>0</v>
@@ -11169,7 +11177,7 @@
         <v>81</v>
       </c>
       <c r="X34" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="36">
@@ -11190,7 +11198,7 @@
       <c r="I35" s="32"/>
       <c r="J35" s="18"/>
       <c r="K35" s="17" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="21"/>
@@ -11202,7 +11210,7 @@
         <v>693</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R35" s="10">
         <v>0</v>
@@ -11217,7 +11225,7 @@
         <v>83</v>
       </c>
       <c r="X35" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="36">
@@ -11238,7 +11246,7 @@
       <c r="I36" s="32"/>
       <c r="J36" s="18"/>
       <c r="K36" s="17" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="21"/>
@@ -11250,7 +11258,7 @@
         <v>693</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="R36" s="10">
         <v>0</v>
@@ -11265,7 +11273,7 @@
         <v>85</v>
       </c>
       <c r="X36" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="36">
@@ -11317,7 +11325,7 @@
         <v>89</v>
       </c>
       <c r="X37" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="48">
@@ -11340,7 +11348,7 @@
       </c>
       <c r="J38" s="18"/>
       <c r="K38" s="17" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="21"/>
@@ -11352,7 +11360,7 @@
         <v>693</v>
       </c>
       <c r="Q38" s="15" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="R38" s="15">
         <v>0</v>
@@ -11367,7 +11375,7 @@
         <v>91</v>
       </c>
       <c r="X38" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="24">
@@ -11389,7 +11397,7 @@
       <c r="J39" s="18"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="60"/>
@@ -11415,7 +11423,7 @@
         <v>93</v>
       </c>
       <c r="X39" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="24">
@@ -11437,7 +11445,7 @@
       <c r="J40" s="18"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="M40" s="21"/>
       <c r="N40" s="60"/>
@@ -11463,7 +11471,7 @@
         <v>95</v>
       </c>
       <c r="X40" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="36">
@@ -11480,7 +11488,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="67"/>
       <c r="G41" s="33" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="32"/>
@@ -11490,13 +11498,13 @@
       <c r="M41" s="21"/>
       <c r="N41" s="60"/>
       <c r="O41" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="P41" s="9" t="s">
         <v>693</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="R41" s="10">
         <v>0</v>
@@ -11511,7 +11519,7 @@
         <v>97</v>
       </c>
       <c r="X41" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="36">
@@ -11534,7 +11542,7 @@
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
       <c r="M42" s="21" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="N42" s="60"/>
       <c r="O42" s="1" t="s">
@@ -11544,7 +11552,7 @@
         <v>693</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="R42" s="10">
         <v>0</v>
@@ -11559,7 +11567,7 @@
         <v>99</v>
       </c>
       <c r="X42" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="36">
@@ -11609,7 +11617,7 @@
         <v>102</v>
       </c>
       <c r="X43" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="36">
@@ -11626,7 +11634,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="67"/>
       <c r="G44" s="33" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="H44" s="33"/>
       <c r="I44" s="32"/>
@@ -11659,7 +11667,7 @@
         <v>105</v>
       </c>
       <c r="X44" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="48">
@@ -11680,7 +11688,7 @@
       <c r="I45" s="32"/>
       <c r="J45" s="18"/>
       <c r="K45" s="17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="L45" s="17"/>
       <c r="M45" s="21"/>
@@ -11692,7 +11700,7 @@
         <v>693</v>
       </c>
       <c r="Q45" s="15" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="R45" s="15">
         <v>0</v>
@@ -11707,7 +11715,7 @@
         <v>107</v>
       </c>
       <c r="X45" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="48">
@@ -11757,7 +11765,7 @@
         <v>109</v>
       </c>
       <c r="X46" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -11805,7 +11813,7 @@
         <v>112</v>
       </c>
       <c r="X47" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="36">
@@ -11824,7 +11832,7 @@
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
       <c r="I48" s="32" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="J48" s="18"/>
       <c r="K48" s="17" t="s">
@@ -11840,7 +11848,7 @@
         <v>693</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="R48" s="10">
         <v>0</v>
@@ -11855,7 +11863,7 @@
         <v>132</v>
       </c>
       <c r="X48" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="24">
@@ -11877,7 +11885,7 @@
       <c r="J49" s="18"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="M49" s="21"/>
       <c r="N49" s="60"/>
@@ -11903,7 +11911,7 @@
         <v>134</v>
       </c>
       <c r="X49" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="36">
@@ -11953,7 +11961,7 @@
         <v>137</v>
       </c>
       <c r="X50" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="72">
@@ -11970,10 +11978,10 @@
       <c r="E51" s="1"/>
       <c r="F51" s="67"/>
       <c r="G51" s="33" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H51" s="33" t="s">
         <v>1300</v>
-      </c>
-      <c r="H51" s="33" t="s">
-        <v>1301</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="18"/>
@@ -11988,7 +11996,7 @@
         <v>693</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="R51" s="10">
         <v>0</v>
@@ -12005,7 +12013,7 @@
         <v>139</v>
       </c>
       <c r="X51" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="48">
@@ -12024,7 +12032,7 @@
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
       <c r="I52" s="32" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="J52" s="18"/>
       <c r="K52" s="17" t="s">
@@ -12055,7 +12063,7 @@
         <v>141</v>
       </c>
       <c r="X52" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="48">
@@ -12074,7 +12082,7 @@
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
       <c r="I53" s="32" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="J53" s="18"/>
       <c r="K53" s="17" t="s">
@@ -12105,7 +12113,7 @@
         <v>143</v>
       </c>
       <c r="X53" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="48">
@@ -12124,7 +12132,7 @@
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
       <c r="I54" s="32" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="J54" s="18"/>
       <c r="K54" s="17" t="s">
@@ -12155,7 +12163,7 @@
         <v>145</v>
       </c>
       <c r="X54" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="48">
@@ -12174,7 +12182,7 @@
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
       <c r="I55" s="32" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="J55" s="18"/>
       <c r="K55" s="17" t="s">
@@ -12205,7 +12213,7 @@
         <v>147</v>
       </c>
       <c r="X55" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="48">
@@ -12224,7 +12232,7 @@
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
       <c r="I56" s="32" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J56" s="18"/>
       <c r="K56" s="17" t="s">
@@ -12255,7 +12263,7 @@
         <v>149</v>
       </c>
       <c r="X56" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="48">
@@ -12274,7 +12282,7 @@
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
       <c r="I57" s="32" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="J57" s="18"/>
       <c r="K57" s="17" t="s">
@@ -12305,7 +12313,7 @@
         <v>151</v>
       </c>
       <c r="X57" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="48">
@@ -12324,7 +12332,7 @@
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
       <c r="I58" s="32" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="J58" s="18"/>
       <c r="K58" s="17" t="s">
@@ -12355,7 +12363,7 @@
         <v>153</v>
       </c>
       <c r="X58" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="48">
@@ -12374,7 +12382,7 @@
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
       <c r="I59" s="32" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="J59" s="18"/>
       <c r="K59" s="17" t="s">
@@ -12405,7 +12413,7 @@
         <v>155</v>
       </c>
       <c r="X59" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="36">
@@ -12455,7 +12463,7 @@
         <v>157</v>
       </c>
       <c r="X60" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="24">
@@ -12503,7 +12511,7 @@
         <v>159</v>
       </c>
       <c r="X61" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="120">
@@ -12555,7 +12563,7 @@
         <v>164</v>
       </c>
       <c r="X62" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="24">
@@ -12603,7 +12611,7 @@
         <v>167</v>
       </c>
       <c r="X63" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="36">
@@ -12624,10 +12632,10 @@
       <c r="I64" s="32"/>
       <c r="J64" s="18"/>
       <c r="K64" s="17" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L64" s="17" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="M64" s="21"/>
       <c r="N64" s="60"/>
@@ -12653,7 +12661,7 @@
         <v>169</v>
       </c>
       <c r="X64" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="24">
@@ -12701,7 +12709,7 @@
         <v>171</v>
       </c>
       <c r="X65" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="24">
@@ -12751,7 +12759,7 @@
         <v>174</v>
       </c>
       <c r="X66" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="24">
@@ -12801,7 +12809,7 @@
         <v>177</v>
       </c>
       <c r="X67" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="24">
@@ -12849,7 +12857,7 @@
         <v>180</v>
       </c>
       <c r="X68" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="24">
@@ -12873,7 +12881,7 @@
       <c r="J69" s="18"/>
       <c r="K69" s="17"/>
       <c r="L69" s="17" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="M69" s="21"/>
       <c r="N69" s="60"/>
@@ -12884,7 +12892,7 @@
         <v>693</v>
       </c>
       <c r="Q69" s="10" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="R69" s="10">
         <v>0</v>
@@ -12899,7 +12907,7 @@
         <v>182</v>
       </c>
       <c r="X69" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="48">
@@ -12922,7 +12930,7 @@
       <c r="K70" s="17"/>
       <c r="L70" s="22"/>
       <c r="M70" s="21" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="N70" s="60"/>
       <c r="O70" s="1" t="s">
@@ -12951,7 +12959,7 @@
         <v>186</v>
       </c>
       <c r="X70" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="156">
@@ -12965,16 +12973,16 @@
         <v>1024</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="E71" s="1">
         <v>40</v>
       </c>
       <c r="F71" s="67" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G71" s="33" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="H71" s="33"/>
       <c r="I71" s="32"/>
@@ -12990,7 +12998,7 @@
         <v>693</v>
       </c>
       <c r="Q71" s="10" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="R71" s="10">
         <v>0</v>
@@ -13032,7 +13040,7 @@
       </c>
       <c r="J72" s="18"/>
       <c r="K72" s="17" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="L72" s="17"/>
       <c r="M72" s="21"/>
@@ -13044,7 +13052,7 @@
         <v>693</v>
       </c>
       <c r="Q72" s="10" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="R72" s="10">
         <v>0</v>
@@ -13059,7 +13067,7 @@
         <v>190</v>
       </c>
       <c r="X72" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="36">
@@ -13109,7 +13117,7 @@
         <v>192</v>
       </c>
       <c r="X73" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="24">
@@ -13131,7 +13139,7 @@
       <c r="J74" s="18"/>
       <c r="K74" s="17"/>
       <c r="L74" s="17" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="M74" s="21"/>
       <c r="N74" s="60"/>
@@ -13157,7 +13165,7 @@
         <v>194</v>
       </c>
       <c r="X74" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="24">
@@ -13179,7 +13187,7 @@
       <c r="J75" s="18"/>
       <c r="K75" s="17"/>
       <c r="L75" s="17" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="M75" s="21"/>
       <c r="N75" s="60"/>
@@ -13205,7 +13213,7 @@
         <v>196</v>
       </c>
       <c r="X75" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="24">
@@ -13227,7 +13235,7 @@
       <c r="J76" s="18"/>
       <c r="K76" s="17"/>
       <c r="L76" s="17" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="M76" s="21"/>
       <c r="N76" s="60"/>
@@ -13238,7 +13246,7 @@
         <v>693</v>
       </c>
       <c r="Q76" s="10" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="R76" s="10">
         <v>0</v>
@@ -13253,7 +13261,7 @@
         <v>198</v>
       </c>
       <c r="X76" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="48">
@@ -13270,7 +13278,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="67"/>
       <c r="G77" s="33" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="H77" s="33"/>
       <c r="I77" s="32"/>
@@ -13301,7 +13309,7 @@
         <v>201</v>
       </c>
       <c r="X77" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="24">
@@ -13323,7 +13331,7 @@
       <c r="J78" s="18"/>
       <c r="K78" s="17"/>
       <c r="L78" s="17" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M78" s="21"/>
       <c r="N78" s="60"/>
@@ -13349,7 +13357,7 @@
         <v>203</v>
       </c>
       <c r="X78" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="36">
@@ -13372,7 +13380,7 @@
       <c r="K79" s="17"/>
       <c r="L79" s="22"/>
       <c r="M79" s="19" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="N79" s="63"/>
       <c r="O79" s="1" t="s">
@@ -13388,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="T79" s="1"/>
       <c r="U79" s="1" t="s">
@@ -13401,7 +13409,7 @@
         <v>204</v>
       </c>
       <c r="X79" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="24">
@@ -13423,7 +13431,7 @@
       <c r="J80" s="18"/>
       <c r="K80" s="17"/>
       <c r="L80" s="17" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="M80" s="21"/>
       <c r="N80" s="60"/>
@@ -13434,7 +13442,7 @@
         <v>693</v>
       </c>
       <c r="Q80" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="R80" s="10">
         <v>0</v>
@@ -13449,7 +13457,7 @@
         <v>206</v>
       </c>
       <c r="X80" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="24">
@@ -13471,7 +13479,7 @@
       <c r="J81" s="18"/>
       <c r="K81" s="17"/>
       <c r="L81" s="17" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="M81" s="21"/>
       <c r="N81" s="60"/>
@@ -13497,7 +13505,7 @@
         <v>208</v>
       </c>
       <c r="X81" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="24">
@@ -13519,7 +13527,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="17"/>
       <c r="L82" s="17" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="M82" s="21"/>
       <c r="N82" s="60"/>
@@ -13545,7 +13553,7 @@
         <v>210</v>
       </c>
       <c r="X82" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="84">
@@ -13593,7 +13601,7 @@
         <v>212</v>
       </c>
       <c r="X83" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="48">
@@ -13610,7 +13618,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="67"/>
       <c r="G84" s="33" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H84" s="33"/>
       <c r="I84" s="32"/>
@@ -13626,7 +13634,7 @@
         <v>693</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="R84" s="10">
         <v>56000101</v>
@@ -13643,7 +13651,7 @@
         <v>214</v>
       </c>
       <c r="X84" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="96">
@@ -13657,23 +13665,23 @@
         <v>216</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E85" s="1">
         <v>20</v>
       </c>
       <c r="F85" s="67" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="G85" s="33"/>
       <c r="H85" s="33"/>
       <c r="I85" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J85" s="18"/>
       <c r="K85" s="17"/>
       <c r="L85" s="17" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="M85" s="21"/>
       <c r="N85" s="60"/>
@@ -13684,7 +13692,7 @@
         <v>693</v>
       </c>
       <c r="Q85" s="10" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R85" s="10">
         <v>0</v>
@@ -13693,7 +13701,7 @@
         <v>910</v>
       </c>
       <c r="T85" s="10" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="U85" s="10" t="s">
         <v>1026</v>
@@ -13705,7 +13713,7 @@
         <v>217</v>
       </c>
       <c r="X85" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="36">
@@ -13722,7 +13730,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="67"/>
       <c r="G86" s="33" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H86" s="33"/>
       <c r="I86" s="32"/>
@@ -13753,7 +13761,7 @@
         <v>220</v>
       </c>
       <c r="X86" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="36">
@@ -13805,7 +13813,7 @@
         <v>223</v>
       </c>
       <c r="X87" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -13828,7 +13836,7 @@
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
       <c r="M88" s="21" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="N88" s="60"/>
       <c r="O88" s="1" t="s">
@@ -13838,7 +13846,7 @@
         <v>693</v>
       </c>
       <c r="Q88" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R88" s="10">
         <v>0</v>
@@ -13853,7 +13861,7 @@
         <v>225</v>
       </c>
       <c r="X88" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -13876,7 +13884,7 @@
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
       <c r="M89" s="21" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="N89" s="60"/>
       <c r="O89" s="1" t="s">
@@ -13886,7 +13894,7 @@
         <v>693</v>
       </c>
       <c r="Q89" s="10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="R89" s="10">
         <v>0</v>
@@ -13901,7 +13909,7 @@
         <v>227</v>
       </c>
       <c r="X89" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -13947,7 +13955,7 @@
         <v>229</v>
       </c>
       <c r="X90" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="36">
@@ -13997,7 +14005,7 @@
         <v>231</v>
       </c>
       <c r="X91" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="96">
@@ -14011,23 +14019,23 @@
         <v>216</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E92" s="1">
         <v>10</v>
       </c>
       <c r="F92" s="67" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
       <c r="I92" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J92" s="18"/>
       <c r="K92" s="17"/>
       <c r="L92" s="17" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="M92" s="21"/>
       <c r="N92" s="60"/>
@@ -14047,7 +14055,7 @@
         <v>912</v>
       </c>
       <c r="T92" s="10" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="U92" s="10" t="s">
         <v>1026</v>
@@ -14059,7 +14067,7 @@
         <v>233</v>
       </c>
       <c r="X92" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="48">
@@ -14082,7 +14090,7 @@
       </c>
       <c r="J93" s="18"/>
       <c r="K93" s="17" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="L93" s="17"/>
       <c r="M93" s="21"/>
@@ -14094,7 +14102,7 @@
         <v>693</v>
       </c>
       <c r="Q93" s="10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="R93" s="10">
         <v>0</v>
@@ -14109,7 +14117,7 @@
         <v>235</v>
       </c>
       <c r="X93" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="36">
@@ -14159,7 +14167,7 @@
         <v>237</v>
       </c>
       <c r="X94" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="48">
@@ -14176,7 +14184,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="67"/>
       <c r="G95" s="33" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="H95" s="33"/>
       <c r="I95" s="32"/>
@@ -14192,7 +14200,7 @@
         <v>693</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="R95" s="10">
         <v>56000101</v>
@@ -14209,7 +14217,7 @@
         <v>239</v>
       </c>
       <c r="X95" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="36">
@@ -14257,7 +14265,7 @@
         <v>242</v>
       </c>
       <c r="X96" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="24">
@@ -14305,7 +14313,7 @@
         <v>245</v>
       </c>
       <c r="X97" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="36">
@@ -14357,7 +14365,7 @@
         <v>248</v>
       </c>
       <c r="X98" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="24">
@@ -14377,11 +14385,11 @@
       <c r="H99" s="33"/>
       <c r="I99" s="32"/>
       <c r="J99" s="18" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="K99" s="17"/>
       <c r="L99" s="17" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="M99" s="21"/>
       <c r="N99" s="60"/>
@@ -14392,7 +14400,7 @@
         <v>693</v>
       </c>
       <c r="Q99" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="R99" s="10">
         <v>0</v>
@@ -14407,7 +14415,7 @@
         <v>250</v>
       </c>
       <c r="X99" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="48">
@@ -14424,7 +14432,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="67"/>
       <c r="G100" s="33" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="H100" s="33"/>
       <c r="I100" s="32"/>
@@ -14440,7 +14448,7 @@
         <v>693</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="R100" s="10">
         <v>56000101</v>
@@ -14457,7 +14465,7 @@
         <v>252</v>
       </c>
       <c r="X100" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="24">
@@ -14479,7 +14487,7 @@
       <c r="J101" s="18"/>
       <c r="K101" s="17"/>
       <c r="L101" s="17" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="M101" s="21"/>
       <c r="N101" s="60"/>
@@ -14490,7 +14498,7 @@
         <v>693</v>
       </c>
       <c r="Q101" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="R101" s="10">
         <v>0</v>
@@ -14505,7 +14513,7 @@
         <v>254</v>
       </c>
       <c r="X101" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="36">
@@ -14557,7 +14565,7 @@
         <v>256</v>
       </c>
       <c r="X102" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="24">
@@ -14579,7 +14587,7 @@
       <c r="J103" s="18"/>
       <c r="K103" s="17"/>
       <c r="L103" s="17" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="M103" s="21"/>
       <c r="N103" s="60"/>
@@ -14605,7 +14613,7 @@
         <v>258</v>
       </c>
       <c r="X103" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="60">
@@ -14655,7 +14663,7 @@
         <v>260</v>
       </c>
       <c r="X104" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="48">
@@ -14672,7 +14680,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="67"/>
       <c r="G105" s="33" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H105" s="33"/>
       <c r="I105" s="32"/>
@@ -14688,7 +14696,7 @@
         <v>693</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="R105" s="10">
         <v>56000101</v>
@@ -14705,7 +14713,7 @@
         <v>262</v>
       </c>
       <c r="X105" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="48">
@@ -14755,7 +14763,7 @@
         <v>264</v>
       </c>
       <c r="X106" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="24">
@@ -14777,7 +14785,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="17"/>
       <c r="L107" s="17" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="M107" s="21"/>
       <c r="N107" s="60"/>
@@ -14788,7 +14796,7 @@
         <v>693</v>
       </c>
       <c r="Q107" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="R107" s="10">
         <v>0</v>
@@ -14803,7 +14811,7 @@
         <v>266</v>
       </c>
       <c r="X107" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="24">
@@ -14855,7 +14863,7 @@
         <v>269</v>
       </c>
       <c r="X108" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="36">
@@ -14905,7 +14913,7 @@
         <v>271</v>
       </c>
       <c r="X109" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="36">
@@ -14955,7 +14963,7 @@
         <v>273</v>
       </c>
       <c r="X110" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="48">
@@ -14972,7 +14980,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="67"/>
       <c r="G111" s="33" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="H111" s="33"/>
       <c r="I111" s="32"/>
@@ -14988,7 +14996,7 @@
         <v>693</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="R111" s="10">
         <v>56000101</v>
@@ -15005,7 +15013,7 @@
         <v>275</v>
       </c>
       <c r="X111" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="36">
@@ -15053,7 +15061,7 @@
         <v>278</v>
       </c>
       <c r="X112" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="48">
@@ -15074,7 +15082,7 @@
       <c r="I113" s="32"/>
       <c r="J113" s="18"/>
       <c r="K113" s="17" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="L113" s="17"/>
       <c r="M113" s="21"/>
@@ -15086,7 +15094,7 @@
         <v>693</v>
       </c>
       <c r="Q113" s="10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="R113" s="10">
         <v>0</v>
@@ -15101,7 +15109,7 @@
         <v>280</v>
       </c>
       <c r="X113" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -15147,7 +15155,7 @@
         <v>282</v>
       </c>
       <c r="X114" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -15193,7 +15201,7 @@
         <v>284</v>
       </c>
       <c r="X115" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="24">
@@ -15226,7 +15234,7 @@
         <v>693</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="R116" s="1">
         <v>0</v>
@@ -15241,7 +15249,7 @@
         <v>286</v>
       </c>
       <c r="X116" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="24">
@@ -15274,7 +15282,7 @@
         <v>693</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="R117" s="1">
         <v>0</v>
@@ -15289,7 +15297,7 @@
         <v>288</v>
       </c>
       <c r="X117" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="24">
@@ -15311,7 +15319,7 @@
       <c r="J118" s="18"/>
       <c r="K118" s="17"/>
       <c r="L118" s="17" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="M118" s="21"/>
       <c r="N118" s="60"/>
@@ -15322,7 +15330,7 @@
         <v>693</v>
       </c>
       <c r="Q118" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="R118" s="10">
         <v>0</v>
@@ -15337,7 +15345,7 @@
         <v>290</v>
       </c>
       <c r="X118" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="36">
@@ -15359,7 +15367,7 @@
       <c r="J119" s="18"/>
       <c r="K119" s="17"/>
       <c r="L119" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M119" s="21"/>
       <c r="N119" s="60"/>
@@ -15370,7 +15378,7 @@
         <v>693</v>
       </c>
       <c r="Q119" s="10" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R119" s="10">
         <v>0</v>
@@ -15385,7 +15393,7 @@
         <v>292</v>
       </c>
       <c r="X119" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="120">
@@ -15399,16 +15407,16 @@
         <v>104</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E120" s="1">
         <v>20</v>
       </c>
       <c r="F120" s="67" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="H120" s="33"/>
       <c r="I120" s="29"/>
@@ -15424,7 +15432,7 @@
         <v>693</v>
       </c>
       <c r="Q120" s="10" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="R120" s="10">
         <v>56000016</v>
@@ -15441,7 +15449,7 @@
         <v>294</v>
       </c>
       <c r="X120" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="60">
@@ -15458,10 +15466,10 @@
       <c r="E121" s="1"/>
       <c r="F121" s="67"/>
       <c r="G121" s="33" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H121" s="33" t="s">
         <v>1315</v>
-      </c>
-      <c r="H121" s="33" t="s">
-        <v>1316</v>
       </c>
       <c r="I121" s="32"/>
       <c r="J121" s="18"/>
@@ -15476,7 +15484,7 @@
         <v>693</v>
       </c>
       <c r="Q121" s="10" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="R121" s="10">
         <v>0</v>
@@ -15491,7 +15499,7 @@
         <v>296</v>
       </c>
       <c r="X121" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="36">
@@ -15539,7 +15547,7 @@
         <v>298</v>
       </c>
       <c r="X122" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="24">
@@ -15561,7 +15569,7 @@
       <c r="J123" s="18"/>
       <c r="K123" s="17"/>
       <c r="L123" s="17" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="M123" s="21"/>
       <c r="N123" s="60"/>
@@ -15587,7 +15595,7 @@
         <v>300</v>
       </c>
       <c r="X123" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="48">
@@ -15604,7 +15612,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="67"/>
       <c r="G124" s="33" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="H124" s="33"/>
       <c r="I124" s="32"/>
@@ -15620,7 +15628,7 @@
         <v>693</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="R124" s="10">
         <v>56000101</v>
@@ -15637,7 +15645,7 @@
         <v>302</v>
       </c>
       <c r="X124" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="36">
@@ -15685,7 +15693,7 @@
         <v>305</v>
       </c>
       <c r="X125" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="48">
@@ -15702,7 +15710,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="67"/>
       <c r="G126" s="33" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H126" s="33"/>
       <c r="I126" s="32"/>
@@ -15718,7 +15726,7 @@
         <v>693</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="R126" s="10">
         <v>56000101</v>
@@ -15735,7 +15743,7 @@
         <v>307</v>
       </c>
       <c r="X126" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="48">
@@ -15752,7 +15760,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="67"/>
       <c r="G127" s="33" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="H127" s="33"/>
       <c r="I127" s="32"/>
@@ -15768,7 +15776,7 @@
         <v>693</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="R127" s="10">
         <v>56000101</v>
@@ -15785,7 +15793,7 @@
         <v>309</v>
       </c>
       <c r="X127" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="48">
@@ -15802,7 +15810,7 @@
       <c r="E128" s="1"/>
       <c r="F128" s="67"/>
       <c r="G128" s="33" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H128" s="33"/>
       <c r="I128" s="32"/>
@@ -15818,7 +15826,7 @@
         <v>693</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="R128" s="10">
         <v>56000101</v>
@@ -15835,7 +15843,7 @@
         <v>311</v>
       </c>
       <c r="X128" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="36">
@@ -15883,7 +15891,7 @@
         <v>314</v>
       </c>
       <c r="X129" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="24">
@@ -15908,7 +15916,7 @@
       <c r="K130" s="17"/>
       <c r="L130" s="17"/>
       <c r="M130" s="21" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="N130" s="60"/>
       <c r="O130" s="1" t="s">
@@ -15935,7 +15943,7 @@
         <v>317</v>
       </c>
       <c r="X130" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="48">
@@ -15952,7 +15960,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="67"/>
       <c r="G131" s="33" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="H131" s="33"/>
       <c r="I131" s="32"/>
@@ -15968,7 +15976,7 @@
         <v>693</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="R131" s="10">
         <v>56000101</v>
@@ -15985,7 +15993,7 @@
         <v>319</v>
       </c>
       <c r="X131" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="24">
@@ -16033,7 +16041,7 @@
         <v>322</v>
       </c>
       <c r="X132" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="48">
@@ -16050,7 +16058,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="67"/>
       <c r="G133" s="33" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H133" s="33"/>
       <c r="I133" s="32"/>
@@ -16066,7 +16074,7 @@
         <v>693</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="R133" s="10">
         <v>56000101</v>
@@ -16083,7 +16091,7 @@
         <v>324</v>
       </c>
       <c r="X133" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="36">
@@ -16131,7 +16139,7 @@
         <v>327</v>
       </c>
       <c r="X134" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="48">
@@ -16148,7 +16156,7 @@
       <c r="E135" s="1"/>
       <c r="F135" s="67"/>
       <c r="G135" s="33" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="H135" s="33"/>
       <c r="I135" s="32"/>
@@ -16164,7 +16172,7 @@
         <v>693</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="R135" s="10">
         <v>56000101</v>
@@ -16181,7 +16189,7 @@
         <v>329</v>
       </c>
       <c r="X135" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="36">
@@ -16229,7 +16237,7 @@
         <v>332</v>
       </c>
       <c r="X136" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="24">
@@ -16246,7 +16254,7 @@
       <c r="E137" s="1"/>
       <c r="F137" s="67"/>
       <c r="G137" s="33" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H137" s="33"/>
       <c r="I137" s="32"/>
@@ -16262,7 +16270,7 @@
         <v>693</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="R137" s="1">
         <v>0</v>
@@ -16277,7 +16285,7 @@
         <v>334</v>
       </c>
       <c r="X137" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="36">
@@ -16294,7 +16302,7 @@
       <c r="E138" s="1"/>
       <c r="F138" s="67"/>
       <c r="G138" s="33" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="H138" s="33"/>
       <c r="I138" s="32"/>
@@ -16327,7 +16335,7 @@
         <v>336</v>
       </c>
       <c r="X138" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="24">
@@ -16350,7 +16358,7 @@
       <c r="K139" s="17"/>
       <c r="L139" s="22"/>
       <c r="M139" s="21" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="N139" s="60"/>
       <c r="O139" s="1" t="s">
@@ -16379,7 +16387,7 @@
         <v>338</v>
       </c>
       <c r="X139" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="48">
@@ -16396,7 +16404,7 @@
       <c r="E140" s="1"/>
       <c r="F140" s="67"/>
       <c r="G140" s="33" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="H140" s="33"/>
       <c r="I140" s="32"/>
@@ -16412,7 +16420,7 @@
         <v>693</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="R140" s="10">
         <v>56000121</v>
@@ -16429,7 +16437,7 @@
         <v>340</v>
       </c>
       <c r="X140" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="24">
@@ -16451,7 +16459,7 @@
       <c r="J141" s="18"/>
       <c r="K141" s="17"/>
       <c r="L141" s="17" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="M141" s="21"/>
       <c r="N141" s="60"/>
@@ -16477,7 +16485,7 @@
         <v>343</v>
       </c>
       <c r="X141" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="24">
@@ -16499,7 +16507,7 @@
       <c r="J142" s="18"/>
       <c r="K142" s="17"/>
       <c r="L142" s="17" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="M142" s="21"/>
       <c r="N142" s="60"/>
@@ -16510,7 +16518,7 @@
         <v>693</v>
       </c>
       <c r="Q142" s="10" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="R142" s="10">
         <v>0</v>
@@ -16525,7 +16533,7 @@
         <v>346</v>
       </c>
       <c r="X142" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="24">
@@ -16547,7 +16555,7 @@
       <c r="J143" s="18"/>
       <c r="K143" s="17"/>
       <c r="L143" s="17" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="M143" s="21"/>
       <c r="N143" s="60"/>
@@ -16558,7 +16566,7 @@
         <v>693</v>
       </c>
       <c r="Q143" s="10" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="R143" s="10">
         <v>0</v>
@@ -16573,7 +16581,7 @@
         <v>348</v>
       </c>
       <c r="X143" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="36">
@@ -16595,7 +16603,7 @@
       <c r="J144" s="18"/>
       <c r="K144" s="17"/>
       <c r="L144" s="17" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="M144" s="21"/>
       <c r="N144" s="60"/>
@@ -16606,7 +16614,7 @@
         <v>693</v>
       </c>
       <c r="Q144" s="10" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="R144" s="10">
         <v>0</v>
@@ -16621,7 +16629,7 @@
         <v>350</v>
       </c>
       <c r="X144" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="24">
@@ -16671,7 +16679,7 @@
         <v>353</v>
       </c>
       <c r="X145" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="36">
@@ -16690,11 +16698,11 @@
       <c r="G146" s="33"/>
       <c r="H146" s="33"/>
       <c r="I146" s="32" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="J146" s="18"/>
       <c r="K146" s="17" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L146" s="17"/>
       <c r="M146" s="21"/>
@@ -16706,7 +16714,7 @@
         <v>693</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="R146" s="1">
         <v>0</v>
@@ -16721,7 +16729,7 @@
         <v>355</v>
       </c>
       <c r="X146" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="24">
@@ -16743,7 +16751,7 @@
       <c r="J147" s="18"/>
       <c r="K147" s="17"/>
       <c r="L147" s="17" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="M147" s="21"/>
       <c r="N147" s="60"/>
@@ -16754,7 +16762,7 @@
         <v>693</v>
       </c>
       <c r="Q147" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="R147" s="10">
         <v>0</v>
@@ -16769,7 +16777,7 @@
         <v>357</v>
       </c>
       <c r="X147" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="48">
@@ -16786,7 +16794,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="67"/>
       <c r="G148" s="33" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H148" s="33"/>
       <c r="I148" s="32"/>
@@ -16802,7 +16810,7 @@
         <v>693</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="R148" s="10">
         <v>56000101</v>
@@ -16819,7 +16827,7 @@
         <v>359</v>
       </c>
       <c r="X148" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="48">
@@ -16836,7 +16844,7 @@
       <c r="E149" s="1"/>
       <c r="F149" s="67"/>
       <c r="G149" s="33" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="H149" s="33"/>
       <c r="I149" s="32"/>
@@ -16852,7 +16860,7 @@
         <v>693</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="R149" s="10">
         <v>56000101</v>
@@ -16869,7 +16877,7 @@
         <v>361</v>
       </c>
       <c r="X149" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="36">
@@ -16892,7 +16900,7 @@
       </c>
       <c r="J150" s="18"/>
       <c r="K150" s="17" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L150" s="17"/>
       <c r="M150" s="21"/>
@@ -16923,7 +16931,7 @@
         <v>364</v>
       </c>
       <c r="X150" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="36">
@@ -16971,7 +16979,7 @@
         <v>366</v>
       </c>
       <c r="X151" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="24">
@@ -16995,7 +17003,7 @@
       <c r="J152" s="18"/>
       <c r="K152" s="17"/>
       <c r="L152" s="17" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="M152" s="21"/>
       <c r="N152" s="60"/>
@@ -17006,7 +17014,7 @@
         <v>693</v>
       </c>
       <c r="Q152" s="10" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="R152" s="10">
         <v>0</v>
@@ -17021,7 +17029,7 @@
         <v>368</v>
       </c>
       <c r="X152" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="48">
@@ -17038,7 +17046,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="67"/>
       <c r="G153" s="33" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="H153" s="33"/>
       <c r="I153" s="32"/>
@@ -17054,7 +17062,7 @@
         <v>693</v>
       </c>
       <c r="Q153" s="10" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="R153" s="10">
         <v>0</v>
@@ -17069,7 +17077,7 @@
         <v>370</v>
       </c>
       <c r="X153" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="24">
@@ -17088,7 +17096,7 @@
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
       <c r="I154" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J154" s="18"/>
       <c r="K154" s="17"/>
@@ -17119,7 +17127,7 @@
         <v>372</v>
       </c>
       <c r="X154" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="155" spans="1:24" ht="72">
@@ -17169,7 +17177,7 @@
         <v>374</v>
       </c>
       <c r="X155" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="156" spans="1:24" ht="60">
@@ -17188,7 +17196,7 @@
       <c r="G156" s="33"/>
       <c r="H156" s="33"/>
       <c r="I156" s="32" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="J156" s="18"/>
       <c r="K156" s="17" t="s">
@@ -17221,7 +17229,7 @@
         <v>377</v>
       </c>
       <c r="X156" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="48">
@@ -17238,7 +17246,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="67"/>
       <c r="G157" s="33" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H157" s="33"/>
       <c r="I157" s="32"/>
@@ -17254,7 +17262,7 @@
         <v>693</v>
       </c>
       <c r="Q157" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="R157" s="10">
         <v>56000102</v>
@@ -17271,7 +17279,7 @@
         <v>379</v>
       </c>
       <c r="X157" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="158" spans="1:24">
@@ -17302,7 +17310,7 @@
         <v>693</v>
       </c>
       <c r="Q158" s="10" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="R158" s="10">
         <v>0</v>
@@ -17317,7 +17325,7 @@
         <v>381</v>
       </c>
       <c r="X158" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="159" spans="1:24" ht="36">
@@ -17336,7 +17344,7 @@
       <c r="G159" s="33"/>
       <c r="H159" s="33"/>
       <c r="I159" s="32" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="J159" s="18"/>
       <c r="K159" s="17" t="s">
@@ -17367,7 +17375,7 @@
         <v>383</v>
       </c>
       <c r="X159" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="160" spans="1:24" ht="36">
@@ -17386,7 +17394,7 @@
       <c r="G160" s="33"/>
       <c r="H160" s="33"/>
       <c r="I160" s="32" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J160" s="18"/>
       <c r="K160" s="17" t="s">
@@ -17402,7 +17410,7 @@
         <v>693</v>
       </c>
       <c r="Q160" s="15" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="R160" s="15">
         <v>0</v>
@@ -17417,7 +17425,7 @@
         <v>385</v>
       </c>
       <c r="X160" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="36">
@@ -17439,10 +17447,10 @@
         <v>751</v>
       </c>
       <c r="J161" s="18" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K161" s="17" t="s">
         <v>1123</v>
-      </c>
-      <c r="K161" s="17" t="s">
-        <v>1124</v>
       </c>
       <c r="L161" s="17"/>
       <c r="M161" s="21"/>
@@ -17454,7 +17462,7 @@
         <v>693</v>
       </c>
       <c r="Q161" s="10" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="R161" s="10">
         <v>0</v>
@@ -17469,7 +17477,7 @@
         <v>387</v>
       </c>
       <c r="X161" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="162" spans="1:24" ht="36">
@@ -17519,7 +17527,7 @@
         <v>389</v>
       </c>
       <c r="X162" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="36">
@@ -17571,7 +17579,7 @@
         <v>392</v>
       </c>
       <c r="X163" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="164" spans="1:24" ht="24">
@@ -17621,7 +17629,7 @@
         <v>394</v>
       </c>
       <c r="X164" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="108">
@@ -17638,10 +17646,10 @@
       <c r="E165" s="1"/>
       <c r="F165" s="67"/>
       <c r="G165" s="33" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H165" s="33" t="s">
         <v>1313</v>
-      </c>
-      <c r="H165" s="33" t="s">
-        <v>1314</v>
       </c>
       <c r="I165" s="32"/>
       <c r="J165" s="18"/>
@@ -17656,7 +17664,7 @@
         <v>693</v>
       </c>
       <c r="Q165" s="10" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="R165" s="10">
         <v>0</v>
@@ -17671,7 +17679,7 @@
         <v>396</v>
       </c>
       <c r="X165" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="166" spans="1:24" ht="96">
@@ -17688,10 +17696,10 @@
       <c r="E166" s="1"/>
       <c r="F166" s="67"/>
       <c r="G166" s="33" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H166" s="33" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I166" s="32"/>
       <c r="J166" s="18"/>
@@ -17706,7 +17714,7 @@
         <v>693</v>
       </c>
       <c r="Q166" s="10" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="R166" s="10">
         <v>0</v>
@@ -17721,7 +17729,7 @@
         <v>398</v>
       </c>
       <c r="X166" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="167" spans="1:24" ht="36">
@@ -17744,10 +17752,10 @@
       </c>
       <c r="J167" s="18"/>
       <c r="K167" s="17" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="L167" s="17" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="M167" s="21"/>
       <c r="N167" s="60"/>
@@ -17758,7 +17766,7 @@
         <v>693</v>
       </c>
       <c r="Q167" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="R167" s="1">
         <v>0</v>
@@ -17773,7 +17781,7 @@
         <v>400</v>
       </c>
       <c r="X167" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="168" spans="1:24" ht="24">
@@ -17795,7 +17803,7 @@
       <c r="J168" s="18"/>
       <c r="K168" s="17"/>
       <c r="L168" s="17" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="M168" s="21"/>
       <c r="N168" s="60"/>
@@ -17821,7 +17829,7 @@
         <v>402</v>
       </c>
       <c r="X168" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="24">
@@ -17873,7 +17881,7 @@
         <v>405</v>
       </c>
       <c r="X169" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="170" spans="1:24" ht="84">
@@ -17887,13 +17895,13 @@
         <v>1000</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E170" s="1">
         <v>15</v>
       </c>
       <c r="F170" s="67" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="G170" s="33"/>
       <c r="H170" s="33"/>
@@ -17902,7 +17910,7 @@
       <c r="K170" s="17"/>
       <c r="L170" s="22"/>
       <c r="M170" s="21" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="N170" s="60"/>
       <c r="O170" s="1" t="s">
@@ -17929,7 +17937,7 @@
         <v>407</v>
       </c>
       <c r="X170" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="171" spans="1:24" ht="24">
@@ -17951,7 +17959,7 @@
       <c r="J171" s="18"/>
       <c r="K171" s="17"/>
       <c r="L171" s="17" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="M171" s="21"/>
       <c r="N171" s="60"/>
@@ -17962,7 +17970,7 @@
         <v>693</v>
       </c>
       <c r="Q171" s="10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="R171" s="10">
         <v>0</v>
@@ -17977,7 +17985,7 @@
         <v>409</v>
       </c>
       <c r="X171" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="172" spans="1:24" ht="36">
@@ -17999,7 +18007,7 @@
       <c r="J172" s="18"/>
       <c r="K172" s="17"/>
       <c r="L172" s="17" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="M172" s="21"/>
       <c r="N172" s="60"/>
@@ -18010,7 +18018,7 @@
         <v>693</v>
       </c>
       <c r="Q172" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="R172" s="10">
         <v>0</v>
@@ -18025,7 +18033,7 @@
         <v>411</v>
       </c>
       <c r="X172" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="36">
@@ -18075,7 +18083,7 @@
         <v>413</v>
       </c>
       <c r="X173" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="174" spans="1:24" ht="48">
@@ -18083,7 +18091,7 @@
         <v>55000187</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>1</v>
@@ -18092,7 +18100,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="67"/>
       <c r="G174" s="33" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H174" s="33"/>
       <c r="I174" s="32"/>
@@ -18102,13 +18110,13 @@
       <c r="M174" s="21"/>
       <c r="N174" s="60"/>
       <c r="O174" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="P174" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q174" s="10" t="s">
         <v>1219</v>
-      </c>
-      <c r="P174" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="Q174" s="10" t="s">
-        <v>1220</v>
       </c>
       <c r="R174" s="10">
         <v>0</v>
@@ -18120,10 +18128,10 @@
         <v>-12</v>
       </c>
       <c r="W174" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="X174" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="175" spans="1:24" ht="24">
@@ -18171,7 +18179,7 @@
         <v>415</v>
       </c>
       <c r="X175" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="176" spans="1:24" ht="36">
@@ -18190,11 +18198,11 @@
       <c r="G176" s="33"/>
       <c r="H176" s="33"/>
       <c r="I176" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J176" s="18"/>
       <c r="K176" s="17" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="L176" s="17" t="s">
         <v>803</v>
@@ -18223,7 +18231,7 @@
         <v>417</v>
       </c>
       <c r="X176" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="177" spans="1:24" ht="36">
@@ -18242,11 +18250,11 @@
       <c r="G177" s="33"/>
       <c r="H177" s="33"/>
       <c r="I177" s="32" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="J177" s="18"/>
       <c r="K177" s="17" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="L177" s="17"/>
       <c r="M177" s="21"/>
@@ -18258,7 +18266,7 @@
         <v>693</v>
       </c>
       <c r="Q177" s="10" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="R177" s="10">
         <v>0</v>
@@ -18273,7 +18281,7 @@
         <v>419</v>
       </c>
       <c r="X177" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="178" spans="1:24" ht="48">
@@ -18292,7 +18300,7 @@
       <c r="G178" s="33"/>
       <c r="H178" s="33"/>
       <c r="I178" s="32" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="J178" s="18"/>
       <c r="K178" s="17" t="s">
@@ -18325,7 +18333,7 @@
         <v>422</v>
       </c>
       <c r="X178" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="179" spans="1:24" ht="60">
@@ -18344,7 +18352,7 @@
       <c r="G179" s="33"/>
       <c r="H179" s="33"/>
       <c r="I179" s="32" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="J179" s="18"/>
       <c r="K179" s="17" t="s">
@@ -18375,7 +18383,7 @@
         <v>424</v>
       </c>
       <c r="X179" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="180" spans="1:24" ht="24">
@@ -18425,7 +18433,7 @@
         <v>426</v>
       </c>
       <c r="X180" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="181" spans="1:24" ht="48">
@@ -18442,7 +18450,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="67"/>
       <c r="G181" s="33" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="H181" s="33"/>
       <c r="I181" s="32"/>
@@ -18458,7 +18466,7 @@
         <v>693</v>
       </c>
       <c r="Q181" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="R181" s="10">
         <v>56000023</v>
@@ -18475,7 +18483,7 @@
         <v>428</v>
       </c>
       <c r="X181" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="182" spans="1:24" ht="60">
@@ -18496,7 +18504,7 @@
       <c r="I182" s="32"/>
       <c r="J182" s="18"/>
       <c r="K182" s="17" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L182" s="17"/>
       <c r="M182" s="21"/>
@@ -18508,7 +18516,7 @@
         <v>693</v>
       </c>
       <c r="Q182" s="10" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="R182" s="10">
         <v>0</v>
@@ -18523,7 +18531,7 @@
         <v>430</v>
       </c>
       <c r="X182" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="183" spans="1:24" ht="60">
@@ -18544,7 +18552,7 @@
       <c r="I183" s="32"/>
       <c r="J183" s="18"/>
       <c r="K183" s="17" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="L183" s="17"/>
       <c r="M183" s="21"/>
@@ -18556,7 +18564,7 @@
         <v>693</v>
       </c>
       <c r="Q183" s="10" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="R183" s="10">
         <v>0</v>
@@ -18571,7 +18579,7 @@
         <v>432</v>
       </c>
       <c r="X183" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="184" spans="1:24" ht="24">
@@ -18593,7 +18601,7 @@
       <c r="J184" s="18"/>
       <c r="K184" s="17"/>
       <c r="L184" s="17" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="M184" s="21"/>
       <c r="N184" s="60"/>
@@ -18604,7 +18612,7 @@
         <v>693</v>
       </c>
       <c r="Q184" s="10" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="R184" s="10">
         <v>0</v>
@@ -18619,7 +18627,7 @@
         <v>434</v>
       </c>
       <c r="X184" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="185" spans="1:24" ht="36">
@@ -18636,7 +18644,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="67"/>
       <c r="G185" s="33" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H185" s="33"/>
       <c r="I185" s="32"/>
@@ -18669,7 +18677,7 @@
         <v>436</v>
       </c>
       <c r="X185" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="186" spans="1:24">
@@ -18700,7 +18708,7 @@
         <v>693</v>
       </c>
       <c r="Q186" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="R186" s="10">
         <v>0</v>
@@ -18715,7 +18723,7 @@
         <v>438</v>
       </c>
       <c r="X186" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="187" spans="1:24" ht="48">
@@ -18737,7 +18745,7 @@
       <c r="J187" s="18"/>
       <c r="K187" s="17"/>
       <c r="L187" s="17" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="M187" s="21"/>
       <c r="N187" s="60"/>
@@ -18748,7 +18756,7 @@
         <v>693</v>
       </c>
       <c r="Q187" s="10" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="R187" s="10">
         <v>0</v>
@@ -18763,7 +18771,7 @@
         <v>440</v>
       </c>
       <c r="X187" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="188" spans="1:24" ht="36">
@@ -18780,7 +18788,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="67"/>
       <c r="G188" s="33" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="H188" s="33"/>
       <c r="I188" s="32"/>
@@ -18813,7 +18821,7 @@
         <v>442</v>
       </c>
       <c r="X188" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="189" spans="1:24" ht="48">
@@ -18830,7 +18838,7 @@
       <c r="E189" s="1"/>
       <c r="F189" s="67"/>
       <c r="G189" s="33" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="H189" s="33"/>
       <c r="I189" s="32"/>
@@ -18863,7 +18871,7 @@
         <v>444</v>
       </c>
       <c r="X189" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="190" spans="1:24" ht="24">
@@ -18886,7 +18894,7 @@
       <c r="K190" s="17"/>
       <c r="L190" s="17"/>
       <c r="M190" s="21" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="N190" s="60">
         <v>1</v>
@@ -18898,7 +18906,7 @@
         <v>693</v>
       </c>
       <c r="Q190" s="10" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="R190" s="10">
         <v>0</v>
@@ -18934,7 +18942,7 @@
       </c>
       <c r="J191" s="18"/>
       <c r="K191" s="17" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="L191" s="17"/>
       <c r="M191" s="21"/>
@@ -18946,7 +18954,7 @@
         <v>693</v>
       </c>
       <c r="Q191" s="15" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="R191" s="15">
         <v>0</v>
@@ -18961,7 +18969,7 @@
         <v>448</v>
       </c>
       <c r="X191" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="192" spans="1:24" ht="24">
@@ -18983,7 +18991,7 @@
       <c r="J192" s="18"/>
       <c r="K192" s="17"/>
       <c r="L192" s="17" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="M192" s="21"/>
       <c r="N192" s="60"/>
@@ -18994,7 +19002,7 @@
         <v>693</v>
       </c>
       <c r="Q192" s="10" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="R192" s="10">
         <v>0</v>
@@ -19009,7 +19017,7 @@
         <v>450</v>
       </c>
       <c r="X192" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="193" spans="1:24" ht="96">
@@ -19028,11 +19036,11 @@
       <c r="G193" s="33"/>
       <c r="H193" s="33"/>
       <c r="I193" s="32" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="J193" s="18"/>
       <c r="K193" s="17" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="L193" s="17"/>
       <c r="M193" s="21"/>
@@ -19044,7 +19052,7 @@
         <v>693</v>
       </c>
       <c r="Q193" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="R193" s="10">
         <v>0</v>
@@ -19059,7 +19067,7 @@
         <v>452</v>
       </c>
       <c r="X193" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="194" spans="1:24" ht="24">
@@ -19067,10 +19075,10 @@
         <v>55000207</v>
       </c>
       <c r="B194" s="11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>1040</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -19082,7 +19090,7 @@
       <c r="K194" s="17"/>
       <c r="L194" s="17"/>
       <c r="M194" s="21" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="N194" s="60"/>
       <c r="O194" s="1" t="s">
@@ -19092,7 +19100,7 @@
         <v>693</v>
       </c>
       <c r="Q194" s="10" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="R194" s="10">
         <v>0</v>
@@ -19109,7 +19117,7 @@
         <v>951</v>
       </c>
       <c r="X194" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -19155,7 +19163,7 @@
         <v>454</v>
       </c>
       <c r="X195" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="196" spans="1:24" ht="48">
@@ -19178,7 +19186,7 @@
       </c>
       <c r="J196" s="18"/>
       <c r="K196" s="17" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="L196" s="17"/>
       <c r="M196" s="21"/>
@@ -19190,7 +19198,7 @@
         <v>693</v>
       </c>
       <c r="Q196" s="15" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="R196" s="15">
         <v>0</v>
@@ -19205,7 +19213,7 @@
         <v>456</v>
       </c>
       <c r="X196" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="197" spans="1:24" ht="48">
@@ -19257,7 +19265,7 @@
         <v>459</v>
       </c>
       <c r="X197" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="198" spans="1:24" ht="48">
@@ -19274,7 +19282,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="67"/>
       <c r="G198" s="33" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="H198" s="33"/>
       <c r="I198" s="32"/>
@@ -19290,7 +19298,7 @@
         <v>693</v>
       </c>
       <c r="Q198" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="R198" s="10">
         <v>56000121</v>
@@ -19307,7 +19315,7 @@
         <v>461</v>
       </c>
       <c r="X198" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="199" spans="1:24" ht="24">
@@ -19357,7 +19365,7 @@
         <v>464</v>
       </c>
       <c r="X199" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="200" spans="1:24" ht="48">
@@ -19374,7 +19382,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="67"/>
       <c r="G200" s="33" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="H200" s="33"/>
       <c r="I200" s="32"/>
@@ -19390,7 +19398,7 @@
         <v>693</v>
       </c>
       <c r="Q200" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="R200" s="10">
         <v>56000121</v>
@@ -19407,7 +19415,7 @@
         <v>466</v>
       </c>
       <c r="X200" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="201" spans="1:24" ht="24">
@@ -19429,7 +19437,7 @@
       <c r="J201" s="18"/>
       <c r="K201" s="17"/>
       <c r="L201" s="17" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="M201" s="21"/>
       <c r="N201" s="60"/>
@@ -19455,7 +19463,7 @@
         <v>468</v>
       </c>
       <c r="X201" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="202" spans="1:24" ht="96">
@@ -19469,23 +19477,23 @@
         <v>216</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E202" s="1">
         <v>0</v>
       </c>
       <c r="F202" s="67" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="G202" s="33"/>
       <c r="H202" s="33"/>
       <c r="I202" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J202" s="18"/>
       <c r="K202" s="17"/>
       <c r="L202" s="17" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="M202" s="21"/>
       <c r="N202" s="60"/>
@@ -19496,7 +19504,7 @@
         <v>693</v>
       </c>
       <c r="Q202" s="10" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="R202" s="10">
         <v>0</v>
@@ -19517,7 +19525,7 @@
         <v>471</v>
       </c>
       <c r="X202" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="203" spans="1:24" ht="36">
@@ -19552,7 +19560,7 @@
         <v>693</v>
       </c>
       <c r="Q203" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="R203" s="1">
         <v>0</v>
@@ -19567,7 +19575,7 @@
         <v>473</v>
       </c>
       <c r="X203" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="204" spans="1:24" ht="24">
@@ -19617,7 +19625,7 @@
         <v>476</v>
       </c>
       <c r="X204" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -19648,7 +19656,7 @@
         <v>693</v>
       </c>
       <c r="Q205" s="10" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="R205" s="10">
         <v>0</v>
@@ -19665,7 +19673,7 @@
         <v>479</v>
       </c>
       <c r="X205" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -19688,7 +19696,7 @@
       <c r="K206" s="17"/>
       <c r="L206" s="17"/>
       <c r="M206" s="21" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="N206" s="60"/>
       <c r="O206" s="1" t="s">
@@ -19713,7 +19721,7 @@
         <v>482</v>
       </c>
       <c r="X206" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="207" spans="1:24" ht="36">
@@ -19736,7 +19744,7 @@
       </c>
       <c r="J207" s="18"/>
       <c r="K207" s="17" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="L207" s="17"/>
       <c r="M207" s="21"/>
@@ -19763,7 +19771,7 @@
         <v>484</v>
       </c>
       <c r="X207" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="208" spans="1:24" ht="24">
@@ -19776,11 +19784,17 @@
       <c r="C208" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="67"/>
+      <c r="D208" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E208" s="1">
+        <v>10</v>
+      </c>
+      <c r="F208" s="67" t="s">
+        <v>1501</v>
+      </c>
       <c r="G208" s="33" t="s">
-        <v>1347</v>
+        <v>1498</v>
       </c>
       <c r="H208" s="33"/>
       <c r="I208" s="32"/>
@@ -19796,7 +19810,7 @@
         <v>693</v>
       </c>
       <c r="Q208" s="10" t="s">
-        <v>1038</v>
+        <v>1499</v>
       </c>
       <c r="R208" s="10">
         <v>0</v>
@@ -19805,14 +19819,12 @@
       <c r="T208" s="1"/>
       <c r="U208" s="1"/>
       <c r="V208" s="1">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="W208" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="X208" s="53" t="s">
-        <v>1405</v>
-      </c>
+      <c r="X208" s="53"/>
     </row>
     <row r="209" spans="1:24" ht="36">
       <c r="A209">
@@ -19861,7 +19873,7 @@
         <v>486</v>
       </c>
       <c r="X209" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="210" spans="1:24" ht="36">
@@ -19911,7 +19923,7 @@
         <v>488</v>
       </c>
       <c r="X210" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="211" spans="1:24" ht="36">
@@ -19961,7 +19973,7 @@
         <v>490</v>
       </c>
       <c r="X211" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="212" spans="1:24" ht="48">
@@ -19978,10 +19990,10 @@
       <c r="E212" s="1"/>
       <c r="F212" s="67"/>
       <c r="G212" s="33" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H212" s="33" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I212" s="32"/>
       <c r="J212" s="18"/>
@@ -19996,7 +20008,7 @@
         <v>693</v>
       </c>
       <c r="Q212" s="10" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="R212" s="10">
         <v>0</v>
@@ -20011,7 +20023,7 @@
         <v>492</v>
       </c>
       <c r="X212" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="213" spans="1:24" ht="96">
@@ -20028,10 +20040,10 @@
       <c r="E213" s="1"/>
       <c r="F213" s="67"/>
       <c r="G213" s="33" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H213" s="33" t="s">
         <v>1286</v>
-      </c>
-      <c r="H213" s="33" t="s">
-        <v>1287</v>
       </c>
       <c r="I213" s="32"/>
       <c r="J213" s="18"/>
@@ -20046,7 +20058,7 @@
         <v>693</v>
       </c>
       <c r="Q213" s="10" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="R213" s="10">
         <v>0</v>
@@ -20061,7 +20073,7 @@
         <v>494</v>
       </c>
       <c r="X213" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="214" spans="1:24" ht="24">
@@ -20086,7 +20098,7 @@
       <c r="K214" s="17"/>
       <c r="L214" s="17"/>
       <c r="M214" s="21" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="N214" s="60"/>
       <c r="O214" s="1" t="s">
@@ -20096,7 +20108,7 @@
         <v>693</v>
       </c>
       <c r="Q214" s="10" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="R214" s="10">
         <v>0</v>
@@ -20111,7 +20123,7 @@
         <v>673</v>
       </c>
       <c r="X214" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="215" spans="1:24" ht="24">
@@ -20133,7 +20145,7 @@
       <c r="J215" s="18"/>
       <c r="K215" s="17"/>
       <c r="L215" s="17" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="M215" s="21"/>
       <c r="N215" s="60"/>
@@ -20144,7 +20156,7 @@
         <v>693</v>
       </c>
       <c r="Q215" s="10" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="R215" s="10">
         <v>0</v>
@@ -20159,7 +20171,7 @@
         <v>496</v>
       </c>
       <c r="X215" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="216" spans="1:24" ht="24">
@@ -20183,7 +20195,7 @@
       <c r="J216" s="18"/>
       <c r="K216" s="17"/>
       <c r="L216" s="17" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="M216" s="21"/>
       <c r="N216" s="60"/>
@@ -20194,7 +20206,7 @@
         <v>693</v>
       </c>
       <c r="Q216" s="10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="R216" s="10">
         <v>0</v>
@@ -20209,7 +20221,7 @@
         <v>498</v>
       </c>
       <c r="X216" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="217" spans="1:24" ht="24">
@@ -20257,7 +20269,7 @@
         <v>500</v>
       </c>
       <c r="X217" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="218" spans="1:24" ht="24">
@@ -20279,7 +20291,7 @@
       <c r="J218" s="18"/>
       <c r="K218" s="17"/>
       <c r="L218" s="17" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="M218" s="21"/>
       <c r="N218" s="60"/>
@@ -20290,7 +20302,7 @@
         <v>693</v>
       </c>
       <c r="Q218" s="10" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="R218" s="10">
         <v>0</v>
@@ -20305,7 +20317,7 @@
         <v>502</v>
       </c>
       <c r="X218" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="219" spans="1:24" ht="48">
@@ -20353,7 +20365,7 @@
         <v>504</v>
       </c>
       <c r="X219" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="220" spans="1:24" ht="36">
@@ -20401,7 +20413,7 @@
         <v>506</v>
       </c>
       <c r="X220" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="221" spans="1:24" ht="36">
@@ -20451,7 +20463,7 @@
         <v>508</v>
       </c>
       <c r="X221" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="222" spans="1:24" ht="72">
@@ -20499,7 +20511,7 @@
         <v>510</v>
       </c>
       <c r="X222" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="223" spans="1:24" ht="24">
@@ -20516,7 +20528,7 @@
       <c r="E223" s="1"/>
       <c r="F223" s="67"/>
       <c r="G223" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H223" s="33"/>
       <c r="I223" s="32"/>
@@ -20532,7 +20544,7 @@
         <v>693</v>
       </c>
       <c r="Q223" s="10" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="R223" s="10">
         <v>0</v>
@@ -20547,7 +20559,7 @@
         <v>512</v>
       </c>
       <c r="X223" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="224" spans="1:24">
@@ -20593,7 +20605,7 @@
         <v>514</v>
       </c>
       <c r="X224" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="225" spans="1:24" ht="24">
@@ -20641,7 +20653,7 @@
         <v>517</v>
       </c>
       <c r="X225" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="226" spans="1:24" ht="24">
@@ -20689,7 +20701,7 @@
         <v>519</v>
       </c>
       <c r="X226" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="227" spans="1:24" ht="96">
@@ -20703,23 +20715,23 @@
         <v>216</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="E227" s="1">
         <v>10</v>
       </c>
       <c r="F227" s="67" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="G227" s="33"/>
       <c r="H227" s="33"/>
       <c r="I227" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J227" s="18"/>
       <c r="K227" s="17"/>
       <c r="L227" s="17" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="M227" s="21"/>
       <c r="N227" s="60"/>
@@ -20751,7 +20763,7 @@
         <v>521</v>
       </c>
       <c r="X227" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="228" spans="1:24" ht="24">
@@ -20786,7 +20798,7 @@
         <v>693</v>
       </c>
       <c r="Q228" s="10" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="R228" s="10">
         <v>0</v>
@@ -20801,7 +20813,7 @@
         <v>523</v>
       </c>
       <c r="X228" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="229" spans="1:24" ht="24">
@@ -20826,7 +20838,7 @@
       <c r="K229" s="17"/>
       <c r="L229" s="17"/>
       <c r="M229" s="21" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="N229" s="60"/>
       <c r="O229" s="1" t="s">
@@ -20836,7 +20848,7 @@
         <v>693</v>
       </c>
       <c r="Q229" s="10" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="R229" s="10">
         <v>0</v>
@@ -20851,7 +20863,7 @@
         <v>525</v>
       </c>
       <c r="X229" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="230" spans="1:24" ht="36">
@@ -20884,7 +20896,7 @@
         <v>693</v>
       </c>
       <c r="Q230" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="R230" s="10">
         <v>0</v>
@@ -20899,7 +20911,7 @@
         <v>527</v>
       </c>
       <c r="X230" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="231" spans="1:24" ht="96">
@@ -20913,23 +20925,23 @@
         <v>216</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E231" s="1">
         <v>10</v>
       </c>
       <c r="F231" s="67" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="G231" s="33"/>
       <c r="H231" s="33"/>
       <c r="I231" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J231" s="18"/>
       <c r="K231" s="17"/>
       <c r="L231" s="17" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="M231" s="21"/>
       <c r="N231" s="60"/>
@@ -20940,7 +20952,7 @@
         <v>693</v>
       </c>
       <c r="Q231" s="20" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="R231" s="10">
         <v>0</v>
@@ -20961,7 +20973,7 @@
         <v>529</v>
       </c>
       <c r="X231" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="232" spans="1:24" ht="24">
@@ -20983,7 +20995,7 @@
       <c r="J232" s="18"/>
       <c r="K232" s="17"/>
       <c r="L232" s="17" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="M232" s="21"/>
       <c r="N232" s="60"/>
@@ -21009,7 +21021,7 @@
         <v>531</v>
       </c>
       <c r="X232" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="233" spans="1:24" ht="36">
@@ -21028,12 +21040,12 @@
       <c r="G233" s="33"/>
       <c r="H233" s="33"/>
       <c r="I233" s="32" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J233" s="18"/>
       <c r="K233" s="17"/>
       <c r="L233" s="17" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="M233" s="21"/>
       <c r="N233" s="60"/>
@@ -21044,7 +21056,7 @@
         <v>693</v>
       </c>
       <c r="Q233" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="R233" s="10">
         <v>0</v>
@@ -21059,7 +21071,7 @@
         <v>533</v>
       </c>
       <c r="X233" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="234" spans="1:24" ht="48">
@@ -21082,7 +21094,7 @@
       </c>
       <c r="J234" s="18"/>
       <c r="K234" s="17" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="L234" s="17"/>
       <c r="M234" s="21"/>
@@ -21094,7 +21106,7 @@
         <v>693</v>
       </c>
       <c r="Q234" s="10" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="R234" s="10">
         <v>0</v>
@@ -21109,7 +21121,7 @@
         <v>535</v>
       </c>
       <c r="X234" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="235" spans="1:24" ht="36">
@@ -21128,14 +21140,14 @@
       <c r="G235" s="33"/>
       <c r="H235" s="33"/>
       <c r="I235" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J235" s="18"/>
       <c r="K235" s="17" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="L235" s="17" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="M235" s="21"/>
       <c r="N235" s="60"/>
@@ -21146,7 +21158,7 @@
         <v>693</v>
       </c>
       <c r="Q235" s="10" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="R235" s="10">
         <v>0</v>
@@ -21161,7 +21173,7 @@
         <v>537</v>
       </c>
       <c r="X235" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="236" spans="1:24" ht="24">
@@ -21185,7 +21197,7 @@
       <c r="J236" s="18"/>
       <c r="K236" s="17"/>
       <c r="L236" s="17" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="M236" s="21"/>
       <c r="N236" s="60"/>
@@ -21211,7 +21223,7 @@
         <v>539</v>
       </c>
       <c r="X236" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="237" spans="1:24" ht="36">
@@ -21244,7 +21256,7 @@
         <v>693</v>
       </c>
       <c r="Q237" s="10" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="R237" s="10">
         <v>0</v>
@@ -21259,7 +21271,7 @@
         <v>541</v>
       </c>
       <c r="X237" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="238" spans="1:24" ht="27">
@@ -21307,7 +21319,7 @@
         <v>543</v>
       </c>
       <c r="X238" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="239" spans="1:24" ht="24">
@@ -21357,7 +21369,7 @@
         <v>545</v>
       </c>
       <c r="X239" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="240" spans="1:24" ht="36">
@@ -21376,7 +21388,7 @@
       <c r="G240" s="33"/>
       <c r="H240" s="33"/>
       <c r="I240" s="32" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="J240" s="18" t="s">
         <v>850</v>
@@ -21407,7 +21419,7 @@
         <v>547</v>
       </c>
       <c r="X240" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="241" spans="1:24" ht="36">
@@ -21455,7 +21467,7 @@
         <v>549</v>
       </c>
       <c r="X241" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="242" spans="1:24">
@@ -21475,7 +21487,7 @@
       <c r="H242" s="33"/>
       <c r="I242" s="32"/>
       <c r="J242" s="18" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="K242" s="17"/>
       <c r="L242" s="17"/>
@@ -21488,7 +21500,7 @@
         <v>693</v>
       </c>
       <c r="Q242" s="10" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="R242" s="10">
         <v>0</v>
@@ -21503,7 +21515,7 @@
         <v>551</v>
       </c>
       <c r="X242" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="243" spans="1:24">
@@ -21534,7 +21546,7 @@
         <v>693</v>
       </c>
       <c r="Q243" s="10" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="R243" s="10">
         <v>0</v>
@@ -21549,7 +21561,7 @@
         <v>553</v>
       </c>
       <c r="X243" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="244" spans="1:24" ht="36">
@@ -21572,7 +21584,7 @@
       </c>
       <c r="J244" s="18"/>
       <c r="K244" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="L244" s="17"/>
       <c r="M244" s="21"/>
@@ -21584,7 +21596,7 @@
         <v>693</v>
       </c>
       <c r="Q244" s="10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="R244" s="10">
         <v>0</v>
@@ -21601,7 +21613,7 @@
         <v>555</v>
       </c>
       <c r="X244" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="245" spans="1:24" ht="24">
@@ -21623,7 +21635,7 @@
       <c r="J245" s="18"/>
       <c r="K245" s="17"/>
       <c r="L245" s="17" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="M245" s="21"/>
       <c r="N245" s="60"/>
@@ -21649,7 +21661,7 @@
         <v>557</v>
       </c>
       <c r="X245" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="246" spans="1:24" ht="36">
@@ -21701,7 +21713,7 @@
         <v>559</v>
       </c>
       <c r="X246" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="247" spans="1:24" ht="84">
@@ -21715,13 +21727,13 @@
         <v>1000</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="E247" s="1">
         <v>0</v>
       </c>
       <c r="F247" s="67" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="G247" s="33"/>
       <c r="H247" s="33"/>
@@ -21730,7 +21742,7 @@
       <c r="K247" s="17"/>
       <c r="L247" s="17"/>
       <c r="M247" s="21" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="N247" s="60"/>
       <c r="O247" s="1" t="s">
@@ -21749,7 +21761,7 @@
         <v>948</v>
       </c>
       <c r="T247" s="10" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="U247" s="10"/>
       <c r="V247" s="1">
@@ -21759,7 +21771,7 @@
         <v>561</v>
       </c>
       <c r="X247" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="248" spans="1:24" ht="84">
@@ -21807,7 +21819,7 @@
         <v>563</v>
       </c>
       <c r="X248" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="249" spans="1:24" ht="24">
@@ -21829,7 +21841,7 @@
       <c r="J249" s="18"/>
       <c r="K249" s="17"/>
       <c r="L249" s="17" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="M249" s="21"/>
       <c r="N249" s="60"/>
@@ -21840,7 +21852,7 @@
         <v>693</v>
       </c>
       <c r="Q249" s="10" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="R249" s="10">
         <v>0</v>
@@ -21855,7 +21867,7 @@
         <v>565</v>
       </c>
       <c r="X249" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="250" spans="1:24" ht="24">
@@ -21874,12 +21886,12 @@
       <c r="G250" s="33"/>
       <c r="H250" s="33"/>
       <c r="I250" s="32" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="J250" s="18"/>
       <c r="K250" s="17"/>
       <c r="L250" s="17" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="M250" s="21"/>
       <c r="N250" s="60"/>
@@ -21907,7 +21919,7 @@
         <v>569</v>
       </c>
       <c r="X250" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="251" spans="1:24" ht="36">
@@ -21942,7 +21954,7 @@
         <v>693</v>
       </c>
       <c r="Q251" s="10" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="R251" s="10">
         <v>0</v>
@@ -21957,7 +21969,7 @@
         <v>571</v>
       </c>
       <c r="X251" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="36">
@@ -22005,7 +22017,7 @@
         <v>574</v>
       </c>
       <c r="X252" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="48">
@@ -22026,7 +22038,7 @@
       <c r="I253" s="32"/>
       <c r="J253" s="18"/>
       <c r="K253" s="17" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="L253" s="17"/>
       <c r="M253" s="21"/>
@@ -22038,7 +22050,7 @@
         <v>693</v>
       </c>
       <c r="Q253" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="R253" s="1">
         <v>0</v>
@@ -22053,7 +22065,7 @@
         <v>576</v>
       </c>
       <c r="X253" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="254" spans="1:24" ht="24">
@@ -22103,7 +22115,7 @@
         <v>579</v>
       </c>
       <c r="X254" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="255" spans="1:24" ht="24">
@@ -22151,7 +22163,7 @@
         <v>582</v>
       </c>
       <c r="X255" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="256" spans="1:24" ht="48">
@@ -22168,7 +22180,7 @@
       <c r="E256" s="1"/>
       <c r="F256" s="67"/>
       <c r="G256" s="33" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H256" s="33"/>
       <c r="I256" s="32"/>
@@ -22199,7 +22211,7 @@
         <v>585</v>
       </c>
       <c r="X256" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="257" spans="1:24" ht="48">
@@ -22216,7 +22228,7 @@
       <c r="E257" s="1"/>
       <c r="F257" s="67"/>
       <c r="G257" s="33" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="H257" s="33"/>
       <c r="I257" s="32"/>
@@ -22232,7 +22244,7 @@
         <v>693</v>
       </c>
       <c r="Q257" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="R257" s="10">
         <v>56000102</v>
@@ -22249,7 +22261,7 @@
         <v>587</v>
       </c>
       <c r="X257" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="258" spans="1:24" ht="36">
@@ -22268,7 +22280,7 @@
       <c r="G258" s="33"/>
       <c r="H258" s="33"/>
       <c r="I258" s="32" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J258" s="18" t="s">
         <v>849</v>
@@ -22299,7 +22311,7 @@
         <v>589</v>
       </c>
       <c r="X258" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="259" spans="1:24" ht="24">
@@ -22321,7 +22333,7 @@
       <c r="J259" s="18"/>
       <c r="K259" s="17"/>
       <c r="L259" s="17" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="M259" s="21"/>
       <c r="N259" s="60"/>
@@ -22347,7 +22359,7 @@
         <v>591</v>
       </c>
       <c r="X259" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="36">
@@ -22395,7 +22407,7 @@
         <v>593</v>
       </c>
       <c r="X260" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="261" spans="1:24" ht="84">
@@ -22416,7 +22428,7 @@
       <c r="I261" s="32"/>
       <c r="J261" s="18"/>
       <c r="K261" s="17" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L261" s="17"/>
       <c r="M261" s="21"/>
@@ -22428,7 +22440,7 @@
         <v>693</v>
       </c>
       <c r="Q261" s="10" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="R261" s="10">
         <v>0</v>
@@ -22443,7 +22455,7 @@
         <v>595</v>
       </c>
       <c r="X261" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="36">
@@ -22462,7 +22474,7 @@
       <c r="G262" s="33"/>
       <c r="H262" s="33"/>
       <c r="I262" s="32" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="J262" s="18"/>
       <c r="K262" s="17" t="s">
@@ -22493,7 +22505,7 @@
         <v>597</v>
       </c>
       <c r="X262" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="263" spans="1:24" ht="36">
@@ -22512,7 +22524,7 @@
       <c r="G263" s="33"/>
       <c r="H263" s="33"/>
       <c r="I263" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J263" s="18"/>
       <c r="K263" s="17" t="s">
@@ -22543,7 +22555,7 @@
         <v>599</v>
       </c>
       <c r="X263" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="264" spans="1:24">
@@ -22563,7 +22575,7 @@
       <c r="H264" s="33"/>
       <c r="I264" s="32"/>
       <c r="J264" s="18" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K264" s="17"/>
       <c r="L264" s="17"/>
@@ -22576,7 +22588,7 @@
         <v>693</v>
       </c>
       <c r="Q264" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="R264" s="1">
         <v>0</v>
@@ -22591,7 +22603,7 @@
         <v>601</v>
       </c>
       <c r="X264" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="265" spans="1:24" ht="24">
@@ -22614,7 +22626,7 @@
       <c r="K265" s="17"/>
       <c r="L265" s="22"/>
       <c r="M265" s="21" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="N265" s="60"/>
       <c r="O265" s="1" t="s">
@@ -22624,7 +22636,7 @@
         <v>693</v>
       </c>
       <c r="Q265" s="10" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="R265" s="10">
         <v>0</v>
@@ -22639,7 +22651,7 @@
         <v>603</v>
       </c>
       <c r="X265" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="266" spans="1:24">
@@ -22662,7 +22674,7 @@
       <c r="K266" s="17"/>
       <c r="L266" s="22"/>
       <c r="M266" s="21" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="N266" s="60"/>
       <c r="O266" s="1" t="s">
@@ -22672,7 +22684,7 @@
         <v>693</v>
       </c>
       <c r="Q266" s="10" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="R266" s="10">
         <v>0</v>
@@ -22687,7 +22699,7 @@
         <v>605</v>
       </c>
       <c r="X266" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="267" spans="1:24" ht="36">
@@ -22735,7 +22747,7 @@
         <v>607</v>
       </c>
       <c r="X267" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="268" spans="1:24" ht="24">
@@ -22757,7 +22769,7 @@
       <c r="J268" s="18"/>
       <c r="K268" s="17"/>
       <c r="L268" s="17" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="M268" s="21"/>
       <c r="N268" s="60"/>
@@ -22768,7 +22780,7 @@
         <v>693</v>
       </c>
       <c r="Q268" s="10" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="R268" s="10">
         <v>0</v>
@@ -22783,7 +22795,7 @@
         <v>609</v>
       </c>
       <c r="X268" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="269" spans="1:24" ht="144">
@@ -22797,16 +22809,16 @@
         <v>1000</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="E269" s="1">
         <v>10</v>
       </c>
       <c r="F269" s="67" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="G269" s="33" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="H269" s="33"/>
       <c r="I269" s="32"/>
@@ -22828,10 +22840,10 @@
         <v>0</v>
       </c>
       <c r="S269" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="T269" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="U269" s="1"/>
       <c r="V269" s="1">
@@ -22841,7 +22853,7 @@
         <v>611</v>
       </c>
       <c r="X269" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="270" spans="1:24" ht="36">
@@ -22893,7 +22905,7 @@
         <v>613</v>
       </c>
       <c r="X270" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="271" spans="1:24" ht="48">
@@ -22910,7 +22922,7 @@
       <c r="E271" s="1"/>
       <c r="F271" s="67"/>
       <c r="G271" s="33" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="H271" s="33"/>
       <c r="I271" s="32"/>
@@ -22943,7 +22955,7 @@
         <v>615</v>
       </c>
       <c r="X271" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="272" spans="1:24">
@@ -22974,7 +22986,7 @@
         <v>693</v>
       </c>
       <c r="Q272" s="10" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="R272" s="10">
         <v>0</v>
@@ -22989,7 +23001,7 @@
         <v>617</v>
       </c>
       <c r="X272" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="273" spans="1:24" ht="36">
@@ -23006,7 +23018,7 @@
       <c r="E273" s="1"/>
       <c r="F273" s="67"/>
       <c r="G273" s="33" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="H273" s="33"/>
       <c r="I273" s="32"/>
@@ -23039,7 +23051,7 @@
         <v>619</v>
       </c>
       <c r="X273" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="274" spans="1:24" ht="24">
@@ -23061,7 +23073,7 @@
       <c r="J274" s="18"/>
       <c r="K274" s="17"/>
       <c r="L274" s="17" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="M274" s="21"/>
       <c r="N274" s="60"/>
@@ -23089,7 +23101,7 @@
         <v>622</v>
       </c>
       <c r="X274" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="275" spans="1:24" ht="120">
@@ -23097,22 +23109,22 @@
         <v>55000289</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="E275" s="1">
         <v>100</v>
       </c>
       <c r="F275" s="67" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G275" s="33" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="H275" s="33"/>
       <c r="I275" s="32"/>
@@ -23128,7 +23140,7 @@
         <v>693</v>
       </c>
       <c r="Q275" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="R275" s="1">
         <v>0</v>
@@ -23145,7 +23157,7 @@
         <v>623</v>
       </c>
       <c r="X275" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="276" spans="1:24" ht="84">
@@ -23166,7 +23178,7 @@
       <c r="I276" s="32"/>
       <c r="J276" s="18"/>
       <c r="K276" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="L276" s="17"/>
       <c r="M276" s="21"/>
@@ -23178,7 +23190,7 @@
         <v>693</v>
       </c>
       <c r="Q276" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="R276" s="10">
         <v>0</v>
@@ -23193,7 +23205,7 @@
         <v>625</v>
       </c>
       <c r="X276" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="277" spans="1:24" ht="60">
@@ -23214,7 +23226,7 @@
       <c r="I277" s="32"/>
       <c r="J277" s="18"/>
       <c r="K277" s="17" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="L277" s="17"/>
       <c r="M277" s="21"/>
@@ -23226,7 +23238,7 @@
         <v>693</v>
       </c>
       <c r="Q277" s="10" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="R277" s="10">
         <v>0</v>
@@ -23241,7 +23253,7 @@
         <v>627</v>
       </c>
       <c r="X277" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="278" spans="1:24" ht="36">
@@ -23264,7 +23276,7 @@
       </c>
       <c r="J278" s="18"/>
       <c r="K278" s="17" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="L278" s="17" t="s">
         <v>987</v>
@@ -23278,7 +23290,7 @@
         <v>693</v>
       </c>
       <c r="Q278" s="10" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="R278" s="10">
         <v>0</v>
@@ -23293,7 +23305,7 @@
         <v>629</v>
       </c>
       <c r="X278" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="279" spans="1:24" ht="48">
@@ -23316,7 +23328,7 @@
       <c r="K279" s="17"/>
       <c r="L279" s="17"/>
       <c r="M279" s="21" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="N279" s="60"/>
       <c r="O279" s="1" t="s">
@@ -23326,7 +23338,7 @@
         <v>693</v>
       </c>
       <c r="Q279" s="10" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="R279" s="10">
         <v>0</v>
@@ -23341,7 +23353,7 @@
         <v>631</v>
       </c>
       <c r="X279" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="280" spans="1:24" ht="96">
@@ -23355,23 +23367,23 @@
         <v>216</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="E280" s="1">
         <v>10</v>
       </c>
       <c r="F280" s="67" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="G280" s="33"/>
       <c r="H280" s="33"/>
       <c r="I280" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J280" s="18"/>
       <c r="K280" s="17"/>
       <c r="L280" s="17" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="M280" s="21"/>
       <c r="N280" s="60"/>
@@ -23382,16 +23394,16 @@
         <v>693</v>
       </c>
       <c r="Q280" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="R280" s="10">
+        <v>0</v>
+      </c>
+      <c r="S280" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="R280" s="10">
-        <v>0</v>
-      </c>
-      <c r="S280" s="1" t="s">
-        <v>1154</v>
-      </c>
       <c r="T280" s="1" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="U280" s="10" t="s">
         <v>1026</v>
@@ -23403,7 +23415,7 @@
         <v>633</v>
       </c>
       <c r="X280" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="281" spans="1:24">
@@ -23434,7 +23446,7 @@
         <v>693</v>
       </c>
       <c r="Q281" s="10" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="R281" s="10">
         <v>0</v>
@@ -23449,7 +23461,7 @@
         <v>635</v>
       </c>
       <c r="X281" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="282" spans="1:24" ht="24">
@@ -23472,7 +23484,7 @@
       <c r="K282" s="17"/>
       <c r="L282" s="17"/>
       <c r="M282" s="21" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="N282" s="60"/>
       <c r="O282" s="1" t="s">
@@ -23497,7 +23509,7 @@
         <v>637</v>
       </c>
       <c r="X282" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="283" spans="1:24" ht="96">
@@ -23520,7 +23532,7 @@
       </c>
       <c r="J283" s="18"/>
       <c r="K283" s="17" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L283" s="17"/>
       <c r="M283" s="21"/>
@@ -23532,7 +23544,7 @@
         <v>693</v>
       </c>
       <c r="Q283" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="R283" s="10">
         <v>0</v>
@@ -23547,7 +23559,7 @@
         <v>639</v>
       </c>
       <c r="X283" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="284" spans="1:24" ht="84">
@@ -23570,7 +23582,7 @@
       </c>
       <c r="J284" s="18"/>
       <c r="K284" s="17" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L284" s="17"/>
       <c r="M284" s="21"/>
@@ -23582,7 +23594,7 @@
         <v>693</v>
       </c>
       <c r="Q284" s="10" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="R284" s="10">
         <v>0</v>
@@ -23597,7 +23609,7 @@
         <v>641</v>
       </c>
       <c r="X284" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="285" spans="1:24" ht="24">
@@ -23649,7 +23661,7 @@
         <v>644</v>
       </c>
       <c r="X285" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="286" spans="1:24" ht="24">
@@ -23657,10 +23669,10 @@
         <v>55000300</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -23672,7 +23684,7 @@
       <c r="K286" s="17"/>
       <c r="L286" s="17"/>
       <c r="M286" s="21" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="N286" s="60">
         <v>2</v>
@@ -23684,7 +23696,7 @@
         <v>693</v>
       </c>
       <c r="Q286" s="10" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="R286" s="10">
         <v>0</v>
@@ -23698,7 +23710,7 @@
         <v>80</v>
       </c>
       <c r="W286" s="31" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="X286" s="53"/>
     </row>
@@ -23713,23 +23725,23 @@
         <v>216</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="E287" s="1">
         <v>10</v>
       </c>
       <c r="F287" s="67" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="G287" s="33"/>
       <c r="H287" s="33"/>
       <c r="I287" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J287" s="18"/>
       <c r="K287" s="17"/>
       <c r="L287" s="17" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="M287" s="21"/>
       <c r="N287" s="60"/>
@@ -23740,7 +23752,7 @@
         <v>693</v>
       </c>
       <c r="Q287" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="R287" s="10">
         <v>0</v>
@@ -23749,7 +23761,7 @@
         <v>916</v>
       </c>
       <c r="T287" s="10" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="U287" s="10" t="s">
         <v>1026</v>
@@ -23761,7 +23773,7 @@
         <v>646</v>
       </c>
       <c r="X287" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="288" spans="1:24" ht="96">
@@ -23775,23 +23787,23 @@
         <v>216</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="E288" s="1">
         <v>10</v>
       </c>
       <c r="F288" s="67" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="G288" s="33"/>
       <c r="H288" s="33"/>
       <c r="I288" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J288" s="18"/>
       <c r="K288" s="17"/>
       <c r="L288" s="17" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="M288" s="21"/>
       <c r="N288" s="60"/>
@@ -23802,7 +23814,7 @@
         <v>693</v>
       </c>
       <c r="Q288" s="10" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="R288" s="10">
         <v>0</v>
@@ -23811,7 +23823,7 @@
         <v>917</v>
       </c>
       <c r="T288" s="10" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="U288" s="10" t="s">
         <v>1026</v>
@@ -23823,7 +23835,7 @@
         <v>648</v>
       </c>
       <c r="X288" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="289" spans="1:24" ht="96">
@@ -23837,23 +23849,23 @@
         <v>216</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E289" s="1">
         <v>10</v>
       </c>
       <c r="F289" s="67" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="G289" s="33"/>
       <c r="H289" s="33"/>
       <c r="I289" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J289" s="18"/>
       <c r="K289" s="17"/>
       <c r="L289" s="17" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="M289" s="21"/>
       <c r="N289" s="60"/>
@@ -23873,7 +23885,7 @@
         <v>918</v>
       </c>
       <c r="T289" s="10" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="U289" s="10" t="s">
         <v>1026</v>
@@ -23885,7 +23897,7 @@
         <v>650</v>
       </c>
       <c r="X289" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="290" spans="1:24" ht="96">
@@ -23899,7 +23911,7 @@
         <v>216</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E290" s="1">
         <v>15</v>
@@ -23908,12 +23920,12 @@
       <c r="G290" s="33"/>
       <c r="H290" s="33"/>
       <c r="I290" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J290" s="18"/>
       <c r="K290" s="17"/>
       <c r="L290" s="17" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="M290" s="21"/>
       <c r="N290" s="60"/>
@@ -23933,7 +23945,7 @@
         <v>919</v>
       </c>
       <c r="T290" s="10" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="U290" s="10" t="s">
         <v>1026</v>
@@ -23945,7 +23957,7 @@
         <v>652</v>
       </c>
       <c r="X290" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="291" spans="1:24" ht="96">
@@ -23959,23 +23971,23 @@
         <v>216</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="E291" s="1">
         <v>30</v>
       </c>
       <c r="F291" s="67" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="G291" s="33"/>
       <c r="H291" s="33"/>
       <c r="I291" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J291" s="18"/>
       <c r="K291" s="17"/>
       <c r="L291" s="17" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="M291" s="21"/>
       <c r="N291" s="60"/>
@@ -23986,7 +23998,7 @@
         <v>693</v>
       </c>
       <c r="Q291" s="10" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="R291" s="10">
         <v>0</v>
@@ -23995,7 +24007,7 @@
         <v>920</v>
       </c>
       <c r="T291" s="10" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="U291" s="10" t="s">
         <v>1026</v>
@@ -24007,7 +24019,7 @@
         <v>654</v>
       </c>
       <c r="X291" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="292" spans="1:24" ht="96">
@@ -24021,23 +24033,23 @@
         <v>216</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="E292" s="1">
         <v>15</v>
       </c>
       <c r="F292" s="67" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="G292" s="33"/>
       <c r="H292" s="33"/>
       <c r="I292" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J292" s="18"/>
       <c r="K292" s="17"/>
       <c r="L292" s="17" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="M292" s="21"/>
       <c r="N292" s="60"/>
@@ -24048,7 +24060,7 @@
         <v>693</v>
       </c>
       <c r="Q292" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="R292" s="10">
         <v>0</v>
@@ -24069,7 +24081,7 @@
         <v>656</v>
       </c>
       <c r="X292" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="293" spans="1:24" ht="96">
@@ -24083,23 +24095,23 @@
         <v>216</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E293" s="1">
         <v>0</v>
       </c>
       <c r="F293" s="67" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="G293" s="33"/>
       <c r="H293" s="33"/>
       <c r="I293" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J293" s="18"/>
       <c r="K293" s="17"/>
       <c r="L293" s="17" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="M293" s="21"/>
       <c r="N293" s="60"/>
@@ -24110,7 +24122,7 @@
         <v>693</v>
       </c>
       <c r="Q293" s="10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R293" s="10">
         <v>0</v>
@@ -24131,7 +24143,7 @@
         <v>658</v>
       </c>
       <c r="X293" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="294" spans="1:24" ht="96">
@@ -24145,23 +24157,23 @@
         <v>216</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E294" s="1">
         <v>0</v>
       </c>
       <c r="F294" s="67" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="G294" s="33"/>
       <c r="H294" s="33"/>
       <c r="I294" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J294" s="18"/>
       <c r="K294" s="17"/>
       <c r="L294" s="17" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="M294" s="21"/>
       <c r="N294" s="60"/>
@@ -24172,7 +24184,7 @@
         <v>693</v>
       </c>
       <c r="Q294" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="R294" s="10">
         <v>0</v>
@@ -24193,7 +24205,7 @@
         <v>660</v>
       </c>
       <c r="X294" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="295" spans="1:24" ht="72">
@@ -24241,7 +24253,7 @@
         <v>662</v>
       </c>
       <c r="X295" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="296" spans="1:24" ht="180">
@@ -24262,7 +24274,7 @@
       <c r="I296" s="32"/>
       <c r="J296" s="18"/>
       <c r="K296" s="17" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L296" s="17"/>
       <c r="M296" s="21"/>
@@ -24274,7 +24286,7 @@
         <v>693</v>
       </c>
       <c r="Q296" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="R296" s="10">
         <v>0</v>
@@ -24289,7 +24301,7 @@
         <v>664</v>
       </c>
       <c r="X296" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="297" spans="1:24" ht="96">
@@ -24303,23 +24315,23 @@
         <v>216</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="E297" s="1">
         <v>15</v>
       </c>
       <c r="F297" s="67" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="G297" s="33"/>
       <c r="H297" s="33"/>
       <c r="I297" s="32" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="J297" s="18"/>
       <c r="K297" s="17"/>
       <c r="L297" s="17" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="M297" s="21"/>
       <c r="N297" s="60"/>
@@ -24339,7 +24351,7 @@
         <v>927</v>
       </c>
       <c r="T297" s="10" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="U297" s="10" t="s">
         <v>1026</v>
@@ -24351,7 +24363,7 @@
         <v>666</v>
       </c>
       <c r="X297" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="298" spans="1:24" ht="84">
@@ -24365,13 +24377,13 @@
         <v>1000</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E298" s="1">
         <v>10</v>
       </c>
       <c r="F298" s="67" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="G298" s="33"/>
       <c r="H298" s="33"/>
@@ -24380,7 +24392,7 @@
       <c r="K298" s="17"/>
       <c r="L298" s="17"/>
       <c r="M298" s="21" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="N298" s="60"/>
       <c r="O298" s="1" t="s">
@@ -24397,7 +24409,7 @@
       </c>
       <c r="S298" s="10"/>
       <c r="T298" s="10" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="U298" s="10"/>
       <c r="V298" s="1">
@@ -24407,7 +24419,7 @@
         <v>668</v>
       </c>
       <c r="X298" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="299" spans="1:24" ht="48">
@@ -24459,7 +24471,7 @@
         <v>1004</v>
       </c>
       <c r="X299" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="300" spans="1:24" ht="24">
@@ -24467,16 +24479,16 @@
         <v>55000341</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="67"/>
       <c r="G300" s="33" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H300" s="33"/>
       <c r="I300" s="32"/>
@@ -24492,13 +24504,13 @@
         <v>693</v>
       </c>
       <c r="Q300" s="10" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="R300" s="10">
         <v>0</v>
       </c>
       <c r="S300" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="T300" s="1"/>
       <c r="U300" s="1"/>
@@ -24506,10 +24518,10 @@
         <v>8</v>
       </c>
       <c r="W300" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="X300" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="301" spans="1:24" ht="144">
@@ -24517,22 +24529,22 @@
         <v>55000342</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C301" s="36" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D301" s="28" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="E301" s="36">
         <v>10</v>
       </c>
       <c r="F301" s="68" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G301" s="33" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="H301" s="37"/>
       <c r="I301" s="50"/>
@@ -24545,10 +24557,10 @@
         <v>698</v>
       </c>
       <c r="P301" s="44" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Q301" s="16" t="s">
         <v>1226</v>
-      </c>
-      <c r="Q301" s="16" t="s">
-        <v>1227</v>
       </c>
       <c r="R301" s="36">
         <v>0</v>
@@ -24562,10 +24574,10 @@
         <v>4</v>
       </c>
       <c r="W301" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="X301" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="302" spans="1:24" ht="144">
@@ -24573,22 +24585,22 @@
         <v>55000343</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C302" s="36" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D302" s="28" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="E302" s="36">
         <v>10</v>
       </c>
       <c r="F302" s="68" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="G302" s="33" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="H302" s="37"/>
       <c r="I302" s="38"/>
@@ -24601,10 +24613,10 @@
         <v>698</v>
       </c>
       <c r="P302" s="44" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Q302" s="16" t="s">
         <v>1226</v>
-      </c>
-      <c r="Q302" s="16" t="s">
-        <v>1227</v>
       </c>
       <c r="R302" s="36">
         <v>0</v>
@@ -24618,15 +24630,15 @@
         <v>6</v>
       </c>
       <c r="W302" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="X302" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="303" spans="1:24" ht="36">
       <c r="A303" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B303" s="11" t="s">
         <v>129</v>
@@ -24643,7 +24655,7 @@
       <c r="J303" s="30"/>
       <c r="K303" s="35"/>
       <c r="L303" s="17" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="M303" s="21"/>
       <c r="N303" s="66"/>
@@ -24669,7 +24681,7 @@
         <v>130</v>
       </c>
       <c r="X303" s="53" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="304" spans="1:24" ht="108">
@@ -24677,13 +24689,13 @@
         <v>55000344</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="C304" s="28" t="s">
         <v>216</v>
       </c>
       <c r="D304" s="28" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="E304" s="28">
         <v>15</v>
@@ -24696,7 +24708,7 @@
       <c r="K304" s="35"/>
       <c r="L304" s="17"/>
       <c r="M304" s="21" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="N304" s="60">
         <v>1</v>
@@ -24708,7 +24720,7 @@
         <v>693</v>
       </c>
       <c r="Q304" s="16" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="R304" s="28">
         <v>0</v>
@@ -24717,7 +24729,7 @@
         <v>918</v>
       </c>
       <c r="T304" s="10" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="U304" s="10" t="s">
         <v>1026</v>
@@ -24726,7 +24738,7 @@
         <v>40</v>
       </c>
       <c r="W304" s="28" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="X304" s="28"/>
     </row>
@@ -24779,13 +24791,13 @@
         <v>688</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>704</v>
@@ -24809,7 +24821,7 @@
         <v>939</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>697</v>
@@ -24827,7 +24839,7 @@
         <v>999</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>1018</v>
@@ -24839,7 +24851,7 @@
         <v>690</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -24853,13 +24865,13 @@
         <v>680</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1029</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1027</v>
@@ -24877,13 +24889,13 @@
         <v>995</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>896</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>696</v>
@@ -24927,16 +24939,16 @@
         <v>683</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1007</v>
@@ -24957,7 +24969,7 @@
         <v>940</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>699</v>
@@ -24975,7 +24987,7 @@
         <v>943</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>1016</v>
@@ -24987,7 +24999,7 @@
         <v>685</v>
       </c>
       <c r="X3" s="54" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="84">
@@ -25004,7 +25016,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="33" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H4" s="33"/>
       <c r="I4" s="32"/>
@@ -25020,7 +25032,7 @@
         <v>695</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -25035,7 +25047,7 @@
         <v>675</v>
       </c>
       <c r="X4" s="55" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="84">
@@ -25083,7 +25095,7 @@
         <v>675</v>
       </c>
       <c r="X5" s="55" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
   </sheetData>
@@ -25135,13 +25147,13 @@
         <v>688</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>704</v>
@@ -25165,7 +25177,7 @@
         <v>939</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>697</v>
@@ -25183,7 +25195,7 @@
         <v>999</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>1018</v>
@@ -25195,7 +25207,7 @@
         <v>690</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -25209,13 +25221,13 @@
         <v>680</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1029</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1005</v>
@@ -25233,13 +25245,13 @@
         <v>995</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>896</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>696</v>
@@ -25283,16 +25295,16 @@
         <v>683</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1007</v>
@@ -25313,7 +25325,7 @@
         <v>940</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>699</v>
@@ -25331,7 +25343,7 @@
         <v>943</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>1016</v>
@@ -25343,7 +25355,7 @@
         <v>685</v>
       </c>
       <c r="X3" s="54" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="36">
@@ -25362,7 +25374,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="32" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="17" t="s">
@@ -25378,7 +25390,7 @@
         <v>693</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="R4" s="10">
         <v>0</v>
@@ -25393,7 +25405,7 @@
         <v>45</v>
       </c>
       <c r="X4" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="36">
@@ -25428,7 +25440,7 @@
         <v>693</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -25443,7 +25455,7 @@
         <v>47</v>
       </c>
       <c r="X5" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="36">
@@ -25478,7 +25490,7 @@
         <v>693</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -25493,7 +25505,7 @@
         <v>49</v>
       </c>
       <c r="X6" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="36">
@@ -25528,7 +25540,7 @@
         <v>693</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -25543,7 +25555,7 @@
         <v>51</v>
       </c>
       <c r="X7" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="36">
@@ -25578,7 +25590,7 @@
         <v>693</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -25593,7 +25605,7 @@
         <v>53</v>
       </c>
       <c r="X8" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="36">
@@ -25628,7 +25640,7 @@
         <v>693</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -25643,7 +25655,7 @@
         <v>55</v>
       </c>
       <c r="X9" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="36">
@@ -25678,7 +25690,7 @@
         <v>693</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -25693,7 +25705,7 @@
         <v>57</v>
       </c>
       <c r="X10" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="36">
@@ -25728,7 +25740,7 @@
         <v>693</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -25743,7 +25755,7 @@
         <v>59</v>
       </c>
       <c r="X11" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="36">
@@ -25793,7 +25805,7 @@
         <v>114</v>
       </c>
       <c r="X12" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="36">
@@ -25843,7 +25855,7 @@
         <v>116</v>
       </c>
       <c r="X13" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="36">
@@ -25893,7 +25905,7 @@
         <v>118</v>
       </c>
       <c r="X14" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="36">
@@ -25943,7 +25955,7 @@
         <v>120</v>
       </c>
       <c r="X15" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="36">
@@ -25993,7 +26005,7 @@
         <v>122</v>
       </c>
       <c r="X16" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="36">
@@ -26043,7 +26055,7 @@
         <v>124</v>
       </c>
       <c r="X17" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="36">
@@ -26093,7 +26105,7 @@
         <v>126</v>
       </c>
       <c r="X18" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="36">
@@ -26143,7 +26155,7 @@
         <v>128</v>
       </c>
       <c r="X19" s="55" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
   </sheetData>
@@ -26204,7 +26216,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -26252,7 +26264,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -26300,7 +26312,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -26348,7 +26360,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -26396,7 +26408,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -26444,7 +26456,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -26492,7 +26504,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -26540,7 +26552,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -26588,45 +26600,45 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B11" t="s">
         <v>1054</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B12" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E12" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B13" t="s">
         <v>1057</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B14" t="s">
         <v>1060</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B15">
         <v>300</v>
@@ -26634,7 +26646,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B16">
         <v>5000</v>
@@ -26642,7 +26654,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B17" s="26">
         <v>0.2</v>
@@ -26650,7 +26662,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B18" s="26">
         <v>0.1</v>
@@ -26658,7 +26670,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B19" s="26">
         <v>0.3</v>
@@ -26666,13 +26678,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B20" t="s">
         <v>1073</v>
       </c>
-      <c r="B20" t="s">
-        <v>1074</v>
-      </c>
       <c r="D20" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -26680,31 +26692,31 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>1083</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B22" t="s">
         <v>1079</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B23" t="s">
         <v>1081</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -26712,7 +26724,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -26720,7 +26732,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B26" s="26">
         <v>0.2</v>
@@ -26728,7 +26740,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B32">
         <v>800</v>
@@ -26736,7 +26748,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B33">
         <v>500</v>
@@ -26761,12 +26773,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:1">

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3112" uniqueCount="1503">
   <si>
     <t>夜色</t>
   </si>
@@ -3415,10 +3415,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>击中目标后将其传到随机邻道中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>传送</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4898,10 +4894,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>d.SetToPosition("around");</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>s.AddHpRate(0.02);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5288,262 +5280,282 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>NAR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.AddHp(30);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.ExtendDebuff(2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).SortDistance(true).Top(1)) mon.SetToPosition("side");</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) mon.AddHp(100);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.5);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.7);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.6);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(o.MaxHp*0.12);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) s.AddBuff(56000001,lv,2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.ClearDebuff();</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).SortDistance(true).Top(1)) mon.OnMagicDamage(100,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).SortDistance(true).Top(1)) mon.OnMagicDamage(100,0);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标判定</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointSelf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向自己</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Owner.AddMana(s,1,1);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合回复召唤师1点MP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55000060|FightQuick</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yanzhen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎阵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) if(s.Id!=o.Id) o.AddHp(-s.Atk*0.3);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中目标后对1.5卡片距离敌人造成30%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Summon(5,51013000);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自身四周各召唤一个粉球</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮王</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiwang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Atk*=s.Owner.GetCardNumber();</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始攻击附加手牌数的倍数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.AddBuff(56000016,lv,3);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>NAR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.AddHp(30);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NER</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.ExtendDebuff(2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).SortDistance(true).Top(1)) mon.SetToPosition("side");</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) mon.AddHp(100);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.5);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NER</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEV</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.7);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(-damage.Value*0.6);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEX</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) o.AddHp(o.MaxHp*0.12);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFL</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,d.Position)) s.AddBuff(56000001,lv,2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) o.ClearDebuff();</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAL</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).SortDistance(true).Top(1)) mon.OnMagicDamage(100,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).SortDistance(true).Top(1)) mon.OnMagicDamage(100,0);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标判定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PointSelf</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>指向自己</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Owner.AddMana(s,1,1);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合回复召唤师1点MP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>55000060|FightQuick</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>yanzhen</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>炎阵</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) if(s.Id!=o.Id) o.AddHp(-s.Atk*0.3);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中目标后对1.5卡片距离敌人造成30%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Summon(5,51013000);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在自身四周各召唤一个粉球</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮王</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shiwang</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Atk*=s.Owner.GetCardNumber();</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始攻击附加手牌数的倍数</t>
+    <t>foreach(IMonster o in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position)) if(o.Id!=s.Id)o.SetToPosition("rand");</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤时将范围内的所有目标传到随机位置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9398,10 +9410,10 @@
   <dimension ref="A1:X303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="M102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A114" sqref="A114"/>
+      <selection pane="bottomRight" activeCell="X103" sqref="X103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9435,13 +9447,13 @@
         <v>684</v>
       </c>
       <c r="D1" s="69" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F1" s="69" t="s">
         <v>1470</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>1473</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>700</v>
@@ -9465,7 +9477,7 @@
         <v>933</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>693</v>
@@ -9477,16 +9489,16 @@
         <v>699</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>685</v>
@@ -9495,7 +9507,7 @@
         <v>686</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -9509,37 +9521,37 @@
         <v>676</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>1469</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1472</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>722</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>692</v>
@@ -9548,10 +9560,10 @@
         <v>688</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>676</v>
@@ -9560,7 +9572,7 @@
         <v>676</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>675</v>
@@ -9583,37 +9595,37 @@
         <v>679</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>1468</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>1471</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>723</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>857</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>695</v>
@@ -9622,19 +9634,19 @@
         <v>690</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>680</v>
@@ -9643,7 +9655,7 @@
         <v>681</v>
       </c>
       <c r="X3" s="54" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="36">
@@ -9666,7 +9678,7 @@
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="17" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="21"/>
@@ -9693,7 +9705,7 @@
         <v>2</v>
       </c>
       <c r="X4" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="48">
@@ -9726,7 +9738,7 @@
         <v>689</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="R5" s="52">
         <v>0</v>
@@ -9741,7 +9753,7 @@
         <v>5</v>
       </c>
       <c r="X5" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -9764,7 +9776,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="21" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="N6" s="60"/>
       <c r="O6" s="1" t="s">
@@ -9774,7 +9786,7 @@
         <v>689</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="R6" s="14">
         <v>0</v>
@@ -9789,7 +9801,7 @@
         <v>8</v>
       </c>
       <c r="X6" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="36">
@@ -9839,7 +9851,7 @@
         <v>11</v>
       </c>
       <c r="X7" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="36">
@@ -9889,7 +9901,7 @@
         <v>13</v>
       </c>
       <c r="X8" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="36">
@@ -9939,7 +9951,7 @@
         <v>15</v>
       </c>
       <c r="X9" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="36">
@@ -9989,7 +10001,7 @@
         <v>17</v>
       </c>
       <c r="X10" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="36">
@@ -10039,7 +10051,7 @@
         <v>19</v>
       </c>
       <c r="X11" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="36">
@@ -10089,7 +10101,7 @@
         <v>21</v>
       </c>
       <c r="X12" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="36">
@@ -10139,7 +10151,7 @@
         <v>23</v>
       </c>
       <c r="X13" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="36">
@@ -10189,7 +10201,7 @@
         <v>25</v>
       </c>
       <c r="X14" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="36">
@@ -10239,7 +10251,7 @@
         <v>27</v>
       </c>
       <c r="X15" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="36">
@@ -10289,7 +10301,7 @@
         <v>29</v>
       </c>
       <c r="X16" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="36">
@@ -10339,7 +10351,7 @@
         <v>31</v>
       </c>
       <c r="X17" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="36">
@@ -10389,7 +10401,7 @@
         <v>33</v>
       </c>
       <c r="X18" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="36">
@@ -10439,7 +10451,7 @@
         <v>35</v>
       </c>
       <c r="X19" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="36">
@@ -10489,7 +10501,7 @@
         <v>37</v>
       </c>
       <c r="X20" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="36">
@@ -10539,7 +10551,7 @@
         <v>39</v>
       </c>
       <c r="X21" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="36">
@@ -10589,7 +10601,7 @@
         <v>41</v>
       </c>
       <c r="X22" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="48">
@@ -10612,7 +10624,7 @@
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="17" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="21"/>
@@ -10624,7 +10636,7 @@
         <v>689</v>
       </c>
       <c r="Q23" s="15" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="R23" s="52">
         <v>0</v>
@@ -10639,7 +10651,7 @@
         <v>43</v>
       </c>
       <c r="X23" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="27">
@@ -10647,10 +10659,10 @@
         <v>55000021</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>1311</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>1312</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -10664,13 +10676,13 @@
       <c r="M24" s="48"/>
       <c r="N24" s="61"/>
       <c r="O24" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q24" s="15" t="s">
         <v>1313</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="Q24" s="15" t="s">
-        <v>1314</v>
       </c>
       <c r="R24" s="52">
         <v>0</v>
@@ -10682,10 +10694,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="X24" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="24">
@@ -10707,7 +10719,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="60"/>
@@ -10733,7 +10745,7 @@
         <v>62</v>
       </c>
       <c r="X25" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="36">
@@ -10774,7 +10786,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V26" s="1">
         <v>4</v>
@@ -10783,7 +10795,7 @@
         <v>65</v>
       </c>
       <c r="X26" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="24">
@@ -10802,7 +10814,7 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="17"/>
@@ -10833,7 +10845,7 @@
         <v>67</v>
       </c>
       <c r="X27" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="24">
@@ -10852,7 +10864,7 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J28" s="18"/>
       <c r="K28" s="17"/>
@@ -10883,7 +10895,7 @@
         <v>69</v>
       </c>
       <c r="X28" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -10894,7 +10906,7 @@
         <v>665</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -10914,7 +10926,7 @@
         <v>689</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="R29" s="14">
         <v>0</v>
@@ -10931,7 +10943,7 @@
         <v>667</v>
       </c>
       <c r="X29" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="48">
@@ -10964,7 +10976,7 @@
         <v>689</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="R30" s="14">
         <v>0</v>
@@ -10979,7 +10991,7 @@
         <v>71</v>
       </c>
       <c r="X30" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="24">
@@ -11001,7 +11013,7 @@
       <c r="J31" s="18"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="60"/>
@@ -11027,7 +11039,7 @@
         <v>74</v>
       </c>
       <c r="X31" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="36">
@@ -11046,7 +11058,7 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="32" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="J32" s="18"/>
       <c r="K32" s="17" t="s">
@@ -11062,7 +11074,7 @@
         <v>689</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="R32" s="10">
         <v>0</v>
@@ -11077,7 +11089,7 @@
         <v>77</v>
       </c>
       <c r="X32" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="48">
@@ -11098,7 +11110,7 @@
       <c r="I33" s="32"/>
       <c r="J33" s="18"/>
       <c r="K33" s="17" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="21"/>
@@ -11110,7 +11122,7 @@
         <v>689</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="R33" s="10">
         <v>0</v>
@@ -11125,7 +11137,7 @@
         <v>79</v>
       </c>
       <c r="X33" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="36">
@@ -11146,7 +11158,7 @@
       <c r="I34" s="32"/>
       <c r="J34" s="18"/>
       <c r="K34" s="17" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="21"/>
@@ -11158,7 +11170,7 @@
         <v>689</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="R34" s="10">
         <v>0</v>
@@ -11173,7 +11185,7 @@
         <v>81</v>
       </c>
       <c r="X34" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="36">
@@ -11194,7 +11206,7 @@
       <c r="I35" s="32"/>
       <c r="J35" s="18"/>
       <c r="K35" s="17" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="21"/>
@@ -11206,7 +11218,7 @@
         <v>689</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="R35" s="10">
         <v>0</v>
@@ -11221,7 +11233,7 @@
         <v>83</v>
       </c>
       <c r="X35" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="36">
@@ -11242,7 +11254,7 @@
       <c r="I36" s="32"/>
       <c r="J36" s="18"/>
       <c r="K36" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="21"/>
@@ -11254,7 +11266,7 @@
         <v>689</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R36" s="10">
         <v>0</v>
@@ -11269,7 +11281,7 @@
         <v>85</v>
       </c>
       <c r="X36" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="36">
@@ -11312,7 +11324,7 @@
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V37" s="1">
         <v>20</v>
@@ -11321,7 +11333,7 @@
         <v>89</v>
       </c>
       <c r="X37" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="48">
@@ -11344,7 +11356,7 @@
       </c>
       <c r="J38" s="18"/>
       <c r="K38" s="17" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="21"/>
@@ -11356,7 +11368,7 @@
         <v>689</v>
       </c>
       <c r="Q38" s="15" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="R38" s="15">
         <v>0</v>
@@ -11371,7 +11383,7 @@
         <v>91</v>
       </c>
       <c r="X38" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="24">
@@ -11393,7 +11405,7 @@
       <c r="J39" s="18"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="60"/>
@@ -11419,7 +11431,7 @@
         <v>93</v>
       </c>
       <c r="X39" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="24">
@@ -11441,7 +11453,7 @@
       <c r="J40" s="18"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="M40" s="21"/>
       <c r="N40" s="60"/>
@@ -11467,7 +11479,7 @@
         <v>95</v>
       </c>
       <c r="X40" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="36">
@@ -11484,7 +11496,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="67"/>
       <c r="G41" s="33" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="32"/>
@@ -11494,13 +11506,13 @@
       <c r="M41" s="21"/>
       <c r="N41" s="60"/>
       <c r="O41" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="P41" s="9" t="s">
         <v>689</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R41" s="10">
         <v>0</v>
@@ -11515,7 +11527,7 @@
         <v>97</v>
       </c>
       <c r="X41" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="36">
@@ -11526,7 +11538,7 @@
         <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -11538,7 +11550,7 @@
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
       <c r="M42" s="21" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="N42" s="60"/>
       <c r="O42" s="1" t="s">
@@ -11548,7 +11560,7 @@
         <v>689</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="R42" s="10">
         <v>0</v>
@@ -11563,7 +11575,7 @@
         <v>99</v>
       </c>
       <c r="X42" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="36">
@@ -11582,7 +11594,7 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="32" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J43" s="18"/>
       <c r="K43" s="17" t="s">
@@ -11598,7 +11610,7 @@
         <v>689</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="R43" s="10">
         <v>0</v>
@@ -11613,7 +11625,7 @@
         <v>102</v>
       </c>
       <c r="X43" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="36">
@@ -11630,7 +11642,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="67"/>
       <c r="G44" s="33" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="H44" s="33"/>
       <c r="I44" s="32"/>
@@ -11646,7 +11658,7 @@
         <v>689</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="R44" s="10">
         <v>56000111</v>
@@ -11654,7 +11666,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V44" s="1">
         <v>3</v>
@@ -11663,7 +11675,7 @@
         <v>105</v>
       </c>
       <c r="X44" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="48">
@@ -11684,7 +11696,7 @@
       <c r="I45" s="32"/>
       <c r="J45" s="18"/>
       <c r="K45" s="17" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="L45" s="17"/>
       <c r="M45" s="21"/>
@@ -11696,7 +11708,7 @@
         <v>689</v>
       </c>
       <c r="Q45" s="15" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="R45" s="15">
         <v>0</v>
@@ -11711,7 +11723,7 @@
         <v>107</v>
       </c>
       <c r="X45" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="48">
@@ -11734,7 +11746,7 @@
       </c>
       <c r="J46" s="18"/>
       <c r="K46" s="17" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="21"/>
@@ -11746,7 +11758,7 @@
         <v>689</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="R46" s="10">
         <v>0</v>
@@ -11761,7 +11773,7 @@
         <v>109</v>
       </c>
       <c r="X46" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -11809,7 +11821,7 @@
         <v>112</v>
       </c>
       <c r="X47" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="36">
@@ -11828,7 +11840,7 @@
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
       <c r="I48" s="32" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="J48" s="18"/>
       <c r="K48" s="17" t="s">
@@ -11844,7 +11856,7 @@
         <v>689</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="R48" s="10">
         <v>0</v>
@@ -11859,7 +11871,7 @@
         <v>132</v>
       </c>
       <c r="X48" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="24">
@@ -11881,7 +11893,7 @@
       <c r="J49" s="18"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="M49" s="21"/>
       <c r="N49" s="60"/>
@@ -11907,7 +11919,7 @@
         <v>134</v>
       </c>
       <c r="X49" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="36">
@@ -11957,7 +11969,7 @@
         <v>137</v>
       </c>
       <c r="X50" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="72">
@@ -11974,10 +11986,10 @@
       <c r="E51" s="1"/>
       <c r="F51" s="67"/>
       <c r="G51" s="33" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H51" s="33" t="s">
         <v>1293</v>
-      </c>
-      <c r="H51" s="33" t="s">
-        <v>1294</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="18"/>
@@ -11992,7 +12004,7 @@
         <v>689</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="R51" s="10">
         <v>0</v>
@@ -12000,7 +12012,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V51" s="1">
         <v>5</v>
@@ -12009,7 +12021,7 @@
         <v>139</v>
       </c>
       <c r="X51" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="48">
@@ -12028,7 +12040,7 @@
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
       <c r="I52" s="32" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J52" s="18"/>
       <c r="K52" s="17" t="s">
@@ -12059,7 +12071,7 @@
         <v>141</v>
       </c>
       <c r="X52" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="48">
@@ -12078,7 +12090,7 @@
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
       <c r="I53" s="32" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="J53" s="18"/>
       <c r="K53" s="17" t="s">
@@ -12109,7 +12121,7 @@
         <v>143</v>
       </c>
       <c r="X53" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="48">
@@ -12128,7 +12140,7 @@
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
       <c r="I54" s="32" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="J54" s="18"/>
       <c r="K54" s="17" t="s">
@@ -12159,7 +12171,7 @@
         <v>145</v>
       </c>
       <c r="X54" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="48">
@@ -12178,7 +12190,7 @@
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
       <c r="I55" s="32" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="J55" s="18"/>
       <c r="K55" s="17" t="s">
@@ -12209,7 +12221,7 @@
         <v>147</v>
       </c>
       <c r="X55" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="48">
@@ -12228,7 +12240,7 @@
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
       <c r="I56" s="32" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="J56" s="18"/>
       <c r="K56" s="17" t="s">
@@ -12259,7 +12271,7 @@
         <v>149</v>
       </c>
       <c r="X56" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="48">
@@ -12278,7 +12290,7 @@
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
       <c r="I57" s="32" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="J57" s="18"/>
       <c r="K57" s="17" t="s">
@@ -12309,7 +12321,7 @@
         <v>151</v>
       </c>
       <c r="X57" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="48">
@@ -12328,7 +12340,7 @@
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
       <c r="I58" s="32" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="J58" s="18"/>
       <c r="K58" s="17" t="s">
@@ -12359,7 +12371,7 @@
         <v>153</v>
       </c>
       <c r="X58" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="48">
@@ -12378,7 +12390,7 @@
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
       <c r="I59" s="32" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="J59" s="18"/>
       <c r="K59" s="17" t="s">
@@ -12409,7 +12421,7 @@
         <v>155</v>
       </c>
       <c r="X59" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="36">
@@ -12444,7 +12456,7 @@
         <v>689</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="R60" s="10">
         <v>0</v>
@@ -12459,7 +12471,7 @@
         <v>157</v>
       </c>
       <c r="X60" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="24">
@@ -12507,7 +12519,7 @@
         <v>159</v>
       </c>
       <c r="X61" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="120">
@@ -12559,7 +12571,7 @@
         <v>164</v>
       </c>
       <c r="X62" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="24">
@@ -12607,7 +12619,7 @@
         <v>167</v>
       </c>
       <c r="X63" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="36">
@@ -12628,10 +12640,10 @@
       <c r="I64" s="32"/>
       <c r="J64" s="18"/>
       <c r="K64" s="17" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="L64" s="17" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="M64" s="21"/>
       <c r="N64" s="60"/>
@@ -12657,7 +12669,7 @@
         <v>169</v>
       </c>
       <c r="X64" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="24">
@@ -12705,7 +12717,7 @@
         <v>171</v>
       </c>
       <c r="X65" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="24">
@@ -12755,7 +12767,7 @@
         <v>174</v>
       </c>
       <c r="X66" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="24">
@@ -12805,7 +12817,7 @@
         <v>177</v>
       </c>
       <c r="X67" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="24">
@@ -12853,7 +12865,7 @@
         <v>180</v>
       </c>
       <c r="X68" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="24">
@@ -12877,7 +12889,7 @@
       <c r="J69" s="18"/>
       <c r="K69" s="17"/>
       <c r="L69" s="17" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="M69" s="21"/>
       <c r="N69" s="60"/>
@@ -12888,7 +12900,7 @@
         <v>689</v>
       </c>
       <c r="Q69" s="10" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="R69" s="10">
         <v>0</v>
@@ -12903,7 +12915,7 @@
         <v>182</v>
       </c>
       <c r="X69" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="48">
@@ -12914,7 +12926,7 @@
         <v>183</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -12926,7 +12938,7 @@
       <c r="K70" s="17"/>
       <c r="L70" s="22"/>
       <c r="M70" s="21" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="N70" s="60"/>
       <c r="O70" s="1" t="s">
@@ -12946,7 +12958,7 @@
       </c>
       <c r="T70" s="1"/>
       <c r="U70" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V70" s="1">
         <v>15</v>
@@ -12955,7 +12967,7 @@
         <v>186</v>
       </c>
       <c r="X70" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="156">
@@ -12966,19 +12978,19 @@
         <v>187</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="E71" s="1">
         <v>40</v>
       </c>
       <c r="F71" s="67" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="G71" s="33" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="H71" s="33"/>
       <c r="I71" s="32"/>
@@ -12994,7 +13006,7 @@
         <v>689</v>
       </c>
       <c r="Q71" s="10" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="R71" s="10">
         <v>0</v>
@@ -13006,7 +13018,7 @@
         <v>474</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V71" s="1">
         <v>35</v>
@@ -13036,7 +13048,7 @@
       </c>
       <c r="J72" s="18"/>
       <c r="K72" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="L72" s="17"/>
       <c r="M72" s="21"/>
@@ -13048,7 +13060,7 @@
         <v>689</v>
       </c>
       <c r="Q72" s="10" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="R72" s="10">
         <v>0</v>
@@ -13063,7 +13075,7 @@
         <v>190</v>
       </c>
       <c r="X72" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="36">
@@ -13113,7 +13125,7 @@
         <v>192</v>
       </c>
       <c r="X73" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="24">
@@ -13135,7 +13147,7 @@
       <c r="J74" s="18"/>
       <c r="K74" s="17"/>
       <c r="L74" s="17" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="M74" s="21"/>
       <c r="N74" s="60"/>
@@ -13161,7 +13173,7 @@
         <v>194</v>
       </c>
       <c r="X74" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="24">
@@ -13183,7 +13195,7 @@
       <c r="J75" s="18"/>
       <c r="K75" s="17"/>
       <c r="L75" s="17" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="M75" s="21"/>
       <c r="N75" s="60"/>
@@ -13209,7 +13221,7 @@
         <v>196</v>
       </c>
       <c r="X75" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="24">
@@ -13231,7 +13243,7 @@
       <c r="J76" s="18"/>
       <c r="K76" s="17"/>
       <c r="L76" s="17" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="M76" s="21"/>
       <c r="N76" s="60"/>
@@ -13242,7 +13254,7 @@
         <v>689</v>
       </c>
       <c r="Q76" s="10" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="R76" s="10">
         <v>0</v>
@@ -13257,7 +13269,7 @@
         <v>198</v>
       </c>
       <c r="X76" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="48">
@@ -13274,7 +13286,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="67"/>
       <c r="G77" s="33" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="H77" s="33"/>
       <c r="I77" s="32"/>
@@ -13305,7 +13317,7 @@
         <v>201</v>
       </c>
       <c r="X77" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="24">
@@ -13327,7 +13339,7 @@
       <c r="J78" s="18"/>
       <c r="K78" s="17"/>
       <c r="L78" s="17" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="M78" s="21"/>
       <c r="N78" s="60"/>
@@ -13353,7 +13365,7 @@
         <v>203</v>
       </c>
       <c r="X78" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="36">
@@ -13364,7 +13376,7 @@
         <v>184</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -13376,7 +13388,7 @@
       <c r="K79" s="17"/>
       <c r="L79" s="22"/>
       <c r="M79" s="19" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="N79" s="63"/>
       <c r="O79" s="1" t="s">
@@ -13392,11 +13404,11 @@
         <v>0</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="T79" s="1"/>
       <c r="U79" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V79" s="1">
         <v>5</v>
@@ -13405,7 +13417,7 @@
         <v>204</v>
       </c>
       <c r="X79" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="24">
@@ -13427,7 +13439,7 @@
       <c r="J80" s="18"/>
       <c r="K80" s="17"/>
       <c r="L80" s="17" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="M80" s="21"/>
       <c r="N80" s="60"/>
@@ -13438,7 +13450,7 @@
         <v>689</v>
       </c>
       <c r="Q80" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="R80" s="10">
         <v>0</v>
@@ -13453,7 +13465,7 @@
         <v>206</v>
       </c>
       <c r="X80" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="24">
@@ -13475,7 +13487,7 @@
       <c r="J81" s="18"/>
       <c r="K81" s="17"/>
       <c r="L81" s="17" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="M81" s="21"/>
       <c r="N81" s="60"/>
@@ -13501,7 +13513,7 @@
         <v>208</v>
       </c>
       <c r="X81" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="24">
@@ -13523,7 +13535,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="17"/>
       <c r="L82" s="17" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="M82" s="21"/>
       <c r="N82" s="60"/>
@@ -13549,7 +13561,7 @@
         <v>210</v>
       </c>
       <c r="X82" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="84">
@@ -13570,7 +13582,7 @@
       <c r="I83" s="32"/>
       <c r="J83" s="18"/>
       <c r="K83" s="17" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L83" s="17"/>
       <c r="M83" s="21"/>
@@ -13582,7 +13594,7 @@
         <v>689</v>
       </c>
       <c r="Q83" s="15" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="R83" s="15">
         <v>0</v>
@@ -13597,7 +13609,7 @@
         <v>212</v>
       </c>
       <c r="X83" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="48">
@@ -13614,7 +13626,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="67"/>
       <c r="G84" s="33" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="H84" s="33"/>
       <c r="I84" s="32"/>
@@ -13630,7 +13642,7 @@
         <v>689</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="R84" s="10">
         <v>56000101</v>
@@ -13638,7 +13650,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V84" s="1">
         <v>0</v>
@@ -13647,7 +13659,7 @@
         <v>214</v>
       </c>
       <c r="X84" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="96">
@@ -13661,23 +13673,23 @@
         <v>216</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E85" s="1">
         <v>20</v>
       </c>
       <c r="F85" s="67" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="G85" s="33"/>
       <c r="H85" s="33"/>
       <c r="I85" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J85" s="18"/>
       <c r="K85" s="17"/>
       <c r="L85" s="17" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="M85" s="21"/>
       <c r="N85" s="60"/>
@@ -13688,7 +13700,7 @@
         <v>689</v>
       </c>
       <c r="Q85" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="R85" s="10">
         <v>0</v>
@@ -13697,10 +13709,10 @@
         <v>906</v>
       </c>
       <c r="T85" s="10" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="U85" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V85" s="1">
         <v>4</v>
@@ -13709,7 +13721,7 @@
         <v>217</v>
       </c>
       <c r="X85" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="36">
@@ -13726,7 +13738,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="67"/>
       <c r="G86" s="33" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H86" s="33"/>
       <c r="I86" s="32"/>
@@ -13757,7 +13769,7 @@
         <v>220</v>
       </c>
       <c r="X86" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="36">
@@ -13809,7 +13821,7 @@
         <v>223</v>
       </c>
       <c r="X87" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -13832,7 +13844,7 @@
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
       <c r="M88" s="21" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="N88" s="60"/>
       <c r="O88" s="1" t="s">
@@ -13842,7 +13854,7 @@
         <v>689</v>
       </c>
       <c r="Q88" s="10" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="R88" s="10">
         <v>0</v>
@@ -13857,7 +13869,7 @@
         <v>225</v>
       </c>
       <c r="X88" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -13880,7 +13892,7 @@
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
       <c r="M89" s="21" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="N89" s="60"/>
       <c r="O89" s="1" t="s">
@@ -13890,7 +13902,7 @@
         <v>689</v>
       </c>
       <c r="Q89" s="10" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="R89" s="10">
         <v>0</v>
@@ -13905,7 +13917,7 @@
         <v>227</v>
       </c>
       <c r="X89" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -13936,7 +13948,7 @@
         <v>689</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="R90" s="1">
         <v>0</v>
@@ -13951,7 +13963,7 @@
         <v>229</v>
       </c>
       <c r="X90" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="36">
@@ -14001,7 +14013,7 @@
         <v>231</v>
       </c>
       <c r="X91" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="96">
@@ -14015,23 +14027,23 @@
         <v>216</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E92" s="1">
         <v>10</v>
       </c>
       <c r="F92" s="67" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
       <c r="I92" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J92" s="18"/>
       <c r="K92" s="17"/>
       <c r="L92" s="17" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="M92" s="21"/>
       <c r="N92" s="60"/>
@@ -14051,10 +14063,10 @@
         <v>908</v>
       </c>
       <c r="T92" s="10" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="U92" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V92" s="1">
         <v>2</v>
@@ -14063,7 +14075,7 @@
         <v>233</v>
       </c>
       <c r="X92" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="48">
@@ -14086,7 +14098,7 @@
       </c>
       <c r="J93" s="18"/>
       <c r="K93" s="17" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L93" s="17"/>
       <c r="M93" s="21"/>
@@ -14098,7 +14110,7 @@
         <v>689</v>
       </c>
       <c r="Q93" s="10" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="R93" s="10">
         <v>0</v>
@@ -14113,7 +14125,7 @@
         <v>235</v>
       </c>
       <c r="X93" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="36">
@@ -14132,7 +14144,7 @@
       <c r="G94" s="33"/>
       <c r="H94" s="33"/>
       <c r="I94" s="32" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J94" s="18"/>
       <c r="K94" s="17" t="s">
@@ -14148,7 +14160,7 @@
         <v>689</v>
       </c>
       <c r="Q94" s="10" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="R94" s="10">
         <v>0</v>
@@ -14163,7 +14175,7 @@
         <v>237</v>
       </c>
       <c r="X94" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="48">
@@ -14180,7 +14192,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="67"/>
       <c r="G95" s="33" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="H95" s="33"/>
       <c r="I95" s="32"/>
@@ -14196,7 +14208,7 @@
         <v>689</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="R95" s="10">
         <v>56000101</v>
@@ -14204,7 +14216,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V95" s="1">
         <v>0</v>
@@ -14213,7 +14225,7 @@
         <v>239</v>
       </c>
       <c r="X95" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="36">
@@ -14261,7 +14273,7 @@
         <v>242</v>
       </c>
       <c r="X96" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="24">
@@ -14309,7 +14321,7 @@
         <v>245</v>
       </c>
       <c r="X97" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="36">
@@ -14361,7 +14373,7 @@
         <v>248</v>
       </c>
       <c r="X98" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="24">
@@ -14381,11 +14393,11 @@
       <c r="H99" s="33"/>
       <c r="I99" s="32"/>
       <c r="J99" s="18" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="K99" s="17"/>
       <c r="L99" s="17" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="M99" s="21"/>
       <c r="N99" s="60"/>
@@ -14396,7 +14408,7 @@
         <v>689</v>
       </c>
       <c r="Q99" s="10" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="R99" s="10">
         <v>0</v>
@@ -14411,7 +14423,7 @@
         <v>250</v>
       </c>
       <c r="X99" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="48">
@@ -14428,7 +14440,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="67"/>
       <c r="G100" s="33" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="H100" s="33"/>
       <c r="I100" s="32"/>
@@ -14444,7 +14456,7 @@
         <v>689</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="R100" s="10">
         <v>56000101</v>
@@ -14452,7 +14464,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V100" s="1">
         <v>1</v>
@@ -14461,7 +14473,7 @@
         <v>252</v>
       </c>
       <c r="X100" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="24">
@@ -14483,7 +14495,7 @@
       <c r="J101" s="18"/>
       <c r="K101" s="17"/>
       <c r="L101" s="17" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="M101" s="21"/>
       <c r="N101" s="60"/>
@@ -14494,7 +14506,7 @@
         <v>689</v>
       </c>
       <c r="Q101" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="R101" s="10">
         <v>0</v>
@@ -14509,7 +14521,7 @@
         <v>254</v>
       </c>
       <c r="X101" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="36">
@@ -14552,7 +14564,7 @@
       </c>
       <c r="T102" s="1"/>
       <c r="U102" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V102" s="1">
         <v>20</v>
@@ -14561,10 +14573,10 @@
         <v>256</v>
       </c>
       <c r="X102" s="53" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24" ht="24">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" ht="132">
       <c r="A103">
         <v>55000116</v>
       </c>
@@ -14574,17 +14586,23 @@
       <c r="C103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="33"/>
+      <c r="D103" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E103" s="1">
+        <v>20</v>
+      </c>
+      <c r="F103" s="67" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G103" s="33" t="s">
+        <v>1500</v>
+      </c>
       <c r="H103" s="33"/>
       <c r="I103" s="32"/>
       <c r="J103" s="18"/>
       <c r="K103" s="17"/>
-      <c r="L103" s="17" t="s">
-        <v>1326</v>
-      </c>
+      <c r="L103" s="17"/>
       <c r="M103" s="21"/>
       <c r="N103" s="60"/>
       <c r="O103" s="1" t="s">
@@ -14594,7 +14612,7 @@
         <v>689</v>
       </c>
       <c r="Q103" s="10" t="s">
-        <v>949</v>
+        <v>1501</v>
       </c>
       <c r="R103" s="10">
         <v>0</v>
@@ -14603,13 +14621,13 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
       <c r="V103" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="W103" s="1" t="s">
         <v>258</v>
       </c>
       <c r="X103" s="53" t="s">
-        <v>1397</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="60">
@@ -14659,7 +14677,7 @@
         <v>260</v>
       </c>
       <c r="X104" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="48">
@@ -14676,7 +14694,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="67"/>
       <c r="G105" s="33" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="H105" s="33"/>
       <c r="I105" s="32"/>
@@ -14692,7 +14710,7 @@
         <v>689</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="R105" s="10">
         <v>56000101</v>
@@ -14700,7 +14718,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V105" s="1">
         <v>0</v>
@@ -14709,7 +14727,7 @@
         <v>262</v>
       </c>
       <c r="X105" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="48">
@@ -14750,7 +14768,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V106" s="1">
         <v>7</v>
@@ -14759,7 +14777,7 @@
         <v>264</v>
       </c>
       <c r="X106" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="24">
@@ -14781,7 +14799,7 @@
       <c r="J107" s="18"/>
       <c r="K107" s="17"/>
       <c r="L107" s="17" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="M107" s="21"/>
       <c r="N107" s="60"/>
@@ -14792,7 +14810,7 @@
         <v>689</v>
       </c>
       <c r="Q107" s="10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="R107" s="10">
         <v>0</v>
@@ -14807,7 +14825,7 @@
         <v>266</v>
       </c>
       <c r="X107" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="24">
@@ -14859,7 +14877,7 @@
         <v>269</v>
       </c>
       <c r="X108" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="36">
@@ -14882,7 +14900,7 @@
       </c>
       <c r="J109" s="18"/>
       <c r="K109" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" s="21"/>
@@ -14894,7 +14912,7 @@
         <v>689</v>
       </c>
       <c r="Q109" s="10" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="R109" s="10">
         <v>0</v>
@@ -14909,7 +14927,7 @@
         <v>271</v>
       </c>
       <c r="X109" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="36">
@@ -14932,7 +14950,7 @@
       </c>
       <c r="J110" s="18"/>
       <c r="K110" s="17" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="L110" s="17"/>
       <c r="M110" s="21"/>
@@ -14944,7 +14962,7 @@
         <v>689</v>
       </c>
       <c r="Q110" s="15" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="R110" s="15">
         <v>0</v>
@@ -14959,7 +14977,7 @@
         <v>273</v>
       </c>
       <c r="X110" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="48">
@@ -14976,7 +14994,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="67"/>
       <c r="G111" s="33" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H111" s="33"/>
       <c r="I111" s="32"/>
@@ -14992,7 +15010,7 @@
         <v>689</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="R111" s="10">
         <v>56000101</v>
@@ -15000,7 +15018,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V111" s="1">
         <v>1</v>
@@ -15009,7 +15027,7 @@
         <v>275</v>
       </c>
       <c r="X111" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="36">
@@ -15057,7 +15075,7 @@
         <v>278</v>
       </c>
       <c r="X112" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="48">
@@ -15078,7 +15096,7 @@
       <c r="I113" s="32"/>
       <c r="J113" s="18"/>
       <c r="K113" s="17" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="L113" s="17"/>
       <c r="M113" s="21"/>
@@ -15090,7 +15108,7 @@
         <v>689</v>
       </c>
       <c r="Q113" s="10" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="R113" s="10">
         <v>0</v>
@@ -15105,7 +15123,7 @@
         <v>280</v>
       </c>
       <c r="X113" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="36">
@@ -15113,7 +15131,7 @@
         <v>55000127</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>1</v>
@@ -15122,7 +15140,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="67"/>
       <c r="G114" s="33" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="H114" s="33"/>
       <c r="I114" s="32"/>
@@ -15138,7 +15156,7 @@
         <v>689</v>
       </c>
       <c r="Q114" s="10" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="R114" s="10">
         <v>0</v>
@@ -15150,7 +15168,7 @@
         <v>80</v>
       </c>
       <c r="W114" s="1" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="X114" s="53"/>
     </row>
@@ -15184,7 +15202,7 @@
         <v>689</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="R115" s="1">
         <v>0</v>
@@ -15199,7 +15217,7 @@
         <v>282</v>
       </c>
       <c r="X115" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="116" spans="1:24" ht="24">
@@ -15232,7 +15250,7 @@
         <v>689</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="R116" s="1">
         <v>0</v>
@@ -15247,7 +15265,7 @@
         <v>284</v>
       </c>
       <c r="X116" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="24">
@@ -15269,7 +15287,7 @@
       <c r="J117" s="18"/>
       <c r="K117" s="17"/>
       <c r="L117" s="17" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="M117" s="21"/>
       <c r="N117" s="60"/>
@@ -15280,7 +15298,7 @@
         <v>689</v>
       </c>
       <c r="Q117" s="10" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R117" s="10">
         <v>0</v>
@@ -15295,7 +15313,7 @@
         <v>286</v>
       </c>
       <c r="X117" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="36">
@@ -15317,7 +15335,7 @@
       <c r="J118" s="18"/>
       <c r="K118" s="17"/>
       <c r="L118" s="17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="M118" s="21"/>
       <c r="N118" s="60"/>
@@ -15328,7 +15346,7 @@
         <v>689</v>
       </c>
       <c r="Q118" s="10" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="R118" s="10">
         <v>0</v>
@@ -15343,7 +15361,7 @@
         <v>288</v>
       </c>
       <c r="X118" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="120">
@@ -15357,16 +15375,16 @@
         <v>104</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E119" s="1">
         <v>20</v>
       </c>
       <c r="F119" s="67" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="G119" s="33" t="s">
-        <v>1435</v>
+        <v>1499</v>
       </c>
       <c r="H119" s="33"/>
       <c r="I119" s="29"/>
@@ -15382,7 +15400,7 @@
         <v>689</v>
       </c>
       <c r="Q119" s="10" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="R119" s="10">
         <v>56000016</v>
@@ -15399,7 +15417,7 @@
         <v>290</v>
       </c>
       <c r="X119" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="60">
@@ -15416,10 +15434,10 @@
       <c r="E120" s="1"/>
       <c r="F120" s="67"/>
       <c r="G120" s="33" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H120" s="33" t="s">
         <v>1308</v>
-      </c>
-      <c r="H120" s="33" t="s">
-        <v>1309</v>
       </c>
       <c r="I120" s="32"/>
       <c r="J120" s="18"/>
@@ -15434,7 +15452,7 @@
         <v>689</v>
       </c>
       <c r="Q120" s="10" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="R120" s="10">
         <v>0</v>
@@ -15449,7 +15467,7 @@
         <v>292</v>
       </c>
       <c r="X120" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="36">
@@ -15470,7 +15488,7 @@
       <c r="I121" s="32"/>
       <c r="J121" s="18"/>
       <c r="K121" s="17" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="L121" s="17"/>
       <c r="M121" s="21"/>
@@ -15482,7 +15500,7 @@
         <v>689</v>
       </c>
       <c r="Q121" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="R121" s="1">
         <v>0</v>
@@ -15497,7 +15515,7 @@
         <v>294</v>
       </c>
       <c r="X121" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="24">
@@ -15519,7 +15537,7 @@
       <c r="J122" s="18"/>
       <c r="K122" s="17"/>
       <c r="L122" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="M122" s="21"/>
       <c r="N122" s="60"/>
@@ -15545,7 +15563,7 @@
         <v>296</v>
       </c>
       <c r="X122" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="48">
@@ -15562,7 +15580,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="67"/>
       <c r="G123" s="33" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H123" s="33"/>
       <c r="I123" s="32"/>
@@ -15578,7 +15596,7 @@
         <v>689</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="R123" s="10">
         <v>56000101</v>
@@ -15586,7 +15604,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
       <c r="U123" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V123" s="1">
         <v>1</v>
@@ -15595,7 +15613,7 @@
         <v>298</v>
       </c>
       <c r="X123" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="36">
@@ -15643,7 +15661,7 @@
         <v>301</v>
       </c>
       <c r="X124" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="48">
@@ -15660,7 +15678,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="67"/>
       <c r="G125" s="33" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="H125" s="33"/>
       <c r="I125" s="32"/>
@@ -15676,7 +15694,7 @@
         <v>689</v>
       </c>
       <c r="Q125" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="R125" s="10">
         <v>56000101</v>
@@ -15684,7 +15702,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
       <c r="U125" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V125" s="1">
         <v>1</v>
@@ -15693,7 +15711,7 @@
         <v>303</v>
       </c>
       <c r="X125" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="48">
@@ -15710,7 +15728,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="67"/>
       <c r="G126" s="33" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="H126" s="33"/>
       <c r="I126" s="32"/>
@@ -15726,7 +15744,7 @@
         <v>689</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="R126" s="10">
         <v>56000101</v>
@@ -15734,7 +15752,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
       <c r="U126" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V126" s="1">
         <v>1</v>
@@ -15743,7 +15761,7 @@
         <v>305</v>
       </c>
       <c r="X126" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="48">
@@ -15760,7 +15778,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="67"/>
       <c r="G127" s="33" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="H127" s="33"/>
       <c r="I127" s="32"/>
@@ -15776,7 +15794,7 @@
         <v>689</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="R127" s="10">
         <v>56000101</v>
@@ -15784,7 +15802,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
       <c r="U127" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V127" s="1">
         <v>1</v>
@@ -15793,7 +15811,7 @@
         <v>307</v>
       </c>
       <c r="X127" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="36">
@@ -15841,7 +15859,7 @@
         <v>310</v>
       </c>
       <c r="X128" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="24">
@@ -15852,7 +15870,7 @@
         <v>311</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -15866,7 +15884,7 @@
       <c r="K129" s="17"/>
       <c r="L129" s="17"/>
       <c r="M129" s="21" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="N129" s="60"/>
       <c r="O129" s="1" t="s">
@@ -15893,7 +15911,7 @@
         <v>313</v>
       </c>
       <c r="X129" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="48">
@@ -15910,7 +15928,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="67"/>
       <c r="G130" s="33" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="H130" s="33"/>
       <c r="I130" s="32"/>
@@ -15926,7 +15944,7 @@
         <v>689</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="R130" s="10">
         <v>56000101</v>
@@ -15934,7 +15952,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
       <c r="U130" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V130" s="1">
         <v>1</v>
@@ -15943,7 +15961,7 @@
         <v>315</v>
       </c>
       <c r="X130" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="24">
@@ -15991,7 +16009,7 @@
         <v>318</v>
       </c>
       <c r="X131" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="48">
@@ -16008,7 +16026,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="67"/>
       <c r="G132" s="33" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H132" s="33"/>
       <c r="I132" s="32"/>
@@ -16024,7 +16042,7 @@
         <v>689</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="R132" s="10">
         <v>56000101</v>
@@ -16032,7 +16050,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
       <c r="U132" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V132" s="1">
         <v>1</v>
@@ -16041,7 +16059,7 @@
         <v>320</v>
       </c>
       <c r="X132" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="36">
@@ -16089,7 +16107,7 @@
         <v>323</v>
       </c>
       <c r="X133" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="48">
@@ -16106,7 +16124,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="67"/>
       <c r="G134" s="33" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H134" s="33"/>
       <c r="I134" s="32"/>
@@ -16122,7 +16140,7 @@
         <v>689</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="R134" s="10">
         <v>56000101</v>
@@ -16130,7 +16148,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
       <c r="U134" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V134" s="1">
         <v>1</v>
@@ -16139,7 +16157,7 @@
         <v>325</v>
       </c>
       <c r="X134" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="36">
@@ -16187,7 +16205,7 @@
         <v>328</v>
       </c>
       <c r="X135" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="24">
@@ -16204,7 +16222,7 @@
       <c r="E136" s="1"/>
       <c r="F136" s="67"/>
       <c r="G136" s="33" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H136" s="33"/>
       <c r="I136" s="32"/>
@@ -16220,7 +16238,7 @@
         <v>689</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="R136" s="1">
         <v>0</v>
@@ -16235,7 +16253,7 @@
         <v>330</v>
       </c>
       <c r="X136" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="36">
@@ -16252,7 +16270,7 @@
       <c r="E137" s="1"/>
       <c r="F137" s="67"/>
       <c r="G137" s="33" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="H137" s="33"/>
       <c r="I137" s="32"/>
@@ -16268,7 +16286,7 @@
         <v>689</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="R137" s="10">
         <v>56000015</v>
@@ -16276,7 +16294,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
       <c r="U137" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V137" s="1">
         <v>2</v>
@@ -16285,7 +16303,7 @@
         <v>332</v>
       </c>
       <c r="X137" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="24">
@@ -16296,7 +16314,7 @@
         <v>333</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -16308,7 +16326,7 @@
       <c r="K138" s="17"/>
       <c r="L138" s="22"/>
       <c r="M138" s="21" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="N138" s="60"/>
       <c r="O138" s="1" t="s">
@@ -16328,7 +16346,7 @@
       </c>
       <c r="T138" s="1"/>
       <c r="U138" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V138" s="1">
         <v>3</v>
@@ -16337,7 +16355,7 @@
         <v>334</v>
       </c>
       <c r="X138" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="48">
@@ -16354,7 +16372,7 @@
       <c r="E139" s="1"/>
       <c r="F139" s="67"/>
       <c r="G139" s="33" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="H139" s="33"/>
       <c r="I139" s="32"/>
@@ -16370,7 +16388,7 @@
         <v>689</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="R139" s="10">
         <v>56000121</v>
@@ -16378,7 +16396,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
       <c r="U139" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V139" s="1">
         <v>0</v>
@@ -16387,7 +16405,7 @@
         <v>336</v>
       </c>
       <c r="X139" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="24">
@@ -16409,7 +16427,7 @@
       <c r="J140" s="18"/>
       <c r="K140" s="17"/>
       <c r="L140" s="17" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="M140" s="21"/>
       <c r="N140" s="60"/>
@@ -16435,7 +16453,7 @@
         <v>339</v>
       </c>
       <c r="X140" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="24">
@@ -16457,7 +16475,7 @@
       <c r="J141" s="18"/>
       <c r="K141" s="17"/>
       <c r="L141" s="17" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="M141" s="21"/>
       <c r="N141" s="60"/>
@@ -16468,7 +16486,7 @@
         <v>689</v>
       </c>
       <c r="Q141" s="10" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="R141" s="10">
         <v>0</v>
@@ -16483,7 +16501,7 @@
         <v>342</v>
       </c>
       <c r="X141" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="24">
@@ -16505,7 +16523,7 @@
       <c r="J142" s="18"/>
       <c r="K142" s="17"/>
       <c r="L142" s="17" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="M142" s="21"/>
       <c r="N142" s="60"/>
@@ -16516,7 +16534,7 @@
         <v>689</v>
       </c>
       <c r="Q142" s="10" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="R142" s="10">
         <v>0</v>
@@ -16531,7 +16549,7 @@
         <v>344</v>
       </c>
       <c r="X142" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="36">
@@ -16553,7 +16571,7 @@
       <c r="J143" s="18"/>
       <c r="K143" s="17"/>
       <c r="L143" s="17" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="M143" s="21"/>
       <c r="N143" s="60"/>
@@ -16564,7 +16582,7 @@
         <v>689</v>
       </c>
       <c r="Q143" s="10" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="R143" s="10">
         <v>0</v>
@@ -16579,7 +16597,7 @@
         <v>346</v>
       </c>
       <c r="X143" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="24">
@@ -16629,7 +16647,7 @@
         <v>349</v>
       </c>
       <c r="X144" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="36">
@@ -16648,11 +16666,11 @@
       <c r="G145" s="33"/>
       <c r="H145" s="33"/>
       <c r="I145" s="32" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J145" s="18"/>
       <c r="K145" s="17" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="L145" s="17"/>
       <c r="M145" s="21"/>
@@ -16664,7 +16682,7 @@
         <v>689</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="R145" s="1">
         <v>0</v>
@@ -16679,7 +16697,7 @@
         <v>351</v>
       </c>
       <c r="X145" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="24">
@@ -16701,7 +16719,7 @@
       <c r="J146" s="18"/>
       <c r="K146" s="17"/>
       <c r="L146" s="17" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="M146" s="21"/>
       <c r="N146" s="60"/>
@@ -16712,7 +16730,7 @@
         <v>689</v>
       </c>
       <c r="Q146" s="10" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="R146" s="10">
         <v>0</v>
@@ -16727,7 +16745,7 @@
         <v>353</v>
       </c>
       <c r="X146" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="48">
@@ -16744,7 +16762,7 @@
       <c r="E147" s="1"/>
       <c r="F147" s="67"/>
       <c r="G147" s="33" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="H147" s="33"/>
       <c r="I147" s="32"/>
@@ -16760,7 +16778,7 @@
         <v>689</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="R147" s="10">
         <v>56000101</v>
@@ -16768,7 +16786,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
       <c r="U147" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V147" s="1">
         <v>0</v>
@@ -16777,7 +16795,7 @@
         <v>355</v>
       </c>
       <c r="X147" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="48">
@@ -16794,7 +16812,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="67"/>
       <c r="G148" s="33" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H148" s="33"/>
       <c r="I148" s="32"/>
@@ -16810,7 +16828,7 @@
         <v>689</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="R148" s="10">
         <v>56000101</v>
@@ -16818,7 +16836,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
       <c r="U148" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V148" s="1">
         <v>1</v>
@@ -16827,7 +16845,7 @@
         <v>357</v>
       </c>
       <c r="X148" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="36">
@@ -16850,7 +16868,7 @@
       </c>
       <c r="J149" s="18"/>
       <c r="K149" s="17" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L149" s="17"/>
       <c r="M149" s="21"/>
@@ -16872,7 +16890,7 @@
       </c>
       <c r="T149" s="1"/>
       <c r="U149" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V149" s="1">
         <v>10</v>
@@ -16881,7 +16899,7 @@
         <v>360</v>
       </c>
       <c r="X149" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="36">
@@ -16902,7 +16920,7 @@
       <c r="I150" s="32"/>
       <c r="J150" s="18"/>
       <c r="K150" s="17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L150" s="17"/>
       <c r="M150" s="21"/>
@@ -16914,7 +16932,7 @@
         <v>689</v>
       </c>
       <c r="Q150" s="15" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="R150" s="15">
         <v>0</v>
@@ -16929,7 +16947,7 @@
         <v>362</v>
       </c>
       <c r="X150" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="24">
@@ -16953,7 +16971,7 @@
       <c r="J151" s="18"/>
       <c r="K151" s="17"/>
       <c r="L151" s="17" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="M151" s="21"/>
       <c r="N151" s="60"/>
@@ -16964,7 +16982,7 @@
         <v>689</v>
       </c>
       <c r="Q151" s="10" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="R151" s="10">
         <v>0</v>
@@ -16979,7 +16997,7 @@
         <v>364</v>
       </c>
       <c r="X151" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="48">
@@ -16996,7 +17014,7 @@
       <c r="E152" s="1"/>
       <c r="F152" s="67"/>
       <c r="G152" s="33" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="H152" s="33"/>
       <c r="I152" s="32"/>
@@ -17012,7 +17030,7 @@
         <v>689</v>
       </c>
       <c r="Q152" s="10" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="R152" s="10">
         <v>0</v>
@@ -17027,7 +17045,7 @@
         <v>366</v>
       </c>
       <c r="X152" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="24">
@@ -17046,7 +17064,7 @@
       <c r="G153" s="33"/>
       <c r="H153" s="33"/>
       <c r="I153" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J153" s="18"/>
       <c r="K153" s="17"/>
@@ -17077,7 +17095,7 @@
         <v>368</v>
       </c>
       <c r="X153" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="72">
@@ -17100,7 +17118,7 @@
       </c>
       <c r="J154" s="18"/>
       <c r="K154" s="17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L154" s="17"/>
       <c r="M154" s="21"/>
@@ -17112,7 +17130,7 @@
         <v>689</v>
       </c>
       <c r="Q154" s="10" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="R154" s="10">
         <v>0</v>
@@ -17127,7 +17145,7 @@
         <v>370</v>
       </c>
       <c r="X154" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="155" spans="1:24" ht="60">
@@ -17146,7 +17164,7 @@
       <c r="G155" s="33"/>
       <c r="H155" s="33"/>
       <c r="I155" s="32" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="J155" s="18"/>
       <c r="K155" s="17" t="s">
@@ -17179,7 +17197,7 @@
         <v>373</v>
       </c>
       <c r="X155" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="156" spans="1:24" ht="48">
@@ -17196,7 +17214,7 @@
       <c r="E156" s="1"/>
       <c r="F156" s="67"/>
       <c r="G156" s="33" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="H156" s="33"/>
       <c r="I156" s="32"/>
@@ -17212,7 +17230,7 @@
         <v>689</v>
       </c>
       <c r="Q156" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="R156" s="10">
         <v>56000102</v>
@@ -17220,7 +17238,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
       <c r="U156" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V156" s="1">
         <v>1</v>
@@ -17229,7 +17247,7 @@
         <v>375</v>
       </c>
       <c r="X156" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="157" spans="1:24">
@@ -17260,7 +17278,7 @@
         <v>689</v>
       </c>
       <c r="Q157" s="10" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="R157" s="10">
         <v>0</v>
@@ -17275,7 +17293,7 @@
         <v>377</v>
       </c>
       <c r="X157" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="158" spans="1:24" ht="36">
@@ -17294,7 +17312,7 @@
       <c r="G158" s="33"/>
       <c r="H158" s="33"/>
       <c r="I158" s="32" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="J158" s="18"/>
       <c r="K158" s="17" t="s">
@@ -17325,7 +17343,7 @@
         <v>379</v>
       </c>
       <c r="X158" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="159" spans="1:24" ht="36">
@@ -17344,11 +17362,11 @@
       <c r="G159" s="33"/>
       <c r="H159" s="33"/>
       <c r="I159" s="32" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="J159" s="18"/>
       <c r="K159" s="17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L159" s="17"/>
       <c r="M159" s="21"/>
@@ -17360,7 +17378,7 @@
         <v>689</v>
       </c>
       <c r="Q159" s="15" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="R159" s="15">
         <v>0</v>
@@ -17375,7 +17393,7 @@
         <v>381</v>
       </c>
       <c r="X159" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="160" spans="1:24" ht="36">
@@ -17397,10 +17415,10 @@
         <v>747</v>
       </c>
       <c r="J160" s="18" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K160" s="17" t="s">
         <v>1116</v>
-      </c>
-      <c r="K160" s="17" t="s">
-        <v>1117</v>
       </c>
       <c r="L160" s="17"/>
       <c r="M160" s="21"/>
@@ -17412,7 +17430,7 @@
         <v>689</v>
       </c>
       <c r="Q160" s="10" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="R160" s="10">
         <v>0</v>
@@ -17427,7 +17445,7 @@
         <v>383</v>
       </c>
       <c r="X160" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="36">
@@ -17477,7 +17495,7 @@
         <v>385</v>
       </c>
       <c r="X161" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="162" spans="1:24" ht="36">
@@ -17529,7 +17547,7 @@
         <v>388</v>
       </c>
       <c r="X162" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="24">
@@ -17564,7 +17582,7 @@
         <v>689</v>
       </c>
       <c r="Q163" s="10" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="R163" s="10">
         <v>0</v>
@@ -17579,7 +17597,7 @@
         <v>390</v>
       </c>
       <c r="X163" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="164" spans="1:24" ht="108">
@@ -17596,10 +17614,10 @@
       <c r="E164" s="1"/>
       <c r="F164" s="67"/>
       <c r="G164" s="33" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H164" s="33" t="s">
         <v>1306</v>
-      </c>
-      <c r="H164" s="33" t="s">
-        <v>1307</v>
       </c>
       <c r="I164" s="32"/>
       <c r="J164" s="18"/>
@@ -17614,7 +17632,7 @@
         <v>689</v>
       </c>
       <c r="Q164" s="10" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="R164" s="10">
         <v>0</v>
@@ -17629,7 +17647,7 @@
         <v>392</v>
       </c>
       <c r="X164" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="96">
@@ -17646,10 +17664,10 @@
       <c r="E165" s="1"/>
       <c r="F165" s="67"/>
       <c r="G165" s="33" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H165" s="33" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I165" s="32"/>
       <c r="J165" s="18"/>
@@ -17664,7 +17682,7 @@
         <v>689</v>
       </c>
       <c r="Q165" s="10" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="R165" s="10">
         <v>0</v>
@@ -17679,7 +17697,7 @@
         <v>394</v>
       </c>
       <c r="X165" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="166" spans="1:24" ht="36">
@@ -17702,10 +17720,10 @@
       </c>
       <c r="J166" s="18"/>
       <c r="K166" s="17" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="L166" s="17" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="M166" s="21"/>
       <c r="N166" s="60"/>
@@ -17716,7 +17734,7 @@
         <v>689</v>
       </c>
       <c r="Q166" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="R166" s="1">
         <v>0</v>
@@ -17731,7 +17749,7 @@
         <v>396</v>
       </c>
       <c r="X166" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="167" spans="1:24" ht="24">
@@ -17753,7 +17771,7 @@
       <c r="J167" s="18"/>
       <c r="K167" s="17"/>
       <c r="L167" s="17" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="M167" s="21"/>
       <c r="N167" s="60"/>
@@ -17779,7 +17797,7 @@
         <v>398</v>
       </c>
       <c r="X167" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="168" spans="1:24" ht="24">
@@ -17831,7 +17849,7 @@
         <v>401</v>
       </c>
       <c r="X168" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="84">
@@ -17842,16 +17860,16 @@
         <v>402</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E169" s="1">
         <v>15</v>
       </c>
       <c r="F169" s="67" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="G169" s="33"/>
       <c r="H169" s="33"/>
@@ -17860,7 +17878,7 @@
       <c r="K169" s="17"/>
       <c r="L169" s="22"/>
       <c r="M169" s="21" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="N169" s="60"/>
       <c r="O169" s="1" t="s">
@@ -17887,7 +17905,7 @@
         <v>403</v>
       </c>
       <c r="X169" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="170" spans="1:24" ht="24">
@@ -17909,7 +17927,7 @@
       <c r="J170" s="18"/>
       <c r="K170" s="17"/>
       <c r="L170" s="17" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="M170" s="21"/>
       <c r="N170" s="60"/>
@@ -17920,7 +17938,7 @@
         <v>689</v>
       </c>
       <c r="Q170" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="R170" s="10">
         <v>0</v>
@@ -17935,7 +17953,7 @@
         <v>405</v>
       </c>
       <c r="X170" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="171" spans="1:24" ht="36">
@@ -17957,7 +17975,7 @@
       <c r="J171" s="18"/>
       <c r="K171" s="17"/>
       <c r="L171" s="17" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="M171" s="21"/>
       <c r="N171" s="60"/>
@@ -17968,7 +17986,7 @@
         <v>689</v>
       </c>
       <c r="Q171" s="10" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="R171" s="10">
         <v>0</v>
@@ -17983,7 +18001,7 @@
         <v>407</v>
       </c>
       <c r="X171" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="172" spans="1:24" ht="36">
@@ -18033,7 +18051,7 @@
         <v>409</v>
       </c>
       <c r="X172" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="48">
@@ -18041,7 +18059,7 @@
         <v>55000187</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>1</v>
@@ -18050,7 +18068,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="67"/>
       <c r="G173" s="33" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H173" s="33"/>
       <c r="I173" s="32"/>
@@ -18060,13 +18078,13 @@
       <c r="M173" s="21"/>
       <c r="N173" s="60"/>
       <c r="O173" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="P173" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q173" s="10" t="s">
         <v>1212</v>
-      </c>
-      <c r="P173" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="Q173" s="10" t="s">
-        <v>1213</v>
       </c>
       <c r="R173" s="10">
         <v>0</v>
@@ -18078,10 +18096,10 @@
         <v>-12</v>
       </c>
       <c r="W173" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="X173" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="174" spans="1:24" ht="24">
@@ -18129,7 +18147,7 @@
         <v>411</v>
       </c>
       <c r="X174" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="175" spans="1:24" ht="36">
@@ -18148,11 +18166,11 @@
       <c r="G175" s="33"/>
       <c r="H175" s="33"/>
       <c r="I175" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J175" s="18"/>
       <c r="K175" s="17" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="L175" s="17" t="s">
         <v>799</v>
@@ -18181,7 +18199,7 @@
         <v>413</v>
       </c>
       <c r="X175" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="176" spans="1:24" ht="36">
@@ -18200,11 +18218,11 @@
       <c r="G176" s="33"/>
       <c r="H176" s="33"/>
       <c r="I176" s="32" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="J176" s="18"/>
       <c r="K176" s="17" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="L176" s="17"/>
       <c r="M176" s="21"/>
@@ -18216,7 +18234,7 @@
         <v>689</v>
       </c>
       <c r="Q176" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="R176" s="10">
         <v>0</v>
@@ -18231,7 +18249,7 @@
         <v>415</v>
       </c>
       <c r="X176" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="177" spans="1:24" ht="48">
@@ -18250,7 +18268,7 @@
       <c r="G177" s="33"/>
       <c r="H177" s="33"/>
       <c r="I177" s="32" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="J177" s="18"/>
       <c r="K177" s="17" t="s">
@@ -18283,7 +18301,7 @@
         <v>418</v>
       </c>
       <c r="X177" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="178" spans="1:24" ht="60">
@@ -18302,7 +18320,7 @@
       <c r="G178" s="33"/>
       <c r="H178" s="33"/>
       <c r="I178" s="32" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="J178" s="18"/>
       <c r="K178" s="17" t="s">
@@ -18333,7 +18351,7 @@
         <v>420</v>
       </c>
       <c r="X178" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="179" spans="1:24" ht="24">
@@ -18368,7 +18386,7 @@
         <v>689</v>
       </c>
       <c r="Q179" s="10" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="R179" s="10">
         <v>0</v>
@@ -18383,7 +18401,7 @@
         <v>422</v>
       </c>
       <c r="X179" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="180" spans="1:24" ht="48">
@@ -18400,7 +18418,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="67"/>
       <c r="G180" s="33" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="H180" s="33"/>
       <c r="I180" s="32"/>
@@ -18416,7 +18434,7 @@
         <v>689</v>
       </c>
       <c r="Q180" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="R180" s="10">
         <v>56000023</v>
@@ -18424,7 +18442,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
       <c r="U180" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V180" s="1">
         <v>1</v>
@@ -18433,7 +18451,7 @@
         <v>424</v>
       </c>
       <c r="X180" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="181" spans="1:24" ht="60">
@@ -18454,7 +18472,7 @@
       <c r="I181" s="32"/>
       <c r="J181" s="18"/>
       <c r="K181" s="17" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="L181" s="17"/>
       <c r="M181" s="21"/>
@@ -18466,7 +18484,7 @@
         <v>689</v>
       </c>
       <c r="Q181" s="10" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R181" s="10">
         <v>0</v>
@@ -18481,7 +18499,7 @@
         <v>426</v>
       </c>
       <c r="X181" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="182" spans="1:24" ht="60">
@@ -18502,7 +18520,7 @@
       <c r="I182" s="32"/>
       <c r="J182" s="18"/>
       <c r="K182" s="17" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="L182" s="17"/>
       <c r="M182" s="21"/>
@@ -18514,7 +18532,7 @@
         <v>689</v>
       </c>
       <c r="Q182" s="10" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R182" s="10">
         <v>0</v>
@@ -18529,7 +18547,7 @@
         <v>428</v>
       </c>
       <c r="X182" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="183" spans="1:24" ht="24">
@@ -18551,7 +18569,7 @@
       <c r="J183" s="18"/>
       <c r="K183" s="17"/>
       <c r="L183" s="17" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="M183" s="21"/>
       <c r="N183" s="60"/>
@@ -18562,7 +18580,7 @@
         <v>689</v>
       </c>
       <c r="Q183" s="10" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="R183" s="10">
         <v>0</v>
@@ -18577,7 +18595,7 @@
         <v>430</v>
       </c>
       <c r="X183" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="184" spans="1:24" ht="36">
@@ -18594,7 +18612,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="67"/>
       <c r="G184" s="33" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="H184" s="33"/>
       <c r="I184" s="32"/>
@@ -18610,7 +18628,7 @@
         <v>689</v>
       </c>
       <c r="Q184" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="R184" s="10">
         <v>56000121</v>
@@ -18618,7 +18636,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
       <c r="U184" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V184" s="1">
         <v>2</v>
@@ -18627,7 +18645,7 @@
         <v>432</v>
       </c>
       <c r="X184" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="185" spans="1:24">
@@ -18658,7 +18676,7 @@
         <v>689</v>
       </c>
       <c r="Q185" s="10" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="R185" s="10">
         <v>0</v>
@@ -18673,7 +18691,7 @@
         <v>434</v>
       </c>
       <c r="X185" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="186" spans="1:24" ht="48">
@@ -18695,7 +18713,7 @@
       <c r="J186" s="18"/>
       <c r="K186" s="17"/>
       <c r="L186" s="17" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="M186" s="21"/>
       <c r="N186" s="60"/>
@@ -18706,7 +18724,7 @@
         <v>689</v>
       </c>
       <c r="Q186" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="R186" s="10">
         <v>0</v>
@@ -18721,7 +18739,7 @@
         <v>436</v>
       </c>
       <c r="X186" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="187" spans="1:24" ht="36">
@@ -18738,7 +18756,7 @@
       <c r="E187" s="1"/>
       <c r="F187" s="67"/>
       <c r="G187" s="33" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="H187" s="33"/>
       <c r="I187" s="32"/>
@@ -18754,7 +18772,7 @@
         <v>689</v>
       </c>
       <c r="Q187" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="R187" s="10">
         <v>56000101</v>
@@ -18762,7 +18780,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
       <c r="U187" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V187" s="1">
         <v>2</v>
@@ -18771,7 +18789,7 @@
         <v>438</v>
       </c>
       <c r="X187" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="188" spans="1:24" ht="48">
@@ -18788,7 +18806,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="67"/>
       <c r="G188" s="33" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H188" s="33"/>
       <c r="I188" s="32"/>
@@ -18804,7 +18822,7 @@
         <v>689</v>
       </c>
       <c r="Q188" s="10" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="R188" s="10">
         <v>56000111</v>
@@ -18812,7 +18830,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
       <c r="U188" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V188" s="1">
         <v>10</v>
@@ -18821,7 +18839,7 @@
         <v>440</v>
       </c>
       <c r="X188" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="189" spans="1:24" ht="24">
@@ -18844,7 +18862,7 @@
       <c r="K189" s="17"/>
       <c r="L189" s="17"/>
       <c r="M189" s="21" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="N189" s="60">
         <v>1</v>
@@ -18856,7 +18874,7 @@
         <v>689</v>
       </c>
       <c r="Q189" s="10" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="R189" s="10">
         <v>0</v>
@@ -18892,7 +18910,7 @@
       </c>
       <c r="J190" s="18"/>
       <c r="K190" s="17" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="L190" s="17"/>
       <c r="M190" s="21"/>
@@ -18904,7 +18922,7 @@
         <v>689</v>
       </c>
       <c r="Q190" s="15" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="R190" s="15">
         <v>0</v>
@@ -18919,7 +18937,7 @@
         <v>444</v>
       </c>
       <c r="X190" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="191" spans="1:24" ht="24">
@@ -18941,7 +18959,7 @@
       <c r="J191" s="18"/>
       <c r="K191" s="17"/>
       <c r="L191" s="17" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="M191" s="21"/>
       <c r="N191" s="60"/>
@@ -18952,7 +18970,7 @@
         <v>689</v>
       </c>
       <c r="Q191" s="10" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="R191" s="10">
         <v>0</v>
@@ -18967,7 +18985,7 @@
         <v>446</v>
       </c>
       <c r="X191" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="192" spans="1:24" ht="96">
@@ -18986,11 +19004,11 @@
       <c r="G192" s="33"/>
       <c r="H192" s="33"/>
       <c r="I192" s="32" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="J192" s="18"/>
       <c r="K192" s="17" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="L192" s="17"/>
       <c r="M192" s="21"/>
@@ -19002,7 +19020,7 @@
         <v>689</v>
       </c>
       <c r="Q192" s="10" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="R192" s="10">
         <v>0</v>
@@ -19017,7 +19035,7 @@
         <v>448</v>
       </c>
       <c r="X192" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="193" spans="1:24" ht="24">
@@ -19025,10 +19043,10 @@
         <v>55000207</v>
       </c>
       <c r="B193" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>1033</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -19040,7 +19058,7 @@
       <c r="K193" s="17"/>
       <c r="L193" s="17"/>
       <c r="M193" s="21" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="N193" s="60"/>
       <c r="O193" s="1" t="s">
@@ -19050,7 +19068,7 @@
         <v>689</v>
       </c>
       <c r="Q193" s="10" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="R193" s="10">
         <v>0</v>
@@ -19067,7 +19085,7 @@
         <v>945</v>
       </c>
       <c r="X193" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="194" spans="1:24">
@@ -19098,7 +19116,7 @@
         <v>689</v>
       </c>
       <c r="Q194" s="10" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="R194" s="10">
         <v>0</v>
@@ -19113,7 +19131,7 @@
         <v>450</v>
       </c>
       <c r="X194" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="195" spans="1:24" ht="48">
@@ -19136,7 +19154,7 @@
       </c>
       <c r="J195" s="18"/>
       <c r="K195" s="17" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="L195" s="17"/>
       <c r="M195" s="21"/>
@@ -19148,7 +19166,7 @@
         <v>689</v>
       </c>
       <c r="Q195" s="15" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="R195" s="15">
         <v>0</v>
@@ -19163,7 +19181,7 @@
         <v>452</v>
       </c>
       <c r="X195" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="196" spans="1:24" ht="48">
@@ -19215,7 +19233,7 @@
         <v>455</v>
       </c>
       <c r="X196" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="197" spans="1:24" ht="48">
@@ -19232,7 +19250,7 @@
       <c r="E197" s="1"/>
       <c r="F197" s="67"/>
       <c r="G197" s="33" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="H197" s="33"/>
       <c r="I197" s="32"/>
@@ -19248,7 +19266,7 @@
         <v>689</v>
       </c>
       <c r="Q197" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="R197" s="10">
         <v>56000121</v>
@@ -19256,7 +19274,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
       <c r="U197" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V197" s="1">
         <v>0</v>
@@ -19265,7 +19283,7 @@
         <v>457</v>
       </c>
       <c r="X197" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="198" spans="1:24" ht="24">
@@ -19315,7 +19333,7 @@
         <v>460</v>
       </c>
       <c r="X198" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="199" spans="1:24" ht="48">
@@ -19332,7 +19350,7 @@
       <c r="E199" s="1"/>
       <c r="F199" s="67"/>
       <c r="G199" s="33" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H199" s="33"/>
       <c r="I199" s="32"/>
@@ -19348,7 +19366,7 @@
         <v>689</v>
       </c>
       <c r="Q199" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="R199" s="10">
         <v>56000121</v>
@@ -19356,7 +19374,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
       <c r="U199" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V199" s="1">
         <v>0</v>
@@ -19365,7 +19383,7 @@
         <v>462</v>
       </c>
       <c r="X199" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="200" spans="1:24" ht="24">
@@ -19387,7 +19405,7 @@
       <c r="J200" s="18"/>
       <c r="K200" s="17"/>
       <c r="L200" s="17" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="M200" s="21"/>
       <c r="N200" s="60"/>
@@ -19413,7 +19431,7 @@
         <v>464</v>
       </c>
       <c r="X200" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="201" spans="1:24" ht="96">
@@ -19427,23 +19445,23 @@
         <v>216</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="E201" s="1">
         <v>0</v>
       </c>
       <c r="F201" s="67" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="G201" s="33"/>
       <c r="H201" s="33"/>
       <c r="I201" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J201" s="18"/>
       <c r="K201" s="17"/>
       <c r="L201" s="17" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="M201" s="21"/>
       <c r="N201" s="60"/>
@@ -19454,7 +19472,7 @@
         <v>689</v>
       </c>
       <c r="Q201" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="R201" s="10">
         <v>0</v>
@@ -19466,7 +19484,7 @@
         <v>466</v>
       </c>
       <c r="U201" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V201" s="1">
         <v>4</v>
@@ -19475,7 +19493,7 @@
         <v>467</v>
       </c>
       <c r="X201" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="202" spans="1:24" ht="36">
@@ -19498,7 +19516,7 @@
       </c>
       <c r="J202" s="18"/>
       <c r="K202" s="17" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L202" s="17"/>
       <c r="M202" s="21"/>
@@ -19510,7 +19528,7 @@
         <v>689</v>
       </c>
       <c r="Q202" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="R202" s="1">
         <v>0</v>
@@ -19525,7 +19543,7 @@
         <v>469</v>
       </c>
       <c r="X202" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="203" spans="1:24" ht="24">
@@ -19575,7 +19593,7 @@
         <v>472</v>
       </c>
       <c r="X203" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="204" spans="1:24">
@@ -19586,7 +19604,7 @@
         <v>473</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -19606,7 +19624,7 @@
         <v>689</v>
       </c>
       <c r="Q204" s="10" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="R204" s="10">
         <v>0</v>
@@ -19623,7 +19641,7 @@
         <v>475</v>
       </c>
       <c r="X204" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -19646,7 +19664,7 @@
       <c r="K205" s="17"/>
       <c r="L205" s="17"/>
       <c r="M205" s="21" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="N205" s="60"/>
       <c r="O205" s="1" t="s">
@@ -19671,7 +19689,7 @@
         <v>478</v>
       </c>
       <c r="X205" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="206" spans="1:24" ht="36">
@@ -19690,11 +19708,11 @@
       <c r="G206" s="33"/>
       <c r="H206" s="33"/>
       <c r="I206" s="32" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J206" s="18"/>
       <c r="K206" s="17" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="L206" s="17"/>
       <c r="M206" s="21"/>
@@ -19706,7 +19724,7 @@
         <v>689</v>
       </c>
       <c r="Q206" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="R206" s="10">
         <v>0</v>
@@ -19721,7 +19739,7 @@
         <v>480</v>
       </c>
       <c r="X206" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="207" spans="1:24" ht="24">
@@ -19735,16 +19753,16 @@
         <v>1</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E207" s="1">
         <v>10</v>
       </c>
       <c r="F207" s="67" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="G207" s="33" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="H207" s="33"/>
       <c r="I207" s="32"/>
@@ -19760,7 +19778,7 @@
         <v>689</v>
       </c>
       <c r="Q207" s="10" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="R207" s="10">
         <v>0</v>
@@ -19823,7 +19841,7 @@
         <v>482</v>
       </c>
       <c r="X208" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="209" spans="1:24" ht="36">
@@ -19873,7 +19891,7 @@
         <v>484</v>
       </c>
       <c r="X209" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="210" spans="1:24" ht="36">
@@ -19923,7 +19941,7 @@
         <v>486</v>
       </c>
       <c r="X210" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="211" spans="1:24" ht="48">
@@ -19940,10 +19958,10 @@
       <c r="E211" s="1"/>
       <c r="F211" s="67"/>
       <c r="G211" s="33" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H211" s="33" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I211" s="32"/>
       <c r="J211" s="18"/>
@@ -19958,7 +19976,7 @@
         <v>689</v>
       </c>
       <c r="Q211" s="10" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="R211" s="10">
         <v>0</v>
@@ -19973,7 +19991,7 @@
         <v>488</v>
       </c>
       <c r="X211" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="212" spans="1:24" ht="96">
@@ -19990,10 +20008,10 @@
       <c r="E212" s="1"/>
       <c r="F212" s="67"/>
       <c r="G212" s="33" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H212" s="33" t="s">
         <v>1279</v>
-      </c>
-      <c r="H212" s="33" t="s">
-        <v>1280</v>
       </c>
       <c r="I212" s="32"/>
       <c r="J212" s="18"/>
@@ -20008,7 +20026,7 @@
         <v>689</v>
       </c>
       <c r="Q212" s="10" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="R212" s="10">
         <v>0</v>
@@ -20023,7 +20041,7 @@
         <v>490</v>
       </c>
       <c r="X212" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="213" spans="1:24" ht="24">
@@ -20048,7 +20066,7 @@
       <c r="K213" s="17"/>
       <c r="L213" s="17"/>
       <c r="M213" s="21" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="N213" s="60"/>
       <c r="O213" s="1" t="s">
@@ -20058,7 +20076,7 @@
         <v>689</v>
       </c>
       <c r="Q213" s="10" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="R213" s="10">
         <v>0</v>
@@ -20073,7 +20091,7 @@
         <v>669</v>
       </c>
       <c r="X213" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="214" spans="1:24" ht="24">
@@ -20095,7 +20113,7 @@
       <c r="J214" s="18"/>
       <c r="K214" s="17"/>
       <c r="L214" s="17" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="M214" s="21"/>
       <c r="N214" s="60"/>
@@ -20106,7 +20124,7 @@
         <v>689</v>
       </c>
       <c r="Q214" s="10" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="R214" s="10">
         <v>0</v>
@@ -20121,7 +20139,7 @@
         <v>492</v>
       </c>
       <c r="X214" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="215" spans="1:24" ht="24">
@@ -20145,7 +20163,7 @@
       <c r="J215" s="18"/>
       <c r="K215" s="17"/>
       <c r="L215" s="17" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="M215" s="21"/>
       <c r="N215" s="60"/>
@@ -20156,7 +20174,7 @@
         <v>689</v>
       </c>
       <c r="Q215" s="10" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="R215" s="10">
         <v>0</v>
@@ -20171,7 +20189,7 @@
         <v>494</v>
       </c>
       <c r="X215" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="216" spans="1:24" ht="24">
@@ -20219,7 +20237,7 @@
         <v>496</v>
       </c>
       <c r="X216" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="217" spans="1:24" ht="24">
@@ -20241,7 +20259,7 @@
       <c r="J217" s="18"/>
       <c r="K217" s="17"/>
       <c r="L217" s="17" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="M217" s="21"/>
       <c r="N217" s="60"/>
@@ -20252,7 +20270,7 @@
         <v>689</v>
       </c>
       <c r="Q217" s="10" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R217" s="10">
         <v>0</v>
@@ -20267,7 +20285,7 @@
         <v>498</v>
       </c>
       <c r="X217" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="218" spans="1:24" ht="48">
@@ -20315,7 +20333,7 @@
         <v>500</v>
       </c>
       <c r="X218" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="219" spans="1:24" ht="36">
@@ -20348,7 +20366,7 @@
         <v>689</v>
       </c>
       <c r="Q219" s="10" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="R219" s="10">
         <v>0</v>
@@ -20363,7 +20381,7 @@
         <v>502</v>
       </c>
       <c r="X219" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="220" spans="1:24" ht="36">
@@ -20413,7 +20431,7 @@
         <v>504</v>
       </c>
       <c r="X220" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="221" spans="1:24" ht="72">
@@ -20461,7 +20479,7 @@
         <v>506</v>
       </c>
       <c r="X221" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="222" spans="1:24" ht="24">
@@ -20478,7 +20496,7 @@
       <c r="E222" s="1"/>
       <c r="F222" s="67"/>
       <c r="G222" s="33" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H222" s="33"/>
       <c r="I222" s="32"/>
@@ -20494,7 +20512,7 @@
         <v>689</v>
       </c>
       <c r="Q222" s="10" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="R222" s="10">
         <v>0</v>
@@ -20509,7 +20527,7 @@
         <v>508</v>
       </c>
       <c r="X222" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="223" spans="1:24">
@@ -20540,7 +20558,7 @@
         <v>689</v>
       </c>
       <c r="Q223" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="R223" s="1">
         <v>0</v>
@@ -20555,7 +20573,7 @@
         <v>510</v>
       </c>
       <c r="X223" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="224" spans="1:24" ht="24">
@@ -20603,7 +20621,7 @@
         <v>513</v>
       </c>
       <c r="X224" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="225" spans="1:24" ht="24">
@@ -20651,7 +20669,7 @@
         <v>515</v>
       </c>
       <c r="X225" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="226" spans="1:24" ht="96">
@@ -20665,23 +20683,23 @@
         <v>216</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="E226" s="1">
         <v>10</v>
       </c>
       <c r="F226" s="67" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="G226" s="33"/>
       <c r="H226" s="33"/>
       <c r="I226" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J226" s="18"/>
       <c r="K226" s="17"/>
       <c r="L226" s="17" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="M226" s="21"/>
       <c r="N226" s="60"/>
@@ -20704,7 +20722,7 @@
         <v>909</v>
       </c>
       <c r="U226" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V226" s="1">
         <v>5</v>
@@ -20713,7 +20731,7 @@
         <v>517</v>
       </c>
       <c r="X226" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="227" spans="1:24" ht="24">
@@ -20748,7 +20766,7 @@
         <v>689</v>
       </c>
       <c r="Q227" s="10" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="R227" s="10">
         <v>0</v>
@@ -20763,7 +20781,7 @@
         <v>519</v>
       </c>
       <c r="X227" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="228" spans="1:24" ht="24">
@@ -20788,7 +20806,7 @@
       <c r="K228" s="17"/>
       <c r="L228" s="17"/>
       <c r="M228" s="21" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="N228" s="60"/>
       <c r="O228" s="1" t="s">
@@ -20798,7 +20816,7 @@
         <v>689</v>
       </c>
       <c r="Q228" s="10" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="R228" s="10">
         <v>0</v>
@@ -20813,7 +20831,7 @@
         <v>521</v>
       </c>
       <c r="X228" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="229" spans="1:24" ht="36">
@@ -20846,7 +20864,7 @@
         <v>689</v>
       </c>
       <c r="Q229" s="10" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="R229" s="10">
         <v>0</v>
@@ -20861,7 +20879,7 @@
         <v>523</v>
       </c>
       <c r="X229" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="230" spans="1:24" ht="96">
@@ -20875,23 +20893,23 @@
         <v>216</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="E230" s="1">
         <v>10</v>
       </c>
       <c r="F230" s="67" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="G230" s="33"/>
       <c r="H230" s="33"/>
       <c r="I230" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J230" s="18"/>
       <c r="K230" s="17"/>
       <c r="L230" s="17" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="M230" s="21"/>
       <c r="N230" s="60"/>
@@ -20902,7 +20920,7 @@
         <v>689</v>
       </c>
       <c r="Q230" s="20" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="R230" s="10">
         <v>0</v>
@@ -20914,7 +20932,7 @@
         <v>911</v>
       </c>
       <c r="U230" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V230" s="1">
         <v>2</v>
@@ -20923,7 +20941,7 @@
         <v>525</v>
       </c>
       <c r="X230" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="231" spans="1:24" ht="24">
@@ -20945,7 +20963,7 @@
       <c r="J231" s="18"/>
       <c r="K231" s="17"/>
       <c r="L231" s="17" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="M231" s="21"/>
       <c r="N231" s="60"/>
@@ -20971,7 +20989,7 @@
         <v>527</v>
       </c>
       <c r="X231" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="232" spans="1:24" ht="36">
@@ -20990,12 +21008,12 @@
       <c r="G232" s="33"/>
       <c r="H232" s="33"/>
       <c r="I232" s="32" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J232" s="18"/>
       <c r="K232" s="17"/>
       <c r="L232" s="17" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="M232" s="21"/>
       <c r="N232" s="60"/>
@@ -21006,7 +21024,7 @@
         <v>689</v>
       </c>
       <c r="Q232" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="R232" s="10">
         <v>0</v>
@@ -21021,7 +21039,7 @@
         <v>529</v>
       </c>
       <c r="X232" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="233" spans="1:24" ht="48">
@@ -21044,7 +21062,7 @@
       </c>
       <c r="J233" s="18"/>
       <c r="K233" s="17" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L233" s="17"/>
       <c r="M233" s="21"/>
@@ -21056,7 +21074,7 @@
         <v>689</v>
       </c>
       <c r="Q233" s="10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="R233" s="10">
         <v>0</v>
@@ -21071,7 +21089,7 @@
         <v>531</v>
       </c>
       <c r="X233" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="234" spans="1:24" ht="36">
@@ -21090,14 +21108,14 @@
       <c r="G234" s="33"/>
       <c r="H234" s="33"/>
       <c r="I234" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J234" s="18"/>
       <c r="K234" s="17" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="L234" s="17" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="M234" s="21"/>
       <c r="N234" s="60"/>
@@ -21108,7 +21126,7 @@
         <v>689</v>
       </c>
       <c r="Q234" s="10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R234" s="10">
         <v>0</v>
@@ -21123,7 +21141,7 @@
         <v>533</v>
       </c>
       <c r="X234" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="235" spans="1:24" ht="24">
@@ -21147,7 +21165,7 @@
       <c r="J235" s="18"/>
       <c r="K235" s="17"/>
       <c r="L235" s="17" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="M235" s="21"/>
       <c r="N235" s="60"/>
@@ -21173,7 +21191,7 @@
         <v>535</v>
       </c>
       <c r="X235" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="236" spans="1:24" ht="36">
@@ -21206,7 +21224,7 @@
         <v>689</v>
       </c>
       <c r="Q236" s="10" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="R236" s="10">
         <v>0</v>
@@ -21221,7 +21239,7 @@
         <v>537</v>
       </c>
       <c r="X236" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="237" spans="1:24" ht="27">
@@ -21254,7 +21272,7 @@
         <v>689</v>
       </c>
       <c r="Q237" s="15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="R237" s="15">
         <v>0</v>
@@ -21269,7 +21287,7 @@
         <v>539</v>
       </c>
       <c r="X237" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="238" spans="1:24" ht="24">
@@ -21304,7 +21322,7 @@
         <v>689</v>
       </c>
       <c r="Q238" s="10" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="R238" s="10">
         <v>0</v>
@@ -21319,7 +21337,7 @@
         <v>541</v>
       </c>
       <c r="X238" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="239" spans="1:24" ht="36">
@@ -21338,7 +21356,7 @@
       <c r="G239" s="33"/>
       <c r="H239" s="33"/>
       <c r="I239" s="32" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="J239" s="18" t="s">
         <v>846</v>
@@ -21354,7 +21372,7 @@
         <v>689</v>
       </c>
       <c r="Q239" s="10" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="R239" s="10">
         <v>0</v>
@@ -21369,7 +21387,7 @@
         <v>543</v>
       </c>
       <c r="X239" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="240" spans="1:24" ht="36">
@@ -21402,7 +21420,7 @@
         <v>689</v>
       </c>
       <c r="Q240" s="10" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="R240" s="10">
         <v>0</v>
@@ -21417,7 +21435,7 @@
         <v>545</v>
       </c>
       <c r="X240" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="241" spans="1:24">
@@ -21437,7 +21455,7 @@
       <c r="H241" s="33"/>
       <c r="I241" s="32"/>
       <c r="J241" s="18" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="K241" s="17"/>
       <c r="L241" s="17"/>
@@ -21450,7 +21468,7 @@
         <v>689</v>
       </c>
       <c r="Q241" s="10" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="R241" s="10">
         <v>0</v>
@@ -21465,7 +21483,7 @@
         <v>547</v>
       </c>
       <c r="X241" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="242" spans="1:24">
@@ -21496,7 +21514,7 @@
         <v>689</v>
       </c>
       <c r="Q242" s="10" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="R242" s="10">
         <v>0</v>
@@ -21511,7 +21529,7 @@
         <v>549</v>
       </c>
       <c r="X242" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="243" spans="1:24" ht="36">
@@ -21534,7 +21552,7 @@
       </c>
       <c r="J243" s="18"/>
       <c r="K243" s="17" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="L243" s="17"/>
       <c r="M243" s="21"/>
@@ -21546,7 +21564,7 @@
         <v>689</v>
       </c>
       <c r="Q243" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="R243" s="10">
         <v>0</v>
@@ -21563,7 +21581,7 @@
         <v>551</v>
       </c>
       <c r="X243" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="244" spans="1:24" ht="24">
@@ -21585,7 +21603,7 @@
       <c r="J244" s="18"/>
       <c r="K244" s="17"/>
       <c r="L244" s="17" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="M244" s="21"/>
       <c r="N244" s="60"/>
@@ -21611,7 +21629,7 @@
         <v>553</v>
       </c>
       <c r="X244" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="245" spans="1:24" ht="36">
@@ -21663,7 +21681,7 @@
         <v>555</v>
       </c>
       <c r="X245" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="246" spans="1:24" ht="84">
@@ -21674,16 +21692,16 @@
         <v>556</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="E246" s="1">
         <v>0</v>
       </c>
       <c r="F246" s="67" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="G246" s="33"/>
       <c r="H246" s="33"/>
@@ -21692,7 +21710,7 @@
       <c r="K246" s="17"/>
       <c r="L246" s="17"/>
       <c r="M246" s="21" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="N246" s="60"/>
       <c r="O246" s="1" t="s">
@@ -21711,7 +21729,7 @@
         <v>942</v>
       </c>
       <c r="T246" s="10" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="U246" s="10"/>
       <c r="V246" s="1">
@@ -21721,7 +21739,7 @@
         <v>557</v>
       </c>
       <c r="X246" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="247" spans="1:24" ht="84">
@@ -21742,7 +21760,7 @@
       <c r="I247" s="32"/>
       <c r="J247" s="18"/>
       <c r="K247" s="17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="L247" s="17"/>
       <c r="M247" s="21"/>
@@ -21754,7 +21772,7 @@
         <v>689</v>
       </c>
       <c r="Q247" s="15" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="R247" s="15">
         <v>0</v>
@@ -21769,7 +21787,7 @@
         <v>559</v>
       </c>
       <c r="X247" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="248" spans="1:24" ht="24">
@@ -21791,7 +21809,7 @@
       <c r="J248" s="18"/>
       <c r="K248" s="17"/>
       <c r="L248" s="17" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="M248" s="21"/>
       <c r="N248" s="60"/>
@@ -21802,7 +21820,7 @@
         <v>689</v>
       </c>
       <c r="Q248" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="R248" s="10">
         <v>0</v>
@@ -21817,7 +21835,7 @@
         <v>561</v>
       </c>
       <c r="X248" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="249" spans="1:24" ht="24">
@@ -21828,7 +21846,7 @@
         <v>562</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -21836,12 +21854,12 @@
       <c r="G249" s="33"/>
       <c r="H249" s="33"/>
       <c r="I249" s="32" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J249" s="18"/>
       <c r="K249" s="17"/>
       <c r="L249" s="17" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="M249" s="21"/>
       <c r="N249" s="60"/>
@@ -21869,7 +21887,7 @@
         <v>565</v>
       </c>
       <c r="X249" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="250" spans="1:24" ht="36">
@@ -21892,7 +21910,7 @@
       </c>
       <c r="J250" s="18"/>
       <c r="K250" s="17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L250" s="17"/>
       <c r="M250" s="21"/>
@@ -21904,7 +21922,7 @@
         <v>689</v>
       </c>
       <c r="Q250" s="10" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="R250" s="10">
         <v>0</v>
@@ -21919,7 +21937,7 @@
         <v>567</v>
       </c>
       <c r="X250" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="251" spans="1:24" ht="36">
@@ -21967,7 +21985,7 @@
         <v>570</v>
       </c>
       <c r="X251" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="48">
@@ -21988,7 +22006,7 @@
       <c r="I252" s="32"/>
       <c r="J252" s="18"/>
       <c r="K252" s="17" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L252" s="17"/>
       <c r="M252" s="21"/>
@@ -22000,7 +22018,7 @@
         <v>689</v>
       </c>
       <c r="Q252" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="R252" s="1">
         <v>0</v>
@@ -22015,7 +22033,7 @@
         <v>572</v>
       </c>
       <c r="X252" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="24">
@@ -22065,7 +22083,7 @@
         <v>575</v>
       </c>
       <c r="X253" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="254" spans="1:24" ht="24">
@@ -22113,7 +22131,7 @@
         <v>578</v>
       </c>
       <c r="X254" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="255" spans="1:24" ht="48">
@@ -22130,7 +22148,7 @@
       <c r="E255" s="1"/>
       <c r="F255" s="67"/>
       <c r="G255" s="33" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H255" s="33"/>
       <c r="I255" s="32"/>
@@ -22161,7 +22179,7 @@
         <v>581</v>
       </c>
       <c r="X255" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="256" spans="1:24" ht="48">
@@ -22178,7 +22196,7 @@
       <c r="E256" s="1"/>
       <c r="F256" s="67"/>
       <c r="G256" s="33" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="H256" s="33"/>
       <c r="I256" s="32"/>
@@ -22194,7 +22212,7 @@
         <v>689</v>
       </c>
       <c r="Q256" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="R256" s="10">
         <v>56000102</v>
@@ -22202,7 +22220,7 @@
       <c r="S256" s="1"/>
       <c r="T256" s="1"/>
       <c r="U256" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V256" s="1">
         <v>0</v>
@@ -22211,7 +22229,7 @@
         <v>583</v>
       </c>
       <c r="X256" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="257" spans="1:24" ht="36">
@@ -22230,7 +22248,7 @@
       <c r="G257" s="33"/>
       <c r="H257" s="33"/>
       <c r="I257" s="32" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J257" s="18" t="s">
         <v>845</v>
@@ -22246,7 +22264,7 @@
         <v>689</v>
       </c>
       <c r="Q257" s="10" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="R257" s="10">
         <v>0</v>
@@ -22261,7 +22279,7 @@
         <v>585</v>
       </c>
       <c r="X257" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="258" spans="1:24" ht="24">
@@ -22283,7 +22301,7 @@
       <c r="J258" s="18"/>
       <c r="K258" s="17"/>
       <c r="L258" s="17" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="M258" s="21"/>
       <c r="N258" s="60"/>
@@ -22309,7 +22327,7 @@
         <v>587</v>
       </c>
       <c r="X258" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="259" spans="1:24" ht="36">
@@ -22330,7 +22348,7 @@
       <c r="I259" s="32"/>
       <c r="J259" s="18"/>
       <c r="K259" s="17" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L259" s="17"/>
       <c r="M259" s="21"/>
@@ -22342,7 +22360,7 @@
         <v>689</v>
       </c>
       <c r="Q259" s="15" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="R259" s="15">
         <v>0</v>
@@ -22357,7 +22375,7 @@
         <v>589</v>
       </c>
       <c r="X259" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="84">
@@ -22378,7 +22396,7 @@
       <c r="I260" s="32"/>
       <c r="J260" s="18"/>
       <c r="K260" s="17" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="L260" s="17"/>
       <c r="M260" s="21"/>
@@ -22390,7 +22408,7 @@
         <v>689</v>
       </c>
       <c r="Q260" s="10" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="R260" s="10">
         <v>0</v>
@@ -22405,7 +22423,7 @@
         <v>591</v>
       </c>
       <c r="X260" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="261" spans="1:24" ht="36">
@@ -22424,7 +22442,7 @@
       <c r="G261" s="33"/>
       <c r="H261" s="33"/>
       <c r="I261" s="32" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="J261" s="18"/>
       <c r="K261" s="17" t="s">
@@ -22455,7 +22473,7 @@
         <v>593</v>
       </c>
       <c r="X261" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="36">
@@ -22474,7 +22492,7 @@
       <c r="G262" s="33"/>
       <c r="H262" s="33"/>
       <c r="I262" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J262" s="18"/>
       <c r="K262" s="17" t="s">
@@ -22505,7 +22523,7 @@
         <v>595</v>
       </c>
       <c r="X262" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="263" spans="1:24">
@@ -22525,7 +22543,7 @@
       <c r="H263" s="33"/>
       <c r="I263" s="32"/>
       <c r="J263" s="18" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K263" s="17"/>
       <c r="L263" s="17"/>
@@ -22538,7 +22556,7 @@
         <v>689</v>
       </c>
       <c r="Q263" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="R263" s="1">
         <v>0</v>
@@ -22553,7 +22571,7 @@
         <v>597</v>
       </c>
       <c r="X263" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="264" spans="1:24" ht="24">
@@ -22564,7 +22582,7 @@
         <v>598</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -22576,7 +22594,7 @@
       <c r="K264" s="17"/>
       <c r="L264" s="22"/>
       <c r="M264" s="21" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="N264" s="60"/>
       <c r="O264" s="1" t="s">
@@ -22586,7 +22604,7 @@
         <v>689</v>
       </c>
       <c r="Q264" s="10" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="R264" s="10">
         <v>0</v>
@@ -22601,7 +22619,7 @@
         <v>599</v>
       </c>
       <c r="X264" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="265" spans="1:24">
@@ -22612,7 +22630,7 @@
         <v>600</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -22624,7 +22642,7 @@
       <c r="K265" s="17"/>
       <c r="L265" s="22"/>
       <c r="M265" s="21" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="N265" s="60"/>
       <c r="O265" s="1" t="s">
@@ -22634,7 +22652,7 @@
         <v>689</v>
       </c>
       <c r="Q265" s="10" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="R265" s="10">
         <v>0</v>
@@ -22649,7 +22667,7 @@
         <v>601</v>
       </c>
       <c r="X265" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="266" spans="1:24" ht="36">
@@ -22670,7 +22688,7 @@
       <c r="I266" s="32"/>
       <c r="J266" s="18"/>
       <c r="K266" s="17" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="L266" s="17"/>
       <c r="M266" s="21"/>
@@ -22682,7 +22700,7 @@
         <v>689</v>
       </c>
       <c r="Q266" s="15" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="R266" s="15">
         <v>0</v>
@@ -22697,7 +22715,7 @@
         <v>603</v>
       </c>
       <c r="X266" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="267" spans="1:24" ht="24">
@@ -22719,7 +22737,7 @@
       <c r="J267" s="18"/>
       <c r="K267" s="17"/>
       <c r="L267" s="17" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="M267" s="21"/>
       <c r="N267" s="60"/>
@@ -22730,7 +22748,7 @@
         <v>689</v>
       </c>
       <c r="Q267" s="10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="R267" s="10">
         <v>0</v>
@@ -22745,7 +22763,7 @@
         <v>605</v>
       </c>
       <c r="X267" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="268" spans="1:24" ht="144">
@@ -22756,19 +22774,19 @@
         <v>606</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E268" s="1">
         <v>10</v>
       </c>
       <c r="F268" s="67" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="G268" s="33" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="H268" s="33"/>
       <c r="I268" s="32"/>
@@ -22784,16 +22802,16 @@
         <v>689</v>
       </c>
       <c r="Q268" s="16" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="R268" s="10">
         <v>0</v>
       </c>
       <c r="S268" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="T268" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="U268" s="1"/>
       <c r="V268" s="1">
@@ -22803,7 +22821,7 @@
         <v>607</v>
       </c>
       <c r="X268" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="269" spans="1:24" ht="36">
@@ -22855,7 +22873,7 @@
         <v>609</v>
       </c>
       <c r="X269" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="270" spans="1:24" ht="48">
@@ -22872,7 +22890,7 @@
       <c r="E270" s="1"/>
       <c r="F270" s="67"/>
       <c r="G270" s="33" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="H270" s="33"/>
       <c r="I270" s="32"/>
@@ -22888,7 +22906,7 @@
         <v>689</v>
       </c>
       <c r="Q270" s="10" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="R270" s="10">
         <v>56000101</v>
@@ -22896,7 +22914,7 @@
       <c r="S270" s="1"/>
       <c r="T270" s="1"/>
       <c r="U270" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V270" s="1">
         <v>4</v>
@@ -22905,7 +22923,7 @@
         <v>611</v>
       </c>
       <c r="X270" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="271" spans="1:24">
@@ -22936,7 +22954,7 @@
         <v>689</v>
       </c>
       <c r="Q271" s="10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="R271" s="10">
         <v>0</v>
@@ -22951,7 +22969,7 @@
         <v>613</v>
       </c>
       <c r="X271" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="272" spans="1:24" ht="36">
@@ -22968,7 +22986,7 @@
       <c r="E272" s="1"/>
       <c r="F272" s="67"/>
       <c r="G272" s="33" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="H272" s="33"/>
       <c r="I272" s="32"/>
@@ -22984,7 +23002,7 @@
         <v>689</v>
       </c>
       <c r="Q272" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R272" s="10">
         <v>56000131</v>
@@ -22992,7 +23010,7 @@
       <c r="S272" s="1"/>
       <c r="T272" s="1"/>
       <c r="U272" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V272" s="1">
         <v>3</v>
@@ -23001,7 +23019,7 @@
         <v>615</v>
       </c>
       <c r="X272" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="273" spans="1:24" ht="24">
@@ -23009,7 +23027,7 @@
         <v>55000288</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>1</v>
@@ -23023,7 +23041,7 @@
       <c r="J273" s="18"/>
       <c r="K273" s="17"/>
       <c r="L273" s="17" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="M273" s="21"/>
       <c r="N273" s="60"/>
@@ -23051,7 +23069,7 @@
         <v>618</v>
       </c>
       <c r="X273" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="274" spans="1:24" ht="120">
@@ -23059,22 +23077,22 @@
         <v>55000289</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="E274" s="1">
         <v>100</v>
       </c>
       <c r="F274" s="67" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="G274" s="33" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="H274" s="33"/>
       <c r="I274" s="32"/>
@@ -23090,7 +23108,7 @@
         <v>689</v>
       </c>
       <c r="Q274" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="R274" s="1">
         <v>0</v>
@@ -23107,7 +23125,7 @@
         <v>619</v>
       </c>
       <c r="X274" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="275" spans="1:24" ht="84">
@@ -23128,7 +23146,7 @@
       <c r="I275" s="32"/>
       <c r="J275" s="18"/>
       <c r="K275" s="17" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="L275" s="17"/>
       <c r="M275" s="21"/>
@@ -23140,7 +23158,7 @@
         <v>689</v>
       </c>
       <c r="Q275" s="10" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R275" s="10">
         <v>0</v>
@@ -23155,7 +23173,7 @@
         <v>621</v>
       </c>
       <c r="X275" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="276" spans="1:24" ht="60">
@@ -23176,7 +23194,7 @@
       <c r="I276" s="32"/>
       <c r="J276" s="18"/>
       <c r="K276" s="17" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="L276" s="17"/>
       <c r="M276" s="21"/>
@@ -23188,7 +23206,7 @@
         <v>689</v>
       </c>
       <c r="Q276" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="R276" s="10">
         <v>0</v>
@@ -23203,7 +23221,7 @@
         <v>623</v>
       </c>
       <c r="X276" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="277" spans="1:24" ht="36">
@@ -23226,10 +23244,10 @@
       </c>
       <c r="J277" s="18"/>
       <c r="K277" s="17" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="L277" s="17" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M277" s="21"/>
       <c r="N277" s="60"/>
@@ -23240,7 +23258,7 @@
         <v>689</v>
       </c>
       <c r="Q277" s="10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="R277" s="10">
         <v>0</v>
@@ -23255,7 +23273,7 @@
         <v>625</v>
       </c>
       <c r="X277" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="278" spans="1:24" ht="48">
@@ -23278,7 +23296,7 @@
       <c r="K278" s="17"/>
       <c r="L278" s="17"/>
       <c r="M278" s="21" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="N278" s="60"/>
       <c r="O278" s="1" t="s">
@@ -23288,7 +23306,7 @@
         <v>689</v>
       </c>
       <c r="Q278" s="10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="R278" s="10">
         <v>0</v>
@@ -23303,7 +23321,7 @@
         <v>627</v>
       </c>
       <c r="X278" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="279" spans="1:24" ht="96">
@@ -23317,23 +23335,23 @@
         <v>216</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="E279" s="1">
         <v>10</v>
       </c>
       <c r="F279" s="67" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="G279" s="33"/>
       <c r="H279" s="33"/>
       <c r="I279" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J279" s="18"/>
       <c r="K279" s="17"/>
       <c r="L279" s="17" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="M279" s="21"/>
       <c r="N279" s="60"/>
@@ -23344,19 +23362,19 @@
         <v>689</v>
       </c>
       <c r="Q279" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="R279" s="10">
+        <v>0</v>
+      </c>
+      <c r="S279" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="R279" s="10">
-        <v>0</v>
-      </c>
-      <c r="S279" s="1" t="s">
-        <v>1147</v>
-      </c>
       <c r="T279" s="1" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="U279" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V279" s="1">
         <v>3</v>
@@ -23365,7 +23383,7 @@
         <v>629</v>
       </c>
       <c r="X279" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="280" spans="1:24">
@@ -23396,7 +23414,7 @@
         <v>689</v>
       </c>
       <c r="Q280" s="10" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="R280" s="10">
         <v>0</v>
@@ -23411,7 +23429,7 @@
         <v>631</v>
       </c>
       <c r="X280" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="281" spans="1:24" ht="24">
@@ -23434,7 +23452,7 @@
       <c r="K281" s="17"/>
       <c r="L281" s="17"/>
       <c r="M281" s="21" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="N281" s="60"/>
       <c r="O281" s="1" t="s">
@@ -23459,7 +23477,7 @@
         <v>633</v>
       </c>
       <c r="X281" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="282" spans="1:24" ht="96">
@@ -23482,7 +23500,7 @@
       </c>
       <c r="J282" s="18"/>
       <c r="K282" s="17" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="L282" s="17"/>
       <c r="M282" s="21"/>
@@ -23494,7 +23512,7 @@
         <v>689</v>
       </c>
       <c r="Q282" s="10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="R282" s="10">
         <v>0</v>
@@ -23509,7 +23527,7 @@
         <v>635</v>
       </c>
       <c r="X282" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="283" spans="1:24" ht="84">
@@ -23532,7 +23550,7 @@
       </c>
       <c r="J283" s="18"/>
       <c r="K283" s="17" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="L283" s="17"/>
       <c r="M283" s="21"/>
@@ -23544,7 +23562,7 @@
         <v>689</v>
       </c>
       <c r="Q283" s="10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="R283" s="10">
         <v>0</v>
@@ -23559,7 +23577,7 @@
         <v>637</v>
       </c>
       <c r="X283" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="284" spans="1:24" ht="24">
@@ -23611,7 +23629,7 @@
         <v>640</v>
       </c>
       <c r="X284" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="285" spans="1:24" ht="24">
@@ -23619,10 +23637,10 @@
         <v>55000300</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -23634,7 +23652,7 @@
       <c r="K285" s="17"/>
       <c r="L285" s="17"/>
       <c r="M285" s="21" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="N285" s="60">
         <v>2</v>
@@ -23646,7 +23664,7 @@
         <v>689</v>
       </c>
       <c r="Q285" s="10" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="R285" s="10">
         <v>0</v>
@@ -23660,7 +23678,7 @@
         <v>80</v>
       </c>
       <c r="W285" s="31" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="X285" s="53"/>
     </row>
@@ -23675,23 +23693,23 @@
         <v>216</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="E286" s="1">
         <v>10</v>
       </c>
       <c r="F286" s="67" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="G286" s="33"/>
       <c r="H286" s="33"/>
       <c r="I286" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J286" s="18"/>
       <c r="K286" s="17"/>
       <c r="L286" s="17" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="M286" s="21"/>
       <c r="N286" s="60"/>
@@ -23702,7 +23720,7 @@
         <v>689</v>
       </c>
       <c r="Q286" s="10" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="R286" s="10">
         <v>0</v>
@@ -23711,10 +23729,10 @@
         <v>912</v>
       </c>
       <c r="T286" s="10" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="U286" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V286" s="1">
         <v>5</v>
@@ -23723,7 +23741,7 @@
         <v>642</v>
       </c>
       <c r="X286" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="287" spans="1:24" ht="96">
@@ -23737,23 +23755,23 @@
         <v>216</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="E287" s="1">
         <v>10</v>
       </c>
       <c r="F287" s="67" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="G287" s="33"/>
       <c r="H287" s="33"/>
       <c r="I287" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J287" s="18"/>
       <c r="K287" s="17"/>
       <c r="L287" s="17" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="M287" s="21"/>
       <c r="N287" s="60"/>
@@ -23764,7 +23782,7 @@
         <v>689</v>
       </c>
       <c r="Q287" s="10" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="R287" s="10">
         <v>0</v>
@@ -23773,10 +23791,10 @@
         <v>913</v>
       </c>
       <c r="T287" s="10" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="U287" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V287" s="1">
         <v>5</v>
@@ -23785,7 +23803,7 @@
         <v>644</v>
       </c>
       <c r="X287" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="288" spans="1:24" ht="96">
@@ -23799,23 +23817,23 @@
         <v>216</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="E288" s="1">
         <v>10</v>
       </c>
       <c r="F288" s="67" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="G288" s="33"/>
       <c r="H288" s="33"/>
       <c r="I288" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J288" s="18"/>
       <c r="K288" s="17"/>
       <c r="L288" s="17" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="M288" s="21"/>
       <c r="N288" s="60"/>
@@ -23835,10 +23853,10 @@
         <v>914</v>
       </c>
       <c r="T288" s="10" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="U288" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V288" s="1">
         <v>10</v>
@@ -23847,7 +23865,7 @@
         <v>646</v>
       </c>
       <c r="X288" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="289" spans="1:24" ht="96">
@@ -23861,7 +23879,7 @@
         <v>216</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="E289" s="1">
         <v>15</v>
@@ -23870,12 +23888,12 @@
       <c r="G289" s="33"/>
       <c r="H289" s="33"/>
       <c r="I289" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J289" s="18"/>
       <c r="K289" s="17"/>
       <c r="L289" s="17" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="M289" s="21"/>
       <c r="N289" s="60"/>
@@ -23895,10 +23913,10 @@
         <v>915</v>
       </c>
       <c r="T289" s="10" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="U289" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V289" s="1">
         <v>8</v>
@@ -23907,7 +23925,7 @@
         <v>648</v>
       </c>
       <c r="X289" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="290" spans="1:24" ht="96">
@@ -23921,23 +23939,23 @@
         <v>216</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="E290" s="1">
         <v>30</v>
       </c>
       <c r="F290" s="67" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="G290" s="33"/>
       <c r="H290" s="33"/>
       <c r="I290" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J290" s="18"/>
       <c r="K290" s="17"/>
       <c r="L290" s="17" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="M290" s="21"/>
       <c r="N290" s="60"/>
@@ -23948,7 +23966,7 @@
         <v>689</v>
       </c>
       <c r="Q290" s="10" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="R290" s="10">
         <v>0</v>
@@ -23957,10 +23975,10 @@
         <v>916</v>
       </c>
       <c r="T290" s="10" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="U290" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V290" s="1">
         <v>7</v>
@@ -23969,7 +23987,7 @@
         <v>650</v>
       </c>
       <c r="X290" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="291" spans="1:24" ht="96">
@@ -23983,23 +24001,23 @@
         <v>216</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="E291" s="1">
         <v>15</v>
       </c>
       <c r="F291" s="67" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="G291" s="33"/>
       <c r="H291" s="33"/>
       <c r="I291" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J291" s="18"/>
       <c r="K291" s="17"/>
       <c r="L291" s="17" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="M291" s="21"/>
       <c r="N291" s="60"/>
@@ -24010,7 +24028,7 @@
         <v>689</v>
       </c>
       <c r="Q291" s="10" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="R291" s="10">
         <v>0</v>
@@ -24022,7 +24040,7 @@
         <v>917</v>
       </c>
       <c r="U291" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V291" s="1">
         <v>6</v>
@@ -24031,7 +24049,7 @@
         <v>652</v>
       </c>
       <c r="X291" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="292" spans="1:24" ht="96">
@@ -24045,23 +24063,23 @@
         <v>216</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="E292" s="1">
         <v>0</v>
       </c>
       <c r="F292" s="67" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="G292" s="33"/>
       <c r="H292" s="33"/>
       <c r="I292" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J292" s="18"/>
       <c r="K292" s="17"/>
       <c r="L292" s="17" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="M292" s="21"/>
       <c r="N292" s="60"/>
@@ -24072,7 +24090,7 @@
         <v>689</v>
       </c>
       <c r="Q292" s="10" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="R292" s="10">
         <v>0</v>
@@ -24084,7 +24102,7 @@
         <v>921</v>
       </c>
       <c r="U292" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V292" s="1">
         <v>4</v>
@@ -24093,7 +24111,7 @@
         <v>654</v>
       </c>
       <c r="X292" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="293" spans="1:24" ht="96">
@@ -24107,23 +24125,23 @@
         <v>216</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="E293" s="1">
         <v>0</v>
       </c>
       <c r="F293" s="67" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="G293" s="33"/>
       <c r="H293" s="33"/>
       <c r="I293" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J293" s="18"/>
       <c r="K293" s="17"/>
       <c r="L293" s="17" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="M293" s="21"/>
       <c r="N293" s="60"/>
@@ -24134,7 +24152,7 @@
         <v>689</v>
       </c>
       <c r="Q293" s="10" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="R293" s="10">
         <v>0</v>
@@ -24146,7 +24164,7 @@
         <v>918</v>
       </c>
       <c r="U293" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V293" s="1">
         <v>6</v>
@@ -24155,7 +24173,7 @@
         <v>656</v>
       </c>
       <c r="X293" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="294" spans="1:24" ht="72">
@@ -24203,7 +24221,7 @@
         <v>658</v>
       </c>
       <c r="X294" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="295" spans="1:24" ht="180">
@@ -24224,7 +24242,7 @@
       <c r="I295" s="32"/>
       <c r="J295" s="18"/>
       <c r="K295" s="17" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L295" s="17"/>
       <c r="M295" s="21"/>
@@ -24236,7 +24254,7 @@
         <v>689</v>
       </c>
       <c r="Q295" s="10" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="R295" s="10">
         <v>0</v>
@@ -24251,7 +24269,7 @@
         <v>660</v>
       </c>
       <c r="X295" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="296" spans="1:24" ht="96">
@@ -24265,23 +24283,23 @@
         <v>216</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="E296" s="1">
         <v>15</v>
       </c>
       <c r="F296" s="67" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="G296" s="33"/>
       <c r="H296" s="33"/>
       <c r="I296" s="32" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J296" s="18"/>
       <c r="K296" s="17"/>
       <c r="L296" s="17" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="M296" s="21"/>
       <c r="N296" s="60"/>
@@ -24301,10 +24319,10 @@
         <v>923</v>
       </c>
       <c r="T296" s="10" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="U296" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V296" s="1">
         <v>2</v>
@@ -24313,7 +24331,7 @@
         <v>662</v>
       </c>
       <c r="X296" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="297" spans="1:24" ht="84">
@@ -24324,16 +24342,16 @@
         <v>663</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="E297" s="1">
         <v>10</v>
       </c>
       <c r="F297" s="67" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="G297" s="33"/>
       <c r="H297" s="33"/>
@@ -24342,7 +24360,7 @@
       <c r="K297" s="17"/>
       <c r="L297" s="17"/>
       <c r="M297" s="21" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="N297" s="60"/>
       <c r="O297" s="1" t="s">
@@ -24359,7 +24377,7 @@
       </c>
       <c r="S297" s="10"/>
       <c r="T297" s="10" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="U297" s="10"/>
       <c r="V297" s="1">
@@ -24369,7 +24387,7 @@
         <v>664</v>
       </c>
       <c r="X297" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="298" spans="1:24" ht="48">
@@ -24377,19 +24395,19 @@
         <v>55000340</v>
       </c>
       <c r="B298" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>997</v>
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="67"/>
       <c r="G298" s="33" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H298" s="33" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I298" s="32"/>
       <c r="J298" s="18"/>
@@ -24404,7 +24422,7 @@
         <v>689</v>
       </c>
       <c r="Q298" s="10" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="R298" s="10">
         <v>0</v>
@@ -24412,16 +24430,16 @@
       <c r="S298" s="1"/>
       <c r="T298" s="1"/>
       <c r="U298" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="V298" s="1">
         <v>2</v>
       </c>
       <c r="W298" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="X298" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="299" spans="1:24" ht="24">
@@ -24429,16 +24447,16 @@
         <v>55000341</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="67"/>
       <c r="G299" s="33" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H299" s="33"/>
       <c r="I299" s="32"/>
@@ -24454,13 +24472,13 @@
         <v>689</v>
       </c>
       <c r="Q299" s="10" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="R299" s="10">
         <v>0</v>
       </c>
       <c r="S299" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="T299" s="1"/>
       <c r="U299" s="1"/>
@@ -24468,10 +24486,10 @@
         <v>8</v>
       </c>
       <c r="W299" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="X299" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="300" spans="1:24" ht="144">
@@ -24479,22 +24497,22 @@
         <v>55000342</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C300" s="36" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D300" s="28" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E300" s="36">
         <v>10</v>
       </c>
       <c r="F300" s="68" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="G300" s="33" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="H300" s="37"/>
       <c r="I300" s="50"/>
@@ -24507,10 +24525,10 @@
         <v>694</v>
       </c>
       <c r="P300" s="44" t="s">
+        <v>1218</v>
+      </c>
+      <c r="Q300" s="16" t="s">
         <v>1219</v>
-      </c>
-      <c r="Q300" s="16" t="s">
-        <v>1220</v>
       </c>
       <c r="R300" s="36">
         <v>0</v>
@@ -24524,10 +24542,10 @@
         <v>4</v>
       </c>
       <c r="W300" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="X300" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="301" spans="1:24" ht="144">
@@ -24535,22 +24553,22 @@
         <v>55000343</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C301" s="36" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D301" s="28" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E301" s="36">
         <v>10</v>
       </c>
       <c r="F301" s="68" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="G301" s="33" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="H301" s="37"/>
       <c r="I301" s="38"/>
@@ -24563,10 +24581,10 @@
         <v>694</v>
       </c>
       <c r="P301" s="44" t="s">
+        <v>1218</v>
+      </c>
+      <c r="Q301" s="16" t="s">
         <v>1219</v>
-      </c>
-      <c r="Q301" s="16" t="s">
-        <v>1220</v>
       </c>
       <c r="R301" s="36">
         <v>0</v>
@@ -24580,15 +24598,15 @@
         <v>6</v>
       </c>
       <c r="W301" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="X301" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="302" spans="1:24" ht="36">
       <c r="A302" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="B302" s="11" t="s">
         <v>129</v>
@@ -24605,7 +24623,7 @@
       <c r="J302" s="30"/>
       <c r="K302" s="35"/>
       <c r="L302" s="17" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="M302" s="21"/>
       <c r="N302" s="66"/>
@@ -24616,7 +24634,7 @@
         <v>689</v>
       </c>
       <c r="Q302" s="10" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="R302" s="10">
         <v>0</v>
@@ -24631,7 +24649,7 @@
         <v>130</v>
       </c>
       <c r="X302" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="303" spans="1:24" ht="108">
@@ -24639,13 +24657,13 @@
         <v>55000344</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="C303" s="28" t="s">
         <v>216</v>
       </c>
       <c r="D303" s="28" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="E303" s="28">
         <v>15</v>
@@ -24658,7 +24676,7 @@
       <c r="K303" s="35"/>
       <c r="L303" s="17"/>
       <c r="M303" s="21" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="N303" s="60">
         <v>1</v>
@@ -24670,7 +24688,7 @@
         <v>689</v>
       </c>
       <c r="Q303" s="16" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="R303" s="28">
         <v>0</v>
@@ -24679,16 +24697,16 @@
         <v>914</v>
       </c>
       <c r="T303" s="10" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="U303" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V303" s="28">
         <v>40</v>
       </c>
       <c r="W303" s="28" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="X303" s="28"/>
     </row>
@@ -24741,13 +24759,13 @@
         <v>684</v>
       </c>
       <c r="D1" s="69" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F1" s="69" t="s">
         <v>1470</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>1473</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>700</v>
@@ -24771,7 +24789,7 @@
         <v>933</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>693</v>
@@ -24783,16 +24801,16 @@
         <v>699</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>685</v>
@@ -24801,7 +24819,7 @@
         <v>686</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -24815,37 +24833,37 @@
         <v>676</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>1469</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1472</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>722</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>892</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>692</v>
@@ -24854,10 +24872,10 @@
         <v>688</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>676</v>
@@ -24866,7 +24884,7 @@
         <v>676</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>675</v>
@@ -24889,25 +24907,25 @@
         <v>679</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>1468</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>1471</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>723</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>701</v>
@@ -24919,7 +24937,7 @@
         <v>934</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>695</v>
@@ -24928,19 +24946,19 @@
         <v>690</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>937</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>680</v>
@@ -24949,7 +24967,7 @@
         <v>681</v>
       </c>
       <c r="X3" s="54" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="84">
@@ -24966,7 +24984,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="33" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H4" s="33"/>
       <c r="I4" s="32"/>
@@ -24982,7 +25000,7 @@
         <v>691</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -24997,7 +25015,7 @@
         <v>671</v>
       </c>
       <c r="X4" s="55" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="84">
@@ -25045,7 +25063,7 @@
         <v>671</v>
       </c>
       <c r="X5" s="55" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
   </sheetData>
@@ -25097,13 +25115,13 @@
         <v>684</v>
       </c>
       <c r="D1" s="69" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F1" s="69" t="s">
         <v>1470</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>1473</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>700</v>
@@ -25127,7 +25145,7 @@
         <v>933</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>693</v>
@@ -25139,16 +25157,16 @@
         <v>699</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>685</v>
@@ -25157,7 +25175,7 @@
         <v>686</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -25171,37 +25189,37 @@
         <v>676</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>1469</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1472</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>722</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>892</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>692</v>
@@ -25210,10 +25228,10 @@
         <v>688</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>676</v>
@@ -25245,25 +25263,25 @@
         <v>679</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>1468</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>1471</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>723</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>701</v>
@@ -25275,7 +25293,7 @@
         <v>934</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>695</v>
@@ -25284,19 +25302,19 @@
         <v>690</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>937</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>680</v>
@@ -25305,7 +25323,7 @@
         <v>681</v>
       </c>
       <c r="X3" s="54" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="36">
@@ -25324,7 +25342,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
       <c r="I4" s="32" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="17" t="s">
@@ -25340,7 +25358,7 @@
         <v>689</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="R4" s="10">
         <v>0</v>
@@ -25355,7 +25373,7 @@
         <v>45</v>
       </c>
       <c r="X4" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="36">
@@ -25390,7 +25408,7 @@
         <v>689</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -25405,7 +25423,7 @@
         <v>47</v>
       </c>
       <c r="X5" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="36">
@@ -25440,7 +25458,7 @@
         <v>689</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
@@ -25455,7 +25473,7 @@
         <v>49</v>
       </c>
       <c r="X6" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="36">
@@ -25490,7 +25508,7 @@
         <v>689</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -25505,7 +25523,7 @@
         <v>51</v>
       </c>
       <c r="X7" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="36">
@@ -25540,7 +25558,7 @@
         <v>689</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -25555,7 +25573,7 @@
         <v>53</v>
       </c>
       <c r="X8" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="36">
@@ -25590,7 +25608,7 @@
         <v>689</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -25605,7 +25623,7 @@
         <v>55</v>
       </c>
       <c r="X9" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="36">
@@ -25640,7 +25658,7 @@
         <v>689</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="R10" s="1">
         <v>0</v>
@@ -25655,7 +25673,7 @@
         <v>57</v>
       </c>
       <c r="X10" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="36">
@@ -25690,7 +25708,7 @@
         <v>689</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -25705,7 +25723,7 @@
         <v>59</v>
       </c>
       <c r="X11" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="36">
@@ -25755,7 +25773,7 @@
         <v>114</v>
       </c>
       <c r="X12" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="36">
@@ -25805,7 +25823,7 @@
         <v>116</v>
       </c>
       <c r="X13" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="36">
@@ -25855,7 +25873,7 @@
         <v>118</v>
       </c>
       <c r="X14" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="36">
@@ -25905,7 +25923,7 @@
         <v>120</v>
       </c>
       <c r="X15" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="36">
@@ -25955,7 +25973,7 @@
         <v>122</v>
       </c>
       <c r="X16" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="36">
@@ -26005,7 +26023,7 @@
         <v>124</v>
       </c>
       <c r="X17" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="36">
@@ -26055,7 +26073,7 @@
         <v>126</v>
       </c>
       <c r="X18" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="36">
@@ -26105,7 +26123,7 @@
         <v>128</v>
       </c>
       <c r="X19" s="55" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
   </sheetData>
@@ -26166,7 +26184,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -26214,7 +26232,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -26262,7 +26280,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -26310,7 +26328,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -26358,7 +26376,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -26406,7 +26424,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -26454,7 +26472,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -26502,7 +26520,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -26550,45 +26568,45 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B11" t="s">
         <v>1047</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E12" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F12" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B13" t="s">
         <v>1050</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B14" t="s">
         <v>1053</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B15">
         <v>300</v>
@@ -26596,7 +26614,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B16">
         <v>5000</v>
@@ -26604,7 +26622,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B17" s="26">
         <v>0.2</v>
@@ -26612,7 +26630,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B18" s="26">
         <v>0.1</v>
@@ -26620,7 +26638,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B19" s="26">
         <v>0.3</v>
@@ -26628,13 +26646,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B20" t="s">
         <v>1066</v>
       </c>
-      <c r="B20" t="s">
-        <v>1067</v>
-      </c>
       <c r="D20" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -26642,31 +26660,31 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>1076</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B22" t="s">
         <v>1072</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B23" t="s">
         <v>1074</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B24">
         <v>100</v>
@@ -26674,7 +26692,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -26682,7 +26700,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B26" s="26">
         <v>0.2</v>
@@ -26690,7 +26708,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B32">
         <v>800</v>
@@ -26698,7 +26716,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B33">
         <v>500</v>
@@ -26723,12 +26741,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="3" spans="1:1">

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="1508">
   <si>
     <t>夜色</t>
   </si>
@@ -5576,11 +5576,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>对方下一张怪物卡消耗+5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.Owner.AddSpike(57000007);</t>
+    <t>s.Rival.AddSpike(57000007);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方下一张怪物卡消耗+5（一回合有效）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9435,10 +9435,10 @@
   <dimension ref="A1:X304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomRight" activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11863,7 +11863,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="67"/>
       <c r="G48" s="33" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H48" s="33"/>
       <c r="I48" s="32"/>
@@ -11879,7 +11879,7 @@
         <v>684</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -11893,9 +11893,7 @@
       <c r="W48" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="X48" s="53" t="s">
-        <v>1381</v>
-      </c>
+      <c r="X48" s="53"/>
     </row>
     <row r="49" spans="1:24" ht="36">
       <c r="A49">

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -5448,10 +5448,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>击中目标后对1.5卡片距离敌人造成30%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>s.Summon(5,51013000);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5581,6 +5577,10 @@
   </si>
   <si>
     <t>对方下一张怪物卡消耗+5（一回合有效）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合对1.5卡片距离敌人造成30%伤害</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9435,10 +9435,10 @@
   <dimension ref="A1:X304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W41" sqref="W41"/>
+      <selection pane="bottomRight" activeCell="Q304" sqref="Q304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11854,7 +11854,7 @@
         <v>55000052</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>1</v>
@@ -11863,7 +11863,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="67"/>
       <c r="G48" s="33" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H48" s="33"/>
       <c r="I48" s="32"/>
@@ -11879,7 +11879,7 @@
         <v>684</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>25</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="X48" s="53"/>
     </row>
@@ -14658,16 +14658,16 @@
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E104" s="1">
         <v>20</v>
       </c>
       <c r="F104" s="67" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G104" s="33" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H104" s="33"/>
       <c r="I104" s="32"/>
@@ -14683,7 +14683,7 @@
         <v>684</v>
       </c>
       <c r="Q104" s="10" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="R104" s="10">
         <v>0</v>
@@ -14698,7 +14698,7 @@
         <v>258</v>
       </c>
       <c r="X104" s="53" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="60">
@@ -15202,7 +15202,7 @@
         <v>55000127</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1</v>
@@ -15211,7 +15211,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="67"/>
       <c r="G115" s="33" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H115" s="33"/>
       <c r="I115" s="32"/>
@@ -15227,7 +15227,7 @@
         <v>684</v>
       </c>
       <c r="Q115" s="10" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="R115" s="10">
         <v>0</v>
@@ -15239,7 +15239,7 @@
         <v>80</v>
       </c>
       <c r="W115" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="X115" s="53"/>
     </row>
@@ -15455,7 +15455,7 @@
         <v>1457</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H120" s="33"/>
       <c r="I120" s="29"/>
@@ -15496,7 +15496,7 @@
         <v>55000134</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>104</v>
@@ -15505,10 +15505,10 @@
       <c r="E121" s="1"/>
       <c r="F121" s="67"/>
       <c r="G121" s="33" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H121" s="33" t="s">
         <v>1502</v>
-      </c>
-      <c r="H121" s="33" t="s">
-        <v>1503</v>
       </c>
       <c r="I121" s="32"/>
       <c r="J121" s="18"/>
@@ -17676,7 +17676,7 @@
         <v>55000178</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>104</v>
@@ -17685,10 +17685,10 @@
       <c r="E165" s="1"/>
       <c r="F165" s="67"/>
       <c r="G165" s="33" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H165" s="33" t="s">
         <v>1490</v>
-      </c>
-      <c r="H165" s="33" t="s">
-        <v>1491</v>
       </c>
       <c r="I165" s="32"/>
       <c r="J165" s="18"/>
@@ -17726,7 +17726,7 @@
         <v>55000179</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>104</v>
@@ -17735,10 +17735,10 @@
       <c r="E166" s="1"/>
       <c r="F166" s="67"/>
       <c r="G166" s="33" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H166" s="33" t="s">
         <v>1493</v>
-      </c>
-      <c r="H166" s="33" t="s">
-        <v>1494</v>
       </c>
       <c r="I166" s="32"/>
       <c r="J166" s="18"/>
@@ -19824,16 +19824,16 @@
         <v>1</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E208" s="1">
         <v>10</v>
       </c>
       <c r="F208" s="67" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G208" s="33" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H208" s="33"/>
       <c r="I208" s="32"/>
@@ -19849,7 +19849,7 @@
         <v>684</v>
       </c>
       <c r="Q208" s="10" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="R208" s="10">
         <v>0</v>
@@ -20020,7 +20020,7 @@
         <v>55000225</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>104</v>
@@ -20029,10 +20029,10 @@
       <c r="E212" s="1"/>
       <c r="F212" s="67"/>
       <c r="G212" s="33" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H212" s="33" t="s">
         <v>1496</v>
-      </c>
-      <c r="H212" s="33" t="s">
-        <v>1497</v>
       </c>
       <c r="I212" s="32"/>
       <c r="J212" s="18"/>
@@ -20070,7 +20070,7 @@
         <v>55000226</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>104</v>
@@ -20079,10 +20079,10 @@
       <c r="E213" s="1"/>
       <c r="F213" s="67"/>
       <c r="G213" s="33" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H213" s="33" t="s">
         <v>1499</v>
-      </c>
-      <c r="H213" s="33" t="s">
-        <v>1500</v>
       </c>
       <c r="I213" s="32"/>
       <c r="J213" s="18"/>
@@ -24759,7 +24759,7 @@
         <v>684</v>
       </c>
       <c r="Q304" s="16" t="s">
-        <v>1474</v>
+        <v>1507</v>
       </c>
       <c r="R304" s="28">
         <v>0</v>

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="1508">
   <si>
     <t>夜色</t>
   </si>
@@ -4706,14 +4706,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>双方玩家使用魔法/武器卡消耗+3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>双方玩家使用魔法/武器卡消耗-3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>召唤时对场上所有怪物封印3回合</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4786,10 +4778,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>双方玩家使用怪物卡消耗+2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>仗剑</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5581,6 +5569,18 @@
   </si>
   <si>
     <t>每回合对1.5卡片距离敌人造成30%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方玩家使用魔法卡消耗+3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方玩家使用魔法卡消耗-3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>双方玩家使用武器卡消耗-2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9435,10 +9435,10 @@
   <dimension ref="A1:X304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E303" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q304" sqref="Q304"/>
+      <selection pane="bottomRight" activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9472,13 +9472,13 @@
         <v>679</v>
       </c>
       <c r="D1" s="69" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F1" s="69" t="s">
         <v>1453</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>1456</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>695</v>
@@ -9502,7 +9502,7 @@
         <v>928</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>688</v>
@@ -9520,7 +9520,7 @@
         <v>987</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>1006</v>
@@ -9532,7 +9532,7 @@
         <v>681</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -9546,16 +9546,16 @@
         <v>671</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1017</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>993</v>
@@ -9570,13 +9570,13 @@
         <v>983</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>687</v>
@@ -9620,16 +9620,16 @@
         <v>674</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>1451</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>1454</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>995</v>
@@ -9641,16 +9641,16 @@
         <v>948</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>852</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>1385</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>1388</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>690</v>
@@ -9665,10 +9665,10 @@
         <v>1018</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>1004</v>
@@ -9680,7 +9680,7 @@
         <v>676</v>
       </c>
       <c r="X3" s="54" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="36">
@@ -9730,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="X4" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="48">
@@ -9778,7 +9778,7 @@
         <v>5</v>
       </c>
       <c r="X5" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -9801,7 +9801,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="21" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="N6" s="60"/>
       <c r="O6" s="1" t="s">
@@ -9826,7 +9826,7 @@
         <v>8</v>
       </c>
       <c r="X6" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="36">
@@ -9876,7 +9876,7 @@
         <v>11</v>
       </c>
       <c r="X7" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="36">
@@ -9926,7 +9926,7 @@
         <v>13</v>
       </c>
       <c r="X8" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="36">
@@ -9976,7 +9976,7 @@
         <v>15</v>
       </c>
       <c r="X9" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="36">
@@ -10026,7 +10026,7 @@
         <v>17</v>
       </c>
       <c r="X10" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="36">
@@ -10076,7 +10076,7 @@
         <v>19</v>
       </c>
       <c r="X11" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="36">
@@ -10126,7 +10126,7 @@
         <v>21</v>
       </c>
       <c r="X12" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="36">
@@ -10176,7 +10176,7 @@
         <v>23</v>
       </c>
       <c r="X13" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="36">
@@ -10226,7 +10226,7 @@
         <v>25</v>
       </c>
       <c r="X14" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="36">
@@ -10276,7 +10276,7 @@
         <v>27</v>
       </c>
       <c r="X15" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="36">
@@ -10326,7 +10326,7 @@
         <v>29</v>
       </c>
       <c r="X16" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="36">
@@ -10376,7 +10376,7 @@
         <v>31</v>
       </c>
       <c r="X17" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="36">
@@ -10426,7 +10426,7 @@
         <v>33</v>
       </c>
       <c r="X18" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="36">
@@ -10476,7 +10476,7 @@
         <v>35</v>
       </c>
       <c r="X19" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="36">
@@ -10526,7 +10526,7 @@
         <v>37</v>
       </c>
       <c r="X20" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="36">
@@ -10576,7 +10576,7 @@
         <v>39</v>
       </c>
       <c r="X21" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="36">
@@ -10626,7 +10626,7 @@
         <v>41</v>
       </c>
       <c r="X22" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="48">
@@ -10676,7 +10676,7 @@
         <v>43</v>
       </c>
       <c r="X23" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="27">
@@ -10684,10 +10684,10 @@
         <v>55000021</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -10701,13 +10701,13 @@
       <c r="M24" s="48"/>
       <c r="N24" s="61"/>
       <c r="O24" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>684</v>
       </c>
       <c r="Q24" s="15" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="R24" s="52">
         <v>0</v>
@@ -10719,10 +10719,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="X24" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="24">
@@ -10744,7 +10744,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="60"/>
@@ -10770,7 +10770,7 @@
         <v>62</v>
       </c>
       <c r="X25" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="36">
@@ -10820,7 +10820,7 @@
         <v>65</v>
       </c>
       <c r="X26" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="24">
@@ -10839,7 +10839,7 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="17"/>
@@ -10870,7 +10870,7 @@
         <v>67</v>
       </c>
       <c r="X27" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="24">
@@ -10889,7 +10889,7 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J28" s="18"/>
       <c r="K28" s="17"/>
@@ -10920,7 +10920,7 @@
         <v>69</v>
       </c>
       <c r="X28" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -10968,7 +10968,7 @@
         <v>662</v>
       </c>
       <c r="X29" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="48">
@@ -11016,7 +11016,7 @@
         <v>71</v>
       </c>
       <c r="X30" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="24">
@@ -11038,7 +11038,7 @@
       <c r="J31" s="18"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="60"/>
@@ -11064,7 +11064,7 @@
         <v>74</v>
       </c>
       <c r="X31" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="36">
@@ -11083,7 +11083,7 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="32" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="J32" s="18"/>
       <c r="K32" s="17" t="s">
@@ -11114,7 +11114,7 @@
         <v>77</v>
       </c>
       <c r="X32" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="48">
@@ -11162,7 +11162,7 @@
         <v>79</v>
       </c>
       <c r="X33" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="36">
@@ -11210,7 +11210,7 @@
         <v>81</v>
       </c>
       <c r="X34" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="36">
@@ -11258,7 +11258,7 @@
         <v>83</v>
       </c>
       <c r="X35" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="36">
@@ -11306,7 +11306,7 @@
         <v>85</v>
       </c>
       <c r="X36" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="36">
@@ -11358,7 +11358,7 @@
         <v>89</v>
       </c>
       <c r="X37" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="48">
@@ -11408,7 +11408,7 @@
         <v>91</v>
       </c>
       <c r="X38" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="24">
@@ -11430,7 +11430,7 @@
       <c r="J39" s="18"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="60"/>
@@ -11456,7 +11456,7 @@
         <v>93</v>
       </c>
       <c r="X39" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="24">
@@ -11478,7 +11478,7 @@
       <c r="J40" s="18"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="M40" s="21"/>
       <c r="N40" s="60"/>
@@ -11504,7 +11504,7 @@
         <v>95</v>
       </c>
       <c r="X40" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="36">
@@ -11552,7 +11552,7 @@
         <v>97</v>
       </c>
       <c r="X41" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="36">
@@ -11575,7 +11575,7 @@
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
       <c r="M42" s="21" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="N42" s="60"/>
       <c r="O42" s="1" t="s">
@@ -11600,7 +11600,7 @@
         <v>99</v>
       </c>
       <c r="X42" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="36">
@@ -11650,7 +11650,7 @@
         <v>102</v>
       </c>
       <c r="X43" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="36">
@@ -11667,7 +11667,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="67"/>
       <c r="G44" s="33" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="H44" s="33"/>
       <c r="I44" s="32"/>
@@ -11700,7 +11700,7 @@
         <v>105</v>
       </c>
       <c r="X44" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="48">
@@ -11748,7 +11748,7 @@
         <v>107</v>
       </c>
       <c r="X45" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="48">
@@ -11798,7 +11798,7 @@
         <v>109</v>
       </c>
       <c r="X46" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -11846,7 +11846,7 @@
         <v>112</v>
       </c>
       <c r="X47" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="36">
@@ -11854,7 +11854,7 @@
         <v>55000052</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>1</v>
@@ -11863,7 +11863,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="67"/>
       <c r="G48" s="33" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="H48" s="33"/>
       <c r="I48" s="32"/>
@@ -11879,7 +11879,7 @@
         <v>684</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>25</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="X48" s="53"/>
     </row>
@@ -11942,7 +11942,7 @@
         <v>132</v>
       </c>
       <c r="X49" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="24">
@@ -11964,7 +11964,7 @@
       <c r="J50" s="18"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="M50" s="21"/>
       <c r="N50" s="60"/>
@@ -11990,7 +11990,7 @@
         <v>134</v>
       </c>
       <c r="X50" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="36">
@@ -12040,7 +12040,7 @@
         <v>137</v>
       </c>
       <c r="X51" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="72">
@@ -12057,10 +12057,10 @@
       <c r="E52" s="1"/>
       <c r="F52" s="67"/>
       <c r="G52" s="33" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="18"/>
@@ -12075,7 +12075,7 @@
         <v>684</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="R52" s="10">
         <v>0</v>
@@ -12086,14 +12086,12 @@
         <v>1009</v>
       </c>
       <c r="V52" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="W52" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="X52" s="53" t="s">
-        <v>1381</v>
-      </c>
+      <c r="X52" s="53"/>
     </row>
     <row r="53" spans="1:24" ht="48">
       <c r="A53">
@@ -12142,7 +12140,7 @@
         <v>141</v>
       </c>
       <c r="X53" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="48">
@@ -12192,7 +12190,7 @@
         <v>143</v>
       </c>
       <c r="X54" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="48">
@@ -12242,7 +12240,7 @@
         <v>145</v>
       </c>
       <c r="X55" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="48">
@@ -12292,7 +12290,7 @@
         <v>147</v>
       </c>
       <c r="X56" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="48">
@@ -12342,7 +12340,7 @@
         <v>149</v>
       </c>
       <c r="X57" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="48">
@@ -12392,7 +12390,7 @@
         <v>151</v>
       </c>
       <c r="X58" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="48">
@@ -12442,7 +12440,7 @@
         <v>153</v>
       </c>
       <c r="X59" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="48">
@@ -12492,7 +12490,7 @@
         <v>155</v>
       </c>
       <c r="X60" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="36">
@@ -12542,7 +12540,7 @@
         <v>157</v>
       </c>
       <c r="X61" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="24">
@@ -12590,7 +12588,7 @@
         <v>159</v>
       </c>
       <c r="X62" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="120">
@@ -12642,7 +12640,7 @@
         <v>164</v>
       </c>
       <c r="X63" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="24">
@@ -12690,7 +12688,7 @@
         <v>167</v>
       </c>
       <c r="X64" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="36">
@@ -12740,7 +12738,7 @@
         <v>169</v>
       </c>
       <c r="X65" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="24">
@@ -12788,7 +12786,7 @@
         <v>171</v>
       </c>
       <c r="X66" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="24">
@@ -12838,7 +12836,7 @@
         <v>174</v>
       </c>
       <c r="X67" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="24">
@@ -12888,7 +12886,7 @@
         <v>177</v>
       </c>
       <c r="X68" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="24">
@@ -12936,7 +12934,7 @@
         <v>180</v>
       </c>
       <c r="X69" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="24">
@@ -12960,7 +12958,7 @@
       <c r="J70" s="18"/>
       <c r="K70" s="17"/>
       <c r="L70" s="17" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="M70" s="21"/>
       <c r="N70" s="60"/>
@@ -12986,7 +12984,7 @@
         <v>182</v>
       </c>
       <c r="X70" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="48">
@@ -13009,7 +13007,7 @@
       <c r="K71" s="17"/>
       <c r="L71" s="22"/>
       <c r="M71" s="21" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="N71" s="60"/>
       <c r="O71" s="1" t="s">
@@ -13038,7 +13036,7 @@
         <v>186</v>
       </c>
       <c r="X71" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="156">
@@ -13052,16 +13050,16 @@
         <v>1012</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="E72" s="1">
         <v>40</v>
       </c>
       <c r="F72" s="67" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="G72" s="33" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="H72" s="33"/>
       <c r="I72" s="32"/>
@@ -13077,7 +13075,7 @@
         <v>684</v>
       </c>
       <c r="Q72" s="10" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="R72" s="10">
         <v>0</v>
@@ -13146,7 +13144,7 @@
         <v>190</v>
       </c>
       <c r="X73" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="36">
@@ -13196,7 +13194,7 @@
         <v>192</v>
       </c>
       <c r="X74" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="24">
@@ -13218,7 +13216,7 @@
       <c r="J75" s="18"/>
       <c r="K75" s="17"/>
       <c r="L75" s="17" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="M75" s="21"/>
       <c r="N75" s="60"/>
@@ -13244,7 +13242,7 @@
         <v>194</v>
       </c>
       <c r="X75" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="24">
@@ -13266,7 +13264,7 @@
       <c r="J76" s="18"/>
       <c r="K76" s="17"/>
       <c r="L76" s="17" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="M76" s="21"/>
       <c r="N76" s="60"/>
@@ -13292,7 +13290,7 @@
         <v>196</v>
       </c>
       <c r="X76" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="24">
@@ -13340,7 +13338,7 @@
         <v>198</v>
       </c>
       <c r="X77" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="48">
@@ -13357,7 +13355,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="67"/>
       <c r="G78" s="33" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="H78" s="33"/>
       <c r="I78" s="32"/>
@@ -13388,7 +13386,7 @@
         <v>201</v>
       </c>
       <c r="X78" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="24">
@@ -13410,7 +13408,7 @@
       <c r="J79" s="18"/>
       <c r="K79" s="17"/>
       <c r="L79" s="17" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="M79" s="21"/>
       <c r="N79" s="60"/>
@@ -13436,7 +13434,7 @@
         <v>203</v>
       </c>
       <c r="X79" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="36">
@@ -13459,7 +13457,7 @@
       <c r="K80" s="17"/>
       <c r="L80" s="22"/>
       <c r="M80" s="19" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="N80" s="63"/>
       <c r="O80" s="1" t="s">
@@ -13488,7 +13486,7 @@
         <v>204</v>
       </c>
       <c r="X80" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="24">
@@ -13510,7 +13508,7 @@
       <c r="J81" s="18"/>
       <c r="K81" s="17"/>
       <c r="L81" s="17" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="M81" s="21"/>
       <c r="N81" s="60"/>
@@ -13536,7 +13534,7 @@
         <v>206</v>
       </c>
       <c r="X81" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="24">
@@ -13558,7 +13556,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="17"/>
       <c r="L82" s="17" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="M82" s="21"/>
       <c r="N82" s="60"/>
@@ -13584,7 +13582,7 @@
         <v>208</v>
       </c>
       <c r="X82" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="24">
@@ -13606,7 +13604,7 @@
       <c r="J83" s="18"/>
       <c r="K83" s="17"/>
       <c r="L83" s="17" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="M83" s="21"/>
       <c r="N83" s="60"/>
@@ -13632,7 +13630,7 @@
         <v>210</v>
       </c>
       <c r="X83" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="84">
@@ -13680,7 +13678,7 @@
         <v>212</v>
       </c>
       <c r="X84" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="48">
@@ -13697,7 +13695,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="67"/>
       <c r="G85" s="33" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="H85" s="33"/>
       <c r="I85" s="32"/>
@@ -13730,7 +13728,7 @@
         <v>214</v>
       </c>
       <c r="X85" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="96">
@@ -13744,23 +13742,23 @@
         <v>216</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E86" s="1">
         <v>20</v>
       </c>
       <c r="F86" s="67" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="G86" s="33"/>
       <c r="H86" s="33"/>
       <c r="I86" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J86" s="18"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="M86" s="21"/>
       <c r="N86" s="60"/>
@@ -13780,7 +13778,7 @@
         <v>901</v>
       </c>
       <c r="T86" s="10" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="U86" s="10" t="s">
         <v>1014</v>
@@ -13792,7 +13790,7 @@
         <v>217</v>
       </c>
       <c r="X86" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="36">
@@ -13840,7 +13838,7 @@
         <v>220</v>
       </c>
       <c r="X87" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="36">
@@ -13892,7 +13890,7 @@
         <v>223</v>
       </c>
       <c r="X88" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -13915,7 +13913,7 @@
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
       <c r="M89" s="21" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="N89" s="60"/>
       <c r="O89" s="1" t="s">
@@ -13940,7 +13938,7 @@
         <v>225</v>
       </c>
       <c r="X89" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -13963,7 +13961,7 @@
       <c r="K90" s="17"/>
       <c r="L90" s="17"/>
       <c r="M90" s="21" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="N90" s="60"/>
       <c r="O90" s="1" t="s">
@@ -13988,7 +13986,7 @@
         <v>227</v>
       </c>
       <c r="X90" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -14034,7 +14032,7 @@
         <v>229</v>
       </c>
       <c r="X91" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="36">
@@ -14084,7 +14082,7 @@
         <v>231</v>
       </c>
       <c r="X92" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="96">
@@ -14098,23 +14096,23 @@
         <v>216</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E93" s="1">
         <v>10</v>
       </c>
       <c r="F93" s="67" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="G93" s="33"/>
       <c r="H93" s="33"/>
       <c r="I93" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J93" s="18"/>
       <c r="K93" s="17"/>
       <c r="L93" s="17" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="M93" s="21"/>
       <c r="N93" s="60"/>
@@ -14134,7 +14132,7 @@
         <v>903</v>
       </c>
       <c r="T93" s="10" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="U93" s="10" t="s">
         <v>1014</v>
@@ -14146,7 +14144,7 @@
         <v>233</v>
       </c>
       <c r="X93" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="48">
@@ -14196,7 +14194,7 @@
         <v>235</v>
       </c>
       <c r="X94" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="36">
@@ -14246,7 +14244,7 @@
         <v>237</v>
       </c>
       <c r="X95" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="48">
@@ -14263,7 +14261,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="67"/>
       <c r="G96" s="33" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="H96" s="33"/>
       <c r="I96" s="32"/>
@@ -14296,7 +14294,7 @@
         <v>239</v>
       </c>
       <c r="X96" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="36">
@@ -14344,7 +14342,7 @@
         <v>242</v>
       </c>
       <c r="X97" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="24">
@@ -14392,7 +14390,7 @@
         <v>245</v>
       </c>
       <c r="X98" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="36">
@@ -14444,7 +14442,7 @@
         <v>248</v>
       </c>
       <c r="X99" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="24">
@@ -14468,7 +14466,7 @@
       </c>
       <c r="K100" s="17"/>
       <c r="L100" s="17" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="M100" s="21"/>
       <c r="N100" s="60"/>
@@ -14494,7 +14492,7 @@
         <v>250</v>
       </c>
       <c r="X100" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="48">
@@ -14511,7 +14509,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="67"/>
       <c r="G101" s="33" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="H101" s="33"/>
       <c r="I101" s="32"/>
@@ -14544,7 +14542,7 @@
         <v>252</v>
       </c>
       <c r="X101" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="24">
@@ -14566,7 +14564,7 @@
       <c r="J102" s="18"/>
       <c r="K102" s="17"/>
       <c r="L102" s="17" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="M102" s="21"/>
       <c r="N102" s="60"/>
@@ -14592,7 +14590,7 @@
         <v>254</v>
       </c>
       <c r="X102" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="36">
@@ -14644,7 +14642,7 @@
         <v>256</v>
       </c>
       <c r="X103" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="132">
@@ -14658,16 +14656,16 @@
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="E104" s="1">
         <v>20</v>
       </c>
       <c r="F104" s="67" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="G104" s="33" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="H104" s="33"/>
       <c r="I104" s="32"/>
@@ -14683,7 +14681,7 @@
         <v>684</v>
       </c>
       <c r="Q104" s="10" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="R104" s="10">
         <v>0</v>
@@ -14698,7 +14696,7 @@
         <v>258</v>
       </c>
       <c r="X104" s="53" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="105" spans="1:24" ht="60">
@@ -14748,7 +14746,7 @@
         <v>260</v>
       </c>
       <c r="X105" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="48">
@@ -14765,7 +14763,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="67"/>
       <c r="G106" s="33" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="H106" s="33"/>
       <c r="I106" s="32"/>
@@ -14798,7 +14796,7 @@
         <v>262</v>
       </c>
       <c r="X106" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="48">
@@ -14848,7 +14846,7 @@
         <v>264</v>
       </c>
       <c r="X107" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="24">
@@ -14870,7 +14868,7 @@
       <c r="J108" s="18"/>
       <c r="K108" s="17"/>
       <c r="L108" s="17" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="M108" s="21"/>
       <c r="N108" s="60"/>
@@ -14896,7 +14894,7 @@
         <v>266</v>
       </c>
       <c r="X108" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="24">
@@ -14948,7 +14946,7 @@
         <v>269</v>
       </c>
       <c r="X109" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="36">
@@ -14998,7 +14996,7 @@
         <v>271</v>
       </c>
       <c r="X110" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="36">
@@ -15048,7 +15046,7 @@
         <v>273</v>
       </c>
       <c r="X111" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="48">
@@ -15065,7 +15063,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="67"/>
       <c r="G112" s="33" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="H112" s="33"/>
       <c r="I112" s="32"/>
@@ -15098,7 +15096,7 @@
         <v>275</v>
       </c>
       <c r="X112" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="36">
@@ -15146,7 +15144,7 @@
         <v>278</v>
       </c>
       <c r="X113" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="114" spans="1:24" ht="48">
@@ -15194,7 +15192,7 @@
         <v>280</v>
       </c>
       <c r="X114" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="36">
@@ -15202,7 +15200,7 @@
         <v>55000127</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1</v>
@@ -15211,7 +15209,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="67"/>
       <c r="G115" s="33" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="H115" s="33"/>
       <c r="I115" s="32"/>
@@ -15227,7 +15225,7 @@
         <v>684</v>
       </c>
       <c r="Q115" s="10" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="R115" s="10">
         <v>0</v>
@@ -15239,7 +15237,7 @@
         <v>80</v>
       </c>
       <c r="W115" s="1" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="X115" s="53"/>
     </row>
@@ -15288,7 +15286,7 @@
         <v>282</v>
       </c>
       <c r="X116" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="24">
@@ -15336,7 +15334,7 @@
         <v>284</v>
       </c>
       <c r="X117" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="24">
@@ -15358,7 +15356,7 @@
       <c r="J118" s="18"/>
       <c r="K118" s="17"/>
       <c r="L118" s="17" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="M118" s="21"/>
       <c r="N118" s="60"/>
@@ -15384,7 +15382,7 @@
         <v>286</v>
       </c>
       <c r="X118" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="119" spans="1:24" ht="36">
@@ -15432,7 +15430,7 @@
         <v>288</v>
       </c>
       <c r="X119" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="120" spans="1:24" ht="120">
@@ -15446,16 +15444,16 @@
         <v>104</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E120" s="1">
         <v>20</v>
       </c>
       <c r="F120" s="67" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="H120" s="33"/>
       <c r="I120" s="29"/>
@@ -15471,7 +15469,7 @@
         <v>684</v>
       </c>
       <c r="Q120" s="10" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="R120" s="10">
         <v>56000016</v>
@@ -15488,7 +15486,7 @@
         <v>290</v>
       </c>
       <c r="X120" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="72">
@@ -15496,7 +15494,7 @@
         <v>55000134</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>104</v>
@@ -15505,10 +15503,10 @@
       <c r="E121" s="1"/>
       <c r="F121" s="67"/>
       <c r="G121" s="33" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="H121" s="33" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="I121" s="32"/>
       <c r="J121" s="18"/>
@@ -15523,7 +15521,7 @@
         <v>684</v>
       </c>
       <c r="Q121" s="10" t="s">
-        <v>1295</v>
+        <v>1507</v>
       </c>
       <c r="R121" s="10">
         <v>0</v>
@@ -15532,13 +15530,13 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
       <c r="V121" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="W121" s="1" t="s">
         <v>291</v>
       </c>
       <c r="X121" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="36">
@@ -15586,7 +15584,7 @@
         <v>293</v>
       </c>
       <c r="X122" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="24">
@@ -15608,7 +15606,7 @@
       <c r="J123" s="18"/>
       <c r="K123" s="17"/>
       <c r="L123" s="17" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="M123" s="21"/>
       <c r="N123" s="60"/>
@@ -15634,7 +15632,7 @@
         <v>295</v>
       </c>
       <c r="X123" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="48">
@@ -15651,7 +15649,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="67"/>
       <c r="G124" s="33" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="H124" s="33"/>
       <c r="I124" s="32"/>
@@ -15684,7 +15682,7 @@
         <v>297</v>
       </c>
       <c r="X124" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="125" spans="1:24" ht="36">
@@ -15732,7 +15730,7 @@
         <v>300</v>
       </c>
       <c r="X125" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="126" spans="1:24" ht="48">
@@ -15749,7 +15747,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="67"/>
       <c r="G126" s="33" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="H126" s="33"/>
       <c r="I126" s="32"/>
@@ -15782,7 +15780,7 @@
         <v>302</v>
       </c>
       <c r="X126" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="48">
@@ -15799,7 +15797,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="67"/>
       <c r="G127" s="33" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="H127" s="33"/>
       <c r="I127" s="32"/>
@@ -15832,7 +15830,7 @@
         <v>304</v>
       </c>
       <c r="X127" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="48">
@@ -15849,7 +15847,7 @@
       <c r="E128" s="1"/>
       <c r="F128" s="67"/>
       <c r="G128" s="33" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="H128" s="33"/>
       <c r="I128" s="32"/>
@@ -15882,7 +15880,7 @@
         <v>306</v>
       </c>
       <c r="X128" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="36">
@@ -15930,7 +15928,7 @@
         <v>309</v>
       </c>
       <c r="X129" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="24">
@@ -15955,7 +15953,7 @@
       <c r="K130" s="17"/>
       <c r="L130" s="17"/>
       <c r="M130" s="21" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="N130" s="60"/>
       <c r="O130" s="1" t="s">
@@ -15982,7 +15980,7 @@
         <v>312</v>
       </c>
       <c r="X130" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="48">
@@ -15999,7 +15997,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="67"/>
       <c r="G131" s="33" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="H131" s="33"/>
       <c r="I131" s="32"/>
@@ -16032,7 +16030,7 @@
         <v>314</v>
       </c>
       <c r="X131" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="24">
@@ -16080,7 +16078,7 @@
         <v>317</v>
       </c>
       <c r="X132" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="48">
@@ -16097,7 +16095,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="67"/>
       <c r="G133" s="33" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="H133" s="33"/>
       <c r="I133" s="32"/>
@@ -16130,7 +16128,7 @@
         <v>319</v>
       </c>
       <c r="X133" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="36">
@@ -16178,7 +16176,7 @@
         <v>322</v>
       </c>
       <c r="X134" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="48">
@@ -16195,7 +16193,7 @@
       <c r="E135" s="1"/>
       <c r="F135" s="67"/>
       <c r="G135" s="33" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="H135" s="33"/>
       <c r="I135" s="32"/>
@@ -16228,7 +16226,7 @@
         <v>324</v>
       </c>
       <c r="X135" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="36">
@@ -16276,7 +16274,7 @@
         <v>327</v>
       </c>
       <c r="X136" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="24">
@@ -16324,7 +16322,7 @@
         <v>329</v>
       </c>
       <c r="X137" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="36">
@@ -16341,7 +16339,7 @@
       <c r="E138" s="1"/>
       <c r="F138" s="67"/>
       <c r="G138" s="33" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="H138" s="33"/>
       <c r="I138" s="32"/>
@@ -16374,7 +16372,7 @@
         <v>331</v>
       </c>
       <c r="X138" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="24">
@@ -16397,7 +16395,7 @@
       <c r="K139" s="17"/>
       <c r="L139" s="22"/>
       <c r="M139" s="21" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="N139" s="60"/>
       <c r="O139" s="1" t="s">
@@ -16426,7 +16424,7 @@
         <v>333</v>
       </c>
       <c r="X139" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="48">
@@ -16443,7 +16441,7 @@
       <c r="E140" s="1"/>
       <c r="F140" s="67"/>
       <c r="G140" s="33" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="H140" s="33"/>
       <c r="I140" s="32"/>
@@ -16476,7 +16474,7 @@
         <v>335</v>
       </c>
       <c r="X140" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="24">
@@ -16524,7 +16522,7 @@
         <v>338</v>
       </c>
       <c r="X141" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="24">
@@ -16546,7 +16544,7 @@
       <c r="J142" s="18"/>
       <c r="K142" s="17"/>
       <c r="L142" s="17" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="M142" s="21"/>
       <c r="N142" s="60"/>
@@ -16557,7 +16555,7 @@
         <v>684</v>
       </c>
       <c r="Q142" s="10" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="R142" s="10">
         <v>0</v>
@@ -16572,7 +16570,7 @@
         <v>341</v>
       </c>
       <c r="X142" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="24">
@@ -16594,7 +16592,7 @@
       <c r="J143" s="18"/>
       <c r="K143" s="17"/>
       <c r="L143" s="17" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="M143" s="21"/>
       <c r="N143" s="60"/>
@@ -16605,7 +16603,7 @@
         <v>684</v>
       </c>
       <c r="Q143" s="10" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="R143" s="10">
         <v>0</v>
@@ -16620,7 +16618,7 @@
         <v>343</v>
       </c>
       <c r="X143" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="36">
@@ -16668,7 +16666,7 @@
         <v>345</v>
       </c>
       <c r="X144" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="24">
@@ -16718,7 +16716,7 @@
         <v>348</v>
       </c>
       <c r="X145" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="36">
@@ -16768,7 +16766,7 @@
         <v>350</v>
       </c>
       <c r="X146" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="147" spans="1:24" ht="24">
@@ -16790,7 +16788,7 @@
       <c r="J147" s="18"/>
       <c r="K147" s="17"/>
       <c r="L147" s="17" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="M147" s="21"/>
       <c r="N147" s="60"/>
@@ -16816,7 +16814,7 @@
         <v>352</v>
       </c>
       <c r="X147" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="48">
@@ -16833,7 +16831,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="67"/>
       <c r="G148" s="33" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="H148" s="33"/>
       <c r="I148" s="32"/>
@@ -16866,7 +16864,7 @@
         <v>354</v>
       </c>
       <c r="X148" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="48">
@@ -16883,7 +16881,7 @@
       <c r="E149" s="1"/>
       <c r="F149" s="67"/>
       <c r="G149" s="33" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="H149" s="33"/>
       <c r="I149" s="32"/>
@@ -16916,7 +16914,7 @@
         <v>356</v>
       </c>
       <c r="X149" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="150" spans="1:24" ht="36">
@@ -16970,7 +16968,7 @@
         <v>359</v>
       </c>
       <c r="X150" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="36">
@@ -17018,7 +17016,7 @@
         <v>361</v>
       </c>
       <c r="X151" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="24">
@@ -17042,7 +17040,7 @@
       <c r="J152" s="18"/>
       <c r="K152" s="17"/>
       <c r="L152" s="17" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="M152" s="21"/>
       <c r="N152" s="60"/>
@@ -17068,7 +17066,7 @@
         <v>363</v>
       </c>
       <c r="X152" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="48">
@@ -17085,7 +17083,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="67"/>
       <c r="G153" s="33" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="H153" s="33"/>
       <c r="I153" s="32"/>
@@ -17101,7 +17099,7 @@
         <v>684</v>
       </c>
       <c r="Q153" s="10" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="R153" s="10">
         <v>0</v>
@@ -17116,7 +17114,7 @@
         <v>365</v>
       </c>
       <c r="X153" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="24">
@@ -17135,7 +17133,7 @@
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
       <c r="I154" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J154" s="18"/>
       <c r="K154" s="17"/>
@@ -17166,7 +17164,7 @@
         <v>367</v>
       </c>
       <c r="X154" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="155" spans="1:24" ht="72">
@@ -17216,7 +17214,7 @@
         <v>369</v>
       </c>
       <c r="X155" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="156" spans="1:24" ht="60">
@@ -17235,7 +17233,7 @@
       <c r="G156" s="33"/>
       <c r="H156" s="33"/>
       <c r="I156" s="32" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="J156" s="18"/>
       <c r="K156" s="17" t="s">
@@ -17268,7 +17266,7 @@
         <v>372</v>
       </c>
       <c r="X156" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="48">
@@ -17285,7 +17283,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="67"/>
       <c r="G157" s="33" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="H157" s="33"/>
       <c r="I157" s="32"/>
@@ -17318,7 +17316,7 @@
         <v>374</v>
       </c>
       <c r="X157" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="158" spans="1:24">
@@ -17364,7 +17362,7 @@
         <v>376</v>
       </c>
       <c r="X158" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="159" spans="1:24" ht="36">
@@ -17383,7 +17381,7 @@
       <c r="G159" s="33"/>
       <c r="H159" s="33"/>
       <c r="I159" s="32" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="J159" s="18"/>
       <c r="K159" s="17" t="s">
@@ -17414,7 +17412,7 @@
         <v>378</v>
       </c>
       <c r="X159" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="160" spans="1:24" ht="36">
@@ -17464,7 +17462,7 @@
         <v>380</v>
       </c>
       <c r="X160" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="161" spans="1:24" ht="36">
@@ -17516,7 +17514,7 @@
         <v>382</v>
       </c>
       <c r="X161" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="162" spans="1:24" ht="36">
@@ -17566,7 +17564,7 @@
         <v>384</v>
       </c>
       <c r="X162" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="36">
@@ -17618,7 +17616,7 @@
         <v>387</v>
       </c>
       <c r="X163" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="164" spans="1:24" ht="24">
@@ -17668,7 +17666,7 @@
         <v>389</v>
       </c>
       <c r="X164" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="72">
@@ -17676,7 +17674,7 @@
         <v>55000178</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>104</v>
@@ -17685,10 +17683,10 @@
       <c r="E165" s="1"/>
       <c r="F165" s="67"/>
       <c r="G165" s="33" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="H165" s="33" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="I165" s="32"/>
       <c r="J165" s="18"/>
@@ -17703,7 +17701,7 @@
         <v>684</v>
       </c>
       <c r="Q165" s="10" t="s">
-        <v>1275</v>
+        <v>1505</v>
       </c>
       <c r="R165" s="10">
         <v>0</v>
@@ -17712,21 +17710,19 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
       <c r="V165" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="W165" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="X165" s="53" t="s">
-        <v>1381</v>
-      </c>
+      <c r="X165" s="53"/>
     </row>
     <row r="166" spans="1:24" ht="72">
       <c r="A166">
         <v>55000179</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>104</v>
@@ -17735,10 +17731,10 @@
       <c r="E166" s="1"/>
       <c r="F166" s="67"/>
       <c r="G166" s="33" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="H166" s="33" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="I166" s="32"/>
       <c r="J166" s="18"/>
@@ -17753,7 +17749,7 @@
         <v>684</v>
       </c>
       <c r="Q166" s="10" t="s">
-        <v>1276</v>
+        <v>1506</v>
       </c>
       <c r="R166" s="10">
         <v>0</v>
@@ -17762,14 +17758,12 @@
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
       <c r="V166" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="W166" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="X166" s="53" t="s">
-        <v>1381</v>
-      </c>
+      <c r="X166" s="53"/>
     </row>
     <row r="167" spans="1:24" ht="36">
       <c r="A167">
@@ -17820,7 +17814,7 @@
         <v>393</v>
       </c>
       <c r="X167" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="168" spans="1:24" ht="24">
@@ -17842,7 +17836,7 @@
       <c r="J168" s="18"/>
       <c r="K168" s="17"/>
       <c r="L168" s="17" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="M168" s="21"/>
       <c r="N168" s="60"/>
@@ -17868,7 +17862,7 @@
         <v>395</v>
       </c>
       <c r="X168" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="24">
@@ -17920,7 +17914,7 @@
         <v>398</v>
       </c>
       <c r="X169" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="170" spans="1:24" ht="84">
@@ -17934,13 +17928,13 @@
         <v>988</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="E170" s="1">
         <v>15</v>
       </c>
       <c r="F170" s="67" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="G170" s="33"/>
       <c r="H170" s="33"/>
@@ -17949,7 +17943,7 @@
       <c r="K170" s="17"/>
       <c r="L170" s="22"/>
       <c r="M170" s="21" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="N170" s="60"/>
       <c r="O170" s="1" t="s">
@@ -17976,7 +17970,7 @@
         <v>400</v>
       </c>
       <c r="X170" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="171" spans="1:24" ht="24">
@@ -17998,7 +17992,7 @@
       <c r="J171" s="18"/>
       <c r="K171" s="17"/>
       <c r="L171" s="17" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="M171" s="21"/>
       <c r="N171" s="60"/>
@@ -18024,7 +18018,7 @@
         <v>402</v>
       </c>
       <c r="X171" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="172" spans="1:24" ht="36">
@@ -18046,7 +18040,7 @@
       <c r="J172" s="18"/>
       <c r="K172" s="17"/>
       <c r="L172" s="17" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="M172" s="21"/>
       <c r="N172" s="60"/>
@@ -18072,7 +18066,7 @@
         <v>404</v>
       </c>
       <c r="X172" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="173" spans="1:24" ht="36">
@@ -18122,7 +18116,7 @@
         <v>406</v>
       </c>
       <c r="X173" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="174" spans="1:24" ht="48">
@@ -18139,7 +18133,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="67"/>
       <c r="G174" s="33" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H174" s="33"/>
       <c r="I174" s="32"/>
@@ -18170,7 +18164,7 @@
         <v>1205</v>
       </c>
       <c r="X174" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="175" spans="1:24" ht="24">
@@ -18218,7 +18212,7 @@
         <v>408</v>
       </c>
       <c r="X175" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="176" spans="1:24" ht="36">
@@ -18237,7 +18231,7 @@
       <c r="G176" s="33"/>
       <c r="H176" s="33"/>
       <c r="I176" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J176" s="18"/>
       <c r="K176" s="17" t="s">
@@ -18270,7 +18264,7 @@
         <v>410</v>
       </c>
       <c r="X176" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="177" spans="1:24" ht="36">
@@ -18320,7 +18314,7 @@
         <v>412</v>
       </c>
       <c r="X177" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="178" spans="1:24" ht="48">
@@ -18339,7 +18333,7 @@
       <c r="G178" s="33"/>
       <c r="H178" s="33"/>
       <c r="I178" s="32" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="J178" s="18"/>
       <c r="K178" s="17" t="s">
@@ -18372,7 +18366,7 @@
         <v>415</v>
       </c>
       <c r="X178" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="179" spans="1:24" ht="60">
@@ -18391,7 +18385,7 @@
       <c r="G179" s="33"/>
       <c r="H179" s="33"/>
       <c r="I179" s="32" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="J179" s="18"/>
       <c r="K179" s="17" t="s">
@@ -18422,7 +18416,7 @@
         <v>417</v>
       </c>
       <c r="X179" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="180" spans="1:24" ht="24">
@@ -18472,7 +18466,7 @@
         <v>419</v>
       </c>
       <c r="X180" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="181" spans="1:24" ht="48">
@@ -18489,7 +18483,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="67"/>
       <c r="G181" s="33" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="H181" s="33"/>
       <c r="I181" s="32"/>
@@ -18522,7 +18516,7 @@
         <v>421</v>
       </c>
       <c r="X181" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="182" spans="1:24" ht="60">
@@ -18570,7 +18564,7 @@
         <v>423</v>
       </c>
       <c r="X182" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="183" spans="1:24" ht="60">
@@ -18618,7 +18612,7 @@
         <v>425</v>
       </c>
       <c r="X183" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="184" spans="1:24" ht="24">
@@ -18640,7 +18634,7 @@
       <c r="J184" s="18"/>
       <c r="K184" s="17"/>
       <c r="L184" s="17" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="M184" s="21"/>
       <c r="N184" s="60"/>
@@ -18666,7 +18660,7 @@
         <v>427</v>
       </c>
       <c r="X184" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="185" spans="1:24" ht="36">
@@ -18683,7 +18677,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="67"/>
       <c r="G185" s="33" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="H185" s="33"/>
       <c r="I185" s="32"/>
@@ -18716,7 +18710,7 @@
         <v>429</v>
       </c>
       <c r="X185" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="186" spans="1:24">
@@ -18762,7 +18756,7 @@
         <v>431</v>
       </c>
       <c r="X186" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="187" spans="1:24" ht="48">
@@ -18784,7 +18778,7 @@
       <c r="J187" s="18"/>
       <c r="K187" s="17"/>
       <c r="L187" s="17" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="M187" s="21"/>
       <c r="N187" s="60"/>
@@ -18810,7 +18804,7 @@
         <v>433</v>
       </c>
       <c r="X187" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="188" spans="1:24" ht="36">
@@ -18827,7 +18821,7 @@
       <c r="E188" s="1"/>
       <c r="F188" s="67"/>
       <c r="G188" s="33" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="H188" s="33"/>
       <c r="I188" s="32"/>
@@ -18860,7 +18854,7 @@
         <v>435</v>
       </c>
       <c r="X188" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="189" spans="1:24" ht="48">
@@ -18877,7 +18871,7 @@
       <c r="E189" s="1"/>
       <c r="F189" s="67"/>
       <c r="G189" s="33" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="H189" s="33"/>
       <c r="I189" s="32"/>
@@ -18910,7 +18904,7 @@
         <v>437</v>
       </c>
       <c r="X189" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="190" spans="1:24" ht="24">
@@ -18933,7 +18927,7 @@
       <c r="K190" s="17"/>
       <c r="L190" s="17"/>
       <c r="M190" s="21" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="N190" s="60">
         <v>1</v>
@@ -18945,7 +18939,7 @@
         <v>684</v>
       </c>
       <c r="Q190" s="10" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="R190" s="10">
         <v>0</v>
@@ -19008,7 +19002,7 @@
         <v>441</v>
       </c>
       <c r="X191" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="192" spans="1:24" ht="24">
@@ -19056,7 +19050,7 @@
         <v>443</v>
       </c>
       <c r="X192" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="193" spans="1:24" ht="96">
@@ -19106,7 +19100,7 @@
         <v>445</v>
       </c>
       <c r="X193" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="194" spans="1:24" ht="24">
@@ -19129,7 +19123,7 @@
       <c r="K194" s="17"/>
       <c r="L194" s="17"/>
       <c r="M194" s="21" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="N194" s="60"/>
       <c r="O194" s="1" t="s">
@@ -19156,7 +19150,7 @@
         <v>940</v>
       </c>
       <c r="X194" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -19202,7 +19196,7 @@
         <v>447</v>
       </c>
       <c r="X195" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="196" spans="1:24" ht="48">
@@ -19252,7 +19246,7 @@
         <v>449</v>
       </c>
       <c r="X196" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="197" spans="1:24" ht="48">
@@ -19304,7 +19298,7 @@
         <v>452</v>
       </c>
       <c r="X197" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="198" spans="1:24" ht="48">
@@ -19321,7 +19315,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="67"/>
       <c r="G198" s="33" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="H198" s="33"/>
       <c r="I198" s="32"/>
@@ -19354,7 +19348,7 @@
         <v>454</v>
       </c>
       <c r="X198" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="199" spans="1:24" ht="24">
@@ -19404,7 +19398,7 @@
         <v>457</v>
       </c>
       <c r="X199" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="200" spans="1:24" ht="48">
@@ -19421,7 +19415,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="67"/>
       <c r="G200" s="33" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="H200" s="33"/>
       <c r="I200" s="32"/>
@@ -19454,7 +19448,7 @@
         <v>459</v>
       </c>
       <c r="X200" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="201" spans="1:24" ht="24">
@@ -19476,7 +19470,7 @@
       <c r="J201" s="18"/>
       <c r="K201" s="17"/>
       <c r="L201" s="17" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="M201" s="21"/>
       <c r="N201" s="60"/>
@@ -19502,7 +19496,7 @@
         <v>461</v>
       </c>
       <c r="X201" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="202" spans="1:24" ht="96">
@@ -19516,23 +19510,23 @@
         <v>216</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="E202" s="1">
         <v>0</v>
       </c>
       <c r="F202" s="67" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="G202" s="33"/>
       <c r="H202" s="33"/>
       <c r="I202" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J202" s="18"/>
       <c r="K202" s="17"/>
       <c r="L202" s="17" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="M202" s="21"/>
       <c r="N202" s="60"/>
@@ -19564,7 +19558,7 @@
         <v>464</v>
       </c>
       <c r="X202" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="203" spans="1:24" ht="36">
@@ -19614,7 +19608,7 @@
         <v>466</v>
       </c>
       <c r="X203" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="204" spans="1:24" ht="24">
@@ -19664,7 +19658,7 @@
         <v>469</v>
       </c>
       <c r="X204" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -19695,7 +19689,7 @@
         <v>684</v>
       </c>
       <c r="Q205" s="10" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="R205" s="10">
         <v>0</v>
@@ -19712,7 +19706,7 @@
         <v>472</v>
       </c>
       <c r="X205" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -19735,7 +19729,7 @@
       <c r="K206" s="17"/>
       <c r="L206" s="17"/>
       <c r="M206" s="21" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="N206" s="60"/>
       <c r="O206" s="1" t="s">
@@ -19760,7 +19754,7 @@
         <v>475</v>
       </c>
       <c r="X206" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="207" spans="1:24" ht="36">
@@ -19810,7 +19804,7 @@
         <v>477</v>
       </c>
       <c r="X207" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="208" spans="1:24" ht="24">
@@ -19824,16 +19818,16 @@
         <v>1</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="E208" s="1">
         <v>10</v>
       </c>
       <c r="F208" s="67" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="G208" s="33" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="H208" s="33"/>
       <c r="I208" s="32"/>
@@ -19849,7 +19843,7 @@
         <v>684</v>
       </c>
       <c r="Q208" s="10" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="R208" s="10">
         <v>0</v>
@@ -19912,7 +19906,7 @@
         <v>479</v>
       </c>
       <c r="X209" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="210" spans="1:24" ht="36">
@@ -19962,7 +19956,7 @@
         <v>481</v>
       </c>
       <c r="X210" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="211" spans="1:24" ht="36">
@@ -20012,7 +20006,7 @@
         <v>483</v>
       </c>
       <c r="X211" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="212" spans="1:24" ht="72">
@@ -20020,7 +20014,7 @@
         <v>55000225</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>104</v>
@@ -20029,10 +20023,10 @@
       <c r="E212" s="1"/>
       <c r="F212" s="67"/>
       <c r="G212" s="33" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="H212" s="33" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="I212" s="32"/>
       <c r="J212" s="18"/>
@@ -20056,21 +20050,19 @@
       <c r="T212" s="1"/>
       <c r="U212" s="1"/>
       <c r="V212" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="W212" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="X212" s="53" t="s">
-        <v>1381</v>
-      </c>
+      <c r="X212" s="53"/>
     </row>
     <row r="213" spans="1:24" ht="72">
       <c r="A213">
         <v>55000226</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>104</v>
@@ -20079,10 +20071,10 @@
       <c r="E213" s="1"/>
       <c r="F213" s="67"/>
       <c r="G213" s="33" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="H213" s="33" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="I213" s="32"/>
       <c r="J213" s="18"/>
@@ -20106,14 +20098,12 @@
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
       <c r="V213" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="W213" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="X213" s="53" t="s">
-        <v>1381</v>
-      </c>
+      <c r="X213" s="53"/>
     </row>
     <row r="214" spans="1:24" ht="24">
       <c r="A214">
@@ -20137,7 +20127,7 @@
       <c r="K214" s="17"/>
       <c r="L214" s="17"/>
       <c r="M214" s="21" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="N214" s="60"/>
       <c r="O214" s="1" t="s">
@@ -20162,7 +20152,7 @@
         <v>664</v>
       </c>
       <c r="X214" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="215" spans="1:24" ht="24">
@@ -20210,7 +20200,7 @@
         <v>487</v>
       </c>
       <c r="X215" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="216" spans="1:24" ht="24">
@@ -20234,7 +20224,7 @@
       <c r="J216" s="18"/>
       <c r="K216" s="17"/>
       <c r="L216" s="17" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="M216" s="21"/>
       <c r="N216" s="60"/>
@@ -20260,7 +20250,7 @@
         <v>489</v>
       </c>
       <c r="X216" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="217" spans="1:24" ht="24">
@@ -20308,7 +20298,7 @@
         <v>491</v>
       </c>
       <c r="X217" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="218" spans="1:24" ht="24">
@@ -20356,7 +20346,7 @@
         <v>493</v>
       </c>
       <c r="X218" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="219" spans="1:24" ht="48">
@@ -20404,7 +20394,7 @@
         <v>495</v>
       </c>
       <c r="X219" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="220" spans="1:24" ht="36">
@@ -20452,7 +20442,7 @@
         <v>497</v>
       </c>
       <c r="X220" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="221" spans="1:24" ht="36">
@@ -20502,7 +20492,7 @@
         <v>499</v>
       </c>
       <c r="X221" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="222" spans="1:24" ht="72">
@@ -20550,7 +20540,7 @@
         <v>501</v>
       </c>
       <c r="X222" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="223" spans="1:24" ht="24">
@@ -20598,7 +20588,7 @@
         <v>503</v>
       </c>
       <c r="X223" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="224" spans="1:24">
@@ -20644,7 +20634,7 @@
         <v>505</v>
       </c>
       <c r="X224" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="225" spans="1:24" ht="24">
@@ -20692,7 +20682,7 @@
         <v>508</v>
       </c>
       <c r="X225" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="226" spans="1:24" ht="24">
@@ -20740,7 +20730,7 @@
         <v>510</v>
       </c>
       <c r="X226" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="227" spans="1:24" ht="96">
@@ -20754,23 +20744,23 @@
         <v>216</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="E227" s="1">
         <v>10</v>
       </c>
       <c r="F227" s="67" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="G227" s="33"/>
       <c r="H227" s="33"/>
       <c r="I227" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J227" s="18"/>
       <c r="K227" s="17"/>
       <c r="L227" s="17" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="M227" s="21"/>
       <c r="N227" s="60"/>
@@ -20802,7 +20792,7 @@
         <v>512</v>
       </c>
       <c r="X227" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="228" spans="1:24" ht="24">
@@ -20852,7 +20842,7 @@
         <v>514</v>
       </c>
       <c r="X228" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="229" spans="1:24" ht="24">
@@ -20877,7 +20867,7 @@
       <c r="K229" s="17"/>
       <c r="L229" s="17"/>
       <c r="M229" s="21" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="N229" s="60"/>
       <c r="O229" s="1" t="s">
@@ -20902,7 +20892,7 @@
         <v>516</v>
       </c>
       <c r="X229" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="230" spans="1:24" ht="36">
@@ -20950,7 +20940,7 @@
         <v>518</v>
       </c>
       <c r="X230" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="231" spans="1:24" ht="96">
@@ -20964,23 +20954,23 @@
         <v>216</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="E231" s="1">
         <v>10</v>
       </c>
       <c r="F231" s="67" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="G231" s="33"/>
       <c r="H231" s="33"/>
       <c r="I231" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J231" s="18"/>
       <c r="K231" s="17"/>
       <c r="L231" s="17" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="M231" s="21"/>
       <c r="N231" s="60"/>
@@ -21012,7 +21002,7 @@
         <v>520</v>
       </c>
       <c r="X231" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="232" spans="1:24" ht="24">
@@ -21034,7 +21024,7 @@
       <c r="J232" s="18"/>
       <c r="K232" s="17"/>
       <c r="L232" s="17" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="M232" s="21"/>
       <c r="N232" s="60"/>
@@ -21060,7 +21050,7 @@
         <v>522</v>
       </c>
       <c r="X232" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="233" spans="1:24" ht="36">
@@ -21079,7 +21069,7 @@
       <c r="G233" s="33"/>
       <c r="H233" s="33"/>
       <c r="I233" s="32" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="J233" s="18"/>
       <c r="K233" s="17"/>
@@ -21110,7 +21100,7 @@
         <v>524</v>
       </c>
       <c r="X233" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="234" spans="1:24" ht="48">
@@ -21160,7 +21150,7 @@
         <v>526</v>
       </c>
       <c r="X234" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="235" spans="1:24" ht="36">
@@ -21179,7 +21169,7 @@
       <c r="G235" s="33"/>
       <c r="H235" s="33"/>
       <c r="I235" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J235" s="18"/>
       <c r="K235" s="17" t="s">
@@ -21212,7 +21202,7 @@
         <v>528</v>
       </c>
       <c r="X235" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="236" spans="1:24" ht="24">
@@ -21236,7 +21226,7 @@
       <c r="J236" s="18"/>
       <c r="K236" s="17"/>
       <c r="L236" s="17" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="M236" s="21"/>
       <c r="N236" s="60"/>
@@ -21262,7 +21252,7 @@
         <v>530</v>
       </c>
       <c r="X236" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="237" spans="1:24" ht="36">
@@ -21310,7 +21300,7 @@
         <v>532</v>
       </c>
       <c r="X237" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="238" spans="1:24" ht="27">
@@ -21358,7 +21348,7 @@
         <v>534</v>
       </c>
       <c r="X238" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="239" spans="1:24" ht="24">
@@ -21408,7 +21398,7 @@
         <v>536</v>
       </c>
       <c r="X239" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="240" spans="1:24" ht="36">
@@ -21427,7 +21417,7 @@
       <c r="G240" s="33"/>
       <c r="H240" s="33"/>
       <c r="I240" s="32" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="J240" s="18" t="s">
         <v>841</v>
@@ -21458,7 +21448,7 @@
         <v>538</v>
       </c>
       <c r="X240" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="241" spans="1:24" ht="36">
@@ -21506,7 +21496,7 @@
         <v>540</v>
       </c>
       <c r="X241" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="242" spans="1:24">
@@ -21554,7 +21544,7 @@
         <v>542</v>
       </c>
       <c r="X242" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="243" spans="1:24">
@@ -21585,7 +21575,7 @@
         <v>684</v>
       </c>
       <c r="Q243" s="10" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="R243" s="10">
         <v>0</v>
@@ -21600,7 +21590,7 @@
         <v>544</v>
       </c>
       <c r="X243" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="244" spans="1:24" ht="36">
@@ -21652,7 +21642,7 @@
         <v>546</v>
       </c>
       <c r="X244" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="245" spans="1:24" ht="24">
@@ -21674,7 +21664,7 @@
       <c r="J245" s="18"/>
       <c r="K245" s="17"/>
       <c r="L245" s="17" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="M245" s="21"/>
       <c r="N245" s="60"/>
@@ -21700,7 +21690,7 @@
         <v>548</v>
       </c>
       <c r="X245" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="246" spans="1:24" ht="36">
@@ -21752,7 +21742,7 @@
         <v>550</v>
       </c>
       <c r="X246" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="247" spans="1:24" ht="84">
@@ -21766,13 +21756,13 @@
         <v>988</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="E247" s="1">
         <v>0</v>
       </c>
       <c r="F247" s="67" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="G247" s="33"/>
       <c r="H247" s="33"/>
@@ -21781,7 +21771,7 @@
       <c r="K247" s="17"/>
       <c r="L247" s="17"/>
       <c r="M247" s="21" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="N247" s="60"/>
       <c r="O247" s="1" t="s">
@@ -21800,7 +21790,7 @@
         <v>937</v>
       </c>
       <c r="T247" s="10" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="U247" s="10"/>
       <c r="V247" s="1">
@@ -21810,7 +21800,7 @@
         <v>552</v>
       </c>
       <c r="X247" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="248" spans="1:24" ht="84">
@@ -21858,7 +21848,7 @@
         <v>554</v>
       </c>
       <c r="X248" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="249" spans="1:24" ht="24">
@@ -21880,7 +21870,7 @@
       <c r="J249" s="18"/>
       <c r="K249" s="17"/>
       <c r="L249" s="17" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="M249" s="21"/>
       <c r="N249" s="60"/>
@@ -21906,7 +21896,7 @@
         <v>556</v>
       </c>
       <c r="X249" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="250" spans="1:24" ht="24">
@@ -21930,7 +21920,7 @@
       <c r="J250" s="18"/>
       <c r="K250" s="17"/>
       <c r="L250" s="17" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="M250" s="21"/>
       <c r="N250" s="60"/>
@@ -21958,7 +21948,7 @@
         <v>560</v>
       </c>
       <c r="X250" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="251" spans="1:24" ht="36">
@@ -22008,7 +21998,7 @@
         <v>562</v>
       </c>
       <c r="X251" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="36">
@@ -22056,7 +22046,7 @@
         <v>565</v>
       </c>
       <c r="X252" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="48">
@@ -22104,7 +22094,7 @@
         <v>567</v>
       </c>
       <c r="X253" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="254" spans="1:24" ht="24">
@@ -22154,7 +22144,7 @@
         <v>570</v>
       </c>
       <c r="X254" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="255" spans="1:24" ht="24">
@@ -22202,7 +22192,7 @@
         <v>573</v>
       </c>
       <c r="X255" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="256" spans="1:24" ht="48">
@@ -22250,7 +22240,7 @@
         <v>576</v>
       </c>
       <c r="X256" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="257" spans="1:24" ht="48">
@@ -22267,7 +22257,7 @@
       <c r="E257" s="1"/>
       <c r="F257" s="67"/>
       <c r="G257" s="33" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="H257" s="33"/>
       <c r="I257" s="32"/>
@@ -22300,7 +22290,7 @@
         <v>578</v>
       </c>
       <c r="X257" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="258" spans="1:24" ht="36">
@@ -22319,7 +22309,7 @@
       <c r="G258" s="33"/>
       <c r="H258" s="33"/>
       <c r="I258" s="32" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="J258" s="18" t="s">
         <v>840</v>
@@ -22350,7 +22340,7 @@
         <v>580</v>
       </c>
       <c r="X258" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="259" spans="1:24" ht="24">
@@ -22372,7 +22362,7 @@
       <c r="J259" s="18"/>
       <c r="K259" s="17"/>
       <c r="L259" s="17" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="M259" s="21"/>
       <c r="N259" s="60"/>
@@ -22398,7 +22388,7 @@
         <v>582</v>
       </c>
       <c r="X259" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="36">
@@ -22446,7 +22436,7 @@
         <v>584</v>
       </c>
       <c r="X260" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="261" spans="1:24" ht="84">
@@ -22494,7 +22484,7 @@
         <v>586</v>
       </c>
       <c r="X261" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="36">
@@ -22513,7 +22503,7 @@
       <c r="G262" s="33"/>
       <c r="H262" s="33"/>
       <c r="I262" s="32" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="J262" s="18"/>
       <c r="K262" s="17" t="s">
@@ -22544,7 +22534,7 @@
         <v>588</v>
       </c>
       <c r="X262" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="263" spans="1:24" ht="36">
@@ -22563,7 +22553,7 @@
       <c r="G263" s="33"/>
       <c r="H263" s="33"/>
       <c r="I263" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J263" s="18"/>
       <c r="K263" s="17" t="s">
@@ -22594,7 +22584,7 @@
         <v>590</v>
       </c>
       <c r="X263" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="264" spans="1:24">
@@ -22642,7 +22632,7 @@
         <v>592</v>
       </c>
       <c r="X264" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="265" spans="1:24" ht="24">
@@ -22665,7 +22655,7 @@
       <c r="K265" s="17"/>
       <c r="L265" s="22"/>
       <c r="M265" s="21" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="N265" s="60"/>
       <c r="O265" s="1" t="s">
@@ -22690,7 +22680,7 @@
         <v>594</v>
       </c>
       <c r="X265" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="266" spans="1:24">
@@ -22713,7 +22703,7 @@
       <c r="K266" s="17"/>
       <c r="L266" s="22"/>
       <c r="M266" s="21" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="N266" s="60"/>
       <c r="O266" s="1" t="s">
@@ -22738,7 +22728,7 @@
         <v>596</v>
       </c>
       <c r="X266" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="267" spans="1:24" ht="36">
@@ -22786,7 +22776,7 @@
         <v>598</v>
       </c>
       <c r="X267" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="268" spans="1:24" ht="24">
@@ -22834,7 +22824,7 @@
         <v>600</v>
       </c>
       <c r="X268" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="269" spans="1:24" ht="144">
@@ -22848,16 +22838,16 @@
         <v>988</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="E269" s="1">
         <v>10</v>
       </c>
       <c r="F269" s="67" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="G269" s="33" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H269" s="33"/>
       <c r="I269" s="32"/>
@@ -22879,10 +22869,10 @@
         <v>0</v>
       </c>
       <c r="S269" s="1" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="T269" s="1" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="U269" s="1"/>
       <c r="V269" s="1">
@@ -22892,7 +22882,7 @@
         <v>602</v>
       </c>
       <c r="X269" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="270" spans="1:24" ht="36">
@@ -22944,7 +22934,7 @@
         <v>604</v>
       </c>
       <c r="X270" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="271" spans="1:24" ht="48">
@@ -22961,7 +22951,7 @@
       <c r="E271" s="1"/>
       <c r="F271" s="67"/>
       <c r="G271" s="33" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="H271" s="33"/>
       <c r="I271" s="32"/>
@@ -22994,7 +22984,7 @@
         <v>606</v>
       </c>
       <c r="X271" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="272" spans="1:24">
@@ -23040,7 +23030,7 @@
         <v>608</v>
       </c>
       <c r="X272" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="273" spans="1:24" ht="36">
@@ -23057,7 +23047,7 @@
       <c r="E273" s="1"/>
       <c r="F273" s="67"/>
       <c r="G273" s="33" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="H273" s="33"/>
       <c r="I273" s="32"/>
@@ -23090,7 +23080,7 @@
         <v>610</v>
       </c>
       <c r="X273" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="274" spans="1:24" ht="24">
@@ -23112,7 +23102,7 @@
       <c r="J274" s="18"/>
       <c r="K274" s="17"/>
       <c r="L274" s="17" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="M274" s="21"/>
       <c r="N274" s="60"/>
@@ -23140,7 +23130,7 @@
         <v>613</v>
       </c>
       <c r="X274" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="275" spans="1:24" ht="120">
@@ -23154,16 +23144,16 @@
         <v>988</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="E275" s="1">
         <v>100</v>
       </c>
       <c r="F275" s="67" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="G275" s="33" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="H275" s="33"/>
       <c r="I275" s="32"/>
@@ -23179,7 +23169,7 @@
         <v>684</v>
       </c>
       <c r="Q275" s="1" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="R275" s="1">
         <v>0</v>
@@ -23196,7 +23186,7 @@
         <v>614</v>
       </c>
       <c r="X275" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="276" spans="1:24" ht="84">
@@ -23244,7 +23234,7 @@
         <v>616</v>
       </c>
       <c r="X276" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="277" spans="1:24" ht="60">
@@ -23265,7 +23255,7 @@
       <c r="I277" s="32"/>
       <c r="J277" s="18"/>
       <c r="K277" s="17" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="L277" s="17"/>
       <c r="M277" s="21"/>
@@ -23292,7 +23282,7 @@
         <v>618</v>
       </c>
       <c r="X277" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="278" spans="1:24" ht="36">
@@ -23344,7 +23334,7 @@
         <v>620</v>
       </c>
       <c r="X278" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="279" spans="1:24" ht="48">
@@ -23367,7 +23357,7 @@
       <c r="K279" s="17"/>
       <c r="L279" s="17"/>
       <c r="M279" s="21" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="N279" s="60"/>
       <c r="O279" s="1" t="s">
@@ -23392,7 +23382,7 @@
         <v>622</v>
       </c>
       <c r="X279" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="280" spans="1:24" ht="96">
@@ -23406,23 +23396,23 @@
         <v>216</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="E280" s="1">
         <v>10</v>
       </c>
       <c r="F280" s="67" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="G280" s="33"/>
       <c r="H280" s="33"/>
       <c r="I280" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J280" s="18"/>
       <c r="K280" s="17"/>
       <c r="L280" s="17" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="M280" s="21"/>
       <c r="N280" s="60"/>
@@ -23442,7 +23432,7 @@
         <v>1141</v>
       </c>
       <c r="T280" s="1" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="U280" s="10" t="s">
         <v>1014</v>
@@ -23454,7 +23444,7 @@
         <v>624</v>
       </c>
       <c r="X280" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="281" spans="1:24">
@@ -23485,7 +23475,7 @@
         <v>684</v>
       </c>
       <c r="Q281" s="10" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="R281" s="10">
         <v>0</v>
@@ -23500,7 +23490,7 @@
         <v>626</v>
       </c>
       <c r="X281" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="282" spans="1:24" ht="24">
@@ -23523,7 +23513,7 @@
       <c r="K282" s="17"/>
       <c r="L282" s="17"/>
       <c r="M282" s="21" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="N282" s="60"/>
       <c r="O282" s="1" t="s">
@@ -23548,7 +23538,7 @@
         <v>628</v>
       </c>
       <c r="X282" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="283" spans="1:24" ht="96">
@@ -23598,7 +23588,7 @@
         <v>630</v>
       </c>
       <c r="X283" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="284" spans="1:24" ht="84">
@@ -23648,7 +23638,7 @@
         <v>632</v>
       </c>
       <c r="X284" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="285" spans="1:24" ht="24">
@@ -23700,7 +23690,7 @@
         <v>635</v>
       </c>
       <c r="X285" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="286" spans="1:24" ht="24">
@@ -23708,7 +23698,7 @@
         <v>55000300</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>1027</v>
@@ -23723,7 +23713,7 @@
       <c r="K286" s="17"/>
       <c r="L286" s="17"/>
       <c r="M286" s="21" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="N286" s="60">
         <v>2</v>
@@ -23735,7 +23725,7 @@
         <v>684</v>
       </c>
       <c r="Q286" s="10" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="R286" s="10">
         <v>0</v>
@@ -23749,7 +23739,7 @@
         <v>80</v>
       </c>
       <c r="W286" s="31" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="X286" s="53"/>
     </row>
@@ -23764,23 +23754,23 @@
         <v>216</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="E287" s="1">
         <v>10</v>
       </c>
       <c r="F287" s="67" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="G287" s="33"/>
       <c r="H287" s="33"/>
       <c r="I287" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J287" s="18"/>
       <c r="K287" s="17"/>
       <c r="L287" s="17" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="M287" s="21"/>
       <c r="N287" s="60"/>
@@ -23800,7 +23790,7 @@
         <v>907</v>
       </c>
       <c r="T287" s="10" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="U287" s="10" t="s">
         <v>1014</v>
@@ -23812,7 +23802,7 @@
         <v>637</v>
       </c>
       <c r="X287" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="288" spans="1:24" ht="96">
@@ -23826,23 +23816,23 @@
         <v>216</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E288" s="1">
         <v>10</v>
       </c>
       <c r="F288" s="67" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="G288" s="33"/>
       <c r="H288" s="33"/>
       <c r="I288" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J288" s="18"/>
       <c r="K288" s="17"/>
       <c r="L288" s="17" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="M288" s="21"/>
       <c r="N288" s="60"/>
@@ -23862,7 +23852,7 @@
         <v>908</v>
       </c>
       <c r="T288" s="10" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="U288" s="10" t="s">
         <v>1014</v>
@@ -23874,7 +23864,7 @@
         <v>639</v>
       </c>
       <c r="X288" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="289" spans="1:24" ht="96">
@@ -23888,23 +23878,23 @@
         <v>216</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="E289" s="1">
         <v>10</v>
       </c>
       <c r="F289" s="67" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G289" s="33"/>
       <c r="H289" s="33"/>
       <c r="I289" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J289" s="18"/>
       <c r="K289" s="17"/>
       <c r="L289" s="17" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="M289" s="21"/>
       <c r="N289" s="60"/>
@@ -23924,7 +23914,7 @@
         <v>909</v>
       </c>
       <c r="T289" s="10" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="U289" s="10" t="s">
         <v>1014</v>
@@ -23936,7 +23926,7 @@
         <v>641</v>
       </c>
       <c r="X289" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="290" spans="1:24" ht="96">
@@ -23950,7 +23940,7 @@
         <v>216</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="E290" s="1">
         <v>15</v>
@@ -23959,12 +23949,12 @@
       <c r="G290" s="33"/>
       <c r="H290" s="33"/>
       <c r="I290" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J290" s="18"/>
       <c r="K290" s="17"/>
       <c r="L290" s="17" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="M290" s="21"/>
       <c r="N290" s="60"/>
@@ -23984,7 +23974,7 @@
         <v>910</v>
       </c>
       <c r="T290" s="10" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="U290" s="10" t="s">
         <v>1014</v>
@@ -23996,7 +23986,7 @@
         <v>643</v>
       </c>
       <c r="X290" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="291" spans="1:24" ht="96">
@@ -24010,23 +24000,23 @@
         <v>216</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="E291" s="1">
         <v>30</v>
       </c>
       <c r="F291" s="67" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G291" s="33"/>
       <c r="H291" s="33"/>
       <c r="I291" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J291" s="18"/>
       <c r="K291" s="17"/>
       <c r="L291" s="17" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="M291" s="21"/>
       <c r="N291" s="60"/>
@@ -24046,7 +24036,7 @@
         <v>911</v>
       </c>
       <c r="T291" s="10" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="U291" s="10" t="s">
         <v>1014</v>
@@ -24058,7 +24048,7 @@
         <v>645</v>
       </c>
       <c r="X291" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="292" spans="1:24" ht="96">
@@ -24072,23 +24062,23 @@
         <v>216</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="E292" s="1">
         <v>15</v>
       </c>
       <c r="F292" s="67" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="G292" s="33"/>
       <c r="H292" s="33"/>
       <c r="I292" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J292" s="18"/>
       <c r="K292" s="17"/>
       <c r="L292" s="17" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="M292" s="21"/>
       <c r="N292" s="60"/>
@@ -24120,7 +24110,7 @@
         <v>647</v>
       </c>
       <c r="X292" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="293" spans="1:24" ht="96">
@@ -24134,23 +24124,23 @@
         <v>216</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="E293" s="1">
         <v>0</v>
       </c>
       <c r="F293" s="67" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="G293" s="33"/>
       <c r="H293" s="33"/>
       <c r="I293" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J293" s="18"/>
       <c r="K293" s="17"/>
       <c r="L293" s="17" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="M293" s="21"/>
       <c r="N293" s="60"/>
@@ -24182,7 +24172,7 @@
         <v>649</v>
       </c>
       <c r="X293" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="294" spans="1:24" ht="96">
@@ -24196,23 +24186,23 @@
         <v>216</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="E294" s="1">
         <v>0</v>
       </c>
       <c r="F294" s="67" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="G294" s="33"/>
       <c r="H294" s="33"/>
       <c r="I294" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J294" s="18"/>
       <c r="K294" s="17"/>
       <c r="L294" s="17" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="M294" s="21"/>
       <c r="N294" s="60"/>
@@ -24244,7 +24234,7 @@
         <v>651</v>
       </c>
       <c r="X294" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="295" spans="1:24" ht="72">
@@ -24292,7 +24282,7 @@
         <v>653</v>
       </c>
       <c r="X295" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="296" spans="1:24" ht="180">
@@ -24340,7 +24330,7 @@
         <v>655</v>
       </c>
       <c r="X296" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="297" spans="1:24" ht="96">
@@ -24354,23 +24344,23 @@
         <v>216</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E297" s="1">
         <v>15</v>
       </c>
       <c r="F297" s="67" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="G297" s="33"/>
       <c r="H297" s="33"/>
       <c r="I297" s="32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="J297" s="18"/>
       <c r="K297" s="17"/>
       <c r="L297" s="17" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="M297" s="21"/>
       <c r="N297" s="60"/>
@@ -24390,7 +24380,7 @@
         <v>918</v>
       </c>
       <c r="T297" s="10" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="U297" s="10" t="s">
         <v>1014</v>
@@ -24402,7 +24392,7 @@
         <v>657</v>
       </c>
       <c r="X297" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="298" spans="1:24" ht="84">
@@ -24416,13 +24406,13 @@
         <v>988</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E298" s="1">
         <v>10</v>
       </c>
       <c r="F298" s="67" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="G298" s="33"/>
       <c r="H298" s="33"/>
@@ -24431,7 +24421,7 @@
       <c r="K298" s="17"/>
       <c r="L298" s="17"/>
       <c r="M298" s="21" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="N298" s="60"/>
       <c r="O298" s="1" t="s">
@@ -24448,7 +24438,7 @@
       </c>
       <c r="S298" s="10"/>
       <c r="T298" s="10" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="U298" s="10"/>
       <c r="V298" s="1">
@@ -24458,7 +24448,7 @@
         <v>659</v>
       </c>
       <c r="X298" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="299" spans="1:24" ht="36">
@@ -24510,7 +24500,7 @@
         <v>992</v>
       </c>
       <c r="X299" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="300" spans="1:24" ht="24">
@@ -24527,7 +24517,7 @@
       <c r="E300" s="1"/>
       <c r="F300" s="67"/>
       <c r="G300" s="33" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="H300" s="33"/>
       <c r="I300" s="32"/>
@@ -24549,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="S300" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="T300" s="1"/>
       <c r="U300" s="1"/>
@@ -24560,7 +24550,7 @@
         <v>1161</v>
       </c>
       <c r="X300" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="301" spans="1:24" ht="144">
@@ -24574,16 +24564,16 @@
         <v>1212</v>
       </c>
       <c r="D301" s="28" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="E301" s="36">
         <v>10</v>
       </c>
       <c r="F301" s="68" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="G301" s="33" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="H301" s="37"/>
       <c r="I301" s="50"/>
@@ -24616,7 +24606,7 @@
         <v>1216</v>
       </c>
       <c r="X301" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="302" spans="1:24" ht="144">
@@ -24630,16 +24620,16 @@
         <v>1212</v>
       </c>
       <c r="D302" s="28" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="E302" s="36">
         <v>10</v>
       </c>
       <c r="F302" s="68" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="G302" s="33" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="H302" s="37"/>
       <c r="I302" s="38"/>
@@ -24672,12 +24662,12 @@
         <v>1218</v>
       </c>
       <c r="X302" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="303" spans="1:24" ht="36">
       <c r="A303" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="B303" s="11" t="s">
         <v>129</v>
@@ -24720,7 +24710,7 @@
         <v>130</v>
       </c>
       <c r="X303" s="53" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="304" spans="1:24" ht="108">
@@ -24728,13 +24718,13 @@
         <v>55000344</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="C304" s="28" t="s">
         <v>216</v>
       </c>
       <c r="D304" s="28" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="E304" s="28">
         <v>15</v>
@@ -24747,7 +24737,7 @@
       <c r="K304" s="35"/>
       <c r="L304" s="17"/>
       <c r="M304" s="21" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="N304" s="60">
         <v>1</v>
@@ -24759,7 +24749,7 @@
         <v>684</v>
       </c>
       <c r="Q304" s="16" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="R304" s="28">
         <v>0</v>
@@ -24768,7 +24758,7 @@
         <v>909</v>
       </c>
       <c r="T304" s="10" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="U304" s="10" t="s">
         <v>1014</v>
@@ -24777,7 +24767,7 @@
         <v>40</v>
       </c>
       <c r="W304" s="28" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="X304" s="28"/>
     </row>
@@ -24830,13 +24820,13 @@
         <v>679</v>
       </c>
       <c r="D1" s="69" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F1" s="69" t="s">
         <v>1453</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>1456</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>695</v>
@@ -24860,7 +24850,7 @@
         <v>928</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>688</v>
@@ -24878,7 +24868,7 @@
         <v>987</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>1006</v>
@@ -24890,7 +24880,7 @@
         <v>681</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -24904,13 +24894,13 @@
         <v>671</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1017</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1015</v>
@@ -24934,7 +24924,7 @@
         <v>887</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>687</v>
@@ -24978,13 +24968,13 @@
         <v>674</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>1451</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>1454</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1172</v>
@@ -25008,7 +24998,7 @@
         <v>929</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>690</v>
@@ -25026,7 +25016,7 @@
         <v>932</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>1004</v>
@@ -25038,7 +25028,7 @@
         <v>676</v>
       </c>
       <c r="X3" s="54" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="84">
@@ -25086,7 +25076,7 @@
         <v>666</v>
       </c>
       <c r="X4" s="55" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="84">
@@ -25134,7 +25124,7 @@
         <v>666</v>
       </c>
       <c r="X5" s="55" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
   </sheetData>
@@ -25186,13 +25176,13 @@
         <v>679</v>
       </c>
       <c r="D1" s="69" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F1" s="69" t="s">
         <v>1453</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>1456</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>695</v>
@@ -25216,7 +25206,7 @@
         <v>928</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>688</v>
@@ -25234,7 +25224,7 @@
         <v>987</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>1006</v>
@@ -25246,7 +25236,7 @@
         <v>681</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -25260,13 +25250,13 @@
         <v>671</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1017</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>993</v>
@@ -25290,7 +25280,7 @@
         <v>887</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>687</v>
@@ -25334,13 +25324,13 @@
         <v>674</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>1451</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>1454</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1172</v>
@@ -25364,7 +25354,7 @@
         <v>929</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>690</v>
@@ -25382,7 +25372,7 @@
         <v>932</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>1004</v>
@@ -25394,7 +25384,7 @@
         <v>676</v>
       </c>
       <c r="X3" s="54" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="36">
@@ -25444,7 +25434,7 @@
         <v>45</v>
       </c>
       <c r="X4" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="36">
@@ -25494,7 +25484,7 @@
         <v>47</v>
       </c>
       <c r="X5" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="36">
@@ -25544,7 +25534,7 @@
         <v>49</v>
       </c>
       <c r="X6" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="36">
@@ -25594,7 +25584,7 @@
         <v>51</v>
       </c>
       <c r="X7" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="36">
@@ -25644,7 +25634,7 @@
         <v>53</v>
       </c>
       <c r="X8" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="36">
@@ -25694,7 +25684,7 @@
         <v>55</v>
       </c>
       <c r="X9" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="36">
@@ -25744,7 +25734,7 @@
         <v>57</v>
       </c>
       <c r="X10" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="36">
@@ -25794,7 +25784,7 @@
         <v>59</v>
       </c>
       <c r="X11" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="36">
@@ -25844,7 +25834,7 @@
         <v>114</v>
       </c>
       <c r="X12" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="36">
@@ -25894,7 +25884,7 @@
         <v>116</v>
       </c>
       <c r="X13" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="36">
@@ -25944,7 +25934,7 @@
         <v>118</v>
       </c>
       <c r="X14" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="36">
@@ -25994,7 +25984,7 @@
         <v>120</v>
       </c>
       <c r="X15" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="36">
@@ -26044,7 +26034,7 @@
         <v>122</v>
       </c>
       <c r="X16" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="36">
@@ -26094,7 +26084,7 @@
         <v>124</v>
       </c>
       <c r="X17" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="36">
@@ -26144,7 +26134,7 @@
         <v>126</v>
       </c>
       <c r="X18" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="36">
@@ -26194,7 +26184,7 @@
         <v>128</v>
       </c>
       <c r="X19" s="55" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -438,7 +438,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="1475">
   <si>
     <t>特殊</t>
   </si>
@@ -5572,6 +5572,10 @@
   </si>
   <si>
     <t>震荡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkinvasion</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -10283,10 +10287,10 @@
   <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10912,7 +10916,9 @@
       <c r="R11" s="27">
         <v>0</v>
       </c>
-      <c r="S11" s="27"/>
+      <c r="S11" s="27" t="s">
+        <v>1474</v>
+      </c>
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
       <c r="V11" s="27">
@@ -11162,7 +11168,7 @@
       <c r="T16" s="27"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W16" s="27" t="s">
         <v>18</v>
@@ -11210,7 +11216,7 @@
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
       <c r="V17" s="27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W17" s="27" t="s">
         <v>22</v>
@@ -11258,7 +11264,7 @@
       <c r="T18" s="27"/>
       <c r="U18" s="27"/>
       <c r="V18" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W18" s="27" t="s">
         <v>13</v>
@@ -11306,7 +11312,7 @@
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
       <c r="V19" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W19" s="27" t="s">
         <v>363</v>
@@ -11354,7 +11360,7 @@
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
       <c r="V20" s="27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W20" s="27" t="s">
         <v>20</v>
@@ -11402,7 +11408,7 @@
       <c r="T21" s="27"/>
       <c r="U21" s="27"/>
       <c r="V21" s="27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W21" s="27" t="s">
         <v>1465</v>
@@ -11450,7 +11456,7 @@
       <c r="T22" s="27"/>
       <c r="U22" s="27"/>
       <c r="V22" s="27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W22" s="27" t="s">
         <v>460</v>
@@ -11498,7 +11504,7 @@
       <c r="T23" s="27"/>
       <c r="U23" s="27"/>
       <c r="V23" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W23" s="27" t="s">
         <v>8</v>
@@ -11546,7 +11552,7 @@
       <c r="T24" s="27"/>
       <c r="U24" s="27"/>
       <c r="V24" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W24" s="27" t="s">
         <v>12</v>
@@ -11594,7 +11600,7 @@
       <c r="T25" s="27"/>
       <c r="U25" s="27"/>
       <c r="V25" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W25" s="27" t="s">
         <v>16</v>
@@ -11642,7 +11648,7 @@
       <c r="T26" s="27"/>
       <c r="U26" s="27"/>
       <c r="V26" s="27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W26" s="27" t="s">
         <v>10</v>
@@ -11690,7 +11696,7 @@
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
       <c r="V27" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W27" s="27" t="s">
         <v>210</v>
@@ -11738,7 +11744,7 @@
       <c r="T28" s="27"/>
       <c r="U28" s="27"/>
       <c r="V28" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W28" s="27" t="s">
         <v>15</v>
@@ -11786,7 +11792,7 @@
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W29" s="27" t="s">
         <v>173</v>
@@ -11834,7 +11840,7 @@
       <c r="T30" s="27"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W30" s="27" t="s">
         <v>1470</v>
@@ -11882,7 +11888,7 @@
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
       <c r="V31" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W31" s="27" t="s">
         <v>1472</v>

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V15" authorId="1" shapeId="0">
+    <comment ref="V16" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -438,7 +438,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="1481">
   <si>
     <t>特殊</t>
   </si>
@@ -5576,6 +5576,30 @@
   </si>
   <si>
     <t>darkinvasion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>水球</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterball2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署时对最近的3个敌人造成伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).SortRandom().Top(3)) s.AddMissile(mon, "waterball");</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuiqiu</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9854,8 +9878,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_25" displayName="表3_25" ref="A3:X34" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" tableBorderDxfId="105">
-  <autoFilter ref="A3:X34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_25" displayName="表3_25" ref="A3:X35" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" tableBorderDxfId="105">
+  <autoFilter ref="A3:X35"/>
   <sortState ref="A4:X31">
     <sortCondition ref="A3:A31"/>
   </sortState>
@@ -10284,13 +10308,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10639,25 +10663,29 @@
       </c>
       <c r="X5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="48">
-      <c r="A6" s="75">
-        <v>55300001</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>119</v>
+    <row r="6" spans="1:24" ht="144">
+      <c r="A6" s="12">
+        <v>55200002</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1475</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="32" t="s">
-        <v>1226</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>1227</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E6" s="27">
+        <v>30</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H6" s="69"/>
       <c r="I6" s="28"/>
       <c r="J6" s="29"/>
       <c r="K6" s="34"/>
@@ -10671,30 +10699,30 @@
         <v>657</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>1228</v>
+        <v>1478</v>
       </c>
       <c r="R6" s="27">
         <v>0</v>
       </c>
-      <c r="S6" s="27"/>
+      <c r="S6" s="27" t="s">
+        <v>1476</v>
+      </c>
       <c r="T6" s="27"/>
-      <c r="U6" s="27" t="s">
-        <v>961</v>
-      </c>
+      <c r="U6" s="27"/>
       <c r="V6" s="27">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="W6" s="27" t="s">
-        <v>120</v>
+        <v>1480</v>
       </c>
       <c r="X6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="60">
+    <row r="7" spans="1:24" ht="48">
       <c r="A7" s="75">
-        <v>55300002</v>
+        <v>55300001</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>1422</v>
+        <v>119</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>85</v>
@@ -10702,11 +10730,11 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="66"/>
-      <c r="G7" s="69" t="s">
-        <v>1423</v>
-      </c>
-      <c r="H7" s="69" t="s">
-        <v>1424</v>
+      <c r="G7" s="32" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>1227</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="29"/>
@@ -10721,28 +10749,30 @@
         <v>657</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>1441</v>
+        <v>1228</v>
       </c>
       <c r="R7" s="27">
         <v>0</v>
       </c>
       <c r="S7" s="27"/>
       <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
+      <c r="U7" s="27" t="s">
+        <v>961</v>
+      </c>
       <c r="V7" s="27">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W7" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="X7" s="54"/>
+        <v>120</v>
+      </c>
+      <c r="X7" s="70"/>
     </row>
     <row r="8" spans="1:24" ht="60">
       <c r="A8" s="75">
-        <v>55300003</v>
+        <v>55300002</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>85</v>
@@ -10750,11 +10780,11 @@
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="66"/>
-      <c r="G8" s="32" t="s">
-        <v>1426</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>1427</v>
+      <c r="G8" s="69" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>1424</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="29"/>
@@ -10769,7 +10799,7 @@
         <v>657</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="R8" s="27">
         <v>0</v>
@@ -10781,16 +10811,16 @@
         <v>30</v>
       </c>
       <c r="W8" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="X8" s="70"/>
+        <v>369</v>
+      </c>
+      <c r="X8" s="54"/>
     </row>
     <row r="9" spans="1:24" ht="60">
       <c r="A9" s="75">
-        <v>55300004</v>
+        <v>55300003</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>85</v>
@@ -10798,11 +10828,11 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="66"/>
-      <c r="G9" s="69" t="s">
-        <v>1429</v>
-      </c>
-      <c r="H9" s="69" t="s">
-        <v>1430</v>
+      <c r="G9" s="32" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>1427</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="29"/>
@@ -10817,7 +10847,7 @@
         <v>657</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1219</v>
+        <v>1442</v>
       </c>
       <c r="R9" s="27">
         <v>0</v>
@@ -10829,16 +10859,16 @@
         <v>30</v>
       </c>
       <c r="W9" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="X9" s="54"/>
+        <v>370</v>
+      </c>
+      <c r="X9" s="70"/>
     </row>
     <row r="10" spans="1:24" ht="60">
       <c r="A10" s="75">
-        <v>55300005</v>
+        <v>55300004</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>85</v>
@@ -10847,10 +10877,10 @@
       <c r="E10" s="27"/>
       <c r="F10" s="66"/>
       <c r="G10" s="69" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="29"/>
@@ -10865,7 +10895,7 @@
         <v>657</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="R10" s="27">
         <v>0</v>
@@ -10877,27 +10907,29 @@
         <v>30</v>
       </c>
       <c r="W10" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="X10" s="70"/>
-    </row>
-    <row r="11" spans="1:24" ht="36">
+        <v>461</v>
+      </c>
+      <c r="X10" s="54"/>
+    </row>
+    <row r="11" spans="1:24" ht="60">
       <c r="A11" s="75">
-        <v>55300006</v>
+        <v>55300005</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="66"/>
       <c r="G11" s="69" t="s">
-        <v>1438</v>
-      </c>
-      <c r="H11" s="69"/>
+        <v>1432</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>1433</v>
+      </c>
       <c r="I11" s="28"/>
       <c r="J11" s="29"/>
       <c r="K11" s="34"/>
@@ -10910,44 +10942,40 @@
       <c r="P11" s="66" t="s">
         <v>657</v>
       </c>
-      <c r="Q11" s="71" t="s">
-        <v>1439</v>
+      <c r="Q11" s="16" t="s">
+        <v>1218</v>
       </c>
       <c r="R11" s="27">
         <v>0</v>
       </c>
-      <c r="S11" s="27" t="s">
-        <v>1474</v>
-      </c>
+      <c r="S11" s="27"/>
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
       <c r="V11" s="27">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W11" s="27" t="s">
-        <v>1437</v>
+        <v>462</v>
       </c>
       <c r="X11" s="70"/>
     </row>
-    <row r="12" spans="1:24" ht="60">
+    <row r="12" spans="1:24" ht="36">
       <c r="A12" s="75">
-        <v>55300007</v>
+        <v>55300006</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="66"/>
       <c r="G12" s="69" t="s">
-        <v>1434</v>
-      </c>
-      <c r="H12" s="69" t="s">
-        <v>1435</v>
-      </c>
+        <v>1438</v>
+      </c>
+      <c r="H12" s="69"/>
       <c r="I12" s="28"/>
       <c r="J12" s="29"/>
       <c r="K12" s="34"/>
@@ -10960,48 +10988,50 @@
       <c r="P12" s="66" t="s">
         <v>657</v>
       </c>
-      <c r="Q12" s="16" t="s">
-        <v>1443</v>
+      <c r="Q12" s="71" t="s">
+        <v>1439</v>
       </c>
       <c r="R12" s="27">
         <v>0</v>
       </c>
-      <c r="S12" s="27"/>
+      <c r="S12" s="27" t="s">
+        <v>1474</v>
+      </c>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
       <c r="V12" s="27">
         <v>25</v>
       </c>
       <c r="W12" s="27" t="s">
-        <v>270</v>
+        <v>1437</v>
       </c>
       <c r="X12" s="70"/>
     </row>
-    <row r="13" spans="1:24" ht="36">
+    <row r="13" spans="1:24" ht="60">
       <c r="A13" s="75">
-        <v>55310001</v>
+        <v>55300007</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>417</v>
+        <v>1447</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="66"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="G13" s="69" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>1435</v>
+      </c>
       <c r="I13" s="28"/>
       <c r="J13" s="29"/>
       <c r="K13" s="34"/>
       <c r="L13" s="17"/>
-      <c r="M13" s="21" t="s">
-        <v>1406</v>
-      </c>
-      <c r="N13" s="59">
-        <v>1</v>
-      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="59"/>
       <c r="O13" s="68" t="s">
         <v>662</v>
       </c>
@@ -11009,7 +11039,7 @@
         <v>657</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>1407</v>
+        <v>1443</v>
       </c>
       <c r="R13" s="27">
         <v>0</v>
@@ -11018,22 +11048,22 @@
       <c r="T13" s="27"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="W13" s="27" t="s">
-        <v>418</v>
+        <v>270</v>
       </c>
       <c r="X13" s="70"/>
     </row>
     <row r="14" spans="1:24" ht="36">
-      <c r="A14" s="76">
-        <v>55400001</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>1323</v>
+      <c r="A14" s="75">
+        <v>55310001</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>417</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>940</v>
+        <v>0</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
@@ -11045,10 +11075,10 @@
       <c r="K14" s="34"/>
       <c r="L14" s="17"/>
       <c r="M14" s="21" t="s">
-        <v>1338</v>
+        <v>1406</v>
       </c>
       <c r="N14" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" s="68" t="s">
         <v>662</v>
@@ -11057,53 +11087,47 @@
         <v>657</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>1324</v>
+        <v>1407</v>
       </c>
       <c r="R14" s="27">
         <v>0</v>
       </c>
-      <c r="S14" s="27" t="s">
-        <v>894</v>
-      </c>
+      <c r="S14" s="27"/>
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27">
-        <v>80</v>
-      </c>
-      <c r="W14" s="72" t="s">
-        <v>1339</v>
+        <v>100</v>
+      </c>
+      <c r="W14" s="27" t="s">
+        <v>418</v>
       </c>
       <c r="X14" s="70"/>
     </row>
-    <row r="15" spans="1:24" ht="24">
+    <row r="15" spans="1:24" ht="36">
       <c r="A15" s="76">
-        <v>55400002</v>
+        <v>55400001</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>893</v>
+        <v>1323</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E15" s="27">
-        <v>10</v>
-      </c>
-      <c r="F15" s="66" t="s">
-        <v>1396</v>
-      </c>
-      <c r="G15" s="69" t="s">
-        <v>1412</v>
-      </c>
+        <v>940</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="28"/>
       <c r="J15" s="29"/>
       <c r="K15" s="34"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="59"/>
+      <c r="M15" s="21" t="s">
+        <v>1338</v>
+      </c>
+      <c r="N15" s="59">
+        <v>2</v>
+      </c>
       <c r="O15" s="68" t="s">
         <v>662</v>
       </c>
@@ -11111,44 +11135,50 @@
         <v>657</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1413</v>
+        <v>1324</v>
       </c>
       <c r="R15" s="27">
         <v>0</v>
       </c>
-      <c r="S15" s="27"/>
+      <c r="S15" s="27" t="s">
+        <v>894</v>
+      </c>
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
       <c r="V15" s="27">
         <v>80</v>
       </c>
-      <c r="W15" s="27" t="s">
-        <v>891</v>
+      <c r="W15" s="72" t="s">
+        <v>1339</v>
       </c>
       <c r="X15" s="70"/>
     </row>
-    <row r="16" spans="1:24" ht="36">
-      <c r="A16" s="78">
-        <v>55500001</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>17</v>
+    <row r="16" spans="1:24" ht="24">
+      <c r="A16" s="76">
+        <v>55400002</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>893</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="69"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E16" s="27">
+        <v>10</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>1412</v>
+      </c>
       <c r="H16" s="69"/>
-      <c r="I16" s="28" t="s">
-        <v>1460</v>
-      </c>
+      <c r="I16" s="28"/>
       <c r="J16" s="29"/>
-      <c r="K16" s="34" t="s">
-        <v>1450</v>
-      </c>
+      <c r="K16" s="34"/>
       <c r="L16" s="17"/>
       <c r="M16" s="21"/>
       <c r="N16" s="59"/>
@@ -11159,7 +11189,7 @@
         <v>657</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>1451</v>
+        <v>1413</v>
       </c>
       <c r="R16" s="27">
         <v>0</v>
@@ -11168,19 +11198,19 @@
       <c r="T16" s="27"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="W16" s="27" t="s">
-        <v>18</v>
+        <v>891</v>
       </c>
       <c r="X16" s="70"/>
     </row>
     <row r="17" spans="1:24" ht="36">
       <c r="A17" s="78">
-        <v>55500002</v>
+        <v>55500001</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>6</v>
@@ -11191,11 +11221,11 @@
       <c r="G17" s="69"/>
       <c r="H17" s="69"/>
       <c r="I17" s="28" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="34" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="21"/>
@@ -11207,7 +11237,7 @@
         <v>657</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="R17" s="27">
         <v>0</v>
@@ -11219,16 +11249,16 @@
         <v>5</v>
       </c>
       <c r="W17" s="27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="X17" s="70"/>
     </row>
     <row r="18" spans="1:24" ht="36">
       <c r="A18" s="78">
-        <v>55500003</v>
+        <v>55500002</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>1459</v>
+        <v>21</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>6</v>
@@ -11239,11 +11269,11 @@
       <c r="G18" s="69"/>
       <c r="H18" s="69"/>
       <c r="I18" s="28" t="s">
-        <v>686</v>
+        <v>1461</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="34" t="s">
-        <v>704</v>
+        <v>1454</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="21"/>
@@ -11255,7 +11285,7 @@
         <v>657</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>673</v>
+        <v>1455</v>
       </c>
       <c r="R18" s="27">
         <v>0</v>
@@ -11267,16 +11297,16 @@
         <v>5</v>
       </c>
       <c r="W18" s="27" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="X18" s="70"/>
     </row>
     <row r="19" spans="1:24" ht="36">
       <c r="A19" s="78">
-        <v>55500004</v>
+        <v>55500003</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>362</v>
+        <v>1459</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>6</v>
@@ -11284,10 +11314,10 @@
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="66"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="28" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="34" t="s">
@@ -11303,7 +11333,7 @@
         <v>657</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="R19" s="27">
         <v>0</v>
@@ -11315,16 +11345,16 @@
         <v>5</v>
       </c>
       <c r="W19" s="27" t="s">
-        <v>363</v>
+        <v>13</v>
       </c>
       <c r="X19" s="70"/>
     </row>
     <row r="20" spans="1:24" ht="36">
       <c r="A20" s="78">
-        <v>55500005</v>
+        <v>55500004</v>
       </c>
       <c r="B20" s="78" t="s">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>6</v>
@@ -11335,11 +11365,11 @@
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="28" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="34" t="s">
-        <v>1453</v>
+        <v>704</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="21"/>
@@ -11351,9 +11381,9 @@
         <v>657</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>1452</v>
-      </c>
-      <c r="R20" s="52">
+        <v>681</v>
+      </c>
+      <c r="R20" s="27">
         <v>0</v>
       </c>
       <c r="S20" s="27"/>
@@ -11363,16 +11393,16 @@
         <v>5</v>
       </c>
       <c r="W20" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="X20" s="54"/>
+        <v>363</v>
+      </c>
+      <c r="X20" s="70"/>
     </row>
     <row r="21" spans="1:24" ht="36">
       <c r="A21" s="78">
-        <v>55500006</v>
+        <v>55500005</v>
       </c>
       <c r="B21" s="78" t="s">
-        <v>1464</v>
+        <v>19</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>6</v>
@@ -11383,7 +11413,7 @@
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
       <c r="I21" s="28" t="s">
-        <v>1462</v>
+        <v>689</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="34" t="s">
@@ -11399,7 +11429,7 @@
         <v>657</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>1463</v>
+        <v>1452</v>
       </c>
       <c r="R21" s="52">
         <v>0</v>
@@ -11411,16 +11441,16 @@
         <v>5</v>
       </c>
       <c r="W21" s="27" t="s">
-        <v>1465</v>
+        <v>20</v>
       </c>
       <c r="X21" s="54"/>
     </row>
     <row r="22" spans="1:24" ht="36">
       <c r="A22" s="78">
-        <v>55500007</v>
+        <v>55500006</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>459</v>
+        <v>1464</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>6</v>
@@ -11431,11 +11461,11 @@
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="28" t="s">
-        <v>708</v>
+        <v>1462</v>
       </c>
       <c r="J22" s="29"/>
       <c r="K22" s="34" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="21"/>
@@ -11447,7 +11477,7 @@
         <v>657</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1457</v>
+        <v>1463</v>
       </c>
       <c r="R22" s="52">
         <v>0</v>
@@ -11459,16 +11489,16 @@
         <v>5</v>
       </c>
       <c r="W22" s="27" t="s">
-        <v>460</v>
+        <v>1465</v>
       </c>
       <c r="X22" s="54"/>
     </row>
     <row r="23" spans="1:24" ht="36">
       <c r="A23" s="78">
-        <v>55500008</v>
+        <v>55500007</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>7</v>
+        <v>459</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>6</v>
@@ -11479,11 +11509,11 @@
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
       <c r="I23" s="28" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="34" t="s">
-        <v>704</v>
+        <v>1456</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="21"/>
@@ -11495,7 +11525,7 @@
         <v>657</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>671</v>
+        <v>1457</v>
       </c>
       <c r="R23" s="52">
         <v>0</v>
@@ -11507,16 +11537,16 @@
         <v>5</v>
       </c>
       <c r="W23" s="27" t="s">
-        <v>8</v>
+        <v>460</v>
       </c>
       <c r="X23" s="54"/>
     </row>
     <row r="24" spans="1:24" ht="36">
       <c r="A24" s="78">
-        <v>55500009</v>
+        <v>55500008</v>
       </c>
       <c r="B24" s="78" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>6</v>
@@ -11527,7 +11557,7 @@
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="28" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J24" s="29"/>
       <c r="K24" s="34" t="s">
@@ -11543,7 +11573,7 @@
         <v>657</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="R24" s="52">
         <v>0</v>
@@ -11555,16 +11585,16 @@
         <v>5</v>
       </c>
       <c r="W24" s="27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X24" s="54"/>
     </row>
     <row r="25" spans="1:24" ht="36">
       <c r="A25" s="78">
-        <v>55500010</v>
+        <v>55500009</v>
       </c>
       <c r="B25" s="78" t="s">
-        <v>1458</v>
+        <v>11</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>6</v>
@@ -11575,7 +11605,7 @@
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="28" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="J25" s="29"/>
       <c r="K25" s="34" t="s">
@@ -11591,7 +11621,7 @@
         <v>657</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="R25" s="52">
         <v>0</v>
@@ -11603,16 +11633,16 @@
         <v>5</v>
       </c>
       <c r="W25" s="27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="X25" s="54"/>
     </row>
     <row r="26" spans="1:24" ht="36">
       <c r="A26" s="78">
-        <v>55500011</v>
+        <v>55500010</v>
       </c>
       <c r="B26" s="78" t="s">
-        <v>9</v>
+        <v>1458</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>6</v>
@@ -11623,11 +11653,11 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="28" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="J26" s="29"/>
       <c r="K26" s="34" t="s">
-        <v>1448</v>
+        <v>704</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="21"/>
@@ -11639,7 +11669,7 @@
         <v>657</v>
       </c>
       <c r="Q26" s="16" t="s">
-        <v>1449</v>
+        <v>675</v>
       </c>
       <c r="R26" s="52">
         <v>0</v>
@@ -11651,16 +11681,16 @@
         <v>5</v>
       </c>
       <c r="W26" s="27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="X26" s="54"/>
     </row>
     <row r="27" spans="1:24" ht="36">
       <c r="A27" s="78">
-        <v>55500012</v>
+        <v>55500011</v>
       </c>
       <c r="B27" s="78" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>6</v>
@@ -11671,11 +11701,11 @@
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
       <c r="I27" s="28" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="J27" s="29"/>
       <c r="K27" s="34" t="s">
-        <v>704</v>
+        <v>1448</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="21"/>
@@ -11687,7 +11717,7 @@
         <v>657</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>677</v>
+        <v>1449</v>
       </c>
       <c r="R27" s="52">
         <v>0</v>
@@ -11699,16 +11729,16 @@
         <v>5</v>
       </c>
       <c r="W27" s="27" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="X27" s="54"/>
     </row>
     <row r="28" spans="1:24" ht="36">
       <c r="A28" s="78">
-        <v>55500013</v>
+        <v>55500012</v>
       </c>
       <c r="B28" s="78" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>6</v>
@@ -11716,10 +11746,10 @@
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="66"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="28" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="J28" s="29"/>
       <c r="K28" s="34" t="s">
@@ -11735,7 +11765,7 @@
         <v>657</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="R28" s="52">
         <v>0</v>
@@ -11747,16 +11777,16 @@
         <v>5</v>
       </c>
       <c r="W28" s="27" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="X28" s="54"/>
     </row>
     <row r="29" spans="1:24" ht="36">
       <c r="A29" s="78">
-        <v>55500014</v>
+        <v>55500013</v>
       </c>
       <c r="B29" s="78" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>6</v>
@@ -11767,7 +11797,7 @@
       <c r="G29" s="69"/>
       <c r="H29" s="69"/>
       <c r="I29" s="28" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="J29" s="29"/>
       <c r="K29" s="34" t="s">
@@ -11783,9 +11813,9 @@
         <v>657</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>676</v>
-      </c>
-      <c r="R29" s="27">
+        <v>674</v>
+      </c>
+      <c r="R29" s="52">
         <v>0</v>
       </c>
       <c r="S29" s="27"/>
@@ -11795,16 +11825,16 @@
         <v>5</v>
       </c>
       <c r="W29" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="X29" s="70"/>
+        <v>15</v>
+      </c>
+      <c r="X29" s="54"/>
     </row>
     <row r="30" spans="1:24" ht="36">
       <c r="A30" s="78">
-        <v>55500015</v>
+        <v>55500014</v>
       </c>
       <c r="B30" s="78" t="s">
-        <v>1471</v>
+        <v>172</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>6</v>
@@ -11815,7 +11845,7 @@
       <c r="G30" s="69"/>
       <c r="H30" s="69"/>
       <c r="I30" s="28" t="s">
-        <v>1466</v>
+        <v>698</v>
       </c>
       <c r="J30" s="29"/>
       <c r="K30" s="34" t="s">
@@ -11831,7 +11861,7 @@
         <v>657</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>1468</v>
+        <v>676</v>
       </c>
       <c r="R30" s="27">
         <v>0</v>
@@ -11843,16 +11873,16 @@
         <v>5</v>
       </c>
       <c r="W30" s="27" t="s">
-        <v>1470</v>
+        <v>173</v>
       </c>
       <c r="X30" s="70"/>
     </row>
     <row r="31" spans="1:24" ht="36">
       <c r="A31" s="78">
-        <v>55500016</v>
+        <v>55500015</v>
       </c>
       <c r="B31" s="78" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>6</v>
@@ -11863,7 +11893,7 @@
       <c r="G31" s="69"/>
       <c r="H31" s="69"/>
       <c r="I31" s="28" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="J31" s="29"/>
       <c r="K31" s="34" t="s">
@@ -11879,7 +11909,7 @@
         <v>657</v>
       </c>
       <c r="Q31" s="16" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="R31" s="27">
         <v>0</v>
@@ -11891,36 +11921,32 @@
         <v>5</v>
       </c>
       <c r="W31" s="27" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="X31" s="70"/>
     </row>
-    <row r="32" spans="1:24" ht="156">
-      <c r="A32" s="77">
-        <v>55900001</v>
-      </c>
-      <c r="B32" s="77" t="s">
-        <v>168</v>
+    <row r="32" spans="1:24" ht="36">
+      <c r="A32" s="78">
+        <v>55500016</v>
+      </c>
+      <c r="B32" s="78" t="s">
+        <v>1473</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>964</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E32" s="27">
-        <v>40</v>
-      </c>
-      <c r="F32" s="66" t="s">
-        <v>1396</v>
-      </c>
-      <c r="G32" s="69" t="s">
-        <v>1446</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="69"/>
-      <c r="I32" s="28"/>
+      <c r="I32" s="28" t="s">
+        <v>1467</v>
+      </c>
       <c r="J32" s="29"/>
-      <c r="K32" s="34"/>
+      <c r="K32" s="34" t="s">
+        <v>704</v>
+      </c>
       <c r="L32" s="17"/>
       <c r="M32" s="21"/>
       <c r="N32" s="59"/>
@@ -11931,49 +11957,43 @@
         <v>657</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>1340</v>
+        <v>1469</v>
       </c>
       <c r="R32" s="27">
         <v>0</v>
       </c>
-      <c r="S32" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="T32" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="U32" s="27" t="s">
-        <v>962</v>
-      </c>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
       <c r="V32" s="27">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="W32" s="27" t="s">
-        <v>169</v>
+        <v>1472</v>
       </c>
       <c r="X32" s="70"/>
     </row>
-    <row r="33" spans="1:24" ht="132">
+    <row r="33" spans="1:24" ht="156">
       <c r="A33" s="77">
-        <v>55900002</v>
+        <v>55900001</v>
       </c>
       <c r="B33" s="77" t="s">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>1354</v>
       </c>
       <c r="E33" s="27">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F33" s="66" t="s">
         <v>1396</v>
       </c>
       <c r="G33" s="69" t="s">
-        <v>1419</v>
+        <v>1446</v>
       </c>
       <c r="H33" s="69"/>
       <c r="I33" s="28"/>
@@ -11989,39 +12009,49 @@
         <v>657</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>1420</v>
+        <v>1340</v>
       </c>
       <c r="R33" s="27">
         <v>0</v>
       </c>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
+      <c r="S33" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="T33" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="U33" s="27" t="s">
+        <v>962</v>
+      </c>
       <c r="V33" s="27">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="W33" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="X33" s="70" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="36">
+        <v>169</v>
+      </c>
+      <c r="X33" s="70"/>
+    </row>
+    <row r="34" spans="1:24" ht="132">
       <c r="A34" s="77">
-        <v>55900003</v>
+        <v>55900002</v>
       </c>
       <c r="B34" s="77" t="s">
-        <v>1414</v>
+        <v>236</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="66"/>
+      <c r="D34" s="27" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E34" s="27">
+        <v>20</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>1396</v>
+      </c>
       <c r="G34" s="69" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="H34" s="69"/>
       <c r="I34" s="28"/>
@@ -12037,7 +12067,7 @@
         <v>657</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="R34" s="27">
         <v>0</v>
@@ -12046,12 +12076,60 @@
       <c r="T34" s="27"/>
       <c r="U34" s="27"/>
       <c r="V34" s="27">
+        <v>30</v>
+      </c>
+      <c r="W34" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="X34" s="70" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="36">
+      <c r="A35" s="77">
+        <v>55900003</v>
+      </c>
+      <c r="B35" s="77" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="69" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H35" s="69"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="68" t="s">
+        <v>662</v>
+      </c>
+      <c r="P35" s="66" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>1417</v>
+      </c>
+      <c r="R35" s="27">
+        <v>0</v>
+      </c>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27">
         <v>80</v>
       </c>
-      <c r="W34" s="27" t="s">
+      <c r="W35" s="27" t="s">
         <v>1415</v>
       </c>
-      <c r="X34" s="70"/>
+      <c r="X35" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -12069,7 +12147,7 @@
   <dimension ref="A1:X264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="D4" sqref="D4"/>

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -5466,140 +5466,140 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>刚印</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage.SetPDamageRate(2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对野兽造成200%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage.SetPDamageRate(2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对恶魔造成200%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对龙族造成200%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage.SetPDamageRate(2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage.SetPDamageRate(2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对机械造成200%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage.SetPDamageRate(2);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对爬行造成200%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱逐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.IsRace("Devil")</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.IsRace("Machine")</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.IsRace("Bird")</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对鸟类造成200%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊弓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinggong</t>
+  </si>
+  <si>
+    <t>d.IsRace("Goblin")</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.IsRace("Totem")</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对地精造成200%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对图腾造成200%伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yanwu</t>
+  </si>
+  <si>
+    <t>烟雾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhendang</t>
+  </si>
+  <si>
+    <t>震荡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkinvasion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>水球</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterball2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署时对最近的3个敌人造成伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuiqiu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).FilterId(s.Id).SortDistance(true).Top(1)) s.Transform(mon.CardId);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>刚印</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage.SetPDamageRate(2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对野兽造成200%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage.SetPDamageRate(2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对恶魔造成200%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对龙族造成200%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage.SetPDamageRate(2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage.SetPDamageRate(2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对机械造成200%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage.SetPDamageRate(2);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对爬行造成200%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱逐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.IsRace("Devil")</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.IsRace("Machine")</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.IsRace("Bird")</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对鸟类造成200%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>惊弓</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jinggong</t>
-  </si>
-  <si>
-    <t>d.IsRace("Goblin")</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.IsRace("Totem")</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对地精造成200%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对图腾造成200%伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>yanwu</t>
-  </si>
-  <si>
-    <t>烟雾</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhendang</t>
-  </si>
-  <si>
-    <t>震荡</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>darkinvasion</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>水球</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterball2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NER</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署时对最近的3个敌人造成伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>foreach(IMonster mon in s.Map.GetRangeMonster(s.IsLeft,sp.Target,sp.Shape,sp.Range,s.Position).SortRandom().Top(3)) s.AddMissile(mon, "waterball");</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuiqiu</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -10311,10 +10311,10 @@
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10668,13 +10668,13 @@
         <v>55200002</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>197</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E6" s="27">
         <v>30</v>
@@ -10683,7 +10683,7 @@
         <v>1396</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H6" s="69"/>
       <c r="I6" s="28"/>
@@ -10699,13 +10699,13 @@
         <v>657</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="R6" s="27">
         <v>0</v>
       </c>
       <c r="S6" s="27" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="T6" s="27"/>
       <c r="U6" s="27"/>
@@ -10713,7 +10713,7 @@
         <v>15</v>
       </c>
       <c r="W6" s="27" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="X6" s="70"/>
     </row>
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="27" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
@@ -11012,7 +11012,7 @@
         <v>55300007</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>85</v>
@@ -11221,11 +11221,11 @@
       <c r="G17" s="69"/>
       <c r="H17" s="69"/>
       <c r="I17" s="28" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="34" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="21"/>
@@ -11237,7 +11237,7 @@
         <v>657</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="R17" s="27">
         <v>0</v>
@@ -11269,11 +11269,11 @@
       <c r="G18" s="69"/>
       <c r="H18" s="69"/>
       <c r="I18" s="28" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="34" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="21"/>
@@ -11285,7 +11285,7 @@
         <v>657</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="R18" s="27">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>55500003</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>6</v>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="34" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="21"/>
@@ -11429,7 +11429,7 @@
         <v>657</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="R21" s="52">
         <v>0</v>
@@ -11450,7 +11450,7 @@
         <v>55500006</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>6</v>
@@ -11461,11 +11461,11 @@
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="28" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J22" s="29"/>
       <c r="K22" s="34" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="21"/>
@@ -11477,7 +11477,7 @@
         <v>657</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="R22" s="52">
         <v>0</v>
@@ -11489,7 +11489,7 @@
         <v>5</v>
       </c>
       <c r="W22" s="27" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="X22" s="54"/>
     </row>
@@ -11513,7 +11513,7 @@
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="34" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="21"/>
@@ -11525,7 +11525,7 @@
         <v>657</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="R23" s="52">
         <v>0</v>
@@ -11642,7 +11642,7 @@
         <v>55500010</v>
       </c>
       <c r="B26" s="78" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>6</v>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="J27" s="29"/>
       <c r="K27" s="34" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="21"/>
@@ -11717,7 +11717,7 @@
         <v>657</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="R27" s="52">
         <v>0</v>
@@ -11882,7 +11882,7 @@
         <v>55500015</v>
       </c>
       <c r="B31" s="78" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>6</v>
@@ -11893,7 +11893,7 @@
       <c r="G31" s="69"/>
       <c r="H31" s="69"/>
       <c r="I31" s="28" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="J31" s="29"/>
       <c r="K31" s="34" t="s">
@@ -11909,7 +11909,7 @@
         <v>657</v>
       </c>
       <c r="Q31" s="16" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="R31" s="27">
         <v>0</v>
@@ -11921,7 +11921,7 @@
         <v>5</v>
       </c>
       <c r="W31" s="27" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="X31" s="70"/>
     </row>
@@ -11930,7 +11930,7 @@
         <v>55500016</v>
       </c>
       <c r="B32" s="78" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>6</v>
@@ -11941,7 +11941,7 @@
       <c r="G32" s="69"/>
       <c r="H32" s="69"/>
       <c r="I32" s="28" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="34" t="s">
@@ -11957,7 +11957,7 @@
         <v>657</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="R32" s="27">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>5</v>
       </c>
       <c r="W32" s="27" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="X32" s="70"/>
     </row>
@@ -11993,7 +11993,7 @@
         <v>1396</v>
       </c>
       <c r="G33" s="69" t="s">
-        <v>1446</v>
+        <v>1479</v>
       </c>
       <c r="H33" s="69"/>
       <c r="I33" s="28"/>

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -438,7 +438,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="1478">
   <si>
     <t>特殊</t>
   </si>
@@ -4993,10 +4993,6 @@
     <t>s.Atk.Source*=1.15;</t>
   </si>
   <si>
-    <t>s.Summon(3,51000019);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>gebulin</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -5575,6 +5571,25 @@
   </si>
   <si>
     <t>猛砍</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自己周围随机位置召唤一个光精灵射手</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangdian</t>
+  </si>
+  <si>
+    <t>光点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Summon(4,51000019);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Summon(4,51000008);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9853,8 +9868,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_25" displayName="表3_25" ref="A3:X38" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" tableBorderDxfId="105">
-  <autoFilter ref="A3:X38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_25" displayName="表3_25" ref="A3:X39" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" tableBorderDxfId="105">
+  <autoFilter ref="A3:X39"/>
   <sortState ref="A4:X31">
     <sortCondition ref="A3:A31"/>
   </sortState>
@@ -10283,13 +10298,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10322,13 +10337,13 @@
         <v>651</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>667</v>
@@ -10370,7 +10385,7 @@
         <v>930</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>949</v>
@@ -10396,13 +10411,13 @@
         <v>643</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>960</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>936</v>
@@ -10470,13 +10485,13 @@
         <v>646</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1107</v>
@@ -10518,7 +10533,7 @@
         <v>879</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>947</v>
@@ -10553,7 +10568,7 @@
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="21" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="N4" s="59">
         <v>1</v>
@@ -10565,7 +10580,7 @@
         <v>656</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="R4" s="1">
         <v>0</v>
@@ -10601,7 +10616,7 @@
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="17" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="21"/>
@@ -10613,7 +10628,7 @@
         <v>656</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R5" s="51">
         <v>0</v>
@@ -10649,7 +10664,7 @@
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="17" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="21"/>
@@ -10661,7 +10676,7 @@
         <v>656</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="R6" s="10">
         <v>0</v>
@@ -10682,7 +10697,7 @@
         <v>55100004</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>931</v>
@@ -10696,7 +10711,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="59"/>
@@ -10707,7 +10722,7 @@
         <v>656</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="R7" s="10">
         <v>0</v>
@@ -10728,13 +10743,13 @@
         <v>55200001</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>197</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E8" s="27">
         <v>15</v>
@@ -10747,7 +10762,7 @@
       <c r="K8" s="34"/>
       <c r="L8" s="17"/>
       <c r="M8" s="21" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="N8" s="59">
         <v>1</v>
@@ -10759,7 +10774,7 @@
         <v>656</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="R8" s="27">
         <v>0</v>
@@ -10768,7 +10783,7 @@
         <v>856</v>
       </c>
       <c r="T8" s="27" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="U8" s="27" t="s">
         <v>957</v>
@@ -10777,7 +10792,7 @@
         <v>40</v>
       </c>
       <c r="W8" s="27" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="X8" s="70"/>
     </row>
@@ -10786,22 +10801,22 @@
         <v>55200002</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>197</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E9" s="27">
         <v>30</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G9" s="69" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H9" s="69"/>
       <c r="I9" s="28"/>
@@ -10817,13 +10832,13 @@
         <v>656</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="R9" s="27">
         <v>0</v>
       </c>
       <c r="S9" s="27" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
@@ -10831,7 +10846,7 @@
         <v>15</v>
       </c>
       <c r="W9" s="27" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="X9" s="70"/>
     </row>
@@ -10890,7 +10905,7 @@
         <v>55300002</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>85</v>
@@ -10899,10 +10914,10 @@
       <c r="E11" s="27"/>
       <c r="F11" s="66"/>
       <c r="G11" s="69" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H11" s="69" t="s">
         <v>1408</v>
-      </c>
-      <c r="H11" s="69" t="s">
-        <v>1409</v>
       </c>
       <c r="I11" s="28"/>
       <c r="J11" s="29"/>
@@ -10917,7 +10932,7 @@
         <v>656</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="R11" s="27">
         <v>0</v>
@@ -10938,7 +10953,7 @@
         <v>55300003</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>85</v>
@@ -10947,10 +10962,10 @@
       <c r="E12" s="27"/>
       <c r="F12" s="66"/>
       <c r="G12" s="32" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H12" s="32" t="s">
         <v>1411</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>1412</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="29"/>
@@ -10965,7 +10980,7 @@
         <v>656</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="R12" s="27">
         <v>0</v>
@@ -10986,7 +11001,7 @@
         <v>55300004</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>85</v>
@@ -10995,10 +11010,10 @@
       <c r="E13" s="27"/>
       <c r="F13" s="66"/>
       <c r="G13" s="69" t="s">
+        <v>1413</v>
+      </c>
+      <c r="H13" s="69" t="s">
         <v>1414</v>
-      </c>
-      <c r="H13" s="69" t="s">
-        <v>1415</v>
       </c>
       <c r="I13" s="28"/>
       <c r="J13" s="29"/>
@@ -11034,7 +11049,7 @@
         <v>55300005</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>85</v>
@@ -11043,10 +11058,10 @@
       <c r="E14" s="27"/>
       <c r="F14" s="66"/>
       <c r="G14" s="69" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H14" s="69" t="s">
         <v>1417</v>
-      </c>
-      <c r="H14" s="69" t="s">
-        <v>1418</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="29"/>
@@ -11082,7 +11097,7 @@
         <v>55300006</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>0</v>
@@ -11091,7 +11106,7 @@
       <c r="E15" s="27"/>
       <c r="F15" s="66"/>
       <c r="G15" s="69" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H15" s="69"/>
       <c r="I15" s="28"/>
@@ -11107,13 +11122,13 @@
         <v>656</v>
       </c>
       <c r="Q15" s="71" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="R15" s="27">
         <v>0</v>
       </c>
       <c r="S15" s="27" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
@@ -11121,7 +11136,7 @@
         <v>25</v>
       </c>
       <c r="W15" s="27" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="X15" s="70"/>
     </row>
@@ -11130,7 +11145,7 @@
         <v>55300007</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>85</v>
@@ -11139,10 +11154,10 @@
       <c r="E16" s="27"/>
       <c r="F16" s="66"/>
       <c r="G16" s="69" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H16" s="69" t="s">
         <v>1419</v>
-      </c>
-      <c r="H16" s="69" t="s">
-        <v>1420</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="29"/>
@@ -11157,7 +11172,7 @@
         <v>656</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="R16" s="27">
         <v>0</v>
@@ -11193,7 +11208,7 @@
       <c r="K17" s="34"/>
       <c r="L17" s="17"/>
       <c r="M17" s="21" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="N17" s="59">
         <v>1</v>
@@ -11205,7 +11220,7 @@
         <v>656</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="R17" s="27">
         <v>0</v>
@@ -11221,7 +11236,7 @@
       </c>
       <c r="X17" s="70"/>
     </row>
-    <row r="18" spans="1:24" ht="36">
+    <row r="18" spans="1:24" ht="28.8">
       <c r="A18" s="76">
         <v>55400001</v>
       </c>
@@ -11241,7 +11256,7 @@
       <c r="K18" s="34"/>
       <c r="L18" s="17"/>
       <c r="M18" s="21" t="s">
-        <v>1324</v>
+        <v>1476</v>
       </c>
       <c r="N18" s="59">
         <v>2</v>
@@ -11267,7 +11282,7 @@
         <v>80</v>
       </c>
       <c r="W18" s="72" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="X18" s="70"/>
     </row>
@@ -11282,16 +11297,16 @@
         <v>0</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E19" s="27">
         <v>10</v>
       </c>
       <c r="F19" s="66" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G19" s="69" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H19" s="69"/>
       <c r="I19" s="28"/>
@@ -11307,7 +11322,7 @@
         <v>656</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="R19" s="27">
         <v>0</v>
@@ -11323,31 +11338,31 @@
       </c>
       <c r="X19" s="70"/>
     </row>
-    <row r="20" spans="1:24" ht="48">
-      <c r="A20" s="78">
-        <v>55500001</v>
-      </c>
-      <c r="B20" s="78" t="s">
-        <v>17</v>
+    <row r="20" spans="1:24" ht="28.8">
+      <c r="A20" s="76">
+        <v>55400003</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>1475</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>6</v>
+        <v>931</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="66"/>
       <c r="G20" s="69"/>
       <c r="H20" s="69"/>
-      <c r="I20" s="28" t="s">
-        <v>1444</v>
-      </c>
+      <c r="I20" s="28"/>
       <c r="J20" s="29"/>
-      <c r="K20" s="34" t="s">
-        <v>1434</v>
-      </c>
+      <c r="K20" s="34"/>
       <c r="L20" s="17"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="59"/>
+      <c r="M20" s="21" t="s">
+        <v>1477</v>
+      </c>
+      <c r="N20" s="59">
+        <v>2</v>
+      </c>
       <c r="O20" s="68" t="s">
         <v>661</v>
       </c>
@@ -11355,28 +11370,30 @@
         <v>656</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>1435</v>
+        <v>1473</v>
       </c>
       <c r="R20" s="27">
         <v>0</v>
       </c>
-      <c r="S20" s="27"/>
+      <c r="S20" s="27" t="s">
+        <v>889</v>
+      </c>
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
       <c r="V20" s="27">
-        <v>5</v>
-      </c>
-      <c r="W20" s="27" t="s">
-        <v>18</v>
+        <v>80</v>
+      </c>
+      <c r="W20" s="72" t="s">
+        <v>1474</v>
       </c>
       <c r="X20" s="70"/>
     </row>
     <row r="21" spans="1:24" ht="48">
       <c r="A21" s="78">
-        <v>55500002</v>
+        <v>55500001</v>
       </c>
       <c r="B21" s="78" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>6</v>
@@ -11387,11 +11404,11 @@
       <c r="G21" s="69"/>
       <c r="H21" s="69"/>
       <c r="I21" s="28" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="34" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="21"/>
@@ -11403,7 +11420,7 @@
         <v>656</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="R21" s="27">
         <v>0</v>
@@ -11415,16 +11432,16 @@
         <v>5</v>
       </c>
       <c r="W21" s="27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="X21" s="70"/>
     </row>
     <row r="22" spans="1:24" ht="48">
       <c r="A22" s="78">
-        <v>55500003</v>
+        <v>55500002</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>1443</v>
+        <v>21</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>6</v>
@@ -11435,11 +11452,11 @@
       <c r="G22" s="69"/>
       <c r="H22" s="69"/>
       <c r="I22" s="28" t="s">
-        <v>685</v>
+        <v>1444</v>
       </c>
       <c r="J22" s="29"/>
       <c r="K22" s="34" t="s">
-        <v>703</v>
+        <v>1437</v>
       </c>
       <c r="L22" s="17"/>
       <c r="M22" s="21"/>
@@ -11451,7 +11468,7 @@
         <v>656</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>672</v>
+        <v>1438</v>
       </c>
       <c r="R22" s="27">
         <v>0</v>
@@ -11463,16 +11480,16 @@
         <v>5</v>
       </c>
       <c r="W22" s="27" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="X22" s="70"/>
     </row>
     <row r="23" spans="1:24" ht="48">
       <c r="A23" s="78">
-        <v>55500004</v>
+        <v>55500003</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>362</v>
+        <v>1442</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>6</v>
@@ -11480,10 +11497,10 @@
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="66"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="28" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="34" t="s">
@@ -11499,7 +11516,7 @@
         <v>656</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="R23" s="27">
         <v>0</v>
@@ -11511,16 +11528,16 @@
         <v>5</v>
       </c>
       <c r="W23" s="27" t="s">
-        <v>363</v>
+        <v>13</v>
       </c>
       <c r="X23" s="70"/>
     </row>
     <row r="24" spans="1:24" ht="48">
       <c r="A24" s="78">
-        <v>55500005</v>
+        <v>55500004</v>
       </c>
       <c r="B24" s="78" t="s">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>6</v>
@@ -11531,11 +11548,11 @@
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="28" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="J24" s="29"/>
       <c r="K24" s="34" t="s">
-        <v>1437</v>
+        <v>703</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="21"/>
@@ -11547,9 +11564,9 @@
         <v>656</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1436</v>
-      </c>
-      <c r="R24" s="52">
+        <v>680</v>
+      </c>
+      <c r="R24" s="27">
         <v>0</v>
       </c>
       <c r="S24" s="27"/>
@@ -11559,16 +11576,16 @@
         <v>5</v>
       </c>
       <c r="W24" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="X24" s="54"/>
+        <v>363</v>
+      </c>
+      <c r="X24" s="70"/>
     </row>
     <row r="25" spans="1:24" ht="48">
       <c r="A25" s="78">
-        <v>55500006</v>
+        <v>55500005</v>
       </c>
       <c r="B25" s="78" t="s">
-        <v>1448</v>
+        <v>19</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>6</v>
@@ -11579,11 +11596,11 @@
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="28" t="s">
-        <v>1446</v>
+        <v>688</v>
       </c>
       <c r="J25" s="29"/>
       <c r="K25" s="34" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="21"/>
@@ -11595,7 +11612,7 @@
         <v>656</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
       <c r="R25" s="52">
         <v>0</v>
@@ -11607,16 +11624,16 @@
         <v>5</v>
       </c>
       <c r="W25" s="27" t="s">
-        <v>1449</v>
+        <v>20</v>
       </c>
       <c r="X25" s="54"/>
     </row>
     <row r="26" spans="1:24" ht="48">
       <c r="A26" s="78">
-        <v>55500007</v>
+        <v>55500006</v>
       </c>
       <c r="B26" s="78" t="s">
-        <v>459</v>
+        <v>1447</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>6</v>
@@ -11627,11 +11644,11 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="28" t="s">
-        <v>707</v>
+        <v>1445</v>
       </c>
       <c r="J26" s="29"/>
       <c r="K26" s="34" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="21"/>
@@ -11643,7 +11660,7 @@
         <v>656</v>
       </c>
       <c r="Q26" s="16" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
       <c r="R26" s="52">
         <v>0</v>
@@ -11655,16 +11672,16 @@
         <v>5</v>
       </c>
       <c r="W26" s="27" t="s">
-        <v>460</v>
+        <v>1448</v>
       </c>
       <c r="X26" s="54"/>
     </row>
     <row r="27" spans="1:24" ht="48">
       <c r="A27" s="78">
-        <v>55500008</v>
+        <v>55500007</v>
       </c>
       <c r="B27" s="78" t="s">
-        <v>7</v>
+        <v>459</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>6</v>
@@ -11675,11 +11692,11 @@
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
       <c r="I27" s="28" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
       <c r="J27" s="29"/>
       <c r="K27" s="34" t="s">
-        <v>703</v>
+        <v>1439</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="21"/>
@@ -11691,7 +11708,7 @@
         <v>656</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>670</v>
+        <v>1440</v>
       </c>
       <c r="R27" s="52">
         <v>0</v>
@@ -11703,16 +11720,16 @@
         <v>5</v>
       </c>
       <c r="W27" s="27" t="s">
-        <v>8</v>
+        <v>460</v>
       </c>
       <c r="X27" s="54"/>
     </row>
     <row r="28" spans="1:24" ht="48">
       <c r="A28" s="78">
-        <v>55500009</v>
+        <v>55500008</v>
       </c>
       <c r="B28" s="78" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>6</v>
@@ -11723,7 +11740,7 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J28" s="29"/>
       <c r="K28" s="34" t="s">
@@ -11739,7 +11756,7 @@
         <v>656</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="R28" s="52">
         <v>0</v>
@@ -11751,16 +11768,16 @@
         <v>5</v>
       </c>
       <c r="W28" s="27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X28" s="54"/>
     </row>
     <row r="29" spans="1:24" ht="48">
       <c r="A29" s="78">
-        <v>55500010</v>
+        <v>55500009</v>
       </c>
       <c r="B29" s="78" t="s">
-        <v>1442</v>
+        <v>11</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>6</v>
@@ -11771,7 +11788,7 @@
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="28" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="J29" s="29"/>
       <c r="K29" s="34" t="s">
@@ -11787,7 +11804,7 @@
         <v>656</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="R29" s="52">
         <v>0</v>
@@ -11799,16 +11816,16 @@
         <v>5</v>
       </c>
       <c r="W29" s="27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="X29" s="54"/>
     </row>
     <row r="30" spans="1:24" ht="48">
       <c r="A30" s="78">
-        <v>55500011</v>
+        <v>55500010</v>
       </c>
       <c r="B30" s="78" t="s">
-        <v>9</v>
+        <v>1441</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>6</v>
@@ -11819,11 +11836,11 @@
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
       <c r="I30" s="28" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="J30" s="29"/>
       <c r="K30" s="34" t="s">
-        <v>1432</v>
+        <v>703</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="21"/>
@@ -11835,7 +11852,7 @@
         <v>656</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>1433</v>
+        <v>674</v>
       </c>
       <c r="R30" s="52">
         <v>0</v>
@@ -11847,16 +11864,16 @@
         <v>5</v>
       </c>
       <c r="W30" s="27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="X30" s="54"/>
     </row>
     <row r="31" spans="1:24" ht="48">
       <c r="A31" s="78">
-        <v>55500012</v>
+        <v>55500011</v>
       </c>
       <c r="B31" s="78" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>6</v>
@@ -11867,11 +11884,11 @@
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
       <c r="I31" s="28" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="J31" s="29"/>
       <c r="K31" s="34" t="s">
-        <v>703</v>
+        <v>1431</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="21"/>
@@ -11883,7 +11900,7 @@
         <v>656</v>
       </c>
       <c r="Q31" s="16" t="s">
-        <v>676</v>
+        <v>1432</v>
       </c>
       <c r="R31" s="52">
         <v>0</v>
@@ -11895,16 +11912,16 @@
         <v>5</v>
       </c>
       <c r="W31" s="27" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="X31" s="54"/>
     </row>
     <row r="32" spans="1:24" ht="48">
       <c r="A32" s="78">
-        <v>55500013</v>
+        <v>55500012</v>
       </c>
       <c r="B32" s="78" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>6</v>
@@ -11912,10 +11929,10 @@
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="66"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
       <c r="I32" s="28" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="34" t="s">
@@ -11931,7 +11948,7 @@
         <v>656</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="R32" s="52">
         <v>0</v>
@@ -11943,16 +11960,16 @@
         <v>5</v>
       </c>
       <c r="W32" s="27" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="X32" s="54"/>
     </row>
     <row r="33" spans="1:24" ht="48">
       <c r="A33" s="78">
-        <v>55500014</v>
+        <v>55500013</v>
       </c>
       <c r="B33" s="78" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>6</v>
@@ -11963,7 +11980,7 @@
       <c r="G33" s="69"/>
       <c r="H33" s="69"/>
       <c r="I33" s="28" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="J33" s="29"/>
       <c r="K33" s="34" t="s">
@@ -11979,9 +11996,9 @@
         <v>656</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>675</v>
-      </c>
-      <c r="R33" s="27">
+        <v>673</v>
+      </c>
+      <c r="R33" s="52">
         <v>0</v>
       </c>
       <c r="S33" s="27"/>
@@ -11991,16 +12008,16 @@
         <v>5</v>
       </c>
       <c r="W33" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="X33" s="70"/>
+        <v>15</v>
+      </c>
+      <c r="X33" s="54"/>
     </row>
     <row r="34" spans="1:24" ht="48">
       <c r="A34" s="78">
-        <v>55500015</v>
+        <v>55500014</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>1455</v>
+        <v>172</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>6</v>
@@ -12011,7 +12028,7 @@
       <c r="G34" s="69"/>
       <c r="H34" s="69"/>
       <c r="I34" s="28" t="s">
-        <v>1450</v>
+        <v>697</v>
       </c>
       <c r="J34" s="29"/>
       <c r="K34" s="34" t="s">
@@ -12027,7 +12044,7 @@
         <v>656</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>1452</v>
+        <v>675</v>
       </c>
       <c r="R34" s="27">
         <v>0</v>
@@ -12039,16 +12056,16 @@
         <v>5</v>
       </c>
       <c r="W34" s="27" t="s">
-        <v>1454</v>
+        <v>173</v>
       </c>
       <c r="X34" s="70"/>
     </row>
     <row r="35" spans="1:24" ht="48">
       <c r="A35" s="78">
-        <v>55500016</v>
+        <v>55500015</v>
       </c>
       <c r="B35" s="78" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>6</v>
@@ -12059,7 +12076,7 @@
       <c r="G35" s="69"/>
       <c r="H35" s="69"/>
       <c r="I35" s="28" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="34" t="s">
@@ -12075,7 +12092,7 @@
         <v>656</v>
       </c>
       <c r="Q35" s="16" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="R35" s="27">
         <v>0</v>
@@ -12087,36 +12104,32 @@
         <v>5</v>
       </c>
       <c r="W35" s="27" t="s">
+        <v>1453</v>
+      </c>
+      <c r="X35" s="70"/>
+    </row>
+    <row r="36" spans="1:24" ht="48">
+      <c r="A36" s="78">
+        <v>55500016</v>
+      </c>
+      <c r="B36" s="78" t="s">
         <v>1456</v>
       </c>
-      <c r="X35" s="70"/>
-    </row>
-    <row r="36" spans="1:24" ht="168">
-      <c r="A36" s="77">
-        <v>55900001</v>
-      </c>
-      <c r="B36" s="77" t="s">
-        <v>168</v>
-      </c>
       <c r="C36" s="27" t="s">
-        <v>955</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E36" s="27">
-        <v>40</v>
-      </c>
-      <c r="F36" s="66" t="s">
-        <v>1382</v>
-      </c>
-      <c r="G36" s="69" t="s">
-        <v>1464</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="69"/>
       <c r="H36" s="69"/>
-      <c r="I36" s="28"/>
+      <c r="I36" s="28" t="s">
+        <v>1450</v>
+      </c>
       <c r="J36" s="29"/>
-      <c r="K36" s="34"/>
+      <c r="K36" s="34" t="s">
+        <v>703</v>
+      </c>
       <c r="L36" s="17"/>
       <c r="M36" s="21"/>
       <c r="N36" s="59"/>
@@ -12127,49 +12140,43 @@
         <v>656</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>1326</v>
+        <v>1452</v>
       </c>
       <c r="R36" s="27">
         <v>0</v>
       </c>
-      <c r="S36" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="T36" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="U36" s="27" t="s">
-        <v>953</v>
-      </c>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
       <c r="V36" s="27">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="W36" s="27" t="s">
-        <v>169</v>
+        <v>1455</v>
       </c>
       <c r="X36" s="70"/>
     </row>
-    <row r="37" spans="1:24" ht="144">
+    <row r="37" spans="1:24" ht="168">
       <c r="A37" s="77">
-        <v>55900002</v>
+        <v>55900001</v>
       </c>
       <c r="B37" s="77" t="s">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E37" s="27">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F37" s="66" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G37" s="69" t="s">
-        <v>1404</v>
+        <v>1463</v>
       </c>
       <c r="H37" s="69"/>
       <c r="I37" s="28"/>
@@ -12185,39 +12192,49 @@
         <v>656</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>1405</v>
+        <v>1325</v>
       </c>
       <c r="R37" s="27">
         <v>0</v>
       </c>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
+      <c r="S37" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="T37" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="U37" s="27" t="s">
+        <v>953</v>
+      </c>
       <c r="V37" s="27">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="W37" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="X37" s="70" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="36">
+        <v>169</v>
+      </c>
+      <c r="X37" s="70"/>
+    </row>
+    <row r="38" spans="1:24" ht="144">
       <c r="A38" s="77">
-        <v>55900003</v>
+        <v>55900002</v>
       </c>
       <c r="B38" s="77" t="s">
-        <v>1399</v>
+        <v>236</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="66"/>
+      <c r="D38" s="27" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E38" s="27">
+        <v>20</v>
+      </c>
+      <c r="F38" s="66" t="s">
+        <v>1381</v>
+      </c>
       <c r="G38" s="69" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="H38" s="69"/>
       <c r="I38" s="28"/>
@@ -12233,7 +12250,7 @@
         <v>656</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="R38" s="27">
         <v>0</v>
@@ -12242,12 +12259,60 @@
       <c r="T38" s="27"/>
       <c r="U38" s="27"/>
       <c r="V38" s="27">
+        <v>30</v>
+      </c>
+      <c r="W38" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="X38" s="70" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="36">
+      <c r="A39" s="77">
+        <v>55900003</v>
+      </c>
+      <c r="B39" s="77" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="69" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H39" s="69"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="68" t="s">
+        <v>661</v>
+      </c>
+      <c r="P39" s="66" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q39" s="16" t="s">
+        <v>1401</v>
+      </c>
+      <c r="R39" s="27">
+        <v>0</v>
+      </c>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27">
         <v>80</v>
       </c>
-      <c r="W38" s="27" t="s">
-        <v>1400</v>
-      </c>
-      <c r="X38" s="70"/>
+      <c r="W39" s="27" t="s">
+        <v>1399</v>
+      </c>
+      <c r="X39" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -12302,13 +12367,13 @@
         <v>651</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>667</v>
@@ -12350,7 +12415,7 @@
         <v>930</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>949</v>
@@ -12376,13 +12441,13 @@
         <v>643</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>960</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1213</v>
@@ -12450,13 +12515,13 @@
         <v>646</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1212</v>
@@ -12498,7 +12563,7 @@
         <v>1242</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>947</v>
@@ -15370,13 +15435,13 @@
         <v>197</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E62" s="1">
         <v>20</v>
       </c>
       <c r="F62" s="65" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G62" s="32"/>
       <c r="H62" s="32"/>
@@ -15386,7 +15451,7 @@
       <c r="J62" s="18"/>
       <c r="K62" s="17"/>
       <c r="L62" s="17" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="M62" s="21"/>
       <c r="N62" s="59"/>
@@ -15406,7 +15471,7 @@
         <v>848</v>
       </c>
       <c r="T62" s="10" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="U62" s="10" t="s">
         <v>957</v>
@@ -15626,13 +15691,13 @@
         <v>197</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E67" s="1">
         <v>10</v>
       </c>
       <c r="F67" s="65" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G67" s="32"/>
       <c r="H67" s="32"/>
@@ -15642,7 +15707,7 @@
       <c r="J67" s="18"/>
       <c r="K67" s="17"/>
       <c r="L67" s="17" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="M67" s="21"/>
       <c r="N67" s="59"/>
@@ -15662,7 +15727,7 @@
         <v>850</v>
       </c>
       <c r="T67" s="10" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="U67" s="10" t="s">
         <v>957</v>
@@ -16868,16 +16933,16 @@
         <v>85</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E92" s="1">
         <v>20</v>
       </c>
       <c r="F92" s="65" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G92" s="32" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H92" s="32"/>
       <c r="I92" s="28"/>
@@ -19156,13 +19221,13 @@
         <v>931</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E138" s="1">
         <v>15</v>
       </c>
       <c r="F138" s="65" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="G138" s="32"/>
       <c r="H138" s="32"/>
@@ -19171,7 +19236,7 @@
       <c r="K138" s="17"/>
       <c r="L138" s="22"/>
       <c r="M138" s="21" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="N138" s="59"/>
       <c r="O138" s="1" t="s">
@@ -20690,13 +20755,13 @@
         <v>197</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E169" s="1">
         <v>0</v>
       </c>
       <c r="F169" s="65" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G169" s="32"/>
       <c r="H169" s="32"/>
@@ -20706,7 +20771,7 @@
       <c r="J169" s="18"/>
       <c r="K169" s="17"/>
       <c r="L169" s="17" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="M169" s="21"/>
       <c r="N169" s="59"/>
@@ -21674,13 +21739,13 @@
         <v>197</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E189" s="1">
         <v>10</v>
       </c>
       <c r="F189" s="65" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G189" s="32"/>
       <c r="H189" s="32"/>
@@ -21690,7 +21755,7 @@
       <c r="J189" s="18"/>
       <c r="K189" s="17"/>
       <c r="L189" s="17" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="M189" s="21"/>
       <c r="N189" s="59"/>
@@ -21884,13 +21949,13 @@
         <v>197</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E193" s="1">
         <v>10</v>
       </c>
       <c r="F193" s="65" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G193" s="32"/>
       <c r="H193" s="32"/>
@@ -21900,7 +21965,7 @@
       <c r="J193" s="18"/>
       <c r="K193" s="17"/>
       <c r="L193" s="17" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="M193" s="21"/>
       <c r="N193" s="59"/>
@@ -22686,13 +22751,13 @@
         <v>931</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E209" s="1">
         <v>0</v>
       </c>
       <c r="F209" s="65" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G209" s="32"/>
       <c r="H209" s="32"/>
@@ -22701,7 +22766,7 @@
       <c r="K209" s="17"/>
       <c r="L209" s="17"/>
       <c r="M209" s="21" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="N209" s="59"/>
       <c r="O209" s="1" t="s">
@@ -22720,7 +22785,7 @@
         <v>884</v>
       </c>
       <c r="T209" s="10" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="U209" s="10"/>
       <c r="V209" s="1">
@@ -23716,16 +23781,16 @@
         <v>931</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E230" s="1">
         <v>10</v>
       </c>
       <c r="F230" s="65" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G230" s="32" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H230" s="32"/>
       <c r="I230" s="31"/>
@@ -24022,16 +24087,16 @@
         <v>931</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E236" s="1">
         <v>100</v>
       </c>
       <c r="F236" s="65" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G236" s="32" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H236" s="32"/>
       <c r="I236" s="31"/>
@@ -24274,13 +24339,13 @@
         <v>197</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E241" s="1">
         <v>10</v>
       </c>
       <c r="F241" s="65" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G241" s="32"/>
       <c r="H241" s="32"/>
@@ -24290,7 +24355,7 @@
       <c r="J241" s="18"/>
       <c r="K241" s="17"/>
       <c r="L241" s="17" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="M241" s="21"/>
       <c r="N241" s="59"/>
@@ -24310,7 +24375,7 @@
         <v>1080</v>
       </c>
       <c r="T241" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="U241" s="10" t="s">
         <v>957</v>
@@ -24480,13 +24545,13 @@
         <v>197</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E245" s="1">
         <v>10</v>
       </c>
       <c r="F245" s="65" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G245" s="32"/>
       <c r="H245" s="32"/>
@@ -24496,7 +24561,7 @@
       <c r="J245" s="18"/>
       <c r="K245" s="17"/>
       <c r="L245" s="17" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="M245" s="21"/>
       <c r="N245" s="59"/>
@@ -24516,7 +24581,7 @@
         <v>854</v>
       </c>
       <c r="T245" s="10" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="U245" s="10" t="s">
         <v>957</v>
@@ -24542,13 +24607,13 @@
         <v>197</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E246" s="1">
         <v>10</v>
       </c>
       <c r="F246" s="65" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G246" s="32"/>
       <c r="H246" s="32"/>
@@ -24558,7 +24623,7 @@
       <c r="J246" s="18"/>
       <c r="K246" s="17"/>
       <c r="L246" s="17" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="M246" s="21"/>
       <c r="N246" s="59"/>
@@ -24578,7 +24643,7 @@
         <v>855</v>
       </c>
       <c r="T246" s="10" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="U246" s="10" t="s">
         <v>957</v>
@@ -24604,13 +24669,13 @@
         <v>197</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E247" s="1">
         <v>10</v>
       </c>
       <c r="F247" s="65" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G247" s="32"/>
       <c r="H247" s="32"/>
@@ -24620,7 +24685,7 @@
       <c r="J247" s="18"/>
       <c r="K247" s="17"/>
       <c r="L247" s="17" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="M247" s="21"/>
       <c r="N247" s="59"/>
@@ -24640,7 +24705,7 @@
         <v>856</v>
       </c>
       <c r="T247" s="10" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="U247" s="10" t="s">
         <v>957</v>
@@ -24666,7 +24731,7 @@
         <v>197</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E248" s="1">
         <v>15</v>
@@ -24680,7 +24745,7 @@
       <c r="J248" s="18"/>
       <c r="K248" s="17"/>
       <c r="L248" s="17" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="M248" s="21"/>
       <c r="N248" s="59"/>
@@ -24700,7 +24765,7 @@
         <v>857</v>
       </c>
       <c r="T248" s="10" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="U248" s="10" t="s">
         <v>957</v>
@@ -24726,13 +24791,13 @@
         <v>197</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E249" s="1">
         <v>30</v>
       </c>
       <c r="F249" s="65" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G249" s="32"/>
       <c r="H249" s="32"/>
@@ -24742,7 +24807,7 @@
       <c r="J249" s="18"/>
       <c r="K249" s="17"/>
       <c r="L249" s="17" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="M249" s="21"/>
       <c r="N249" s="59"/>
@@ -24762,7 +24827,7 @@
         <v>858</v>
       </c>
       <c r="T249" s="10" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="U249" s="10" t="s">
         <v>957</v>
@@ -24788,13 +24853,13 @@
         <v>197</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E250" s="1">
         <v>15</v>
       </c>
       <c r="F250" s="65" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G250" s="32"/>
       <c r="H250" s="32"/>
@@ -24804,7 +24869,7 @@
       <c r="J250" s="18"/>
       <c r="K250" s="17"/>
       <c r="L250" s="17" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="M250" s="21"/>
       <c r="N250" s="59"/>
@@ -24850,13 +24915,13 @@
         <v>197</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E251" s="1">
         <v>0</v>
       </c>
       <c r="F251" s="65" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G251" s="32"/>
       <c r="H251" s="32"/>
@@ -24866,7 +24931,7 @@
       <c r="J251" s="18"/>
       <c r="K251" s="17"/>
       <c r="L251" s="17" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="M251" s="21"/>
       <c r="N251" s="59"/>
@@ -24912,13 +24977,13 @@
         <v>197</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E252" s="1">
         <v>0</v>
       </c>
       <c r="F252" s="65" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G252" s="32"/>
       <c r="H252" s="32"/>
@@ -24928,7 +24993,7 @@
       <c r="J252" s="18"/>
       <c r="K252" s="17"/>
       <c r="L252" s="17" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="M252" s="21"/>
       <c r="N252" s="59"/>
@@ -25070,13 +25135,13 @@
         <v>197</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E255" s="1">
         <v>15</v>
       </c>
       <c r="F255" s="65" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G255" s="32"/>
       <c r="H255" s="32"/>
@@ -25086,7 +25151,7 @@
       <c r="J255" s="18"/>
       <c r="K255" s="17"/>
       <c r="L255" s="17" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="M255" s="21"/>
       <c r="N255" s="59"/>
@@ -25106,7 +25171,7 @@
         <v>865</v>
       </c>
       <c r="T255" s="10" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="U255" s="10" t="s">
         <v>957</v>
@@ -25132,13 +25197,13 @@
         <v>931</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E256" s="1">
         <v>10</v>
       </c>
       <c r="F256" s="65" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G256" s="32"/>
       <c r="H256" s="32"/>
@@ -25147,7 +25212,7 @@
       <c r="K256" s="17"/>
       <c r="L256" s="17"/>
       <c r="M256" s="21" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="N256" s="59"/>
       <c r="O256" s="1" t="s">
@@ -25164,7 +25229,7 @@
       </c>
       <c r="S256" s="10"/>
       <c r="T256" s="10" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="U256" s="10"/>
       <c r="V256" s="1">
@@ -25290,16 +25355,16 @@
         <v>1146</v>
       </c>
       <c r="D259" s="27" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E259" s="35">
         <v>10</v>
       </c>
       <c r="F259" s="66" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G259" s="32" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H259" s="36"/>
       <c r="I259" s="49"/>
@@ -25346,16 +25411,16 @@
         <v>1146</v>
       </c>
       <c r="D260" s="27" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E260" s="35">
         <v>10</v>
       </c>
       <c r="F260" s="66" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G260" s="32" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H260" s="36"/>
       <c r="I260" s="37"/>
@@ -25393,7 +25458,7 @@
     </row>
     <row r="261" spans="1:24" ht="36">
       <c r="A261" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B261" s="11" t="s">
         <v>110</v>
@@ -25488,13 +25553,13 @@
         <v>651</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>667</v>
@@ -25536,7 +25601,7 @@
         <v>930</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>949</v>
@@ -25562,13 +25627,13 @@
         <v>643</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>960</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>958</v>
@@ -25636,13 +25701,13 @@
         <v>646</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1107</v>
@@ -25684,7 +25749,7 @@
         <v>879</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>947</v>
@@ -25844,13 +25909,13 @@
         <v>651</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>667</v>
@@ -25892,7 +25957,7 @@
         <v>930</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>949</v>
@@ -25918,13 +25983,13 @@
         <v>643</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>960</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>936</v>
@@ -25992,13 +26057,13 @@
         <v>646</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1107</v>
@@ -26040,7 +26105,7 @@
         <v>879</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>947</v>

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -438,7 +438,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="1481">
   <si>
     <t>特殊</t>
   </si>
@@ -5592,6 +5592,22 @@
   </si>
   <si>
     <t>每2.5回合在周围随机位置召唤一个跳跳菇</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼群</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuqun</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.Summon(2,51000018);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2回合在周围随机位置召唤一个鱼人</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9882,8 +9898,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_25" displayName="表3_25" ref="A3:X42" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" tableBorderDxfId="105">
-  <autoFilter ref="A3:X42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_25" displayName="表3_25" ref="A3:X43" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" tableBorderDxfId="105">
+  <autoFilter ref="A3:X43"/>
   <sortState ref="A4:X31">
     <sortCondition ref="A3:A31"/>
   </sortState>
@@ -10312,13 +10328,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11506,31 +11522,31 @@
       </c>
       <c r="X22" s="70"/>
     </row>
-    <row r="23" spans="1:24" ht="48">
-      <c r="A23" s="78">
-        <v>55500001</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>17</v>
+    <row r="23" spans="1:24" ht="28.8">
+      <c r="A23" s="76">
+        <v>55400006</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>1477</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>6</v>
+        <v>1475</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="66"/>
       <c r="G23" s="69"/>
       <c r="H23" s="69"/>
-      <c r="I23" s="28" t="s">
-        <v>1425</v>
-      </c>
+      <c r="I23" s="28"/>
       <c r="J23" s="29"/>
-      <c r="K23" s="34" t="s">
-        <v>1415</v>
-      </c>
+      <c r="K23" s="34"/>
       <c r="L23" s="17"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="59"/>
+      <c r="M23" s="21" t="s">
+        <v>1479</v>
+      </c>
+      <c r="N23" s="59">
+        <v>2</v>
+      </c>
       <c r="O23" s="68" t="s">
         <v>661</v>
       </c>
@@ -11538,28 +11554,30 @@
         <v>656</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1416</v>
+        <v>1480</v>
       </c>
       <c r="R23" s="27">
         <v>0</v>
       </c>
-      <c r="S23" s="27"/>
+      <c r="S23" s="27" t="s">
+        <v>883</v>
+      </c>
       <c r="T23" s="27"/>
       <c r="U23" s="27"/>
       <c r="V23" s="27">
-        <v>5</v>
-      </c>
-      <c r="W23" s="27" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="W23" s="72" t="s">
+        <v>1478</v>
       </c>
       <c r="X23" s="70"/>
     </row>
     <row r="24" spans="1:24" ht="48">
       <c r="A24" s="78">
-        <v>55500002</v>
+        <v>55500001</v>
       </c>
       <c r="B24" s="78" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>6</v>
@@ -11570,11 +11588,11 @@
       <c r="G24" s="69"/>
       <c r="H24" s="69"/>
       <c r="I24" s="28" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="J24" s="29"/>
       <c r="K24" s="34" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="21"/>
@@ -11586,7 +11604,7 @@
         <v>656</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="R24" s="27">
         <v>0</v>
@@ -11598,16 +11616,16 @@
         <v>5</v>
       </c>
       <c r="W24" s="27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="X24" s="70"/>
     </row>
     <row r="25" spans="1:24" ht="48">
       <c r="A25" s="78">
-        <v>55500003</v>
+        <v>55500002</v>
       </c>
       <c r="B25" s="78" t="s">
-        <v>1424</v>
+        <v>21</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>6</v>
@@ -11618,11 +11636,11 @@
       <c r="G25" s="69"/>
       <c r="H25" s="69"/>
       <c r="I25" s="28" t="s">
-        <v>685</v>
+        <v>1426</v>
       </c>
       <c r="J25" s="29"/>
       <c r="K25" s="34" t="s">
-        <v>701</v>
+        <v>1419</v>
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="21"/>
@@ -11634,7 +11652,7 @@
         <v>656</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>672</v>
+        <v>1420</v>
       </c>
       <c r="R25" s="27">
         <v>0</v>
@@ -11646,16 +11664,16 @@
         <v>5</v>
       </c>
       <c r="W25" s="27" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="X25" s="70"/>
     </row>
     <row r="26" spans="1:24" ht="48">
       <c r="A26" s="78">
-        <v>55500004</v>
+        <v>55500003</v>
       </c>
       <c r="B26" s="78" t="s">
-        <v>362</v>
+        <v>1424</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>6</v>
@@ -11663,10 +11681,10 @@
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="66"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
       <c r="I26" s="28" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="J26" s="29"/>
       <c r="K26" s="34" t="s">
@@ -11682,7 +11700,7 @@
         <v>656</v>
       </c>
       <c r="Q26" s="16" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="R26" s="27">
         <v>0</v>
@@ -11694,16 +11712,16 @@
         <v>5</v>
       </c>
       <c r="W26" s="27" t="s">
-        <v>363</v>
+        <v>13</v>
       </c>
       <c r="X26" s="70"/>
     </row>
     <row r="27" spans="1:24" ht="48">
       <c r="A27" s="78">
-        <v>55500005</v>
+        <v>55500004</v>
       </c>
       <c r="B27" s="78" t="s">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>6</v>
@@ -11714,11 +11732,11 @@
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
       <c r="I27" s="28" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="J27" s="29"/>
       <c r="K27" s="34" t="s">
-        <v>1418</v>
+        <v>701</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="21"/>
@@ -11730,9 +11748,9 @@
         <v>656</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>1417</v>
-      </c>
-      <c r="R27" s="52">
+        <v>680</v>
+      </c>
+      <c r="R27" s="27">
         <v>0</v>
       </c>
       <c r="S27" s="27"/>
@@ -11742,16 +11760,16 @@
         <v>5</v>
       </c>
       <c r="W27" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="X27" s="54"/>
+        <v>363</v>
+      </c>
+      <c r="X27" s="70"/>
     </row>
     <row r="28" spans="1:24" ht="48">
       <c r="A28" s="78">
-        <v>55500006</v>
+        <v>55500005</v>
       </c>
       <c r="B28" s="78" t="s">
-        <v>1429</v>
+        <v>19</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>6</v>
@@ -11762,7 +11780,7 @@
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="28" t="s">
-        <v>1427</v>
+        <v>688</v>
       </c>
       <c r="J28" s="29"/>
       <c r="K28" s="34" t="s">
@@ -11778,7 +11796,7 @@
         <v>656</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
       <c r="R28" s="52">
         <v>0</v>
@@ -11790,16 +11808,16 @@
         <v>5</v>
       </c>
       <c r="W28" s="27" t="s">
-        <v>1430</v>
+        <v>20</v>
       </c>
       <c r="X28" s="54"/>
     </row>
     <row r="29" spans="1:24" ht="48">
       <c r="A29" s="78">
-        <v>55500007</v>
+        <v>55500006</v>
       </c>
       <c r="B29" s="78" t="s">
-        <v>459</v>
+        <v>1429</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>6</v>
@@ -11810,11 +11828,11 @@
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="28" t="s">
-        <v>705</v>
+        <v>1427</v>
       </c>
       <c r="J29" s="29"/>
       <c r="K29" s="34" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="21"/>
@@ -11826,7 +11844,7 @@
         <v>656</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>1422</v>
+        <v>1428</v>
       </c>
       <c r="R29" s="52">
         <v>0</v>
@@ -11838,16 +11856,16 @@
         <v>5</v>
       </c>
       <c r="W29" s="27" t="s">
-        <v>460</v>
+        <v>1430</v>
       </c>
       <c r="X29" s="54"/>
     </row>
     <row r="30" spans="1:24" ht="48">
       <c r="A30" s="78">
-        <v>55500008</v>
+        <v>55500007</v>
       </c>
       <c r="B30" s="78" t="s">
-        <v>7</v>
+        <v>459</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>6</v>
@@ -11858,11 +11876,11 @@
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
       <c r="I30" s="28" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="J30" s="29"/>
       <c r="K30" s="34" t="s">
-        <v>701</v>
+        <v>1421</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="21"/>
@@ -11874,7 +11892,7 @@
         <v>656</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>670</v>
+        <v>1422</v>
       </c>
       <c r="R30" s="52">
         <v>0</v>
@@ -11886,16 +11904,16 @@
         <v>5</v>
       </c>
       <c r="W30" s="27" t="s">
-        <v>8</v>
+        <v>460</v>
       </c>
       <c r="X30" s="54"/>
     </row>
     <row r="31" spans="1:24" ht="48">
       <c r="A31" s="78">
-        <v>55500009</v>
+        <v>55500008</v>
       </c>
       <c r="B31" s="78" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>6</v>
@@ -11906,7 +11924,7 @@
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
       <c r="I31" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J31" s="29"/>
       <c r="K31" s="34" t="s">
@@ -11922,7 +11940,7 @@
         <v>656</v>
       </c>
       <c r="Q31" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="R31" s="52">
         <v>0</v>
@@ -11934,16 +11952,16 @@
         <v>5</v>
       </c>
       <c r="W31" s="27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X31" s="54"/>
     </row>
     <row r="32" spans="1:24" ht="48">
       <c r="A32" s="78">
-        <v>55500010</v>
+        <v>55500009</v>
       </c>
       <c r="B32" s="78" t="s">
-        <v>1423</v>
+        <v>11</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>6</v>
@@ -11954,7 +11972,7 @@
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="28" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="34" t="s">
@@ -11970,7 +11988,7 @@
         <v>656</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="R32" s="52">
         <v>0</v>
@@ -11982,16 +12000,16 @@
         <v>5</v>
       </c>
       <c r="W32" s="27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="X32" s="54"/>
     </row>
     <row r="33" spans="1:24" ht="48">
       <c r="A33" s="78">
-        <v>55500011</v>
+        <v>55500010</v>
       </c>
       <c r="B33" s="78" t="s">
-        <v>9</v>
+        <v>1423</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>6</v>
@@ -12002,11 +12020,11 @@
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
       <c r="I33" s="28" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="J33" s="29"/>
       <c r="K33" s="34" t="s">
-        <v>1413</v>
+        <v>701</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="21"/>
@@ -12018,7 +12036,7 @@
         <v>656</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>1414</v>
+        <v>674</v>
       </c>
       <c r="R33" s="52">
         <v>0</v>
@@ -12030,16 +12048,16 @@
         <v>5</v>
       </c>
       <c r="W33" s="27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="X33" s="54"/>
     </row>
     <row r="34" spans="1:24" ht="48">
       <c r="A34" s="78">
-        <v>55500012</v>
+        <v>55500011</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>6</v>
@@ -12050,11 +12068,11 @@
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
       <c r="I34" s="28" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="J34" s="29"/>
       <c r="K34" s="34" t="s">
-        <v>701</v>
+        <v>1413</v>
       </c>
       <c r="L34" s="17"/>
       <c r="M34" s="21"/>
@@ -12066,7 +12084,7 @@
         <v>656</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>676</v>
+        <v>1414</v>
       </c>
       <c r="R34" s="52">
         <v>0</v>
@@ -12078,16 +12096,16 @@
         <v>5</v>
       </c>
       <c r="W34" s="27" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="X34" s="54"/>
     </row>
     <row r="35" spans="1:24" ht="48">
       <c r="A35" s="78">
-        <v>55500013</v>
+        <v>55500012</v>
       </c>
       <c r="B35" s="78" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>6</v>
@@ -12095,10 +12113,10 @@
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="66"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="28" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="J35" s="29"/>
       <c r="K35" s="34" t="s">
@@ -12114,7 +12132,7 @@
         <v>656</v>
       </c>
       <c r="Q35" s="16" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="R35" s="52">
         <v>0</v>
@@ -12126,16 +12144,16 @@
         <v>5</v>
       </c>
       <c r="W35" s="27" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="X35" s="54"/>
     </row>
     <row r="36" spans="1:24" ht="48">
       <c r="A36" s="78">
-        <v>55500014</v>
+        <v>55500013</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>6</v>
@@ -12146,7 +12164,7 @@
       <c r="G36" s="69"/>
       <c r="H36" s="69"/>
       <c r="I36" s="28" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="J36" s="29"/>
       <c r="K36" s="34" t="s">
@@ -12162,9 +12180,9 @@
         <v>656</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>675</v>
-      </c>
-      <c r="R36" s="27">
+        <v>673</v>
+      </c>
+      <c r="R36" s="52">
         <v>0</v>
       </c>
       <c r="S36" s="27"/>
@@ -12174,16 +12192,16 @@
         <v>5</v>
       </c>
       <c r="W36" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="X36" s="70"/>
+        <v>15</v>
+      </c>
+      <c r="X36" s="54"/>
     </row>
     <row r="37" spans="1:24" ht="48">
       <c r="A37" s="78">
-        <v>55500015</v>
+        <v>55500014</v>
       </c>
       <c r="B37" s="78" t="s">
-        <v>1436</v>
+        <v>172</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>6</v>
@@ -12194,7 +12212,7 @@
       <c r="G37" s="69"/>
       <c r="H37" s="69"/>
       <c r="I37" s="28" t="s">
-        <v>1431</v>
+        <v>695</v>
       </c>
       <c r="J37" s="29"/>
       <c r="K37" s="34" t="s">
@@ -12210,7 +12228,7 @@
         <v>656</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>1433</v>
+        <v>675</v>
       </c>
       <c r="R37" s="27">
         <v>0</v>
@@ -12222,16 +12240,16 @@
         <v>5</v>
       </c>
       <c r="W37" s="27" t="s">
-        <v>1435</v>
+        <v>173</v>
       </c>
       <c r="X37" s="70"/>
     </row>
     <row r="38" spans="1:24" ht="48">
       <c r="A38" s="78">
-        <v>55500016</v>
+        <v>55500015</v>
       </c>
       <c r="B38" s="78" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>6</v>
@@ -12242,7 +12260,7 @@
       <c r="G38" s="69"/>
       <c r="H38" s="69"/>
       <c r="I38" s="28" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="34" t="s">
@@ -12258,7 +12276,7 @@
         <v>656</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="R38" s="27">
         <v>0</v>
@@ -12270,137 +12288,127 @@
         <v>5</v>
       </c>
       <c r="W38" s="27" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="X38" s="70"/>
     </row>
     <row r="39" spans="1:24" ht="48">
-      <c r="A39" s="79">
-        <v>55600016</v>
-      </c>
-      <c r="B39" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="32" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="17"/>
+      <c r="A39" s="78">
+        <v>55500016</v>
+      </c>
+      <c r="B39" s="78" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="28" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J39" s="29"/>
+      <c r="K39" s="34" t="s">
+        <v>701</v>
+      </c>
       <c r="L39" s="17"/>
       <c r="M39" s="21"/>
       <c r="N39" s="59"/>
-      <c r="O39" s="1" t="s">
+      <c r="O39" s="68" t="s">
         <v>661</v>
       </c>
-      <c r="P39" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="R39" s="10">
-        <v>56000101</v>
-      </c>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="V39" s="1">
-        <v>10</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="X39" s="52"/>
-    </row>
-    <row r="40" spans="1:24" ht="168">
-      <c r="A40" s="77">
-        <v>55900001</v>
-      </c>
-      <c r="B40" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>949</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E40" s="27">
-        <v>40</v>
-      </c>
-      <c r="F40" s="66" t="s">
-        <v>1364</v>
-      </c>
-      <c r="G40" s="69" t="s">
-        <v>1445</v>
-      </c>
-      <c r="H40" s="69"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="34"/>
+      <c r="P39" s="66" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q39" s="16" t="s">
+        <v>1434</v>
+      </c>
+      <c r="R39" s="27">
+        <v>0</v>
+      </c>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27">
+        <v>5</v>
+      </c>
+      <c r="W39" s="27" t="s">
+        <v>1437</v>
+      </c>
+      <c r="X39" s="70"/>
+    </row>
+    <row r="40" spans="1:24" ht="48">
+      <c r="A40" s="79">
+        <v>55600016</v>
+      </c>
+      <c r="B40" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="32" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H40" s="32"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="17"/>
       <c r="L40" s="17"/>
       <c r="M40" s="21"/>
       <c r="N40" s="59"/>
-      <c r="O40" s="68" t="s">
+      <c r="O40" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="P40" s="66" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q40" s="16" t="s">
-        <v>1308</v>
-      </c>
-      <c r="R40" s="27">
-        <v>0</v>
-      </c>
-      <c r="S40" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="T40" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="U40" s="27" t="s">
-        <v>947</v>
-      </c>
-      <c r="V40" s="27">
-        <v>35</v>
-      </c>
-      <c r="W40" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="X40" s="70"/>
-    </row>
-    <row r="41" spans="1:24" ht="144">
+      <c r="P40" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="R40" s="10">
+        <v>56000101</v>
+      </c>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="V40" s="1">
+        <v>10</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X40" s="52"/>
+    </row>
+    <row r="41" spans="1:24" ht="168">
       <c r="A41" s="77">
-        <v>55900002</v>
+        <v>55900001</v>
       </c>
       <c r="B41" s="77" t="s">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>0</v>
+        <v>949</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>1322</v>
       </c>
       <c r="E41" s="27">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F41" s="66" t="s">
         <v>1364</v>
       </c>
       <c r="G41" s="69" t="s">
-        <v>1385</v>
+        <v>1445</v>
       </c>
       <c r="H41" s="69"/>
       <c r="I41" s="28"/>
@@ -12416,39 +12424,49 @@
         <v>656</v>
       </c>
       <c r="Q41" s="16" t="s">
-        <v>1386</v>
+        <v>1308</v>
       </c>
       <c r="R41" s="27">
         <v>0</v>
       </c>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
+      <c r="S41" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="T41" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="U41" s="27" t="s">
+        <v>947</v>
+      </c>
       <c r="V41" s="27">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="W41" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="X41" s="70" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="36">
+        <v>169</v>
+      </c>
+      <c r="X41" s="70"/>
+    </row>
+    <row r="42" spans="1:24" ht="144">
       <c r="A42" s="77">
-        <v>55900003</v>
+        <v>55900002</v>
       </c>
       <c r="B42" s="77" t="s">
-        <v>1380</v>
+        <v>236</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="66"/>
+      <c r="D42" s="27" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E42" s="27">
+        <v>20</v>
+      </c>
+      <c r="F42" s="66" t="s">
+        <v>1364</v>
+      </c>
       <c r="G42" s="69" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="H42" s="69"/>
       <c r="I42" s="28"/>
@@ -12464,7 +12482,7 @@
         <v>656</v>
       </c>
       <c r="Q42" s="16" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="R42" s="27">
         <v>0</v>
@@ -12473,12 +12491,60 @@
       <c r="T42" s="27"/>
       <c r="U42" s="27"/>
       <c r="V42" s="27">
+        <v>30</v>
+      </c>
+      <c r="W42" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="X42" s="70" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="36">
+      <c r="A43" s="77">
+        <v>55900003</v>
+      </c>
+      <c r="B43" s="77" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="69" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H43" s="69"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="68" t="s">
+        <v>661</v>
+      </c>
+      <c r="P43" s="66" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q43" s="16" t="s">
+        <v>1383</v>
+      </c>
+      <c r="R43" s="27">
+        <v>0</v>
+      </c>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27">
         <v>80</v>
       </c>
-      <c r="W42" s="27" t="s">
+      <c r="W43" s="27" t="s">
         <v>1381</v>
       </c>
-      <c r="X42" s="70"/>
+      <c r="X43" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -12496,10 +12562,10 @@
   <dimension ref="A1:X259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A159" sqref="A159"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="7" r:id="rId1"/>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W20" authorId="1" shapeId="0">
+    <comment ref="W21" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -438,7 +438,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3115" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="1488">
   <si>
     <t>特殊</t>
   </si>
@@ -5626,6 +5626,18 @@
   </si>
   <si>
     <t>chongfeng</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣盾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shengdun</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.AddBuff(56000202,lv,99);</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6839,181 +6851,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF79"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="宋体"/>
         <scheme val="none"/>
@@ -7546,6 +7383,33 @@
         <horizontal style="thin">
           <color theme="4"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -8415,6 +8279,33 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -9086,6 +8977,34 @@
         <horizontal style="thin">
           <color theme="4"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -9826,6 +9745,99 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF79"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
@@ -10032,10 +10044,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_25" displayName="表3_25" ref="A3:Y44" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110" tableBorderDxfId="109">
-  <autoFilter ref="A3:Y44"/>
-  <sortState ref="A4:X31">
-    <sortCondition ref="A3:A31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_25" displayName="表3_25" ref="A3:Y45" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110" tableBorderDxfId="109">
+  <autoFilter ref="A3:Y45"/>
+  <sortState ref="A4:Y44">
+    <sortCondition ref="A3:A44"/>
   </sortState>
   <tableColumns count="25">
     <tableColumn id="1" name="Id" dataDxfId="108"/>
@@ -10043,137 +10055,137 @@
     <tableColumn id="3" name="Type" dataDxfId="106"/>
     <tableColumn id="11" name="Target" dataDxfId="105"/>
     <tableColumn id="12" name="Range" dataDxfId="104"/>
-    <tableColumn id="13" name="PointSelf" dataDxfId="2"/>
-    <tableColumn id="14" name="Tag" dataDxfId="0"/>
-    <tableColumn id="24" name="OnAdd" dataDxfId="1"/>
-    <tableColumn id="4" name="OnRemove" dataDxfId="103"/>
-    <tableColumn id="27" name="CanBurst" dataDxfId="102"/>
-    <tableColumn id="22" name="CheckHit" dataDxfId="101"/>
-    <tableColumn id="26" name="CheckDamage" dataDxfId="100"/>
-    <tableColumn id="29" name="AfterHit" dataDxfId="99"/>
-    <tableColumn id="5" name="CheckSpecial" dataDxfId="98"/>
-    <tableColumn id="9" name="SpecialCd" dataDxfId="97"/>
-    <tableColumn id="25" name="Active" dataDxfId="96"/>
-    <tableColumn id="20" name="IsRandom" dataDxfId="95"/>
-    <tableColumn id="23" name="GetDescript" dataDxfId="94"/>
-    <tableColumn id="8" name="DescriptBuffId" dataDxfId="93"/>
-    <tableColumn id="17" name="Effect" dataDxfId="92"/>
-    <tableColumn id="10" name="EffectArea" dataDxfId="91"/>
-    <tableColumn id="6" name="Cover" dataDxfId="90"/>
-    <tableColumn id="18" name="Mark" dataDxfId="89"/>
-    <tableColumn id="19" name="Icon" dataDxfId="88"/>
-    <tableColumn id="7" name="Remark" dataDxfId="87"/>
+    <tableColumn id="13" name="PointSelf" dataDxfId="103"/>
+    <tableColumn id="14" name="Tag" dataDxfId="102"/>
+    <tableColumn id="24" name="OnAdd" dataDxfId="101"/>
+    <tableColumn id="4" name="OnRemove" dataDxfId="100"/>
+    <tableColumn id="27" name="CanBurst" dataDxfId="99"/>
+    <tableColumn id="22" name="CheckHit" dataDxfId="98"/>
+    <tableColumn id="26" name="CheckDamage" dataDxfId="97"/>
+    <tableColumn id="29" name="AfterHit" dataDxfId="96"/>
+    <tableColumn id="5" name="CheckSpecial" dataDxfId="95"/>
+    <tableColumn id="9" name="SpecialCd" dataDxfId="94"/>
+    <tableColumn id="25" name="Active" dataDxfId="93"/>
+    <tableColumn id="20" name="IsRandom" dataDxfId="92"/>
+    <tableColumn id="23" name="GetDescript" dataDxfId="91"/>
+    <tableColumn id="8" name="DescriptBuffId" dataDxfId="90"/>
+    <tableColumn id="17" name="Effect" dataDxfId="89"/>
+    <tableColumn id="10" name="EffectArea" dataDxfId="88"/>
+    <tableColumn id="6" name="Cover" dataDxfId="87"/>
+    <tableColumn id="18" name="Mark" dataDxfId="86"/>
+    <tableColumn id="19" name="Icon" dataDxfId="85"/>
+    <tableColumn id="7" name="Remark" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:Y258" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" tableBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A3:Y258" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82" tableBorderDxfId="81">
   <autoFilter ref="A3:Y258"/>
   <sortState ref="A4:S302">
     <sortCondition ref="A3:A302"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="1" name="Id" dataDxfId="83"/>
-    <tableColumn id="2" name="Name" dataDxfId="82"/>
-    <tableColumn id="3" name="Type" dataDxfId="81"/>
-    <tableColumn id="11" name="Target" dataDxfId="80"/>
-    <tableColumn id="12" name="Range" dataDxfId="79"/>
-    <tableColumn id="14" name="PointSelf" dataDxfId="78"/>
-    <tableColumn id="13" name="Tag" dataDxfId="5"/>
-    <tableColumn id="24" name="OnAdd" dataDxfId="77"/>
-    <tableColumn id="4" name="OnRemove" dataDxfId="76"/>
-    <tableColumn id="27" name="CanBurst" dataDxfId="75"/>
-    <tableColumn id="22" name="CheckHit" dataDxfId="74"/>
-    <tableColumn id="26" name="CheckDamage" dataDxfId="73"/>
-    <tableColumn id="29" name="AfterHit" dataDxfId="72"/>
-    <tableColumn id="5" name="CheckSpecial" dataDxfId="71"/>
-    <tableColumn id="9" name="SpecialCd" dataDxfId="70"/>
-    <tableColumn id="25" name="Active" dataDxfId="69"/>
-    <tableColumn id="20" name="IsRandom" dataDxfId="68"/>
-    <tableColumn id="23" name="GetDescript" dataDxfId="67"/>
-    <tableColumn id="8" name="DescriptBuffId" dataDxfId="66"/>
-    <tableColumn id="17" name="Effect" dataDxfId="65"/>
-    <tableColumn id="10" name="EffectArea" dataDxfId="64"/>
-    <tableColumn id="6" name="Cover" dataDxfId="63"/>
-    <tableColumn id="18" name="Mark" dataDxfId="62"/>
-    <tableColumn id="19" name="Icon" dataDxfId="61"/>
-    <tableColumn id="7" name="Remark" dataDxfId="60"/>
+    <tableColumn id="1" name="Id" dataDxfId="80"/>
+    <tableColumn id="2" name="Name" dataDxfId="79"/>
+    <tableColumn id="3" name="Type" dataDxfId="78"/>
+    <tableColumn id="11" name="Target" dataDxfId="77"/>
+    <tableColumn id="12" name="Range" dataDxfId="76"/>
+    <tableColumn id="14" name="PointSelf" dataDxfId="75"/>
+    <tableColumn id="13" name="Tag" dataDxfId="74"/>
+    <tableColumn id="24" name="OnAdd" dataDxfId="73"/>
+    <tableColumn id="4" name="OnRemove" dataDxfId="72"/>
+    <tableColumn id="27" name="CanBurst" dataDxfId="71"/>
+    <tableColumn id="22" name="CheckHit" dataDxfId="70"/>
+    <tableColumn id="26" name="CheckDamage" dataDxfId="69"/>
+    <tableColumn id="29" name="AfterHit" dataDxfId="68"/>
+    <tableColumn id="5" name="CheckSpecial" dataDxfId="67"/>
+    <tableColumn id="9" name="SpecialCd" dataDxfId="66"/>
+    <tableColumn id="25" name="Active" dataDxfId="65"/>
+    <tableColumn id="20" name="IsRandom" dataDxfId="64"/>
+    <tableColumn id="23" name="GetDescript" dataDxfId="63"/>
+    <tableColumn id="8" name="DescriptBuffId" dataDxfId="62"/>
+    <tableColumn id="17" name="Effect" dataDxfId="61"/>
+    <tableColumn id="10" name="EffectArea" dataDxfId="60"/>
+    <tableColumn id="6" name="Cover" dataDxfId="59"/>
+    <tableColumn id="18" name="Mark" dataDxfId="58"/>
+    <tableColumn id="19" name="Icon" dataDxfId="57"/>
+    <tableColumn id="7" name="Remark" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表3_2" displayName="表3_2" ref="A3:Y5" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表3_2" displayName="表3_2" ref="A3:Y5" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
   <autoFilter ref="A3:Y5"/>
   <sortState ref="A4:T346">
     <sortCondition ref="A3:A346"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="1" name="Id" dataDxfId="56"/>
-    <tableColumn id="2" name="Name" dataDxfId="55"/>
-    <tableColumn id="3" name="Type" dataDxfId="54"/>
-    <tableColumn id="11" name="Target" dataDxfId="53"/>
-    <tableColumn id="12" name="Range" dataDxfId="52"/>
-    <tableColumn id="13" name="PointSelf" dataDxfId="51"/>
-    <tableColumn id="14" name="Tag" dataDxfId="4"/>
-    <tableColumn id="24" name="OnAdd" dataDxfId="50"/>
-    <tableColumn id="4" name="OnRemove" dataDxfId="49"/>
-    <tableColumn id="27" name="CanBurst" dataDxfId="48"/>
-    <tableColumn id="22" name="CheckHit" dataDxfId="47"/>
-    <tableColumn id="26" name="CheckDamage" dataDxfId="46"/>
-    <tableColumn id="29" name="AfterHit" dataDxfId="45"/>
-    <tableColumn id="5" name="CheckSpecial" dataDxfId="44"/>
-    <tableColumn id="9" name="SpecialCd" dataDxfId="43"/>
-    <tableColumn id="25" name="Active" dataDxfId="42"/>
-    <tableColumn id="20" name="IsRandom" dataDxfId="41"/>
-    <tableColumn id="23" name="GetDescript" dataDxfId="40"/>
-    <tableColumn id="8" name="DescriptBuffId" dataDxfId="39"/>
-    <tableColumn id="17" name="Effect" dataDxfId="38"/>
-    <tableColumn id="10" name="EffectArea" dataDxfId="37"/>
-    <tableColumn id="6" name="Cover" dataDxfId="36"/>
-    <tableColumn id="18" name="Mark" dataDxfId="35"/>
-    <tableColumn id="19" name="Icon" dataDxfId="34"/>
-    <tableColumn id="7" name="Remark" dataDxfId="33"/>
+    <tableColumn id="1" name="Id" dataDxfId="52"/>
+    <tableColumn id="2" name="Name" dataDxfId="51"/>
+    <tableColumn id="3" name="Type" dataDxfId="50"/>
+    <tableColumn id="11" name="Target" dataDxfId="49"/>
+    <tableColumn id="12" name="Range" dataDxfId="48"/>
+    <tableColumn id="13" name="PointSelf" dataDxfId="47"/>
+    <tableColumn id="14" name="Tag" dataDxfId="46"/>
+    <tableColumn id="24" name="OnAdd" dataDxfId="45"/>
+    <tableColumn id="4" name="OnRemove" dataDxfId="44"/>
+    <tableColumn id="27" name="CanBurst" dataDxfId="43"/>
+    <tableColumn id="22" name="CheckHit" dataDxfId="42"/>
+    <tableColumn id="26" name="CheckDamage" dataDxfId="41"/>
+    <tableColumn id="29" name="AfterHit" dataDxfId="40"/>
+    <tableColumn id="5" name="CheckSpecial" dataDxfId="39"/>
+    <tableColumn id="9" name="SpecialCd" dataDxfId="38"/>
+    <tableColumn id="25" name="Active" dataDxfId="37"/>
+    <tableColumn id="20" name="IsRandom" dataDxfId="36"/>
+    <tableColumn id="23" name="GetDescript" dataDxfId="35"/>
+    <tableColumn id="8" name="DescriptBuffId" dataDxfId="34"/>
+    <tableColumn id="17" name="Effect" dataDxfId="33"/>
+    <tableColumn id="10" name="EffectArea" dataDxfId="32"/>
+    <tableColumn id="6" name="Cover" dataDxfId="31"/>
+    <tableColumn id="18" name="Mark" dataDxfId="30"/>
+    <tableColumn id="19" name="Icon" dataDxfId="29"/>
+    <tableColumn id="7" name="Remark" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表3_23" displayName="表3_23" ref="A3:Y19" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表3_23" displayName="表3_23" ref="A3:Y19" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="A3:Y19"/>
   <sortState ref="A4:T346">
     <sortCondition ref="A3:A346"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="1" name="Id" dataDxfId="29"/>
-    <tableColumn id="2" name="Name" dataDxfId="28"/>
-    <tableColumn id="3" name="Type" dataDxfId="27"/>
-    <tableColumn id="11" name="Target" dataDxfId="26"/>
-    <tableColumn id="12" name="Range" dataDxfId="25"/>
-    <tableColumn id="13" name="PointSelf" dataDxfId="24"/>
-    <tableColumn id="14" name="Tag" dataDxfId="3"/>
-    <tableColumn id="24" name="OnAdd" dataDxfId="23"/>
-    <tableColumn id="4" name="OnRemove" dataDxfId="22"/>
-    <tableColumn id="27" name="CanBurst" dataDxfId="21"/>
-    <tableColumn id="22" name="CheckHit" dataDxfId="20"/>
-    <tableColumn id="26" name="CheckDamage" dataDxfId="19"/>
-    <tableColumn id="29" name="AfterHit" dataDxfId="18"/>
-    <tableColumn id="5" name="CheckSpecial" dataDxfId="17"/>
-    <tableColumn id="9" name="SpecialCd" dataDxfId="16"/>
-    <tableColumn id="25" name="Active" dataDxfId="15"/>
-    <tableColumn id="20" name="IsRandom" dataDxfId="14"/>
-    <tableColumn id="23" name="GetDescript" dataDxfId="13"/>
-    <tableColumn id="8" name="DescriptBuffId" dataDxfId="12"/>
-    <tableColumn id="17" name="Effect" dataDxfId="11"/>
-    <tableColumn id="10" name="EffectArea" dataDxfId="10"/>
-    <tableColumn id="6" name="Cover" dataDxfId="9"/>
-    <tableColumn id="18" name="Mark" dataDxfId="8"/>
-    <tableColumn id="19" name="Icon" dataDxfId="7"/>
-    <tableColumn id="7" name="Remark" dataDxfId="6"/>
+    <tableColumn id="1" name="Id" dataDxfId="24"/>
+    <tableColumn id="2" name="Name" dataDxfId="23"/>
+    <tableColumn id="3" name="Type" dataDxfId="22"/>
+    <tableColumn id="11" name="Target" dataDxfId="21"/>
+    <tableColumn id="12" name="Range" dataDxfId="20"/>
+    <tableColumn id="13" name="PointSelf" dataDxfId="19"/>
+    <tableColumn id="14" name="Tag" dataDxfId="18"/>
+    <tableColumn id="24" name="OnAdd" dataDxfId="17"/>
+    <tableColumn id="4" name="OnRemove" dataDxfId="16"/>
+    <tableColumn id="27" name="CanBurst" dataDxfId="15"/>
+    <tableColumn id="22" name="CheckHit" dataDxfId="14"/>
+    <tableColumn id="26" name="CheckDamage" dataDxfId="13"/>
+    <tableColumn id="29" name="AfterHit" dataDxfId="12"/>
+    <tableColumn id="5" name="CheckSpecial" dataDxfId="11"/>
+    <tableColumn id="9" name="SpecialCd" dataDxfId="10"/>
+    <tableColumn id="25" name="Active" dataDxfId="9"/>
+    <tableColumn id="20" name="IsRandom" dataDxfId="8"/>
+    <tableColumn id="23" name="GetDescript" dataDxfId="7"/>
+    <tableColumn id="8" name="DescriptBuffId" dataDxfId="6"/>
+    <tableColumn id="17" name="Effect" dataDxfId="5"/>
+    <tableColumn id="10" name="EffectArea" dataDxfId="4"/>
+    <tableColumn id="6" name="Cover" dataDxfId="3"/>
+    <tableColumn id="18" name="Mark" dataDxfId="2"/>
+    <tableColumn id="19" name="Icon" dataDxfId="1"/>
+    <tableColumn id="7" name="Remark" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10466,35 +10478,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="22.21875" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" customWidth="1"/>
-    <col min="20" max="22" width="7.6640625" customWidth="1"/>
-    <col min="23" max="23" width="7.109375" customWidth="1"/>
+    <col min="3" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="22.25" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="8.5" customWidth="1"/>
+    <col min="16" max="16" width="7.375" customWidth="1"/>
+    <col min="17" max="17" width="6.375" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="22" width="7.625" customWidth="1"/>
+    <col min="23" max="23" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.8">
+    <row r="1" spans="1:25" ht="55.5">
       <c r="A1" s="6" t="s">
         <v>647</v>
       </c>
@@ -10774,7 +10786,7 @@
       </c>
       <c r="Y4" s="54"/>
     </row>
-    <row r="5" spans="1:25" ht="48">
+    <row r="5" spans="1:25" ht="36">
       <c r="A5" s="73">
         <v>55100002</v>
       </c>
@@ -10825,7 +10837,7 @@
       </c>
       <c r="Y5" s="52"/>
     </row>
-    <row r="6" spans="1:25" ht="48">
+    <row r="6" spans="1:25" ht="36">
       <c r="A6" s="73">
         <v>55100003</v>
       </c>
@@ -10876,28 +10888,28 @@
       </c>
       <c r="Y6" s="52"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" ht="24">
       <c r="A7" s="73">
         <v>55100004</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>1449</v>
+        <v>1485</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>923</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="65"/>
       <c r="G7" s="81"/>
-      <c r="H7" s="32"/>
+      <c r="H7" s="32" t="s">
+        <v>1487</v>
+      </c>
       <c r="I7" s="32"/>
       <c r="J7" s="31"/>
       <c r="K7" s="18"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="17" t="s">
-        <v>1447</v>
-      </c>
+      <c r="M7" s="17"/>
       <c r="N7" s="21"/>
       <c r="O7" s="59"/>
       <c r="P7" s="1" t="s">
@@ -10907,7 +10919,7 @@
         <v>654</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="S7" s="10">
         <v>0</v>
@@ -10916,10 +10928,10 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>570</v>
+        <v>1486</v>
       </c>
       <c r="Y7" s="52"/>
     </row>
@@ -10970,95 +10982,83 @@
       </c>
       <c r="Y8" s="52"/>
     </row>
-    <row r="9" spans="1:25" ht="132">
-      <c r="A9" s="12">
+    <row r="9" spans="1:25">
+      <c r="A9" s="73">
+        <v>55110001</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17" t="s">
+        <v>1447</v>
+      </c>
+      <c r="N9" s="21"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1">
+        <v>20</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y9" s="52"/>
+    </row>
+    <row r="10" spans="1:25" ht="120">
+      <c r="A10" s="12">
         <v>55200001</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>1375</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E9" s="27">
-        <v>15</v>
-      </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="21" t="s">
-        <v>1446</v>
-      </c>
-      <c r="O9" s="59">
-        <v>1</v>
-      </c>
-      <c r="P9" s="68" t="s">
-        <v>659</v>
-      </c>
-      <c r="Q9" s="66" t="s">
-        <v>654</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>1403</v>
-      </c>
-      <c r="S9" s="27">
-        <v>0</v>
-      </c>
-      <c r="T9" s="27" t="s">
-        <v>848</v>
-      </c>
-      <c r="U9" s="27" t="s">
-        <v>1314</v>
-      </c>
-      <c r="V9" s="27" t="s">
-        <v>948</v>
-      </c>
-      <c r="W9" s="27">
-        <v>40</v>
-      </c>
-      <c r="X9" s="27" t="s">
-        <v>1374</v>
-      </c>
-      <c r="Y9" s="70"/>
-    </row>
-    <row r="10" spans="1:25" ht="168">
-      <c r="A10" s="12">
-        <v>55200002</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>1437</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>197</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>1439</v>
+        <v>1319</v>
       </c>
       <c r="E10" s="27">
-        <v>30</v>
-      </c>
-      <c r="F10" s="66" t="s">
-        <v>1361</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F10" s="66"/>
       <c r="G10" s="82"/>
-      <c r="H10" s="69" t="s">
-        <v>1443</v>
-      </c>
+      <c r="H10" s="69"/>
       <c r="I10" s="69"/>
       <c r="J10" s="28"/>
       <c r="K10" s="29"/>
       <c r="L10" s="34"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="59"/>
+      <c r="N10" s="21" t="s">
+        <v>1446</v>
+      </c>
+      <c r="O10" s="59">
+        <v>1</v>
+      </c>
       <c r="P10" s="68" t="s">
         <v>659</v>
       </c>
@@ -11066,44 +11066,52 @@
         <v>654</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>1440</v>
+        <v>1403</v>
       </c>
       <c r="S10" s="27">
         <v>0</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>1438</v>
-      </c>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
+        <v>848</v>
+      </c>
+      <c r="U10" s="27" t="s">
+        <v>1314</v>
+      </c>
+      <c r="V10" s="27" t="s">
+        <v>948</v>
+      </c>
       <c r="W10" s="27">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="X10" s="27" t="s">
-        <v>1441</v>
+        <v>1374</v>
       </c>
       <c r="Y10" s="70"/>
     </row>
-    <row r="11" spans="1:25" ht="60">
-      <c r="A11" s="75">
-        <v>55300001</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>119</v>
+    <row r="11" spans="1:25" ht="144">
+      <c r="A11" s="12">
+        <v>55200002</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1437</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="66"/>
+        <v>197</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E11" s="27">
+        <v>30</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>1361</v>
+      </c>
       <c r="G11" s="82"/>
-      <c r="H11" s="32" t="s">
-        <v>1200</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>1201</v>
-      </c>
+      <c r="H11" s="69" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I11" s="69"/>
       <c r="J11" s="28"/>
       <c r="K11" s="29"/>
       <c r="L11" s="34"/>
@@ -11117,30 +11125,30 @@
         <v>654</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>1202</v>
+        <v>1440</v>
       </c>
       <c r="S11" s="27">
         <v>0</v>
       </c>
-      <c r="T11" s="27"/>
+      <c r="T11" s="27" t="s">
+        <v>1438</v>
+      </c>
       <c r="U11" s="27"/>
-      <c r="V11" s="27" t="s">
-        <v>943</v>
-      </c>
+      <c r="V11" s="27"/>
       <c r="W11" s="27">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="X11" s="27" t="s">
-        <v>120</v>
+        <v>1441</v>
       </c>
       <c r="Y11" s="70"/>
     </row>
-    <row r="12" spans="1:25" ht="60">
+    <row r="12" spans="1:25" ht="48">
       <c r="A12" s="75">
-        <v>55300002</v>
+        <v>55300001</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>1385</v>
+        <v>119</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>85</v>
@@ -11149,11 +11157,11 @@
       <c r="E12" s="27"/>
       <c r="F12" s="66"/>
       <c r="G12" s="82"/>
-      <c r="H12" s="69" t="s">
-        <v>1386</v>
-      </c>
-      <c r="I12" s="69" t="s">
-        <v>1387</v>
+      <c r="H12" s="32" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>1201</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="29"/>
@@ -11168,28 +11176,30 @@
         <v>654</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>1404</v>
+        <v>1202</v>
       </c>
       <c r="S12" s="27">
         <v>0</v>
       </c>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
+      <c r="V12" s="27" t="s">
+        <v>943</v>
+      </c>
       <c r="W12" s="27">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X12" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y12" s="54"/>
+        <v>120</v>
+      </c>
+      <c r="Y12" s="70"/>
     </row>
     <row r="13" spans="1:25" ht="60">
       <c r="A13" s="75">
-        <v>55300003</v>
+        <v>55300002</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>85</v>
@@ -11198,11 +11208,11 @@
       <c r="E13" s="27"/>
       <c r="F13" s="66"/>
       <c r="G13" s="82"/>
-      <c r="H13" s="32" t="s">
-        <v>1389</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>1390</v>
+      <c r="H13" s="69" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I13" s="69" t="s">
+        <v>1387</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="29"/>
@@ -11217,7 +11227,7 @@
         <v>654</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="S13" s="27">
         <v>0</v>
@@ -11229,16 +11239,16 @@
         <v>30</v>
       </c>
       <c r="X13" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y13" s="70"/>
+        <v>369</v>
+      </c>
+      <c r="Y13" s="54"/>
     </row>
     <row r="14" spans="1:25" ht="60">
       <c r="A14" s="75">
-        <v>55300004</v>
+        <v>55300003</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>85</v>
@@ -11247,11 +11257,11 @@
       <c r="E14" s="27"/>
       <c r="F14" s="66"/>
       <c r="G14" s="82"/>
-      <c r="H14" s="69" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I14" s="69" t="s">
-        <v>1393</v>
+      <c r="H14" s="32" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>1390</v>
       </c>
       <c r="J14" s="28"/>
       <c r="K14" s="29"/>
@@ -11266,7 +11276,7 @@
         <v>654</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>1193</v>
+        <v>1405</v>
       </c>
       <c r="S14" s="27">
         <v>0</v>
@@ -11278,16 +11288,16 @@
         <v>30</v>
       </c>
       <c r="X14" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y14" s="54"/>
+        <v>370</v>
+      </c>
+      <c r="Y14" s="70"/>
     </row>
     <row r="15" spans="1:25" ht="60">
       <c r="A15" s="75">
-        <v>55300005</v>
+        <v>55300004</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>85</v>
@@ -11297,10 +11307,10 @@
       <c r="F15" s="66"/>
       <c r="G15" s="82"/>
       <c r="H15" s="69" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="I15" s="69" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="J15" s="28"/>
       <c r="K15" s="29"/>
@@ -11315,7 +11325,7 @@
         <v>654</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="S15" s="27">
         <v>0</v>
@@ -11327,28 +11337,30 @@
         <v>30</v>
       </c>
       <c r="X15" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="Y15" s="70"/>
-    </row>
-    <row r="16" spans="1:25" ht="36">
+        <v>459</v>
+      </c>
+      <c r="Y15" s="54"/>
+    </row>
+    <row r="16" spans="1:25" ht="60">
       <c r="A16" s="75">
-        <v>55300006</v>
+        <v>55300005</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="66"/>
       <c r="G16" s="82"/>
       <c r="H16" s="69" t="s">
-        <v>1401</v>
-      </c>
-      <c r="I16" s="69"/>
+        <v>1395</v>
+      </c>
+      <c r="I16" s="69" t="s">
+        <v>1396</v>
+      </c>
       <c r="J16" s="28"/>
       <c r="K16" s="29"/>
       <c r="L16" s="34"/>
@@ -11361,45 +11373,41 @@
       <c r="Q16" s="66" t="s">
         <v>654</v>
       </c>
-      <c r="R16" s="71" t="s">
-        <v>1402</v>
+      <c r="R16" s="16" t="s">
+        <v>1192</v>
       </c>
       <c r="S16" s="27">
         <v>0</v>
       </c>
-      <c r="T16" s="27" t="s">
-        <v>1436</v>
-      </c>
+      <c r="T16" s="27"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="X16" s="27" t="s">
-        <v>1400</v>
+        <v>460</v>
       </c>
       <c r="Y16" s="70"/>
     </row>
-    <row r="17" spans="1:25" ht="60">
+    <row r="17" spans="1:25" ht="36">
       <c r="A17" s="75">
-        <v>55300007</v>
+        <v>55300006</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="66"/>
       <c r="G17" s="82"/>
       <c r="H17" s="69" t="s">
-        <v>1397</v>
-      </c>
-      <c r="I17" s="69" t="s">
-        <v>1398</v>
-      </c>
+        <v>1401</v>
+      </c>
+      <c r="I17" s="69"/>
       <c r="J17" s="28"/>
       <c r="K17" s="29"/>
       <c r="L17" s="34"/>
@@ -11412,49 +11420,51 @@
       <c r="Q17" s="66" t="s">
         <v>654</v>
       </c>
-      <c r="R17" s="16" t="s">
-        <v>1406</v>
+      <c r="R17" s="71" t="s">
+        <v>1402</v>
       </c>
       <c r="S17" s="27">
         <v>0</v>
       </c>
-      <c r="T17" s="27"/>
+      <c r="T17" s="27" t="s">
+        <v>1436</v>
+      </c>
       <c r="U17" s="27"/>
       <c r="V17" s="27"/>
       <c r="W17" s="27">
         <v>25</v>
       </c>
       <c r="X17" s="27" t="s">
-        <v>270</v>
+        <v>1400</v>
       </c>
       <c r="Y17" s="70"/>
     </row>
-    <row r="18" spans="1:25" ht="24">
+    <row r="18" spans="1:25" ht="60">
       <c r="A18" s="75">
-        <v>55310001</v>
+        <v>55300007</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>417</v>
+        <v>1409</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="66"/>
       <c r="G18" s="82"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
+      <c r="H18" s="69" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I18" s="69" t="s">
+        <v>1398</v>
+      </c>
       <c r="J18" s="28"/>
       <c r="K18" s="29"/>
       <c r="L18" s="34"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="21" t="s">
-        <v>1371</v>
-      </c>
-      <c r="O18" s="59">
-        <v>1</v>
-      </c>
+      <c r="N18" s="21"/>
+      <c r="O18" s="59"/>
       <c r="P18" s="68" t="s">
         <v>659</v>
       </c>
@@ -11462,7 +11472,7 @@
         <v>654</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>1372</v>
+        <v>1406</v>
       </c>
       <c r="S18" s="27">
         <v>0</v>
@@ -11471,22 +11481,22 @@
       <c r="U18" s="27"/>
       <c r="V18" s="27"/>
       <c r="W18" s="27">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="X18" s="27" t="s">
-        <v>418</v>
+        <v>270</v>
       </c>
       <c r="Y18" s="70"/>
     </row>
-    <row r="19" spans="1:25" ht="28.8">
-      <c r="A19" s="76">
-        <v>55400001</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>1292</v>
+    <row r="19" spans="1:25" ht="24">
+      <c r="A19" s="75">
+        <v>55310001</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>417</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>1472</v>
+        <v>0</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -11499,10 +11509,10 @@
       <c r="L19" s="34"/>
       <c r="M19" s="17"/>
       <c r="N19" s="21" t="s">
-        <v>1452</v>
+        <v>1371</v>
       </c>
       <c r="O19" s="59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" s="68" t="s">
         <v>659</v>
@@ -11511,54 +11521,48 @@
         <v>654</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>1455</v>
+        <v>1372</v>
       </c>
       <c r="S19" s="27">
         <v>0</v>
       </c>
-      <c r="T19" s="27" t="s">
-        <v>881</v>
-      </c>
+      <c r="T19" s="27"/>
       <c r="U19" s="27"/>
       <c r="V19" s="27"/>
       <c r="W19" s="27">
-        <v>80</v>
-      </c>
-      <c r="X19" s="72" t="s">
-        <v>1304</v>
+        <v>100</v>
+      </c>
+      <c r="X19" s="27" t="s">
+        <v>418</v>
       </c>
       <c r="Y19" s="70"/>
     </row>
-    <row r="20" spans="1:25" ht="28.8">
+    <row r="20" spans="1:25" ht="27">
       <c r="A20" s="76">
-        <v>55400002</v>
+        <v>55400001</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>880</v>
+        <v>1292</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>1472</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E20" s="27">
-        <v>10</v>
-      </c>
-      <c r="F20" s="66" t="s">
-        <v>1361</v>
-      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="82"/>
-      <c r="H20" s="69" t="s">
-        <v>1376</v>
-      </c>
+      <c r="H20" s="69"/>
       <c r="I20" s="69"/>
       <c r="J20" s="28"/>
       <c r="K20" s="29"/>
       <c r="L20" s="34"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="59"/>
+      <c r="N20" s="21" t="s">
+        <v>1452</v>
+      </c>
+      <c r="O20" s="59">
+        <v>2</v>
+      </c>
       <c r="P20" s="68" t="s">
         <v>659</v>
       </c>
@@ -11566,48 +11570,54 @@
         <v>654</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="S20" s="27">
         <v>0</v>
       </c>
-      <c r="T20" s="27"/>
+      <c r="T20" s="27" t="s">
+        <v>881</v>
+      </c>
       <c r="U20" s="27"/>
       <c r="V20" s="27"/>
       <c r="W20" s="27">
         <v>80</v>
       </c>
-      <c r="X20" s="27" t="s">
-        <v>878</v>
+      <c r="X20" s="72" t="s">
+        <v>1304</v>
       </c>
       <c r="Y20" s="70"/>
     </row>
-    <row r="21" spans="1:25" ht="28.8">
+    <row r="21" spans="1:25" ht="24">
       <c r="A21" s="76">
-        <v>55400003</v>
+        <v>55400002</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>1451</v>
+        <v>880</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>1472</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="66"/>
+      <c r="D21" s="27" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E21" s="27">
+        <v>10</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>1361</v>
+      </c>
       <c r="G21" s="82"/>
-      <c r="H21" s="69"/>
+      <c r="H21" s="69" t="s">
+        <v>1376</v>
+      </c>
       <c r="I21" s="69"/>
       <c r="J21" s="28"/>
       <c r="K21" s="29"/>
       <c r="L21" s="34"/>
       <c r="M21" s="17"/>
-      <c r="N21" s="21" t="s">
-        <v>1453</v>
-      </c>
-      <c r="O21" s="59">
-        <v>2</v>
-      </c>
+      <c r="N21" s="21"/>
+      <c r="O21" s="59"/>
       <c r="P21" s="68" t="s">
         <v>659</v>
       </c>
@@ -11615,30 +11625,28 @@
         <v>654</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>1456</v>
+        <v>1470</v>
       </c>
       <c r="S21" s="27">
         <v>0</v>
       </c>
-      <c r="T21" s="27" t="s">
-        <v>881</v>
-      </c>
+      <c r="T21" s="27"/>
       <c r="U21" s="27"/>
       <c r="V21" s="27"/>
       <c r="W21" s="27">
         <v>80</v>
       </c>
-      <c r="X21" s="72" t="s">
-        <v>1450</v>
+      <c r="X21" s="27" t="s">
+        <v>878</v>
       </c>
       <c r="Y21" s="70"/>
     </row>
-    <row r="22" spans="1:25" ht="28.8">
+    <row r="22" spans="1:25" ht="27">
       <c r="A22" s="76">
-        <v>55400004</v>
+        <v>55400003</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>1472</v>
@@ -11654,10 +11662,10 @@
       <c r="L22" s="34"/>
       <c r="M22" s="17"/>
       <c r="N22" s="21" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="O22" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P22" s="68" t="s">
         <v>659</v>
@@ -11666,13 +11674,13 @@
         <v>654</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="S22" s="27">
         <v>0</v>
       </c>
       <c r="T22" s="27" t="s">
-        <v>1461</v>
+        <v>881</v>
       </c>
       <c r="U22" s="27"/>
       <c r="V22" s="27"/>
@@ -11680,16 +11688,16 @@
         <v>80</v>
       </c>
       <c r="X22" s="72" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="Y22" s="70"/>
     </row>
-    <row r="23" spans="1:25" ht="28.8">
+    <row r="23" spans="1:25" ht="27">
       <c r="A23" s="76">
-        <v>55400005</v>
+        <v>55400004</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>1472</v>
@@ -11705,10 +11713,10 @@
       <c r="L23" s="34"/>
       <c r="M23" s="17"/>
       <c r="N23" s="21" t="s">
-        <v>1471</v>
+        <v>1454</v>
       </c>
       <c r="O23" s="59">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P23" s="68" t="s">
         <v>659</v>
@@ -11717,30 +11725,30 @@
         <v>654</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>1473</v>
+        <v>1457</v>
       </c>
       <c r="S23" s="27">
         <v>0</v>
       </c>
       <c r="T23" s="27" t="s">
-        <v>881</v>
+        <v>1461</v>
       </c>
       <c r="U23" s="27"/>
       <c r="V23" s="27"/>
       <c r="W23" s="27">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="X23" s="72" t="s">
-        <v>879</v>
+        <v>1460</v>
       </c>
       <c r="Y23" s="70"/>
     </row>
-    <row r="24" spans="1:25" ht="28.8">
+    <row r="24" spans="1:25" ht="27">
       <c r="A24" s="76">
-        <v>55400006</v>
+        <v>55400005</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>1472</v>
@@ -11756,10 +11764,10 @@
       <c r="L24" s="34"/>
       <c r="M24" s="17"/>
       <c r="N24" s="21" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="O24" s="59">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P24" s="68" t="s">
         <v>659</v>
@@ -11768,7 +11776,7 @@
         <v>654</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="S24" s="27">
         <v>0</v>
@@ -11779,22 +11787,22 @@
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
       <c r="W24" s="27">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="X24" s="72" t="s">
-        <v>1475</v>
+        <v>879</v>
       </c>
       <c r="Y24" s="70"/>
     </row>
-    <row r="25" spans="1:25" ht="48">
-      <c r="A25" s="78">
-        <v>55500001</v>
-      </c>
-      <c r="B25" s="78" t="s">
-        <v>17</v>
+    <row r="25" spans="1:25" ht="27">
+      <c r="A25" s="76">
+        <v>55400006</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>1474</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>6</v>
+        <v>1472</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -11802,16 +11810,16 @@
       <c r="G25" s="82"/>
       <c r="H25" s="69"/>
       <c r="I25" s="69"/>
-      <c r="J25" s="28" t="s">
-        <v>1422</v>
-      </c>
+      <c r="J25" s="28"/>
       <c r="K25" s="29"/>
-      <c r="L25" s="34" t="s">
-        <v>1412</v>
-      </c>
+      <c r="L25" s="34"/>
       <c r="M25" s="17"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="59"/>
+      <c r="N25" s="21" t="s">
+        <v>1476</v>
+      </c>
+      <c r="O25" s="59">
+        <v>2</v>
+      </c>
       <c r="P25" s="68" t="s">
         <v>659</v>
       </c>
@@ -11819,28 +11827,30 @@
         <v>654</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>1413</v>
+        <v>1477</v>
       </c>
       <c r="S25" s="27">
         <v>0</v>
       </c>
-      <c r="T25" s="27"/>
+      <c r="T25" s="27" t="s">
+        <v>881</v>
+      </c>
       <c r="U25" s="27"/>
       <c r="V25" s="27"/>
       <c r="W25" s="27">
-        <v>5</v>
-      </c>
-      <c r="X25" s="27" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="X25" s="72" t="s">
+        <v>1475</v>
       </c>
       <c r="Y25" s="70"/>
     </row>
-    <row r="26" spans="1:25" ht="48">
+    <row r="26" spans="1:25" ht="36">
       <c r="A26" s="78">
-        <v>55500002</v>
+        <v>55500001</v>
       </c>
       <c r="B26" s="78" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>6</v>
@@ -11852,11 +11862,11 @@
       <c r="H26" s="69"/>
       <c r="I26" s="69"/>
       <c r="J26" s="28" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="34" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="M26" s="17"/>
       <c r="N26" s="21"/>
@@ -11868,7 +11878,7 @@
         <v>654</v>
       </c>
       <c r="R26" s="16" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="S26" s="27">
         <v>0</v>
@@ -11880,16 +11890,16 @@
         <v>5</v>
       </c>
       <c r="X26" s="27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y26" s="70"/>
     </row>
-    <row r="27" spans="1:25" ht="48">
+    <row r="27" spans="1:25" ht="36">
       <c r="A27" s="78">
-        <v>55500003</v>
+        <v>55500002</v>
       </c>
       <c r="B27" s="78" t="s">
-        <v>1421</v>
+        <v>21</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>6</v>
@@ -11901,11 +11911,11 @@
       <c r="H27" s="69"/>
       <c r="I27" s="69"/>
       <c r="J27" s="28" t="s">
-        <v>683</v>
+        <v>1423</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="34" t="s">
-        <v>699</v>
+        <v>1416</v>
       </c>
       <c r="M27" s="17"/>
       <c r="N27" s="21"/>
@@ -11917,7 +11927,7 @@
         <v>654</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>670</v>
+        <v>1417</v>
       </c>
       <c r="S27" s="27">
         <v>0</v>
@@ -11929,16 +11939,16 @@
         <v>5</v>
       </c>
       <c r="X27" s="27" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Y27" s="70"/>
     </row>
-    <row r="28" spans="1:25" ht="48">
+    <row r="28" spans="1:25" ht="36">
       <c r="A28" s="78">
-        <v>55500004</v>
+        <v>55500003</v>
       </c>
       <c r="B28" s="78" t="s">
-        <v>362</v>
+        <v>1421</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>6</v>
@@ -11947,10 +11957,10 @@
       <c r="E28" s="27"/>
       <c r="F28" s="66"/>
       <c r="G28" s="82"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
       <c r="J28" s="28" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="K28" s="29"/>
       <c r="L28" s="34" t="s">
@@ -11966,7 +11976,7 @@
         <v>654</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="S28" s="27">
         <v>0</v>
@@ -11978,16 +11988,16 @@
         <v>5</v>
       </c>
       <c r="X28" s="27" t="s">
-        <v>363</v>
+        <v>13</v>
       </c>
       <c r="Y28" s="70"/>
     </row>
-    <row r="29" spans="1:25" ht="48">
+    <row r="29" spans="1:25" ht="36">
       <c r="A29" s="78">
-        <v>55500005</v>
+        <v>55500004</v>
       </c>
       <c r="B29" s="78" t="s">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>6</v>
@@ -11999,11 +12009,11 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="28" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="K29" s="29"/>
       <c r="L29" s="34" t="s">
-        <v>1415</v>
+        <v>699</v>
       </c>
       <c r="M29" s="17"/>
       <c r="N29" s="21"/>
@@ -12015,9 +12025,9 @@
         <v>654</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>1414</v>
-      </c>
-      <c r="S29" s="52">
+        <v>678</v>
+      </c>
+      <c r="S29" s="27">
         <v>0</v>
       </c>
       <c r="T29" s="27"/>
@@ -12027,16 +12037,16 @@
         <v>5</v>
       </c>
       <c r="X29" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y29" s="54"/>
-    </row>
-    <row r="30" spans="1:25" ht="48">
+        <v>363</v>
+      </c>
+      <c r="Y29" s="70"/>
+    </row>
+    <row r="30" spans="1:25" ht="36">
       <c r="A30" s="78">
-        <v>55500006</v>
+        <v>55500005</v>
       </c>
       <c r="B30" s="78" t="s">
-        <v>1426</v>
+        <v>19</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>6</v>
@@ -12048,7 +12058,7 @@
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
       <c r="J30" s="28" t="s">
-        <v>1424</v>
+        <v>686</v>
       </c>
       <c r="K30" s="29"/>
       <c r="L30" s="34" t="s">
@@ -12064,7 +12074,7 @@
         <v>654</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>1425</v>
+        <v>1414</v>
       </c>
       <c r="S30" s="52">
         <v>0</v>
@@ -12076,16 +12086,16 @@
         <v>5</v>
       </c>
       <c r="X30" s="27" t="s">
-        <v>1427</v>
+        <v>20</v>
       </c>
       <c r="Y30" s="54"/>
     </row>
-    <row r="31" spans="1:25" ht="48">
+    <row r="31" spans="1:25" ht="36">
       <c r="A31" s="78">
-        <v>55500007</v>
+        <v>55500006</v>
       </c>
       <c r="B31" s="78" t="s">
-        <v>457</v>
+        <v>1426</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>6</v>
@@ -12097,11 +12107,11 @@
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
       <c r="J31" s="28" t="s">
-        <v>703</v>
+        <v>1424</v>
       </c>
       <c r="K31" s="29"/>
       <c r="L31" s="34" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="M31" s="17"/>
       <c r="N31" s="21"/>
@@ -12113,7 +12123,7 @@
         <v>654</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>1419</v>
+        <v>1425</v>
       </c>
       <c r="S31" s="52">
         <v>0</v>
@@ -12125,16 +12135,16 @@
         <v>5</v>
       </c>
       <c r="X31" s="27" t="s">
-        <v>458</v>
+        <v>1427</v>
       </c>
       <c r="Y31" s="54"/>
     </row>
-    <row r="32" spans="1:25" ht="48">
+    <row r="32" spans="1:25" ht="36">
       <c r="A32" s="78">
-        <v>55500008</v>
+        <v>55500007</v>
       </c>
       <c r="B32" s="78" t="s">
-        <v>7</v>
+        <v>457</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>6</v>
@@ -12146,11 +12156,11 @@
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
       <c r="J32" s="28" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="K32" s="29"/>
       <c r="L32" s="34" t="s">
-        <v>699</v>
+        <v>1418</v>
       </c>
       <c r="M32" s="17"/>
       <c r="N32" s="21"/>
@@ -12162,7 +12172,7 @@
         <v>654</v>
       </c>
       <c r="R32" s="16" t="s">
-        <v>668</v>
+        <v>1419</v>
       </c>
       <c r="S32" s="52">
         <v>0</v>
@@ -12174,16 +12184,16 @@
         <v>5</v>
       </c>
       <c r="X32" s="27" t="s">
-        <v>8</v>
+        <v>458</v>
       </c>
       <c r="Y32" s="54"/>
     </row>
-    <row r="33" spans="1:25" ht="48">
+    <row r="33" spans="1:25" ht="36">
       <c r="A33" s="78">
-        <v>55500009</v>
+        <v>55500008</v>
       </c>
       <c r="B33" s="78" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>6</v>
@@ -12195,7 +12205,7 @@
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
       <c r="J33" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K33" s="29"/>
       <c r="L33" s="34" t="s">
@@ -12211,7 +12221,7 @@
         <v>654</v>
       </c>
       <c r="R33" s="16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="S33" s="52">
         <v>0</v>
@@ -12223,16 +12233,16 @@
         <v>5</v>
       </c>
       <c r="X33" s="27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y33" s="54"/>
     </row>
-    <row r="34" spans="1:25" ht="48">
+    <row r="34" spans="1:25" ht="36">
       <c r="A34" s="78">
-        <v>55500010</v>
+        <v>55500009</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>1420</v>
+        <v>11</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>6</v>
@@ -12244,7 +12254,7 @@
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
       <c r="J34" s="28" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="K34" s="29"/>
       <c r="L34" s="34" t="s">
@@ -12260,7 +12270,7 @@
         <v>654</v>
       </c>
       <c r="R34" s="16" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="S34" s="52">
         <v>0</v>
@@ -12272,16 +12282,16 @@
         <v>5</v>
       </c>
       <c r="X34" s="27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y34" s="54"/>
     </row>
-    <row r="35" spans="1:25" ht="48">
+    <row r="35" spans="1:25" ht="36">
       <c r="A35" s="78">
-        <v>55500011</v>
+        <v>55500010</v>
       </c>
       <c r="B35" s="78" t="s">
-        <v>9</v>
+        <v>1420</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>6</v>
@@ -12293,11 +12303,11 @@
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
       <c r="J35" s="28" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="K35" s="29"/>
       <c r="L35" s="34" t="s">
-        <v>1410</v>
+        <v>699</v>
       </c>
       <c r="M35" s="17"/>
       <c r="N35" s="21"/>
@@ -12309,7 +12319,7 @@
         <v>654</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>1411</v>
+        <v>672</v>
       </c>
       <c r="S35" s="52">
         <v>0</v>
@@ -12321,16 +12331,16 @@
         <v>5</v>
       </c>
       <c r="X35" s="27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Y35" s="54"/>
     </row>
-    <row r="36" spans="1:25" ht="48">
+    <row r="36" spans="1:25" ht="36">
       <c r="A36" s="78">
-        <v>55500012</v>
+        <v>55500011</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>6</v>
@@ -12342,11 +12352,11 @@
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
       <c r="J36" s="28" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="K36" s="29"/>
       <c r="L36" s="34" t="s">
-        <v>699</v>
+        <v>1410</v>
       </c>
       <c r="M36" s="17"/>
       <c r="N36" s="21"/>
@@ -12358,7 +12368,7 @@
         <v>654</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>674</v>
+        <v>1411</v>
       </c>
       <c r="S36" s="52">
         <v>0</v>
@@ -12370,16 +12380,16 @@
         <v>5</v>
       </c>
       <c r="X36" s="27" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="Y36" s="54"/>
     </row>
-    <row r="37" spans="1:25" ht="48">
+    <row r="37" spans="1:25" ht="36">
       <c r="A37" s="78">
-        <v>55500013</v>
+        <v>55500012</v>
       </c>
       <c r="B37" s="78" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>6</v>
@@ -12388,10 +12398,10 @@
       <c r="E37" s="27"/>
       <c r="F37" s="66"/>
       <c r="G37" s="82"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
       <c r="J37" s="28" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="34" t="s">
@@ -12407,7 +12417,7 @@
         <v>654</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="S37" s="52">
         <v>0</v>
@@ -12419,16 +12429,16 @@
         <v>5</v>
       </c>
       <c r="X37" s="27" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="Y37" s="54"/>
     </row>
-    <row r="38" spans="1:25" ht="48">
+    <row r="38" spans="1:25" ht="36">
       <c r="A38" s="78">
-        <v>55500014</v>
+        <v>55500013</v>
       </c>
       <c r="B38" s="78" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>6</v>
@@ -12440,7 +12450,7 @@
       <c r="H38" s="69"/>
       <c r="I38" s="69"/>
       <c r="J38" s="28" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="K38" s="29"/>
       <c r="L38" s="34" t="s">
@@ -12456,9 +12466,9 @@
         <v>654</v>
       </c>
       <c r="R38" s="16" t="s">
-        <v>673</v>
-      </c>
-      <c r="S38" s="27">
+        <v>671</v>
+      </c>
+      <c r="S38" s="52">
         <v>0</v>
       </c>
       <c r="T38" s="27"/>
@@ -12468,16 +12478,16 @@
         <v>5</v>
       </c>
       <c r="X38" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y38" s="70"/>
-    </row>
-    <row r="39" spans="1:25" ht="48">
+        <v>15</v>
+      </c>
+      <c r="Y38" s="54"/>
+    </row>
+    <row r="39" spans="1:25" ht="36">
       <c r="A39" s="78">
-        <v>55500015</v>
+        <v>55500014</v>
       </c>
       <c r="B39" s="78" t="s">
-        <v>1433</v>
+        <v>172</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>6</v>
@@ -12489,7 +12499,7 @@
       <c r="H39" s="69"/>
       <c r="I39" s="69"/>
       <c r="J39" s="28" t="s">
-        <v>1428</v>
+        <v>693</v>
       </c>
       <c r="K39" s="29"/>
       <c r="L39" s="34" t="s">
@@ -12505,7 +12515,7 @@
         <v>654</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>1430</v>
+        <v>673</v>
       </c>
       <c r="S39" s="27">
         <v>0</v>
@@ -12517,16 +12527,16 @@
         <v>5</v>
       </c>
       <c r="X39" s="27" t="s">
-        <v>1432</v>
+        <v>173</v>
       </c>
       <c r="Y39" s="70"/>
     </row>
-    <row r="40" spans="1:25" ht="48">
+    <row r="40" spans="1:25" ht="36">
       <c r="A40" s="78">
-        <v>55500016</v>
+        <v>55500015</v>
       </c>
       <c r="B40" s="78" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>6</v>
@@ -12538,7 +12548,7 @@
       <c r="H40" s="69"/>
       <c r="I40" s="69"/>
       <c r="J40" s="28" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="K40" s="29"/>
       <c r="L40" s="34" t="s">
@@ -12554,7 +12564,7 @@
         <v>654</v>
       </c>
       <c r="R40" s="16" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="S40" s="27">
         <v>0</v>
@@ -12566,140 +12576,130 @@
         <v>5</v>
       </c>
       <c r="X40" s="27" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="Y40" s="70"/>
     </row>
-    <row r="41" spans="1:25" ht="48">
-      <c r="A41" s="79">
-        <v>55600016</v>
-      </c>
-      <c r="B41" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="32" t="s">
-        <v>1458</v>
-      </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="17"/>
+    <row r="41" spans="1:25" ht="36">
+      <c r="A41" s="78">
+        <v>55500016</v>
+      </c>
+      <c r="B41" s="78" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="28" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K41" s="29"/>
+      <c r="L41" s="34" t="s">
+        <v>699</v>
+      </c>
       <c r="M41" s="17"/>
       <c r="N41" s="21"/>
       <c r="O41" s="59"/>
-      <c r="P41" s="1" t="s">
+      <c r="P41" s="68" t="s">
         <v>659</v>
       </c>
-      <c r="Q41" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="S41" s="10">
-        <v>56000101</v>
-      </c>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="W41" s="1">
-        <v>10</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y41" s="52"/>
-    </row>
-    <row r="42" spans="1:25" ht="168">
-      <c r="A42" s="77">
-        <v>55900001</v>
-      </c>
-      <c r="B42" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>946</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E42" s="27">
-        <v>40</v>
-      </c>
-      <c r="F42" s="66" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G42" s="82"/>
-      <c r="H42" s="69" t="s">
-        <v>1442</v>
-      </c>
-      <c r="I42" s="69"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="34"/>
+      <c r="Q41" s="66" t="s">
+        <v>654</v>
+      </c>
+      <c r="R41" s="16" t="s">
+        <v>1431</v>
+      </c>
+      <c r="S41" s="27">
+        <v>0</v>
+      </c>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27">
+        <v>5</v>
+      </c>
+      <c r="X41" s="27" t="s">
+        <v>1434</v>
+      </c>
+      <c r="Y41" s="70"/>
+    </row>
+    <row r="42" spans="1:25" ht="48">
+      <c r="A42" s="79">
+        <v>55600016</v>
+      </c>
+      <c r="B42" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="32" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I42" s="32"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="17"/>
       <c r="M42" s="17"/>
       <c r="N42" s="21"/>
       <c r="O42" s="59"/>
-      <c r="P42" s="68" t="s">
+      <c r="P42" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="Q42" s="66" t="s">
-        <v>654</v>
-      </c>
-      <c r="R42" s="16" t="s">
-        <v>1305</v>
-      </c>
-      <c r="S42" s="27">
-        <v>0</v>
-      </c>
-      <c r="T42" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="U42" s="27" t="s">
-        <v>448</v>
-      </c>
-      <c r="V42" s="27" t="s">
-        <v>944</v>
-      </c>
-      <c r="W42" s="27">
-        <v>35</v>
-      </c>
-      <c r="X42" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y42" s="70"/>
-    </row>
-    <row r="43" spans="1:25" ht="144">
+      <c r="Q42" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S42" s="10">
+        <v>56000101</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="W42" s="1">
+        <v>10</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y42" s="52"/>
+    </row>
+    <row r="43" spans="1:25" ht="156">
       <c r="A43" s="77">
-        <v>55900002</v>
+        <v>55900001</v>
       </c>
       <c r="B43" s="77" t="s">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>1319</v>
       </c>
       <c r="E43" s="27">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F43" s="66" t="s">
         <v>1361</v>
       </c>
       <c r="G43" s="82"/>
       <c r="H43" s="69" t="s">
-        <v>1382</v>
+        <v>1442</v>
       </c>
       <c r="I43" s="69"/>
       <c r="J43" s="28"/>
@@ -12715,40 +12715,50 @@
         <v>654</v>
       </c>
       <c r="R43" s="16" t="s">
-        <v>1383</v>
+        <v>1305</v>
       </c>
       <c r="S43" s="27">
         <v>0</v>
       </c>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
+      <c r="T43" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="U43" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="V43" s="27" t="s">
+        <v>944</v>
+      </c>
       <c r="W43" s="27">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X43" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y43" s="70" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="36">
+        <v>169</v>
+      </c>
+      <c r="Y43" s="70"/>
+    </row>
+    <row r="44" spans="1:25" ht="132">
       <c r="A44" s="77">
-        <v>55900003</v>
+        <v>55900002</v>
       </c>
       <c r="B44" s="77" t="s">
-        <v>1377</v>
+        <v>236</v>
       </c>
       <c r="C44" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="66"/>
+      <c r="D44" s="27" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E44" s="27">
+        <v>20</v>
+      </c>
+      <c r="F44" s="66" t="s">
+        <v>1361</v>
+      </c>
       <c r="G44" s="82"/>
       <c r="H44" s="69" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="I44" s="69"/>
       <c r="J44" s="28"/>
@@ -12764,7 +12774,7 @@
         <v>654</v>
       </c>
       <c r="R44" s="16" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="S44" s="27">
         <v>0</v>
@@ -12773,12 +12783,61 @@
       <c r="U44" s="27"/>
       <c r="V44" s="27"/>
       <c r="W44" s="27">
+        <v>30</v>
+      </c>
+      <c r="X44" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y44" s="70" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="36">
+      <c r="A45" s="77">
+        <v>55900003</v>
+      </c>
+      <c r="B45" s="77" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="69" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I45" s="69"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="68" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q45" s="66" t="s">
+        <v>654</v>
+      </c>
+      <c r="R45" s="16" t="s">
+        <v>1380</v>
+      </c>
+      <c r="S45" s="27">
+        <v>0</v>
+      </c>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27">
         <v>80</v>
       </c>
-      <c r="X44" s="27" t="s">
+      <c r="X45" s="27" t="s">
         <v>1378</v>
       </c>
-      <c r="Y44" s="70"/>
+      <c r="Y45" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -12802,27 +12861,27 @@
       <selection pane="bottomRight" activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="7" width="7.21875" customWidth="1"/>
+    <col min="3" max="7" width="7.25" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="17.375" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" customWidth="1"/>
+    <col min="15" max="15" width="8.125" customWidth="1"/>
+    <col min="16" max="16" width="7.375" customWidth="1"/>
+    <col min="17" max="17" width="6.375" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
     <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="22" width="7.6640625" customWidth="1"/>
-    <col min="23" max="23" width="7.109375" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="7.625" customWidth="1"/>
+    <col min="23" max="23" width="7.125" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.8">
+    <row r="1" spans="1:25" ht="55.5">
       <c r="A1" s="6" t="s">
         <v>647</v>
       </c>
@@ -13053,7 +13112,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="60">
+    <row r="4" spans="1:25" ht="48">
       <c r="A4">
         <v>55000002</v>
       </c>
@@ -13102,7 +13161,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="28.8">
+    <row r="5" spans="1:25" ht="27">
       <c r="A5">
         <v>55000021</v>
       </c>
@@ -13149,7 +13208,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="36">
+    <row r="6" spans="1:25" ht="24">
       <c r="A6">
         <v>55000029</v>
       </c>
@@ -13198,7 +13257,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="48">
+    <row r="7" spans="1:25" ht="36">
       <c r="A7">
         <v>55000030</v>
       </c>
@@ -13249,7 +13308,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="36">
+    <row r="8" spans="1:25" ht="24">
       <c r="A8">
         <v>55000031</v>
       </c>
@@ -13300,7 +13359,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="36">
+    <row r="9" spans="1:25" ht="24">
       <c r="A9">
         <v>55000032</v>
       </c>
@@ -13400,7 +13459,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="60">
+    <row r="11" spans="1:25" ht="48">
       <c r="A11">
         <v>55000034</v>
       </c>
@@ -13449,7 +13508,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="36">
+    <row r="12" spans="1:25" ht="24">
       <c r="A12">
         <v>55000035</v>
       </c>
@@ -13498,7 +13557,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="48">
+    <row r="13" spans="1:25" ht="36">
       <c r="A13">
         <v>55000036</v>
       </c>
@@ -13598,7 +13657,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="48">
+    <row r="15" spans="1:25" ht="36">
       <c r="A15">
         <v>55000038</v>
       </c>
@@ -13647,7 +13706,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="48">
+    <row r="16" spans="1:25" ht="36">
       <c r="A16">
         <v>55000039</v>
       </c>
@@ -13696,7 +13755,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="48">
+    <row r="17" spans="1:25" ht="36">
       <c r="A17">
         <v>55000040</v>
       </c>
@@ -13745,7 +13804,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="48">
+    <row r="18" spans="1:25" ht="36">
       <c r="A18">
         <v>55000041</v>
       </c>
@@ -13898,7 +13957,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="36">
+    <row r="21" spans="1:25" ht="24">
       <c r="A21">
         <v>55000044</v>
       </c>
@@ -14045,7 +14104,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="48">
+    <row r="24" spans="1:25" ht="36">
       <c r="A24">
         <v>55000047</v>
       </c>
@@ -14245,7 +14304,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="48">
+    <row r="28" spans="1:25" ht="36">
       <c r="A28">
         <v>55000061</v>
       </c>
@@ -14296,7 +14355,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="36">
+    <row r="29" spans="1:25" ht="24">
       <c r="A29">
         <v>55000062</v>
       </c>
@@ -14345,7 +14404,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="48">
+    <row r="30" spans="1:25" ht="36">
       <c r="A30">
         <v>55000063</v>
       </c>
@@ -14804,7 +14863,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="48">
+    <row r="39" spans="1:25" ht="36">
       <c r="A39">
         <v>55000073</v>
       </c>
@@ -14904,7 +14963,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="144">
+    <row r="41" spans="1:25" ht="120">
       <c r="A41">
         <v>55000075</v>
       </c>
@@ -14957,7 +15016,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="36">
+    <row r="42" spans="1:25" ht="24">
       <c r="A42">
         <v>55000076</v>
       </c>
@@ -15006,7 +15065,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="48">
+    <row r="43" spans="1:25" ht="36">
       <c r="A43">
         <v>55000077</v>
       </c>
@@ -15257,7 +15316,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="36">
+    <row r="48" spans="1:25" ht="24">
       <c r="A48">
         <v>55000082</v>
       </c>
@@ -15308,7 +15367,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="60">
+    <row r="49" spans="1:25" ht="48">
       <c r="A49">
         <v>55000083</v>
       </c>
@@ -15361,7 +15420,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="48">
+    <row r="50" spans="1:25" ht="36">
       <c r="A50">
         <v>55000085</v>
       </c>
@@ -15412,7 +15471,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="36">
+    <row r="51" spans="1:25" ht="24">
       <c r="A51">
         <v>55000087</v>
       </c>
@@ -15461,7 +15520,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="36">
+    <row r="52" spans="1:25" ht="24">
       <c r="A52">
         <v>55000088</v>
       </c>
@@ -15657,7 +15716,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="48">
+    <row r="56" spans="1:25" ht="36">
       <c r="A56">
         <v>55000092</v>
       </c>
@@ -15710,7 +15769,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="36">
+    <row r="57" spans="1:25" ht="24">
       <c r="A57">
         <v>55000093</v>
       </c>
@@ -15759,7 +15818,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="36">
+    <row r="58" spans="1:25" ht="24">
       <c r="A58">
         <v>55000094</v>
       </c>
@@ -15808,7 +15867,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="36">
+    <row r="59" spans="1:25" ht="24">
       <c r="A59">
         <v>55000095</v>
       </c>
@@ -15857,7 +15916,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="108">
+    <row r="60" spans="1:25" ht="84">
       <c r="A60">
         <v>55000096</v>
       </c>
@@ -15906,7 +15965,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="60">
+    <row r="61" spans="1:25" ht="48">
       <c r="A61">
         <v>55000097</v>
       </c>
@@ -15957,7 +16016,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="120">
+    <row r="62" spans="1:25" ht="96">
       <c r="A62">
         <v>55000098</v>
       </c>
@@ -16120,7 +16179,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="24">
+    <row r="65" spans="1:25">
       <c r="A65">
         <v>55000102</v>
       </c>
@@ -16216,7 +16275,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="120">
+    <row r="67" spans="1:25" ht="96">
       <c r="A67">
         <v>55000105</v>
       </c>
@@ -16279,7 +16338,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="72">
+    <row r="68" spans="1:25" ht="48">
       <c r="A68">
         <v>55000106</v>
       </c>
@@ -16330,7 +16389,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="48">
+    <row r="69" spans="1:25" ht="36">
       <c r="A69">
         <v>55000107</v>
       </c>
@@ -16430,7 +16489,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="36">
+    <row r="71" spans="1:25" ht="24">
       <c r="A71">
         <v>55000110</v>
       </c>
@@ -16632,7 +16691,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="36">
+    <row r="75" spans="1:25" ht="24">
       <c r="A75">
         <v>55000114</v>
       </c>
@@ -16681,7 +16740,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="48">
+    <row r="76" spans="1:25" ht="36">
       <c r="A76">
         <v>55000115</v>
       </c>
@@ -16734,7 +16793,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="72">
+    <row r="77" spans="1:25" ht="60">
       <c r="A77">
         <v>55000117</v>
       </c>
@@ -16887,7 +16946,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="36">
+    <row r="80" spans="1:25" ht="24">
       <c r="A80">
         <v>55000120</v>
       </c>
@@ -16936,7 +16995,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="36">
+    <row r="81" spans="1:25" ht="24">
       <c r="A81">
         <v>55000121</v>
       </c>
@@ -16989,7 +17048,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="48">
+    <row r="82" spans="1:25" ht="36">
       <c r="A82">
         <v>55000122</v>
       </c>
@@ -17040,7 +17099,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="48">
+    <row r="83" spans="1:25" ht="36">
       <c r="A83">
         <v>55000123</v>
       </c>
@@ -17191,7 +17250,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="60">
+    <row r="86" spans="1:25" ht="48">
       <c r="A86">
         <v>55000126</v>
       </c>
@@ -17334,7 +17393,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="36">
+    <row r="89" spans="1:25" ht="24">
       <c r="A89">
         <v>55000131</v>
       </c>
@@ -17430,7 +17489,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="144">
+    <row r="91" spans="1:25" ht="120">
       <c r="A91">
         <v>55000133</v>
       </c>
@@ -17487,7 +17546,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="48">
+    <row r="92" spans="1:25" ht="36">
       <c r="A92">
         <v>55000135</v>
       </c>
@@ -17536,7 +17595,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="36">
+    <row r="93" spans="1:25" ht="24">
       <c r="A93">
         <v>55000136</v>
       </c>
@@ -18234,7 +18293,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="36">
+    <row r="107" spans="1:25" ht="24">
       <c r="A107">
         <v>55000150</v>
       </c>
@@ -18685,7 +18744,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="48">
+    <row r="116" spans="1:25" ht="36">
       <c r="A116">
         <v>55000159</v>
       </c>
@@ -18736,7 +18795,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="36">
+    <row r="117" spans="1:25" ht="24">
       <c r="A117">
         <v>55000160</v>
       </c>
@@ -18785,7 +18844,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="60">
+    <row r="118" spans="1:25" ht="48">
       <c r="A118">
         <v>55000161</v>
       </c>
@@ -18887,7 +18946,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="48">
+    <row r="120" spans="1:25" ht="36">
       <c r="A120">
         <v>55000163</v>
       </c>
@@ -18942,7 +19001,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="48">
+    <row r="121" spans="1:25" ht="36">
       <c r="A121">
         <v>55000164</v>
       </c>
@@ -18991,7 +19050,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="36">
+    <row r="122" spans="1:25" ht="24">
       <c r="A122">
         <v>55000165</v>
       </c>
@@ -19091,7 +19150,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="36">
+    <row r="124" spans="1:25" ht="24">
       <c r="A124">
         <v>55000167</v>
       </c>
@@ -19142,7 +19201,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="84">
+    <row r="125" spans="1:25" ht="72">
       <c r="A125">
         <v>55000168</v>
       </c>
@@ -19193,7 +19252,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="72">
+    <row r="126" spans="1:25" ht="60">
       <c r="A126">
         <v>55000169</v>
       </c>
@@ -19344,7 +19403,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="48">
+    <row r="129" spans="1:25" ht="36">
       <c r="A129">
         <v>55000172</v>
       </c>
@@ -19395,7 +19454,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="48">
+    <row r="130" spans="1:25" ht="36">
       <c r="A130">
         <v>55000173</v>
       </c>
@@ -19446,7 +19505,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="48">
+    <row r="131" spans="1:25" ht="36">
       <c r="A131">
         <v>55000174</v>
       </c>
@@ -19603,7 +19662,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="48">
+    <row r="134" spans="1:25" ht="36">
       <c r="A134">
         <v>55000180</v>
       </c>
@@ -19656,7 +19715,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="36">
+    <row r="135" spans="1:25" ht="24">
       <c r="A135">
         <v>55000181</v>
       </c>
@@ -19705,7 +19764,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="36">
+    <row r="136" spans="1:25" ht="24">
       <c r="A136">
         <v>55000182</v>
       </c>
@@ -19758,7 +19817,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="96">
+    <row r="137" spans="1:25" ht="84">
       <c r="A137">
         <v>55000183</v>
       </c>
@@ -19913,7 +19972,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="48">
+    <row r="140" spans="1:25" ht="36">
       <c r="A140">
         <v>55000186</v>
       </c>
@@ -19964,7 +20023,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="60">
+    <row r="141" spans="1:25" ht="48">
       <c r="A141">
         <v>55000187</v>
       </c>
@@ -20062,7 +20121,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="48">
+    <row r="143" spans="1:25" ht="36">
       <c r="A143">
         <v>55000189</v>
       </c>
@@ -20115,7 +20174,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="48">
+    <row r="144" spans="1:25" ht="36">
       <c r="A144">
         <v>55000190</v>
       </c>
@@ -20166,7 +20225,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="60">
+    <row r="145" spans="1:25" ht="48">
       <c r="A145">
         <v>55000191</v>
       </c>
@@ -20219,7 +20278,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="72">
+    <row r="146" spans="1:25" ht="60">
       <c r="A146">
         <v>55000192</v>
       </c>
@@ -20270,7 +20329,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="36">
+    <row r="147" spans="1:25" ht="24">
       <c r="A147">
         <v>55000193</v>
       </c>
@@ -20372,7 +20431,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="72">
+    <row r="149" spans="1:25" ht="60">
       <c r="A149">
         <v>55000195</v>
       </c>
@@ -20421,7 +20480,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="72">
+    <row r="150" spans="1:25" ht="60">
       <c r="A150">
         <v>55000196</v>
       </c>
@@ -20470,7 +20529,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="36">
+    <row r="151" spans="1:25" ht="24">
       <c r="A151">
         <v>55000197</v>
       </c>
@@ -20868,7 +20927,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="159" spans="1:25" ht="132">
+    <row r="159" spans="1:25" ht="96">
       <c r="A159">
         <v>55000206</v>
       </c>
@@ -20970,7 +21029,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="161" spans="1:25" ht="60">
+    <row r="161" spans="1:25" ht="48">
       <c r="A161">
         <v>55000210</v>
       </c>
@@ -21176,7 +21235,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="165" spans="1:25" ht="36">
+    <row r="165" spans="1:25" ht="24">
       <c r="A165">
         <v>55000214</v>
       </c>
@@ -21225,7 +21284,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="166" spans="1:25" ht="120">
+    <row r="166" spans="1:25" ht="96">
       <c r="A166">
         <v>55000215</v>
       </c>
@@ -21288,7 +21347,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="167" spans="1:25" ht="48">
+    <row r="167" spans="1:25" ht="36">
       <c r="A167">
         <v>55000216</v>
       </c>
@@ -21488,7 +21547,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="171" spans="1:25" ht="48">
+    <row r="171" spans="1:25" ht="36">
       <c r="A171">
         <v>55000220</v>
       </c>
@@ -21539,7 +21598,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="172" spans="1:25" ht="48">
+    <row r="172" spans="1:25" ht="36">
       <c r="A172">
         <v>55000222</v>
       </c>
@@ -21590,7 +21649,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="173" spans="1:25" ht="36">
+    <row r="173" spans="1:25" ht="24">
       <c r="A173">
         <v>55000227</v>
       </c>
@@ -21690,7 +21749,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="175" spans="1:25" ht="36">
+    <row r="175" spans="1:25" ht="24">
       <c r="A175">
         <v>55000229</v>
       </c>
@@ -21741,7 +21800,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="176" spans="1:25" ht="36">
+    <row r="176" spans="1:25" ht="24">
       <c r="A176">
         <v>55000230</v>
       </c>
@@ -21839,7 +21898,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="60">
+    <row r="178" spans="1:25" ht="48">
       <c r="A178">
         <v>55000232</v>
       </c>
@@ -21888,7 +21947,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="179" spans="1:25" ht="48">
+    <row r="179" spans="1:25" ht="36">
       <c r="A179">
         <v>55000233</v>
       </c>
@@ -21937,7 +21996,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="180" spans="1:25" ht="48">
+    <row r="180" spans="1:25" ht="36">
       <c r="A180">
         <v>55000234</v>
       </c>
@@ -21988,7 +22047,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="181" spans="1:25" ht="84">
+    <row r="181" spans="1:25" ht="72">
       <c r="A181">
         <v>55000235</v>
       </c>
@@ -22037,7 +22096,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="182" spans="1:25" ht="36">
+    <row r="182" spans="1:25" ht="24">
       <c r="A182">
         <v>55000236</v>
       </c>
@@ -22229,7 +22288,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="108">
+    <row r="186" spans="1:25" ht="96">
       <c r="A186">
         <v>55000240</v>
       </c>
@@ -22343,7 +22402,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="188" spans="1:25" ht="36">
+    <row r="188" spans="1:25" ht="24">
       <c r="A188">
         <v>55000242</v>
       </c>
@@ -22443,7 +22502,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="190" spans="1:25" ht="120">
+    <row r="190" spans="1:25" ht="96">
       <c r="A190">
         <v>55000244</v>
       </c>
@@ -22506,7 +22565,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="191" spans="1:25" ht="36">
+    <row r="191" spans="1:25" ht="24">
       <c r="A191">
         <v>55000245</v>
       </c>
@@ -22606,7 +22665,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="72">
+    <row r="193" spans="1:25" ht="48">
       <c r="A193">
         <v>55000247</v>
       </c>
@@ -22657,7 +22716,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="48">
+    <row r="194" spans="1:25" ht="36">
       <c r="A194">
         <v>55000248</v>
       </c>
@@ -22710,7 +22769,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="195" spans="1:25" ht="36">
+    <row r="195" spans="1:25" ht="24">
       <c r="A195">
         <v>55000249</v>
       </c>
@@ -22761,7 +22820,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="48">
+    <row r="196" spans="1:25" ht="36">
       <c r="A196">
         <v>55000250</v>
       </c>
@@ -22810,7 +22869,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="197" spans="1:25" ht="28.8">
+    <row r="197" spans="1:25" ht="27">
       <c r="A197">
         <v>55000251</v>
       </c>
@@ -23106,7 +23165,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="203" spans="1:25" ht="48">
+    <row r="203" spans="1:25" ht="36">
       <c r="A203">
         <v>55000257</v>
       </c>
@@ -23159,7 +23218,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="204" spans="1:25" ht="36">
+    <row r="204" spans="1:25" ht="24">
       <c r="A204">
         <v>55000258</v>
       </c>
@@ -23208,7 +23267,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="205" spans="1:25" ht="48">
+    <row r="205" spans="1:25" ht="36">
       <c r="A205">
         <v>55000259</v>
       </c>
@@ -23261,7 +23320,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="206" spans="1:25" ht="108">
+    <row r="206" spans="1:25" ht="84">
       <c r="A206">
         <v>55000260</v>
       </c>
@@ -23320,7 +23379,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="207" spans="1:25" ht="96">
+    <row r="207" spans="1:25" ht="84">
       <c r="A207">
         <v>55000261</v>
       </c>
@@ -23369,7 +23428,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="208" spans="1:25" ht="36">
+    <row r="208" spans="1:25" ht="24">
       <c r="A208">
         <v>55000262</v>
       </c>
@@ -23471,7 +23530,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="210" spans="1:25" ht="48">
+    <row r="210" spans="1:25" ht="36">
       <c r="A210">
         <v>55000264</v>
       </c>
@@ -23522,7 +23581,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="211" spans="1:25" ht="48">
+    <row r="211" spans="1:25" ht="36">
       <c r="A211">
         <v>55000265</v>
       </c>
@@ -23867,7 +23926,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="218" spans="1:25" ht="36">
+    <row r="218" spans="1:25" ht="24">
       <c r="A218">
         <v>55000272</v>
       </c>
@@ -23916,7 +23975,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="219" spans="1:25" ht="48">
+    <row r="219" spans="1:25" ht="36">
       <c r="A219">
         <v>55000273</v>
       </c>
@@ -23965,7 +24024,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="220" spans="1:25" ht="96">
+    <row r="220" spans="1:25" ht="84">
       <c r="A220">
         <v>55000274</v>
       </c>
@@ -24014,7 +24073,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="221" spans="1:25" ht="48">
+    <row r="221" spans="1:25" ht="36">
       <c r="A221">
         <v>55000275</v>
       </c>
@@ -24065,7 +24124,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="222" spans="1:25" ht="48">
+    <row r="222" spans="1:25" ht="36">
       <c r="A222">
         <v>55000276</v>
       </c>
@@ -24116,7 +24175,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="223" spans="1:25" ht="24">
+    <row r="223" spans="1:25">
       <c r="A223">
         <v>55000277</v>
       </c>
@@ -24214,7 +24273,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="225" spans="1:25" ht="48">
+    <row r="225" spans="1:25" ht="36">
       <c r="A225">
         <v>55000280</v>
       </c>
@@ -24312,7 +24371,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="227" spans="1:25" ht="180">
+    <row r="227" spans="1:25" ht="144">
       <c r="A227">
         <v>55000282</v>
       </c>
@@ -24371,7 +24430,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="228" spans="1:25" ht="48">
+    <row r="228" spans="1:25" ht="36">
       <c r="A228">
         <v>55000284</v>
       </c>
@@ -24624,7 +24683,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="233" spans="1:25" ht="144">
+    <row r="233" spans="1:25" ht="120">
       <c r="A233">
         <v>55000289</v>
       </c>
@@ -24681,7 +24740,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="234" spans="1:25" ht="96">
+    <row r="234" spans="1:25" ht="84">
       <c r="A234">
         <v>55000290</v>
       </c>
@@ -24730,7 +24789,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="235" spans="1:25" ht="84">
+    <row r="235" spans="1:25" ht="60">
       <c r="A235">
         <v>55000291</v>
       </c>
@@ -24779,7 +24838,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="236" spans="1:25" ht="48">
+    <row r="236" spans="1:25" ht="36">
       <c r="A236">
         <v>55000292</v>
       </c>
@@ -24832,7 +24891,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="237" spans="1:25" ht="60">
+    <row r="237" spans="1:25" ht="48">
       <c r="A237">
         <v>55000293</v>
       </c>
@@ -24881,7 +24940,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="238" spans="1:25" ht="120">
+    <row r="238" spans="1:25" ht="96">
       <c r="A238">
         <v>55000294</v>
       </c>
@@ -25038,7 +25097,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="241" spans="1:25" ht="36">
+    <row r="241" spans="1:25" ht="24">
       <c r="A241">
         <v>55000299</v>
       </c>
@@ -25091,7 +25150,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="242" spans="1:25" ht="120">
+    <row r="242" spans="1:25" ht="96">
       <c r="A242">
         <v>55000324</v>
       </c>
@@ -25154,7 +25213,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="243" spans="1:25" ht="120">
+    <row r="243" spans="1:25" ht="96">
       <c r="A243">
         <v>55000325</v>
       </c>
@@ -25217,7 +25276,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="244" spans="1:25" ht="108">
+    <row r="244" spans="1:25" ht="96">
       <c r="A244">
         <v>55000326</v>
       </c>
@@ -25280,7 +25339,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="245" spans="1:25" ht="120">
+    <row r="245" spans="1:25" ht="96">
       <c r="A245">
         <v>55000327</v>
       </c>
@@ -25341,7 +25400,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="246" spans="1:25" ht="120">
+    <row r="246" spans="1:25" ht="96">
       <c r="A246">
         <v>55000328</v>
       </c>
@@ -25404,7 +25463,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="247" spans="1:25" ht="120">
+    <row r="247" spans="1:25" ht="96">
       <c r="A247">
         <v>55000329</v>
       </c>
@@ -25467,7 +25526,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="248" spans="1:25" ht="108">
+    <row r="248" spans="1:25" ht="96">
       <c r="A248">
         <v>55000330</v>
       </c>
@@ -25530,7 +25589,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="249" spans="1:25" ht="120">
+    <row r="249" spans="1:25" ht="96">
       <c r="A249">
         <v>55000331</v>
       </c>
@@ -25593,7 +25652,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="250" spans="1:25" ht="96">
+    <row r="250" spans="1:25" ht="72">
       <c r="A250">
         <v>55000332</v>
       </c>
@@ -25642,7 +25701,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="251" spans="1:25" ht="228">
+    <row r="251" spans="1:25" ht="180">
       <c r="A251">
         <v>55000333</v>
       </c>
@@ -25691,7 +25750,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="252" spans="1:25" ht="108">
+    <row r="252" spans="1:25" ht="96">
       <c r="A252">
         <v>55000334</v>
       </c>
@@ -25754,7 +25813,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="253" spans="1:25" ht="96">
+    <row r="253" spans="1:25" ht="84">
       <c r="A253">
         <v>55000335</v>
       </c>
@@ -25811,7 +25870,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="254" spans="1:25" ht="48">
+    <row r="254" spans="1:25" ht="36">
       <c r="A254">
         <v>55000340</v>
       </c>
@@ -25864,7 +25923,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="255" spans="1:25" ht="36">
+    <row r="255" spans="1:25" ht="24">
       <c r="A255">
         <v>55000341</v>
       </c>
@@ -25915,7 +25974,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="256" spans="1:25" ht="180">
+    <row r="256" spans="1:25" ht="144">
       <c r="A256">
         <v>55000342</v>
       </c>
@@ -25972,7 +26031,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="257" spans="1:25" ht="180">
+    <row r="257" spans="1:25" ht="144">
       <c r="A257">
         <v>55000343</v>
       </c>
@@ -26100,23 +26159,23 @@
       <selection pane="bottomRight" activeCell="G1" sqref="G1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="22.21875" customWidth="1"/>
-    <col min="14" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" customWidth="1"/>
-    <col min="20" max="22" width="7.6640625" customWidth="1"/>
-    <col min="23" max="23" width="7.109375" customWidth="1"/>
+    <col min="3" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="22.25" customWidth="1"/>
+    <col min="14" max="15" width="8.5" customWidth="1"/>
+    <col min="16" max="16" width="7.375" customWidth="1"/>
+    <col min="17" max="17" width="6.375" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="22" width="7.625" customWidth="1"/>
+    <col min="23" max="23" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.8">
+    <row r="1" spans="1:25" ht="55.5">
       <c r="A1" s="6" t="s">
         <v>647</v>
       </c>
@@ -26394,7 +26453,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="96">
+    <row r="5" spans="1:25" ht="84">
       <c r="A5">
         <v>55010004</v>
       </c>
@@ -26465,23 +26524,23 @@
       <selection pane="bottomRight" activeCell="G1" sqref="G1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="22.21875" customWidth="1"/>
-    <col min="14" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" customWidth="1"/>
-    <col min="20" max="22" width="7.6640625" customWidth="1"/>
-    <col min="23" max="23" width="7.109375" customWidth="1"/>
+    <col min="3" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="22.25" customWidth="1"/>
+    <col min="14" max="15" width="8.5" customWidth="1"/>
+    <col min="16" max="16" width="7.375" customWidth="1"/>
+    <col min="17" max="17" width="6.375" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="22" width="7.625" customWidth="1"/>
+    <col min="23" max="23" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.8">
+    <row r="1" spans="1:25" ht="55.5">
       <c r="A1" s="6" t="s">
         <v>647</v>
       </c>
@@ -26712,7 +26771,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="48">
+    <row r="4" spans="1:25" ht="36">
       <c r="A4">
         <v>55020001</v>
       </c>
@@ -26763,7 +26822,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="48">
+    <row r="5" spans="1:25" ht="36">
       <c r="A5">
         <v>55020002</v>
       </c>
@@ -26814,7 +26873,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="48">
+    <row r="6" spans="1:25" ht="36">
       <c r="A6">
         <v>55020003</v>
       </c>
@@ -26865,7 +26924,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="48">
+    <row r="7" spans="1:25" ht="36">
       <c r="A7">
         <v>55020004</v>
       </c>
@@ -26916,7 +26975,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="48">
+    <row r="8" spans="1:25" ht="36">
       <c r="A8">
         <v>55020005</v>
       </c>
@@ -26965,7 +27024,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="48">
+    <row r="9" spans="1:25" ht="36">
       <c r="A9">
         <v>55020006</v>
       </c>
@@ -27014,7 +27073,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="48">
+    <row r="10" spans="1:25" ht="36">
       <c r="A10">
         <v>55020007</v>
       </c>
@@ -27065,7 +27124,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="48">
+    <row r="11" spans="1:25" ht="36">
       <c r="A11">
         <v>55020008</v>
       </c>
@@ -27116,7 +27175,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="48">
+    <row r="12" spans="1:25" ht="36">
       <c r="A12">
         <v>55020009</v>
       </c>
@@ -27167,7 +27226,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="48">
+    <row r="13" spans="1:25" ht="36">
       <c r="A13">
         <v>55020010</v>
       </c>
@@ -27218,7 +27277,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="48">
+    <row r="14" spans="1:25" ht="36">
       <c r="A14">
         <v>55020011</v>
       </c>
@@ -27269,7 +27328,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="48">
+    <row r="15" spans="1:25" ht="36">
       <c r="A15">
         <v>55020012</v>
       </c>
@@ -27320,7 +27379,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="48">
+    <row r="16" spans="1:25" ht="36">
       <c r="A16">
         <v>55020013</v>
       </c>
@@ -27369,7 +27428,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="48">
+    <row r="17" spans="1:25" ht="36">
       <c r="A17">
         <v>55020014</v>
       </c>
@@ -27418,7 +27477,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="48">
+    <row r="18" spans="1:25" ht="36">
       <c r="A18">
         <v>55020015</v>
       </c>
@@ -27469,7 +27528,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="48">
+    <row r="19" spans="1:25" ht="36">
       <c r="A19">
         <v>55020016</v>
       </c>
@@ -27539,9 +27598,9 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -28131,7 +28190,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W21" authorId="1" shapeId="0">
+    <comment ref="W25" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -438,7 +438,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="1499">
   <si>
     <t>特殊</t>
   </si>
@@ -5638,6 +5638,49 @@
   </si>
   <si>
     <t>s.AddBuff(56000202,lv,99);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤时给自己添加圣盾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>双子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>溅射</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yincang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chaofeng</t>
+  </si>
+  <si>
+    <t>jianshe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuangzi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>taunt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hide</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -5645,7 +5688,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5933,6 +5976,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="49">
     <fill>
@@ -6211,7 +6277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -6414,6 +6480,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6543,7 +6622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6792,6 +6871,45 @@
     </xf>
     <xf numFmtId="49" fontId="22" fillId="48" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="48" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -10044,8 +10162,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_25" displayName="表3_25" ref="A3:Y45" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110" tableBorderDxfId="109">
-  <autoFilter ref="A3:Y45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表3_25" displayName="表3_25" ref="A3:Y49" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110" tableBorderDxfId="109">
+  <autoFilter ref="A3:Y49"/>
   <sortState ref="A4:Y44">
     <sortCondition ref="A3:A44"/>
   </sortState>
@@ -10478,13 +10596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10501,7 +10619,7 @@
     <col min="16" max="16" width="7.375" customWidth="1"/>
     <col min="17" max="17" width="6.375" customWidth="1"/>
     <col min="18" max="18" width="23.5" customWidth="1"/>
-    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="19" max="19" width="8.75" customWidth="1"/>
     <col min="20" max="22" width="7.625" customWidth="1"/>
     <col min="23" max="23" width="7.125" customWidth="1"/>
   </cols>
@@ -10919,16 +11037,16 @@
         <v>654</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>1444</v>
+        <v>1488</v>
       </c>
       <c r="S7" s="10">
-        <v>0</v>
+        <v>56000202</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>1486</v>
@@ -10984,291 +11102,249 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="73">
-        <v>55110001</v>
+        <v>55100006</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>1449</v>
+        <v>1489</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17" t="s">
-        <v>1447</v>
-      </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="59"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="93"/>
       <c r="P9" s="1" t="s">
         <v>659</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="R9" s="10" t="s">
-        <v>1448</v>
-      </c>
+      <c r="R9" s="16"/>
       <c r="S9" s="10">
         <v>0</v>
       </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1">
-        <v>20</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y9" s="52"/>
-    </row>
-    <row r="10" spans="1:25" ht="120">
-      <c r="A10" s="12">
-        <v>55200001</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E10" s="27">
-        <v>15</v>
-      </c>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="27" t="s">
+        <v>1496</v>
+      </c>
+      <c r="Y9" s="94"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="73">
+        <v>55100007</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="66"/>
       <c r="G10" s="82"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="28"/>
       <c r="K10" s="29"/>
       <c r="L10" s="34"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="21" t="s">
-        <v>1446</v>
-      </c>
-      <c r="O10" s="59">
-        <v>1</v>
-      </c>
-      <c r="P10" s="68" t="s">
+      <c r="N10" s="21"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="Q10" s="66" t="s">
-        <v>654</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>1403</v>
-      </c>
-      <c r="S10" s="27">
-        <v>0</v>
-      </c>
-      <c r="T10" s="27" t="s">
-        <v>848</v>
-      </c>
-      <c r="U10" s="27" t="s">
-        <v>1314</v>
-      </c>
-      <c r="V10" s="27" t="s">
-        <v>948</v>
-      </c>
-      <c r="W10" s="27">
-        <v>40</v>
-      </c>
+      <c r="Q10" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="R10" s="16"/>
+      <c r="S10" s="10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
       <c r="X10" s="27" t="s">
-        <v>1374</v>
+        <v>1495</v>
       </c>
       <c r="Y10" s="70"/>
     </row>
-    <row r="11" spans="1:25" ht="144">
-      <c r="A11" s="12">
-        <v>55200002</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E11" s="27">
-        <v>30</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="69" t="s">
-        <v>1443</v>
-      </c>
-      <c r="I11" s="69"/>
+    <row r="11" spans="1:25">
+      <c r="A11" s="73">
+        <v>55100008</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="82" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H11" s="95"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="28"/>
       <c r="K11" s="29"/>
       <c r="L11" s="34"/>
       <c r="M11" s="17"/>
       <c r="N11" s="21"/>
       <c r="O11" s="59"/>
-      <c r="P11" s="68" t="s">
+      <c r="P11" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="Q11" s="66" t="s">
-        <v>654</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>1440</v>
-      </c>
-      <c r="S11" s="27">
-        <v>0</v>
-      </c>
-      <c r="T11" s="27" t="s">
-        <v>1438</v>
-      </c>
+      <c r="Q11" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="R11" s="16"/>
+      <c r="S11" s="10">
+        <v>0</v>
+      </c>
+      <c r="T11" s="27"/>
       <c r="U11" s="27"/>
       <c r="V11" s="27"/>
-      <c r="W11" s="27">
-        <v>15</v>
-      </c>
+      <c r="W11" s="27"/>
       <c r="X11" s="27" t="s">
-        <v>1441</v>
+        <v>1494</v>
       </c>
       <c r="Y11" s="70"/>
     </row>
-    <row r="12" spans="1:25" ht="48">
-      <c r="A12" s="75">
-        <v>55300001</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>85</v>
+    <row r="12" spans="1:25">
+      <c r="A12" s="73">
+        <v>55100009</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>923</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="66"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="32" t="s">
-        <v>1200</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>1201</v>
-      </c>
+      <c r="G12" s="82" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H12" s="95"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="28"/>
       <c r="K12" s="29"/>
       <c r="L12" s="34"/>
       <c r="M12" s="17"/>
       <c r="N12" s="21"/>
       <c r="O12" s="59"/>
-      <c r="P12" s="68" t="s">
+      <c r="P12" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="Q12" s="66" t="s">
-        <v>654</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>1202</v>
-      </c>
-      <c r="S12" s="27">
+      <c r="Q12" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="R12" s="16"/>
+      <c r="S12" s="10">
         <v>0</v>
       </c>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
-      <c r="V12" s="27" t="s">
-        <v>943</v>
-      </c>
-      <c r="W12" s="27">
-        <v>40</v>
-      </c>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
       <c r="X12" s="27" t="s">
-        <v>120</v>
+        <v>1493</v>
       </c>
       <c r="Y12" s="70"/>
     </row>
-    <row r="13" spans="1:25" ht="60">
-      <c r="A13" s="75">
-        <v>55300002</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="69" t="s">
-        <v>1386</v>
-      </c>
-      <c r="I13" s="69" t="s">
-        <v>1387</v>
-      </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="17"/>
+    <row r="13" spans="1:25">
+      <c r="A13" s="73">
+        <v>55110001</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17" t="s">
+        <v>1447</v>
+      </c>
       <c r="N13" s="21"/>
       <c r="O13" s="59"/>
-      <c r="P13" s="68" t="s">
+      <c r="P13" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="Q13" s="66" t="s">
-        <v>654</v>
-      </c>
-      <c r="R13" s="16" t="s">
-        <v>1404</v>
-      </c>
-      <c r="S13" s="27">
-        <v>0</v>
-      </c>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27">
-        <v>30</v>
-      </c>
-      <c r="X13" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y13" s="54"/>
-    </row>
-    <row r="14" spans="1:25" ht="60">
-      <c r="A14" s="75">
-        <v>55300003</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>1388</v>
+      <c r="Q13" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>1448</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1">
+        <v>20</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y13" s="52"/>
+    </row>
+    <row r="14" spans="1:25" ht="120">
+      <c r="A14" s="12">
+        <v>55200001</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1375</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+        <v>197</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E14" s="27">
+        <v>15</v>
+      </c>
       <c r="F14" s="66"/>
       <c r="G14" s="82"/>
-      <c r="H14" s="32" t="s">
-        <v>1389</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>1390</v>
-      </c>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="28"/>
       <c r="K14" s="29"/>
       <c r="L14" s="34"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="59"/>
+      <c r="N14" s="21" t="s">
+        <v>1446</v>
+      </c>
+      <c r="O14" s="59">
+        <v>1</v>
+      </c>
       <c r="P14" s="68" t="s">
         <v>659</v>
       </c>
@@ -11276,42 +11352,52 @@
         <v>654</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="S14" s="27">
         <v>0</v>
       </c>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
+      <c r="T14" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="U14" s="27" t="s">
+        <v>1314</v>
+      </c>
+      <c r="V14" s="27" t="s">
+        <v>948</v>
+      </c>
       <c r="W14" s="27">
+        <v>40</v>
+      </c>
+      <c r="X14" s="27" t="s">
+        <v>1374</v>
+      </c>
+      <c r="Y14" s="70"/>
+    </row>
+    <row r="15" spans="1:25" ht="144">
+      <c r="A15" s="12">
+        <v>55200002</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E15" s="27">
         <v>30</v>
       </c>
-      <c r="X14" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y14" s="70"/>
-    </row>
-    <row r="15" spans="1:25" ht="60">
-      <c r="A15" s="75">
-        <v>55300004</v>
-      </c>
-      <c r="B15" s="75" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="66"/>
+      <c r="F15" s="66" t="s">
+        <v>1361</v>
+      </c>
       <c r="G15" s="82"/>
       <c r="H15" s="69" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I15" s="69" t="s">
-        <v>1393</v>
-      </c>
+        <v>1443</v>
+      </c>
+      <c r="I15" s="69"/>
       <c r="J15" s="28"/>
       <c r="K15" s="29"/>
       <c r="L15" s="34"/>
@@ -11325,28 +11411,30 @@
         <v>654</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>1193</v>
+        <v>1440</v>
       </c>
       <c r="S15" s="27">
         <v>0</v>
       </c>
-      <c r="T15" s="27"/>
+      <c r="T15" s="27" t="s">
+        <v>1438</v>
+      </c>
       <c r="U15" s="27"/>
       <c r="V15" s="27"/>
       <c r="W15" s="27">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="X15" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y15" s="54"/>
-    </row>
-    <row r="16" spans="1:25" ht="60">
+        <v>1441</v>
+      </c>
+      <c r="Y15" s="70"/>
+    </row>
+    <row r="16" spans="1:25" ht="48">
       <c r="A16" s="75">
-        <v>55300005</v>
+        <v>55300001</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>1394</v>
+        <v>119</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>85</v>
@@ -11355,11 +11443,11 @@
       <c r="E16" s="27"/>
       <c r="F16" s="66"/>
       <c r="G16" s="82"/>
-      <c r="H16" s="69" t="s">
-        <v>1395</v>
-      </c>
-      <c r="I16" s="69" t="s">
-        <v>1396</v>
+      <c r="H16" s="32" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>1201</v>
       </c>
       <c r="J16" s="28"/>
       <c r="K16" s="29"/>
@@ -11374,40 +11462,44 @@
         <v>654</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>1192</v>
+        <v>1202</v>
       </c>
       <c r="S16" s="27">
         <v>0</v>
       </c>
       <c r="T16" s="27"/>
       <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
+      <c r="V16" s="27" t="s">
+        <v>943</v>
+      </c>
       <c r="W16" s="27">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X16" s="27" t="s">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="Y16" s="70"/>
     </row>
-    <row r="17" spans="1:25" ht="36">
+    <row r="17" spans="1:25" ht="60">
       <c r="A17" s="75">
-        <v>55300006</v>
+        <v>55300002</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="66"/>
       <c r="G17" s="82"/>
       <c r="H17" s="69" t="s">
-        <v>1401</v>
-      </c>
-      <c r="I17" s="69"/>
+        <v>1386</v>
+      </c>
+      <c r="I17" s="69" t="s">
+        <v>1387</v>
+      </c>
       <c r="J17" s="28"/>
       <c r="K17" s="29"/>
       <c r="L17" s="34"/>
@@ -11420,31 +11512,29 @@
       <c r="Q17" s="66" t="s">
         <v>654</v>
       </c>
-      <c r="R17" s="71" t="s">
-        <v>1402</v>
+      <c r="R17" s="16" t="s">
+        <v>1404</v>
       </c>
       <c r="S17" s="27">
         <v>0</v>
       </c>
-      <c r="T17" s="27" t="s">
-        <v>1436</v>
-      </c>
+      <c r="T17" s="27"/>
       <c r="U17" s="27"/>
       <c r="V17" s="27"/>
       <c r="W17" s="27">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="X17" s="27" t="s">
-        <v>1400</v>
-      </c>
-      <c r="Y17" s="70"/>
+        <v>369</v>
+      </c>
+      <c r="Y17" s="54"/>
     </row>
     <row r="18" spans="1:25" ht="60">
       <c r="A18" s="75">
-        <v>55300007</v>
+        <v>55300003</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>1409</v>
+        <v>1388</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>85</v>
@@ -11453,11 +11543,11 @@
       <c r="E18" s="27"/>
       <c r="F18" s="66"/>
       <c r="G18" s="82"/>
-      <c r="H18" s="69" t="s">
-        <v>1397</v>
-      </c>
-      <c r="I18" s="69" t="s">
-        <v>1398</v>
+      <c r="H18" s="32" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>1390</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="29"/>
@@ -11472,7 +11562,7 @@
         <v>654</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="S18" s="27">
         <v>0</v>
@@ -11481,39 +11571,39 @@
       <c r="U18" s="27"/>
       <c r="V18" s="27"/>
       <c r="W18" s="27">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="X18" s="27" t="s">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="Y18" s="70"/>
     </row>
-    <row r="19" spans="1:25" ht="24">
+    <row r="19" spans="1:25" ht="60">
       <c r="A19" s="75">
-        <v>55310001</v>
+        <v>55300004</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>417</v>
+        <v>1391</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="66"/>
       <c r="G19" s="82"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
+      <c r="H19" s="69" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I19" s="69" t="s">
+        <v>1393</v>
+      </c>
       <c r="J19" s="28"/>
       <c r="K19" s="29"/>
       <c r="L19" s="34"/>
       <c r="M19" s="17"/>
-      <c r="N19" s="21" t="s">
-        <v>1371</v>
-      </c>
-      <c r="O19" s="59">
-        <v>1</v>
-      </c>
+      <c r="N19" s="21"/>
+      <c r="O19" s="59"/>
       <c r="P19" s="68" t="s">
         <v>659</v>
       </c>
@@ -11521,7 +11611,7 @@
         <v>654</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>1372</v>
+        <v>1193</v>
       </c>
       <c r="S19" s="27">
         <v>0</v>
@@ -11530,39 +11620,39 @@
       <c r="U19" s="27"/>
       <c r="V19" s="27"/>
       <c r="W19" s="27">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="X19" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y19" s="70"/>
-    </row>
-    <row r="20" spans="1:25" ht="27">
-      <c r="A20" s="76">
-        <v>55400001</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>1292</v>
+        <v>459</v>
+      </c>
+      <c r="Y19" s="54"/>
+    </row>
+    <row r="20" spans="1:25" ht="60">
+      <c r="A20" s="75">
+        <v>55300005</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>1394</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>1472</v>
+        <v>85</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="66"/>
       <c r="G20" s="82"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
+      <c r="H20" s="69" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I20" s="69" t="s">
+        <v>1396</v>
+      </c>
       <c r="J20" s="28"/>
       <c r="K20" s="29"/>
       <c r="L20" s="34"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="21" t="s">
-        <v>1452</v>
-      </c>
-      <c r="O20" s="59">
-        <v>2</v>
-      </c>
+      <c r="N20" s="21"/>
+      <c r="O20" s="59"/>
       <c r="P20" s="68" t="s">
         <v>659</v>
       </c>
@@ -11570,46 +11660,38 @@
         <v>654</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>1455</v>
+        <v>1192</v>
       </c>
       <c r="S20" s="27">
         <v>0</v>
       </c>
-      <c r="T20" s="27" t="s">
-        <v>881</v>
-      </c>
+      <c r="T20" s="27"/>
       <c r="U20" s="27"/>
       <c r="V20" s="27"/>
       <c r="W20" s="27">
-        <v>80</v>
-      </c>
-      <c r="X20" s="72" t="s">
-        <v>1304</v>
+        <v>30</v>
+      </c>
+      <c r="X20" s="27" t="s">
+        <v>460</v>
       </c>
       <c r="Y20" s="70"/>
     </row>
-    <row r="21" spans="1:25" ht="24">
-      <c r="A21" s="76">
-        <v>55400002</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>880</v>
+    <row r="21" spans="1:25" ht="36">
+      <c r="A21" s="75">
+        <v>55300006</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>1399</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E21" s="27">
-        <v>10</v>
-      </c>
-      <c r="F21" s="66" t="s">
-        <v>1361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="82"/>
       <c r="H21" s="69" t="s">
-        <v>1376</v>
+        <v>1401</v>
       </c>
       <c r="I21" s="69"/>
       <c r="J21" s="28"/>
@@ -11624,49 +11706,51 @@
       <c r="Q21" s="66" t="s">
         <v>654</v>
       </c>
-      <c r="R21" s="16" t="s">
-        <v>1470</v>
+      <c r="R21" s="71" t="s">
+        <v>1402</v>
       </c>
       <c r="S21" s="27">
         <v>0</v>
       </c>
-      <c r="T21" s="27"/>
+      <c r="T21" s="27" t="s">
+        <v>1436</v>
+      </c>
       <c r="U21" s="27"/>
       <c r="V21" s="27"/>
       <c r="W21" s="27">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="X21" s="27" t="s">
-        <v>878</v>
+        <v>1400</v>
       </c>
       <c r="Y21" s="70"/>
     </row>
-    <row r="22" spans="1:25" ht="27">
-      <c r="A22" s="76">
-        <v>55400003</v>
-      </c>
-      <c r="B22" s="76" t="s">
-        <v>1451</v>
+    <row r="22" spans="1:25" ht="60">
+      <c r="A22" s="75">
+        <v>55300007</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>1409</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>1472</v>
+        <v>85</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="66"/>
       <c r="G22" s="82"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
+      <c r="H22" s="69" t="s">
+        <v>1397</v>
+      </c>
+      <c r="I22" s="69" t="s">
+        <v>1398</v>
+      </c>
       <c r="J22" s="28"/>
       <c r="K22" s="29"/>
       <c r="L22" s="34"/>
       <c r="M22" s="17"/>
-      <c r="N22" s="21" t="s">
-        <v>1453</v>
-      </c>
-      <c r="O22" s="59">
-        <v>2</v>
-      </c>
+      <c r="N22" s="21"/>
+      <c r="O22" s="59"/>
       <c r="P22" s="68" t="s">
         <v>659</v>
       </c>
@@ -11674,33 +11758,31 @@
         <v>654</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>1456</v>
+        <v>1406</v>
       </c>
       <c r="S22" s="27">
         <v>0</v>
       </c>
-      <c r="T22" s="27" t="s">
-        <v>881</v>
-      </c>
+      <c r="T22" s="27"/>
       <c r="U22" s="27"/>
       <c r="V22" s="27"/>
       <c r="W22" s="27">
-        <v>80</v>
-      </c>
-      <c r="X22" s="72" t="s">
-        <v>1450</v>
+        <v>25</v>
+      </c>
+      <c r="X22" s="27" t="s">
+        <v>270</v>
       </c>
       <c r="Y22" s="70"/>
     </row>
-    <row r="23" spans="1:25" ht="27">
-      <c r="A23" s="76">
-        <v>55400004</v>
-      </c>
-      <c r="B23" s="76" t="s">
-        <v>1459</v>
+    <row r="23" spans="1:25" ht="24">
+      <c r="A23" s="75">
+        <v>55310001</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>417</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>1472</v>
+        <v>0</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -11713,10 +11795,10 @@
       <c r="L23" s="34"/>
       <c r="M23" s="17"/>
       <c r="N23" s="21" t="s">
-        <v>1454</v>
+        <v>1371</v>
       </c>
       <c r="O23" s="59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P23" s="68" t="s">
         <v>659</v>
@@ -11725,30 +11807,28 @@
         <v>654</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>1457</v>
+        <v>1372</v>
       </c>
       <c r="S23" s="27">
         <v>0</v>
       </c>
-      <c r="T23" s="27" t="s">
-        <v>1461</v>
-      </c>
+      <c r="T23" s="27"/>
       <c r="U23" s="27"/>
       <c r="V23" s="27"/>
       <c r="W23" s="27">
-        <v>80</v>
-      </c>
-      <c r="X23" s="72" t="s">
-        <v>1460</v>
+        <v>100</v>
+      </c>
+      <c r="X23" s="27" t="s">
+        <v>418</v>
       </c>
       <c r="Y23" s="70"/>
     </row>
     <row r="24" spans="1:25" ht="27">
       <c r="A24" s="76">
-        <v>55400005</v>
+        <v>55400001</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>1469</v>
+        <v>1292</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>1472</v>
@@ -11764,10 +11844,10 @@
       <c r="L24" s="34"/>
       <c r="M24" s="17"/>
       <c r="N24" s="21" t="s">
-        <v>1471</v>
+        <v>1452</v>
       </c>
       <c r="O24" s="59">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P24" s="68" t="s">
         <v>659</v>
@@ -11776,7 +11856,7 @@
         <v>654</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>1473</v>
+        <v>1455</v>
       </c>
       <c r="S24" s="27">
         <v>0</v>
@@ -11787,39 +11867,43 @@
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
       <c r="W24" s="27">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="X24" s="72" t="s">
-        <v>879</v>
+        <v>1304</v>
       </c>
       <c r="Y24" s="70"/>
     </row>
-    <row r="25" spans="1:25" ht="27">
+    <row r="25" spans="1:25" ht="24">
       <c r="A25" s="76">
-        <v>55400006</v>
+        <v>55400002</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>1474</v>
+        <v>880</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>1472</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="66"/>
+      <c r="D25" s="27" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E25" s="27">
+        <v>10</v>
+      </c>
+      <c r="F25" s="66" t="s">
+        <v>1361</v>
+      </c>
       <c r="G25" s="82"/>
-      <c r="H25" s="69"/>
+      <c r="H25" s="69" t="s">
+        <v>1376</v>
+      </c>
       <c r="I25" s="69"/>
       <c r="J25" s="28"/>
       <c r="K25" s="29"/>
       <c r="L25" s="34"/>
       <c r="M25" s="17"/>
-      <c r="N25" s="21" t="s">
-        <v>1476</v>
-      </c>
-      <c r="O25" s="59">
-        <v>2</v>
-      </c>
+      <c r="N25" s="21"/>
+      <c r="O25" s="59"/>
       <c r="P25" s="68" t="s">
         <v>659</v>
       </c>
@@ -11827,33 +11911,31 @@
         <v>654</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>1477</v>
+        <v>1470</v>
       </c>
       <c r="S25" s="27">
         <v>0</v>
       </c>
-      <c r="T25" s="27" t="s">
-        <v>881</v>
-      </c>
+      <c r="T25" s="27"/>
       <c r="U25" s="27"/>
       <c r="V25" s="27"/>
       <c r="W25" s="27">
-        <v>30</v>
-      </c>
-      <c r="X25" s="72" t="s">
-        <v>1475</v>
+        <v>80</v>
+      </c>
+      <c r="X25" s="27" t="s">
+        <v>878</v>
       </c>
       <c r="Y25" s="70"/>
     </row>
-    <row r="26" spans="1:25" ht="36">
-      <c r="A26" s="78">
-        <v>55500001</v>
-      </c>
-      <c r="B26" s="78" t="s">
-        <v>17</v>
+    <row r="26" spans="1:25" ht="27">
+      <c r="A26" s="76">
+        <v>55400003</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>1451</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>6</v>
+        <v>1472</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -11861,16 +11943,16 @@
       <c r="G26" s="82"/>
       <c r="H26" s="69"/>
       <c r="I26" s="69"/>
-      <c r="J26" s="28" t="s">
-        <v>1422</v>
-      </c>
+      <c r="J26" s="28"/>
       <c r="K26" s="29"/>
-      <c r="L26" s="34" t="s">
-        <v>1412</v>
-      </c>
+      <c r="L26" s="34"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="59"/>
+      <c r="N26" s="21" t="s">
+        <v>1453</v>
+      </c>
+      <c r="O26" s="59">
+        <v>2</v>
+      </c>
       <c r="P26" s="68" t="s">
         <v>659</v>
       </c>
@@ -11878,31 +11960,33 @@
         <v>654</v>
       </c>
       <c r="R26" s="16" t="s">
-        <v>1413</v>
+        <v>1456</v>
       </c>
       <c r="S26" s="27">
         <v>0</v>
       </c>
-      <c r="T26" s="27"/>
+      <c r="T26" s="27" t="s">
+        <v>881</v>
+      </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
       <c r="W26" s="27">
-        <v>5</v>
-      </c>
-      <c r="X26" s="27" t="s">
-        <v>18</v>
+        <v>80</v>
+      </c>
+      <c r="X26" s="72" t="s">
+        <v>1450</v>
       </c>
       <c r="Y26" s="70"/>
     </row>
-    <row r="27" spans="1:25" ht="36">
-      <c r="A27" s="78">
-        <v>55500002</v>
-      </c>
-      <c r="B27" s="78" t="s">
-        <v>21</v>
+    <row r="27" spans="1:25" ht="27">
+      <c r="A27" s="76">
+        <v>55400004</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>1459</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>6</v>
+        <v>1472</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
@@ -11910,16 +11994,16 @@
       <c r="G27" s="82"/>
       <c r="H27" s="69"/>
       <c r="I27" s="69"/>
-      <c r="J27" s="28" t="s">
-        <v>1423</v>
-      </c>
+      <c r="J27" s="28"/>
       <c r="K27" s="29"/>
-      <c r="L27" s="34" t="s">
-        <v>1416</v>
-      </c>
+      <c r="L27" s="34"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="59"/>
+      <c r="N27" s="21" t="s">
+        <v>1454</v>
+      </c>
+      <c r="O27" s="59">
+        <v>3</v>
+      </c>
       <c r="P27" s="68" t="s">
         <v>659</v>
       </c>
@@ -11927,31 +12011,33 @@
         <v>654</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>1417</v>
+        <v>1457</v>
       </c>
       <c r="S27" s="27">
         <v>0</v>
       </c>
-      <c r="T27" s="27"/>
+      <c r="T27" s="27" t="s">
+        <v>1461</v>
+      </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
       <c r="W27" s="27">
-        <v>5</v>
-      </c>
-      <c r="X27" s="27" t="s">
-        <v>22</v>
+        <v>80</v>
+      </c>
+      <c r="X27" s="72" t="s">
+        <v>1460</v>
       </c>
       <c r="Y27" s="70"/>
     </row>
-    <row r="28" spans="1:25" ht="36">
-      <c r="A28" s="78">
-        <v>55500003</v>
-      </c>
-      <c r="B28" s="78" t="s">
-        <v>1421</v>
+    <row r="28" spans="1:25" ht="27">
+      <c r="A28" s="76">
+        <v>55400005</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>1469</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>6</v>
+        <v>1472</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -11959,16 +12045,16 @@
       <c r="G28" s="82"/>
       <c r="H28" s="69"/>
       <c r="I28" s="69"/>
-      <c r="J28" s="28" t="s">
-        <v>683</v>
-      </c>
+      <c r="J28" s="28"/>
       <c r="K28" s="29"/>
-      <c r="L28" s="34" t="s">
-        <v>699</v>
-      </c>
+      <c r="L28" s="34"/>
       <c r="M28" s="17"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="59"/>
+      <c r="N28" s="21" t="s">
+        <v>1471</v>
+      </c>
+      <c r="O28" s="59">
+        <v>2.5</v>
+      </c>
       <c r="P28" s="68" t="s">
         <v>659</v>
       </c>
@@ -11976,48 +12062,50 @@
         <v>654</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>670</v>
+        <v>1473</v>
       </c>
       <c r="S28" s="27">
         <v>0</v>
       </c>
-      <c r="T28" s="27"/>
+      <c r="T28" s="27" t="s">
+        <v>881</v>
+      </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
       <c r="W28" s="27">
-        <v>5</v>
-      </c>
-      <c r="X28" s="27" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="X28" s="72" t="s">
+        <v>879</v>
       </c>
       <c r="Y28" s="70"/>
     </row>
-    <row r="29" spans="1:25" ht="36">
-      <c r="A29" s="78">
-        <v>55500004</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>362</v>
+    <row r="29" spans="1:25" ht="27">
+      <c r="A29" s="76">
+        <v>55400006</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>1474</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>6</v>
+        <v>1472</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="66"/>
       <c r="G29" s="82"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="28" t="s">
-        <v>696</v>
-      </c>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="28"/>
       <c r="K29" s="29"/>
-      <c r="L29" s="34" t="s">
-        <v>699</v>
-      </c>
+      <c r="L29" s="34"/>
       <c r="M29" s="17"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="59"/>
+      <c r="N29" s="21" t="s">
+        <v>1476</v>
+      </c>
+      <c r="O29" s="59">
+        <v>2</v>
+      </c>
       <c r="P29" s="68" t="s">
         <v>659</v>
       </c>
@@ -12025,28 +12113,30 @@
         <v>654</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>678</v>
+        <v>1477</v>
       </c>
       <c r="S29" s="27">
         <v>0</v>
       </c>
-      <c r="T29" s="27"/>
+      <c r="T29" s="27" t="s">
+        <v>881</v>
+      </c>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
       <c r="W29" s="27">
-        <v>5</v>
-      </c>
-      <c r="X29" s="27" t="s">
-        <v>363</v>
+        <v>30</v>
+      </c>
+      <c r="X29" s="72" t="s">
+        <v>1475</v>
       </c>
       <c r="Y29" s="70"/>
     </row>
     <row r="30" spans="1:25" ht="36">
       <c r="A30" s="78">
-        <v>55500005</v>
+        <v>55500001</v>
       </c>
       <c r="B30" s="78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>6</v>
@@ -12055,14 +12145,14 @@
       <c r="E30" s="27"/>
       <c r="F30" s="66"/>
       <c r="G30" s="82"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
       <c r="J30" s="28" t="s">
-        <v>686</v>
+        <v>1422</v>
       </c>
       <c r="K30" s="29"/>
       <c r="L30" s="34" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="M30" s="17"/>
       <c r="N30" s="21"/>
@@ -12074,9 +12164,9 @@
         <v>654</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>1414</v>
-      </c>
-      <c r="S30" s="52">
+        <v>1413</v>
+      </c>
+      <c r="S30" s="27">
         <v>0</v>
       </c>
       <c r="T30" s="27"/>
@@ -12086,16 +12176,16 @@
         <v>5</v>
       </c>
       <c r="X30" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y30" s="54"/>
+        <v>18</v>
+      </c>
+      <c r="Y30" s="70"/>
     </row>
     <row r="31" spans="1:25" ht="36">
       <c r="A31" s="78">
-        <v>55500006</v>
+        <v>55500002</v>
       </c>
       <c r="B31" s="78" t="s">
-        <v>1426</v>
+        <v>21</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>6</v>
@@ -12104,14 +12194,14 @@
       <c r="E31" s="27"/>
       <c r="F31" s="66"/>
       <c r="G31" s="82"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
       <c r="J31" s="28" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="K31" s="29"/>
       <c r="L31" s="34" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="M31" s="17"/>
       <c r="N31" s="21"/>
@@ -12123,9 +12213,9 @@
         <v>654</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>1425</v>
-      </c>
-      <c r="S31" s="52">
+        <v>1417</v>
+      </c>
+      <c r="S31" s="27">
         <v>0</v>
       </c>
       <c r="T31" s="27"/>
@@ -12135,16 +12225,16 @@
         <v>5</v>
       </c>
       <c r="X31" s="27" t="s">
-        <v>1427</v>
-      </c>
-      <c r="Y31" s="54"/>
+        <v>22</v>
+      </c>
+      <c r="Y31" s="70"/>
     </row>
     <row r="32" spans="1:25" ht="36">
       <c r="A32" s="78">
-        <v>55500007</v>
+        <v>55500003</v>
       </c>
       <c r="B32" s="78" t="s">
-        <v>457</v>
+        <v>1421</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>6</v>
@@ -12153,14 +12243,14 @@
       <c r="E32" s="27"/>
       <c r="F32" s="66"/>
       <c r="G32" s="82"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
       <c r="J32" s="28" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="K32" s="29"/>
       <c r="L32" s="34" t="s">
-        <v>1418</v>
+        <v>699</v>
       </c>
       <c r="M32" s="17"/>
       <c r="N32" s="21"/>
@@ -12172,9 +12262,9 @@
         <v>654</v>
       </c>
       <c r="R32" s="16" t="s">
-        <v>1419</v>
-      </c>
-      <c r="S32" s="52">
+        <v>670</v>
+      </c>
+      <c r="S32" s="27">
         <v>0</v>
       </c>
       <c r="T32" s="27"/>
@@ -12184,16 +12274,16 @@
         <v>5</v>
       </c>
       <c r="X32" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="Y32" s="54"/>
+        <v>13</v>
+      </c>
+      <c r="Y32" s="70"/>
     </row>
     <row r="33" spans="1:25" ht="36">
       <c r="A33" s="78">
-        <v>55500008</v>
+        <v>55500004</v>
       </c>
       <c r="B33" s="78" t="s">
-        <v>7</v>
+        <v>362</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>6</v>
@@ -12205,7 +12295,7 @@
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
       <c r="J33" s="28" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="K33" s="29"/>
       <c r="L33" s="34" t="s">
@@ -12221,9 +12311,9 @@
         <v>654</v>
       </c>
       <c r="R33" s="16" t="s">
-        <v>668</v>
-      </c>
-      <c r="S33" s="52">
+        <v>678</v>
+      </c>
+      <c r="S33" s="27">
         <v>0</v>
       </c>
       <c r="T33" s="27"/>
@@ -12233,16 +12323,16 @@
         <v>5</v>
       </c>
       <c r="X33" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y33" s="54"/>
+        <v>363</v>
+      </c>
+      <c r="Y33" s="70"/>
     </row>
     <row r="34" spans="1:25" ht="36">
       <c r="A34" s="78">
-        <v>55500009</v>
+        <v>55500005</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>6</v>
@@ -12254,11 +12344,11 @@
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
       <c r="J34" s="28" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="K34" s="29"/>
       <c r="L34" s="34" t="s">
-        <v>699</v>
+        <v>1415</v>
       </c>
       <c r="M34" s="17"/>
       <c r="N34" s="21"/>
@@ -12270,7 +12360,7 @@
         <v>654</v>
       </c>
       <c r="R34" s="16" t="s">
-        <v>669</v>
+        <v>1414</v>
       </c>
       <c r="S34" s="52">
         <v>0</v>
@@ -12282,16 +12372,16 @@
         <v>5</v>
       </c>
       <c r="X34" s="27" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Y34" s="54"/>
     </row>
     <row r="35" spans="1:25" ht="36">
       <c r="A35" s="78">
-        <v>55500010</v>
+        <v>55500006</v>
       </c>
       <c r="B35" s="78" t="s">
-        <v>1420</v>
+        <v>1426</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>6</v>
@@ -12303,11 +12393,11 @@
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
       <c r="J35" s="28" t="s">
-        <v>685</v>
+        <v>1424</v>
       </c>
       <c r="K35" s="29"/>
       <c r="L35" s="34" t="s">
-        <v>699</v>
+        <v>1415</v>
       </c>
       <c r="M35" s="17"/>
       <c r="N35" s="21"/>
@@ -12319,7 +12409,7 @@
         <v>654</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>672</v>
+        <v>1425</v>
       </c>
       <c r="S35" s="52">
         <v>0</v>
@@ -12331,16 +12421,16 @@
         <v>5</v>
       </c>
       <c r="X35" s="27" t="s">
-        <v>16</v>
+        <v>1427</v>
       </c>
       <c r="Y35" s="54"/>
     </row>
     <row r="36" spans="1:25" ht="36">
       <c r="A36" s="78">
-        <v>55500011</v>
+        <v>55500007</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>9</v>
+        <v>457</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>6</v>
@@ -12352,11 +12442,11 @@
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
       <c r="J36" s="28" t="s">
-        <v>680</v>
+        <v>703</v>
       </c>
       <c r="K36" s="29"/>
       <c r="L36" s="34" t="s">
-        <v>1410</v>
+        <v>1418</v>
       </c>
       <c r="M36" s="17"/>
       <c r="N36" s="21"/>
@@ -12368,7 +12458,7 @@
         <v>654</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>1411</v>
+        <v>1419</v>
       </c>
       <c r="S36" s="52">
         <v>0</v>
@@ -12380,16 +12470,16 @@
         <v>5</v>
       </c>
       <c r="X36" s="27" t="s">
-        <v>10</v>
+        <v>458</v>
       </c>
       <c r="Y36" s="54"/>
     </row>
     <row r="37" spans="1:25" ht="36">
       <c r="A37" s="78">
-        <v>55500012</v>
+        <v>55500008</v>
       </c>
       <c r="B37" s="78" t="s">
-        <v>209</v>
+        <v>7</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>6</v>
@@ -12401,7 +12491,7 @@
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
       <c r="J37" s="28" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="34" t="s">
@@ -12417,7 +12507,7 @@
         <v>654</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="S37" s="52">
         <v>0</v>
@@ -12429,16 +12519,16 @@
         <v>5</v>
       </c>
       <c r="X37" s="27" t="s">
-        <v>210</v>
+        <v>8</v>
       </c>
       <c r="Y37" s="54"/>
     </row>
     <row r="38" spans="1:25" ht="36">
       <c r="A38" s="78">
-        <v>55500013</v>
+        <v>55500009</v>
       </c>
       <c r="B38" s="78" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>6</v>
@@ -12447,10 +12537,10 @@
       <c r="E38" s="27"/>
       <c r="F38" s="66"/>
       <c r="G38" s="82"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="28" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K38" s="29"/>
       <c r="L38" s="34" t="s">
@@ -12466,7 +12556,7 @@
         <v>654</v>
       </c>
       <c r="R38" s="16" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="S38" s="52">
         <v>0</v>
@@ -12478,16 +12568,16 @@
         <v>5</v>
       </c>
       <c r="X38" s="27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y38" s="54"/>
     </row>
     <row r="39" spans="1:25" ht="36">
       <c r="A39" s="78">
-        <v>55500014</v>
+        <v>55500010</v>
       </c>
       <c r="B39" s="78" t="s">
-        <v>172</v>
+        <v>1420</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>6</v>
@@ -12496,10 +12586,10 @@
       <c r="E39" s="27"/>
       <c r="F39" s="66"/>
       <c r="G39" s="82"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
       <c r="J39" s="28" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="K39" s="29"/>
       <c r="L39" s="34" t="s">
@@ -12515,9 +12605,9 @@
         <v>654</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>673</v>
-      </c>
-      <c r="S39" s="27">
+        <v>672</v>
+      </c>
+      <c r="S39" s="52">
         <v>0</v>
       </c>
       <c r="T39" s="27"/>
@@ -12527,16 +12617,16 @@
         <v>5</v>
       </c>
       <c r="X39" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y39" s="70"/>
+        <v>16</v>
+      </c>
+      <c r="Y39" s="54"/>
     </row>
     <row r="40" spans="1:25" ht="36">
       <c r="A40" s="78">
-        <v>55500015</v>
+        <v>55500011</v>
       </c>
       <c r="B40" s="78" t="s">
-        <v>1433</v>
+        <v>9</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>6</v>
@@ -12545,14 +12635,14 @@
       <c r="E40" s="27"/>
       <c r="F40" s="66"/>
       <c r="G40" s="82"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
       <c r="J40" s="28" t="s">
-        <v>1428</v>
+        <v>680</v>
       </c>
       <c r="K40" s="29"/>
       <c r="L40" s="34" t="s">
-        <v>699</v>
+        <v>1410</v>
       </c>
       <c r="M40" s="17"/>
       <c r="N40" s="21"/>
@@ -12564,9 +12654,9 @@
         <v>654</v>
       </c>
       <c r="R40" s="16" t="s">
-        <v>1430</v>
-      </c>
-      <c r="S40" s="27">
+        <v>1411</v>
+      </c>
+      <c r="S40" s="52">
         <v>0</v>
       </c>
       <c r="T40" s="27"/>
@@ -12576,16 +12666,16 @@
         <v>5</v>
       </c>
       <c r="X40" s="27" t="s">
-        <v>1432</v>
-      </c>
-      <c r="Y40" s="70"/>
+        <v>10</v>
+      </c>
+      <c r="Y40" s="54"/>
     </row>
     <row r="41" spans="1:25" ht="36">
       <c r="A41" s="78">
-        <v>55500016</v>
+        <v>55500012</v>
       </c>
       <c r="B41" s="78" t="s">
-        <v>1435</v>
+        <v>209</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>6</v>
@@ -12594,10 +12684,10 @@
       <c r="E41" s="27"/>
       <c r="F41" s="66"/>
       <c r="G41" s="82"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
       <c r="J41" s="28" t="s">
-        <v>1429</v>
+        <v>694</v>
       </c>
       <c r="K41" s="29"/>
       <c r="L41" s="34" t="s">
@@ -12613,9 +12703,9 @@
         <v>654</v>
       </c>
       <c r="R41" s="16" t="s">
-        <v>1431</v>
-      </c>
-      <c r="S41" s="27">
+        <v>674</v>
+      </c>
+      <c r="S41" s="52">
         <v>0</v>
       </c>
       <c r="T41" s="27"/>
@@ -12625,86 +12715,82 @@
         <v>5</v>
       </c>
       <c r="X41" s="27" t="s">
-        <v>1434</v>
-      </c>
-      <c r="Y41" s="70"/>
-    </row>
-    <row r="42" spans="1:25" ht="48">
-      <c r="A42" s="79">
-        <v>55600016</v>
-      </c>
-      <c r="B42" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="32" t="s">
-        <v>1458</v>
-      </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="17"/>
+        <v>210</v>
+      </c>
+      <c r="Y41" s="54"/>
+    </row>
+    <row r="42" spans="1:25" ht="36">
+      <c r="A42" s="78">
+        <v>55500013</v>
+      </c>
+      <c r="B42" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="K42" s="29"/>
+      <c r="L42" s="34" t="s">
+        <v>699</v>
+      </c>
       <c r="M42" s="17"/>
       <c r="N42" s="21"/>
       <c r="O42" s="59"/>
-      <c r="P42" s="1" t="s">
+      <c r="P42" s="68" t="s">
         <v>659</v>
       </c>
-      <c r="Q42" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="S42" s="10">
-        <v>56000101</v>
-      </c>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="W42" s="1">
-        <v>10</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y42" s="52"/>
-    </row>
-    <row r="43" spans="1:25" ht="156">
-      <c r="A43" s="77">
-        <v>55900001</v>
-      </c>
-      <c r="B43" s="77" t="s">
-        <v>168</v>
+      <c r="Q42" s="66" t="s">
+        <v>654</v>
+      </c>
+      <c r="R42" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="S42" s="52">
+        <v>0</v>
+      </c>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27">
+        <v>5</v>
+      </c>
+      <c r="X42" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y42" s="54"/>
+    </row>
+    <row r="43" spans="1:25" ht="36">
+      <c r="A43" s="78">
+        <v>55500014</v>
+      </c>
+      <c r="B43" s="78" t="s">
+        <v>172</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>946</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E43" s="27">
-        <v>40</v>
-      </c>
-      <c r="F43" s="66" t="s">
-        <v>1361</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="82"/>
-      <c r="H43" s="69" t="s">
-        <v>1442</v>
-      </c>
+      <c r="H43" s="69"/>
       <c r="I43" s="69"/>
-      <c r="J43" s="28"/>
+      <c r="J43" s="28" t="s">
+        <v>693</v>
+      </c>
       <c r="K43" s="29"/>
-      <c r="L43" s="34"/>
+      <c r="L43" s="34" t="s">
+        <v>699</v>
+      </c>
       <c r="M43" s="17"/>
       <c r="N43" s="21"/>
       <c r="O43" s="59"/>
@@ -12715,55 +12801,45 @@
         <v>654</v>
       </c>
       <c r="R43" s="16" t="s">
-        <v>1305</v>
+        <v>673</v>
       </c>
       <c r="S43" s="27">
         <v>0</v>
       </c>
-      <c r="T43" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="U43" s="27" t="s">
-        <v>448</v>
-      </c>
-      <c r="V43" s="27" t="s">
-        <v>944</v>
-      </c>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
       <c r="W43" s="27">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="X43" s="27" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Y43" s="70"/>
     </row>
-    <row r="44" spans="1:25" ht="132">
-      <c r="A44" s="77">
-        <v>55900002</v>
-      </c>
-      <c r="B44" s="77" t="s">
-        <v>236</v>
+    <row r="44" spans="1:25" ht="36">
+      <c r="A44" s="78">
+        <v>55500015</v>
+      </c>
+      <c r="B44" s="78" t="s">
+        <v>1433</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E44" s="27">
-        <v>20</v>
-      </c>
-      <c r="F44" s="66" t="s">
-        <v>1361</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="66"/>
       <c r="G44" s="82"/>
-      <c r="H44" s="69" t="s">
-        <v>1382</v>
-      </c>
+      <c r="H44" s="69"/>
       <c r="I44" s="69"/>
-      <c r="J44" s="28"/>
+      <c r="J44" s="28" t="s">
+        <v>1428</v>
+      </c>
       <c r="K44" s="29"/>
-      <c r="L44" s="34"/>
+      <c r="L44" s="34" t="s">
+        <v>699</v>
+      </c>
       <c r="M44" s="17"/>
       <c r="N44" s="21"/>
       <c r="O44" s="59"/>
@@ -12774,7 +12850,7 @@
         <v>654</v>
       </c>
       <c r="R44" s="16" t="s">
-        <v>1383</v>
+        <v>1430</v>
       </c>
       <c r="S44" s="27">
         <v>0</v>
@@ -12783,36 +12859,36 @@
       <c r="U44" s="27"/>
       <c r="V44" s="27"/>
       <c r="W44" s="27">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="X44" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y44" s="70" t="s">
-        <v>1384</v>
-      </c>
+        <v>1432</v>
+      </c>
+      <c r="Y44" s="70"/>
     </row>
     <row r="45" spans="1:25" ht="36">
-      <c r="A45" s="77">
-        <v>55900003</v>
-      </c>
-      <c r="B45" s="77" t="s">
-        <v>1377</v>
+      <c r="A45" s="78">
+        <v>55500016</v>
+      </c>
+      <c r="B45" s="78" t="s">
+        <v>1435</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="66"/>
       <c r="G45" s="82"/>
-      <c r="H45" s="69" t="s">
-        <v>1379</v>
-      </c>
+      <c r="H45" s="69"/>
       <c r="I45" s="69"/>
-      <c r="J45" s="28"/>
+      <c r="J45" s="28" t="s">
+        <v>1429</v>
+      </c>
       <c r="K45" s="29"/>
-      <c r="L45" s="34"/>
+      <c r="L45" s="34" t="s">
+        <v>699</v>
+      </c>
       <c r="M45" s="17"/>
       <c r="N45" s="21"/>
       <c r="O45" s="59"/>
@@ -12823,7 +12899,7 @@
         <v>654</v>
       </c>
       <c r="R45" s="16" t="s">
-        <v>1380</v>
+        <v>1431</v>
       </c>
       <c r="S45" s="27">
         <v>0</v>
@@ -12832,12 +12908,222 @@
       <c r="U45" s="27"/>
       <c r="V45" s="27"/>
       <c r="W45" s="27">
+        <v>5</v>
+      </c>
+      <c r="X45" s="27" t="s">
+        <v>1434</v>
+      </c>
+      <c r="Y45" s="70"/>
+    </row>
+    <row r="46" spans="1:25" ht="48">
+      <c r="A46" s="79">
+        <v>55600016</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="32" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I46" s="32"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S46" s="10">
+        <v>56000101</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="W46" s="1">
+        <v>10</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y46" s="52"/>
+    </row>
+    <row r="47" spans="1:25" ht="156">
+      <c r="A47" s="77">
+        <v>55900001</v>
+      </c>
+      <c r="B47" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>946</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E47" s="27">
+        <v>40</v>
+      </c>
+      <c r="F47" s="66" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G47" s="82"/>
+      <c r="H47" s="69" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I47" s="69"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="68" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q47" s="66" t="s">
+        <v>654</v>
+      </c>
+      <c r="R47" s="16" t="s">
+        <v>1305</v>
+      </c>
+      <c r="S47" s="27">
+        <v>0</v>
+      </c>
+      <c r="T47" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="U47" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="V47" s="27" t="s">
+        <v>944</v>
+      </c>
+      <c r="W47" s="27">
+        <v>35</v>
+      </c>
+      <c r="X47" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y47" s="70"/>
+    </row>
+    <row r="48" spans="1:25" ht="132">
+      <c r="A48" s="77">
+        <v>55900002</v>
+      </c>
+      <c r="B48" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E48" s="27">
+        <v>20</v>
+      </c>
+      <c r="F48" s="66" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G48" s="82"/>
+      <c r="H48" s="69" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I48" s="69"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="68" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q48" s="66" t="s">
+        <v>654</v>
+      </c>
+      <c r="R48" s="16" t="s">
+        <v>1383</v>
+      </c>
+      <c r="S48" s="27">
+        <v>0</v>
+      </c>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27">
+        <v>30</v>
+      </c>
+      <c r="X48" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y48" s="70" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="36">
+      <c r="A49" s="77">
+        <v>55900003</v>
+      </c>
+      <c r="B49" s="77" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="69" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I49" s="69"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="68" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q49" s="66" t="s">
+        <v>654</v>
+      </c>
+      <c r="R49" s="16" t="s">
+        <v>1380</v>
+      </c>
+      <c r="S49" s="27">
+        <v>0</v>
+      </c>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27">
         <v>80</v>
       </c>
-      <c r="X45" s="27" t="s">
+      <c r="X49" s="27" t="s">
         <v>1378</v>
       </c>
-      <c r="Y45" s="70"/>
+      <c r="Y49" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="7" r:id="rId1"/>
@@ -10604,33 +10604,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="22.21875" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" customWidth="1"/>
-    <col min="19" max="19" width="8.77734375" customWidth="1"/>
-    <col min="20" max="22" width="7.6640625" customWidth="1"/>
-    <col min="23" max="23" width="7.109375" customWidth="1"/>
+    <col min="3" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="22.25" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="8.5" customWidth="1"/>
+    <col min="16" max="16" width="7.375" customWidth="1"/>
+    <col min="17" max="17" width="6.375" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
+    <col min="19" max="19" width="8.75" customWidth="1"/>
+    <col min="20" max="22" width="7.625" customWidth="1"/>
+    <col min="23" max="23" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.8">
+    <row r="1" spans="1:25" ht="55.5">
       <c r="A1" s="6" t="s">
         <v>647</v>
       </c>
@@ -10910,7 +10910,7 @@
       </c>
       <c r="Y4" s="54"/>
     </row>
-    <row r="5" spans="1:25" ht="48">
+    <row r="5" spans="1:25" ht="36">
       <c r="A5" s="73">
         <v>55100002</v>
       </c>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="Y5" s="52"/>
     </row>
-    <row r="6" spans="1:25" ht="48">
+    <row r="6" spans="1:25" ht="36">
       <c r="A6" s="73">
         <v>55100003</v>
       </c>
@@ -11012,7 +11012,7 @@
       </c>
       <c r="Y6" s="52"/>
     </row>
-    <row r="7" spans="1:25" ht="36">
+    <row r="7" spans="1:25" ht="24">
       <c r="A7" s="73">
         <v>55100004</v>
       </c>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="Y9" s="92"/>
     </row>
-    <row r="10" spans="1:25" ht="72">
+    <row r="10" spans="1:25" ht="60">
       <c r="A10" s="73">
         <v>55100007</v>
       </c>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="Y13" s="52"/>
     </row>
-    <row r="14" spans="1:25" ht="132">
+    <row r="14" spans="1:25" ht="120">
       <c r="A14" s="12">
         <v>55200001</v>
       </c>
@@ -11408,7 +11408,7 @@
       </c>
       <c r="Y14" s="70"/>
     </row>
-    <row r="15" spans="1:25" ht="168">
+    <row r="15" spans="1:25" ht="144">
       <c r="A15" s="12">
         <v>55200002</v>
       </c>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="Y15" s="70"/>
     </row>
-    <row r="16" spans="1:25" ht="60">
+    <row r="16" spans="1:25" ht="48">
       <c r="A16" s="75">
         <v>55300001</v>
       </c>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="Y23" s="70"/>
     </row>
-    <row r="24" spans="1:25" ht="28.8">
+    <row r="24" spans="1:25" ht="27">
       <c r="A24" s="76">
         <v>55400001</v>
       </c>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="Y24" s="70"/>
     </row>
-    <row r="25" spans="1:25" ht="28.8">
+    <row r="25" spans="1:25" ht="24">
       <c r="A25" s="76">
         <v>55400002</v>
       </c>
@@ -11961,7 +11961,7 @@
       </c>
       <c r="Y25" s="70"/>
     </row>
-    <row r="26" spans="1:25" ht="28.8">
+    <row r="26" spans="1:25" ht="27">
       <c r="A26" s="76">
         <v>55400003</v>
       </c>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="Y26" s="70"/>
     </row>
-    <row r="27" spans="1:25" ht="28.8">
+    <row r="27" spans="1:25" ht="27">
       <c r="A27" s="76">
         <v>55400004</v>
       </c>
@@ -12063,7 +12063,7 @@
       </c>
       <c r="Y27" s="70"/>
     </row>
-    <row r="28" spans="1:25" ht="28.8">
+    <row r="28" spans="1:25" ht="27">
       <c r="A28" s="76">
         <v>55400005</v>
       </c>
@@ -12114,7 +12114,7 @@
       </c>
       <c r="Y28" s="70"/>
     </row>
-    <row r="29" spans="1:25" ht="28.8">
+    <row r="29" spans="1:25" ht="27">
       <c r="A29" s="76">
         <v>55400006</v>
       </c>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="Y29" s="70"/>
     </row>
-    <row r="30" spans="1:25" ht="48">
+    <row r="30" spans="1:25" ht="36">
       <c r="A30" s="78">
         <v>55500001</v>
       </c>
@@ -12214,7 +12214,7 @@
       </c>
       <c r="Y30" s="70"/>
     </row>
-    <row r="31" spans="1:25" ht="48">
+    <row r="31" spans="1:25" ht="36">
       <c r="A31" s="78">
         <v>55500002</v>
       </c>
@@ -12263,7 +12263,7 @@
       </c>
       <c r="Y31" s="70"/>
     </row>
-    <row r="32" spans="1:25" ht="48">
+    <row r="32" spans="1:25" ht="36">
       <c r="A32" s="78">
         <v>55500003</v>
       </c>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="Y32" s="70"/>
     </row>
-    <row r="33" spans="1:25" ht="48">
+    <row r="33" spans="1:25" ht="36">
       <c r="A33" s="78">
         <v>55500004</v>
       </c>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="Y33" s="70"/>
     </row>
-    <row r="34" spans="1:25" ht="48">
+    <row r="34" spans="1:25" ht="36">
       <c r="A34" s="78">
         <v>55500005</v>
       </c>
@@ -12410,7 +12410,7 @@
       </c>
       <c r="Y34" s="54"/>
     </row>
-    <row r="35" spans="1:25" ht="48">
+    <row r="35" spans="1:25" ht="36">
       <c r="A35" s="78">
         <v>55500006</v>
       </c>
@@ -12459,7 +12459,7 @@
       </c>
       <c r="Y35" s="54"/>
     </row>
-    <row r="36" spans="1:25" ht="48">
+    <row r="36" spans="1:25" ht="36">
       <c r="A36" s="78">
         <v>55500007</v>
       </c>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="Y36" s="54"/>
     </row>
-    <row r="37" spans="1:25" ht="48">
+    <row r="37" spans="1:25" ht="36">
       <c r="A37" s="78">
         <v>55500008</v>
       </c>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="Y37" s="54"/>
     </row>
-    <row r="38" spans="1:25" ht="48">
+    <row r="38" spans="1:25" ht="36">
       <c r="A38" s="78">
         <v>55500009</v>
       </c>
@@ -12606,7 +12606,7 @@
       </c>
       <c r="Y38" s="54"/>
     </row>
-    <row r="39" spans="1:25" ht="48">
+    <row r="39" spans="1:25" ht="36">
       <c r="A39" s="78">
         <v>55500010</v>
       </c>
@@ -12655,7 +12655,7 @@
       </c>
       <c r="Y39" s="54"/>
     </row>
-    <row r="40" spans="1:25" ht="48">
+    <row r="40" spans="1:25" ht="36">
       <c r="A40" s="78">
         <v>55500011</v>
       </c>
@@ -12704,7 +12704,7 @@
       </c>
       <c r="Y40" s="54"/>
     </row>
-    <row r="41" spans="1:25" ht="48">
+    <row r="41" spans="1:25" ht="36">
       <c r="A41" s="78">
         <v>55500012</v>
       </c>
@@ -12753,7 +12753,7 @@
       </c>
       <c r="Y41" s="54"/>
     </row>
-    <row r="42" spans="1:25" ht="48">
+    <row r="42" spans="1:25" ht="36">
       <c r="A42" s="78">
         <v>55500013</v>
       </c>
@@ -12802,7 +12802,7 @@
       </c>
       <c r="Y42" s="54"/>
     </row>
-    <row r="43" spans="1:25" ht="48">
+    <row r="43" spans="1:25" ht="36">
       <c r="A43" s="78">
         <v>55500014</v>
       </c>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="Y43" s="70"/>
     </row>
-    <row r="44" spans="1:25" ht="48">
+    <row r="44" spans="1:25" ht="36">
       <c r="A44" s="78">
         <v>55500015</v>
       </c>
@@ -12900,7 +12900,7 @@
       </c>
       <c r="Y44" s="70"/>
     </row>
-    <row r="45" spans="1:25" ht="48">
+    <row r="45" spans="1:25" ht="36">
       <c r="A45" s="78">
         <v>55500016</v>
       </c>
@@ -12998,7 +12998,7 @@
       </c>
       <c r="Y46" s="52"/>
     </row>
-    <row r="47" spans="1:25" ht="168">
+    <row r="47" spans="1:25" ht="156">
       <c r="A47" s="77">
         <v>55900001</v>
       </c>
@@ -13057,7 +13057,7 @@
       </c>
       <c r="Y47" s="70"/>
     </row>
-    <row r="48" spans="1:25" ht="144">
+    <row r="48" spans="1:25" ht="132">
       <c r="A48" s="77">
         <v>55900002</v>
       </c>
@@ -13174,34 +13174,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C242" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R243" sqref="R243"/>
+      <selection pane="bottomRight" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="7" width="7.21875" customWidth="1"/>
+    <col min="3" max="7" width="7.25" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="17.375" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" customWidth="1"/>
+    <col min="15" max="15" width="8.125" customWidth="1"/>
+    <col min="16" max="16" width="7.375" customWidth="1"/>
+    <col min="17" max="17" width="6.375" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
     <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="22" width="7.6640625" customWidth="1"/>
-    <col min="23" max="23" width="7.109375" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="7.625" customWidth="1"/>
+    <col min="23" max="23" width="7.125" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.8">
+    <row r="1" spans="1:25" ht="55.5">
       <c r="A1" s="6" t="s">
         <v>647</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="60">
+    <row r="4" spans="1:25" ht="48">
       <c r="A4">
         <v>55000002</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="28.8">
+    <row r="5" spans="1:25" ht="27">
       <c r="A5">
         <v>55000021</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="36">
+    <row r="6" spans="1:25" ht="24">
       <c r="A6">
         <v>55000029</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="48">
+    <row r="7" spans="1:25" ht="36">
       <c r="A7">
         <v>55000030</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="36">
+    <row r="8" spans="1:25" ht="24">
       <c r="A8">
         <v>55000031</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="36">
+    <row r="9" spans="1:25" ht="24">
       <c r="A9">
         <v>55000032</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="60">
+    <row r="11" spans="1:25" ht="48">
       <c r="A11">
         <v>55000034</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="36">
+    <row r="12" spans="1:25" ht="24">
       <c r="A12">
         <v>55000035</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="48">
+    <row r="13" spans="1:25" ht="36">
       <c r="A13">
         <v>55000036</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="48">
+    <row r="15" spans="1:25" ht="36">
       <c r="A15">
         <v>55000038</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="48">
+    <row r="16" spans="1:25" ht="36">
       <c r="A16">
         <v>55000039</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="48">
+    <row r="17" spans="1:25" ht="36">
       <c r="A17">
         <v>55000040</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="48">
+    <row r="18" spans="1:25" ht="36">
       <c r="A18">
         <v>55000041</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="36">
+    <row r="21" spans="1:25" ht="24">
       <c r="A21">
         <v>55000044</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="48">
+    <row r="24" spans="1:25" ht="36">
       <c r="A24">
         <v>55000047</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="48">
+    <row r="28" spans="1:25" ht="36">
       <c r="A28">
         <v>55000061</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="36">
+    <row r="29" spans="1:25" ht="24">
       <c r="A29">
         <v>55000062</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="48">
+    <row r="30" spans="1:25" ht="36">
       <c r="A30">
         <v>55000063</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="48">
+    <row r="39" spans="1:25" ht="36">
       <c r="A39">
         <v>55000073</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="144">
+    <row r="41" spans="1:25" ht="120">
       <c r="A41">
         <v>55000075</v>
       </c>
@@ -15336,7 +15336,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="36">
+    <row r="42" spans="1:25" ht="24">
       <c r="A42">
         <v>55000076</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="48">
+    <row r="43" spans="1:25" ht="36">
       <c r="A43">
         <v>55000077</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="36">
+    <row r="48" spans="1:25" ht="24">
       <c r="A48">
         <v>55000082</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="60">
+    <row r="49" spans="1:25" ht="48">
       <c r="A49">
         <v>55000083</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="48">
+    <row r="50" spans="1:25" ht="36">
       <c r="A50">
         <v>55000085</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="36">
+    <row r="51" spans="1:25" ht="24">
       <c r="A51">
         <v>55000087</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="36">
+    <row r="52" spans="1:25" ht="24">
       <c r="A52">
         <v>55000088</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="48">
+    <row r="56" spans="1:25" ht="36">
       <c r="A56">
         <v>55000092</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="36">
+    <row r="57" spans="1:25" ht="24">
       <c r="A57">
         <v>55000093</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="36">
+    <row r="58" spans="1:25" ht="24">
       <c r="A58">
         <v>55000094</v>
       </c>
@@ -16187,7 +16187,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="36">
+    <row r="59" spans="1:25" ht="24">
       <c r="A59">
         <v>55000095</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="108">
+    <row r="60" spans="1:25" ht="84">
       <c r="A60">
         <v>55000096</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="60">
+    <row r="61" spans="1:25" ht="48">
       <c r="A61">
         <v>55000097</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="120">
+    <row r="62" spans="1:25" ht="96">
       <c r="A62">
         <v>55000098</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="24">
+    <row r="65" spans="1:25">
       <c r="A65">
         <v>55000102</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="120">
+    <row r="67" spans="1:25" ht="96">
       <c r="A67">
         <v>55000105</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="72">
+    <row r="68" spans="1:25" ht="48">
       <c r="A68">
         <v>55000106</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="48">
+    <row r="69" spans="1:25" ht="36">
       <c r="A69">
         <v>55000107</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="36">
+    <row r="71" spans="1:25" ht="24">
       <c r="A71">
         <v>55000110</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="36">
+    <row r="75" spans="1:25" ht="24">
       <c r="A75">
         <v>55000114</v>
       </c>
@@ -17060,7 +17060,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="48">
+    <row r="76" spans="1:25" ht="36">
       <c r="A76">
         <v>55000115</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="72">
+    <row r="77" spans="1:25" ht="60">
       <c r="A77">
         <v>55000117</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="36">
+    <row r="80" spans="1:25" ht="24">
       <c r="A80">
         <v>55000120</v>
       </c>
@@ -17315,7 +17315,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="36">
+    <row r="81" spans="1:25" ht="24">
       <c r="A81">
         <v>55000121</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="48">
+    <row r="82" spans="1:25" ht="36">
       <c r="A82">
         <v>55000122</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="48">
+    <row r="83" spans="1:25" ht="36">
       <c r="A83">
         <v>55000123</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="60">
+    <row r="86" spans="1:25" ht="48">
       <c r="A86">
         <v>55000126</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="36">
+    <row r="89" spans="1:25" ht="24">
       <c r="A89">
         <v>55000131</v>
       </c>
@@ -17809,7 +17809,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="144">
+    <row r="91" spans="1:25" ht="120">
       <c r="A91">
         <v>55000133</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="48">
+    <row r="92" spans="1:25" ht="36">
       <c r="A92">
         <v>55000135</v>
       </c>
@@ -17915,7 +17915,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="36">
+    <row r="93" spans="1:25" ht="24">
       <c r="A93">
         <v>55000136</v>
       </c>
@@ -18613,7 +18613,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="36">
+    <row r="107" spans="1:25" ht="24">
       <c r="A107">
         <v>55000150</v>
       </c>
@@ -19064,7 +19064,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="48">
+    <row r="116" spans="1:25" ht="36">
       <c r="A116">
         <v>55000159</v>
       </c>
@@ -19115,7 +19115,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="36">
+    <row r="117" spans="1:25" ht="24">
       <c r="A117">
         <v>55000160</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="60">
+    <row r="118" spans="1:25" ht="48">
       <c r="A118">
         <v>55000161</v>
       </c>
@@ -19266,7 +19266,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="48">
+    <row r="120" spans="1:25" ht="36">
       <c r="A120">
         <v>55000163</v>
       </c>
@@ -19321,7 +19321,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="48">
+    <row r="121" spans="1:25" ht="36">
       <c r="A121">
         <v>55000164</v>
       </c>
@@ -19370,7 +19370,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="36">
+    <row r="122" spans="1:25" ht="24">
       <c r="A122">
         <v>55000165</v>
       </c>
@@ -19470,7 +19470,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="36">
+    <row r="124" spans="1:25" ht="24">
       <c r="A124">
         <v>55000167</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="84">
+    <row r="125" spans="1:25" ht="72">
       <c r="A125">
         <v>55000168</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="72">
+    <row r="126" spans="1:25" ht="60">
       <c r="A126">
         <v>55000169</v>
       </c>
@@ -19723,7 +19723,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="48">
+    <row r="129" spans="1:25" ht="36">
       <c r="A129">
         <v>55000172</v>
       </c>
@@ -19774,7 +19774,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="48">
+    <row r="130" spans="1:25" ht="36">
       <c r="A130">
         <v>55000173</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="48">
+    <row r="131" spans="1:25" ht="36">
       <c r="A131">
         <v>55000174</v>
       </c>
@@ -19982,7 +19982,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="48">
+    <row r="134" spans="1:25" ht="36">
       <c r="A134">
         <v>55000180</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="36">
+    <row r="135" spans="1:25" ht="24">
       <c r="A135">
         <v>55000181</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="36">
+    <row r="136" spans="1:25" ht="24">
       <c r="A136">
         <v>55000182</v>
       </c>
@@ -20137,7 +20137,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="96">
+    <row r="137" spans="1:25" ht="84">
       <c r="A137">
         <v>55000183</v>
       </c>
@@ -20292,7 +20292,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="48">
+    <row r="140" spans="1:25" ht="36">
       <c r="A140">
         <v>55000186</v>
       </c>
@@ -20343,7 +20343,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="60">
+    <row r="141" spans="1:25" ht="48">
       <c r="A141">
         <v>55000187</v>
       </c>
@@ -20441,7 +20441,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="48">
+    <row r="143" spans="1:25" ht="36">
       <c r="A143">
         <v>55000189</v>
       </c>
@@ -20494,7 +20494,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="48">
+    <row r="144" spans="1:25" ht="36">
       <c r="A144">
         <v>55000190</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="60">
+    <row r="145" spans="1:25" ht="48">
       <c r="A145">
         <v>55000191</v>
       </c>
@@ -20598,7 +20598,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="72">
+    <row r="146" spans="1:25" ht="60">
       <c r="A146">
         <v>55000192</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="36">
+    <row r="147" spans="1:25" ht="24">
       <c r="A147">
         <v>55000193</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="72">
+    <row r="149" spans="1:25" ht="60">
       <c r="A149">
         <v>55000195</v>
       </c>
@@ -20800,7 +20800,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="72">
+    <row r="150" spans="1:25" ht="60">
       <c r="A150">
         <v>55000196</v>
       </c>
@@ -20849,7 +20849,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="36">
+    <row r="151" spans="1:25" ht="24">
       <c r="A151">
         <v>55000197</v>
       </c>
@@ -21247,7 +21247,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="159" spans="1:25" ht="132">
+    <row r="159" spans="1:25" ht="96">
       <c r="A159">
         <v>55000206</v>
       </c>
@@ -21349,7 +21349,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="161" spans="1:25" ht="60">
+    <row r="161" spans="1:25" ht="48">
       <c r="A161">
         <v>55000210</v>
       </c>
@@ -21555,7 +21555,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="165" spans="1:25" ht="36">
+    <row r="165" spans="1:25" ht="24">
       <c r="A165">
         <v>55000214</v>
       </c>
@@ -21604,7 +21604,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="166" spans="1:25" ht="120">
+    <row r="166" spans="1:25" ht="96">
       <c r="A166">
         <v>55000215</v>
       </c>
@@ -21667,7 +21667,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="167" spans="1:25" ht="48">
+    <row r="167" spans="1:25" ht="36">
       <c r="A167">
         <v>55000216</v>
       </c>
@@ -21867,7 +21867,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="171" spans="1:25" ht="48">
+    <row r="171" spans="1:25" ht="36">
       <c r="A171">
         <v>55000220</v>
       </c>
@@ -21918,7 +21918,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="172" spans="1:25" ht="48">
+    <row r="172" spans="1:25" ht="36">
       <c r="A172">
         <v>55000222</v>
       </c>
@@ -21969,7 +21969,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="173" spans="1:25" ht="36">
+    <row r="173" spans="1:25" ht="24">
       <c r="A173">
         <v>55000227</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="175" spans="1:25" ht="36">
+    <row r="175" spans="1:25" ht="24">
       <c r="A175">
         <v>55000229</v>
       </c>
@@ -22120,7 +22120,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="176" spans="1:25" ht="36">
+    <row r="176" spans="1:25" ht="24">
       <c r="A176">
         <v>55000230</v>
       </c>
@@ -22218,7 +22218,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="60">
+    <row r="178" spans="1:25" ht="48">
       <c r="A178">
         <v>55000232</v>
       </c>
@@ -22267,7 +22267,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="179" spans="1:25" ht="48">
+    <row r="179" spans="1:25" ht="36">
       <c r="A179">
         <v>55000233</v>
       </c>
@@ -22316,7 +22316,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="180" spans="1:25" ht="48">
+    <row r="180" spans="1:25" ht="36">
       <c r="A180">
         <v>55000234</v>
       </c>
@@ -22367,7 +22367,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="181" spans="1:25" ht="84">
+    <row r="181" spans="1:25" ht="72">
       <c r="A181">
         <v>55000235</v>
       </c>
@@ -22416,7 +22416,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="182" spans="1:25" ht="36">
+    <row r="182" spans="1:25" ht="24">
       <c r="A182">
         <v>55000236</v>
       </c>
@@ -22608,7 +22608,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="108">
+    <row r="186" spans="1:25" ht="96">
       <c r="A186">
         <v>55000240</v>
       </c>
@@ -22722,7 +22722,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="188" spans="1:25" ht="36">
+    <row r="188" spans="1:25" ht="24">
       <c r="A188">
         <v>55000242</v>
       </c>
@@ -22822,7 +22822,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="190" spans="1:25" ht="120">
+    <row r="190" spans="1:25" ht="96">
       <c r="A190">
         <v>55000244</v>
       </c>
@@ -22885,7 +22885,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="191" spans="1:25" ht="36">
+    <row r="191" spans="1:25" ht="24">
       <c r="A191">
         <v>55000245</v>
       </c>
@@ -22985,7 +22985,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="72">
+    <row r="193" spans="1:25" ht="48">
       <c r="A193">
         <v>55000247</v>
       </c>
@@ -23036,7 +23036,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="48">
+    <row r="194" spans="1:25" ht="36">
       <c r="A194">
         <v>55000248</v>
       </c>
@@ -23089,7 +23089,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="195" spans="1:25" ht="36">
+    <row r="195" spans="1:25" ht="24">
       <c r="A195">
         <v>55000249</v>
       </c>
@@ -23140,7 +23140,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="48">
+    <row r="196" spans="1:25" ht="36">
       <c r="A196">
         <v>55000250</v>
       </c>
@@ -23189,7 +23189,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="197" spans="1:25" ht="28.8">
+    <row r="197" spans="1:25" ht="27">
       <c r="A197">
         <v>55000251</v>
       </c>
@@ -23485,7 +23485,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="203" spans="1:25" ht="48">
+    <row r="203" spans="1:25" ht="36">
       <c r="A203">
         <v>55000257</v>
       </c>
@@ -23538,7 +23538,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="204" spans="1:25" ht="36">
+    <row r="204" spans="1:25" ht="24">
       <c r="A204">
         <v>55000258</v>
       </c>
@@ -23587,7 +23587,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="205" spans="1:25" ht="48">
+    <row r="205" spans="1:25" ht="36">
       <c r="A205">
         <v>55000259</v>
       </c>
@@ -23640,7 +23640,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="206" spans="1:25" ht="108">
+    <row r="206" spans="1:25" ht="84">
       <c r="A206">
         <v>55000260</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="207" spans="1:25" ht="96">
+    <row r="207" spans="1:25" ht="84">
       <c r="A207">
         <v>55000261</v>
       </c>
@@ -23748,7 +23748,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="208" spans="1:25" ht="36">
+    <row r="208" spans="1:25" ht="24">
       <c r="A208">
         <v>55000262</v>
       </c>
@@ -23850,7 +23850,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="210" spans="1:25" ht="48">
+    <row r="210" spans="1:25" ht="36">
       <c r="A210">
         <v>55000264</v>
       </c>
@@ -23901,7 +23901,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="211" spans="1:25" ht="48">
+    <row r="211" spans="1:25" ht="36">
       <c r="A211">
         <v>55000265</v>
       </c>
@@ -24246,7 +24246,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="218" spans="1:25" ht="36">
+    <row r="218" spans="1:25" ht="24">
       <c r="A218">
         <v>55000272</v>
       </c>
@@ -24295,7 +24295,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="219" spans="1:25" ht="48">
+    <row r="219" spans="1:25" ht="36">
       <c r="A219">
         <v>55000273</v>
       </c>
@@ -24344,7 +24344,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="220" spans="1:25" ht="96">
+    <row r="220" spans="1:25" ht="84">
       <c r="A220">
         <v>55000274</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="221" spans="1:25" ht="48">
+    <row r="221" spans="1:25" ht="36">
       <c r="A221">
         <v>55000275</v>
       </c>
@@ -24444,7 +24444,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="222" spans="1:25" ht="48">
+    <row r="222" spans="1:25" ht="36">
       <c r="A222">
         <v>55000276</v>
       </c>
@@ -24495,7 +24495,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="223" spans="1:25" ht="24">
+    <row r="223" spans="1:25">
       <c r="A223">
         <v>55000277</v>
       </c>
@@ -24593,7 +24593,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="225" spans="1:25" ht="48">
+    <row r="225" spans="1:25" ht="36">
       <c r="A225">
         <v>55000280</v>
       </c>
@@ -24691,7 +24691,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="227" spans="1:25" ht="180">
+    <row r="227" spans="1:25" ht="144">
       <c r="A227">
         <v>55000282</v>
       </c>
@@ -24750,7 +24750,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="228" spans="1:25" ht="48">
+    <row r="228" spans="1:25" ht="36">
       <c r="A228">
         <v>55000284</v>
       </c>
@@ -25003,7 +25003,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="233" spans="1:25" ht="144">
+    <row r="233" spans="1:25" ht="120">
       <c r="A233">
         <v>55000289</v>
       </c>
@@ -25060,7 +25060,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="234" spans="1:25" ht="96">
+    <row r="234" spans="1:25" ht="84">
       <c r="A234">
         <v>55000290</v>
       </c>
@@ -25109,7 +25109,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="235" spans="1:25" ht="84">
+    <row r="235" spans="1:25" ht="60">
       <c r="A235">
         <v>55000291</v>
       </c>
@@ -25158,7 +25158,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="236" spans="1:25" ht="48">
+    <row r="236" spans="1:25" ht="36">
       <c r="A236">
         <v>55000292</v>
       </c>
@@ -25211,7 +25211,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="237" spans="1:25" ht="60">
+    <row r="237" spans="1:25" ht="48">
       <c r="A237">
         <v>55000293</v>
       </c>
@@ -25260,7 +25260,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="238" spans="1:25" ht="120">
+    <row r="238" spans="1:25" ht="96">
       <c r="A238">
         <v>55000294</v>
       </c>
@@ -25417,7 +25417,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="241" spans="1:25" ht="36">
+    <row r="241" spans="1:25" ht="24">
       <c r="A241">
         <v>55000299</v>
       </c>
@@ -25470,7 +25470,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="242" spans="1:25" ht="120">
+    <row r="242" spans="1:25" ht="96">
       <c r="A242">
         <v>55000324</v>
       </c>
@@ -25533,7 +25533,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="243" spans="1:25" ht="120">
+    <row r="243" spans="1:25" ht="96">
       <c r="A243">
         <v>55000325</v>
       </c>
@@ -25596,7 +25596,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="244" spans="1:25" ht="108">
+    <row r="244" spans="1:25" ht="96">
       <c r="A244">
         <v>55000326</v>
       </c>
@@ -25659,7 +25659,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="245" spans="1:25" ht="120">
+    <row r="245" spans="1:25" ht="96">
       <c r="A245">
         <v>55000327</v>
       </c>
@@ -25720,7 +25720,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="246" spans="1:25" ht="120">
+    <row r="246" spans="1:25" ht="96">
       <c r="A246">
         <v>55000328</v>
       </c>
@@ -25783,7 +25783,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="247" spans="1:25" ht="120">
+    <row r="247" spans="1:25" ht="96">
       <c r="A247">
         <v>55000329</v>
       </c>
@@ -25846,7 +25846,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="248" spans="1:25" ht="108">
+    <row r="248" spans="1:25" ht="96">
       <c r="A248">
         <v>55000330</v>
       </c>
@@ -25909,7 +25909,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="249" spans="1:25" ht="120">
+    <row r="249" spans="1:25" ht="96">
       <c r="A249">
         <v>55000331</v>
       </c>
@@ -25972,7 +25972,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="250" spans="1:25" ht="96">
+    <row r="250" spans="1:25" ht="72">
       <c r="A250">
         <v>55000332</v>
       </c>
@@ -26021,7 +26021,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="251" spans="1:25" ht="228">
+    <row r="251" spans="1:25" ht="180">
       <c r="A251">
         <v>55000333</v>
       </c>
@@ -26070,7 +26070,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="252" spans="1:25" ht="108">
+    <row r="252" spans="1:25" ht="96">
       <c r="A252">
         <v>55000334</v>
       </c>
@@ -26133,7 +26133,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="253" spans="1:25" ht="96">
+    <row r="253" spans="1:25" ht="84">
       <c r="A253">
         <v>55000335</v>
       </c>
@@ -26190,7 +26190,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="254" spans="1:25" ht="48">
+    <row r="254" spans="1:25" ht="36">
       <c r="A254">
         <v>55000340</v>
       </c>
@@ -26243,7 +26243,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="255" spans="1:25" ht="36">
+    <row r="255" spans="1:25" ht="24">
       <c r="A255">
         <v>55000341</v>
       </c>
@@ -26294,7 +26294,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="256" spans="1:25" ht="180">
+    <row r="256" spans="1:25" ht="144">
       <c r="A256">
         <v>55000342</v>
       </c>
@@ -26351,7 +26351,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="257" spans="1:25" ht="180">
+    <row r="257" spans="1:25" ht="144">
       <c r="A257">
         <v>55000343</v>
       </c>
@@ -26479,23 +26479,23 @@
       <selection pane="bottomRight" activeCell="G1" sqref="G1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="22.21875" customWidth="1"/>
-    <col min="14" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" customWidth="1"/>
-    <col min="20" max="22" width="7.6640625" customWidth="1"/>
-    <col min="23" max="23" width="7.109375" customWidth="1"/>
+    <col min="3" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="22.25" customWidth="1"/>
+    <col min="14" max="15" width="8.5" customWidth="1"/>
+    <col min="16" max="16" width="7.375" customWidth="1"/>
+    <col min="17" max="17" width="6.375" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="22" width="7.625" customWidth="1"/>
+    <col min="23" max="23" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.8">
+    <row r="1" spans="1:25" ht="55.5">
       <c r="A1" s="6" t="s">
         <v>647</v>
       </c>
@@ -26773,7 +26773,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="96">
+    <row r="5" spans="1:25" ht="84">
       <c r="A5">
         <v>55010004</v>
       </c>
@@ -26844,23 +26844,23 @@
       <selection pane="bottomRight" activeCell="G1" sqref="G1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="22.21875" customWidth="1"/>
-    <col min="14" max="15" width="8.44140625" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" customWidth="1"/>
-    <col min="20" max="22" width="7.6640625" customWidth="1"/>
-    <col min="23" max="23" width="7.109375" customWidth="1"/>
+    <col min="3" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="22.25" customWidth="1"/>
+    <col min="14" max="15" width="8.5" customWidth="1"/>
+    <col min="16" max="16" width="7.375" customWidth="1"/>
+    <col min="17" max="17" width="6.375" customWidth="1"/>
+    <col min="18" max="18" width="23.5" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="22" width="7.625" customWidth="1"/>
+    <col min="23" max="23" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="58.8">
+    <row r="1" spans="1:25" ht="55.5">
       <c r="A1" s="6" t="s">
         <v>647</v>
       </c>
@@ -27091,7 +27091,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="48">
+    <row r="4" spans="1:25" ht="36">
       <c r="A4">
         <v>55020001</v>
       </c>
@@ -27142,7 +27142,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="48">
+    <row r="5" spans="1:25" ht="36">
       <c r="A5">
         <v>55020002</v>
       </c>
@@ -27193,7 +27193,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="48">
+    <row r="6" spans="1:25" ht="36">
       <c r="A6">
         <v>55020003</v>
       </c>
@@ -27244,7 +27244,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="48">
+    <row r="7" spans="1:25" ht="36">
       <c r="A7">
         <v>55020004</v>
       </c>
@@ -27295,7 +27295,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="48">
+    <row r="8" spans="1:25" ht="36">
       <c r="A8">
         <v>55020005</v>
       </c>
@@ -27344,7 +27344,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="48">
+    <row r="9" spans="1:25" ht="36">
       <c r="A9">
         <v>55020006</v>
       </c>
@@ -27393,7 +27393,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="48">
+    <row r="10" spans="1:25" ht="36">
       <c r="A10">
         <v>55020007</v>
       </c>
@@ -27444,7 +27444,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="48">
+    <row r="11" spans="1:25" ht="36">
       <c r="A11">
         <v>55020008</v>
       </c>
@@ -27495,7 +27495,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="48">
+    <row r="12" spans="1:25" ht="36">
       <c r="A12">
         <v>55020009</v>
       </c>
@@ -27546,7 +27546,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="48">
+    <row r="13" spans="1:25" ht="36">
       <c r="A13">
         <v>55020010</v>
       </c>
@@ -27597,7 +27597,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="48">
+    <row r="14" spans="1:25" ht="36">
       <c r="A14">
         <v>55020011</v>
       </c>
@@ -27648,7 +27648,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="48">
+    <row r="15" spans="1:25" ht="36">
       <c r="A15">
         <v>55020012</v>
       </c>
@@ -27699,7 +27699,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="48">
+    <row r="16" spans="1:25" ht="36">
       <c r="A16">
         <v>55020013</v>
       </c>
@@ -27748,7 +27748,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="48">
+    <row r="17" spans="1:25" ht="36">
       <c r="A17">
         <v>55020014</v>
       </c>
@@ -27797,7 +27797,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="48">
+    <row r="18" spans="1:25" ht="36">
       <c r="A18">
         <v>55020015</v>
       </c>
@@ -27848,7 +27848,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="48">
+    <row r="19" spans="1:25" ht="36">
       <c r="A19">
         <v>55020016</v>
       </c>
@@ -27918,9 +27918,9 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -28510,7 +28510,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/ConfigData/Xlsx/Skill.xlsx
+++ b/ConfigData/Xlsx/Skill.xlsx
@@ -4770,9 +4770,6 @@
     <t>s.AddAuro(56000101,lv,"F").SetRange(11);</t>
   </si>
   <si>
-    <t>s.AddAuro(56000015,lv,"A");</t>
-  </si>
-  <si>
     <t>s.AddAuro(56000111,lv,"E").SetRange(31);</t>
   </si>
   <si>
@@ -5709,6 +5706,10 @@
   </si>
   <si>
     <t>s.Summon(2,s.CardId);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.AddAuro(56000007,lv,"A");</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6008,6 +6009,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6015,16 +6017,19 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
       <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -10641,16 +10646,16 @@
         <v>649</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>665</v>
@@ -10674,7 +10679,7 @@
         <v>867</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>658</v>
@@ -10692,7 +10697,7 @@
         <v>922</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>940</v>
@@ -10704,7 +10709,7 @@
         <v>651</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -10718,19 +10723,19 @@
         <v>641</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>951</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>927</v>
@@ -10751,7 +10756,7 @@
         <v>828</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>657</v>
@@ -10795,16 +10800,16 @@
         <v>644</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1093</v>
@@ -10828,7 +10833,7 @@
         <v>868</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>660</v>
@@ -10846,7 +10851,7 @@
         <v>871</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>938</v>
@@ -10858,7 +10863,7 @@
         <v>646</v>
       </c>
       <c r="Y3" s="53" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="24">
@@ -10882,7 +10887,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="21" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="O4" s="59">
         <v>1</v>
@@ -10894,7 +10899,7 @@
         <v>654</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
@@ -10927,13 +10932,13 @@
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
       <c r="J5" s="31" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="M5" s="17"/>
       <c r="N5" s="21"/>
@@ -10945,7 +10950,7 @@
         <v>654</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="S5" s="51">
         <v>0</v>
@@ -10978,13 +10983,13 @@
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="J6" s="31" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="21"/>
@@ -10996,7 +11001,7 @@
         <v>654</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="S6" s="10">
         <v>0</v>
@@ -11017,7 +11022,7 @@
         <v>55100004</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
@@ -11027,7 +11032,7 @@
       <c r="F7" s="65"/>
       <c r="G7" s="81"/>
       <c r="H7" s="32" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="31"/>
@@ -11043,7 +11048,7 @@
         <v>654</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="S7" s="10">
         <v>56000202</v>
@@ -11055,7 +11060,7 @@
         <v>15</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="Y7" s="52"/>
     </row>
@@ -11064,7 +11069,7 @@
         <v>55100005</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>923</v>
@@ -11073,7 +11078,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="65"/>
       <c r="G8" s="81" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
@@ -11090,7 +11095,7 @@
         <v>654</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="S8" s="10">
         <v>0</v>
@@ -11102,7 +11107,7 @@
         <v>35</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="Y8" s="52"/>
     </row>
@@ -11111,17 +11116,17 @@
         <v>55100006</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D9" s="83"/>
       <c r="E9" s="83"/>
       <c r="F9" s="84"/>
       <c r="G9" s="81"/>
       <c r="H9" s="32" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I9" s="85"/>
       <c r="J9" s="86"/>
@@ -11137,7 +11142,7 @@
         <v>654</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="S9" s="10">
         <v>0</v>
@@ -11149,7 +11154,7 @@
         <v>45</v>
       </c>
       <c r="X9" s="27" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="Y9" s="92"/>
     </row>
@@ -11158,30 +11163,30 @@
         <v>55100007</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G10" s="81"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="31" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="59"/>
@@ -11192,7 +11197,7 @@
         <v>654</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="S10" s="10">
         <v>0</v>
@@ -11204,7 +11209,7 @@
         <v>35</v>
       </c>
       <c r="X10" s="27" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="Y10" s="70"/>
     </row>
@@ -11213,7 +11218,7 @@
         <v>55100008</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>923</v>
@@ -11222,7 +11227,7 @@
       <c r="E11" s="27"/>
       <c r="F11" s="66"/>
       <c r="G11" s="81" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
@@ -11239,7 +11244,7 @@
         <v>654</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="S11" s="10">
         <v>0</v>
@@ -11251,7 +11256,7 @@
         <v>15</v>
       </c>
       <c r="X11" s="27" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="Y11" s="70"/>
     </row>
@@ -11260,7 +11265,7 @@
         <v>55100009</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>923</v>
@@ -11269,7 +11274,7 @@
       <c r="E12" s="27"/>
       <c r="F12" s="66"/>
       <c r="G12" s="81" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
@@ -11286,7 +11291,7 @@
         <v>654</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="S12" s="10">
         <v>0</v>
@@ -11298,7 +11303,7 @@
         <v>15</v>
       </c>
       <c r="X12" s="27" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="Y12" s="70"/>
     </row>
@@ -11307,7 +11312,7 @@
         <v>55110001</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>923</v>
@@ -11322,7 +11327,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="59"/>
@@ -11333,7 +11338,7 @@
         <v>654</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="S13" s="10">
         <v>0</v>
@@ -11354,13 +11359,13 @@
         <v>55200001</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>197</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E14" s="27">
         <v>15</v>
@@ -11374,7 +11379,7 @@
       <c r="L14" s="34"/>
       <c r="M14" s="17"/>
       <c r="N14" s="21" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="O14" s="59">
         <v>1</v>
@@ -11386,7 +11391,7 @@
         <v>654</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="S14" s="27">
         <v>0</v>
@@ -11395,7 +11400,7 @@
         <v>848</v>
       </c>
       <c r="U14" s="27" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="V14" s="27" t="s">
         <v>948</v>
@@ -11404,7 +11409,7 @@
         <v>40</v>
       </c>
       <c r="X14" s="27" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="Y14" s="70"/>
     </row>
@@ -11413,23 +11418,23 @@
         <v>55200002</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>197</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E15" s="27">
         <v>30</v>
       </c>
       <c r="F15" s="66" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G15" s="82"/>
       <c r="H15" s="69" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I15" s="69"/>
       <c r="J15" s="28"/>
@@ -11445,13 +11450,13 @@
         <v>654</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="S15" s="27">
         <v>0</v>
       </c>
       <c r="T15" s="27" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="U15" s="27"/>
       <c r="V15" s="27"/>
@@ -11459,7 +11464,7 @@
         <v>15</v>
       </c>
       <c r="X15" s="27" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="Y15" s="70"/>
     </row>
@@ -11519,7 +11524,7 @@
         <v>55300002</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>85</v>
@@ -11529,10 +11534,10 @@
       <c r="F17" s="66"/>
       <c r="G17" s="82"/>
       <c r="H17" s="69" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I17" s="69" t="s">
         <v>1384</v>
-      </c>
-      <c r="I17" s="69" t="s">
-        <v>1385</v>
       </c>
       <c r="J17" s="28"/>
       <c r="K17" s="29"/>
@@ -11547,7 +11552,7 @@
         <v>654</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="S17" s="27">
         <v>0</v>
@@ -11568,7 +11573,7 @@
         <v>55300003</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>85</v>
@@ -11578,10 +11583,10 @@
       <c r="F18" s="66"/>
       <c r="G18" s="82"/>
       <c r="H18" s="32" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I18" s="32" t="s">
         <v>1387</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>1388</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="29"/>
@@ -11596,7 +11601,7 @@
         <v>654</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="S18" s="27">
         <v>0</v>
@@ -11617,7 +11622,7 @@
         <v>55300004</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>85</v>
@@ -11627,10 +11632,10 @@
       <c r="F19" s="66"/>
       <c r="G19" s="82"/>
       <c r="H19" s="69" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I19" s="69" t="s">
         <v>1390</v>
-      </c>
-      <c r="I19" s="69" t="s">
-        <v>1391</v>
       </c>
       <c r="J19" s="28"/>
       <c r="K19" s="29"/>
@@ -11666,7 +11671,7 @@
         <v>55300005</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>85</v>
@@ -11676,10 +11681,10 @@
       <c r="F20" s="66"/>
       <c r="G20" s="82"/>
       <c r="H20" s="69" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I20" s="69" t="s">
         <v>1393</v>
-      </c>
-      <c r="I20" s="69" t="s">
-        <v>1394</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="29"/>
@@ -11715,7 +11720,7 @@
         <v>55300006</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>0</v>
@@ -11725,7 +11730,7 @@
       <c r="F21" s="66"/>
       <c r="G21" s="82"/>
       <c r="H21" s="69" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I21" s="69"/>
       <c r="J21" s="28"/>
@@ -11741,13 +11746,13 @@
         <v>654</v>
       </c>
       <c r="R21" s="71" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="S21" s="27">
         <v>0</v>
       </c>
       <c r="T21" s="27" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="U21" s="27"/>
       <c r="V21" s="27"/>
@@ -11755,7 +11760,7 @@
         <v>25</v>
       </c>
       <c r="X21" s="27" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="Y21" s="70"/>
     </row>
@@ -11764,7 +11769,7 @@
         <v>55300007</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>85</v>
@@ -11774,10 +11779,10 @@
       <c r="F22" s="66"/>
       <c r="G22" s="82"/>
       <c r="H22" s="69" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I22" s="69" t="s">
         <v>1395</v>
-      </c>
-      <c r="I22" s="69" t="s">
-        <v>1396</v>
       </c>
       <c r="J22" s="28"/>
       <c r="K22" s="29"/>
@@ -11792,7 +11797,7 @@
         <v>654</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="S22" s="27">
         <v>0</v>
@@ -11829,7 +11834,7 @@
       <c r="L23" s="34"/>
       <c r="M23" s="17"/>
       <c r="N23" s="21" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="O23" s="59">
         <v>1</v>
@@ -11841,7 +11846,7 @@
         <v>654</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="S23" s="27">
         <v>0</v>
@@ -11862,10 +11867,10 @@
         <v>55400001</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
@@ -11878,7 +11883,7 @@
       <c r="L24" s="34"/>
       <c r="M24" s="17"/>
       <c r="N24" s="21" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="O24" s="59">
         <v>2</v>
@@ -11890,7 +11895,7 @@
         <v>654</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="S24" s="27">
         <v>0</v>
@@ -11904,7 +11909,7 @@
         <v>80</v>
       </c>
       <c r="X24" s="72" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="Y24" s="70"/>
     </row>
@@ -11916,20 +11921,20 @@
         <v>880</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E25" s="27">
         <v>10</v>
       </c>
       <c r="F25" s="66" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="69" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="I25" s="69"/>
       <c r="J25" s="28"/>
@@ -11945,7 +11950,7 @@
         <v>654</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="S25" s="27">
         <v>0</v>
@@ -11966,10 +11971,10 @@
         <v>55400003</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -11982,7 +11987,7 @@
       <c r="L26" s="34"/>
       <c r="M26" s="17"/>
       <c r="N26" s="21" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="O26" s="59">
         <v>2</v>
@@ -11994,7 +11999,7 @@
         <v>654</v>
       </c>
       <c r="R26" s="16" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="S26" s="27">
         <v>0</v>
@@ -12008,7 +12013,7 @@
         <v>80</v>
       </c>
       <c r="X26" s="72" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="Y26" s="70"/>
     </row>
@@ -12017,10 +12022,10 @@
         <v>55400004</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
@@ -12033,7 +12038,7 @@
       <c r="L27" s="34"/>
       <c r="M27" s="17"/>
       <c r="N27" s="21" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="O27" s="59">
         <v>3</v>
@@ -12045,13 +12050,13 @@
         <v>654</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="S27" s="27">
         <v>0</v>
       </c>
       <c r="T27" s="27" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
@@ -12059,7 +12064,7 @@
         <v>80</v>
       </c>
       <c r="X27" s="72" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="Y27" s="70"/>
     </row>
@@ -12068,10 +12073,10 @@
         <v>55400005</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -12084,7 +12089,7 @@
       <c r="L28" s="34"/>
       <c r="M28" s="17"/>
       <c r="N28" s="21" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="O28" s="59">
         <v>2.5</v>
@@ -12096,7 +12101,7 @@
         <v>654</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="S28" s="27">
         <v>0</v>
@@ -12119,10 +12124,10 @@
         <v>55400006</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -12135,7 +12140,7 @@
       <c r="L29" s="34"/>
       <c r="M29" s="17"/>
       <c r="N29" s="21" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="O29" s="59">
         <v>2</v>
@@ -12147,7 +12152,7 @@
         <v>654</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="S29" s="27">
         <v>0</v>
@@ -12161,7 +12166,7 @@
         <v>30</v>
       </c>
       <c r="X29" s="72" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="Y29" s="70"/>
     </row>
@@ -12182,11 +12187,11 @@
       <c r="H30" s="69"/>
       <c r="I30" s="69"/>
       <c r="J30" s="28" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="K30" s="29"/>
       <c r="L30" s="34" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="M30" s="17"/>
       <c r="N30" s="21"/>
@@ -12198,7 +12203,7 @@
         <v>654</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="S30" s="27">
         <v>0</v>
@@ -12231,11 +12236,11 @@
       <c r="H31" s="69"/>
       <c r="I31" s="69"/>
       <c r="J31" s="28" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="K31" s="29"/>
       <c r="L31" s="34" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="M31" s="17"/>
       <c r="N31" s="21"/>
@@ -12247,7 +12252,7 @@
         <v>654</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="S31" s="27">
         <v>0</v>
@@ -12268,7 +12273,7 @@
         <v>55500003</v>
       </c>
       <c r="B32" s="78" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>6</v>
@@ -12382,7 +12387,7 @@
       </c>
       <c r="K34" s="29"/>
       <c r="L34" s="34" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M34" s="17"/>
       <c r="N34" s="21"/>
@@ -12394,7 +12399,7 @@
         <v>654</v>
       </c>
       <c r="R34" s="16" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="S34" s="52">
         <v>0</v>
@@ -12415,7 +12420,7 @@
         <v>55500006</v>
       </c>
       <c r="B35" s="78" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>6</v>
@@ -12427,11 +12432,11 @@
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
       <c r="J35" s="28" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="K35" s="29"/>
       <c r="L35" s="34" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="M35" s="17"/>
       <c r="N35" s="21"/>
@@ -12443,7 +12448,7 @@
         <v>654</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="S35" s="52">
         <v>0</v>
@@ -12455,7 +12460,7 @@
         <v>5</v>
       </c>
       <c r="X35" s="27" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="Y35" s="54"/>
     </row>
@@ -12480,7 +12485,7 @@
       </c>
       <c r="K36" s="29"/>
       <c r="L36" s="34" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="M36" s="17"/>
       <c r="N36" s="21"/>
@@ -12492,7 +12497,7 @@
         <v>654</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="S36" s="52">
         <v>0</v>
@@ -12611,7 +12616,7 @@
         <v>55500010</v>
       </c>
       <c r="B39" s="78" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>6</v>
@@ -12676,7 +12681,7 @@
       </c>
       <c r="K40" s="29"/>
       <c r="L40" s="34" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="M40" s="17"/>
       <c r="N40" s="21"/>
@@ -12688,7 +12693,7 @@
         <v>654</v>
       </c>
       <c r="R40" s="16" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="S40" s="52">
         <v>0</v>
@@ -12856,7 +12861,7 @@
         <v>55500015</v>
       </c>
       <c r="B44" s="78" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C44" s="27" t="s">
         <v>6</v>
@@ -12868,7 +12873,7 @@
       <c r="H44" s="69"/>
       <c r="I44" s="69"/>
       <c r="J44" s="28" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="K44" s="29"/>
       <c r="L44" s="34" t="s">
@@ -12884,7 +12889,7 @@
         <v>654</v>
       </c>
       <c r="R44" s="16" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="S44" s="27">
         <v>0</v>
@@ -12896,7 +12901,7 @@
         <v>5</v>
       </c>
       <c r="X44" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="Y44" s="70"/>
     </row>
@@ -12905,7 +12910,7 @@
         <v>55500016</v>
       </c>
       <c r="B45" s="78" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>6</v>
@@ -12917,7 +12922,7 @@
       <c r="H45" s="69"/>
       <c r="I45" s="69"/>
       <c r="J45" s="28" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="K45" s="29"/>
       <c r="L45" s="34" t="s">
@@ -12933,7 +12938,7 @@
         <v>654</v>
       </c>
       <c r="R45" s="16" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="S45" s="27">
         <v>0</v>
@@ -12945,7 +12950,7 @@
         <v>5</v>
       </c>
       <c r="X45" s="27" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="Y45" s="70"/>
     </row>
@@ -12964,7 +12969,7 @@
       <c r="F46" s="65"/>
       <c r="G46" s="81"/>
       <c r="H46" s="32" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="31"/>
@@ -13009,17 +13014,17 @@
         <v>946</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E47" s="27">
         <v>40</v>
       </c>
       <c r="F47" s="66" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G47" s="82"/>
       <c r="H47" s="69" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I47" s="69"/>
       <c r="J47" s="28"/>
@@ -13035,7 +13040,7 @@
         <v>654</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="S47" s="27">
         <v>0</v>
@@ -13068,17 +13073,17 @@
         <v>0</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E48" s="27">
         <v>20</v>
       </c>
       <c r="F48" s="66" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G48" s="82"/>
       <c r="H48" s="69" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I48" s="69"/>
       <c r="J48" s="28"/>
@@ -13094,7 +13099,7 @@
         <v>654</v>
       </c>
       <c r="R48" s="16" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="S48" s="27">
         <v>0</v>
@@ -13109,7 +13114,7 @@
         <v>237</v>
       </c>
       <c r="Y48" s="70" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="36">
@@ -13117,7 +13122,7 @@
         <v>55900003</v>
       </c>
       <c r="B49" s="77" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>0</v>
@@ -13127,7 +13132,7 @@
       <c r="F49" s="66"/>
       <c r="G49" s="82"/>
       <c r="H49" s="69" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I49" s="69"/>
       <c r="J49" s="28"/>
@@ -13143,7 +13148,7 @@
         <v>654</v>
       </c>
       <c r="R49" s="16" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="S49" s="27">
         <v>0</v>
@@ -13155,7 +13160,7 @@
         <v>80</v>
       </c>
       <c r="X49" s="27" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="Y49" s="70"/>
     </row>
@@ -13175,10 +13180,10 @@
   <dimension ref="A1:Y258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="N104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A120" sqref="A120"/>
+      <selection pane="bottomRight" activeCell="R105" sqref="R105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13212,16 +13217,16 @@
         <v>649</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>665</v>
@@ -13245,7 +13250,7 @@
         <v>867</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>658</v>
@@ -13263,7 +13268,7 @@
         <v>922</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>940</v>
@@ -13275,7 +13280,7 @@
         <v>651</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -13289,16 +13294,16 @@
         <v>641</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>951</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>1198</v>
@@ -13319,10 +13324,10 @@
         <v>1216</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>657</v>
@@ -13366,16 +13371,16 @@
         <v>644</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1197</v>
@@ -13396,10 +13401,10 @@
         <v>795</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>660</v>
@@ -13417,7 +13422,7 @@
         <v>1227</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>938</v>
@@ -13429,7 +13434,7 @@
         <v>646</v>
       </c>
       <c r="Y3" s="53" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="48">
@@ -13478,7 +13483,7 @@
         <v>3</v>
       </c>
       <c r="Y4" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="27">
@@ -13525,7 +13530,7 @@
         <v>1215</v>
       </c>
       <c r="Y5" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="24">
@@ -13574,7 +13579,7 @@
         <v>43</v>
       </c>
       <c r="Y6" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="36">
@@ -13625,7 +13630,7 @@
         <v>46</v>
       </c>
       <c r="Y7" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="24">
@@ -13645,7 +13650,7 @@
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="31" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="17"/>
@@ -13676,7 +13681,7 @@
         <v>48</v>
       </c>
       <c r="Y8" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="24">
@@ -13696,7 +13701,7 @@
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="31" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="17"/>
@@ -13727,7 +13732,7 @@
         <v>50</v>
       </c>
       <c r="Y9" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -13776,7 +13781,7 @@
         <v>632</v>
       </c>
       <c r="Y10" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="48">
@@ -13825,7 +13830,7 @@
         <v>52</v>
       </c>
       <c r="Y11" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="24">
@@ -13874,7 +13879,7 @@
         <v>55</v>
       </c>
       <c r="Y12" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="36">
@@ -13894,7 +13899,7 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
       <c r="J13" s="31" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="17" t="s">
@@ -13925,7 +13930,7 @@
         <v>58</v>
       </c>
       <c r="Y13" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="48">
@@ -13974,7 +13979,7 @@
         <v>60</v>
       </c>
       <c r="Y14" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="36">
@@ -14023,7 +14028,7 @@
         <v>62</v>
       </c>
       <c r="Y15" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="36">
@@ -14072,7 +14077,7 @@
         <v>64</v>
       </c>
       <c r="Y16" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="36">
@@ -14121,7 +14126,7 @@
         <v>66</v>
       </c>
       <c r="Y17" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="36">
@@ -14174,7 +14179,7 @@
         <v>70</v>
       </c>
       <c r="Y18" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="48">
@@ -14225,7 +14230,7 @@
         <v>72</v>
       </c>
       <c r="Y19" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="24">
@@ -14274,7 +14279,7 @@
         <v>74</v>
       </c>
       <c r="Y20" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="24">
@@ -14323,7 +14328,7 @@
         <v>76</v>
       </c>
       <c r="Y21" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="36">
@@ -14372,7 +14377,7 @@
         <v>78</v>
       </c>
       <c r="Y22" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="36">
@@ -14396,7 +14401,7 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="21" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="O23" s="59"/>
       <c r="P23" s="1" t="s">
@@ -14421,7 +14426,7 @@
         <v>80</v>
       </c>
       <c r="Y23" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="36">
@@ -14472,7 +14477,7 @@
         <v>83</v>
       </c>
       <c r="Y24" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="36">
@@ -14490,7 +14495,7 @@
       <c r="F25" s="65"/>
       <c r="G25" s="65"/>
       <c r="H25" s="32" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="31"/>
@@ -14523,7 +14528,7 @@
         <v>86</v>
       </c>
       <c r="Y25" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="48">
@@ -14572,7 +14577,7 @@
         <v>88</v>
       </c>
       <c r="Y26" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -14621,7 +14626,7 @@
         <v>93</v>
       </c>
       <c r="Y27" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="36">
@@ -14672,7 +14677,7 @@
         <v>113</v>
       </c>
       <c r="Y28" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="24">
@@ -14721,7 +14726,7 @@
         <v>115</v>
       </c>
       <c r="Y29" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="36">
@@ -14772,7 +14777,7 @@
         <v>118</v>
       </c>
       <c r="Y30" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="48">
@@ -14823,7 +14828,7 @@
         <v>122</v>
       </c>
       <c r="Y31" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="48">
@@ -14874,7 +14879,7 @@
         <v>124</v>
       </c>
       <c r="Y32" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="48">
@@ -14925,7 +14930,7 @@
         <v>126</v>
       </c>
       <c r="Y33" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="48">
@@ -14976,7 +14981,7 @@
         <v>128</v>
       </c>
       <c r="Y34" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="48">
@@ -15027,7 +15032,7 @@
         <v>130</v>
       </c>
       <c r="Y35" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="48">
@@ -15078,7 +15083,7 @@
         <v>132</v>
       </c>
       <c r="Y36" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="48">
@@ -15129,7 +15134,7 @@
         <v>134</v>
       </c>
       <c r="Y37" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="48">
@@ -15180,7 +15185,7 @@
         <v>136</v>
       </c>
       <c r="Y38" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="36">
@@ -15231,7 +15236,7 @@
         <v>138</v>
       </c>
       <c r="Y39" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="24">
@@ -15280,7 +15285,7 @@
         <v>140</v>
       </c>
       <c r="Y40" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="120">
@@ -15333,7 +15338,7 @@
         <v>145</v>
       </c>
       <c r="Y41" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="24">
@@ -15382,7 +15387,7 @@
         <v>148</v>
       </c>
       <c r="Y42" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="36">
@@ -15433,7 +15438,7 @@
         <v>150</v>
       </c>
       <c r="Y43" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="24">
@@ -15482,7 +15487,7 @@
         <v>152</v>
       </c>
       <c r="Y44" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="24">
@@ -15533,7 +15538,7 @@
         <v>155</v>
       </c>
       <c r="Y45" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="24">
@@ -15584,7 +15589,7 @@
         <v>158</v>
       </c>
       <c r="Y46" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="24">
@@ -15633,7 +15638,7 @@
         <v>161</v>
       </c>
       <c r="Y47" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="24">
@@ -15684,7 +15689,7 @@
         <v>163</v>
       </c>
       <c r="Y48" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="48">
@@ -15708,7 +15713,7 @@
       <c r="L49" s="17"/>
       <c r="M49" s="22"/>
       <c r="N49" s="21" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="O49" s="59"/>
       <c r="P49" s="1" t="s">
@@ -15737,7 +15742,7 @@
         <v>167</v>
       </c>
       <c r="Y49" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="36">
@@ -15788,7 +15793,7 @@
         <v>171</v>
       </c>
       <c r="Y50" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="24">
@@ -15837,7 +15842,7 @@
         <v>175</v>
       </c>
       <c r="Y51" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="24">
@@ -15886,7 +15891,7 @@
         <v>177</v>
       </c>
       <c r="Y52" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="24">
@@ -15935,7 +15940,7 @@
         <v>179</v>
       </c>
       <c r="Y53" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="48">
@@ -15953,7 +15958,7 @@
       <c r="F54" s="65"/>
       <c r="G54" s="65"/>
       <c r="H54" s="32" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="31"/>
@@ -15984,7 +15989,7 @@
         <v>182</v>
       </c>
       <c r="Y54" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="24">
@@ -16033,7 +16038,7 @@
         <v>184</v>
       </c>
       <c r="Y55" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="36">
@@ -16057,7 +16062,7 @@
       <c r="L56" s="17"/>
       <c r="M56" s="22"/>
       <c r="N56" s="19" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="O56" s="61"/>
       <c r="P56" s="1" t="s">
@@ -16086,7 +16091,7 @@
         <v>185</v>
       </c>
       <c r="Y56" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="24">
@@ -16135,7 +16140,7 @@
         <v>187</v>
       </c>
       <c r="Y57" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="24">
@@ -16184,7 +16189,7 @@
         <v>189</v>
       </c>
       <c r="Y58" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="24">
@@ -16233,7 +16238,7 @@
         <v>191</v>
       </c>
       <c r="Y59" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="84">
@@ -16282,7 +16287,7 @@
         <v>193</v>
       </c>
       <c r="Y60" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="48">
@@ -16300,7 +16305,7 @@
       <c r="F61" s="65"/>
       <c r="G61" s="65"/>
       <c r="H61" s="32" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I61" s="32"/>
       <c r="J61" s="31"/>
@@ -16333,7 +16338,7 @@
         <v>195</v>
       </c>
       <c r="Y61" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="96">
@@ -16347,24 +16352,24 @@
         <v>197</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E62" s="1">
         <v>20</v>
       </c>
       <c r="F62" s="65" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G62" s="65"/>
       <c r="H62" s="32"/>
       <c r="I62" s="32"/>
       <c r="J62" s="31" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="K62" s="18"/>
       <c r="L62" s="17"/>
       <c r="M62" s="17" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="N62" s="21"/>
       <c r="O62" s="59"/>
@@ -16384,7 +16389,7 @@
         <v>840</v>
       </c>
       <c r="U62" s="10" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="V62" s="10" t="s">
         <v>948</v>
@@ -16396,7 +16401,7 @@
         <v>198</v>
       </c>
       <c r="Y62" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -16443,7 +16448,7 @@
         <v>201</v>
       </c>
       <c r="Y63" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="36">
@@ -16496,7 +16501,7 @@
         <v>204</v>
       </c>
       <c r="Y64" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -16545,7 +16550,7 @@
         <v>206</v>
       </c>
       <c r="Y65" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -16592,7 +16597,7 @@
         <v>208</v>
       </c>
       <c r="Y66" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="96">
@@ -16606,24 +16611,24 @@
         <v>197</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E67" s="1">
         <v>10</v>
       </c>
       <c r="F67" s="65" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G67" s="65"/>
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
       <c r="J67" s="31" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="K67" s="18"/>
       <c r="L67" s="17"/>
       <c r="M67" s="17" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="N67" s="21"/>
       <c r="O67" s="59"/>
@@ -16643,7 +16648,7 @@
         <v>842</v>
       </c>
       <c r="U67" s="10" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="V67" s="10" t="s">
         <v>948</v>
@@ -16655,7 +16660,7 @@
         <v>212</v>
       </c>
       <c r="Y67" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="68" spans="1:25" ht="48">
@@ -16706,7 +16711,7 @@
         <v>214</v>
       </c>
       <c r="Y68" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="36">
@@ -16757,7 +16762,7 @@
         <v>216</v>
       </c>
       <c r="Y69" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="70" spans="1:25" ht="36">
@@ -16806,7 +16811,7 @@
         <v>221</v>
       </c>
       <c r="Y70" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="71" spans="1:25" ht="24">
@@ -16855,7 +16860,7 @@
         <v>224</v>
       </c>
       <c r="Y71" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="72" spans="1:25" ht="36">
@@ -16908,7 +16913,7 @@
         <v>227</v>
       </c>
       <c r="Y72" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="73" spans="1:25" ht="24">
@@ -16959,7 +16964,7 @@
         <v>229</v>
       </c>
       <c r="Y73" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -17008,7 +17013,7 @@
         <v>231</v>
       </c>
       <c r="Y74" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="75" spans="1:25" ht="24">
@@ -17031,7 +17036,7 @@
       <c r="K75" s="18"/>
       <c r="L75" s="17"/>
       <c r="M75" s="17" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="N75" s="21"/>
       <c r="O75" s="59"/>
@@ -17057,7 +17062,7 @@
         <v>233</v>
       </c>
       <c r="Y75" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="76" spans="1:25" ht="36">
@@ -17110,7 +17115,7 @@
         <v>235</v>
       </c>
       <c r="Y76" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="77" spans="1:25" ht="60">
@@ -17161,7 +17166,7 @@
         <v>239</v>
       </c>
       <c r="Y77" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="78" spans="1:25" ht="48">
@@ -17179,7 +17184,7 @@
       <c r="F78" s="65"/>
       <c r="G78" s="65"/>
       <c r="H78" s="32" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I78" s="32"/>
       <c r="J78" s="31"/>
@@ -17212,7 +17217,7 @@
         <v>241</v>
       </c>
       <c r="Y78" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="79" spans="1:25" ht="48">
@@ -17263,7 +17268,7 @@
         <v>243</v>
       </c>
       <c r="Y79" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="24">
@@ -17312,7 +17317,7 @@
         <v>245</v>
       </c>
       <c r="Y80" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="24">
@@ -17365,7 +17370,7 @@
         <v>248</v>
       </c>
       <c r="Y81" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="36">
@@ -17416,7 +17421,7 @@
         <v>250</v>
       </c>
       <c r="Y82" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="83" spans="1:25" ht="36">
@@ -17467,7 +17472,7 @@
         <v>252</v>
       </c>
       <c r="Y83" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="48">
@@ -17485,7 +17490,7 @@
       <c r="F84" s="65"/>
       <c r="G84" s="65"/>
       <c r="H84" s="32" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I84" s="32"/>
       <c r="J84" s="31"/>
@@ -17518,7 +17523,7 @@
         <v>254</v>
       </c>
       <c r="Y84" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="36">
@@ -17567,7 +17572,7 @@
         <v>257</v>
       </c>
       <c r="Y85" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="48">
@@ -17616,7 +17621,7 @@
         <v>259</v>
       </c>
       <c r="Y86" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -17663,7 +17668,7 @@
         <v>261</v>
       </c>
       <c r="Y87" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -17710,7 +17715,7 @@
         <v>263</v>
       </c>
       <c r="Y88" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="24">
@@ -17759,7 +17764,7 @@
         <v>265</v>
       </c>
       <c r="Y89" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -17806,7 +17811,7 @@
         <v>267</v>
       </c>
       <c r="Y90" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="120">
@@ -17820,17 +17825,17 @@
         <v>85</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E91" s="1">
         <v>20</v>
       </c>
       <c r="F91" s="65" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G91" s="65"/>
       <c r="H91" s="32" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I91" s="32"/>
       <c r="J91" s="28"/>
@@ -17863,7 +17868,7 @@
         <v>269</v>
       </c>
       <c r="Y91" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="36">
@@ -17912,7 +17917,7 @@
         <v>272</v>
       </c>
       <c r="Y92" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="24">
@@ -17961,7 +17966,7 @@
         <v>274</v>
       </c>
       <c r="Y93" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="94" spans="1:25" ht="48">
@@ -17979,7 +17984,7 @@
       <c r="F94" s="65"/>
       <c r="G94" s="65"/>
       <c r="H94" s="32" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="I94" s="32"/>
       <c r="J94" s="31"/>
@@ -18012,7 +18017,7 @@
         <v>276</v>
       </c>
       <c r="Y94" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="95" spans="1:25" ht="36">
@@ -18061,7 +18066,7 @@
         <v>279</v>
       </c>
       <c r="Y95" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="96" spans="1:25" ht="48">
@@ -18079,7 +18084,7 @@
       <c r="F96" s="65"/>
       <c r="G96" s="65"/>
       <c r="H96" s="32" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I96" s="32"/>
       <c r="J96" s="31"/>
@@ -18112,7 +18117,7 @@
         <v>281</v>
       </c>
       <c r="Y96" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -18161,7 +18166,7 @@
         <v>283</v>
       </c>
       <c r="Y97" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="48">
@@ -18179,7 +18184,7 @@
       <c r="F98" s="65"/>
       <c r="G98" s="65"/>
       <c r="H98" s="32" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I98" s="32"/>
       <c r="J98" s="31"/>
@@ -18212,7 +18217,7 @@
         <v>285</v>
       </c>
       <c r="Y98" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="36">
@@ -18261,7 +18266,7 @@
         <v>288</v>
       </c>
       <c r="Y99" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="24">
@@ -18287,7 +18292,7 @@
       <c r="L100" s="17"/>
       <c r="M100" s="17"/>
       <c r="N100" s="21" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="O100" s="59"/>
       <c r="P100" s="1" t="s">
@@ -18314,7 +18319,7 @@
         <v>291</v>
       </c>
       <c r="Y100" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="101" spans="1:25">
@@ -18363,7 +18368,7 @@
         <v>293</v>
       </c>
       <c r="Y101" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="102" spans="1:25">
@@ -18410,7 +18415,7 @@
         <v>296</v>
       </c>
       <c r="Y102" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="48">
@@ -18428,7 +18433,7 @@
       <c r="F103" s="65"/>
       <c r="G103" s="65"/>
       <c r="H103" s="32" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="I103" s="32"/>
       <c r="J103" s="31"/>
@@ -18461,7 +18466,7 @@
         <v>298</v>
       </c>
       <c r="Y103" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="36">
@@ -18510,7 +18515,7 @@
         <v>301</v>
       </c>
       <c r="Y104" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="105" spans="1:25" ht="48">
@@ -18528,7 +18533,7 @@
       <c r="F105" s="65"/>
       <c r="G105" s="65"/>
       <c r="H105" s="32" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I105" s="32"/>
       <c r="J105" s="31"/>
@@ -18561,7 +18566,7 @@
         <v>303</v>
       </c>
       <c r="Y105" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="106" spans="1:25" ht="36">
@@ -18610,7 +18615,7 @@
         <v>306</v>
       </c>
       <c r="Y106" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="24">
@@ -18659,7 +18664,7 @@
         <v>308</v>
       </c>
       <c r="Y107" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="36">
@@ -18677,7 +18682,7 @@
       <c r="F108" s="65"/>
       <c r="G108" s="65"/>
       <c r="H108" s="32" t="s">
-        <v>1259</v>
+        <v>1505</v>
       </c>
       <c r="I108" s="32"/>
       <c r="J108" s="31"/>
@@ -18696,7 +18701,7 @@
         <v>955</v>
       </c>
       <c r="S108" s="10">
-        <v>56000015</v>
+        <v>56000007</v>
       </c>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
@@ -18710,7 +18715,7 @@
         <v>310</v>
       </c>
       <c r="Y108" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="24">
@@ -18734,7 +18739,7 @@
       <c r="L109" s="17"/>
       <c r="M109" s="22"/>
       <c r="N109" s="21" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="O109" s="59"/>
       <c r="P109" s="1" t="s">
@@ -18763,7 +18768,7 @@
         <v>312</v>
       </c>
       <c r="Y109" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="110" spans="1:25" ht="48">
@@ -18781,7 +18786,7 @@
       <c r="F110" s="65"/>
       <c r="G110" s="65"/>
       <c r="H110" s="32" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I110" s="32"/>
       <c r="J110" s="31"/>
@@ -18814,7 +18819,7 @@
         <v>314</v>
       </c>
       <c r="Y110" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="24">
@@ -18863,7 +18868,7 @@
         <v>317</v>
       </c>
       <c r="Y111" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="24">
@@ -18912,7 +18917,7 @@
         <v>320</v>
       </c>
       <c r="Y112" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="113" spans="1:25" ht="24">
@@ -18961,7 +18966,7 @@
         <v>322</v>
       </c>
       <c r="Y113" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="114" spans="1:25" ht="36">
@@ -19010,7 +19015,7 @@
         <v>324</v>
       </c>
       <c r="Y114" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="115" spans="1:25" ht="24">
@@ -19061,7 +19066,7 @@
         <v>327</v>
       </c>
       <c r="Y115" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="116" spans="1:25" ht="36">
@@ -19112,7 +19117,7 @@
         <v>329</v>
       </c>
       <c r="Y116" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="117" spans="1:25" ht="24">
@@ -19161,7 +19166,7 @@
         <v>331</v>
       </c>
       <c r="Y117" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="118" spans="1:25" ht="48">
@@ -19179,7 +19184,7 @@
       <c r="F118" s="65"/>
       <c r="G118" s="65"/>
       <c r="H118" s="32" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I118" s="32"/>
       <c r="J118" s="31"/>
@@ -19212,7 +19217,7 @@
         <v>333</v>
       </c>
       <c r="Y118" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="119" spans="1:25" ht="48">
@@ -19230,7 +19235,7 @@
       <c r="F119" s="65"/>
       <c r="G119" s="65"/>
       <c r="H119" s="32" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I119" s="32"/>
       <c r="J119" s="31"/>
@@ -19263,7 +19268,7 @@
         <v>335</v>
       </c>
       <c r="Y119" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="120" spans="1:25" ht="36">
@@ -19318,7 +19323,7 @@
         <v>338</v>
       </c>
       <c r="Y120" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="121" spans="1:25" ht="36">
@@ -19367,7 +19372,7 @@
         <v>340</v>
       </c>
       <c r="Y121" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="122" spans="1:25" ht="24">
@@ -19418,7 +19423,7 @@
         <v>342</v>
       </c>
       <c r="Y122" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="123" spans="1:25" ht="48">
@@ -19436,7 +19441,7 @@
       <c r="F123" s="65"/>
       <c r="G123" s="65"/>
       <c r="H123" s="32" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I123" s="32"/>
       <c r="J123" s="31"/>
@@ -19467,7 +19472,7 @@
         <v>344</v>
       </c>
       <c r="Y123" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="124" spans="1:25" ht="24">
@@ -19487,7 +19492,7 @@
       <c r="H124" s="32"/>
       <c r="I124" s="32"/>
       <c r="J124" s="31" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="K124" s="18"/>
       <c r="L124" s="17"/>
@@ -19518,7 +19523,7 @@
         <v>346</v>
       </c>
       <c r="Y124" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="125" spans="1:25" ht="72">
@@ -19569,7 +19574,7 @@
         <v>348</v>
       </c>
       <c r="Y125" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="126" spans="1:25" ht="60">
@@ -19622,7 +19627,7 @@
         <v>351</v>
       </c>
       <c r="Y126" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="127" spans="1:25" ht="48">
@@ -19640,7 +19645,7 @@
       <c r="F127" s="65"/>
       <c r="G127" s="65"/>
       <c r="H127" s="32" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I127" s="32"/>
       <c r="J127" s="31"/>
@@ -19673,7 +19678,7 @@
         <v>353</v>
       </c>
       <c r="Y127" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="128" spans="1:25">
@@ -19720,7 +19725,7 @@
         <v>355</v>
       </c>
       <c r="Y128" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="129" spans="1:25" ht="36">
@@ -19771,7 +19776,7 @@
         <v>357</v>
       </c>
       <c r="Y129" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="130" spans="1:25" ht="36">
@@ -19822,7 +19827,7 @@
         <v>359</v>
       </c>
       <c r="Y130" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="131" spans="1:25" ht="36">
@@ -19875,7 +19880,7 @@
         <v>361</v>
       </c>
       <c r="Y131" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="132" spans="1:25" ht="36">
@@ -19928,7 +19933,7 @@
         <v>366</v>
       </c>
       <c r="Y132" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="133" spans="1:25" ht="24">
@@ -19979,7 +19984,7 @@
         <v>368</v>
       </c>
       <c r="Y133" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="134" spans="1:25" ht="36">
@@ -20032,7 +20037,7 @@
         <v>372</v>
       </c>
       <c r="Y134" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="135" spans="1:25" ht="24">
@@ -20081,7 +20086,7 @@
         <v>374</v>
       </c>
       <c r="Y135" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="136" spans="1:25" ht="24">
@@ -20134,7 +20139,7 @@
         <v>377</v>
       </c>
       <c r="Y136" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="137" spans="1:25" ht="84">
@@ -20148,13 +20153,13 @@
         <v>923</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E137" s="1">
         <v>15</v>
       </c>
       <c r="F137" s="65" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G137" s="65"/>
       <c r="H137" s="32"/>
@@ -20164,7 +20169,7 @@
       <c r="L137" s="17"/>
       <c r="M137" s="22"/>
       <c r="N137" s="21" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="O137" s="59"/>
       <c r="P137" s="1" t="s">
@@ -20191,7 +20196,7 @@
         <v>379</v>
       </c>
       <c r="Y137" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="138" spans="1:25" ht="24">
@@ -20214,7 +20219,7 @@
       <c r="K138" s="18"/>
       <c r="L138" s="17"/>
       <c r="M138" s="17" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="N138" s="21"/>
       <c r="O138" s="59"/>
@@ -20240,7 +20245,7 @@
         <v>381</v>
       </c>
       <c r="Y138" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="139" spans="1:25" ht="36">
@@ -20263,7 +20268,7 @@
       <c r="K139" s="18"/>
       <c r="L139" s="17"/>
       <c r="M139" s="17" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="N139" s="21"/>
       <c r="O139" s="59"/>
@@ -20289,7 +20294,7 @@
         <v>383</v>
       </c>
       <c r="Y139" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="140" spans="1:25" ht="36">
@@ -20340,7 +20345,7 @@
         <v>385</v>
       </c>
       <c r="Y140" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="141" spans="1:25" ht="48">
@@ -20389,7 +20394,7 @@
         <v>1125</v>
       </c>
       <c r="Y141" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="142" spans="1:25" ht="24">
@@ -20438,7 +20443,7 @@
         <v>387</v>
       </c>
       <c r="Y142" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="143" spans="1:25" ht="36">
@@ -20458,7 +20463,7 @@
       <c r="H143" s="32"/>
       <c r="I143" s="32"/>
       <c r="J143" s="31" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="K143" s="18"/>
       <c r="L143" s="17" t="s">
@@ -20491,7 +20496,7 @@
         <v>389</v>
       </c>
       <c r="Y143" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="144" spans="1:25" ht="36">
@@ -20542,7 +20547,7 @@
         <v>391</v>
       </c>
       <c r="Y144" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="145" spans="1:25" ht="48">
@@ -20595,7 +20600,7 @@
         <v>394</v>
       </c>
       <c r="Y145" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="146" spans="1:25" ht="60">
@@ -20646,7 +20651,7 @@
         <v>396</v>
       </c>
       <c r="Y146" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="147" spans="1:25" ht="24">
@@ -20697,7 +20702,7 @@
         <v>398</v>
       </c>
       <c r="Y147" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="148" spans="1:25" ht="48">
@@ -20715,7 +20720,7 @@
       <c r="F148" s="65"/>
       <c r="G148" s="65"/>
       <c r="H148" s="32" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I148" s="32"/>
       <c r="J148" s="31"/>
@@ -20748,7 +20753,7 @@
         <v>400</v>
       </c>
       <c r="Y148" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="149" spans="1:25" ht="60">
@@ -20797,7 +20802,7 @@
         <v>402</v>
       </c>
       <c r="Y149" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="150" spans="1:25" ht="60">
@@ -20846,7 +20851,7 @@
         <v>404</v>
       </c>
       <c r="Y150" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="151" spans="1:25" ht="24">
@@ -20895,7 +20900,7 @@
         <v>406</v>
       </c>
       <c r="Y151" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="152" spans="1:25" ht="36">
@@ -20913,7 +20918,7 @@
       <c r="F152" s="65"/>
       <c r="G152" s="65"/>
       <c r="H152" s="32" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I152" s="32"/>
       <c r="J152" s="31"/>
@@ -20946,7 +20951,7 @@
         <v>408</v>
       </c>
       <c r="Y152" s="52" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="153" spans="1:25">
@@ -20993,7 +20998,7 @@
         <v>410</v>
       </c>
       <c r="Y153" s="